--- a/Pipeline/PubMed_Data.xlsx
+++ b/Pipeline/PubMed_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,8398 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>25024623</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Outcomes of autologous bone marrow mononuclear cell transplantation in decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>To determine the long-term efficacy of autologous bone marrow mononuclear cells (BM-MNCs) transplantation in terms of improving liver function and reducing complications in patients with decompensated cirrhosis. A total of 47 inpatients with decompensated liver cirrhosis were enrolled in this trial, including 32 patients undergoing a single BM-MNCs transplantation plus routine medical treatment, and 15 patients receiving medical treatment only as controls. Forty-three of 47 patients were infected with hepatitis B virus. Bone marrow of 80-100 mL was obtained from each patient and the BM-MNCs suspension was transfused into the liver via the hepatic artery. The efficacy of BM-MNCs transplantation was monitored during a 24-mo follow-up period. Liver function parameters in the two groups were observed at 1 mo after BM-MNCs transfusion. Prealbumin level was 118.3 ± 25.3 mg/L vs 101.4 ± 28.7 mg/L (P = 0.047); albumin level was 33.5 ± 3.6 g/L vs 30.3 ± 2.2 g/L (P = 0.002); total bilirubin 36.9 ± 9.7 mmol/L vs 45.6 ± 19.9 mmol/L (P = 0.048); prothrombin time 14.4 ± 2.3 s vs 15.9 ± 2.8 s (P = 0.046); prothrombin activity 84.3% ± 14.3% vs 74.4% ± 17.8% (P = 0.046); fibrinogen 2.28 ± 0.53 g/L vs 1.89 ± 0.44 g/L (P = 0.017); and platelet count 74.5 ± 15.7 × 10(9)/L vs 63.3 ± 15.7 × 10(9)/L (P = 0.027) in the treatment group and control group, respectively. Differences were statistically significant. The efficacy of BM-MNCs transplantation lasted 3-12 mo as compared with the control group. Serious complications such as hepatic encephalopathy and spontaneous bacterial peritonitis were also significantly reduced in BM-MNCs transfused patients compared with the controls. However, these improvements disappeared 24 mo after transplantation. BM-MNCs transplantation is safe and effective in patients with decompensated cirrhosis. It also decreases the incidence of serious complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21900788</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clinical and laboratory evaluation of patients with end-stage liver cell failure injected with bone marrow-derived hepatocyte-like cells.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>One of the defining features of the liver is the capacity to maintain a constant size despite injury. Extrahepatic stem cells especially bone marrow-derived stem cells are thought to undertake an important role in liver repopulation. This study was carried out to evaluate the outcome of autologous bone marrow-derived hepatocytes transplantation in patients with end-stage liver cell failure due to chronic hepatitis C. Forty patients were included, divided into two groups. Group I: 20 patients receiving autologous bone marrow-derived mesenchymal stem cells stimulated to hepatic lineage. They were subdivided into two groups regarding the route of transplantation: intrasplenic (10) and intrahepatic (10). Group II: included 20 patients who received traditional supportive treatment. Patients were followed up using examination, laboratory investigations, abdominal ultrasonography, and evaluated by Child score, Model for End Stage Liver Disease score, fatigue scale, and performance status. The results showed significant improvement in group I regarding ascites, lower limb edema, and serum albumin, over the control group. Group I also showed statistically significant improvement in Child score, Model for End Stage Liver Disease score, fatigue scale, and performance status over the controls. No difference was observed between intrahepatic and intrasplenic groups. This study demonstrated the safety and short-term efficacy of autologous bone marrow-derived mesenchymal stem cell injection in liver cell failure. Further study is necessary to standardize the cell dose, determine the life span of the injected cells, and detect the appearance of long-term complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21608000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Autologous bone marrow mesenchymal stem cell transplantation in liver failure patients caused by hepatitis B: short-term and long-term outcomes.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Our study aimed to investigate the short-term efficacy and long-term prognosis of liver failure patients caused by hepatitis B after a single transplantation with autologous marrow mesenchymal stem cells (MMSCs). A total of 527 inpatients with liver failure caused by hepatitis B were recruited and received the same medical treatments, among whom 53 patients underwent a single transplantation with autologous MMSCs. A total of 105 patients matched for age, sex, and biochemical indexes, including alanine aminotransferase (ALT), albumin, total bilirubin (TBIL), prothrombin time (PT), and Model for End-Stage Liver Disease (MELD), comprised the control group. A total of 120 mL of bone marrow was obtained from each patient and then diluted and separated. Then, the MMSC suspension was slowly transfused into the liver through the proper hepatic artery. The success rate of transplantation was 100%, without serious side effects or complications. Levels of ALB, TBIL, and PT and MELD score of patients in the transplantation group were markedly improved from 2-3 weeks after transplantation, compared with those in the control group. At 192 weeks of follow-up, there were no dramatic differences in incidence of hepatocellular carcinoma (HCC) or mortality between the two groups. Additionally, there were no significant differences in the incidence of HCC or mortality between patients with and without cirrhosis in the transplantation group. Autologous MMSC transplantation is safe for liver failure patients caused by chronic hepatitis B. Short-term efficacy was favorable, but long-term outcomes were not markedly improved. In respect to several parameters, this method is preferable for patients with liver cirrhosis and may have potential for reducing their incidence of HCC and mortality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>36823236</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells in hepatic fibrosis/cirrhosis: from pathogenesis to treatment.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis/cirrhosis is a significant health burden worldwide, resulting in liver failure or hepatocellular carcinoma (HCC) and accounting for many deaths each year. The pathogenesis of hepatic fibrosis/cirrhosis is very complex, which makes treatment challenging. Endogenous mesenchymal stromal cells (MSCs) have been shown to play pivotal roles in the pathogenesis of hepatic fibrosis. Paradoxically, exogenous MSCs have also been used in clinical trials for liver cirrhosis, and their effectiveness has been observed in most completed clinical trials. There are still many issues to be resolved to promote the use of MSCs in the clinic in the future. In this review, we will examine the controversial role of MSCs in the pathogenesis and treatment of hepatic fibrosis/cirrhosis. We also investigated the clinical trials involving MSCs in liver cirrhosis, summarized the parameters that need to be standardized, and discussed how to promote the use of MSCs from a clinical perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>35841079</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells: promising treatment for liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a wound-healing process that occurs in response to severe injuries and is hallmarked by the excessive accumulation of extracellular matrix or scar tissues within the liver. Liver fibrosis can be either acute or chronic and is induced by a variety of hepatotoxic causes, including lipid deposition, drugs, viruses, and autoimmune reactions. In advanced fibrosis, liver cirrhosis develops, a condition for which there is no successful therapy other than liver transplantation. Although liver transplantation is still a viable option, numerous limitations limit its application, including a lack of donor organs, immune rejection, and postoperative complications. As a result, there is an immediate need for a different kind of therapeutic approach. Recent research has shown that the administration of mesenchymal stromal cells (MSCs) is an attractive treatment modality for repairing liver injury and enhancing liver regeneration. This is accomplished through the cell migration into liver sites, immunoregulation, hepatogenic differentiation, as well as paracrine mechanisms. MSCs can also release a huge variety of molecules into the extracellular environment. These molecules, which include extracellular vesicles, lipids, free nucleic acids, and soluble proteins, exert crucial roles in repairing damaged tissue. In this review, we summarize the characteristics of MSCs, representative clinical study data, and the potential mechanisms of MSCs-based strategies for attenuating liver cirrhosis. Additionally, we examine the processes that are involved in the MSCs-dependent modulation of the immune milieu in liver cirrhosis. As a result, our findings lend credence to the concept of developing a cell therapy treatment for liver cirrhosis that is premised on MSCs. MSCs can be used as a candidate therapeutic agent to lengthen the survival duration of patients with liver cirrhosis or possibly reverse the condition in the near future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>35309311</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cell-Derived Extracellular Vesicles in Liver Immunity and Therapy.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs), as the most common cell source for stem cell therapy, play an important role in the modulation of innate and adaptive immune responses and have been widely used in clinical trials to treat autoimmune and inflammatory diseases. Recent experimental and clinical studies have shown that MSC-derived extracellular vesicles (MSC-EVs) can inhibit the activation and proliferation of a variety of proinflammatory cells, such as Th1, Th17 and M1 macrophages, reducing the secretion of proinflammatory cytokines, while promoting the proliferation of anti-inflammatory cells, such as M2 macrophages and Tregs, and increasing the secretion of anti-inflammatory cytokines, thus playing a role in immune regulation and exhibiting immunomodulatory functions. Besides MSC-EVs are more convenient and less immunogenic than MSCs. There is growing interest in the role of MSC-EVs in liver diseases owing to the intrinsic liver tropism of MSC-EVs. In this review, we focus on the immunomodulatory effects of MSC-EVs and summarize the pivotal roles of MSC-EVs as a cell-free therapy in liver diseases, including NAFLD, AIH, acute liver failure, liver fibrosis and hepatic ischemia-reperfusion injury. Moreover, we provide a concise overview of the potential use and limits of MSC-EVs in clinical application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>32071558</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells promote liver regeneration through regulation of immune cells.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The liver is sensitive to pathogen-induced acute or chronic liver injury, and liver transplantation (LT) is the only effective strategy for end-stage liver diseases. However, the clinical application is limited by a shortage of liver organs, immunological rejection and high cost. Mesenchymal stromal cell (MSC)-based therapy has gradually become a hot topic for promoting liver regeneration and repairing liver injury in various liver diseases, since MSCs are reported to migrate toward injured tissues, undergo hepatogenic differentiation, inhibit inflammatory factor release and enhance the proliferation of liver cells &lt;i&gt;in vivo&lt;/i&gt;. MSCs exert immunoregulatory effects through cell-cell contact and the secretion of anti-inflammatory factors to inhibit liver inflammation and promote liver regeneration. In addition, MSCs are reported to effectively inhibit the activation of cells of the innate immune system, including macrophages, natural killer (NK) cells, dendritic cells (DCs), monocytes and other immune cells, and inhibit the activation of cells of the adaptive immune system, including T lymphocytes, B lymphocytes and subsets of T cells or B cells. In the current review, we mainly focus on the potential effects and mechanisms of MSCs in inhibiting the activation of immune cells to attenuate liver injury in models or patients with acute liver failure (ALF), nonalcoholic fatty liver disease (NAFLD), and liver fibrosis and in patients or models after LT. We highlight that MSC transplantation may replace general therapies for eliminating acute or chronic liver injury in the near future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28620221</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived exosomes as a new therapeutic strategy for liver diseases.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The administration of mesenchymal stem cells (MSCs) as a therapy for liver disease holds great promise. MSCs can differentiate into hepatocytes, reduce liver inflammation, promote hepatic regeneration and secrete protective cytokines. However, the risks of iatrogenic tumor formation, cellular rejection and infusional toxicity in MSC transplantation remain unresolved. Accumulating evidence now suggests that a novel cell-free therapy, MSC-secreted exosomes, might constitute a compelling alternative because of their advantages over the corresponding MSCs. They are smaller and less complex than their parent cells and, thus, easier to produce and store, they are devoid of viable cells, and they present no risk of tumor formation. Moreover, they are less immunogenic than their parent cells because of their lower content in membrane-bound proteins. This paper reviews the biogenesis of MSC exosomes and their physiological functions, and highlights the specific biochemical potential of MSC-derived exosomes in restoring tissue homeostasis. In addition, we summarize the recent advances in the role of exosomes in MSC therapy for various liver diseases, including liver fibrosis, acute liver injury and hepatocellular carcinoma. This paper also discusses the potential challenges and strategies in the use of exosome-based therapies for liver disease in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>34843069</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapy in decompensated liver cirrhosis: a long-term follow-up analysis of the randomized controlled clinical trial.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) infusion was reported to improve liver function in patients with decompensated liver cirrhosis (DLC); however, whether the medication can improve outcome of these patients is poorly understood. This prospective, open-labeled, randomized controlled study enrolled 219 patients with HBV-related DLC who were divided into control group (n = 111) and umbilical cord-derived MSC (UC-MSC)-treated group (n = 108), then all of them received a follow-up check from October 2010 to October 2017. The treated patients received three times of UC-MSC infusions at 4-week intervals plus conventional treatment that was only used for control group. The overall survival rate and HCC-free survival rate were calculated as primary endpoints and the liver function and adverse events associated with the medication were also evaluated. During the follow-up check period from 13 to 75th months, there was a significantly higher overall survival rate in the treated group than the control group, while the difference of the hepatocellular carcinoma event-free survival rate between the treated and control groups was not observed during the 75-month follow-up. UC-MSC treatment markedly improved liver function, as indicated by the levels of serum albumin, prothrombin activity, cholinesterase, and total bilirubin during 48 weeks of follow-up. No significant side effects or treatment-related complications were observed in the UC-MSC group. Therapy of UC-MSC is not only well tolerated, but also significantly improves long-term survival rate, as well as the liver function in patients with HBV-related DLC. UC-MSC medication, therefore, might present a novel therapeutic approach for the disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37328872</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived exosomal miR-27b-3p alleviates liver fibrosis via downregulating YAP/LOXL2 pathway.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lysyl oxidase-like 2 (LOXL2) is an extracellular copper-dependent enzyme that plays a central role in fibrosis by catalyzing the crosslinking and deposition of collagen. Therapeutic LOXL2 inhibition has been shown to suppress liver fibrosis progression and promote its reversal. This study investigates the efficacy and underlying mechanisms of human umbilical cord-derived exosomes (MSC-ex) in LOXL2 inhibition of liver fibrosis. MSC-ex, nonselective LOX inhibitor β-aminopropionitrile (BAPN), or PBS were administered into carbon tetrachloride (CCl4)-induced fibrotic livers. Serum LOXL2 and collagen crosslinking were assessed histologically and biochemically. MSC-ex's mechanisms on LOXL2 regulation were investigated in human hepatic stellate cell line LX-2. We found that systemic administration of MSC-ex significantly reduced LOXL2 expression and collagen crosslinking, delaying the progression of CCl4-induced liver fibrosis. Mechanically, RNA-sequencing and fluorescence in situ hybridization (FISH) indicated that miR-27b-3p was enriched in MSC-ex and exosomal miR-27b-3p repressed Yes-associated protein (YAP) expression by targeting its 3' untranslated region in LX-2. LOXL2 was identified as a novel downstream target gene of YAP, and YAP bound to the LOXL2 promoter to positively regulate transcription. Additionally, the miR-27b-3p inhibitor abrogated the anti-LOXL2 abilities of MSC-ex and diminished the antifibrotic efficacy. miR-27b-3p overexpression promoted MSC-ex mediated YAP/LOXL2 inhibition. Thus, MSC-ex may suppress LOXL2 expression through exosomal miR-27b-3p mediated YAP down-regulation. The findings here may improve our understanding of MSC-ex in liver fibrosis alleviation and provide new opportunities for clinical treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>35858897</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived exosomes protect against liver fibrosis via delivering miR-148a to target KLF6/STAT3 pathway in macrophages.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Despite emerging evidence on the therapeutic potential of mesenchymal stem cells (MSCs) for liver fibrosis, the underlying mechanisms remain unclear. At present, MSC-derived exosomes (MSC-EXOs) are widely accepted as crucial messengers for intercellular communication. This study aimed to explore the therapeutic effects of MSC-EXOs on liver fibrosis and identify the mechanisms underlying the action of MSC-EXOs. Carbon tetrachloride was used to induce a liver fibrosis model, which was intravenously administered with MSCs or MSC-EXOs to assess treatment efficacy. The resulting histopathology, fibrosis degree, inflammation and macrophage polarization were analyzed. RAW264.7 and BMDM cells were used to explore the regulatory effects of MSC-EXOs on macrophage polarization. Then, the critical miRNA mediating the therapeutic effects of MSC-EXOs was screened via RNA sequencing and validated experimentally. Furthermore, the target mRNA and downstream signaling pathways were elucidated by luciferase reporter assay, bioinformatics analysis and western blot. MSCs alleviated liver fibrosis largely depended on their secreted exosomes, which were visualized to circulate into liver after transplantation. In addition, MSC-EXOs were found to modulate macrophage phenotype to regulate inflammatory microenvironment in liver and repair the injury. Mechanically, RNA-sequencing illustrates that miR-148a, enriched in the MSC-EXOs, targets Kruppel-like factor 6 (KLF6) to suppress pro-inflammatory macrophages and promote anti-inflammatory macrophages by inhibiting the STAT3 pathway. Administration of miR-148a-enriched MSC-EXOs or miR-148a agomir shows potent ameliorative effects on liver fibrosis. These findings suggest that MSC-EXOs protect against liver fibrosis via delivering miR-148a that regulates intrahepatic macrophage functions through KLF6/STAT3 signaling and provide a potential therapeutic target for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>36183106</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Huc-MSC-derived exosomes modified with the targeting peptide of aHSCs for liver fibrosis therapy.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Effective therapeutics to stop or reverse liver fibrosis have not emerged, because these potential agents cannot specifically target activated hepatic stellate cells (aHSCs) or are frequently toxic to parenchymal cells. Human umbilical cord mesenchymal stem cell (Huc-MSC)-derived exosomes show promise in nanomedicine for the treatment of liver fibrosis. However, systemic injection showed that unmodified exosomes were mainly taken up by the mononuclear phagocyte system. The discovery of ligands that selectively bind to a specific target plays a crucial role in clinically relevant diagnostics and therapeutics. Herein, we aimed to identify the targeting peptide of aHSCs by screening a phage-displayed peptide library, and modify Huc-MSC-derived exosomes with the targeting peptide. In this study, we screened a phage-displayed peptide library by biopanning for peptides preferentially bound to HSC-T6 cells. The identified peptide, HSTP1, also exhibited better targeting ability to aHSCs in pathological sections of fibrotic liver tissues. Then, HSTP1 was fused with exosomal enriched membrane protein (Lamp2b) and was displayed on the surface of exosomes through genetic engineering technology. The engineered exosomes (HSTP1-Exos) could be more efficiently internalized by HSC-T6 cells and outperformed both unmodified exosomes (Blank-Exos) and Lamp2b protein overexpressed exosomes (Lamp2b + Exos) in enhancing the ability of exosomes to promote HSC-T6 reversion to a quiescent phenotype. In vivo results showed HSTP1-Exos could specifically target to the aHSC region after intravenous administration, as demonstrated by coimmunofluorescence with the typical aHSCs marker α-SMA, and enhance the therapeutic effect on liver fibrosis. These results suggest that HSTP1 is a reliable targeting peptide that can specifically bind to aHSCs and that HSTP1-modified exosomes realize the precise treatment for aHSCs in complex liver tissue. We provide a novel strategy for clinical liver fibrosis therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>36698192</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Exosomes derived from human adipose mesenchymal stem cells ameliorate hepatic fibrosis by inhibiting PI3K/Akt/mTOR pathway and remodeling choline metabolism.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a chronic liver disease with the presence of progressive wound healing response caused by liver injury. Currently, there are no approved therapies for liver fibrosis. Exosomes derived from human adipose mesenchymal stem cells (hADMSCs-Exo) have displayed a prominent therapeutic effect on liver diseases. However, few studies have evaluated therapeutic effect of hADMSCs-Exo in liver fibrosis and cirrhosis, and its precise mechanisms of action remain unclear. Herein, we investigated anti-fibrotic efficacy of hADMSCs-Exo in vitro and in vivo, and identified important metabolic changes and the detailed mechanism through transcriptomic and metabolomic profiling. We found hADMSCs-Exo could inhibit the proliferation of activated hepatic stellate cells through aggravating apoptosis and arresting G1 phase, effectively inhibiting the expression of profibrogenic proteins and epithelial-to-mesenchymal transition (EMT) in vitro. Moreover, it could significantly block collagen deposition and EMT process, improve liver function and reduce liver inflammation in liver cirrhosis mice model. The omics analysis revealed that the key mechanism of hADMSCs-Exo anti-hepatic fibrosis was the inhibition of PI3K/AKT/mTOR signaling pathway and affecting the changes of metabolites in lipid metabolism, and mainly regulating choline metabolism. CHPT1 activated by hADMSCs-Exo facilitated formation and maintenance of vesicular membranes. Thus, our study indicates that hADMSCs-Exo can attenuate hepatic stellate cell activation and suppress the progression of liver fibrosis, which holds the significant potential of hADMSCs-Exo for use as extracellular nanovesicles-based therapeutics in the treatment of liver fibrosis and possibly other intractable chronic liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>35395830</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HucMSC-derived exosomes delivered BECN1 induces ferroptosis of hepatic stellate cells via regulating the xCT/GPX4 axis.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Activated hepatic stellate cells (HSCs) are significant in liver fibrosis. Our past investigations have shown that human umbilical cord mesenchymal stem cells (hucMSCs) and their secreted exosomes (MSC-ex) could alleviate liver fibrosis via restraining HSCs activation. However, the mechanisms underlying the efficacy were not clear. Ferroptosis is a regulatory cell death caused by excessive lipid peroxidation, and it plays a vital role in the occurrence and development of liver fibrosis. In the present study, we aimed to study the proferroptosis effect and mechanism of MSC-ex in HSCs. MSC-ex were collected and purified from human umbilical cord MSCs. Proferroptosis effect of MSC-ex was examined in HSCs line LX-2 and CCl4 induced liver fibrosis in mice. Gene knockdown or overexpression approaches were used to investigate the biofactors in MSC-ex-mediated ferroptosis regulation. Results: MSC-ex could trigger HSCs ferroptosis by promoting ferroptosis-like cell death, ROS formation, mitochondrial dysfunction, Fe&lt;sup&gt;2&lt;/sup&gt;&lt;sup&gt;+&lt;/sup&gt; release, and lipid peroxidation in human HSCs line LX-2. Glutathione peroxidase 4 (GPX4) is a crucial regulator of ferroptosis. We found that intravenous injection of MSC-ex significantly decreased glutathione peroxidase 4 (GPX4) expression in activated HSCs and collagen deposition in experimental mouse fibrotic livers. Mechanistically, MSC-ex derived BECN1 promoted HSCs ferroptosis by suppressing xCT-driven GPX4 expression. In addition, ferritinophagy and necroptosis might also play a role in MSC-ex-promoted LX-2 cell death. Knockdown of BECN1 in MSC diminished proferroptosis and anti-fibrosis effects of MSC-ex in LX-2 and fibrotic livers. MSC-ex may promote xCT/GPX4 mediated HSCs ferroptosis through the delivery of BECN1 and highlights BECN1 as a potential biofactor for alleviating liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>35278227</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Portal fibroblasts with mesenchymal stem cell features form a reservoir of proliferative myofibroblasts in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>In liver fibrosis, myofibroblasts derive from HSCs and as yet undefined mesenchymal cells. We aimed to identify portal mesenchymal progenitors of myofibroblasts. Portal mesenchymal cells were isolated from mouse bilio-vascular tree and analyzed by single-cell RNA-sequencing. Thereby, we uncovered the landscape of portal mesenchymal cells in homeostatic mouse liver. Trajectory analysis enabled inferring a small cell population further defined by surface markers used to isolate it. This population consisted of portal fibroblasts with mesenchymal stem cell features (PMSCs), i.e., high clonogenicity and trilineage differentiation potential, that generated proliferative myofibroblasts, contrasting with nonproliferative HSC-derived myofibroblasts (-MF). Using bulk RNA-sequencing, we built oligogene signatures of the two cell populations that remained discriminant across myofibroblastic differentiation. SLIT2, a prototypical gene of PMSC/PMSC-MF signature, mediated profibrotic and angiogenic effects of these cells, which conditioned medium promoted HSC survival and endothelial cell tubulogenesis. Using PMSC/PMSC-MF 7-gene signature and slit guidance ligand 2 fluorescent in situ hybridization, we showed that PMSCs display a perivascular portal distribution in homeostatic liver and largely expand with fibrosis progression, contributing to the myofibroblast populations that form fibrotic septa, preferentially along neovessels, in murine and human liver disorders, irrespective of etiology. We also unraveled a 6-gene expression signature of HSCs/HSC-MFs that did not vary in these disorders, consistent with their low proliferation rate. PMSCs form a small reservoir of expansive myofibroblasts, which, in interaction with neovessels and HSC-MFs that mainly arise through differentiation from a preexisting pool, underlie the formation of fibrotic septa in all types of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>35099348</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-originated exosomal circDIDO1 suppresses hepatic stellate cell activation by miR-141-3p/PTEN/AKT pathway in human liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a common pathologic stage of the development of liver failure. It has showed that exosomes loaded with therapeutic circRNAs can be manufactured in bulk by exosome secreted cells &lt;i&gt;in vitro&lt;/i&gt;, thus enabling personalized treatment. This study aimed to investigate the role of exosome-based delivery of circDIDO1 in liver fibrosis. Levels of genes and proteins were examined by qRT-PCR and Western blot. Cell proliferation, apoptosis, and cell cycle were analyzed by using cell counting kit-8 (CCK-8) assay, EdU assay, and flow cytometry, respectively. The binding between circDIDO1 and miR-141-3p was confirmed by dual-luciferase reporter, RNA pull-down and RIP assays. Exosomes were isolated by ultracentrifugation, and qualified by transmission electron microscopy (TEM), nanoparticle tracking analysis (NTA) and Western blot. CircDIDO1 overexpression or miR-141-3p inhibition suppressed the proliferation, reduced pro-fibrotic markers, and induced apoptosis as well as cell cycle arrest in hepatic stellate cells (HSCs) by blocking PTEN/AKT pathway. Mechanistically, circDIDO1 acted as an endogenous sponge for miR-141-3p, further rescue experiments showed that circDIDO1 suppressed HSC activation by targeting miR-141-3p. Extracellular circDIDO1 could be incorporated into exosomes isolated from mesenchymal stem cells (MSCs), and transmitted to HSCs to restrain HSC activation. Clinically, low levels of serum circDIDO1 in exosome were correlated with liver failure, and serum exosomal circDIDO1 had a well diagnostic value for liver fibrosis in liver failure patients. Transfer of circDIDO1 mediated by MSC-isolated exosomes suppressed HSC activation through the miR-141-3p/PTEN/AKT pathway, gaining a new insight into the prevention of liver fibrosis in liver failure patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>36685534</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Immunomodulatory role of mesenchymal stem cell therapy in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a fibrogenic and inflammatory process that results from hepatocyte injury and is characterized by hepatic architectural distortion and resultant loss of liver function. There is no effective treatment for advanced fibrosis other than liver transplantation, but it is limited by expensive costs, immune rejection, and postoperative complications. With the development of regenerative medicine in recent years, mesenchymal stem cell (MSCs) transplantation has become the most promising treatment for liver fibrosis. The underlying mechanisms of MSC anti-fibrotic effects include hepatocyte differentiation, paracrine, and immunomodulation, with immunomodulation playing a central role. This review discusses the immune cells involved in liver fibrosis, the immunomodulatory properties of MSCs, and the immunomodulation mechanisms of MSC-based strategies to attenuate liver fibrosis. Meanwhile, we discuss the current challenges and future directions as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>37918086</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Human umbilical cord mesenchymal stem cells inhibit liver fibrosis via the microRNA-148a-5p/SLIT3 axis.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Human umbilical cord-derived mesenchymal stem cells (hUC-MSCs) have garnered considerable attention as prospective modalities of treatment for liver fibrosis (LF). The inhibition of hepatic stellate cell (HSC) activation underlies the anti-fibrotic effects of hUC-MSCs. However, the precise mechanism by which hUC-MSCs impede HSC activation remains unclarified. We aimed to elucidate the intrinsic mechanisms underlying the therapeutic effects of hUC-MSCs in LF patients. Mice with liver cirrhosis induced by carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) were used as experimental models and administered hUC-MSCs via tail-vein injection. The alterations in inflammation and fibrosis were evaluated through histopathological examinations. RNA sequencing (RNA-seq) and bioinformatics analysis were then conducted to investigate the therapeutic mechanism of hUC-MSCs. Finally, an in-vitro experiment involving the co-cultivation of hUC-MSCs or hUC-MSC-derived exosomes (MSC-Exos) with LX2 cells was performed to validate the potential mechanism underlying the hepatoprotective effects of hUC-MSCs in LF patients. hUC-MSC therapy significantly improved liver function and alleviated LF in CCl&lt;sub&gt;4&lt;/sub&gt;-induced mice. High-throughput RNA-Seq analysis identified 1142 differentially expressed genes that were potentially involved in mediating the therapeutic effects of hUC-MSCs. These genes play an important role in regulating the extracellular matrix. miRNA expression data (GSE151098) indicated that the miR-148a-5p level was downregulated in LF samples, but restored following hUC-MSC treatment. miR-148a-5p was delivered to LX2 cells by hUC-MSCs via the exosome pathway, and the upregulated expression of miR-148a-5p significantly suppressed the expression of the activated phenotype of LX2 cells. SLIT3 was identified within the pool of potential target genes regulated by miR-148a-5p. Furthermore, hUC-MSC administration upregulated the expression of miR-148a-5p, which played a crucial role in suppressing the expression of SLIT3, thereby palliating fibrosis. hUC-MSCs inhibit the activation of HSCs through the miR-148a-5p/SLIT3 pathway and are thus capable of alleviating LF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>29425678</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cell therapy for liver diseases.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The therapeutic potential of mesenchymal stromal cells (MSCs) in the treatment of liver fibrosis is predominantly based on their immunosuppressive properties, and their ability to secrete various trophic factors. This potential has been investigated in clinical and preclinical studies. Although the therapeutic mechanisms of MSC transplantation are still not fully characterised, accumulating evidence has revealed that various trophic factors secreted by MSCs play key therapeutic roles in regeneration by alleviating inflammation, apoptosis, and fibrosis as well as stimulating angiogenesis and tissue regeneration in damaged liver. In this review, we summarise the safety, efficacy, potential transplantation routes and therapeutic effects of MSCs in patients with liver fibrosis. We also discuss some of the key strategies to enhance the functionality of MSCs, which include sorting and/or priming with factors such as cytokines, as well as genetic engineering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>35896695</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells in fibrotic diseases-the two sides of the same coin.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fibrosis is caused by extensive deposition of extracellular matrix (ECM) components, which play a crucial role in injury repair. Fibrosis attributes to ~45% of all deaths worldwide. The molecular pathology of different fibrotic diseases varies, and a number of bioactive factors are involved in the pathogenic process. Mesenchymal stem cells (MSCs) are a type of multipotent stem cells that have promising therapeutic effects in the treatment of different diseases. Current updates of fibrotic pathogenesis reveal that residential MSCs may differentiate into myofibroblasts which lead to the fibrosis development. However, preclinical and clinical trials with autologous or allogeneic MSCs infusion demonstrate that MSCs can relieve the fibrotic diseases by modulating inflammation, regenerating damaged tissues, remodeling the ECMs, and modulating the death of stressed cells after implantation. A variety of animal models were developed to study the mechanisms behind different fibrotic tissues and test the preclinical efficacy of MSC therapy in these diseases. Furthermore, MSCs have been used for treating liver cirrhosis and pulmonary fibrosis patients in several clinical trials, leading to satisfactory clinical efficacy without severe adverse events. This review discusses the two opposite roles of residential MSCs and external MSCs in fibrotic diseases, and summarizes the current perspective of therapeutic mechanism of MSCs in fibrosis, through both laboratory study and clinical trials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>29104502</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cell-Dependent Modulation of Liver Diseases.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Acute liver failure and cirrhosis display sequential and overlapping severe pathogenic processes that include inflammation, hepatocyte necrosis, and fibrosis, carrying a high mortality rate. Mesenchymal stem cells (MSCs) are a heterogeneous subset of stromal stem cells with immunonodulatory characteristics. MSCs are considered to act through multiple mechanisms to coordinate a dynamic, integrated response to liver inflammation and fibrosis, which prevents the progressive distortion of hepatic architecture. Accordingly, MSCs as well as their products have been investigated as a novel therapeutic approach for the treatment of inflammatory and fibrotic liver diseases. In this review, we highlight the current findings on the MSC-based modulation of liver inflammation and fibrosis, and the possible use of MSCs in the therapy of immune-mediated liver pathology. We briefly describe the cellular and molecular mechanisms involved in MSC-dependent modulation of cytokine production, phenotype and function of liver infiltrated inflammatory cells and compare effects of engrafted MSCs versus MSC-generated conditioned medium (MSC-CM) in the therapy of acute liver injury. In order to elucidate therapeutic potential of MSCs and their products in modulation of chronic liver inflammation and fibrosis, we present the current findings regarding pathogenic role of immune cells in liver fibrosis and describe mechanisms involved in MSC-dependent modulation of chronic liver inflammation with the brief overview of on-going and already published clinical trials that used MSCs for the treatment of immune mediated chronic liver diseases. The accumulating evidence shows that MSCs had a significant beneficial effect in the treatment of immune-mediated liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>35505419</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell homing to improve therapeutic efficacy in liver disease.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) transplantation, as an alternative strategy to orthotopic liver transplantation, has been evaluated for treating end-stage liver disease. Although the therapeutic mechanism of MSC transplantation remains unclear, accumulating evidence has demonstrated that MSCs can regenerate tissues and self-renew to repair the liver through differentiation into hepatocyte-like cells, immune regulation, and anti-fibrotic mechanisms. Multiple clinical trials have confirmed that MSC transplantation restores liver function and alleviates liver damage. A sufficient number of MSCs must be home to the target tissues after administration for successful application. However, inefficient homing of MSCs after systemic administration is a major limitation in MSC therapy. Here, we review the mechanisms and clinical application status of MSCs in the treatment of liver disease and comprehensively summarize the molecular mechanisms of MSC homing, and various strategies for promoting MSC homing to improve the treatment of liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>37539053</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Immune microenvironment changes of liver cirrhosis: emerging role of mesenchymal stromal cells.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a progressive and diffuse liver disease characterized by liver tissue fibrosis and impaired liver function. This condition is brought about by several factors, including chronic hepatitis, hepatic steatosis, alcohol abuse, and other immunological injuries. The pathogenesis of liver cirrhosis is a complex process that involves the interaction of various immune cells and cytokines, which work together to create the hepatic homeostasis imbalance in the liver. Some studies have indicated that alterations in the immune microenvironment of liver cirrhosis are closely linked to the development and prognosis of the disease. The noteworthy function of mesenchymal stem cells and their paracrine secretion lies in their ability to promote the production of cytokines, which in turn enhance the self-repairing capabilities of tissues. The objective of this review is to provide a summary of the alterations in liver homeostasis and to discuss intercellular communication within the organ. Recent research on MSCs is yielding a blueprint for cell typing and biomarker immunoregulation. Hopefully, as MSCs researches continue to progress, novel therapeutic approaches will emerge to address cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>34882906</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The role of mesenchymal stem cells in liver injury.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Recently, mesenchymal stem cell (MSC) therapy has been suggested as an effective alternative approach for the treatment of hepatic diseases. MSCs have potential therapeutic value, because they have high self-renewal ability, are capable of multipotent differentiation, and have low immunogenicity. Furthermore, MSCs have the potential to differentiate into hepatocytes, and the therapeutic value exists in their immune-modulatory properties and secretion of trophic factors, such as growth factors and cytokines. Moreover, MSCs can suppress inflammatory responses, reduce hepatocyte apoptosis, increase hepatocyte regeneration, regress liver fibrosis, and enhance liver functionality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>37337578</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Biogenesis, Composition and Potential Therapeutic Applications of Mesenchymal Stem Cells Derived Exosomes in Various Diseases.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Exosomes are nanovesicles with a wide range of chemical compositions used in many different applications. Mesenchymal stem cell-derived exosomes (MSCs-EXOs) are spherical vesicles that have been shown to mediate tissue regeneration in a variety of diseases, including neurological, autoimmune and inflammatory, cancer, ischemic heart disease, lung injury, and liver fibrosis. They can modulate the immune response by interacting with immune effector cells due to the presence of anti-inflammatory compounds and are involved in intercellular communication through various types of cargo. MSCs-EXOs exhibit cytokine storm-mitigating properties in response to COVID-19. This review discussed the potential function of MSCs-EXOs in a variety of diseases including neurological, notably epileptic encephalopathy and Parkinson's disease, cancer, angiogenesis, autoimmune and inflammatory diseases. We provided an overview of exosome biogenesis and factors that regulate exosome biogenesis. Additionally, we highlight the functions and potential use of MSCs-EXOs in the treatment of the inflammatory disease COVID-19. Finally, we covered a strategies and challenges of MSCs-EXOs. Finally, we discuss conclusion and future perspectives of MSCs-EXOs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>37498509</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Multiple Dimensions of using Mesenchymal Stem Cells for Treating Liver Diseases: From Bench to Beside.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Liver diseases impose a huge burden worldwide. Although hepatocyte transplantation has long been considered as a potential strategy for treating liver diseases, its clinical implementation has created some obvious limitations. As an alternative strategy, cell therapy, particularly mesenchymal stem cell (MSC) transplantation, is widely used in treating different liver diseases, including acute liver disease, acute-on-chronic liver failure, hepatitis B/C virus, autoimmune hepatitis, nonalcoholic fatty liver disease, nonalcoholic steatohepatitis, alcoholic liver disease, liver fibrosis, liver cirrhosis, and hepatocellular carcinoma. Here, we summarize the status of MSC transplantation in treating liver diseases, focusing on the therapeutic mechanisms, including differentiation into hepatocyte-like cells, immunomodulating function with a variety of immune cells, paracrine effects via the secretion of various cytokines and extracellular vesicles, and facilitation of homing and engraftment. Some improved perspectives and current challenges are also addressed. In summary, MSCs have great potential in the treatment of liver diseases based on their multi-faceted characteristics, and more accurate mechanisms and novel therapeutic strategies stemming from MSCs will facilitate clinical practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>36812711</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A review of the effect of exosomes from different cells on liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis (HF) is a common pathological process caused by various acute and chronic liver injury factors, which is mainly characterized by inflammation and excessive accumulation of extracellular matrix (ECM) in the liver. A better understanding of the mechanisms leading to liver fibrosis helps develop better treatments. The exosome is a crucial vesicle secreted by almost all cells, containing nucleic acids, proteins, lipids, cytokines, and other bioactive components, which play an important role in the transmission of intercellular material and information. Recent studies have shown the relevance of exosomes in the pathogenesis of hepatic fibrosis, and exosomes dominate an essential role in hepatic fibrosis. In this review, we systematically analyze and summarize exosomes from diverse cell sources as potential promoters, inhibitors, and even treatments for hepatic fibrosis to provide a clinical reference for exosomes as the diagnostic target or therapeutic means of hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>36998425</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Role of noncoding RNAs in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a wound-healing response following chronic liver injury caused by hepatitis virus infection, obesity, or excessive alcohol. It is a dynamic and reversible process characterized by the activation of hepatic stellate cells and excess accumulation of extracellular matrix. Advanced fibrosis could lead to cirrhosis and even liver cancer, which has become a significant health burden worldwide. Many studies have revealed that noncoding RNAs (ncRNAs), including microRNAs, long noncoding RNAs and circular RNAs, are involved in the pathogenesis and development of liver fibrosis by regulating signaling pathways including transforming growth factor-β pathway, phosphatidylinositol 3-kinase/protein kinase B pathway, and Wnt/β-catenin pathway. NcRNAs in serum or exosomes have been reported to tentatively applied in the diagnosis and staging of liver fibrosis and combined with elastography to improve the accuracy of diagnosis. NcRNAs mimics, ncRNAs in mesenchymal stem cell-derived exosomes, and lipid nanoparticles-encapsulated ncRNAs have become promising therapeutic approaches for the treatment of liver fibrosis. In this review, we update the latest knowledge on ncRNAs in the pathogenesis and progression of liver fibrosis, and discuss the potentials and challenges to use these ncRNAs for diagnosis, staging and treatment of liver fibrosis. All these will help us to develop a comprehensive understanding of the role of ncRNAs in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>36049782</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cell Transplantation in Liver Diseases.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Promising preclinical data suggested that bone marrow-derived mesenchymal stem cells (BM-MSC) can reduce hepatic fibrosis and stimulate liver regeneration. Preclinical studies moreover suggested that the immunomodulatory and anti-inflammatory functions of MSCs may reduce hepatic inflammation, improve liver function, and decrease infection incidences which are deemed especially important in the case of acute-on-chronic liver failure (ACLF). Studies in patients with decompensated cirrhosis demonstrated that injection of BM-MSC resulted in an improvement of biochemical tests and led to a survival benefit in ACLF. Most of these studies were performed in hepatitis B virus infected patients. However, two adequately powered studies performed in Europe could not confirm these data. A possible alternative to mobilize BM-MSC into the liver is the use of granulocyte colony-stimulating factor (G-CSF) which has proregenerative and immunomodulatory effects. In Indian studies, the use of G-CSF was associated with improvement of survival, although this finding could not be confirmed in European studies. Human allogeneic liver-derived progenitor cell therapy represents a potential treatment for ACLF, of which the main action is paracrine. These human liver-derived MSC can perform various functions, including the downregulation of proinflammatory responses. The clinical beneficial effect of these cells is further explored in patients with alcoholic cirrhosis and ACLF in Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26420953</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapy for cirrhosis: Present and future perspectives.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cirrhosis occurs as a result of various chronic liver injuries, which may be caused by viral infections, alcohol abuse and the administration of drugs and chemicals. Recently, bone marrow cells (BMCs), hematopoietic stem cells (HSCs) and mesenchymal stem cells (MSCs) have been used for developing treatments for cirrhosis. Clinical trials have investigated the therapeutic potential of BMCs, HSCs and MSCs for the treatment of cirrhosis based on their potential to differentiate into hepatocytes. Although the therapeutic mechanisms of BMC, HSC and MSC treatments are still not fully characterized, the evidence thus far has indicated that the potential therapeutic mechanisms of MSCs are clearer than those of BMCs or HSCs with respect to liver regenerative medicine. MSCs suppress inflammatory responses, reduce hepatocyte apoptosis, increase hepatocyte regeneration, reverse liver fibrosis and enhance liver functionality. This paper summarizes the clinical studies that have used BMCs, HSCs and MSCs in patients with liver failure or cirrhosis. We also present the potential therapeutic mechanisms of BMCs, HSCs and MSCs for the improvement of liver function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>32883343</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-based cell-free strategies: safe and effective treatments for liver injury.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Various hepatoxic factors, such as viruses, drugs, lipid deposition, and autoimmune responses, induce acute or chronic liver injury, and 3.5% of all worldwide deaths result from liver cirrhosis, liver failure, or hepatocellular carcinoma. Liver transplantation is currently limited by few liver donors, expensive surgical costs, and severe immune rejection. Cell therapy, including hepatocyte transplantation and stem cell transplantation, has recently become an attractive option to reduce the overall need for liver transplantation and reduce the wait time for patients. Recent studies showed that mesenchymal stem cell (MSC) administration was a promising therapeutic approach for promoting liver regeneration and repairing liver injury by the migration of cells into liver sites, hepatogenic differentiation, immunoregulation, and paracrine mechanisms. MSCs secrete a large number of molecules into the extracellular space, and soluble proteins, free nucleic acids, lipids, and extracellular vesicles (EVs) effectively repair tissue injury in response to fluctuations in physiological states or pathological conditions. Cell-free-based therapies avoid the potential tumorigenicity, rejection of cells, emboli formation, undesired differentiation, and infection transmission of MSC transplantation. In this review, we focus on the potential mechanisms of MSC-based cell-free strategies for attenuating liver injury in various liver diseases. Secretome-mediated paracrine effects participate in the regulation of the hepatic immune microenvironment and promotion of hepatic epithelial repair. We look forward to completely reversing liver injury through an MSC-based cell-free strategy in regenerative medicine in the near future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>37864199</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Efficacy and safety of mesenchymal stem cell therapy in liver cirrhosis: a systematic review and meta-analysis.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Although the efficacy and safety of mesenchymal stem cell therapy for liver cirrhosis have been demonstrated in several studies. Clinical cases of mesenchymal stem cell therapy for patients with liver cirrhosis are limited and these studies lack the consistency of treatment effects. This article aimed to systematically investigate the efficacy and safety of mesenchymal stem cells in the treatment of liver cirrhosis. The data source included PubMed/Medline, Web of Science, EMBASE, and Cochrane Library, from inception to May 2023. Literature was screened by the PICOS principle, followed by literature quality evaluation to assess the risk of bias. Finally, the data from each study's outcome indicators were extracted for a combined analysis. Outcome indicators of the assessment included liver functions and adverse events. Statistical analysis was performed using Review Manager 5.4. A total of 11 clinical trials met the selection criteria. The pooled analysis' findings demonstrated that both primary and secondary indicators had improved. Compared to the control group, infusion of mesenchymal stem cells significantly increased ALB levels in 2 weeks, 1 month, 3 months, and 6 months, and significantly decreased MELD score in 1 month, 2 months, and 6 months, according to a subgroup analysis using a random-effects model. Additionally, the hepatic arterial injection favored improvements in MELD score and ALB levels. Importantly, none of the included studies indicated any severe adverse effects. The results showed that mesenchymal stem cell was effective and safe in the treatment of liver cirrhosis, improving liver function (such as a decrease in MELD score and an increase in ALB levels) in patients with liver cirrhosis and exerting protective effects on complications of liver cirrhosis and the incidence of hepatocellular carcinoma. Although the results of the subgroup analysis were informative for the selection of mesenchymal stem cells for clinical treatment, a large number of high-quality randomized controlled trials validations are still needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>34233726</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stem cell therapies for autoimmune hepatitis.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Autoimmune hepatitis is a chronic inflammatory hepatic disorder which may cause liver fibrosis. Appropriate treatment of autoimmune hepatitis is therefore important. Adult stem cells have been investigated as therapies for a variety of disorders in latest years. Hematopoietic stem cells (HSCs) were the first known adult stem cells (ASCs) and can give rise to all of the cell types in the blood and immune system. Originally, HSC transplantation was served as a therapy for hematological malignancies, but more recently researchers have found the treatment to have positive effects in autoimmune diseases such as multiple sclerosis. Mesenchymal stem cells (MSCs) are ASCs which can be extracted from different tissues, such as bone marrow, adipose tissue, umbilical cord, and dental pulp. MSCs interact with several immune response pathways either by direct cell-to-cell interactions or by the secretion of soluble factors. These characteristics make MSCs potentially valuable as a therapy for autoimmune diseases. Both ASC and ASC-derived exosomes have been investigated as a therapy for autoimmune hepatitis. This review aims to summarize studies focused on the effects of ASCs and their products on autoimmune hepatitis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>36983624</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pooled Analysis of Mesenchymal Stromal Cell-Derived Extracellular Vesicle Therapy for Liver Disease in Preclinical Models.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Although increasing preclinical studies have emphasized the benefits of exosome-related therapies, the efficacy of mesenchymal stromal cell (MSC)-derived extracellular vesicles (EV) for liver injury is unclear. In this work, a pooled analysis was conducted to explore the overall effect of MSC-EV in animal models. A systematic search of the PubMed, EMBASE, Web of Science, and Cochrane Library databases was performed, from initiation to February 2022, for preclinical studies with liver disease models. The treatment outcomes were evaluated based on liver function, histological analysis, and inflammatory cytokines. After screening, 39 studies were included. Pooled analyses demonstrated that MSC-EV therapy significantly improved liver functions (ALB, ALT, AST, ALP, and γ-GT), promoted the repair of injured liver tissue (damaged area, Ishak's score), reduced inflammatory factors (TNF-α, IL-1β, IL-6, and IFN-γ), and increased an anti-inflammatory cytokine (IL-10) compared to the placebo control group. Subgroup analyses indicated that MSC-EV had therapeutic effects on liver fibrosis (n = 16), acute liver injury (n = 11), non-alcoholic fatty liver disease (n = 3), autoimmune hepatitis (n = 4), and hepatic ischemia-reperfusion injury (n = 6). Additionally, the therapeutic effect of EV was comparable to that of MSCs. MSC-EV have therapeutic potential for acute and chronic liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>26354051</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapy for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Currently, the most effective treatment for end-stage liver fibrosis is liver transplantation; however, transplantation is limited by a shortage of donor organs, surgical complications, immunological rejection, and high medical costs. Recently, mesenchymal stem cell (MSC) therapy has been suggested as an effective alternate approach for the treatment of hepatic diseases. MSCs have the potential to differentiate into hepatocytes, and therapeutic value exists in their immune-modulatory properties and secretion of trophic factors, such as growth factors and cytokines. In addition, MSCs can suppress inflammatory responses, reduce hepatocyte apoptosis, increase hepatocyte regeneration, regress liver fibrosis and enhance liver functionality. Despite these advantages, issues remain; MSCs also have fibrogenic potential and the capacity to promote tumor cell growth and oncogenicity. This paper summarizes the properties of MSCs for regenerative medicine and their therapeutic mechanisms and clinical application in the treatment of liver fibrosis. We also present several outstanding risks, including their fibrogenic potential and their capacity to promote pre-existing tumor cell growth and oncogenicity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>34948088</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Regenerative Potential of Mesenchymal Stem Cells' (MSCs) Secretome for Liver Fibrosis Therapies.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chronic liver injuries lead to liver fibrosis and then to end-stage liver cirrhosis. Liver transplantation is often needed as a course of treatment for patients in critical conditions, but limitations associated with transplantation prompted the continuous search for alternative therapeutic strategies. Cell therapy with stem cells has emerged as an attractive option in order to stimulate tissue regeneration and liver repair. Transplanted mesenchymal stem cells (MSCs) could trans-differentiate into hepatocyte-like cells and, moreover, show anti-fibrotic and immunomodulatory effects. However, cell transplantation may lead to some uncontrolled side effects, risks associated with tumorigenesis, and cell rejection. MSCs' secretome includes a large number of soluble factors and extracellular vesicles (EVs), through which they exert their therapeutic role. This could represent a cell-free strategy, which is safer and more effective than MSC transplantation. In this review, we focus on cell therapies based on MSCs and how the MSCs' secretome impacts the mechanisms associated with liver diseases. Moreover, we discuss the important therapeutic role of EVs and how their properties could be further used in liver regeneration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>27601441</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells and liver fibrosis: a complicated relationship.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cell (MSC) therapy demands the attention of clinicians and scientists because of its potential in clinical fields that are bereft of medical options, but also because of the controversies that underlie its mode of action. MSCs are potent immune modulators, yet their biologic activity may not be innate, requiring licensing by their microenvironment. This property has prompted researchers to explore unique ways in which MSCs may be able to exert distinct biologic effects in different pathologic settings. More than 400 clinical trials have investigated the therapeutic capacity of MSCs in different pathologies, including liver disease. Along with their anti-inflammatory action, there are data to suggest that MSCs may exert direct antifibrotic effects, although enthusiasm for their use in patients has been tempered by concerns of a possible profibrotic role of endogenous MSCs in response to injury. There is a significant need for antifibrotic therapy to combat the increasing burden of patients with cirrhosis, and a concerted effort is required to determine the mechanisms by which MSCs modulate the liver's response to injury, both endogenously and after adoptive transfer. This review critically appraises the preclinical published data with regard to the capacity of MSCs to influence fibrotic response to liver injury and will explore the potential mechanisms that underpin the reported beneficial effects of MSC therapy in the context of liver injury and fibrosis.-Haldar, D., Henderson, N. C., Hirschfield, G., Newsome, P. N. Mesenchymal stromal cells and liver fibrosis: a complicated relationship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>29303079</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Stem Cells Transplantation in the Treatment of Patients with Liver Failure.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Liver failure is a life-threatening liver disease encompassing severe acute deterioration of liver function. Emergency liver transplantation is the only curative treatment for liver failure, but is restricted by the severe shortage of organ donors. Stem cell, including embroyonic stem cells, induced pluripotent stem cells, mesenchymal stem cells, hematopoietic stem cells and hepatic progenitor cells, have capacity to proliferate and differentiate and could be used in a variety of liver diseases including hereditary liver diseases, cirrhosis and liver failure. We summarized the basic experimental and clinical advances of stem cell transplantation in liver failure treatment, and also discussed the advantages and disadvantage of different stem cells subtype in this field, aiming to provide a perspective on the stem cell-based therapy for liver failure. Stem cells, especially mesenchymal stem cells (mainly low immunogenicity and paracrine characteristics) and induced pluripotent stem cells (generation of desired cell type from somatic cell), are feasible candidates for cell therapy in the treatment of liver failure, but there are some drawbacks remaining to be resolved, such as low engraftment, cryotpreservation methods and tumorigenesis. Stem cell transplantation is a promising but challenging strategy and paves a new way for curing liver failure. But more efforts need to be made to overcome problems before this new strategy could be safely and effectively applied to humans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>32077830</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Therapeutic Potential of Umbilical Cord Stem Cells for Liver Regeneration.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The liver is a vital organ for life and the only internal organ that is capable of natural regeneration. Although the liver has high regeneration capacity, excessive hepatocyte death can lead to liver failure. Various factors can lead to liver damage including drug abuse, some natural products, alcohol, hepatitis, and autoimmunity. Some models for studying liver injury are APAP-based model, Fas ligand (FasL), D-galactosamine/endotoxin (Gal/ET), Concanavalin A, and carbon tetrachloride-based models. The regeneration of the liver can be carried out using umbilical cord blood stem cells which have various advantages over other stem cell types used in liver transplantation. UCB-derived stem cells lack tumorigenicity, have karyotype stability and high immunomodulatory, low risk of graft versus host disease (GVHD), low risk of transmitting somatic mutations or viral infections, and low immunogenicity. They are readily available and their collection is safe and painless. This review focuses on recent development and modern trends in the use of umbilical cord stem cells for the regeneration of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>37035187</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>The origins, roles and therapies of cancer associated fibroblast in liver cancer.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma (HCC) is the most common form of liver cancer. It is often preceded by chronic inflammation such as liver fibrosis and cirrhosis. Different cell types are believed to give rise to liver-specific cancer associated fibroblast (CAF), these include resident fibroblast, hepatic stellate cell, liver cancer cell, hepatic sinusoidal endothelial cell and mesenchymal stromal cell. The abundance of fibroblasts has contributed to the cancer progression, immune modulation and treatment resistance in HCC. In this review, we discussed the origins, subtypes and roles of cancer associated fibroblasts in HCC. Their specific roles in shaping the tumor microenvironment, facilitating cancer growth, and modulating different immune cell types to confer a permissive environment for cancer growth. CAF is now an attractive therapeutic target for cancer treatment, however specific therapeutic development in HCC is still lacking. Hence, we have included preclinical and clinical development of CAF-specific interventions for other cancer types in this review. However, most CAF-specific therapies have resulted in disappointing clinical outcomes, likely due to the difficulties in differentiating CAF from normal fibroblast. A thorough understanding of the characteristics and functionalities of CAF is warranted to further improve the therapeutic efficacy of anti-CAF therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>36544529</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Exosomes of Whartons' jelly mesenchymal stem cell reduce the NOX genes in TGF-β-induced hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Activated cells which are called star-shaped cells, are some of the key factors in the development of liver fibrosis. Activation of NADPH oxidase (NOX) is associated with increased HSCs activity and progression of hepatic fibrosis. In this study, the effects of human exosomes derived from WJ-MSCs on NOX1, NOX2, and NOX4 gene expression in TGF-β-induced hepatic fibrosis were investigated. LX2 cell line was treated with 2 ng/ml TGF-β for 24 hr, in order to induce liver fibrosis after starvation. In the next step, the cells were treated with several concentrations of the exosomes derived from WJ-MSCs (10, 20, 30, 40, and 50 μg/ml). Finally, Smad3C phosphorylated protein expression level and NOX1, NOX2, and NOX4 gene expression levels were measured. The results demonstrated that the level of NOX1, NOX2, and NOX4 mRNA expressions decreased significantly during 24 hrs at concentrations of 40 and 50 μg/ml of WJ-MSCs exosomes in TGF-β-induced-HSCs. The p-Smad3C proteins were significantly decreased (fold change: 1.83, &lt;i&gt;P-value&lt;&lt;/i&gt;0.05) after exposure to WJ-MSC-derived exosomes. Treatment with exosomes prevents further activation of HSCs by inhibiting the level of Smad3C phosphorylation. The experimental data of our study suggested that in liver fibrosis, the protection of HSCs activation against TGF-β by inhibiting the NOX pathway via human exosomes of WJ-MSCs is extremely important. It needs further research as a treatment method.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>37283714</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Current Status and Prospect of Delivery Vehicle Based on Mesenchymal Stem Cell-Derived Exosomes in Liver Diseases.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>With the improvement of the average life expectancy and increasing incidence of obesity, the burden of liver disease is increasing. Liver disease is a serious threat to human health. Currently, liver transplantation is the only effective treatment for end-stage liver disease. However, liver transplantation still faces unavoidable difficulties. Mesenchymal stem cells (MSCs) can be used as an alternative therapy for liver disease, especially liver cirrhosis, liver failure, and liver transplantation complications. However, MSCs may have potential tumorigenic effects. Exosomes derived from MSCs (MSC-Exos), as the important intercellular communication mode of MSCs, contain various proteins, nucleic acids, and DNA. MSC-Exos can be used as a delivery system to treat liver diseases through immune regulation, apoptosis inhibition, regeneration promotion, drug delivery, and other ways. Good histocompatibility and material exchangeability make MSC-Exos a new treatment for liver diseases. This review summarizes the latest research on MSC-Exos as delivery vehicles in different liver diseases, including liver injury, liver failure, liver fibrosis, hepatocellular carcinoma (HCC), and ischemia and reperfusion injury. In addition, we discuss the advantages, disadvantages, and clinical application prospects of MSC-Exos-based delivery vectors in the treatment of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>27176654</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liver-derived human mesenchymal stem cells: a novel therapeutic source for liver diseases.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) represent an attractive cell type for research and therapy due to their ability to proliferate, differentiate, modulate immune reactions, and secrete trophic factors. MSCs exist in a multitude of tissues, including bone marrow, umbilical cord, and adipose tissues. Moreover, MSCs have recently been isolated from the liver. Compared with other MSC types, liver-derived human MSCs (LHMSCs) possess general morphologies, immune functions, and differentiation capacities. Interestingly, LHMCSs produce higher levels of pro-angiogenic, anti-inflammatory, and anti-apoptotic cytokines than those of bone marrow-derived MSCs. Thus, these cells may be a promising therapeutic source for liver diseases. This paper summarizes the biological characteristics of LHMSCs and their potential benefits and risks for the treatment of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>36423545</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived exosomes and non-coding RNAs: Regulatory and therapeutic role in liver diseases.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Liver disease has become a major health problem worldwide due to its high morbidity and mortality. In recent years, a large body of literature has shown that mesenchymal stem cell-derived exosomes (MSC-Exo) are able to play similar physiological roles as mesenchymal stem cells (MSCs). More importantly, there is no immune rejection caused by transplanted cells and the risk of tumor formation, which has become a new strategy for the treatment of various liver diseases. Moreover, accumulating evidence suggests that non-coding RNAs (ncRNAs) are the main effectors by which they exert hepatoprotective effects. Therefore, by searching the databases of Web of Science, PubMed, ScienceDirect, Google Scholar and CNKI, this review comprehensively reviewed the therapeutic effects of MSC-Exo and ncRNAs in liver diseases, including liver injury, liver fibrosis, and hepatocellular carcinoma. According to the data, the therapeutic effects of MSC-Exo and ncRNAs on liver diseases are closely related to a variety of molecular mechanisms, including inhibition of inflammatory response, alleviation of liver oxidative stress, inhibition of apoptosis of hepatocytes and endothelial cells, promotion of angiogenesis, blocking the cell cycle of hepatocellular carcinoma, and inhibition of activation and proliferation of hepatic stellate cells. These important findings will provide a direction and basis for us to explore the potential of MSC-Exo and ncRNAs in the clinical treatment of liver diseases in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>35902883</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cells inhibit hepatic fibrosis via the AABR07028795.2/rno-miR-667-5p axis.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The mechanism of bone marrow mesenchymal stem cells (BMSCs) in treating hepatic fibrosis remains unclear. TGF-β1-induced hepatic stellate cell (HSC)-T6 and CCl4-induced hepatic fibrosis rats were treated with BMSCs. HSC-T6 cell activity was determined using the cell counting kit-8 assay, and the histology change was evaluated using hematoxylin and eosin and Masson staining. The expression of fibrosis markers was determined using real-time quantitative PCR, Western blotting, and immunocytochemistry. RNA sequencing (RNA-seq) was used to screen the lncRNAs involved in the effect of BMSCs in fibrosis, and the function of fibrosis-associated lncRNA in fibrosis histology change and fibrosis marker expression was investigated. The potential miRNA target of lncRNA was predicted using R software. The interaction between lncRNA and miRNA was verified using luciferase report system and RNA immunoprecipitation (RIP) in 293T and HSC-T6 cells. BMSC attenuated TGF-β1-induced HSC-T6 activation and suppressed the expression of fibrosis-associated gene (MMP2, Collagen I, and αSMA) expression at the transcription and translation levels. BMSC treatment also improves hepatic fibrosis in rats with CCl4-induced fibrosis by decreasing the expression of fibrosis-associated genes and suppressing collagen deposition in the liver. RNA-seq revealed that AABR07028795.2 (lnc-BIHAA1) was downregulated in the TGF-β1-induced HSC-T6 after treatment with BMSCs as compared with those in TGF-β1-induced HSC-T6, and subsequently, functional analysis showed that lnc-BIHAA1 plays a beneficial role in suppressing hepatic fibrosis. Luciferase activity assay and RIP revealed that lnc-BIHAA1 interacted with the miRNA, rno-miR-667-5p, functioning as a fibrosis phenotype suppressor in TGF-β1-induced HSC-T6. Moreover, overexpression of rno-miR-667-5p significantly reverses the effect of lnc-BIHAA1 on HSC-T6. BMSC treatment suppresses hepatic fibrosis by downregulating the lnc-BIHAA1/rno-miR-667-5p signaling pathway in HSCs. Our results provide a scientific basis for establishing BMSCs as a biological treatment method for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>36462157</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles in fatty liver disease and steatohepatitis: Role as biomarkers and therapeutic targets.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Non-alcoholic fatty liver disease (NAFLD) and alcohol-associated liver disease (ALD) are characterized by lipid deposition in hepatocytes in the absence or presence of excessive alcohol consumption, respectively, ranging from simple steatosis to non-alcoholic steatohepatitis (NASH) or alcoholic hepatitis (AH) and from mild fibrosis to cirrhosis. Fatty liver disease and steatohepatitis similarly occur in individuals who have both metabolic syndrome and excessive alcohol intake; therefore, the single overarching term metabolic associated fatty liver disease (MAFLD) has been proposed to better reflect these risk factors and the continuity of disease progression. Extracellular vesicles (EVs) are membrane-bound endogenous nanoparticles released into the extracellular space by a majority of cell types. Liver disease-related EVs contain a variety of cellular cargo and are internalized into target cells resulting in the transfer of bioinformation reflecting the state of the donor cell to the recipient. Furthermore, EV composition can be used to identify the degree and type of liver disease, suggesting that EV composition may be a useful biomarker. With regard to MAFLD, the presence of metabolic risk factors, such as insulin resistance, will be indicated by adipose tissue-derived EVs and with that comes the potential to use as a clinical monitor of overall metabolic status. However, the inhibition of specific EV composition may be difficult to implement as a real-world therapeutic approach. Current global evidence shows that mesenchymal stem cell (MSCs)-derived EVs (MSC-EVs) play an important role in regulating the immune response, which has spawned a clinical trial to treat liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>38164852</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Adipose-derived mesenchymal stem cells mitigate methotrexate-induced liver cirrhosis (fibrosis) model.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is a severe liver condition characterized by abnormal fibroblast activity, excessive extracellular matrix deposition, inflammation, and structural alterations. Methotrexate (MTX), a pharmaceutical agent widely used for its therapeutic properties, is known to induce hepatotoxicity. However, the precise mechanisms underlying MTX-induced liver injury remain elusive. This study investigates the therapeutic potential of Adipose-Derived Mesenchymal Stem Cells (ADMSCs) in alleviating MTX-induced liver injury in a rat model. Thirty male Wistar albino rats were employed in this study. Liver injury was induced in twenty rats by a single MTX dose, while ten rats constituted the control group. The MTX group was further subdivided into two cohorts, one receiving ADMSC treatment and the other saline solution. The treatment duration was 14 days. ADMSCs, isolated from adipose tissue, were characterized by CD13, CD29, and CD105 markers. Biomarker analysis, histopathological evaluations, and various measurements were conducted to assess ADMSCs' therapeutic efficacy. MTX administration significantly increased Transforming Growth Factor-β (TGF-β), Platelet-Derived Growth Factor (PDGF), Plasma Cytokeratin 18, Plasma Malondialdehyde (MDA), and Liver MDA levels, with histopathological liver damage. ADMSC treatment notably lowered TGF-β, PDGF, Plasma Cytokeratin 18, Plasma MDA, and Liver MDA levels, accompanied by reduced liver damage observed histologically. Liver Enzyme ALT levels were also reduced in the MTX and ADMSC groups compared to the MTX and Saline groups. ADMSCs exhibit significant potential in ameliorating MTX-induced liver injury, with notable anti-oxidative and anti-apoptotic properties. These findings suggest that ADMSCs may effectively mitigate oxidative stress and inflammation associated with MTX-induced liver damage. Further research is essential to investigate the clinical application of ADMSCs in liver disease management and uncover the underlying therapeutic mechanisms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>25320545</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cell therapy for decompensated liver cirrhosis: a meta-analysis.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>To assess the efficacy and safety of bone marrow-derived mesenchymal stem cell (BM-MSC) in the treatment of decompensated liver cirrhosis. The search terms "bone marrow stem cell" "chronic liver disease" "transfusion" and "injection" were used in the Cochrane Library, Med-Line (Pub-Med) and Embase without any limitations with respect to publication date or language. Journals were also hand-searched and experts in the field were contacted. The studies which used BM-MSC in the treatment of any chronic liver disease were included. Comprehensive Review Manager and Meta-Analyst software were used for statistical analysis. Publication bias was evaluated using Begg's test. Out of 78 studies identified, five studies were included in the final analysis. The studies were conducted in China, Iran, Egypt and Brazil. Analysis of pooled data of two controlled studies by Review Manager showed that the mean decline in scores for the model for end-stage liver disease (MELD) was -1.23 [95%CI: -2.45-(-0.01)], -1.87 [95%CI: -3.16-(-0.58)], -2.01 [95%CI: -3.35-(-0.68)] at 2, 4 and 24 wk, respectively after transfusion. Meta-analysis of the 5 studies showed that the mean improvement in albumin levels was -0.28, 2.60, 5.28, 4.39 g/L at the end of 8, 16, 24, and 48 wk, respectively, after transfusion. MELD scores, alanine aminotransferase, total bilirubin levels and prothrombin times improved to some extent. BM-MSC injections resulted in no serious adverse events or complications. BM-MSC infusion in the treatment of decompensated liver cirrhosis improved liver function. At the end of year 1, there were no serious side effects or complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>27324023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Portal myofibroblasts connect angiogenesis and fibrosis in liver.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Liver fibrogenesis is a dynamic process including quantitative and qualitative changes of the extracellular matrix, of which the most prominent is the deposition of type I collagen. These changes progressively disrupt normal liver architecture and result in cirrhosis formation. In the fibrotic liver, as in all other fibrotic tissues, the extracellular matrix is produced by cells usually characterized by the de novo expression of alpha-smooth muscle actin and known as myofibroblasts. Portal myofibroblasts (PMFs) appear to be critical in pathological angiogenesis, which constantly occurs in advanced liver fibrosis. Whereas the association between angiogenesis and fibrosis during the progression of liver diseases remains to be elucidated, we suggest that collagen-type-XV-alpha1-producing PMFs could provide an important link both by stabilizing newly formed vessels and by forming a scaffold for the deposition of interstitial collagen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>35406638</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Extraembryonic Mesenchymal Stromal/Stem Cells in Liver Diseases: A Critical Revision of Promising Advanced Therapy Medicinal Products.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Liver disorders have been increasing globally in recent years. These diseases are associated with high morbidity and mortality rates and impose high care costs on the health system. Acute liver failure, chronic and congenital liver diseases, as well as hepatocellular carcinoma have been limitedly treated by whole organ transplantation so far. But novel treatments for liver disorders using cell-based approaches have emerged in recent years. Extra-embryonic tissues, including umbilical cord, amnion membrane, and chorion plate, contain multipotent stem cells. The pre-sent manuscript discusses potential application of extraembryonic mesenchymal stromal/stem cells, focusing on the management of liver diseases. Extra-embryonic MSC are characterized by robust and constitutive anti-inflammatory and anti-fibrotic properties, indicating as therapeutic agents for inflammatory conditions such as liver fibrosis or advanced cirrhosis, as well as chronic inflammatory settings or deranged immune responses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20517197</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Stem cells and hepatic cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Hepatic cirrhosis is defined as the histological development of regenerative nodules surrounded by fibrous bands in response to chronic liver injury, which leads to portal hypertension and end-stage liver disease. The majority of patients with hepatic cirrhosis die from life-threatening complications at early age. Liver transplantation has been the most effective treatment for patients with hepatic cirrhosis. Since liver transplantation is critically limited by the shortage of available donor livers, searching for an effective alternative therapy has attracted great interest in preclinical studies. The encouraging advances in stem cell research have paved the way towards the treatment of the end-stage of chronic liver disease. In view of the pathogenic fundamentals of hepatic cirrhosis, stem cell-based treatment should be aimed to complement or replace damaged liver cells and to correct the imbalanced extracellular matrix regeneration/degradation. This review is intended to describe the characteristics and therapeutic potential of various liver repair-related stem cells, including hepatocytes, liver progenitor cells, hematopoietic stem cells, mesenchymal stem cells, embryonic stem cells and induced pluripotent stem cells. Since autologous adult stem cells have the least number of obstacles for clinical application, their potential interventions on cirrhosis are especially illustrated in terms of the cellular and molecular mechanisms of hepatic fibrogenesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>26691057</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cell transplantation as a non-invasive strategy for treating liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Advancements in antiviral drugs have enabled control of viral hepatitis; yet, many patients with liver cirrhosis (LC) are awaiting liver transplants. Liver transplantation yields dramatic therapeutic effects, but problems such as shortage of donors, surgical invasiveness, immunological rejection and costs, limit the number of transplantations. Advances in liver regeneration therapy through cell transplantation as a non-invasive treatment for cirrhosis will supplement these restrictions to the number of liver transplants. Clinical trials for LC have included hematopoietic stem cell mobilization by administration of granulocyte colony-stimulating factor, infusion of autologous bone marrow cells, and administration of autologous mesenchymal stem cells derived from bone marrow or umbilical cord. Several recently reported randomized controlled studies have shown the effectiveness of these approaches. However, to promote implementation of new liver regeneration therapies, it is important to develop a system whereby cell therapies with ensured safety can be approved quickly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>30854976</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Effects of Extracellular Vesicles Derived from Mesenchymal Stem/Stromal Cells on Liver Diseases.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Therapeutic effects of Mesenchymal Stem/Stromal Cells (MSCs) transplantation have been observed in various disease models. However, it is thought that MSCs-mediated effects largely depend on the paracrine manner of secreting cytokines, growth factors, and Extracellular Vesicles (EVs). Similarly, MSCs-derived EVs also showed therapeutic benefits in various liver diseases through alleviating fibrosis, improving regeneration of hepatocytes, and regulating immune activity. This review provides an overview of the MSCs, their EVs, and their therapeutic potential in treating various liver diseases including liver fibrosis, acute and chronic liver injury, and Hepatocellular Carcinoma (HCC). More specifically, the mechanisms by which MSC-EVs induce therapeutic benefits in liver diseases will be covered. In addition, comparisons between MSCs and their EVs were also evaluated as regenerative medicine against liver diseases. While the mechanisms of action and clinical efficacy must continue to be evaluated and verified, MSCs-derived EVs currently show tremendous potential and promise as a regenerative medicine treatment for liver disease in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>37282819</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>From Phenomenon to Essence: A Newly Involved lncRNA Kcnq1ot1 Protective Mechanism of Bone Marrow Mesenchymal Stromal Cells in Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stromal cells (BMSCs) have a protective effect against liver cirrhosis. Long noncoding RNAs (lncRNAs) play crucial roles in the progression of liver cirrhosis. Therefore, it is aimed to clarify the lncRNA Kcnq1ot1 involved protective mechanism of BMSCs in liver cirrhosis. This study found that BMSCs treatment attenuates CCl&lt;sub&gt;4&lt;/sub&gt; -induced liver cirrhosis in mice. Additionally, the expression of lncRNA Kcnq1ot1 is upregulated in human and mouse liver cirrhosis tissues, in addition to TGF-β1-treated LX2 cells and JS1 cells. The expression of Kcnq1ot1 in liver cirrhosis is reversed with BMSCs treatment. The knockdown of Kcnq1ot1 alleviated liver cirrhosis both in vivo and in vitro. Fluorescence in situ hybridization (FISH) confirms that Kcnq1ot1 is mainly distributed in the cytoplasm of JS1 cells. It is predicted that miR-374-3p can directly bind with lncRNA Kcnq1ot1 and Fstl1, which is verified via luciferase activity assay. The inhibition of miR-374-3p or the overexpression of Fstl1 can attenuate the effect of Kcnq1ot1 knockdown. In addition, the transcription factor Creb3l1 is upregulated during JS1 cells activation. Moreover, Creb3l1 can directly bind to the Kcnq1ot1 promoter and positively regulate its transcription. In conclusion, BMSCs alleviate liver cirrhosis by modulating the Creb3l1/lncRNA Kcnq1ot1/miR-374-3p/Fstl1 signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>30593276</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Multipotent mesenchymal stromal cells play critical roles in hepatocellular carcinoma initiation, progression and therapy.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma (HCC) is the most common type of primary liver cancer, with high morbidity, relapse and mortality rates. Multipotent mesenchymal stromal cells (MSCs) can be recruited to and become integral components of the HCC microenvironment and can influence tumor progression. This review discusses MSC migration to liver fibrosis and the HCC microenvironment, MSC involvement in HCC initiation and progression and the widespread application of MSCs in HCC-targeted therapy, thus clarifying the critical roles of MSCs in HCC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>26934883</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>The Role of Mesothelial Cells in Liver Development, Injury, and Regeneration.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mesothelial cells (MCs) cover the surface of visceral organs and the parietal walls of cavities, and they synthesize lubricating fluids to create a slippery surface that facilitates movement between organs without friction. Recent studies have indicated that MCs play active roles in liver development, fibrosis, and regeneration. During liver development, the mesoderm produces MCs that form a single epithelial layer of the mesothelium. MCs exhibit an intermediate phenotype between epithelial cells and mesenchymal cells. Lineage tracing studies have indicated that during liver development, MCs act as mesenchymal progenitor cells that produce hepatic stellate cells, fibroblasts around blood vessels, and smooth muscle cells. Upon liver injury, MCs migrate inward from the liver surface and produce hepatic stellate cells or myofibroblast depending on the etiology, suggesting that MCs are the source of myofibroblasts in capsular fibrosis. Similar to the activation of hepatic stellate cells, transforming growth factor β induces the conversion of MCs into myofibroblasts. Further elucidation of the biological and molecular changes involved in MC activation and fibrogenesis will contribute to the development of novel approaches for the prevention and therapy of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>37329808</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Unlocking the potential of Mesenchymal stem cells in liver Fibrosis: Insights into the impact of autophagy and aging.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a chronic liver disease characterized by extracellular matrix protein accumulation, potentially leading to cirrhosis or hepatocellular carcinoma. Liver cell damage, inflammatory responses, and apoptosis due to various reasons induce liver fibrosis. Although several treatments, such as antiviral drugs and immunosuppressive therapies, are available for liver fibrosis, they only provide limited efficacy. Mesenchymal stem cells (MSCs) have become a promising therapeutic option for liver fibrosis, because they can modulate the immune response, promote liver regeneration, and inhibit the activation of hepatic stellate cells that contribute to disease development. Recent studies have suggested that the mechanisms through which MSCs gain their antifibrotic properties involve autophagy and senescence. Autophagy, a vital cellular self-degradation process, is critical for maintaining homeostasis and protecting against nutritional, metabolic, and infection-mediated stress. The therapeutic effects of MSCs depend on appropriate autophagy levels, which can improve the fibrotic process. Nonetheless, aging-related autophagic damage is associated with a decline in MSC number and function, which play a crucial role in liver fibrosis development. This review summarizes the recent advancements in the understanding of autophagy and senescence in MSC-based liver fibrosis treatment, presenting the key findings from relevant studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>37494836</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Human umbilical cord-derived mesenchymal stromal cells alleviate liver cirrhosis through the Hippo/YAP/Id1 pathway and macrophage-dependent mechanism.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Few effective anti-fibrotic therapies are currently available for liver cirrhosis. Mesenchymal stromal cells (MSCs) ameliorate liver fibrosis and contribute to liver regeneration after cirrhosis, attracting much attention as a potential therapeutic strategy for the disease. However, the underlying molecular mechanism of their therapeutic effect is still unclear. Here, we investigated the effect of human umbilical cord-derived mesenchymal stromal cells (hUC-MSCs) in treating liver cirrhosis and their underlying mechanisms. We used carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced mice as liver cirrhosis models and treated them with hUC-MSCs via tail vein injection. We assessed the changes in liver function, inflammation, and fibrosis by histopathology and serum biochemistry and explored the mechanism of hUC-MSCs by RNA sequencing (RNA-seq) using liver tissues. In addition, we investigated the effects of hUC-MSCs on hepatic stellate cells (HSC) and macrophages by in vitro co-culture experiments. We found that hUC-MSCs considerably improved liver function and attenuated liver inflammation and fibrosis in CCl&lt;sub&gt;4&lt;/sub&gt;-injured mice. We also showed that these cells exerted therapeutic effects by regulating the Hippo/YAP/Id1 axis in vivo. Our in vitro experiments demonstrated that hUC-MSCs inhibit HSC activation by regulating the Hippo/YAP signaling pathway and targeting Id1. Moreover, hUC-MSCs also alleviated liver inflammation by promoting the transformation of macrophages to an anti-inflammatory phenotype. Our study reveals that hUC-MSCs relieve liver cirrhosis in mice through the Hippo/YAP/Id1 pathway and macrophage-dependent mechanisms, providing a theoretical basis for the future use of these cells as a potential therapeutic strategy for patients with liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>31827403</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells induce inhibitory effects on hepatocellular carcinoma through various signaling pathways.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma (HCC) is the most prevalent type of malignant liver disease worldwide. Molecular changes in HCC collectively contribute to Wnt/β-catenin, as a tumor proliferative signaling pathway, toll-like receptors (TLRs), nuclear factor-kappa B (NF-κB), as well as the c-Jun NH2-terminal kinase (JNK), predominant signaling pathways linked to the release of tumor-promoting cytokines. It should also be noted that the Hippo signaling pathway plays an important role in organ size control, particularly in promoting tumorigenesis and HCC development. Nowadays, mesenchymal stromal cells (MSCs)-based therapies have been the subject of in vitro, in vivo, and clinical studies for liver such as cirrhosis, liver failure, and HCC. At present, despite the importance of basic molecular pathways of malignancies, limited information has been obtained on this background. Therefore, it can be difficult to determine the true concept of interactions between MSCs and tumor cells. What is known, these cells could migrate toward tumor sites so apply effects via paracrine interaction on HCC cells. For example, one of the inhibitory effects of MSCs is the overexpression of dickkopf-related protein 1 (DKK-1) as an important antagonist of the Wnt signaling pathway. A growing body of research challenging the therapeutic roles of MSCs through the secretion of various trophic factors in HCC. This review illustrates the complex behavior of MSCs and precisely how their inhibitory signals interface with HCC tumor cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>25820543</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem/Stromal Cells in Liver Fibrosis: Recent Findings, Old/New Caveats and Future Perspectives.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem/stromal cells (MSCs) are progenitors which share plastic-adherence capacity and cell surface markers but have different properties according to their cell and tissue sources and to culture conditions applied. Many recent publications suggest that MSCs can differentiate into hepatic-like cells, which can be a consequence of either a positive selection of rare in vivo pluripotent cells or of the original plasticity of some cells contributing to MSC cultures. A possible role of MSCs in hereditary transmission of obesity and/or diabetes as well as properties of MSCs regarding immunomodulation, cell fusion and exosome release capacities are discussed according to recent literature. Limitations in methods used to track MSCs in vivo especially in the context of liver cirrhosis are addressed as well as strategies explored to enhance their migratory, survival and proliferation properties, which are known to be relevant for their future clinical use. Current knowledge regarding mechanisms involved in liver cirrhosis amelioration mediated by naïve and genetically modified MSCs as well as the effects of applying preconditioning and combined strategies to improve their therapeutic effects are evaluated. Finally, first reports of GMP guidelines and biosafety issues in MSCs applications are discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>37798761</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Placenta mesenchymal stem cell-derived extracellular vesicles alleviate liver fibrosis by inactivating hepatic stellate cells through a miR-378c/SKP2 axis.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles derived from mesenchymal stem/stromal cells (MSCs) have shown therapeutic effects on liver fibrosis. This study aimed to evaluate the effects of extracellular vesicles from placenta-derived MSCs (Pd-MSCs-EVs) on liver fibrosis at 3D/2D levels and explore the potential mechanisms. The multicellular liver organoids, consisting of hepatocytes, hepatic stellate cells (HSCs), Kupffer cells, and liver sinusoidal endothelial cells, were observed for growth status, morphological changes, and metabolism. Human transformation growth factor- beta 1 (TGF-β1) was used to induce fibrosis at optimal concentration. The anti-fibrosis effects of Pd-MSCs-EVs were evaluated in liver organoids and HSCs models. Anti-fibrotic content of Pd-MSCs-EVs was identified by multiple experimental validations. TGF-β1 induced fibrosis in liver organoids, while Pd-MSCs-EVs significantly alleviated fibrotic phenotypes. Following serial verifications, miR-378c was identified as a potential key anti-fibrosis content. In contrast, miR-378c depletion decreased the anti-fibrotic effects of Pd-MSCs-EVs. Additionally, Pd-MSCs-EVs administration repressed TGF-β1-mediated HSCs activation at 2D or 3D levels. Mechanistically, exosomal miR-378c inactivated HSCs by inhibiting epithelial-mesenchymal transition (EMT) through stabilizing E-cadherin via targeting its E3 ubiquitin ligase S-Phase Kinase Associated Protein 2 (SKP2). Pd-MSCs-EVs ameliorated TGF-β1-induced fibrosis by deactivating HSCs in a miR-378c/SKP2-dependent manner, which may be an efficient therapeutic candidate for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>28627746</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hepatic perivascular mesenchymal stem cells with myogenic properties.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Pericytes are multipotent mesenchymal stem cells located on the walls of blood vessels in various organs and are characterized as CD146&lt;sup&gt;+&lt;/sup&gt; cells. In this study, we first immunohistochemically detected pericytes in the perivascular regions of liver from two mouse genotypes, namely wild-type (WT) and myostatin null (Mstn&lt;sup&gt;-/-&lt;/sup&gt; ). We further isolated pericytes using sorting as CD146&lt;sup&gt;+&lt;/sup&gt; CD34&lt;sup&gt;-&lt;/sup&gt; CD56&lt;sup&gt;-&lt;/sup&gt; CD45&lt;sup&gt;-&lt;/sup&gt; cells. The main finding of this study involves the contrasting fibrogenic vs. myogenic behaviour of liver pericytes from WT and Mstn&lt;sup&gt;-/-&lt;/sup&gt; mice, respectively. Sorted CD146&lt;sup&gt;+&lt;/sup&gt; liver pericytes (WT and Mstn&lt;sup&gt;-/-&lt;/sup&gt; ) expressed PDGFRβ, NG2, vimentin, adult stem cell markers CD73, CD105, CD44 and could be readily differentiated into adipogenic, osteogenic and chondrogenic lineages. Furthermore, these CD146&lt;sup&gt;+&lt;/sup&gt; cells from WT and Mstn&lt;sup&gt;-/-&lt;/sup&gt; livers did not express myostatin, in contrast to the total liver tissue of WT. The absence of αSMA and GFAP made these cells easily distinguishable from hepatic stellate cells. When subjected to standard myogenic differentiation with low serum the CD146&lt;sup&gt;+&lt;/sup&gt; cells from WT liver differentiated into myofibroblasts (fibrogenic) and the CD146&lt;sup&gt;+&lt;/sup&gt; cells from Mstn&lt;sup&gt;-/-&lt;/sup&gt; liver differentiated into multinucleated myotubes (myogenic). Finally, we transplanted CD146&lt;sup&gt;+&lt;/sup&gt; pericytes into tibialis anterior muscle of dystrophic mice and established the generation of novel myofibres, thereby proving their cell therapy potential. The liver tissue microenvironment with myostatin in WT and the absence of myostatin in Mstn&lt;sup&gt;-/-&lt;/sup&gt; conditions might exert a paracrine effect in determining the fate of pericyte-like cells in the liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>37114594</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Recent advances in the role of exosomes in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>We aim to summarize the current status of research on the role of exosomes in liver fibrosis. A review of the relevant literature was performed and the key findings were presented. Most studies focused on the role of exosomes derived from mesenchymal stem cells, other types of stem cells, and liver resident cells including hepatocytes, cholangiocytes, and hepatic stellate cells in liver fibrosis. Exosomes have been reported to play an essential role in the inactivation or activation of hepatic stellate cells through the delivery of non-coding RNAs and proteins. In recent years, this exosome cargo has become a research hotspot. Recent studies have indicated the potential therapeutic benefit of exosomes in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>35100287</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Transplantation of adipose-derived stem cells ameliorates Echinococcus multilocularis-induced liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Alveolar echinococcosis (AE) can cause severe liver fibrosis and could be fatal if left untreated. Currently, there are no effective therapeutic options for AE-induced liver fibrosis. In view of the therapeutic potential of adipose-derived stem cells (ADSCs), we investigated whether ADSCs transplantation has the ability to control or reverse fibrosis progression in the liver of Echinococcus multilocularis (E. multilocularis) infected mice. C57BL/6 mice infected with E. multilocularis through portal vein inoculation were intravenously injected with ADSCs isolated from inguinal adipose tissues of 6-8 weeks old mice. Histopathological analysis including heamatoxylin &amp; eosin staining as well as Masson's trichrome staining, and Sirius red staining were performed to access the degree of liver fibrosis. Histopathological examination 30 days after ADSCs transplantation revealed that ADSCs significantly decreased the degree of liver fibrosis in E. multilocularis infected mice by inhibiting the expressions of α-SMA and type 1 collagen deposition. In addition, compared to the non-transplanted group, ADSCs transplantation reduced fibrotic areas in E. multilocularis infected mice. We also found that ADSCs transplantation significantly down-regulated TGF-β1 and TGF-βR expressions, while up-regulating Smad7 expression in the TGF-β/Smad signaling pathway. ADSCs can alleviate Echinococcus multilocularis infection-induced liver fibrosis by modulating the activity level of the TGF-β/Smad7 signaling pathway and provide a potential therapeutic approach for E. multilocularis-induced fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>37852157</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Exosomes from adipose-derived mesenchymal stem cells improve liver fibrosis by regulating the miR-20a-5p/TGFBR2 axis to affect the p38 MAPK/NF-κB pathway.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Human adipose-derived mesenchymal stem cell exosomes (ADSC-Exos) are active constituents for treating liver fibrosis. This paper attempted to preliminarily explain the functional mechanism of ADSC-Exos in liver fibrosis through the p38 MAPK/NF-κB pathway. The cell models of hepatic fibrosis were established by inducing LX-2 cells with TGF-β1. Mouse models of liver fibrosis were established by treating mice with CCl&lt;sub&gt;4&lt;/sub&gt;. The in vivo and in vitro models of liver fibrosis were treated with ADSC-Exos. ADSCs were identified by flow cytometry/Alizarin red/oil red O/alcian blue staining. ADSC-Exos were identified by transmission electron microscopy, nanoparticle tracking analysis, and Western blot. LX-2 cell proliferation/viability were evaluated by MTT/BrdU assays. Exosomes were tracked in vivo and body weight changes in mice were monitored. Hepatic pathological changes were observed by HE/Masson staining. α-SMA/collagen I levels in liver tissues were assessed by immunohistochemistry. HA/PIIINP concentrations were measured using the magnetic particle chemiluminescence method. Liver function was assessed using an automatic analyzer. miR-20a-5p level was measured by RT-qPCR. The mRNA levels of fibrosis markers were determined by RT-qPCR, and their protein levels and levels of MAPK/NF-κB pathway-related proteins, as well as TGFBR2 protein level were measured by Western blot. The P65 nuclear expression in mouse liver tissues was quantified by immunofluorescence. ADSC-Exos suppressed TGF-β1-induced LX-2 cell proliferation and fibrosis and reduced mRNA and protein levels of fibrosis markers in vitro. ADSC-Exos ameliorated liver fibrosis by inhibiting the p38 MAPK/NF-κB pathway activation. ADSC-Exos inhibited activation of the p38 MAPK/NF-κB pathway via regulating the miR-20a-5p/TGFBR2 axis. The in vivo experiment asserted that ADSC-Exos were mainly distributed in the liver, and ADSC-Exos relieved liver fibrosis in mice, which was evidenced by alleviating decreased body weight, reducing collagen and enhancing liver function, and repressed the activation of the p38 MAPK/NF-κB pathway via the miR-20a-5p/TGFBR2 axis. ADSC-Exos attenuated liver fibrosis by suppressing the activation of the p38 MAPK/NF-κB pathway via the miR-20a-5p/TGFBR2 axis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>24036368</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Wnt signaling in liver fibrosis: progress, challenges and potential directions.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a common wound-healing response to chronic liver injuries, including alcoholic or drug toxicity, persistent viral infection, and genetic factors. Myofibroblastic transdifferentiation (MTD) is the pivotal event during liver fibrogenesis, and research in the past few years has identified key mediators and molecular mechanisms responsible for MTD of hepatic stellate cells (HSCs). HSCs are undifferentiated cells which play an important role in liver regeneration. Recent evidence demonstrates that HSCs derive from mesoderm and at least in part via septum transversum and mesothelium, and HSCs express markers for different cell types which derive from multipotent mesenchymal progenitors. There is a regulatory commonality between differentiation of adipocytes and that of HSC, and the shift from adipogenic to myogenic or neuronal phenotype characterizes HSC MTD. Central of this shift is a loss of expression of the master adipogenic regulator peroxisome proliferator activated receptor γ (PPARγ). Restored expression of PPARγ and/or other adipogenic transcription genes can reverse myofibroblastic HSCs to differentiated cells. Vertebrate Wnt and Drosophila wingless are homologous genes, and their translated proteins have been shown to participate in the regulation of cell proliferation, cell polarity, cell differentiation, and other biological roles. More recently, Wnt signaling is implicated in human fibrosing diseases, such as pulmonary fibrosis, renal fibrosis, and liver fibrosis. Blocking the canonical Wnt signal pathway with the co-receptor antagonist Dickkopf-1 (DKK1) abrogates these epigenetic repressions and restores the gene PPARγ expression and HSC differentiation. The identified morphogen mediated epigenetic regulation of PPARγ and HSC differentiation also serves as novel therapeutic targets for liver fibrosis and liver regeneration. In conclusion, the Wnt signaling promotes liver fibrosis by enhancing HSC activation and survival, and we herein discuss what we currently know and what we expect will come in this field in the next future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>32827326</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Co-cultured bone marrow mesenchymal stem cells repair thioacetamide-induced hepatocyte damage.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Adult stem cells, such as bone marrow mesenchymal stem cells (BMSCs), are postdevelopmental cells found in many bone tissues. They are capable of multipotent differentiation and have low immune-rejection characteristics. Hepatocytes may become inflamed and produce a large number of free radicals when affected by drugs, poisoning, or a viral infection. The excessive accumulation of free radicals in the extracellular matrix (ECM) eventually leads to liver fibrosis. This study aims to investigate the restorative effects of mouse bone marrow mesenchymal stem cells (mBMSCs) on thioacetamide (TAA)-induced damage in hepatocytes. An in vitro transwell co-culture system of HepG2 cells were co-cultured with mBMSCs. The effects of damage done to TAA-treated HepG2 cells were reflected in the overall cell survival, the expression of antioxidants (SOD1, GPX1, and CAT), the ECM (COL1A1 and MMP9), antiapoptosis characteristics (BCL2), and inflammation (TNF) genes. The majority of the damage done to HepG2 by TAA was significantly reduced when cells were co-cultured with mBMSCs. The signal transducer and activator of transcription 3 (STAT3) and its phosphorylated STAT3 (p-STAT3), as related to cell growth and survival, were detected in this study. The results show that STAT3 was significantly decreased in the TAA-treated HepG2 cells, but the STAT3 and p-STAT3 of HepG2 cells were significantly activated when the TAA-treated HepG2 co-cultured with mBMSCs. Strong expression of interleukin (Il6) messenger RNA in co-cultured mBMSCs/HepG2 indicated mBMSCs secret the cytokines IL-6, which promotes cell survival through downstream STAT3 activation and aid in the recovery of HepG2 cells damaged by TAA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>33317249</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The development of mesenchymal stem cell therapy in the present, and the perspective of cell-free therapy in the future.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a chronic condition that can lead to liver failure. Currently, the viable option for decreasing mortality is liver transplantation. However, transplant surgery is highly invasive. Therefore, cell-based therapy has been developed as an alternative. Based on promising findings from preclinical research, some new trials have been registered. One of them was autologous bone marrow cell infusion therapy and found that ameliorating liver fibrosis activated liver regeneration. Now, majority of trials focus on low-immunogenicity mesenchymal stem cells (MSCs) appropriate for allogeneic administration. However, despite about 20 years of research, only a limited number of cell-based therapies have entered routine practice. Furthermore, potential shortcomings of cell-based therapy include a limit on the number of cells, which may be administered, as well as their failure to infiltrate target organs. On the other hand, these research show that MSCs act as "conducting cells" and regulate host cells including macrophages via extracellular vesicles (EVs) or exosome signals, leading to ameliorate liver fibrosis and promote regeneration. Therefore, the concept of cell-free therapy, which makes use of cell-derived EVs or exosomes, is attracting attention. Cell-free therapies may be safely administered in large doses and are able to infiltrate target organs. However, development of cell-free therapy exhibits its own set of challenges and such therapy may not be completely curative in the context of liver disease. This review describes the history of cell-based therapy research and recent advances in cell-free therapy, as well as discussing the need for more effective therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>37626924</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Amniotic Membrane and Its Derivatives: Novel Therapeutic Modalities in Liver Disorders.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>The liver is a vital organ responsible for metabolic and digestive functions, protein synthesis, detoxification, and numerous other necessary functions. Various acute, chronic, and neoplastic disorders affect the liver and hamper its biological functions. Most of the untreated liver diseases lead to inflammation and fibrosis which develop into cirrhosis. The human amniotic membrane (hAM), the innermost layer of the fetal placenta, is composed of multiple layers that include growth-factor rich basement membrane, epithelial and mesenchymal stromal cell layers. hAM possesses distinct beneficial anti-fibrotic, anti-inflammatory and pro-regenerative properties via the secretion of multiple potent trophic factors and/or direct differentiation into hepatic cells which place hAM-based therapies as potential therapeutic strategies for the treatment of chronic liver diseases. Decellularized hAM is also an ideal scaffold for liver tissue engineering as this biocompatible niche provides an excellent milieu for cell proliferation and hepatocytic differentiation. Therefore, the current review discusses the therapeutic potential of hAM and its derivatives in providing therapeutic solutions for liver pathologies including acute liver failure, metabolic disorders, liver fibrosis as well as its application in liver tissue engineering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>27539153</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Emerging role of exosomes in liver physiology and pathology.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Exosomes can mediate intercellular communication by conveying various bioactive molecules. Plentiful evidence suggests that exosomes are involved in many liver diseases including hepatitis C virus infection, hepatitis B virus infection, hepatocellular carcinoma, liver fibrosis, cirrhosis, non-alcoholic fatty liver disease, and alcoholic liver disease. Moreover, exosomes are present in nearly all human body fluids. Therefore, exosomal miRNA or proteins have the potential to be novel biomarkers of liver diseases. In the treatment of liver diseases, exosomes could participate in adaptive immune response and mesenchymal stem cell-based therapy. Exosomes can also be used as vehicles for genetic materials and drug delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>32928296</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-based Smad7 gene therapy for experimental liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Bone mesenchymal stem cells (MSCs) can promote liver regeneration and inhibit inflammation and hepatic fibrosis. MSCs also can serve as a vehicle for gene therapy. Smad7 is an essential negative regulatory gene in the TGF-β1/Smad signalling pathway. Activation of TGF-β1/Smad signalling accelerates liver inflammation and fibrosis; we therefore hypothesized that MSCs overexpressing the Smad7 gene might be a new cell therapy approach for treating liver fibrosis via the inhibition of TGF-β1/Smad signalling. MSCs were isolated from 6-week-old Wistar rats and transduced with the Smad7 gene using a lentivirus vector. Liver cirrhosis was induced by subcutaneous injection of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) for 8 weeks. The rats with established liver cirrhosis were treated with Smad7-MSCs by direct injection of cells into the main lobes of the liver. The expression of Smad7, Smad2/3 and fibrosis biomarkers or extracellular matrix proteins and histopathological change were assessed by quantitative PCR, ELISA and Western blotting and staining. The mRNA and protein level of Smad7 in the recipient liver and serum were increased after treating with Smad-MSCs for 7 and 21 days (P &lt; 0.001). The serum levels of collagen I and III and collagenase I and III were significantly (P &lt; 0.001) reduced after the treatment with Smad7-MSCs. The mRNA levels of TGF-β1, TGFBR1, α-SMA, TIMP-1, laminin and hyaluronic acid were decreased (P &lt; 0.001), while MMP-1 increased (P &lt; 0.001). The liver fibrosis score and liver function were significantly alleviated after the cell therapy. The findings suggest that the MSC therapy with Smad7-MSCs is effective in the treatment of liver fibrosis in the CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver cirrhosis model. Inhibition of TGF-β1 signalling pathway by enhancement of Smad-7 expression could be a feasible cell therapy approach to mitigate liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>37604091</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Advancements in mesenchymal stem cell therapy for liver cirrhosis: Unveiling origins, treatment mechanisms, and current research frontiers.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Chronic liver disease inevitably progresses to liver cirrhosis, significantly compromising patients' overall survival and quality of life. However, a glimmer of hope emerges with the emergence of mesenchymal stem cells, possessing remarkable abilities for self-renewal, differentiation, and immunomodulation. Leveraging their potential, MSCs have become a focal point in both basic and clinical trials, offering a promising therapeutic avenue to impede fibrosis progression and enhance the life expectancy of individuals battling hepatic cirrhosis. This comprehensive review serves to shed light on the origin of MSCs, the intricate mechanisms underlying cirrhosis treatment, and the cutting-edge advancements in basic and clinical research surrounding MSC-based therapies for liver cirrhosis patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>36029414</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>L-Theanine-Treated Adipose-Derived Mesenchymal Stem Cells Alleviate the Cytotoxicity Induced by N-Nitrosodiethylamine in Liver.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Liver inflammation is the main cause of severe liver diseases, including liver fibrosis, steatohepatitis, cirrhosis and hepatocellular carcinoma. Cell therapy topics are receiving increasingly more attention. The therapeutic applications of mesenchymal stem cells (MSC) have become one of the most discussed issues. While other stem cells have therapeutic effects, they have only one or two clinical applications. MSCs are responsible for repairing a variety of tissue injuries. Moreover, MSCs could be derived from several sources, including adipose tissue. MSCs are usually more abundant and easier to obtain compared to other stem cells. To prove the concept that MSCs have homing ability to the injured tissue and assist in tissue repair, we examined the effects of intravenous injected adipose-derived mesenchymal stem cells (ADSCs) in a N-nitrosodiethylamine (DEN)-induced liver injury rat model. The significant repairing ability of ADSCs was observed. The levels of fibrosis, apoptosis, and tumorigenesis in the DEN-injured liver tissues all decreased after ADSC treatment. Furthermore, to enhance the therapeutic effects of ADSCs, we pretreated them with L-theanine, which promotes the hepatocyte growth factor secretion of ADSC, and therefore improved the healing effects on injured liver tissue. ADSCs, especially L-theanine-pretreated ADSCs, have anti-inflammation, anti-apoptosis, and anti-tumorigenesis effects on the N-nitrosodiethylamine-induced liver injury rat model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>37079286</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Therapeutic potentials of mesenchymal stromal cells-derived extracellular vesicles in liver failure and marginal liver graft rehabilitation: a scoping review.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Liver failure includes distinct subgroups of diseases: Acute liver failure (ALF) without preexisting cirrhosis, acute-on-chronic liver failure (ACLF) (severe form of cirrhosis associated with organ failures and excess mortality), and liver fibrosis (LF). Inflammation plays a key role in ALF, LF, and more specifically in ACLF for which we have currently no treatment other than liver transplantation (LT). The increasing incidence of marginal liver grafts and the shortage of liver grafts require us to consider strategies to increase the quantity and quality of available liver grafts. Mesenchymal stromal cells (MSCs) have shown beneficial pleiotropic properties with limited translational potential due to the pitfalls associated with their cellular nature. MSC-derived extracellular vesicles (MSC-EVs) are innovative cell-free therapeutics for immunomodulation and regenerative purposes. MSC-EVs encompass further advantages: pleiotropic effects, low immunogenicity, storage stability, good safety profile, and possibility of bioengineering. Currently, no human studies explored the impact of MSC-EVs on liver disease, but several preclinical studies highlighted their beneficial effects. In ALF and ACLF, data showed that MSC-EVs attenuate hepatic stellate cells activation, exert antioxidant, anti-inflammatory, anti-apoptosis, anti-ferroptosis properties, and promote regeneration of the liver, autophagy, and improve metabolism through mitochondrial function recovery. In LF, MSC-EVs demonstrated anti-fibrotic properties associated with liver tissue regeneration. Normothermic-machine perfusion (NMP) combined with MSC-EVs represents an attractive therapy to improve liver regeneration before LT. Our review suggests a growing interest in MSC-EVs in liver failure and gives an appealing insight into their development to rehabilitate marginal liver grafts through NMP.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>35563807</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Recent Advancements in Antifibrotic Therapies for Regression of Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a severe form of liver fibrosis that results in the irreversible replacement of liver tissue with scar tissue in the liver. Environmental toxicity, infections, metabolic causes, or other genetic factors including autoimmune hepatitis can lead to chronic liver injury and can result in inflammation and fibrosis. This activates myofibroblasts to secrete ECM proteins, resulting in the formation of fibrous scars on the liver. Fibrosis regression is possible through the removal of pathophysiological causes as well as the elimination of activated myofibroblasts, resulting in the reabsorption of the scar tissue. To date, a wide range of antifibrotic therapies has been tried and tested, with varying degrees of success. These therapies include the use of growth factors, cytokines, miRNAs, monoclonal antibodies, stem-cell-based approaches, and other approaches that target the ECM. The positive results of preclinical and clinical studies raise the prospect of a viable alternative to liver transplantation in the near future. The present review provides a synopsis of recent antifibrotic treatment modalities for the treatment of liver cirrhosis, as well as a brief summary of clinical trials that have been conducted to date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>38442726</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bioreactor-based stem cell therapy for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Stem cell therapy, achieved using mesenchymal stem cells (MSCs), has been highlighted for the treatment of liver fibrosis. Infusion into the circulatory system is a traditional application of MSCs; however, this approach is limited by phenotypic drift, stem cell senescence, and vascular embolism. Maintaining the therapeutic phenotype of MSCs while avoiding adverse infusion-related reactions is the key to developing next-generation stem cell therapy technologies. Here, we propose a bioreactor-based MSCs therapy to avoid cell infusion. In this scheme, 5% liver fibrosis serum was used to induce the therapeutic phenotype of MSCs, and a fluid bioreactor carrying a co-culture system of hepatocytes and MSCs was constructed to produce the therapeutic medium. In a rat model of liver fibrosis, the therapeutic medium derived from the bioreactor significantly alleviated liver fibrosis. Therapeutic mechanisms include immune regulation, inhibition of hepatic stellate cell activation, establishment of hepatocyte homeostasis, and recovery of liver stem cell subsets. Overall, the bioreactor-based stem cell therapy (scheme) described here represents a promising new strategy for the treatment of liver fibrosis and will be beneficial for the development of 'cell-free' stem cell therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>35932064</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Endogenous Follistatin-like 1 guarantees the immunomodulatory properties of mesenchymal stem cells during liver fibrotic therapy.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) therapy has been shown to be a promising option for liver fibrosis treatment. However, critical factors affecting the efficacy of MSC therapy for liver fibrosis remain unknown. Follistatin-like 1 (FSTL1), a TGF-β-induced matricellular protein, is documented as an intrinsic regulator of proliferation and differentiation in MSCs. In the present study, we characterized the potential role of FSTL1 in MSC-based anti-fibrotic therapy and further elucidated the mechanisms underlying its action. Human umbilical cord-derived MSCs were characterized by flow cytometry. FSTL1&lt;sup&gt;low&lt;/sup&gt; MSCs were achieved by FSTL1 siRNA. Migration capacity was evaluated by wound-healing and transwell assay. A murine liver fibrotic model was created by carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) injection, while control MSCs or FSTL1&lt;sup&gt;low&lt;/sup&gt; MSC were transplanted via intravenous injection 12 weeks post CCl&lt;sub&gt;4&lt;/sub&gt; injection. Histopathology, liver function, fibrosis degree, and inflammation were analysed thereafter. Inflammatory cell infiltration was evaluated by flow cytometry after hepatic nonparenchymal cell isolation. An MSC-macrophage co-culture system was constructed to further confirm the role of FSTL1 in the immunosuppressive capacity of MSCs. RNA sequencing was used to screen target genes of FSTL1. FSTL1&lt;sup&gt;low&lt;/sup&gt; MSCs had comparable gene expression for surface markers to wildtype but limited differentiation and migration capacity. FSTL1&lt;sup&gt;low&lt;/sup&gt; MSCs failed to alleviate CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis in a mouse model. Our data indicated that FSTL1 is essential for the immunosuppressive action of MSCs on inflammatory macrophages during liver fibrotic therapy. FSTL1 silencing attenuated this capacity by inhibiting the downstream JAK/STAT1/IDO pathway. Our data suggest that FSTL1 facilitates the immunosuppression of MSCs on macrophages and that guarantee the anti-fibrotic effect of MSCs in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>27819130</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Current status and future prospects of mesenchymal stem cell therapy for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is the end-stage of many chronic liver diseases and is a significant health threat. The only effective therapy is liver transplantation, which still has many problems, including the lack of donor sources, immunological rejection, and high surgery costs, among others. However, the use of cell therapy is becoming more prevalent, and mesenchymal stem cells (MSCs) seem to be a promising cell type for the treatment of liver fibrosis. MSCs have multiple differentiation abilities, allowing them to migrate directly into injured tissue and differentiate into hepatocyte-like cells. Additionally, MSCs can release various growth factors and cytokines to increase hepatocyte regeneration, regress liver fibrosis, and regulate inflammation and immune responses. In this review, we summarize the current uses of MSC therapies for liver fibrosis and suggest potential future applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>37271943</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Recent advances in the immunomodulation mechanism of mesenchymal stem cell therapy in liver diseases.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Liver fibrosis, acute liver injury or liver failure, liver tumors, and immune rejection after liver transplantation are common clinical liver diseases. Immune responses are the key to determining the prognosis of liver diseases. Liver transplantation could be the last resort for patients with liver failure. However, the use of liver transplantation is limited because of the scarcity of organ donors, immunological rejection in recipients, and high cost. Mesenchymal stem cells (MSCs) are pluripotent adult stem cells with extensive anti-inflammatory and immunomodulation effects. MSCs can be effectively used for treating liver diseases but without the limitations that are associated with liver transplantation. Therefore, several clinical trials have utilized MSCs for the treatment of refractory liver diseases and the related mechanism is increasingly being elucidated. We have mainly summarized the recent studies that focus on the immunomodulation mechanism of MSC therapy in liver diseases. Further, we have presented our insights on the prospects of using MSCs in the treatment of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>32775366</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The clinical application of mesenchymal stem cells in liver disease: the current situation and potential future.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Liver disease is a major health issue which present poor clinical treatment performance. Cirrhosis and liver failure are common clinical manifestations of liver diseases. Liver transplantation is recognized as the ultimate and most efficient therapy to the end stage of liver disease. But it was limited by the shortage of honor organs and high cost. Nowadays, stem cell therapy gained more and more attention due to its attractive efficacy in treating liver disease especially in cirrhosis during the clinical trials. Mesenchymal stem cell (MSC) can be differentiated into hepatocytes, promote liver regeneration, inhibit liver fibrosis and induce liver apoptosis, particularly via paracrine mechanisms. This review will highlight recent clinical applications of MSC, providing the available evidence and discussing some unsolved questions in treating liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>36093813</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Adipose-derived mesenchymal stem cell-secreted extracellular vesicles alleviate non-alcoholic fatty liver disease &lt;i&gt;via&lt;/i&gt; delivering miR-223-3p.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Increasing studies have identified the potential of mesenchymal stem cell-derived extracellular vesicles (MSC-EVs) in non-alcoholic fatty liver disease (NAFLD) treatment. Hence, we further focused on the potential of adipose-derived MSC (ADSC)-EVs in NAFLD by delivering miR-223-3p. The uptake of isolated ADSC-EVs by hepatocytes was assessed, and the expression of miR-223-3p in ADSC-EVs and hepatocytes was characterized. It was established that miR-223-3p, enriched in ADSC-EVs, could be delivered by ADSC-EVs into hepatocytes. Using co-culture system and gain-of-function approach, we evaluated the effect of ADSC-EVs carrying miR-223-3p on lipid accumulation and liver fibrosis in pyrrolizidine alkaloids (PA)-induced hepatocytes and a high-fat diet-induced NAFLD mouse model. Bioinformatics websites and dual-luciferase reporter gene assay were performed to determine the interactions between miR-223-3p and E2F1, which was further validated by rescue experiments. ADSC-EVs containing miR-223-3p displayed suppressive effects on lipid accumulation and liver fibrosis through E2F1 inhibition, since E2F1 was demonstrated as a target gene of miR-223-3p. The protective role of ADSC-EVs by delivering miR-223-3p was then confirmed in the mouse model. Collectively, this study elucidated that ADSC-EVs delayed the progression NAFLD through the delivery of anti-fibrotic miR-223-3p and subsequent E2F1 suppression, which may suggest miR-223-3p-loaded ADSC-EVs to be a potential therapeutic approach for NAFLD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>36038353</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[Research progress of mesenchymal stem cell-derived exosomes in liver diseases].</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Exosomes can mediate cell-cell interactions by transporting various active substances such as nucleic acids, proteins, and lipids. Mesenchymal stem cell-derived exosomes (MSCs) can play important roles in promoting liver repair and regeneration through the active substances it carries, inhibiting liver inflammation and liver fibrosis, and regulating tumor progression, and thereby providing new therapeutic strategies for clinical liver diseases. This article reviews the research progress of MSCs-derived exosomes in liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>37365036</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[Research progress of mesenchymal stem cell-derived extracellular vesicles in liver diseases].</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived extracellular vesicles (MSC-EVs) transport and transmit intercellular information and play an essential role in physiological and pathological processes. MSC-EVs, MSC-EVs-microRNA, and genetically modified MSC-EVs are involved in the onset and progression of different liver diseases and play a role in reducing liver cell damage, promoting liver cell regeneration, inhibiting liver fibrosis, regulating liver immunity, alleviating liver oxidative stress, inhibiting liver cancer occurrence, and others. Hence, it will replace MSCs as a research hotspot for cell-free therapy. This article reviews the research progress of MSC-EVs in liver diseases and provides a new basis for cell-free therapy of clinical liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>24415865</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Role of BMSCs in liver regeneration and metastasis after hepatectomy.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma (HCC), which develops from liver cirrhosis, is highly prevalent worldwide and is a malignancy that leads to liver failure and systemic metastasis. While surgery is the preferred treatment for HCC, intervention and liver transplantation are also treatment options for end-stage liver disease. However, the success of partial hepatectomy and intervention is hindered by the decompensation of liver function. Conversely, liver transplantation is difficult to carry out due to its high cost and the lack of donor organs. Fortunately, research into bone-marrow stromal cells (BMSCs) has opened a new door in this field. BMSCs are a type of stem cell with powerful proliferative and differential potential that represent an attractive tool for the establishment of successful stem cell-based therapy for liver diseases. A number of different stromal cells contribute to the therapeutic effects exerted by BMSCs because BMSCs can differentiate into functional hepatic cells and can produce a series of growth factors and cytokines capable of suppressing inflammatory responses, reducing hepatocyte apoptosis, reversing liver fibrosis and enhancing hepatocyte functionality. Additionally, it has been shown that BMSCs can increase the apoptosis rate of cancer cells and inhibit tumor metastasis in some microenvironments. This review focuses on BMSCs and their possible applications in liver regeneration and metastasis after hepatectomy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>19824076</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Epithelial-to-mesenchymal transitions in the liver.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>The outcome of liver injury is dictated by the effectiveness of repair. Successful repair (i.e., regeneration) results in replacement of dead epithelial cells with healthy epithelial cells, and reconstructs normal hepatic structure and function. Liver regeneration is known to involve replication of surviving mature hepatocytes and bile duct cells. This review discusses recent evidence for other mechanisms that might also replace dead hepatic epithelial cells and repair liver damage, particularly during chronic injury. According to this theory, certain epithelial cells in developing livers and/or injured adult livers undergo epithelial-to-mesenchymal transition (EMT) and move into the hepatic mesenchyme where they exhibit fibroblastic features. Some of these epithelia-derived mesenchymal cells, however, may be capable of undergoing subsequent mesenchymal-to-epithelial transition (MET), reverting to epithelial cells that ultimately become hepatocytes or cholangiocytes. Although these concepts remain to be proven, the theory predicts that the balance between EMT and MET modulates the outcome of chronic liver injury. When EMT activity outstrips MET, repair is mainly fibrogenic, causing liver fibrosis. Conversely, predominance of MET favors more normal liver regeneration. In this review, we summarize evidence that certain resident liver cells are capable of EMTs in vitro and during chronic liver injury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>19383405</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>The therapeutic potential of bone marrow-derived mesenchymal stem cells on hepatic cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Hepatic cirrhosis is the end-stage of chronic liver diseases. The majority of patients with hepatic cirrhosis die from life-threatening complications occurring at their earlier ages. Liver transplantation has been the most effective treatment for these patients. Since liver transplantation is critically limited by the shortage of available donor livers, searching for an effective alternative therapy has attracted great interest in preclinical studies. The transplantation of autologous bone marrow-derived mesenchymal stem cells holds great potential for treating hepatic cirrhosis. Mesenchymal stem cells can differentiate to hepatocytes, stimulate the regeneration of endogenous parenchymal cells, and enhance fibrous matrix degradation. Experimental and clinical studies have shown promising beneficial effects. This review is intended to translate the bench study results to the patients' bedside. The potential interventions of mesenchymal stem cells on cirrhosis are illustrated in terms of the cellular and molecular mechanisms of hepatic fibrogenesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>31281379</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Human Liver-Derived Stem Cells Improve Fibrosis and Inflammation Associated with Nonalcoholic Steatohepatitis.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cell therapy may be regarded as a feasible alternative to whole organ transplantation to treat end-stage liver diseases. Human liver stem cells (HLSCs) are a population of cells easily obtainable and expandable from a human adult liver biopsy. HLSCs share with mesenchymal stromal cells the same phenotype, gene expression profile, and differentiation capabilities. In addition, HLSCs show a specific commitment to the hepatic phenotype. Injection of HLSCs into immunodeficient mice fed with a methionine-choline-deficient diet to induce nonalcoholic steatohepatitis ameliorates liver function and morphology. In particular, HLSC treatment induced a reduction of liver fibrosis and inflammation at morphological and molecular levels. Moreover, HLSCs were able to persist for up to 3 weeks after the injection. In conclusion, HLSCs have healing effects in a model of chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>31591328</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Depletion of Bone Marrow-Derived Fibrocytes Attenuates TAA-Induced Liver Fibrosis in Mice.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived fibrocytes (FC) represent a unique cell type, sharing features of both mesenchymal and hematopoietic cells. FC were shown to specifically infiltrate the injured liver and participate in fibrogenesis. Moreover, FC exert a variety of paracrine functions, thus possibly influencing the disease progression. However, the overall contribution of FC to liver fibrosis remains unclear. We aimed to study the effect of a specific FC depletion, utilizing a herpes simplex virus thymidine kinase (HSV-TK)/Valganciclovir suicide gene strategy. Fibrosis was induced by oral thioacetamide (TAA) administration in C57BL/6J mice. Hepatic hydroxyproline content was assessed for the primary readout. The HSV-TK model enabled the specific depletion of fibrocytes. Hepatic hydroxyproline content was significantly reduced as a result of the fibrocyte ablation (-7.8%; 95% CI: 0.7-14.8%; &lt;i&gt;p&lt;/i&gt; = 0.033), denoting a reduced deposition of fibrillar collagens. Lower serum alanine transaminase levels (-20.9%; 95% CI: 0.4-36.9%; &lt;i&gt;p&lt;/i&gt; = 0.049) indicate a mitigation of liver-specific cellular damage. A detailed mode of action, however, remains yet to be identified. The present study demonstrates a relevant functional contribution of fibrocytes to chronic toxic liver fibrosis, contradicting recent reports. Our results emphasize the need to thoroughly study the biology of fibrocytes in order to understand their importance for hepatic fibrogenesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>37102476</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Research Progress on the Effect of Autophagy and Exosomes on Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Chronic liver disease is a known risk factor for the development of liver cancer, and the development of microRNA (miRNA) liver therapies has been hampered by the difficulty of delivering miRNA to damaged tissues. In recent years, numerous studies have shown that hepatic stellate cell (HSC) autophagy and exosomes play an important role in maintaining liver homeostasis and ameliorating liver fibrosis. In addition, the interaction between HSC autophagy and exosomes also affects the progression of liver fibrosis. In this paper, we review the research progress of mesenchymal stem cell-derived exosomes (MSC-EVs) loaded with specific miRNA and autophagy, and their related signaling pathways in liver fibrosis, which will provide a more reliable basis for the use of MSC-EVs for therapeutic delivery of miRNAs targeting the chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>25624709</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Use of mesenchymal stem cells to treat liver fibrosis: current situation and future prospects.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Progressive liver fibrosis is a major health issue for which no effective treatment is available, leading to cirrhosis and orthotopic liver transplantation. However, organ shortage is a reality. Hence, there is an urgent need to find alternative therapeutic strategies. Cell-based therapy using mesenchymal stem cells (MSCs) may represent an attractive therapeutic option, based on their immunomodulatory properties, their potential to differentiate into hepatocytes, allowing the replacement of damaged hepatocytes, their potential to promote residual hepatocytes regeneration and their capacity to inhibit hepatic stellate cell activation or induce their apoptosis, particularly via paracrine mechanisms. The current review will highlight recent findings regarding the input of MSC-based therapy for the treatment of liver fibrosis, from in vitro studies to pre-clinical and clinical trials. Several studies have shown the ability of MSCs to reduce liver fibrosis and improve liver function. However, despite these promising results, some limitations need to be considered. Future prospects will also be discussed in this review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>28698986</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Novelties in the pathophysiology and management of portal hypertension: new treatments on the horizon.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portal hypertension (PH) is responsible for the most severe complications of cirrhosis and leading cause of death and liver transplantation. The standard pharmacological treatment available for PH currently consists of the use of a non-selective beta-blocker. However, a significant proportion of patients do not respond to pharmacological treatment. This has led to the development of identifiable targets for the discovery of new horizons in PH treatment. Recently, there has been significant progress in understanding the mechanism behind PH, which is a product of increased hepatic vascular resistance including structural changes and functional change due to endothelial dysfunction. Moreover, increased portal inflow is the outcome of dilation of splanchnic vessels and hyperdynamic circulation. Here, challenges in formulating potential pharmacological treatment as well as current potential targets for PH will be reviewed. During the past decades, there have been many efforts to explore new techniques to stimulate liver regeneration in addition to pharmacological treatment. The bone marrow (BM) stem cells which differentiate into mature hepatocytes are thought to contribute to liver regeneration and have been found to demonstrate great potential as regenerative medicine in different therapeutic applications. Based on these insights, we explore the current and potential novel therapeutic uses of BM stem cell therapy in PH.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>37874430</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Innovative preconditioning strategies for improving the therapeutic efficacy of extracellular vesicles derived from mesenchymal stem cells in gastrointestinal diseases.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gastrointestinal (GI) diseases have become a global health issue and an economic burden due to their wide distribution, late prognosis, and the inefficacy of recent available medications. Therefore, it is crucial to search for new strategies for their management. In the recent decades, mesenchymal stem cells (MSCs) therapy has attracted attention as a viable option for treating a myriad of GI disorders such as hepatic fibrosis (HF), ulcerative colitis (UC), acute liver injury (ALI), and non-alcoholic fatty liver disease (NAFLD) due to their regenerative and paracrine properties. Importantly, recent studies have shown that MSC-derived extracellular vesicles (MSC-EVs) are responsible for most of the therapeutic effects of MSCs. In addition, EVs have revealed several benefits over their parent MSCs, such as being less immunogenic, having a lower risk of tumour formation, being able to cross biological barriers, and being easier to store. MSC-EVs exhibited regenerative, anti-oxidant, anti-inflammatory, anti-apoptotic, and anti-fibrotic effects in different experimental models of GI diseases. However, a key issue with their clinical application is the maintenance of their stability and efficacy following in vivo transplantation. Preconditioning of MSC-EVs or their parent cells is one of the novel methods used to improve their effectiveness and stability. Herein, we discuss the application of MSC-EVs in several GI disorders taking into account their mechanism of action. We also summarise the challenges and restrictions that need to be overcome to promote their clinical application in the treatment of various GI diseases as well as the recent developments to improve their effectiveness. A representation of the innovative preconditioning techniques that have been suggested for improving the therapeutic efficacy of MSC-EVs in GI diseases. The pathological conditions in various GI disorders (ALI, UC, HF and NAFLD) create a harsh environment for EVs and their parents, increasing the risk of apoptosis and senescence of MSCs and thereby diminishing MSC-EVs yield and restricting their large-scale applications. Preconditioning with pharmacological agents or biological mediators can improve the therapeutic efficacy of MSC-EVs through their adaption to the lethal environment to which they are subjected. This can result in establishment of a more conducive environment and activation of numerous vital trajectories that act to improve the immunomodulatory, reparative and regenerative activities of the derived EVs, as a part of MSCs paracrine system. ALI, acute liver injury; GI diseases, gastrointestinal diseases; HF, hepatic fibrosis; HSP, heat shock protein; miRNA, microRNA; mRNA, messenger RNA; MSC-EVs, mesenchymal stem cell-derived extracellular vesicles; NAFLD, non-alcoholic fatty liver disease; UC, ulcerative colitis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>35484432</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>hMSCs-derived exosome circCDK13 inhibits liver fibrosis by regulating the expression of MFGE8 through miR-17-5p/KAT2B.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>To investigate the effects of human bone marrow mesenchymal stem cells (hMSCs)-derived exosome circCDK13 on liver fibrosis and its mechanism. Exosomes derived from hMSCs were extracted and identified by flow cytometry and osteogenic and adipogenic induction, and the expressions of marker proteins on the surface of exosomes were detected by western blot. Cell proliferation was measured by CCK8 assay, the expression of active markers of HSCs by immunofluorescence, and the expressions of fibrosis-related factors by western blot. A mouse model of liver fibrosis was established by intraperitoneal injection of thioacetamide (TAA). Fibrosis was detected by HE staining, Masson staining, and Sirius red staining. Western blot was utilized to test the expressions of PI3K/AKT and NF-κB pathway related proteins, dual-luciferase reporter assay and RIP assay to validate the binding between circCDK13 and miR-17-5p as well as between miR-17-5p and KAT2B, and ChIP to validate the effect of KAT2B on H3 acetylation and MFGE8 transcription. hMSCs-derived exosomes inhibited liver fibrosis mainly through circCDK13. Dual-luciferase reporter assay and RIP assay demonstrated the binding between circCDK13 and miR-17-5p as well as between miR-17-5p and KAT2B. Further experimental results indicated that circCDK13 mediated liver fibrosis by regulating the miR-17-5p/KAT2B axis, and KAT2B promoted MFGE8 transcription by H3 acetylation. Exo-circCDK13 inhibited PI3K/AKT and NF-κB signaling pathways activation through regulating the miR-17-5p/KAT2B axis. hMSCs-derived exosome circCDK13 inhibited liver fibrosis by regulating the expression of MFGE8 through miR-17-5p/KAT2B axis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>32621283</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Erythropoietin-Modified Mesenchymal Stem Cells Enhance Anti-fibrosis Efficacy in Mouse Liver Fibrosis Model.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC)-based cell transplantation is an effective means of treating chronic liver injury, fibrosis and end-stage liver disease. However, extensive studies have found that only a small number of transplanted cells migrate to the site of injury or lesion, and repair efficacy is very limited. Bone marrow-derived MSCs (BM-MSCs) were generated that overexpressed the erythropoietin (EPO) gene using a lentivirus. Cell Counting Kit-8 was used to detect the viability of BM-MSCs after overexpressing EPO. Cell migration and apoptosis were verified using Boyden chamber and flow cytometry, respectively. Finally, the anti-fibrosis efficacy of EPO-MSCs was evaluated in vivo using immunohistochemical analysis. EPO overexpression promoted cell viability and migration of BM-MSCs without inducing apoptosis, and EPO-MSC treatment significantly alleviated liver fibrosis in a carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) induced mouse liver fibrosis model. EPO-MSCs enhance anti-fibrotic efficacy, with higher cell viability and stronger migration ability compared with treatment with BM-MSCs only. These findings support improving the efficiency of MSCs transplantation as a potential therapeutic strategy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>32267915</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hepatic stellate cell-specific knockout of transcriptional intermediary factor 1γ aggravates liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Transforming growth factor β (TGFβ) is a crucial factor in fibrosis, and transcriptional intermediary factor 1γ (TIF1γ) is a negative regulator of the TGFβ pathway; however, its role in liver fibrosis is unknown. In this study, mesenchymal stem cells derived from human embryonic stem cells (hE-MSCs) that secrete hepatocyte growth factor (HGF) were used to observe the repair of thioacetamide (TAA)-induced liver fibrosis. Our results showed that TIF1γ was significantly decreased in LX2 cells when exposed to TGFβ1. Such decrease of TIF1γ was significantly prevented by co-culture with hE-MSCs. Interaction of TIF1γ with SMAD2/3 and binding to the promoter of the α-smooth muscle gene (αSMA) suppressed αSMA expression. Phosphorylation of cAMP response element-binding protein (CREB) and binding on the TIF1γ promoter region induced TIF1γ expression. Furthermore, hepatic stellate cell-specific TIF1γ-knockout mice showed aggravation of liver fibrosis. In conclusion, loss of TIF1γ aggravates fibrosis, suggesting that a strategy to maintain TIF1γ during liver injury would be a promising therapeutic approach to prevent or reverse liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27481213</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Nanofiber-expanded stem cells mitigate liver fibrosis: Experimental study.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>This study examines a pretreatment strategy to strengthen the hepatic lineage divergence of mesenchymal stem cells (MSCs). BMSCs were expanded in the presence or absence of nanofiber (NF) and treated with growth factors (GF) prior to transplantation. Thioacetamide (TA) was used for liver fibrosis induction and transplantation of NF-expanded BMSCs was compared biochemically and histologically to the cells expanded without NF scaffold. The ultraweb NF caused better proliferation and characterization of MSCs. MSCs transplantation significantly improved liver functions, increased hepatic HGF and Bcl-2 levels, whereas decreased serum fibronectin, hepatic TNF-α and TGF-β1 levels. Hepatic HNF4α, FOXa2, CYP7a1 genes expression were enhanced while β-5-Tub and AFP genes expression were depressed. Histological study documented these results. Differentiated NF-MSCs showed pronounced enhancement of the aforementioned parameters as compared to differentiated MSCs in the absence of NF. pretreatment with growth factors in the presence of NF augment homing, repopulation and hepatic differentiation abilities of MSCs and proves to be a promising approach for the treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>34530931</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Transition of clinical and basic studies on liver cirrhosis treatment using cells to seek the best treatment.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>The liver is a highly regenerative organ; however, its regeneration potential is reduced by chronic inflammation with fibrosis accumulation, leading to cirrhosis. With an aim to tackle liver cirrhosis, a life-threatening disease, trials of autologous bone marrow cell infusion (ABMi) therapy started in 2003. Clinical studies revealed that ABMi attenuated liver fibrosis and improved liver function in some patients; however, this therapy has some limitations such as the need of general anesthesia. Following ABMi therapy, studies have focused on specific cells such as mesenchymal stromal cells (MSCs) from a variety of tissues such as bone marrow, adipose tissue, and umbilical cord tissues. Particularly, studies have focused on gaining mechanistic insights into MSC distribution and effects on immune cells, especially macrophages. Several basic studies have reported the use of MSCs for liver cirrhosis models, while a number of clinical studies have used autologous and allogeneic MSCs; however, there are only a few reports on the obvious substantial effect of MSCs in clinical studies. Since then, studies have analyzed and identified the important signals or components in MSCs that regulate immune cells, such as macrophages, under cirrhotic conditions and have revealed that MSC-derived exosomes are key regulators. Researchers are still seeking the best approach and filling the gap between basic and clinical studies to treat liver cirrhosis. This paper highlights the timeline of basic and clinical studies analyzing ABMi and MSC therapies for cirrhosis and the scope for future studies and therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>37901235</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Editorial: Community series in hepatic immune response underlying liver cirrhosis and portal hypertension, volume II.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>27495745</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Clinical Application of Pluripotent Stem Cells: An Alternative Cell-Based Therapy for Treating Liver Diseases?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>The worldwide shortage of donor livers for organ and hepatocyte transplantation has prompted the search for alternative therapies for intractable liver diseases. Cell-based therapy is envisaged as a useful therapeutic option to recover and stabilize the lost metabolic function for acute liver failure, end-stage and congenital liver diseases, or for those patients who are not considered eligible for organ transplantation. In recent years, research to identify alternative and reliable cell sources for transplantation that can be derived by reproducible methods has been encouraged. Human pluripotent stem cells (PSCs), which comprise both embryonic and induced PSCs, may offer many advantages as an alternative to hepatocytes for liver cell therapy. Their capacity for expansion, hepatic differentiation and self-renewal make them a promising source of unlimited numbers of hepatocyte-like cells for treating and repairing damaged livers. Immunogenicity and tumorigenicity of human PSCs remain the bottleneck for successful clinical application. However, recent advances made to develop disease-corrected hepatocyte-like cells from patients' human-induced PSCs by gene editing have opened up many potential gateways for the autologous treatment of hereditary liver diseases, which may likely reduce the risk of rejection and the need for lifelong immunosuppression. Well-defined methods to reduce the expression of oncogenic genes in induced PSCs, including protocols for their complete and safe hepatic differentiation, should be established to minimize the tumorigenicity of transplanted cells. On top of this, such new strategies are currently being rigorously tested and validated in preclinical studies before they can be safely transferred to clinical practice with patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>22228987</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Therapeutic implications of mesenchymal stem cells in liver injury.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs), represent an attractive tool for the establishment of a successful stem-cell-based therapy of liver diseases. A number of different mechanisms contribute to the therapeutic effects exerted by MSCs, since these cells can differentiate into functional hepatic cells and can also produce a series of growth factors and cytokines able to suppress inflammatory responses, reduce hepatocyte apoptosis, regress liver fibrosis, and enhance hepatocyte functionality. To date, the infusion of MSCs or MSC-conditioned medium has shown encouraging results in the treatment of fulminant hepatic failure and in end-stage liver disease in experimental settings. However, some issues under debate hamper the use of MSCs in clinical trials. This paper summarizes the biological relevance of MSCs and the potential benefits and risks that can result from translating the MSC research to the treatment of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>30635966</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strategies to improve the efficiency of mesenchymal stem cell transplantation for reversal of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>End-stage liver fibrosis frequently progresses to portal vein thrombosis, formation of oesophageal varices, hepatic encephalopathy, ascites, hepatocellular carcinoma and liver failure. Mesenchymal stem cells (MSCs), when transplanted in vivo, migrate into fibrogenic livers and then differentiate into hepatocyte-like cells or fuse with hepatocytes to protect liver function. Moreover, they can produce various growth factors and cytokines with anti-inflammatory effects to reverse the fibrotic state of the liver. In addition, only a small number of MSCs migrate to the injured tissue after cell transplantation; consequently, multiple studies have investigated effective strategies to improve the survival rate and activity of MSCs for the treatment of liver fibrosis. In this review, we intend to arrange and analyse the current evidence related to MSC transplantation in liver fibrosis, to summarize the detailed mechanisms of MSC transplantation for the reversal of liver fibrosis and to discuss new strategies for this treatment. Finally, and most importantly, we will identify the current problems with MSC-based therapies to repair liver fibrosis that must be addressed in order to develop safer and more effective routes for MSC transplantation. In this way, it will soon be possible to significantly improve the therapeutic effects of MSC transplantation for liver regeneration, as well as enhance the quality of life and prolong the survival time of patients with liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>33554346</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Macro-encapsulation of mesenchymal stem cells in acute and chronic liver injury animal models.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Stem cell treatments using scaffolds for liver disease have been well studied. However, macro-encapsulation of mesenchymal stem cells (MSCs) to minimize or inhibit stem cell homing has not been evaluated. Here, we conducted a proof-of-concept study using MSCs macro-encapsulated in poly lactic-co-glycolic acid in liver disease models. Poly lactic-co-glycolic acid semipermeable membranes (surface pore size up to 40 μm) were used as the macro-encapsulation system. Macro-encapsulated pouches were loaded with MSCs and sealed. Each pouch was implanted in the subcutaneous region of the dorsum or interlobular space of the liver. Acute liver injury was induced using thioacetamide intraperitoneal injection thrice a week. For the chronic liver fibrosis model, thioacetamide dose was gradually increased, starting from 100 to 400 mg/kg over 16 weeks (thrice a week). In the acute liver injury model, the treated groups showed decreased liver inflammation and necrosis compared with the control. Hepatic fibrosis decreased in the treated group in the chronic liver fibrosis model compared with that in the control group. Encapsulated MSCs exhibited changed cell morphology and characteristics after implantation, showing increased periodic acid-Schiff staining and CYP2E1 expression. Migration and homing of MSCs into the liver was not observed. Under hypoxic conditions, macro-encapsulated MSCs secreted more growth hormones, including vascular endothelial growth factor, platelet-derived growth factor, angiopoietin-2, and placental growth factor, than monolayered MSCs in vitro. Macro-encapsulated MSCs attenuate hepatic inflammation and fibrosis by upregulating hypoxia-induced growth hormone secretion in liver disease models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>34565478</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Synthesized HMGB1 peptide attenuates liver inflammation and suppresses fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>The liver has a high regenerative ability and can induce spontaneous regression of fibrosis when early liver damage occurs; however, these abilities are lost when chronic liver damage results in decompensated cirrhosis. Cell therapies, such as mesenchymal stem cell (MSC) and macrophage therapies, have attracted attention as potential strategies for mitigating liver fibrosis. Here, we evaluated the therapeutic effects of HMGB1 peptide synthesized from box A of high mobility group box 1 protein. Liver damage and fibrosis were evaluated using a carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced cirrhosis mouse model. The effects of HMGB1 peptide against immune cells were evaluated by single-cell RNA-seq using liver tissues, and those against monocytes/macrophages were further evaluated by in vitro analyses. Administration of HMGB1 peptide did not elicit a rapid response within 36 h, but attenuated liver damage after 1 week and suppressed fibrosis after 2 weeks. Fibrosis regression developed over time, despite continuous liver damage, suggesting that administration of this peptide could induce fibrolysis. In vitro analyses could not confirm a direct effect of HMGB1 peptide against monocyte/macrophages. However, macrophages were the most affected immune cells in the liver, and the number of scar-associated macrophages (Trem2+Cd9+ cells) with anti-inflammatory markers increased in the liver following HMGB1 treatment, suggesting that indirect effects of monocytes/macrophages were important for therapeutic efficacy. Overall, we established a new concept for cell-free therapy using HMGB1 peptide for cirrhosis through the induction of anti-inflammatory macrophages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>37167639</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Human Wharton's jelly mesenchymal stem cells derived-exosomes enriched by miR-124 promote an anti-fibrotic response in an experimental model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a significant challenge to global health that results in organ failure through inflammation and the release of fibrotic biomarkers. Due to the lack of effective treatments for liver fibrosis, anti-fibrotic and anti-inflammatory therapies are being developed. Since there has been an association between aberrant expression of miR-124 and liver disease progression, we investigated whether delivery of miR-124 through human Wharton's jelly mesenchymal stem cells derived-exosomes (hWJMSC-Exo) can improve liver fibrosis. We established a 6-week carbon tetrachloride (CCl4)-induced mouse model of liver fibrosis, then we administered hWJMSC-Exo and miR-124-3p-enriched exosomes (ExomiR-124) for three weeks. The extent of fibrosis and inflammation was assessed by histology, biochemistry, Real-time PCR, immunohistochemistry, and Enzyme-linked immunoassays (ELISA). The inflammatory status of the spleen was also investigated using flow cytometry. Based on the gene and protein expression measurement of IL-6, IL-17, TGF-β, STAT3, α-SMA, and COL1, In vivo administration of Exo and ExomiR-124 effectively reduce collagen accumulation and inhibition of inflammation. Regarding histopathology findings, the therapeutic effect of ExomiR-124 against liver fibrosis was significantly greater than hWJMSC-Exo. In addition, we found that Exo and ExomiR-124 was capable of phenotype switching of splenic monocytes from inflammatory Ly6C&lt;sup&gt;hi&lt;/sup&gt; to restorative Ly6C&lt;sup&gt;lo&lt;/sup&gt;. MSC-derived exosomes demonstrated anti-inflammatory effect via different aspects. Aside from the therapeutic approach, enrichment of exosomes as a nanocarrier by miR-124 revealed the down-regulation of STAT3, which plays a crucial role in liver fibrosis. The anti-inflammatory and anti-fibrotic properties of ExomiR-124 could be a promising option in liver fibrosis combination therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>38003277</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Integrated Transcriptome and Metabolomics to Reveal the Mechanism of Adipose Mesenchymal Stem Cells in Treating Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Liver fibrosis (LF) is a late-stage process observed in various chronic liver diseases with bile and retinol metabolism closely associated with it. Adipose-derived mesenchymal stem cells (ADMSCs) have shown significant therapeutic potential in treating LF. In this study, the transplantation of ADMSCs was applied to a CCl&lt;sub&gt;4&lt;/sub&gt;-induced LF model to investigate its molecular mechanism through a multi-omics joint analysis. The findings reveal that ADMSCs effectively reduced levels of alanine aminotransferase (ALT), aspartate aminotransferase (AST), total bilirubin (TBIL), gamma-glutamyltransferase (GGT), Interleukin-6 (IL-6), tumor necrosis factor-alpha (TNF-α), and α-Smooth muscle actin (α-SMA), thereby mitigating liver lesions, preventing liver parenchymal necrosis, and improving liver collagen deposition. Furthermore, 4751 differentially expressed genes (DEGs) and 270 differentially expressed metabolites (DMs) were detected via transcriptome and metabolomics analysis. Conjoint analysis showed that ADMSCs up-regulated the expression of &lt;i&gt;Cyp7a1&lt;/i&gt;, &lt;i&gt;Baat&lt;/i&gt;, &lt;i&gt;Cyp27a1&lt;/i&gt;, &lt;i&gt;Adh7&lt;/i&gt;, &lt;i&gt;Slco1a4&lt;/i&gt;, &lt;i&gt;Aldh1a1,&lt;/i&gt; and &lt;i&gt;Adh7&lt;/i&gt; genes to promote primary bile acids (TCDCA: Taurochenodeoxycholic acid; GCDCA: Glycochenodeoxycholic acid; GCA: glycocholic acid, TCA: Taurocholic acid) synthesis, secretion and retinol metabolism. This suggests that ADMSCs play a therapeutic role in maintaining bile acid (BA) homeostasis and correcting disturbances in retinol metabolism.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>31523373</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Human umbilical cord mesenchymal stem cells ameliorate liver fibrosis &lt;i&gt;in vitro&lt;/i&gt; and &lt;i&gt;in vivo&lt;/i&gt;: From biological characteristics to therapeutic mechanisms.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a wound-healing response to chronic injuries, characterized by the excessive accumulation of extracellular matrix or scar tissue within the liver; in addition, its formation is associated with multiple cytokines as well as several cell types and a variety of signaling pathways. When liver fibrosis is not well controlled, it can progress to liver cirrhosis, but it is reversible in principle. Thus far, no efficient therapy is available for treatment of liver fibrosis. Although liver transplantation is the preferred strategy, there are many challenges remaining in this approach, such as shortage of donor organs, immunological rejection, and surgical complications. Hence, there is a great need for an alternative therapeutic strategy. Currently, mesenchymal stem cell (MSC) therapy is considered a promising therapeutic strategy for the treatment of liver fibrosis; advantageously, the characteristics of MSCs are continuous self-renewal, proliferation, multipotent differentiation, and immunomodulatory activities. The human umbilical cord-derived (hUC)-MSCs possess not only the common attributes of MSCs but also more stable biological characteristics, relatively easy accessibility, abundant source, and no ethical issues (&lt;i&gt;e.g&lt;/i&gt;., bone marrow being the adult source), making hUC-MSCs a good choice for treatment of liver fibrosis. In this review, we summarize the biological characteristics of hUC-MSCs and their paracrine effects, exerted by secretion of various cytokines, which ultimately promote liver repair through several signaling pathways. Additionally, we discuss the capacity of hUC-MSCs to differentiate into hepatocyte-like cells for compensating the function of existing hepatocytes, which may aid in amelioration of liver fibrosis. Finally, we discuss the current status of the research field and its future prospects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>30394698</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cells and Induced Bone Marrow-Derived Macrophages Synergistically Improve Liver Fibrosis in Mice.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>We describe a novel therapeutic approach for cirrhosis using mesenchymal stem cells (MSCs) and colony-stimulating factor-1-induced bone marrow-derived macrophages (id-BMMs) and analyze the mechanisms underlying fibrosis improvement and regeneration. Mouse MSCs and id-BMMs were cultured from mouse bone marrow and their interactions analyzed in vitro. MSCs, id-BMMs, and a combination therapy using MSCs and id-BMMs were administered to mice with CCl&lt;sub&gt;4&lt;/sub&gt; -induced cirrhosis. Fibrosis regression, liver regeneration, and liver-migrating host cells were evaluated. Administered cell behavior was also tracked by intravital imaging. In coculture, MSCs induced switching of id-BMMs toward the M2 phenotype with high phagocytic activity. In vivo, the combination therapy reduced liver fibrosis (associated with increased matrix metalloproteinases expression), increased hepatocyte proliferation (associated with increased hepatocyte growth factor, vascular endothelial growth factor, and oncostatin M in the liver), and reduced blood levels of liver enzymes, more effectively than MSCs or id-BMMs monotherapy. Intravital imaging showed that after combination cell administration, a large number of id-BMMs, which phagocytosed hepatocyte debris and were retained in the liver for more than 7 days, along with a few MSCs, the majority of which were trapped in the lung, migrated to the fibrotic area in the liver. Host macrophages and neutrophils infiltrated after combination therapy and contributed to liver fibrosis regression and promoted regeneration along with administered cells. Indirect effector MSCs and direct effector id-BMMs synergistically improved cirrhosis along with host cells in mice. These studies pave the way for new treatments for cirrhosis. Stem Cells Translational Medicine 2019;8:271&amp;284.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>35659360</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Human amniotic mesenchymal stem cells-derived IGFBP-3, DKK-3, and DKK-1 attenuate liver fibrosis through inhibiting hepatic stellate cell activation by blocking Wnt/β-catenin signaling pathway in mice.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is an outcome of restoring process in chronic liver injury. Human amniotic mesenchymal stem cells (hAMSCs) derived from amniotic membrane have multilineage differentiation, immunosuppressive, and anti-inflammatory potential which makes them suitable for treating liver fibrosis. This study aimed to explore the effect and mechanism of hAMSCs on liver fibrosis. hAMSCs were transplanted into carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver fibrosis mice via tail vein, and the effects of hAMSCs on hepatic fibrosis were assessed. The effects of hAMSCs and hAMSCs conditional medium (CM) on the activation of hepatic stellate cells (HSCs) were investigated in vivo and in vitro. Antibody array assay was used to identify the cytokines secreted by hAMSCs that may inhibit the activation of HSCs. Finally, the underlying mechanisms were explored by assessing IGF-1R/PI3K/AKT and GSK3β/β-catenin signaling pathways in the activated HSCs (LX-2) with hAMSCs and hAMSCs transfected with corresponding siRNAs. Our results showed that hAMSCs possessed the characterizations of mesenchymal stem cells. hAMSCs significantly reduced liver fibrosis and improved liver function in mice by inhibiting HSCs activation in vivo. Both hAMSCs and hAMSC-CM remarkably inhibited the collagen deposition and activation of LX-2 cells in vitro. Antibody array assay showed that insulin-like growth factor binding protein-3 (IGFBP-3), Dickkopf-3 (DKK-3), and Dickkopf-1 (DKK-1) were highly expressed in the co-culture group and hAMSC-CM group compared with LX-2 group. Western blot assay demonstrated that IGFBP-3, DKK-3, and DKK-1 derived from hAMSCs inhibit LX-2 cell activation through blocking canonical Wnt signaling pathway. Our results demonstrated that IGFBP-3, Dkk3, and DKK-1 secreted by hAMSCs attenuated liver fibrosis in mice through inhibiting HSCs activation via depression of Wnt/β-catenin signaling pathway, suggesting that hAMSCs or hAMSC-CM provides an alternative therapeutic approach for the treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>30885249</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Human bone marrow mesenchymal stem cells-derived exosomes alleviate liver fibrosis through the Wnt/β-catenin pathway.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are increasingly being applied as a therapy for liver fibrosis. Exosomes possess similar functions to their parent cells; however, they are safe and effective cell-free reagents with controllable and predictable outcomes. In this study, we investigated the therapeutic potential and underlying molecular mechanism for human bone mesenchymal stem cells-derived exosomes (hBM-MSCs-Ex) in the treatment of liver fibrosis. We established an 8-week CCl&lt;sub&gt;4&lt;/sub&gt;-induced rat liver fibrosis model, after which, we administered hBM-MSCs-Ex in vivo for 4 weeks. The resulting histopathology, liver function, and inflammatory cytokines were analyzed. In addition, we investigated the anti-fibrotic mechanism of hBM-MSCs-Ex in hepatic stellate cells (HSCs) and liver fibrosis tissue, by western blotting for the expression of Wnt/β-catenin signaling pathway-related genes. In vivo administration of hBM-MSCs-Ex effectively alleviated liver fibrosis, including a reduction in collagen accumulation, enhanced liver functionality, inhibition of inflammation, and increased hepatocyte regeneration. Moreover, based on measurement of the collagen area, Ishak fibrosis score, MDA levels, IL-1, and IL-6, the therapeutic effect of hBM-MSCs-Ex against liver fibrosis was significantly greater than that of hBM-MSCs. In addition, we found that hBM-MSCs-Ex inhibited the expression of Wnt/β-catenin pathway components (PPARγ, Wnt3a, Wnt10b, β-catenin, WISP1, Cyclin D1), α-SMA, and Collagen I, in both HSCs and liver fibrosis tissue. These results suggest that hBM-MSCs-Ex treatment could ameliorate CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis via inhibition of HSC activation through the Wnt/β-catenin pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>24861835</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Advances in mesenchymal stem cells combined with traditional Chinese medicine therapy for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a primary cause of liver cirrhosis, and even hepatocarcinoma. Recently, the usage of mesenchymal stem cells (MSCs) has been investigated to improve liver fibrosis. It has been reported that the differentiation, proliferation and migration of MSCs can be regulated by traditional Chinese medicine treatment; however, the mechanisms are still unclear. In this article, the authors review the characteristics of MSCs such as multidirectional differentiation and homing, and its application in animal experiments and clinical trials. The authors also list areas that need further investigation, andlook at the future prospects of clinical application of MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>28297787</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[Umbilical cord mesenchymal stem cells and their association with liver fibrosis].</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>At present, the most effective therapeutic method for end-stage liver fibrosis is liver transplantation. However, the application of liver transplantation is limited by a shortage of liver donors, a high incidence rate of surgical complications, graft-versus-host disease, and high medical costs. Umbilical cord mesenchymal stem cell (UC-MSC) transplantation may become a promising method for the treatment of liver diseases. UC-MSCs are adult stem cells which exhibit multipotential differentiation and can differentiate into hepatic parenchymal cells. Due to their functions including immune regulation and secretion of trophic factors, UC-MSCs can inhibit immune response, promote hepatocyte regeneration, alleviate the progression of liver fibrosis, and improve liver function. In addition, compared with bone marrow mesenchymal stem cells, UC-MSCs have abundant sources, noninvasive collection, and high safety and thus they are attracting more and more attention. This article reviews the characteristics of UC-MSCs and their mechanism of action in the treatment of liver fibrosis, as well as risks of UC-MSCs therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>35440002</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Rat bone marrow mesenchymal stem cells (BMSCs) inhibit liver fibrosis by activating GSK3β and inhibiting the Wnt3a/β-catenin pathway.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cells (BMSCs) can effectively alleviate liver fibrosis, which is a pathological injury caused by various chronic liver diseases. This study aimed to investigate the antifibrotic effects of BMSCs and elucidate the underlying mechanism by which BMSCs affect liver fibrosis in vitro and in vivo. After the rat liver fibrosis model was induced by continuous injection of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;), BMSCs were administered for 4 weeks, and histopathological analysis and liver function tests were performed. T6 hepatic stellate cells (HSC-T6 cells) were stimulated by TGF-β1, and the activation and proliferation of cells were analyzed by CCK-8 assays, flow cytometry, real-time PCR, western blotting and enzyme-linked immunosorbent assay (ELISA). Our data demonstrated that BMSCs effectively reduced the accumulation of collagen, enhanced liver functionality and ameliorated liver fibrosis in vivo. BMSCs increased the sub-G1 population in HSC-T6 cells. In addition, coculture with BMSCs reduced the expression of α-SMA, collagen I, cyclin-D1, and c-Myc in HSC-T6 cells and activated the phosphorylation of GSK3β. The GSK3β inhibitor SB216763 reversed the effect of BMSCs. The Wnt/β-catenin signalling pathway was involved in BMSC-mediated inhibition of HSC-T6 cell activation. Our data suggested that BMSCs exerted antifibrotic effects by activating the expression of GSK3β and inhibiting the Wnt3a/β-catenin signalling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>38013053</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of stem cells in regeneration of liver in chronic liver diseases: Current perspectives and future challenges.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The deposition of extracellular matrix and hyperplasia of connective tissue characterizes chronic liver disease called hepatic fibrosis. Progression of hepatic fibrosis may lead to hepatocellular carcinoma. At this stage, only liver transplantation is a viable option. However, the number of possible liver donors is less than the number of patients needing transplantation. Consequently, alternative cell therapies based on non-stem cells (e.g., fibroblasts, chondrocytes, keratinocytes, and hepatocytes) therapy may be able to postpone hepatic disease, but they are often ineffective. Thus, novel stem cell-based therapeutics might be potentially important cutting-edge approaches for treating liver diseases and reducing patient' suffering. Several signaling pathways provide targets for stem cell interventions. These include pathways such as TGF-β, STAT3/BCL-2, NADPH oxidase, Raf/MEK/ERK, Notch, and Wnt/β-catenin. Moreover, mesenchymal stem cells (MSCs) stimulate interleukin (IL)-10, which inhibits T-cells and converts M1 macrophages into M2 macrophages, producing an anti-inflammatory environment. Furthermore, it inhibits the action of CD4&lt;sup&gt;+&lt;/sup&gt; and CD8&lt;sup&gt;+&lt;/sup&gt; T cells and reduces the activity of TNF-α and interferon cytokines by enhancing IL-4 synthesis. Consequently, the immunomodulatory and anti-inflammatory capabilities of MSCs make them an attractive therapeutic approach. Importantly, MSCs can inhibit the activation of hepatic stellate cells, causing their apoptosis and subsequent promotion of hepatocyte proliferation, thereby replacing dead hepatocytes and reducing liver fibrosis. This review discusses the multidimensional therapeutic role of stem cells as cell-based therapeutics in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>27153445</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Hepatocyte-like Versus Mesenchymal Stem Cells in CCl4-induced Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>It is still a matter of debate as to whether in vitro mesenchymal stem cell (MSC)-derived hepatocytes may efficiently repopulate a host liver to provide adequate functional substitution. The aim of this study is to assess the efficacy and consistency of in vitro hepatic differentiation from Wharton jelly-derived MSCs, and to validate their therapeutic potential in experimentally induced liver fibrosis compared with nondifferentiated MSCs. Forty adult male albino rats were divided into 4 main groups: (I) normal control group; (II) carbon tetrachloride (CCl4)-treated group (injected CCl4 solution twice a week for 8 wk); (III) MSC-treated group (a single intravenous dose of MSCs from human umbilical cord at the fourth week of induction of fibrosis); and (IV) hepatocyte-like stem cells (HLCs)-treated group (a single intravenous dose of MSCs after in vitro conversion to hepatocyte at the fourth week of induction of fibrosis). Portal blood flow velocity and resistance, serum alanine transaminase, aspartate transaminase, albumin, and total bilirubin were measured. Liver homogenate was prepared for malondialdehyde, superoxide dismutase (SOD), nitric oxide (measured as nitrites), and TGFβ (transforming growth factor beta) assessment. Assessment of human cells homing into liver rat and their function was performed using immunohistochemistry for detection of human hepatocytes and α-fetoprotein antigens. Significant elevation of serum alanine transaminase, aspartate transaminase, and bilirubin, liver malondialdehyde, nitrites, TGFβ, fibrotic score, and significant reduction in serum albumin, liver SOD, and portal flow velocity in the CCl4-treated group were found when compared with normal rats. All these parameters significantly reversed in MSC-treated and hepatocyte-treated groups when compared with the CCl4-treated group. The MSC-treated group shows statistically better results in most liver function and oxidation parameters when compared with the HLC-treated group. Human MSCs can differentiate in vitro into functional HLCs. Transplantation of both MSCs and HLCs was feasible and effective in a liver fibrosis rat model. However, MSCs were better in regaining liver function. Future studies should address strategies to improve long-term implantation of MSCs and HLCs in the host liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>36552767</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Exosomes Derived from BMMSCs Mitigate the Hepatic Fibrosis via Anti-Pyroptosis Pathway in a Cirrhosis Model.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Researchers increasingly report the therapeutic effect of exosomes derived from rat bone marrow mesenchymal stem cells (Exos-rBMMSC) on liver disease, while the optimal dose of Exos-rBMMSC in liver cirrhotic treatment has not been reported. In this study, we aimed to explore the efficacy and dose of Exos-rBMMSC in a hepatic cirrhosis rat model. The therapeutic effects of a low dose, medium dose and high dose of Exos-rBMMSC were assessed by liver function tests and histopathology. After four-weeks of Exos-rBMMSC therapy, pyroptosis-related expression levels in the medium dose and the high dose Exos-rBMMSC groups were significantly decreased compared to those in the liver cirrhosis group (&lt;i&gt;p&lt;/i&gt; &lt; 0.05). The hepatic function assay and histopathology results showed significant improvement in the medium dose and the high dose Exos-rBMMSCs groups. The localization of PKH67-labeled Exos-rBMMSC was verified microscopically, and these particles were coexpressed with the PCNA, NLRP3, GSDMD and Caspase-1. Our results demonstrated that Exos-rBMMSC accelerated hepatocyte proliferation and relieved liver fibrosis by restraining hepatocyte pyroptosis. More importantly, we confirmed that the high dose of Exos-rBMMSC may be the optimal dose for liver cirrhosis, which is conducive to the application of Exos-rBMMSC as a promising cell-free strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>31520775</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Transplantation of human adipose tissue derived-SVF enhance liver function through high anti-inflammatory property.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Although human adipose tissue-derived stromal vascular fraction (SVF) has been considered a promising source of stem cells, its characteristics relevant to treatment of a damaged liver have not been fully elucidated. In the present study, we sought to characterize the property of human SVF and determine the therapeutic utility of SVF in the liver cirrhosis model. We performed microarray, quantitative (q)-PCR experiments, and in vivo therapeutic assays using a liver cirrhotic mouse model. q-PCR results revealed that hepatocyte growth factor (HGF), vascular endothelial growth factor (VEGF)-A, Interleukin (IL)-10 and microRNA (miR)-146 were more highly upregulated in SVF than in human adipose-derived mesenchymal stem cells (ASCs). The SVF culture medium (CM) inhibited the activation of hepatic stellate cells in vitro. Injection of SVF significantly suppressed TAA-induced liver fibrosis and repaired liver function by inhibition of infiltrating inflammatory cells and induction of capillary/hepatocyte regeneration in vivo. Injection of IL-10 siRNA treated SVF cells decreased anti-inflammation and anti-fibrotic effects in TAA-induced mice liver. Our data indicate that SVF show a high anti-inflammatory property for treating fibrotic liver diseases through IL-10 secretion. Therefore, SVF might be a novel therapeutic alternative for the treatment of liver cirrhosis in clinical settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>19642968</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Stem/progenitor cells in liver injury repair and regeneration.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Morbidity and mortality from cirrhosis is increasing rapidly in the world. Currently, orthotopic liver transplantation is the only definitive therapeutic option. However, its clinical use is limited, because of poor long-term graft survival, donor organ shortage and high costs associated with the procedure. Stem cell replacement strategies are therefore being investigated as an attractive alternative approach to liver repair and regeneration. In this review we discuss recent preclinical and clinical investigations that explore the therapeutic potential of stem cells in repair of liver injuries. Several types of stem cells. including embryonic stem cells, haematopoietic stem cells and mesenchymal stem cells, can be induced to differentiate into hepatocyte-like cells by defined culture conditions in vitro. Stem cell transplantation has been shown to significantly improve liver function and increase animal survival in experimentally-induced liver-injury models. Moreover, several pilot clinical studies have reported encouraging therapeutic effects in patients treated with stem cells. Although there remain many unresolved issues, the available data support the notion that stem cell technology may lead to the development of effective clinical modalities for human liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>19941447</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Stem cells for hepatic regeneration: the role of adipose tissue derived mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Severe hepatic dysfunctions including hepatic cirrhosis and hepatocarcinoma are life-threatening conditions for which effective medical treatments are needed. With the only effective treatment to date being orthotropic liver transplantation, alternative approaches are needed because of the limited number of donors and the possibility of immune-rejection. One alternative is regenerative medicine, which holds promise for the development of a cell-based therapy enabling hepatic regeneration through transplantation of adipose tissue-derived mesenchymal stem cells (AT-MSCs) or hepatocyte-like cells generated from AT-MSCs. When compared with embryonic stem (ES) cells and induced pluripotent stem (iPS) cells, the use of AT-MSCs as regenerative cells would be advantageous in regard to ethical and safety issues since AT-MSCs are somatic cells and have the potential to be used without in vitro culture. These autologous cells are immuno-compatible and exhibit controlled differentiation and multi-functional abilities and do not undergo post-transplantation rejection or unwanted differentiation such as formation of teratomas. AT-MSC-based therapies may provide a novel approach for hepatic regeneration and hepatocyte differentiation and thereby support hepatic function in diseased individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>24157970</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Evidence for and against epithelial-to-mesenchymal transition in the liver.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The outcome of liver injury is determined by the success of repair. Liver repair involves replacement of damaged liver tissue with healthy liver epithelial cells (including both hepatocytes and cholangiocytes) and reconstruction of normal liver structure and function. Current dogma posits that replication of surviving mature hepatocytes and cholangiocytes drives the regeneration of liver epithelium after injury, whereas failure of liver repair commonly leads to fibrosis, a scarring condition in which hepatic stellate cells, the main liver-resident mesenchymal cells, play the major role. The present review discusses other mechanisms that might be responsible for the regeneration of new liver epithelial cells and outgrowth of matrix-producing mesenchymal cells during hepatic injury. This theory proposes that, during liver injury, some epithelial cells undergo epithelial-to-mesenchymal transition (EMT), acquire myofibroblastic phenotypes/features, and contribute to fibrogenesis, whereas certain mesenchymal cells (namely hepatic stellate cells and stellate cell-derived myofibroblasts) undergo mesenchymal-to-epithelial transition (MET), revert to epithelial cells, and ultimately differentiate into either hepatocytes or cholangiocytes. Although this theory is highly controversial, it suggests that the balance between EMT and MET modulates the outcome of liver injury. This review summarizes recent advances that support or refute the concept that certain types of liver cells are capable of phenotype transition (i.e., EMT and MET) during both culture conditions and chronic liver injury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20220785</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells as therapeutic tools and gene carriers in liver fibrosis and hepatocellular carcinoma.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem (stromal) cells (MSCs) are a source of circulating progenitors that are able to generate cells of all mesenchymal lineages and to cover cellular demands of injured tissues. The extent of their transdifferentiation plasticity remains controversial. Cells with MSC properties have been obtained from diverse tissues after purification and expansion in vitro. These cellular populations are heterogeneous and under certain conditions show pluripotent-like properties. MSCs present immunosuppressive and anti-inflammatory features and high migratory capacity toward inflamed or remodeling tissues. In this study we review available data regarding factors and signaling axes involved in the chemoattraction and engraftment of MSCs to an injured tissue or to a tissue undergoing active remodeling. Moreover, experimental evidence in support of uses of MSCs as vehicles of therapeutic genes is discussed. Because of its regenerative capacity and its particular immune properties, the liver is a good model to analyze the potential of MSC-based therapies. Finally, the potential application of MSCs and genetically modified MSCs in liver fibrosis and hepatocellular carcinoma (HCC) is proposed in view of available evidence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>30106103</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Antifibrotic potential of bone marrow‑derived mesenchymal stem cells in biliary atresia mice.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Biliary atresia (BA) is a rare and severe disease that affects infants where a fibroinflammatory process destroys the bile ducts, leading to fibrosis and biliary cirrhosis, and mortality if untreated. Bone marrow‑derived mesenchymal stem cells (BMMSCs) have been considered as a promising therapy in fibrotic diseases. The aim of the present was to investigate the anti‑fibrotic roles of BMMSC transplantation in a BA mouse model. Mouse BA models were established by Rhesus rotavirus administration to neonatal mice. The results revealed that the liver enzyme and bilirubin metabolism levels, and the levels of the oxidative stress marker malondialdehyde (MDA) and the fibrosis marker were all increased in the BA model, while the liver tissue levels of superoxide dismutase and glutathione peroxidase were reduced. The hematoxylin and eosin and Masson's trichrome staining revealed severe liver fibrosis and collagen accumulation in BA livers. However, these indicators were all reversed once the BA mice were administered the BMMSC inoculation. In conclusion, the present study demonstrated the anti‑fibrotic potential of BMMSCs in BA mice, which may provide a novel approach to ameliorate the fibrotic response in BA patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>27591095</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>The characteristics of activated portal fibroblasts/myofibroblasts in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Liver fibrosis results from chronic injury of hepatocytes and activation of Collagen Type I producing myofibroblasts that produce fibrous scar in liver fibrosis. Myofibroblasts are not present in the normal liver but rapidly appear early in experimental and clinical liver injury. The origin of the myofibroblast in liver fibrosis is still unresolved. The possibilities include activation of liver resident cells including portal fibroblasts, hepatic stellate cells, mesenchymal progenitor cells, and fibrocytes recruited from the bone marrow. It is considered that hepatic stellate cells and portal fibroblasts are the major source of hepatic myofibroblasts. In fact, the origin of myofibroblasts differs significantly for chronic liver diseases of different etiologies, such as cholestatic liver disease or hepatotoxic liver disease. Depending on etiology of hepatic injury, the fibrogenic foci might initiate within the hepatic lobule as seen in chronic hepatitis, or primarily affect the portal areas as in most biliary diseases. It has been suggested that activated portal fibroblasts/myofibroblasts work as "myofibroblasts for cholangiocytes" while hepatic stellate cells work as "myofibroblast for hepatocytes". This review will focus on our current understanding of the activated portal fibroblasts/myofibroblasts in cholestatic liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>30019838</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Effects of FGF21-secreting adipose-derived stem cells in thioacetamide-induced hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have been investigated to treat liver diseases, but the efficiency of MSCs to treat chronic liver diseases is conflicting. FGF21 can reduce inflammation and fibrosis. We established FGF21-secreting adipose derived stem cells (FGF21_ADSCs) to enhance the effects of ADSCs and transplanted them into thioacetamide (TAA)-induced liver fibrosis mice via the tail vein. Transplantation of FGF21_ADSCs significantly improved liver fibrosis by decreasing serum hyaluronic acid and reducing the expression of fibrosis-related factors such as α-smooth muscle actin (α-SMA), collagen and tissue inhibitor of metalloproteinase-1 (TIMP-1) compared with the Empty_ADSCs by inhibition of p-JNK, NF-κB and p-Smad2/3 signalling. α-lactoalbumin (LA) and lactotransferrin (LTF), secretory factors produced from FGF21_ADSCs inhibited TGF-β1-induced expression of α-SMA and collagen in LX-2 cells. These results suggest that transplantation of FGF21_ADSCs inhibited liver fibrosis more effectively than Empty_ADSCs, possibly via secretion of α-LA and LTF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>30248223</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Adipose may actively delay progression of NAFLD by releasing tumor-suppressing, anti-fibrotic miR-122 into circulation.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Nonalcoholic fatty liver disease (NAFLD) is the most common liver pathology. Here we propose tissue-cooperative, homeostatic model of NAFLD. During early stages of NAFLD the intrahepatic production of miR-122 falls, while the secretion of miRNA-containing exosomes by adipose increases. Bloodstream carries exosome to the liver, where their miRNA cargo is released to regulate their intrahepatic targets. When the deterioration of adipose catches up with the failing hepatic parenchyma, the external supply of liver-supporting miRNAs gradually tapers off, leading to the fibrotic decompensation of the liver and an increase in hepatic carcinogenesis. This model may explain paradoxical observations of the disease-associated decrease in intrahepatic production of certain miRNAs with an increase in their levels in serum. Infusions of miR-122 and, possibly, some other miRNAs may be efficient for preventing NAFLD-associated hepatocellular carcinoma. The best candidates for exosome-wrapped miRNA producer are adipose tissue-derived mesenchymal stem cells (MSCs), known for their capacity to shed large amounts of exosomes into the media. Notably, MSC-derived exosomes with no specific loading are already tested in patients with liver fibrosis. Carrier exosomes may be co-manufactured along with their cargo. Exosome-delivered miRNA cocktails may augment functioning of human organs suffering from a variety of chronic diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>27468195</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Umbilical cord-derived mesenchymal stem cells alleviate liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>To evaluate the efficacy of umbilical cord-derived mesenchymal stem cells (UC-MSCs) transplantation in the treatment of liver fibrosis. Cultured human UC-MSCs were isolated and transfused into rats with liver fibrosis induced by dimethylnitrosamine (DMN). The effects of UC-MSCs transfusion on liver fibrosis were then evaluated by histopathology; serum interleukin (IL)-4 and IL-10 levels were also measured. Furthermore, Kupffer cells (KCs) in fibrotic livers were isolated and cultured to analyze their phenotype. Moreover, UC-MSCs were co-cultured with KCs in vitro to assess the effects of UC-MSCs on KCs' phenotype, and IL-4 and IL-10 levels were measured in cell culture supernatants. Finally, UC-MSCs and KCs were cultured in the presence of IL-4 antibodies to block the effects of this cytokine, followed by phenotypical analysis of KCs. UC-MSCs transfused into rats were recruited by the injured liver and alleviated liver fibrosis, increasing serum IL-4 and IL-10 levels. Interestingly, UC-MSCs promoted mobilization of KCs not only in fibrotic livers, but also in vitro. Co-culture of UC-MSCs with KCs resulted in increased production of IL-4 and IL-10. The addition of IL-4 antibodies into the co-culture system resulted in decreased KC mobilization. UC-MSCs could increase IL-4 and promote mobilization of KCs both in vitro and in vivo, subsequently alleviating the liver fibrosis induced by DMN.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>32880852</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Infusion of Human Mesenchymal Stem Cells Improves Regenerative Niche in Thioacetamide-Injured Mouse Liver.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>This study investigated whether xenotransplantation of human Wharton's jelly-derived mesenchymal stem cells (WJ-MSCs) reduces thioacetamide (TAA)-induced mouse liver fibrosis and the underlying molecular mechanism. Recipient NOD/SCID mice were injected intraperitoneally with TAA twice weekly for 6 weeks before initial administration of WJ-MSCs. Expression of regenerative and pro-fibrogenic markers in mouse fibrotic livers were monitored post cytotherapy. A hepatic stallate cell line HSC-T6 and isolated WJ-MSCs were used for in vitro adhesion, migration and mechanistic studies. WJ-MSCs were isolated from human umbilical cords by an explant method and characterized by flow cytometry. A single infusion of WJ-MSCs to TAA-treated mice significantly reduced collagen deposition and ameliorated liver fibrosis after 2-week therapy. In addition to enhanced expression of hepatic regenerative factor, hepatocyte growth factor, and PCNA proliferative marker, WJ-MSC therapy significantly blunted pro-fibrogenic signals, including Smad2, RhoA, ERK. Intriguingly, reduction of plasma fibronectin (pFN) in fibrotic livers was noted in MSC-treated mice. In vitro studies further demonstrated that suspending MSCs triggered pFN degradation, soluble pFN conversely retarded adhesion of suspending MSCs onto type I collagen-coated surface, whereas pFN coating enhanced WJ-MSC migration across mimicked wound bed. Moreover, pretreatment with soluble pFN and conditioned medium from MSCs with pFN strikingly attenuated the response of HSC-T6 cells to TGF-β1-stimulation in Smad2 phosphorylation and RhoA upregulation. These findings suggest that cytotherapy using WJ-MSCs may modulate hepatic pFN deposition for a better regenerative niche in the fibrotic livers and may constitute a useful anti-fibrogenic intervention in chronic liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>21044003</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>An update on hepatic stem cells: bench to bedside.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Liver failure results in impairment of many functions and dependent organs such as brain and kidneys begin to fail, reducing the chance of recovery even further. Orthotopic liver transplantation (OLTx) is the only treatment that improves the survival rate in patients with liver failure. Liver Transplantation (LT), including orthologous liver transplantation (OLT), cadaveric LT, split LT, living donor LT (LDLT) brings hopes to patients with these diseases. Globally, 1.4 million deaths occur annually as a result of chronic liver diseases. The reasons for this high death toll include unavailability of healthy liver donor and highly expensive liver transplantation treatment. Furthermore, some other factors such as operative risks and post-transplant rejection are major limitation of OLT. Isolated hepatocyte transplantation is emerging as alternative bridge support till the healthy donor is arranged. Mature hepatocytes have several drawbacks such as low proliferation both in vitro and in vivo, low viability after cryopreservation, and requirement of large number of cells for infusion. The studies on isolation of hepatic progenitors have shown promising results to overcome these limitations. These cells possess higher proliferative capacity, are less immunogenic and more resistant to cryopreservation, and ischemic injury; properties that could enhance their engraftment within the recipient liver. The hepatic progenitors have been isolated from the intra-hepatic sources and extra-hepatic sources. Fetal cells are one of the ideal sources of hepatic stem/progenitor cells. Autologous bone marrow stem cell transplantation in patients with cirrhosis has shown promising result.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>22173163</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>The phenotypic fate and functional role for bone marrow-derived stem cells in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is an outcome of chronic liver injury of any etiology. It is manifested by extensive deposition of extracellular matrix (ECM) proteins that produce a fibrous scar in the injured liver. Bone marrow (BM) cells may play an important role in pathogenesis and resolution of liver fibrosis. BM cells contribute to the inflammatory response by TGF-β1 secretion and activation of liver resident myofibroblasts. Moreover, BM itself can serve as a source of collagen expressing cells, e.g. BM-derived fibrocytes and mesenchymal progenitors, which in turn, have a potential to in situ differentiate into fibrogenic myofibroblasts and facilitate fibrosis. Finally, BM cells play an active part in resolution of liver fibrosis after cessation of fibrogenic stimuli. While natural killer (NK) cells are implicated in apoptosis of activated hepatic stellate cells/myofibroblasts, cells of myelo-monocitic lineage secrete matrix metalloproteinases to actively degrade the fibrous scar. The focus of this review is on the current understanding of the role of different subsets of BM cells in the onset, development and resolution of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>31755595</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>The role of Interleukin 1 receptor antagonist in mesenchymal stem cell-based tissue repair and regeneration.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Interleukin (IL)-1 receptor antagonist (IL-1Ra), a naturally occurring antagonist of IL-1α/IL-1β signaling pathways, has been attributed to the immunosuppressive effects of mesenchymal stem cells (MSCs). MSCs, in IL-1Ra-dependent manner, suppressed production of IL-1β in dermal macrophages, induced their polarization in anti-inflammatory M2 phenotype, attenuated antigen-presenting properties of dendritic cells (DCs), and promoted expansion of immunosuppressive T regulatory cells in the skin, which resulted in enhanced repair of the nonhealing wounds. Reduced activation of inflammasome and suppressed production of IL-1β in macrophages were mainly responsible for beneficial effects of MSC-derived IL-1Ra in alleviation of acute lung injury, dry eye syndrome, and corneal injury. Through the production of IL-1Ra, MSCs reduced migration of DCs to the draining lymph nodes and attenuated generation of inflammatory Th1 and Th17 cells that resulted in alleviation of fulminant hepatitis and rheumatoid arthritis. MSCs, in IL-1Ra-dependent manner, reduced liver fibrosis by suppressing production of Type I collagen in hepatic stellate cells. IL-1Ra was, at least partially, responsible for enhanced proliferation of hepatocytes and chondrocytes in MSC-treated animals with partial hepatectomy and osteoarthritis. Despite of these beneficial effects, IL-1Ra-dependent inhibition of IL-1α/IL-1β-signaling significantly increased risk of infections. Therefore, future experimental and clinical studies should delineate potential side effects of MSC-derived IL-1Ra before IL-1Ra-overexpressing MSCs could be used as a potentially new therapeutic agent for the treatment of acute and chronic inflammatory diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>32962510</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cells Induce a Fibrolytic Phenotype By Regulating mmu-miR-6769b-5p Expression in Macrophages.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Liver transplantation is the only radical treatment for decompensated cirrhosis, but its use is limited owing to a shortage of donors; hence, there is an urgent need for new treatments. Previously, we developed a liver-regeneration therapy using autologous bone marrow-derived mesenchymal stem cells (BMSCs), which is under clinical investigation. Cell-cell interactions between BMSCs and macrophages (Mφs) participate in the improvement of liver function and alleviation of liver fibrosis, although the associated mechanisms have not been elucidated. Therefore, in this study, we investigated phenotypic changes in Mφs caused by interactions with BMSCs, as well as the underlying mechanisms. Co-culturing lipopolysaccharide (LPS)-stimulated murine bone marrow-derived Mφs (BMDMs) with BMSCs substantially upregulated matrix metalloproteinase 9 (&lt;i&gt;Mmp9&lt;/i&gt;), &lt;i&gt;Mmp12&lt;/i&gt;, and &lt;i&gt;Mmp13&lt;/i&gt; expression, and downregulated tumor necrosis factor alpha (&lt;i&gt;Tnfα&lt;/i&gt;) expression. To identify humoral factors involved in phenotypic changes occurring in Mφs, microarray analysis was performed with microRNAs (miRNAs) derived from extracellular vesicles in the supernatant of co-cultured BMSCs and LPS-stimulated BMDMs. We found that miR-6769b-5p was highly expressed and that transfecting miR-6769b-5p mimic upregulated MMP9 in LPS-stimulated BMDMs and downregulated &lt;i&gt;Tnfα&lt;/i&gt; and interleukin-1 beta (&lt;i&gt;Il-1β&lt;/i&gt;). MiR-6769b-5p expression in BMDMs was decreased by LPS stimulation but was increased by co-culture with BMSCs. Microarray and pathway analyses of gene expression in LPS-stimulated, miR-6769b-5p-transfected BMDMs revealed changes in the eukaryotic initiation factor 2-signaling pathway and decreased the expression of activating transcription factor 4 (&lt;i&gt;Atf4&lt;/i&gt;). LPS-stimulated BMDMs exhibited increased MMP9 expression and decreased the expression of &lt;i&gt;Tnfα&lt;/i&gt; and &lt;i&gt;Il-1β&lt;/i&gt; by ATF4 knockdown. These findings indicate that upregulating miR-6769b-5p in BMDMs induced a fibrolytic phenotype, where MMP9 was highly expressed and inflammatory cytokine expression was decreased by the suppression of ATF4 expression. These findings imply that regulating miR-6769b-5p or ATF4 expression in BMDMs may be helpful for treating chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>38419761</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MSC-derived exosomes attenuate hepatic fibrosis in primary sclerosing cholangitis through inhibition of Th17 differentiation.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Primary sclerosing cholangitis (PSC) is an autoimmune cholangiopathy characterized by chronic inflammation of the biliary epithelium and periductal fibrosis, with no curative treatment available, and liver transplantation is inevitable for end-stage patients. Human placental mesenchymal stem cell (hpMSC)-derived exosomes have demonstrated the ability to prevent fibrosis, inhibit collagen production and possess immunomodulatory properties in autoimmune liver disease. Here, we prepared hpMSC-derived exosomes (Exo&lt;sup&gt;MSC&lt;/sup&gt;) and further investigated the anti-fibrotic effects and detailed mechanism on PSC based on Mdr2&lt;sup&gt;-/-&lt;/sup&gt; mice and multicellular organoids established from PSC patients. The results showed that Exo&lt;sup&gt;MSC&lt;/sup&gt; ameliorated liver fibrosis in Mdr2&lt;sup&gt;-/-&lt;/sup&gt; mice with significant collagen reduction in the preductal area where Th17 differentiation was inhibited as demonstrated by RNAseq analysis, and the percentage of CD4&lt;sup&gt;+&lt;/sup&gt;IL-17A&lt;sup&gt;+&lt;/sup&gt;T cells was reduced both in Exo&lt;sup&gt;MSC&lt;/sup&gt;-treated Mdr2&lt;sup&gt;-/-&lt;/sup&gt; mice (Mdr2&lt;sup&gt;-/-&lt;/sup&gt;-Exo) in vivo and Exo&lt;sup&gt;MSC&lt;/sup&gt;-treated Th17 differentiation progressed in vitro. Furthermore, Exo&lt;sup&gt;MSC&lt;/sup&gt; improved the hypersecretory phenotype and intercellular interactions in the hepatic Th17 microenvironment by regulating PERK/CHOP signaling as supported by multicellular organoids. Thus, our data demonstrate the anti-fibrosis effect of Exo&lt;sup&gt;MSC&lt;/sup&gt; in PSC disease by inhibiting Th17 differentiation, and ameliorating the Th17-induced microenvironment, indicating the promising potential therapeutic role of Exo&lt;sup&gt;MSC&lt;/sup&gt; in liver fibrosis of PSC or Th17-related diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>24457953</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>The interaction between mesenchymal stem cells and steroids during inflammation.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are believed to exert their regenerative effects through differentiation and modulation of inflammatory responses. However, the relationship between the severity of inflammation and stem cell-mediated tissue repair has not been formally investigated. In this study, we applied different concentrations of dexamethasone (Dex) to anti-CD3-activated splenocyte cultured with or without MSCs. As expected, Dex exhibited a classical dose-dependent inhibition of T-cell proliferation. Surprisingly, although MSCs also blocked T-cell proliferation, the presence of Dex unexpectedly showed a dose-dependent reversion of T-cell proliferation. This effect of Dex was found to be exerted through interfering STAT1 phosphorylation-prompted expression of inducible nitric oxide synthase (iNOS). Interestingly, inflammation-induced chemokines in MSCs was unaffected. To test the role of inflammation severity in stem cell-mediated tissue repair, we employed mice with carbon tetrachloride-induced advanced liver fibrosis and found that although MSCs alone were effective, concurrent administration of Dex abrogated the therapeutic effects of MSCs on fibrin deposition, serum levels of bilirubin, albumin, and aminotransferases, as well as T-lymphocyte infiltration, especially IFN-γ(+)CD4(+) and IL-17A(+)CD4(+)T cells. Likewise, iNOS(-/-) MSCs, which produce chemokines but not nitric oxide under inflammatory conditions, are ineffective in treating advanced liver fibrosis. Therefore, inflammation has a critical role in MSC-mediated tissue repair. In addition, concomitant application of MSCs with steroids should be avoided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>31435712</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Human skin-derived ABCB5&lt;sup&gt;+&lt;/sup&gt; stem cell injection improves liver disease parameters in Mdr2KO mice.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Although liver transplantation is a potential effective cure for patients with end-stage liver diseases, this strategy has several drawbacks including high cost, long waiting list, and limited availability of liver organs. Therefore, stem cell-based therapy is presented as an alternative option, which showed promising results in animal models of acute and chronic liver injuries. ABCB5&lt;sup&gt;+&lt;/sup&gt; cells isolated from skin dermis represent an easy accessible and expandable source of homogenous stem cell populations. In addition, ABCB5&lt;sup&gt;+&lt;/sup&gt; cells showed already promising results in the treatment of corneal and skin injury. To date, the effect of these cells on liver injury is still unknown. In the current study, sixteen weeks old Mdr2KO mice were i.v. injected with 500,000 ABCB5&lt;sup&gt;+&lt;/sup&gt; cells using different experimental setups. The effects of cellular therapy on inflammation, fibrosis, apoptosis, and proliferation were analyzed in the collected liver tissues. Toxicity of ABCB5&lt;sup&gt;+&lt;/sup&gt; cells was additionally investigated in mice with partial liver resection. In vitro, the fibrosis- and inflammatory-modulating effects of supernatant from ABCB5&lt;sup&gt;+&lt;/sup&gt; cells were examined in the human hepatic stellate cell line (LX-2). Cell injections into fibrotic Mdr2KO mice as well as into mice upon partial liver resection have no signs of toxicity with regard to cell transformation, cellular damage, fibrosis or inflammation as compared to controls. We next investigated the effects of ABCB5&lt;sup&gt;+&lt;/sup&gt; cells on established biliary liver fibrosis in the Mdr2KO mice. ABCB5&lt;sup&gt;+&lt;/sup&gt; cells to some extent influenced the shape of the liver inflammatory response and significantly reduced the amount of collagen deposition, as estimated from quantification of sirius red staining. Furthermore, reduced apoptosis and enhanced death compensatory proliferation resulted from ABCB5&lt;sup&gt;+&lt;/sup&gt; cell transformation. The stem cells secreted several trophic factors that activated TGF-β family signaling in cultured LX-2 hepatic stellate cells (HSCs), therewith shaping cell fate to an αSMA&lt;sup&gt;high&lt;/sup&gt;, Vimentin&lt;sup&gt;low&lt;/sup&gt; phenotype. Taken together, ABCB5&lt;sup&gt;+&lt;/sup&gt; cells can represent a safe and feasible strategy to support liver regeneration and to reduce liver fibrosis in chronic liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>35883205</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells improve liver fibrosis and protect hepatocytes by promoting microRNA-148a-5p-mediated inhibition of Notch signaling pathway.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are considered to be a potential therapeutic tool for liver fibrosis. Inhibiting the activation of hepatic stellate cells (HSCs) and protecting hepatocytes are important mechanisms for the anti-fibrotic effect of MSCs. However, how MSCs inhibit liver fibrosis by regulating the expression of microRNAs (miRNAs) has not been fully clarified. Transforming growth factor-β1 (TGF-β1)-activated HSCs LX-2 were single cultured or co-cultured with human umbilical cord mesenchymal stem cells (HUC-MSCs). High-throughput sequencing was used to evaluate the differentially expressed microRNAs (DEMs) between the two groups. Quantitative real-time PCR (qRT-PCR), Western blot, and transfection experiments were used to investigate and screen the most significantly up-regulated DEM. Bioinformatics analysis was used to predict the target mRNAs and the potential functions of the DEM. The possible mechanism of HUC-MSCs against liver fibrosis was analyzed by co-culture experiment of HUC-MSCs with LX-2 cells, and HUC-MSCs treatment of Bile duct ligation (BDL)-induced liver fibrosis in mice. Finally, the mechanism of the DEM regulating liver fibrosis was confirmed in human liver fibrosis specimens. MicroRNA-148a-5p (miR-148a-5p) was the most significantly up-regulated DEM in activated LX-2 cells co-cultured with HUC-MSCs compared with LX-2 cells single cultured. Up-regulation of the expression of miR-148a-5p in activated LX-2 cells could significantly inhibit the expression of hepatic fibrosis markers α-SMA and Col1α1. Notch2 was one target gene of miR-148a-5p. Co-cultured with HUC-MSCs could inhibit the activation of LX-2 cells by inhibiting the expression of the Notch2 and the Notch signaling pathway. In addition, HUC-MSCs treatment could up-regulate the expression of miR-148a-5p in liver tissue and hepatocytes, promote the proliferation and avoid the apoptosis of hepatocytes, and reduce the degree of fibrosis by inhibiting expression of the Notch2 and the Notch signaling pathway in BDL-induced liver fibrosis mice. Moreover, miR-148a-5p was down-regulated and Notch2 was up-regulated in fibrotic human liver tissues compared with the normal livers. HUC-MSCs treatment could inhibit HSCs activation, protect hepatocytes, and alleviate BDL-induced liver fibrosis in mice by up-regulating the expression of miR-148-5p and inhibiting the Notch signaling pathway. The down-regulation of miR-148-5p and up-regulation of Notch2 could be used as biomarkers to monitor the progression of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>36330597</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Luteolin-loaded exosomes derived from bone marrow mesenchymal stem cells: a promising therapy for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a global life-threatening disorder with no approved treatment. It leads to serious hepatic complications when progressive, such as cirrhosis and carcinoma. Luteolin (LUT) is a plant flavonoid possessing a promising therapeutic potential in various liver diseases particularly, liver fibrosis. It was reported to have potent anti-inflammatory and antioxidant properties. It also suppresses the proliferation of activated hepatic stellate cells (HSC) and induces their apoptosis. However, its poor aqueous solubility and exposure to metabolism hinder its clinical use. Mesenchymal stem cells (MSCs)-derived exosomes, nano-sized extracellular vesicles, have recently emerged as natural biocompatible drug delivery vehicles permitting efficient drug delivery. Accordingly, the present study aimed for the first time to investigate the potential of bone marrow MSCs-derived exosomes to improve LUTs antifibrotic effectiveness. LUT-loaded exosomes (LUT-Ex) were successfully developed, optimized and subjected to both &lt;i&gt;in vitro&lt;/i&gt; and &lt;i&gt;in vivo&lt;/i&gt; characterization. The elaborated LUT-Ex presented good colloidal properties (size; 150 nm, PDI; 0.3 and ζ-potential; -28 mV), typical vesicular shape, reasonable drug entrapment efficiency (40%) with sustained drug release over 72 h. Additionally, the cellular uptake study of coumarin-6-loaded exosomes in HEP-G2 revealed a significant enhancement in their uptake by 78.4% versus free coumarin-6 solution (&lt;i&gt;p&lt;/i&gt; ≤ 0.001). Following a single intraperitoneal injection, LUT-Ex revealed a superior antifibrotic activity compared with either LUT-suspension or blank exosomes as evidenced by the results of biochemical and histopathological evaluation. In conclusion, the elaborated LUT-Ex could be addressed as a promising nanocarrier for effective treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>37345718</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Human-Induced Hepatocytes-Derived Extracellular Vesicles Ameliorated Liver Fibrosis in Mice Via Suppression of TGF-β1/Smad Signaling and Activation of Nrf2/HO-1 Signaling.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a wound-healing response caused by persistent liver injury and often occurs in chronic liver diseases. Effective treatments for liver fibrosis are still pending. Recent studies have revealed that extracellular vesicles (EVs) derived from primary hepatocytes (Hep-EVs) have therapeutic potential for multiple liver diseases. However, Hep-EVs are difficult to manufacture in bulk because of the limited sources of primary hepatocytes. Human-induced hepatocytes (hiHep) are hepatocyte-like cells that can expand in vitro, and their cell culture supernatant is thus an almost unlimited resource for EVs. This study aimed to investigate the potential therapeutic effects of EVs derived from hiHeps. hiHep-EVs inhibited the expression of inflammatory genes and the secretion of inflammation-related cytokines, and suppressed the activation of hepatic stellate cells by inhibiting the transforming growth factor (TGF)-β1/Smad signaling pathway. The anti-inflammatory and antifibrotic effects of hiHep-EVs were similar to those of mesenchymal stem cell-EVs. Furthermore, the administration of hiHep-EVs ameliorated oxidative stress, inflammation, and fibrosis in a CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis mouse model. The expression of α smooth muscle actin, collagen I, and collagen III was reduced, which may be attributed to the regulation of matrix metalloproteinase (MMP)-9, tissue inhibitor of metalloproteinases (TIMP)-1, and TIMP-2 by hiHep-EVs, and the protein expression of Nrf2, HO-1, and NQO1 was increased. Taken together, our results suggested that hiHep-EVs alleviated liver fibrosis by activating the Nrf2/HO-1 signaling pathway and inhibiting the TGF-β1/Smad signaling pathway. This study revealed the hepatoprotective effect of hiHep-EVs, and provided a new approach to treating liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>32633558</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Exosomes derived from mmu_circ_0000623-modified ADSCs prevent liver fibrosis via activating autophagy.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Prolonged parenchymal cell death leads to activation of fibrogenic cells, extracellular matrix accumulation, and eventually liver fibrosis. Increasing evidence shows that exosomes (Exos) secreted by adipose-derived mesenchymal stem cells (ADSCs) can be used to deliver circular RNAs (circRNAs) to treat liver fibrosis. To explore the uses of circRNA, circRNA expression profiles of hepatic tissue from normal and CCl&lt;sub&gt;4&lt;/sub&gt;-induced mice were analyzed using high-throughput circRNA microarrays. The result showed that mmu_circ_0000623 expression was downregulated in CCl&lt;sub&gt;4&lt;/sub&gt;-induced mice. Bioinformatics analysis and luciferin reporter experiments showed that mmu_circ_0000623 interacted with and regulated miR-125/ATG4D. In vitro and in vivo experiments showed that Exos from ADSCs, especially from mmu_circ_0000623-modified ADSCs, significantly suppressed CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis by promoting autophagy activation. Autophagy inhibitor treatment significantly reversed the treatment effects of Exos. Proteins involved in autophagy and autophagy plaques positive for ATG4D expression were regulated by mmu_circ_0000623/miR-125. Our study found that Exos derived from mmu_circ_0000623-modified ADSCs prevented liver fibrosis via activating autophagy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>34186042</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Effects of mesenchymal stem cells conditioned medium treatment in mice with cholestatic liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>The purpose of this work was to study the effects of mesenchymal stem cells conditioned medium (MSC CM) treatment in animals with cholestatic liver fibrosis. We induced cholestatic liver fibrosis by bile duct ligation in C57Bl/6 mice. In the 5th and 6th days after bile duct ligation proceeding, conditioned medium obtained of cultures of mesenchymal stem cells derived from adipose tissue was injected in the animals. Blood levels of hepatic transaminases, alkaline phosphatase and albumin were measured in each group. Analysis of collagen deposition was realized by Picro Sirius red staining and cytokine profiling was performed by cytometric bead array (CBA). Our results showed that MSC CM treatment decreased levels of hepatic enzymes and collagen deposition in the liver. After MSC CM treatment, profibrotic IL-17A was decreased andIL-6 and IL-4 were increased. In summary, MSC CM treatment demonstrated therapeutic potential to cholestatic liver fibrosis, favoring matrix remodeling and cytokine profile towards liver regeneration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>37226279</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Potential advantages of genetically modified mesenchymal stem cells in the treatment of acute and chronic liver diseases.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Liver damage caused by toxicity can lead to various severe conditions, such as acute liver failure (ALF), fibrogenesis, and cirrhosis. Among these, liver cirrhosis (LC) is recognized as the leading cause of liver-related deaths globally. Unfortunately, patients with progressive cirrhosis are often on a waiting list, with limited donor organs, postoperative complications, immune system side effects, and high financial costs being some of the factors restricting transplantation. Although the liver has some capacity for self-renewal due to the presence of stem cells, it is usually insufficient to prevent the progression of LC and ALF. One potential therapeutic approach to improving liver function is the transplantation of gene-engineered stem cells. Several types of mesenchymal stem cells from various sources have been suggested for stem cell therapy for liver disease. Genetic engineering is an effective strategy that enhances the regenerative potential of stem cells by releasing growth factors and cytokines. In this review, we primarily focus on the genetic engineering of stem cells to improve their ability to treat damaged liver function. We also recommend further research into accurate treatment methods that involve safe gene modification and long-term follow-up of patients to increase the effectiveness and reliability of these therapeutic strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>37742014</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Meta-analysis on last ten years of clinical injection of bone marrow-derived and umbilical cord MSC to reverse cirrhosis or rescue patients with acute-on-chronic liver failure.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Recent studies have shown that mesenchymal stem cell (MSC) therapy has potential therapeutic effects for patients with end-stage liver diseases. However, a consensus on the efficacy and safety of MSCs has not been reached. A systemic literature review was conducted by searching the Cochrane Library and PubMed databases for articles that evaluated the impact of MSC therapy on the outcomes among patients with end-stage liver disease. Various parameters, including pre- and post-treatment model of end-stage liver disease (MELD) score, serum albumin (ALB), total bilirubin (TB), coagulation function, aminotransferase, and survival rate, were evaluated. This meta-analysis included a final total of 13 studies and 854 patients. The results indicated improved liver parameters following MSC therapy at different time points, including in terms of MELD score, TB level, and ALB level, compared with conventional treatment. Furthermore, the MSC treatment increased the overall survival rate among patients with liver cirrhosis and acute-on-chronic liver failure (ACLF). The changes in transaminase level and coagulation function differed between the different therapies at various post-treatment time points, indicating that MSC therapy provided no significant benefits in this regard. The further subgroup analysis stratified by liver background revealed that patients with ACLF benefit more from MSC therapy at most time points with improved liver function, including in terms of MELD score, TB level, and ALB level. In addition, no serious side effects or adverse events were reported following MSC therapy. The meta-analysis results suggest that MSC therapy is safe and results in improved liver function and survival rates among patients with end-stage liver disease. The subgroup analysis stratified by liver background indicated that patients with ACLF benefit more from MSC therapy than patients with liver cirrhosis at most time points.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>31048740</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Reversal of established liver fibrosis by IC-2-engineered mesenchymal stem cell sheets.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Chronic hepatitis viral infection, alcoholic intoxication, and obesity cause liver fibrosis, which progresses to decompensated liver cirrhosis, a disease for which medical demands cannot be met. Since there are currently no approved anti-fibrotic therapies for established liver fibrosis, the development of novel modalities is required to improve patient prognosis. In this study, we clarified the anti-fibrotic effects of cell sheets produced from human bone marrow-derived mesenchymal stem cells (MSCs) incubated on a temperature-sensitive culture dish with the chemical compound IC-2. Orthotopic transplantation of IC-2-engineered MSC sheets (IC-2 sheets) remarkably reduced liver fibrosis induced by chronic CCl&lt;sub&gt;4&lt;/sub&gt; administration. Further, the marked production of fibrolytic enzymes such as matrix metalloproteinase (MMP)-1 and MMP-14, as well as thioredoxin, which suppresses hepatic stellate cell activation, was observed in IC-2 sheets. Moreover, the anti-fibrotic effect of IC-2 sheets was much better than that of MSC sheets. Finally, knockdown experiments revealed that MMP-14 was primarily responsible for the reduction of liver fibrosis. Here, we show that IC-2 sheets could be a promising therapeutic option for established liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>35084178</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Tracking Cell Viability for Adipose-Derived Mesenchymal Stem Cell-Based Therapy by Quantitative Fluorescence Imaging in the Second Near-Infrared Window.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Cell survival rate determines engraftment efficiency in adipose-derived mesenchymal stem cell (ADSC)-based regenerative medicine. &lt;i&gt;In vivo&lt;/i&gt; monitoring of ADSC viability to achieve effective tissue regeneration is a major challenge for ADSC therapy. Here, we developed an activated near-infrared II (NIR-II) fluorescent nanoparticle consisting of lanthanide-based down-conversion nanoparticles (DCNPs) and IR786s (DCNP@IR786s) for cell labeling and real-time tracking of ADSC viability &lt;i&gt;in vivo&lt;/i&gt;. In dying ADSCs due to excessive ROS generation, absorption competition-induced emission of IR786s was destroyed, which could turn on the NIR-II fluorescent intensity of DCNPs at 1550 nm by 808 nm laser excitation. In contrast, the NIR-II fluorescent intensity of DCNPs was stable at 1550 nm by 980 nm laser excitation. This ratiometric fluorescent signal was precise and sensitive for tracking ADSC viability &lt;i&gt;in vivo&lt;/i&gt;. Significantly, the nanoparticle could be applied to quantitively evaluate stem cell viability in real-time &lt;i&gt;in vivo&lt;/i&gt;. Using this method, we successfully sought two small molecules including glutathione and dexamethasone that could improve stem cell engraftment efficiency and enhance ADSC therapy in a liver fibrotic mouse model. Therefore, we provide a potential strategy for real-time &lt;i&gt;in vivo&lt;/i&gt; quantitative tracking of stem cell viability in ADSC therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>28805262</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells attenuate liver fibrosis by suppressing Th17 cells - an experimental study.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>This study investigates molecular and cellular mechanisms involved in mesenchymal stem cell (MSC)-mediated modulation of IL-17 signaling during liver fibrosis. Mice received CCl&lt;sub&gt;4&lt;/sub&gt; (1 μl/g intraperitoneally) twice/week for 1 month. MSCs (1 × 10&lt;sup&gt;6&lt;/sup&gt; ), or MSC-conditioned medium (MSC-CM), were intravenously injected 24 h after CCl&lt;sub&gt;4&lt;/sub&gt; and on every 7th day. Liver fibrosis was determined by macroscopic examination, histological analysis, Sirius red staining, and RT-PCR. Serum levels of cytokines, indoleamine 2,3-dioxygenase (IDO), and kynurenine were determined by ELISA. Flow cytometry was performed to identify liver-infiltrated cells. In vitro, CD4&lt;sup&gt;+&lt;/sup&gt; T cells were stimulated and cultured with MSCs. 1-methyltryptophan was used for inhibition of IDO. MSCs significantly attenuated CCl&lt;sub&gt;4&lt;/sub&gt; -induced liver fibrosis by decreasing serum levels of inflammatory IL-17, increasing immunosuppressive IL-10, IDO, and kynurenine, reducing number of IL-17 producing Th17 cells, and increasing percentage of CD4&lt;sup&gt;+&lt;/sup&gt; IL-10&lt;sup&gt;+&lt;/sup&gt; T cells. Injection of MSC-CM resulted with attenuated fibrosis accompanied with the reduced number of Th17 cells in the liver and decreased serum levels of IL-17. MSC-CM promoted expansion of CD4&lt;sup&gt;+&lt;/sup&gt; FoxP3&lt;sup&gt;+&lt;/sup&gt; IL-10&lt;sup&gt;+&lt;/sup&gt; T regulatory cells and suppressed proliferation of Th17 cells. This phenomenon was completely abrogated in the presence of IDO inhibitor. MSCs, in IDO-dependent manner, suppress liver Th17 cells which lead to the attenuation of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>37084952</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Modulatory effect of rupatadine on mesenchymal stem cell-derived exosomes in hepatic fibrosis in rats: A potential role for miR-200a.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell-derived exosomes (MSC-EXOs) have emerged as a promising approach in regenerative medicine for management of different diseases. However, the maintenance of their efficacy after in vivo transplantation is still a major concern. The present investigation aimed to assess the modulatory effect of rupatadine (RUP) on MSC-EXOs in diethylnitrosamine (DEN)-induced liver fibrosis (LF), and to explore the possible underlying mechanisms. LF was induced in rats by i.p. injection of DEN (100 mg/kg) once per week for 6 successive weeks. Rats were then treated with RUP (4 mg/kg/day, p.o.) for 4 weeks with or without a single i.v. administration of MSC-EXOs. At the end of the experiment, animals were euthanized and serum and liver were separated for biochemical, and histological measurements. The combined MSC-EXOs/RUP therapy provided an additional improvement towards inhibition of DEN-induced LF compared to MSC-EXOs group alone. These outcomes could be mediated through anti-oxidant, anti-inflammatory, anti-necroptotic, and anti-fibrotic effects of RUP which created a more favorable environment for MSC-EXOs homing, and action. This in turn would enhance more effectively miR-200a expression which reduced oxidative stress, inflammation, necroptosis, and subsequently fibrosis as revealed by turning off TGF-β1/α-SMA expression, and hedgehog axis. The present findings reveal that RUP enhanced the anti-fibrotic efficacy of MSC-EXOs when used as a combined therapy. This was revealed through attenuation of PAF/RIPK3/MLKL/HMGB1, and TGF-β1/hedgehog signaling pathways with a significant role for miR-200a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>24450831</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Status and prospects of liver cirrhosis treatment by using bone marrow-derived cells and mesenchymal cells.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>In 2003, we started autologous bone marrow cell infusion (ABMi) therapy for treating liver cirrhosis. ABMi therapy uses 400 mL of autologous bone marrow obtained under general anesthesia and infused mononuclear cells from the peripheral vein. The clinical study expanded and we treated liver cirrhosis induced by HCV and HBV infection and alcohol consumption. We found that the ABMi therapy was effective for cirrhosis patients and now we are treating patients with combined HIV and HCV infection and with metabolic syndrome-induced liver cirrhosis. Currently, to substantiate our findings that liver cirrhosis can be successfully treated by the ABMi therapy, we are conducting randomized multicenter clinical studies designated "Advanced medical technology B" for HCV-related liver cirrhosis in Japan. On the basis of our clinical study, we developed a proof-of-concept showing that infusion of bone marrow cells (BMCs) improved liver fibrosis and sequentially activated proliferation of hepatic progenitor cells and hepatocytes, further promoting restoration of liver functions. To treat patients with severe forms of liver cirrhosis, we continued translational research to develop less invasive therapies by using mesenchymal stem cells derived from bone marrow. We obtained a small quantity of BMCs under local anesthesia and expanded them into mesenchymal stem cells that will then be used for treating cirrhosis. In this review, we present our strategy to apply the results of our laboratory research to clinical studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>25450712</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Microencapsulated human mesenchymal stem cells decrease liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) transplantation was shown to be effective for the treatment of liver fibrosis, but the mechanisms of action are not yet fully understood. We transplanted encapsulated human MSCs in two mouse models of liver fibrosis to determine the mechanisms behind the protective effect. Human bone marrow-derived MSCs were microencapsulated in novel alginate-polyethylene glycol microspheres. In vitro, we analyzed the effect of MSC-conditioned medium on the activation of hepatic stellate cells and the viability, proliferation, cytokine secretion, and differentiation capacity of encapsulated MSCs. The level of fibrosis induced by bile duct ligation (BDL) or carbon tetrachloride (CCl4) was assessed after intraperitoneal transplantation of encapsulated MSCs, encapsulated human fibroblasts, and empty microspheres. MSC-conditioned medium inhibited hepatic stellate cell activation and release of MSC secreted anti-apoptotic (IL-6, IGFBP-2) and anti-inflammatory (IL-1Ra) cytokines. Viability, proliferation, and cytokine secretion of microencapsulated MSCs were similar to those of non-encapsulated MSCs. Within the microspheres, MSCs maintained their capacity to differentiate into adipocytes, chondrocytes, and osteocytes. 23% (5/22) of the MSC clones were able to produce anti-inflammatory IL-1Ra in vitro. Microencapsulated MSCs significantly delayed the development of BDL- and CCl4-induced liver fibrosis. Fibroblasts had an intermediate effect against CCl4-induced fibrosis. Mice transplanted with encapsulated MSCs showed lower mRNA levels of collagen type I, whereas levels of matrix metalloproteinase 9 were significantly higher. Human IL-1Ra was detected in the serum of 36% (4/11) of the mice transplanted with microencapsulated MSCs. MSC-derived soluble molecules are responsible for an anti-fibrotic effect in experimental liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>33143043</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Extracellular Vesicles in the Development of the Non-Alcoholic Fatty Liver Disease: An Update.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Non-alcoholic fatty liver disease (NAFLD) is a broad spectrum of liver damage disease from a simple fatty liver (steatosis) to more severe liver conditions such as non-alcoholic steatohepatitis (NASH), fibrosis, and cirrhosis. Extracellular vesicles (EVs) are a heterogeneous group of small membrane vesicles released by various cells in normal or diseased conditions. The EVs carry bioactive components in their cargos and can mediate the metabolic changes in recipient cells. In the context of NAFLD, EVs derived from adipocytes are implicated in the development of whole-body insulin resistance (IR), the hepatic IR, and fatty liver (steatosis). Excessive fatty acid accumulation is toxic to the hepatocytes, and this lipotoxicity can induce the release of EVs (hepatocyte-EVs), which can mediate the progression of fibrosis via the activation of nearby macrophages and hepatic stellate cells (HSCs). In this review, we summarized the recent findings of adipocyte- and hepatocyte-EVs on NAFLD disease development and progression. We also discussed previous studies on mesenchymal stem cell (MSC) EVs that have garnered attention due to their effects on preventing liver fibrosis and increasing liver regeneration and proliferation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>31781620</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Bone Marrow-Derived Mesenchymal Stem Cell Potential Regression of Dysplasia Associating Experimental Liver Fibrosis in Albino Rats.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Assessing the therapeutic efficacy of superparamagnetic iron oxide nanoparticles (SPIO) labeled bone marrow-derived mesenchymal stem cells (BM-MSCs) on experimental liver fibrosis and associated dysplasia. MSCs were obtained from 10 male Sprague-Dawley rats while 50 female rats were divided into control (CG), liver fibrosis (CCL4, intraperitoneal injection of CCl&lt;sub&gt;4&lt;/sub&gt; for 8 weeks), and CCL&lt;sub&gt;4&lt;/sub&gt; rats treated with SPIO-labeled MSCs (MSCs/CCl&lt;sub&gt;4&lt;/sub&gt;) with and without continuing CCL&lt;sub&gt;4&lt;/sub&gt; injection for another 8 weeks. Assessment included liver histopathology, liver function tests, transmission electron microscopic tracing for homing of SPIO-MSCs, immunofluorescence histochemistry for fibrosis and dysplasia markers (transforming growth factor-beta (TGF-&lt;i&gt;β&lt;/i&gt;1), proliferation nuclear antigen (PCNA), glypican 3)), and quantitative gene expression analysis for matrix metalloproteinase-1 (MMP-1) and tissue inhibitor of metalloproteinase-1 (TIMP-1). SPIO-labeled MSCs were engrafted in the fibrotic liver and the BM/MSCs demonstrated regression for fibrous tissue deposition and inhibition progression of dysplastic changes in the liver of CCl&lt;sub&gt;4&lt;/sub&gt;-treated rats on both the histological and molecular levels. BM-MSCs possess regenerative and antidysplastic potentials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>29497038</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>The distinct roles of mesenchymal stem cells in the initial and progressive stage of hepatocarcinoma.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Increasing evidences suggest that mesenchymal stem cells (MSCs) could migrate to the tumor site and play a vital role in tumorigenesis and progression. However, it is still a lively debate whether MSCs exert a pro- or anticancer action. Cancer development and progression is a multistep process. Therefore, we investigated the effect of MSCs on hepatocarcinoma and whether the role of MSCs depends on the stage of cancer development. In our study, chronically exposing rats to N-diethylnitrosamine (DEN) was employed as hepatocarcinoma model. And to evaluate the effect of MSCs on hepatocarcinoma, the animals were divided into three groups: rats were injected with MSCs in the initial (DEN + MSC (Is) group) or progressive stage (DEN + MSC (Ps) group) of hepatocarcinoma, respectively. Rats injected with PBS were used as control (DEN group). Interestingly, we found that MSCs had a tumor-suppressive effect in the Is of hepatocarcinoma, yet a tumor-promotive effect in the Ps. In the Is, MSCs showed a protective role against drug damage, possibly through reducing DNA damage and ROS accumulation. Meanwhile, MSCs in the Is also exhibited anti-inflammatory and anti-liver fibrosis effect. Further, in the Ps, MSCs facilitated tumor formation not only by enhancing cancer cell proliferation but also through promoting stem cell-like properties and epithelial-mesenchymal transition of liver cancer cells. Taken together, MSCs have a paradoxical role in the different stages of hepatocarcinogenesis, which sheds new light on the role of MSCs in hepatocarcinoma and cautions the therapeutic application of MSCs for liver cancer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>32865681</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells ameliorate oxidative stress, inflammation, and hepatic fibrosis via Nrf2/HO-1 signaling pathway in rats.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Liver fibrosis occurs in most types of chronic liver diseases and can develop into cirrhosis and liver failure. Bone marrow-derived mesenchymal stem cells (BMSCs) showed promising effects in the treatment of fibrosis. This study evaluated the possible role of Nrf2/HO-1 signaling in the ameliorative effect of BMSCs against carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver fibrosis, oxidative stress, and inflammation in rats. Hepatic fibrosis was induced by subcutaneous injection of CCl&lt;sub&gt;4&lt;/sub&gt; twice per week for 6 consecutive weeks and rat BMSCs were administered intravenously. After 4 weeks, the rats were sacrificed, and samples were collected for analysis. CCl&lt;sub&gt;4&lt;/sub&gt;-intoxicated rats showed elevated serum transaminases, ALP, γGT, bilirubin and pro-inflammatory cytokines, and decreased albumin. Hepatic NF-κB p65 and malondialdehyde (MDA) were significantly increased, and cellular antioxidants were decreased in CCl&lt;sub&gt;4&lt;/sub&gt;-intoxicated rats. BMSCs ameliorated liver function markers, suppressed MDA, NF-κB p65, and inflammatory cytokines, and enhanced antioxidants in the liver of CCl&lt;sub&gt;4&lt;/sub&gt;-intoxicated rats. BMSCs were engrafted within the liver tissue and prevented histological alterations and collagen accumulation induced by CCl&lt;sub&gt;4&lt;/sub&gt;. In addition, BMSCs upregulated hepatic Nrf2 and HO-1 expression in CCl&lt;sub&gt;4&lt;/sub&gt;-intoxicated rats. In conclusion, this study provides evidence that BMSCs suppress oxidative stress, inflammation, and liver fibrosis through a mechanism involving activation of the Nrf2/HO-1 signaling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>31941234</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[Progress and prospects of clinical cell therapy for liver cirrhosis and liver cancer].</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The treatment options for liver cancer and liver cirrhosis are limited. Cell therapy (immune cells, stem cells) can significantly improve the therapeutic effect by actively regulating body's immunity. In addition, when choosing different methods of cell therapy, clinicians should also fully consider the adverse reactions associated with cell therapy. This article reviews the progress of cells therapy in clinical trials of liver cancer and liver cirrhosis, including therapeutic mechanism, advantages, disadvantages and limitations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>38343615</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Role of Exosomal Modulation of Macrophages in Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Exosomes are 60-120 nm diameter double-membrane lipid organelles discharged by cells. Various studies have shown that exosomes exert multiple functions in both physical and diseased processes, such as intercellular information exchange, immune response, and disease progression. Repeated chronic injury to the liver often leads to inflammation and liver fibrosis (LF), a disorder that, if unchecked, may progress to cirrhosis, liver failure, portal hypertension, and even hepatocellular carcinoma. As an essential component of host innate immunity against pathogen invasion, macrophages play an important role in modulating inflammation homeostasis by finely tuning the polarization process of macrophages into either M1 or M2 subtypes in response to different microenvironments. As a critical contributor to the inflammation process, macrophages also play a complex and instrumental function in the progression of LF. This review focuses on recent advancements in the role of macrophage-associated exosomes implicated in LF, including macrophage-released exosomes and macrophage-targeted exosomes. In addition, the progress made in exosome-based antifibrotic therapy by &lt;i&gt;in vivo&lt;/i&gt; and &lt;i&gt;in vitro&lt;/i&gt; studies is also highlighted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>30375438</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells prevent progression of liver fibrosis in a novel zebrafish embryo model.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Chronic liver damage leads to the onset of fibrogenesis. Rodent models for liver fibrosis have been widely used, but are less suitable for screening purposes. Therefore the aim of our study was to design a novel model for liver fibrosis in zebrafish embryos, suitable for high throughput screening. Furthermore, we evaluated the efficacy of mesenchymal stromal cells (MSCs) to inhibit the fibrotic process and thereby the applicability of this model to evaluate therapeutic responses. Zebrafish embryos were exposed to TAA or CCL4 and mRNA levels of fibrosis-related genes (Collagen-1α1, Hand-2, and Acta-2) and tissue damage-related genes (TGF-β and SDF-1a, SDF-1b) were determined, while Sirius-red staining was used to estimate collagen deposition. Three days after start of TAA exposure, MSCs were injected after which the fibrotic response was determined. In contrast to CCL4, TAA resulted in an upregulation of the fibrosis-related genes, increased extracellular matrix deposition and decreased liver sizes suggesting the onset of fibrosis. The applicability of this model to evaluate therapeutic responses was shown by local treatment with MSCs which resulted in decreased expression of the fibrosis-related RNA markers. In conclusion, TAA induces liver fibrosis in zebrafish embryos, thereby providing a promising model for future mechanistic and therapeutic studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>35578365</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>The assessment of mesenchymal stem cells therapy in acute on chronic liver failure and chronic liver disease: a systematic review and meta-analysis of randomized controlled clinical trials.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) therapy is showing potential therapeutic effects on liver function improvement in patients with chronic liver disease; however, the consensus on efficacy and safety of MSCs has not been reached. We performed this systematic review and meta-analysis of randomized controlled trials (RCTs) to evaluate the efficacy and safety of MSCs therapy for patients with chronic liver disease. A detailed search of the Cochrane Library, MEDLINE, Web of Science, and EMBASE databases was conducted to find studies published prior to September 15, 2021. The outcome measures were survival rate, model of end-stage liver disease (MELD) score, albumin, total bilirubin, coagulation function, and aminotransferase. A literature search resulted in 892 citations. Of these, 12 studies met the inclusion criteria. It was found that compared with conventional treatment, MSCs therapy was associated with improved liver function including the MELD score, albumin levels, and coagulation function. However, it had no obvious beneficial effects on survival rate and aminotransferase levels. Subgroup analyses indicated that MSCs therapy had therapeutic effects on patients with both acute on chronic liver failure (ACLF) and cirrhosis. BM-MSCs and UC-MSCs treatment had similar efficacy to improve liver function. The effectiveness varied slightly between the peripheral intravenous injection and hepatic arterial injection. Five studies reported that the only adverse event of the MSCs therapy was fever, and no serious adverse events and side effects were reported. Analysis on clinical symptoms showed that encephalopathy and gastrointestinal hemorrhage events were reduced after MSCs therapy. In conclusion, this study suggested that MSCs therapy could be a potential therapeutic alternative for patients with chronic liver disease in clinical practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>31592593</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Regenerative Effect of Bone Marrow-derived Mesenchymal Stem Cells in Thioacetamide-induced Liver Fibrosis of Rats.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>The present study determined the regenerative effect of bone marrow-derived stem cells (BMSCs) on thioacetamide (TA)-induced liver fibrosis in rats. A total of 30 male Wistar rats were randomly divided into sham control and treatment groups. The rats of the sham control group were subdivided into three groups and sampled on the 14th, 18th, and 20th weeks after fibrosis induction. The rats of the treatment group were subdivided into two groups and sampled on the 4th and 6th weeks after BMSCs treatment. Fibrosis was induced by the intraperitoneal administration of 200 mg/kg of TA twice a week for a period of 14 weeks. All the animals underwent liver function tests and histopathologic evaluation 4 and 6 weeks after BMSCs transplantation. The BMSCs were characterized using osteogenic induction and reverse transcription-polymerase chain reaction. The BMSCs were plastic adherent, spindle-shaped, and positive for osteogenic differentiation. They expressed CD73 and were negative for CD45. The infiltration of inflammatory cells and deposition of collagen fibers were noticed after TA administration. A significant decline in inflammatory cells and a healing process were detected 4 weeks after cell transplantation. The amelioration in hepatic tissue was significant 6 weeks after cell therapy. Following the injection of BMSCs, a nonsignificant decrease was visible in aspartate transaminase level; however, this decline was significant for alanine aminotransferase level. The alkaline phosphatase and albumin levels showed an increasing trend after cell administration. The transplantation of BMSCs resulted in a significant regenerative effect after hepatic injuries. Therefore, it was shown that BMSCs transplantation can open a new window and be a therapy of choice in the amelioration of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>36703021</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Human Umbilical Cord Blood-Derived Mesenchymal Stem Cell Transplantation for Patients with Decompensated Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Although human umbilical cord blood-derived mesenchymal stem cell transplantation (HUCB-MSCT) resulted in a good short-term therapeutic effect on patients with decompensated liver cirrhosis (DLC), the long-term survival remained unclear. This study aimed to evaluate the impact of HUCB-MSCT on long-term outcomes in patients with DLC. This retrospective cohort study included hospitalized patients with decompensated cirrhosis in Liuzhou Hospital of Traditional Chinese Medicine between November 2010 and February 2013. The primary outcome was overall survival (OS). The secondary outcomes were 3-year and 5-year survival rates and the occurrence rate of hepatocellular carcinoma (HCC). A total of 201 subjects were enrolled, including 36 patients who underwent HUCB-MSCT (SCT group) and 165 patients who did not (non-SCT group). After PSM (1:2), there were 36 patients in the SCT group and 72 patients in non-SCT group. The 3-year and 5-year survival rates of the two groups were 83.3% vs. 61.8% and 63.9% vs. 43.6%, and median OS time was 92.50 and 50.80 months, respectively. HUCB-MSCT treatment was found to be an independent beneficial factor for patient OS (hazard ratio = 0.47; 95% CI: 0.29-0.76; P = 0.002). There was no significant difference in the occurrence rate of HCC between the two groups (P = 0.410). HUCB-MSCT may improve long-term OS without increasing the occurrence of HCC in patients with DLC. The Chinese Clinical Trial Registry (ChiCTR2100047550).</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>37298538</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Chromatographic Scalable Method to Isolate Engineered Extracellular Vesicles Derived from Mesenchymal Stem Cells for the Treatment of Liver Fibrosis in Mice.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>New therapeutic options for liver cirrhosis are needed. Mesenchymal stem cell (MSC)-derived extracellular vesicles (EVs) have emerged as a promising tool for delivering therapeutic factors in regenerative medicine. Our aim is to establish a new therapeutic tool that employs EVs derived from MSCs to deliver therapeutic factors for liver fibrosis. EVs were isolated from supernatants of adipose tissue MSCs, induced-pluripotent-stem-cell-derived MSCs, and umbilical cord perivascular cells (HUCPVC-EVs) by ion exchange chromatography (IEC). To produce engineered EVs, HUCPVCs were transduced with adenoviruses that code for insulin-like growth factor 1 (AdhIGF-I-HUCPVC-EVs) or green fluorescent protein. EVs were characterized by electron microscopy, flow cytometry, ELISA, and proteomic analysis. We evaluated EVs' antifibrotic effect in thioacetamide-induced liver fibrosis in mice and on hepatic stellate cells in vitro. We found that IEC-isolated HUCPVC-EVs have an analogous phenotype and antifibrotic activity to those isolated by ultracentrifugation. EVs derived from the three MSCs sources showed a similar phenotype and antifibrotic potential. EVs derived from AdhIGF-I-HUCPVC carried IGF-1 and showed a higher therapeutic effect in vitro and in vivo. Remarkably, proteomic analysis revealed that HUCPVC-EVs carry key proteins involved in their antifibrotic process. This scalable MSC-derived EV manufacturing strategy is a promising therapeutic tool for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>37507381</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Administration of AG490 decreases the senescence of umbilical cord-mesenchymal stem cells and promotes the cytotherapeutic effect in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>The therapeutic potential of umbilical cord-mesenchymal stem cell (UC-MSC) transplantation in liver fibrosis has been highlighted. However, the fate of transplanted MSCs in the fibrotic microenvironment remains unclear. In this study, we aim to uncover the fate of transplanted MSCs and develop targeting strategies that could enhance the therapeutic efficacy of MSC therapy in liver fibrosis. We used human UC-MSCs as the study object. For in vitro experiments, we stimulated UC-MSCs with several fibrotic-related factors (Liver fibrotic Factors, LF), including TGFβ, TNFα and IFNγ for downstream investigations. We co-cultured LF-treated UC-MSCs with hepatic stellate cell line LX-2 to assess the anti-fibrotic effect. We showed that upon LF stimulation, UC-MSCs exhibited reduced anti-fibrotic activity and underwent rapid senescence. Pathway analysis showed that JAK/STAT3 signaling was highly activated upon LF stimulation, which significantly elevated senescence-associated secretory phenotype (SASP) and senescence in UC-MSCs and could be reversed by a specific JAK inhibitor AG490. Moreover, using both carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) and 3,5-diethoxycarbonyl-1,4-dihydrocollidine (DDC)-induce fibrosis models, we demonstrated that AG490 pretreatment promoted UC-MSCs survival within the fibrotic liver microenvironment and exhibited enhance therapeutic efficacy. Overall, we showed that targeting MSC senescence in vivo through AG490 pretreatment could enhance the anti-fibrotic activities of UC-MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>38105754</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Unraveling the complexities of fibrosis and ductular reaction in liver disease: pathogenesis, mechanisms, and therapeutic insights.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Ductular reaction and fibrosis are hallmarks of many liver diseases including primary sclerosing cholangitis, primary biliary cholangitis, biliary atresia, alcoholic liver disease, and metabolic dysfunction-associated steatotic liver disease/metabolic dysfunction-associated steatohepatitis. Liver fibrosis is the accumulation of extracellular matrix often caused by excess collagen deposition by myofibroblasts. Ductular reaction is the proliferation of bile ducts (which are composed of cholangiocytes) during liver injury. Many other cells including hepatic stellate cells, hepatocytes, hepatic progenitor cells, mesenchymal stem cells, and immune cells contribute to ductular reaction and fibrosis by either directly or indirectly interacting with myofibroblasts and cholangiocytes. This review summarizes the recent findings in cellular links between ductular reaction and fibrosis in numerous liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>38198960</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Human umbilical cord-derived mesenchymal stem cells ameliorate liver fibrosis by improving mitochondrial function via Slc25a47-Sirt3 signaling pathway.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Chronic Liver fibrosis may progress to liver cirrhosis and hepatocellular carcinoma (HCC), hence cause a substantial global burden. However, effective therapies for blocking fibrosis are still lacking. Although mesenchymal stem cells (MSCs) have been proven beneficial to liver regeneration after damage, the underlying mechanism of their therapeutic effects are not fully understood. Oxidative stress and mitochondrial functionality alteration directly contributes to the hepatocyte apoptosis and development of liver fibrosis. This study aims to elucidate the mechanism by which hUC-MSC alleviates liver fibrosis and mitochondrial dysfunction. RNA-sequencing was performed to characterize the transcriptomic changes after implantation of hUC-MSCs in mice with liver fibrosis. Next, western blot, RT-PCR, immunohistochemical and immunofluorescence staining were used to evaluate the expression of different genes in vitro and in vivo. Additionally, mitochondrial morphological and dynamic changes, ROS content, and ATP production were examined. Slc25a47, a newly identified liver-specific mitochondrial NAD&lt;sup&gt;+&lt;/sup&gt; transporter, was notably reduced in CCl&lt;sub&gt;4&lt;/sub&gt;-treated mice and H&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;-stimulated hepatocytes. Conversely, hUC-MSCs increased the Slc25a47 expression and NAD&lt;sup&gt;+&lt;/sup&gt; level within mitochondria, thereby enhanced Sirt3 protein activity and alleviated mitochondrial dysfunction in the liver. Furthermore, Slc25a47 knockdown could partially abrogate the protective effects of hUC-MSCs on H&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;-induced mitochondrial fission and oxidative stress in hepatocytes. Our study illustrates that Slc25a47 is a key molecular for hUC-MSCs to improve liver fibrosis and regulates mitochondrial function through Sirt3 for the first time, and providing a theoretical basis for the clinical translation of hUC-MSCs transplantation in the treatment of patients with liver fibrosis/cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>35199612</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Exosomal microRNA-618 derived from mesenchymal stem cells attenuate the progression of hepatic fibrosis by targeting Smad4.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis (HF) is a pathological phenomenon that occurs during the process of long-term damage and repair in the liver. This condition will lead to the development of cirrhosis and even liver cancer if untreated. Previous evidence has shown that exosomes derived from mesenchymal stem cells (MSCs), carrying microRNAs (miRs), can affect the pathogenesis of HF. Therefore, the present study aimed to identify novel exosomal miRs derived from MSCs that play a critical role in the progression of HF. Next, the expression data of differentially expressed miRs (DEMs) of patients with liver cirrhosis and healthy controls were obtained from the Gene Expression Omnibus dataset. DEMs were analyzed using Gene ontology (GO) and Kyoto Encyclopedia of Genes and Genomes (KEGG). Moreover, to further confirm the function of exosomal miR-618 derived from MSCs on the pathogenesis of HF &lt;i&gt;in vivo&lt;/i&gt;, a mouse model of HF was established. The results of the present study suggested that a close associated existed between DEMs and HF. Based on the results of the bioinformatics analysis, miR-618 was one of the main downregulated miRs involved in cirrhosis. In addition, miR-618 could be transferred from MSCs to LX-2 cells via exosomes; exosomal miR-618 derived from MSCs inhibited the viability and migration of LX-2 cells that were treated with TGF-β. Furthermore, exosomal miR-618 derived from MSCs attenuated the progression of HF via targeting Smad4. These findings indicated that treatment of exosomal miR-618 derived from MSCs might serve as a new strategy for HF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>37501214</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PPARγ-dependent hepatic macrophage switching acts as a central hub for hUCMSC-mediated alleviation of decompensated liver cirrhosis in rats.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Decompensated liver cirrhosis (DLC), a terminal-stage complication of liver disease, is a major cause of morbidity and mortality in patients with hepatopathies. Human umbilical cord mesenchymal stem cell (hUCMSC) therapy has emerged as a novel treatment alternative for the treatment of DLC. However, optimized therapy protocols and the associated mechanisms are not entirely understood. We constructed a DLC rat model consistent with the typical clinical characteristics combined use of PB and CCL&lt;sub&gt;4&lt;/sub&gt;. Performing dynamic detection of liver morphology and function in rats for 11 weeks, various disease characteristics of DLC and the therapeutic effect of hUCMSCs on DLC in experimental rats were thoroughly investigated, according to ascites examination, histopathological, and related blood biochemical analyses. Flow cytometry analysis of rat liver, immunofluorescence, and RT-qPCR was performed to examine the changes in the liver immune microenvironment after hucMSCs treatment. We performed RNA-seq analysis of liver and primary macrophages and hUCMSCs co-culture system in vitro to explore possible signaling pathways. PPARγ antagonist, GW9662, and clodronate liposomes were used to inhibit PPAR activation and pre-exhaustion of macrophages in DLC rats' livers, respectively. We found that changing the two key issues, the frequency and initial phase of hUCMSCs infusion, can affect the efficacy of hUCMSCs, and the optimal hUCMSCs treatment schedule is once every week for three weeks at the early stage of DLC progression, providing the best therapeutic effect in reducing mortality and ascites, and improving liver function in DLC rats. hUCMSCs treatment skewed the macrophage phenotype from M1-type to M2-type by activating the PPARγ signaling pathway in the liver, which was approved by primary macrophages and hUCMSCs co-culture system in vitro. Both inhibition of PPARγ activation with GW9662 and pre-exhaustion of macrophages in DLC rats' liver abolished the regulation of hUCMSCs on macrophage polarization, thus attenuating the beneficial effect of hUCMSCs treatment in DLC rats. These data demonstrated that the optimal hUCMSCs treatment effectively inhibits the ascites formation, prolongs survival and significantly improves liver structure and function in DLC rats through the activation of the PPARγ signaling pathway within liver macrophages. Our study compared the efficacy of different hUCMSCs infusion regimens for DLC, providing new insights on cell-based therapies for regenerative medicine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>38159943</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Human umbilical cord-derived mesenchymal stem cells for the treatment of decompensated cirrhosis (MSC-DLC-1): a dose-escalation, phase I trial protocol.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>There are limited therapeutic options to efficiently treat patients with decompensated liver cirrhosis. This trial aims to explore the efficacy and safety of human umbilical cord-derived mesenchymal stem cells (UC-MSCs) for the treatment of patients with decompensated liver cirrhosis. This study is an open-label, dose-escalation, one-armed phase I trial. A single injection of UC-MSCs will be administered in a predetermined dose in each cohort (5.0×10&lt;sup&gt;7&lt;/sup&gt;, 1.0×10&lt;sup&gt;8&lt;/sup&gt;, 1.5×10&lt;sup&gt;8&lt;/sup&gt; or 2.0×10&lt;sup&gt;8&lt;/sup&gt; cells) according to the '3+3' rule. The primary evaluation measures will include the incidence of adverse events and the change in the Model for End-stage Liver Disease (MELD) score from baseline to the 28th day. Secondary evaluation measures will be evaluated at baseline and at each follow-up point. These measures will include the change in the MELD score from baseline to each follow-up point, the incidence of each complication associated with decompensated cirrhosis, liver transplant-free survival and the incidence of liver failure, among other relevant measures. All patients will be followed up for 24 months. This study will evaluate whether the use of UC-MSCs to treat patients with decompensated liver cirrhosis is safe and tolerable. The study has been approved by the Chinese People's Liberation Army General Hospital (Approval#: 2018-107-D-4). Once conducted, the results from the study will be published in a peer-reviewed journal. NCT05227846.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>33425900</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Molecular Pathways Modulated by Mesenchymal Stromal Cells and Their Extracellular Vesicles in Experimental Models of Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>End-stage liver fibrosis is common to all chronic liver diseases. Since liver transplantation has several limitations, including lack of donors, immunological rejection, and high medical costs, therapeutic alternatives are needed. The administration of mesenchymal stromal cells (MSCs) has been proven effective in tissue regeneration after damage. However, the risk of uncontrolled side effects, such as cellular rejection and tumorigenesis, should be taken into consideration. A safer alternative to MSC transplantation is represented by the MSC secretome, which retains the same beneficial effect of the cell of origin, without showing any considerable side effect. The paracrine effect of MSCs is mainly carried out by secreted particles in the nanometer range, known as extracellular vesicles (EVs) that play a fundamental role in intercellular communication. In this review, we discuss the current literature on MSCs and MSC-EVs, focusing on their potential therapeutic action in liver fibrosis and on their molecular content (proteins and RNA), which contributes in reverting fibrosis and prompting tissue regeneration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>27631592</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Status of and candidates for cell therapy in liver cirrhosis: overcoming the "point of no return" in advanced liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>The treatment of liver cirrhosis is currently being standardized and developed specifically to reduce activation of hepatic stellate cells (HSCs), inhibit fibrosis, increase degradation of matrix components, and reduce activated myofibroblasts. Cell therapy can be applied in the treatment of liver cirrhosis; however, the characteristic features of this therapy differ from those of other treatments because of the involvement of a living body origin and production of multiple cytokines, chemokines, matrix metalloproteinases (MMPs), and growth factors. Thus, cell therapies can potentially have multiple effects on the damaged liver, including alleviating liver cirrhosis and stimulating liver regeneration with affecting the host cells. Cell therapies initially involved autologous bone marrow cell infusion, and have recently developed to include the use of specific cells such as mesenchymal stem cells and macrophages. The associated molecular mechanisms, routes of administration, possibility of allogeneic cell therapy, and host conditions appropriate for cell therapies are now being extensively analyzed. In this review, we summarize the status and future prospects of cell therapy for liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>37980535</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pretreatment of UC-MSCs with IFN-α2 improves treatment of liver fibrosis by recruiting neutrophils.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>The use of umbilical cord mesenchymal stem cells (UC-MSCs) is a burgeoning method for the treatment of liver cirrhosis. However, the secretory phenotype and regulatory ability of UC-MSCs are easily affected by their microenvironment. Ensuring a specific microenvironment to enhance the UC-MSCs phenotype is a potential strategy for improving their therapeutic efficacy. The aim of this study was to explore therapeutic UC-MSCs phenotypes for improving liver fibrosis. RNA-sequencing was used to analyze the response pattern of UC-MSCs after exposure to the serum of cirrhotic patients with HBV. Using immunohistochemistry, quantitative polymerase chain reaction, and immunofluorescence techniques, we evaluated the therapeutic effect of UC-MSCs pretreated with interferon alpha 2 (IFN-α2) (pre-MSCs) in an animal model of cirrhosis. Immunoblotting, ELISA, and other techniques were used to analyze the signaling pathways underlying the IFN-induced changes in UC-MSCs. UC-MSCs exposed to the serum of patients with hepatitis B-induced cirrhosis showed an enhanced response to type I IFN. The activated type I IFN signal induced the highest secretion of colony-stimulating factor 3 (CSF-3), interleukin (IL)-8, and chemokine (C-C motif) ligand 20 (CCL20) by the UC-MSCs. Pre-MSCs showed a higher therapeutic efficacy than untreated UC-MSCs in an animal model of liver fibrosis. Immunohistochemical analysis revealed that pre-MSCs could recruit neutrophils resulting in an increase in the secretion of matrix metalloprotease 8 that alleviated fibrosis. When neutrophils in animals were depleted, the therapeutic effect of pre-MSCs on fibrosis was inhibited. IFN-α2 altered the secretory phenotype of UC-MSCs by activating phosphorylated signal transducer and activator of transcription 1 and 2 (p-STAT1 and p-STAT2). Pre-MSCs exhibited enhanced secretion of CSF-3, IL-8, and CCL20 and recruited neutrophils to alleviate fibrosis. This new strategy can improve cell therapy for liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>30635047</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Transplantation of bone marrow mesenchymal stromal cells attenuates liver fibrosis in mice by regulating macrophage subtypes.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a key phase that will progress to further injuries such as liver cirrhosis or carcinoma. This study aimed to investigate whether transplantation of bone marrow mesenchymal stromal cells (BM-MSCs) can attenuate liver fibrosis in mice and the underlying mechanisms based on the regulation of macrophage subtypes. A liver fibrosis model was induced by intraperitoneal (i.p.) injection of CCl4 twice per week for 70 days, and BM-MSCs were intravenously transplanted twice on the 60th and 70th days. Immunohistology and gene expression of liver fibrosis and macrophage subtypes were analyzed. Mouse RAW264.7 cells and JS1 cells (hepatic stellate cell strain) were also used to explore the underlying mechanisms of the effects of BM-MSCs on liver fibrosis. After transplantation of BM-MSCs, F4/80&lt;sup&gt;+&lt;/sup&gt;CD206&lt;sup&gt;+&lt;/sup&gt;-activated M2 macrophages and matrix metalloproteinase 13 (MMP 13) expression were significantly increased while F4/80&lt;sup&gt;+&lt;/sup&gt;iNOS&lt;sup&gt;+&lt;/sup&gt;-activated M1 macrophages were inhibited in liver tissue. Gene expression of IL-10 was elevated while IL12b, IFN-γ, TNF-α, and IL-6 gene expression were decreased. ΤGF-β1 and collagen-1 secretions were reduced while caspase-3 was increased in JS1 cells treated with BM-MSC-conditioned media. BM-MSCs effectively suppressed the expression of α-SMA, Sirius red, and collagen-1 in the liver, which are positively correlated with fibrosis and induced by CCl4 injection. Taken together, we have provided the first demonstration that BM-MSC transplantation can promote the activation of M2 macrophages expressing MMP13 and inhibition of M1 macrophages to further inhibit hepatic stellate cells (HSCs), which play synergistic roles in attenuating liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>32816183</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Cell therapy as a new approach on hepatic fibrosis of murine model of Schistosoma mansoni-infection.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Schistosomiasis is an acute and chronic disease of the genus Schistosoma triggered by blood flukes. Schistosomiasis is a disease occurring in, or endemic to, tropical and subtropical regions. A new concept was implemented to deal with schistosomiasis from natural plant sources. Curcumin's common name is Turmeric. Curcumin has proven to be main active component in Curcuma longa L. and has a wide range of anti-phrastic effects. Previous studies have shown the role of bone marrow mesenchymal stem cells (BMSCs) therapy in hepatic fibrosis recovery. The current study was, therefore, intended to examine therapeutic role of BMSCs and Turmeric in murine schistosomiasis mansoni. Mice were divided into five groups: a negative control group (non-infected non-treated), a positive control group (infected non-treated), a BMSCs treated group; Turmeric treated group, and untreated group. BMSCs derived from male mice were injected intraperitoneally into female mice receiving S. mansoni cercariae through the subcutaneous route. Liver histopathology and immuno-histochemical examinations were evaluated. BMSCs intraperitoneal injection resulted in a significant reduction of liver collagen, granuloma size, and significant increase of OV-6 expression in the Schistosomiasis-treated mice group. There was overall improvement in pathological changes of the liver. Unfortunately, group IV showed a mild improvement in the granuloma size and fibrosis compared to corresponding BMSCs treatment group, although with vacuolated liver cells. BMSCs have a regenerative potential in liver tissue histopathology by decreasing liver fibrosis and granulomas. Turmeric, by contrast, could not be used as an anti-fibrotic, according to the findings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>33935044</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Genome Edited Sirt1-Overexpressing Human Mesenchymal Stem Cells Exhibit Therapeutic Effects in Treating Collagen-Induced Arthritis.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Even though mesenchymal stem cells (MSCs) are known for cartilage regeneration, their therapeutic efficacy needs to be enhanced. In the present study, we produced genome-edited silent information regulator 2 type 1 (&lt;i&gt;&lt;b&gt;Sirt1&lt;/b&gt;&lt;/i&gt;)-overexpressing MSCs, and evaluated their therapeutic potential in a damaged cartilage mouse liver fibrosis model. The &lt;i&gt;&lt;b&gt;Sirt1&lt;/b&gt;&lt;/i&gt; gene was successfully inserted into a 'safe harbor' genomic locus in amniotic mesenchymal stem cells (AMMs), and the chondrogenic properties of the &lt;i&gt;&lt;b&gt;Sirt1&lt;/b&gt;&lt;/i&gt; gene overexpressing AMMs (AMM/S) were characterized using quantitative PCR and histology. Therapeutic potentials were investigated in a collagen-induced arthritis (CIA) mouse model. Chondrocyte-differentiated AMM/S expressed cartilage-specific genes and were positive for Safranin O staining. Transplantation of AMM/S attenuated CIA progression and suppressed T helper (Th)-17 cell activation while increasing the Treg cell population in CIA mice. Pro-inflammatory factors, such as interleukin (IL)-1β, IL-6, monocyte chemoattractant protein (MCP)-1, and tumor necrosis factor (TNF)-α were significantly decreased in AMM/S-injected joint tissues. In conclusion, genome-edited AMM/S may represent a safe and alternative therapeutic option for the treatment and repair of damaged cartilage, or in inflammatory joint arthritis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>35006577</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Extracellular Vesicles from miR-148a-5p-Enriched Bone Marrow Mesenchymal Stem Cells Relieve﻿ Hepatic Fibrosis by Targeting Smad4.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a hallmark feature of many chronic liver diseases, which is the leading cause of morbidity and mortality worldwide. Bone marrow mesenchymal stem cells (BMSCs)-derived extracellular vesicles have been applied in many diseases. In this study, we aimed to explore the specific mechanism of extracellular vesicles from BMSCs in liver fibrosis. Bioinformatics analysis was employed to screen miRNA and its target mRNA. Sirius Red staining was carried out to examine fibrosis in liver tissues. Extracellular vesicle morphology was assessed using Transmission Electron Microscopy. Quantitative real-time PCR (qRT-PCR) and western blotting analysis were performed to detect the expressions of miR-148a-5p, Smad4, transforming growth factor-β1 (TGF-β1), tissue inhibitor of metalloproteinase 1 (TIMP-1), Collagen I, α-smooth muscle actin (α-SMA), and extracellular vesicle markers CD9, TSG101, CD63, and calnexin. Dual-luciferase report gene assay was used for the luciferase activity analysis. Bioinformatics analysis revealed miR-148a-5p as a regulator in liver fibrosis. QRT-PCR results indicated that miR-148a-5p was lowly expressed in both thioacetamide (TAA)-induced mice and TGF-β1-activated hepatic stellate cells. Extracellular vesicles from miR-148a-5p enriched BMSCs downregulated the mRNA and protein levels of TGF-β1, TIMP-1, Collagen I, and α-SMA. Further bioinformatics analysis indicated that Smad4 was related to liver fibrosis. Furthermore, the dual-luciferase report gene assay confirmed the binding relationship between miR-148a-5p and Smad4. Extracellular vesicles from miR-148a-5p enriched BMSCs attenuated hepatic fibrosis in liver fibrosis by targeting Smad4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>30223894</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells alleviate experimental autoimmune cholangitis through immunosuppression and cytoprotective function mediated by galectin-9.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) play an anti-inflammatory role by secreting certain bioactive molecules to exert their therapeutic effects for disease treatment. However, the underlying mechanism of MSCs in chronic autoimmune liver diseases-primary biliary cholangitis (PBC), for example-remains to be elucidated. Human umbilical cord-derived MSCs (UC-MSCs) were injected intravenously into 2-octynoic acid coupled to bovine serum albumin (2OA-BSA)-induced autoimmune cholangitis mice. Serum levels of biomarkers and autoantibodies, histologic changes in the liver, diverse CD4&lt;sup&gt;+&lt;/sup&gt; T-cell subsets in different tissues, and chemokine activities were analyzed. Moreover, we investigated galectin-9 (Gal-9) expression and its function in UC-MSCs. In this study, UC-MSC transplantation (UC-MSCT) significantly ameliorated liver inflammation, primarily by diminishing T helper 1 (Th1) and Th17 responses as well as modifying liver chemokine activities in experimental autoimmune cholangitis mice. Mechanistically, UC-MSCs significantly repressed the proliferation of CD4&lt;sup&gt;+&lt;/sup&gt; T cells and suppressed the differentiation of Th1 and Th17 cells, which was likely dependent on Gal-9. Furthermore, the signal transducer and activator of transcription (STAT) and c-Jun N-terminal kinase (JNK) signaling pathways were involved in the production of Gal-9 in UC-MSCs. These results suggest that Gal-9 contributes significantly to UC-MSC-mediated therapeutic effects and improve our understanding of the immunomodulatory mechanisms of MSCs in the treatment of PBC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>23531302</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells and Interleukin-6 attenuate liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) transplantation has emerged as a promising therapy for liver fibrosis. Issues concerning poor MSC survival and engraftment in the fibrotic liver still persist and warrant development of a strategy to increase MSC potency for liver repair. The present study was designed to examine a synergistic role for Interleukin-6 (IL-6) and MSCs therapy in the recovery of carbon tetrachloride (CCl(4)) induced injured hepatocytes in vitro and in vivo. Injury was induced through 3 mM and 5 mM CCl(4) treatment of cultured hepatocytes while fibrotic mouse model was established by injecting 0.5 ml/kg CCl(4) followed by treatment with IL-6 and MSCs. Effect of MSCs and IL-6 treatment on injured hepatocytes was determined by lactate dehydrogenase release, RT-PCR for (Bax, Bcl-xl, Caspase3, Cytokeratin 8, NFκB, TNF-α) and annexin V apoptotic detection. Analysis of MSC and IL-6 treatment on liver fibrosis was measured by histopathology, PAS, TUNEL and Sirius red staining, RT-PCR, and liver function tests for Bilirubin and Alkaline Phosphatase (ALP). A significant reduction in LDH release and apoptosis was observed in hepatocytes treated with a combination of MSCs and IL-6 concomitant with upregulation of anti-apoptotic gene Bcl-xl expression and down regulation of bax, caspase3, NFκB and TNF-α. Adoptive transfer of MSCs in fibrotic liver pretreated with IL-6 resulted increased MSCs homing and reduced fibrosis and apoptosis. Hepatic functional assessment demonstrated reduced serum levels of Bilirubin and ALP. Pretreatment of fibrotic liver with IL-6 improves hepatic microenvironment and primes it for MSC transplantation leading to enhanced reduction of liver injury after fibrosis. Synergistic effect of IL-6 and MSCs seems a favored therapeutic option in attenuation of liver apoptosis and fibrosis accompanied by improved liver function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>21200380</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Implications of the immunoregulatory functions of mesenchymal stem cells in the treatment of human liver diseases.</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Transplantation of mesenchymal stem cells (MSCs) has been recently studied in animal models, and in clinical trials of patients with fulminant hepatic failure, end-stage liver diseases and inherited metabolic disorders. Modulatory cytokines produced by MSCs can inhibit immunocyte proliferation and migration to the liver, thereby attenuating inflammatory injury and reducing hepatocyte apoptosis. In addition, MSCs play an important role in regressing liver fibrosis and in supporting the function, proliferation and differentiation of endogenous hepatocytes under appropriate conditions. Although remarkable progress has been achieved in basic and clinical MSC studies, optimal therapeutic regimens for the clinical application of MSCs, such as optimal doses, transplantation routine and interval period for transplantation, need to be elucidated in detail. Furthermore, the long-term safety and therapeutic efficacy of MSC transplantation should be evaluated in future clinical trials. This review summarizes our current understanding of the immunomodulatory effects of MSC therapies on human liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>22678013</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells relieve fibrosis of Schistosoma japonicum-induced mouse liver injury.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have gained popularity for their potential as seed cells to treat various human diseases, including pathogenic infections. Schistosoma japonicum (S. japonicum) infection is characterized by formation of parasite egg granulomas and host liver fibrosis. MSCs have been proposed as useful treatments of S. japonicum infection, but the efficacy and underlying mechanisms remain unknown. Herein, we report that MSCs were able to ameliorate S. japonicum-induced liver injury in vivo and this effect was enhanced by combining MSCs with conventional drug praziquantel (PZQ). Kunming strains of mice were infected with S. japonicum and treated with vehicle, MSCs, PZQ or PZQ + MSCs. MSC treatment not only prolonged the survival time of infected mice but reduced egg granuloma diameter and decreased the concentrations of serum transforming growth factor-β1 and hyaluronic acid. MSC treatment also inhibited collagen deposition and reduced the expression of collagen type 3, α-smooth muscle actin and vimentin in infected mouse liver tissues. Collectively, our findings suggest that MSC treatment represents a novel therapeutic approach for S. japonicum-induced liver injury and fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>27500218</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Human Amnion-Derived Mesenchymal Stem Cell Transplantation Ameliorates Liver Fibrosis in Rats.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are a valuable cell source in regenerative medicine. Recently, several studies have shown that MSCs can be easily isolated from human amnion. In this study, we investigated the therapeutic effect of transplantation of human amnion-derived MSCs (hAMSCs) in rats with liver fibrosis. Liver fibrosis was induced by an intraperitoneal injection of 2 mL/kg of 50% carbon tetrachloride twice a week for 6 weeks. At 3 weeks, hAMSCs (1 × 10(6) cells) were transplanted intravenously. Rats were sacrificed at 7 weeks, and histological analyses and quantitative reverse-transcription polymerase chain reaction were performed. In vitro experiments were conducted to investigate the effect of hAMSCs on the activation of Kupffer cells. Transplantation of hAMSCs significantly reduced the fibrotic area, deposition of type-I collagen, the number of α-smooth muscle actin-positive hepatic stellate cells, and CD68-positive Kupffer cells in the livers. messenger RNA expression of α-smooth muscle actin and tissue inhibitor of metalloproteinase-1 was significantly decreased and the expression of matrix metalloproteinase-9 and hepatocyte growth factor was significantly increased in the liver of hAMSC-treated rats. Transplantation of hAMSCs at 3 weeks plus 5 weeks did not have an additive effect. In vitro experiments demonstrated that Kupffer cell activation induced by lipopolysaccharide was significantly decreased by culturing with conditioned medium obtained from hAMSCs. Transplantation of hAMSCs provided significant improvement in a rat model of liver fibrosis, possibly through the inhibition of Kupffer cell and hepatic stellate cell activation. hAMSCs may be a potential new treatment for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>37787035</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Therapeutic effect of exosomes derived from hepatocyte-growth-factor-overexpressing adipose mesenchymal stem cells on liver injury.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Adipose mesenchymal stem cell-derived exosomes (ADMSC-Exo) are a new strategy for the treatment of liver injury. However, mesenchymal stem cells (MSCs) exert therapeutic effects mainly by secreting hepatocyte growth factor (HGF). Therefore, we investigated the role of exosomes derived from ADMSC that overexpress HGF (ADMSCHGF-Exo) on liver injury. ADMSCs were isolated from young BALB/c female mice. Then exosomes derived from ADMSC transfecting negative control (ADMSCNC-Exo) and HGF overexpression (ADMSCHGF-Exo) were isolated and identified by quantitative polymerase chain reaction (qPCR), flow cytometry, western blot, transmission electron microscope and Nanosight particle tracking analysis. These exosomes were injected into male mice via tail vein after inducing liver injury by administering 40% carbon tetrachloride (CCl₄)-olive oil twice a week (3 mL/kg, subcutaneously) for 6 weeks. Liver injury and liver collagen fiber accumulation were determined by histopathological analysis. Then, the levels of serum liver function indexes (alanine aminotransferase, aspartate aminotransferase, albumin, total bilirubin), hepatocyte-specific markers (albumin, cytokeratin-18 and hepatocyte nuclear factor 4α), hepatic fibrosis-related proteins (α-smooth muscle actin and collagen I) and Rho GTPase (cell division cycle 42 and ras-related C3 botulinum toxin substrate 1) were determined by Enzyme-linked immunosorbent assay (ELISA), immunohistochemistry, Western blot and qPCR. ADMSCs were identified by high expression of CD105 and CD44 molecules and low expression of CD45 and CD34. ADMSCs-Exo, ADMSCNC-Exo and ADMSCHGF-Exo transfected cells had similar expression of exosome-specific membrane proteins (CD63, CD81 and CD9). Mice with CCl₄-induced liver injury exhibited abnormal serum liver function indexes, altered expression of hepatocyte-specific markers, hepatic fibrosis-related proteins and Rho GTPase protein as well as histopathological changes and collagen fiber accumulation in the liver. These changes were reversed by ADMSC-Exo, ADMSCNC-Exo and ADMSCHGF-Exo administration with ADMSCHGF-Exo displaying the most significant impact. ADMSCHGF-Exo exerted a hepatoprotective effect in mice with experimental liver injury by alleviating hepatic fibrosis and restoring liver function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>35036058</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Silencing IQGAP1 alleviates hepatic fibrogenesis via blocking bone marrow mesenchymal stromal cell recruitment to fibrotic liver.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>IQ motif-containing guanosine triphosphatase (GTPase)-activating protein 1 (IQGAP1) is a cytosolic scaffolding protein involved in cell migration. Our previous studies suggest sphingosine 1-phosphate (S1P) triggers bone marrow (BM) mesenchymal stromal cells (BMSCs) to damaged liver, thereby promoting liver fibrosis. However, the role of IQGAP1 in S1P-induced BMSC migration and liver fibrogenesis remains unclear. Chimeric mice of BM cell labeled by EGFP were used to build methionine-choline-deficient and high-fat (MCDHF)-diet-induced mouse liver fibrosis. IQGAP1 small interfering RNA (siRNA) was utilized to silence IQGAP1 &lt;i&gt;in vivo&lt;/i&gt;. IQGAP1 expression is significantly elevated in MCDHF-diet-induced mouse fibrotic livers. Positive correlations are presented between IQGAP1 and fibrosis hallmarks expressions in human and mouse fibrotic livers. &lt;i&gt;In vitro&lt;/i&gt;, depressing IQGAP1 expression blocks S1P-induced motility and cytoskeleton remodeling of BMSCs. S1P facilitates IQGAP1 aggregating to plasma membrane via S1P receptor 3 (S1PR&lt;sub&gt;3&lt;/sub&gt;) and Cdc42/Rac1. In addition, IQGAP1 binds to Cdc42/Rac1, regulating S1P-induced activation of Cdc42/Rac1 and mediating BMSC migration in concert. &lt;i&gt;In vivo&lt;/i&gt;, silencing IQGAP1 reduces the recruitment of BMSCs to impaired liver and effectively alleviates liver fibrosis induced by MCDHF diet. Together, silencing IQGAP1 relieves liver fibrosis by blocking BMSC migration, providing an effective therapeutic strategy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>30834983</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Regenerative medicine using stem cells from human exfoliated deciduous teeth (SHED): a promising new treatment in pediatric surgery.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Stem cells from human exfoliated deciduous teeth (SHEDs), being a type of mesenchymal stem cell, are an ideal cell source for regenerative medicine. They have minimal risk of oncogenesis, high proliferative capacity, high multipotency, and immunosuppressive ability. Stem cell transplantation using SHED has been found to have an anti-fibrotic effect on liver fibrosis in mice. SHED transplantation and the bio 3D printer, which can create scaffold-free 3-D images of the liver and diaphragm, provide a new innovative treatment modality for intractable pediatric surgical diseases such as biliary atresia and diaphragmatic hernia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>34518510</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells attenuate liver fibrosis by targeting Ly6C&lt;sup&gt;hi/lo&lt;/sup&gt; macrophages through activating the cytokine-paracrine and apoptotic pathways.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) therapy has become a promising treatment for liver fibrosis due to its predominant immunomodulatory performance in hepatic stellate cell inhibition and fibrosis resolution. However, the cellular and molecular mechanisms underlying these processes remain limited. In the present study, we provide insights into the functional role of bone marrow-derived MSCs (BM-MSCs) in alleviating liver fibrosis by targeting intrahepatic Ly6C&lt;sup&gt;hi&lt;/sup&gt; and Ly6C&lt;sup&gt;lo&lt;/sup&gt; macrophage subsets in a mouse model. Upon chronic injury, the Ly6C&lt;sup&gt;hi&lt;/sup&gt; subset was significantly increased in the inflamed liver. Transplantation of BM-MSCs markedly promoted a phenotypic switch from pro-fibrotic Ly6C&lt;sup&gt;hi&lt;/sup&gt; subset to restorative Ly6C&lt;sup&gt;lo&lt;/sup&gt; subpopulation by secreting paracrine cytokines IL-4 and IL-10 from the BM-MSCs. The Ly6C&lt;sup&gt;hi&lt;/sup&gt;/Ly6C&lt;sup&gt;lo&lt;/sup&gt; subset switch significantly blocked the source of fibrogenic TGF-β, PDGF, TNF-α, and IL-1β cytokines from Ly6C&lt;sup&gt;hi&lt;/sup&gt; macrophages. Unexpectedly, BM-MSCs experienced severe apoptosis and produced substantial apoptotic bodies in the fibrotic liver during the 72 h period of transplantation. Most apoptotic bodies were engulfed by Ly6C&lt;sup&gt;lo&lt;/sup&gt; macrophages, and this engulfment robustly triggered MMP12 expression for fibrosis resolution through the PtdSer-MerTK-ERK signaling pathway. This paper is the first to show previously unrecognized dual regulatory functions of BM-MSCs in attenuating hepatic fibrosis by promoting Ly6C&lt;sup&gt;hi&lt;/sup&gt;/Ly6C&lt;sup&gt;lo&lt;/sup&gt; subset conversion and Ly6C&lt;sup&gt;lo&lt;/sup&gt; macrophage restoration through secreting antifibrogenic-cytokines and activating the apoptotic pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>33384547</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Therapeutic efficiency of bone marrow-derived mesenchymal stem cells for liver fibrosis: A systematic review of &lt;i&gt;in vivo&lt;/i&gt; studies.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Although multiple drugs are accessible for recovering liver function in patients, none are considered efficient. Liver transplantation is the mainstay therapy for end-stage liver fibrosis. However, the worldwide shortage of healthy liver donors, organ rejection, complex surgery, and high costs are prompting researchers to develop novel approaches to deal with the overwhelming liver fibrosis cases. Mesenchymal stem cell (MSC) therapy is an emerging alternative method for treating patients with liver fibrosis. However, many aspects of this therapy remain unclear, such as the efficiency compared to conventional treatment, the ideal MSC sources, and the most effective way to use it. Because bone marrow (BM) is the largest source for MSCs, this paper used a systematic review approach to study the therapeutic efficiency of MSCs against liver fibrosis and related factors. We systematically searched multiple published articles to identify studies involving liver fibrosis and BM-MSC-based therapy. Analyzing the selected studies showed that compared with conventional treatment BM-MSC therapy may be more efficient for liver fibrosis in some cases. In contrast, the cotreatment presented a more efficient way. Nevertheless, BM-MSCs are lacking as a therapy for liver fibrosis; thus, this paper also reviews factors that affect BM-MSC efficiency, such as the implementation routes and strategies employed to enhance the potential in alleviating liver fibrosis. Ultimately, our review summarizes the recent advances in the BM-MSC therapy for liver fibrosis. It is grounded in recent developments underlying the efficiency of BM-MSCs as therapy, focusing on the preclinical &lt;i&gt;in vivo&lt;/i&gt; experiments, and comparing to other treatments or sources and the strategies used to enhance its potential while mentioning the research gaps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>32640349</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>The liver fibrosis niche: Novel insights into the interplay between fibrosis-composing mesenchymal cells, immune cells, endothelial cells, and extracellular matrix.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a hepatic wound-healing response caused by chronic liver diseases that include viral hepatitis, alcoholic liver disease, non-alcoholic steatohepatitis, and cholestatic liver disease. Liver fibrosis eventually progresses to cirrhosis that is histologically characterized by an abnormal liver architecture that includes distortion of liver parenchyma, formation of regenerative nodules, and a massive accumulation of extracellular matrix (ECM). Despite intensive investigations into the underlying mechanisms of liver fibrosis, developments of anti-fibrotic therapies for liver fibrosis are still unsatisfactory. Recent novel experimental approaches, such as single-cell RNA sequencing and proteomics, have revealed the heterogeneity of ECM-producing cells (mesenchymal cells) and ECM-regulating cells (immune cells and endothelial cells). These approaches have accelerated the identification of fibrosis-specific subpopulations among these cell types. The ECM also consists of heterogenous components. Their production, degradation, deposition, and remodeling are dynamically regulated in liver fibrosis, further affecting the functions of cells responsible for fibrosis. These cellular and ECM elements cooperatively form a unique microenvironment: a fibrotic niche. Understanding the complex interplay between these elements could lead to a better understanding of underlying fibrosis mechanisms and to the development of effective therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>25613158</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells mitigate cirrhosis through BMP7.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Transplantation of mesenchymal stem cells (MSCs) has therapeutic effects on various diseases, while its effect on developing cirrhosis as well as the underlying mechanism remained largely unknown. Twenty C57BL/6 mice were randomly separated into 2 groups of ten each. One group received transplantation of MSCs, while the other group received saline as control. The mice then received intraperitoneal injection of carbon tetrachloride (CCl4) twice per week for 8 weeks to develop cirrhosis. After another 4 weeks, the levels of cirrhosis in these mice were evaluated by liver fibrosis area, portal pressure, sodium balance and excretion. Transcripts of transforming growth factor β 1 (TGFβ1) and bone morphogenic protein 7 (BMP7) in the mouse livers were quantified by RT-qPCR. BMP7-depleted MSCs were prepared and applied in this model, and compared to MSCs. Liver fibrosis, portal hypertension and sodium retention that were developed by CCl4, were all significantly alleviated by MSCs transplantation, which decreased TGFβ1 levels and increased BMP7 levels in the injured liver. MSCs were found to express extremely high levels of BMP7. Knockdown of BMP7 in MSCs completely abolished the protective effect of MSCs against CCl4-induced cirrhosis. MSCs mitigate cirrhosis through their production of BMP7 against the fibrogenic effect of TGFβ1 in the injured liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>32506351</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>The Therapeutic Potential of Extracellular Vesicles Versus Mesenchymal Stem Cells in Liver Damage.</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>The extracellular vesicles (EVs) secreted by bone marrow-derived mesenchymal stem cells (MSCs) hold significant potential as a novel alternative to whole-cell therapy. We herein compare the therapeutic potential of BM-MSCs versus their EVs (MSC-EVs) in an experimental Carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver damage rat model. Rats with liver damage received a single IV injection of MSC-EVs, 1 million MSCs, or 3 million MSCs. The therapeutic efficacy of each treatment was assessed using liver histopathology, liver function tests and immunohistochemistry for liver fibrosis and hepatocellular injury. Animals that received an injection of either MSCs-EVs or 3 million MSCs depicted significant regression of collagen deposition in the liver tissue and marked attenuation of hepatocellular damage, both structurally and functionally. Similar to high doses of MSC-based therapy (3 million MSCs), MSC-EVs mitigated the fibrogenesis and hepatocellular injury in a rat model of CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis. The anti-fibrinogenic effect was induced by attenuating hepatic stellate cell activation. Therefore, the administration of MSC-EVs could be considered as a candidate cell-free therapeutic strategy for liver fibrosis and hepatocellular damage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>35293541</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of stem cell and melatonin on the reduction of CCl4-induced liver fibrosis in experimental mice model.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is initial stage of any chronic liver disease and its end stage is develops into cirrhosis. Chronic liver diseases are a crucial global health issue and the cause of approximately 2 million deaths per year worldwide. Cirrhosis is currently the 11th most common cause of death globally. Mesenchymal stem cell (MSCs) treatment is the best way to treat acute and chronic liver disease. The aim of this study is to improve the therapeutic potential of MSCs combined with melatonin (MLT) to overcome CCl4-induced liver fibrosis and also investigate the individual impact of melatonin and MSCs against CCl4-induced liver impairment in animal model. Female BALB/c mice were used as CCL4-induced liver fibrotic animal model. Five groups of animal model were made; negative control, Positive control, CCl4+MSCs treated group, CCl4+MLT treated group and CCl4+MSCs+MLT treated group. Cultured MSCs from mice bone marrow were transplanted to CCl4-induced liver injured mice model, individually as well as together with melatonin. Two weeks after MSCs and MLT administration, all groups of mice were sacrificed for examination. Morphological and Histopathological results showed that combined therapy of MSCs+MLT showed substantial beneficial impact on CCl4-induced liver injured model, compared with MSCs and MLT individually. Biochemically, considerable reduction was observed in serum bilirubin and ALT levels of MLT+MSC treated mice, compared to other groups. PCR results shown down-regulation of Bax and up-regulation of Bcl-xl and Albumin, confirm a significant therapeutic effect of MSCs+MLT on CCI4-induced liver fibrosis. From the results, it is concluded that combined therapy of MSCs and MLT show strong therapeutic effect on CCL4-induced liver fibrosis, compared with MSCs and MLT individually.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>26811102</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells effectively regenerate fibrotic liver in bile duct ligation rat model.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have attracted lots of attention for the treatment of acute liver failure and end-stage liver diseases. This study aimed at investigating the fundamental mechanism by which bone marrow-derived MSCs (BM-MSCs) induce liver regeneration of fibrotic liver in rats. Rats underwent bile duct ligation (BDL) surgery and four weeks later they were treated with either BM-MSCs (3 × 10(6) cells /rat, once, tail vein injection) or silymarin (100 mg/kg, daily, orally) for four weeks. Liver function tests and hepatic oxidative stress were determined. Hepatic injury and fibrosis were assessed by H and E, Sirus red staining and immunohistochemical expression of α-smooth muscle actin (α-SMA). Hepatocyte growth factor (HGF) and the gene expression of cytokeratin-19 (CK-19) and matrix metalloproteinase-2 (MMP-2) in liver tissue were determined. BDL induced cholestatic liver injury characterized by elevated ALT and AST activities, bilirubin and decreased albumin. The architecture damage was staged as Metavir score: F3, A3. Fibrosis increased around proliferating bile duct as indicated by sirus red staining and α-SMA immunostaining. Fibrogenesis was favored over fibrolysis and confirmed by decreased HGF with increased expression of CK-19, but decreased MMP-2 expression. BM-MSCs treatment restored deteriorated liver functions and restored the histological changes, resolved fibrosis by improving liver regenerative capabilities (P &lt; 0.001), increases in HGF and MMP-2 mRNA and downregulating CK-19 mRNA. Sliymarin, however, induced similar but less prominent effects compared to BM-MSCs. In conclusion, liver regenerative capabilities can be stimulated by BM-MSCs via augmentation of HGF that subsequently up-regulate MMP-2 mRNA while downregulating CK-19 mRNA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>33293768</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Trans-portal hepatic infusion of cultured bone marrow-derived mesenchymal stem cells in a steatohepatitis murine model.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>The incidence of nonalcoholic steatohepatitis-related liver cirrhosis is increasing. We used a steatohepatitis murine model fed a choline-deficient, l-amino acid-defined (CDAA) diet with a single injection of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) to evaluate the efficacy of trans-portal hepatic infusion of bone marrow-derived mesenchymal stem cells (BMSCs) for liver fibrosis, liver steatosis, and oxidative stress. Mice were fed a CDAA diet and injected with a single intraperitoneal dose of CCl&lt;sub&gt;4&lt;/sub&gt; (0.5 ml/kg) after 4 weeks of CDAA diet. After 12 weeks of CDAA diet, 1 × 10&lt;sup&gt;6&lt;/sup&gt; luciferase-positive syngeneic BMSCs (Luc-BMSCs) were infused into the animal spleen. An &lt;i&gt;in vivo&lt;/i&gt; imaging system was used to confirm Luc-BMSC accumulation in the liver via the portal vein, and at 4 weeks after infusion, we compared liver fibrosis, liver steatosis, and oxidative stress. After the BMSC-infusion, serum albumin and serum total bilirubin were significantly improved. Liver fibrosis assessed by Sirius red staining, α-smooth muscle actin protein, and collagen 1A1 mRNA expression was significantly suppressed. Furthermore, liver steatosis area was significantly lower, the 8-hydroxy-2'-deoxyguanosine-positive cells were significantly fewer, and superoxide dismutase 2 protein expression of the liver was significantly increased. In conclusion, our data confirmed the efficacy of trans-portal hepatic infusion of BMSCs in a steatohepatitis murine model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>34046793</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Age-Related Features of the Response of the Liver and Stem Cells during Modeling of Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>We studied the age-related characteristics of the response of stem cells and liver in male Wistar rats to administration of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) and ethanol. It was shown that modeling of liver cirrhosis caused inflammation, fibrosis, damage to sinusoidal capillaries, necrosis, and disturbances in the functional activity of hepatocytes in young rats. These processes were accompanied by mobilization of profibrotic mesenchymal stem cells (MSC), proinflammatory hematopoietic stem cells (HSC) and lymphocytes (CD45&lt;sup&gt;hi&lt;/sup&gt;CD133&lt;sup&gt;+&lt;/sup&gt;) from the bone marrow into the blood and migration to the liver. On the other hand, the number of hepatocyte precursors expressing Sox9 (cells of Hering's canal), immature cholangiocytes, Ito cells, oval cells, and endothelial cells of the liver sinusoids) sharply increased in the liver. In young rats, mobilization and migration of MSC, HSC, and hepatocyte precursors against the background of liver cirrhosis were more intensive than in old animals. The higher resistance of old rats to exposure is associated with age-related changes in the niches as well as in mobilization and migration of cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>33145022</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Regenerative effect of mesenteric fat stem cells on ccl4-induced liver cirrhosis, an experimental study.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Liver cirrhosis is a chronic disease in which normal liver tissue is replaced by fibrous tissue, leads to liver malfunction. Although transplantation is the most certain cure, stem cell therapies are shedding light on efforts to regenerate cirrhotic liver. The purpose of this study was to evaluate the regenerative potential of mesenteric fat stem cells in CCL4-induced liver cirrhosis in an animal model. Thirty rats were treated with the mixture of CCL4 and olive oil intraperitoneally by a dose of 0.2 ml (0.1 ml CCL4 and 0.1 ml olive oil) every other day for 16 weeks till cirrhosis signs appeared. Fifteen rats were randomly selected as control group. Others treated by mesenteric fat derived mesenchymal stem cells transferred into the liver parenchyma. After 5 weeks, rats received stem cells had improved clinically by increased movements, appetite, improvement in overall behavior and decreased abdomen size. Histopathologically, liver cells showed state of regeneration and forming new colonies. Liver cirrhosis was induced. The mesenchymal stem cells derived from mesenteric adipose tissue could improve hepatic status of the rats, as cirrhotic livers were regenerated back into normal appearing parenchyma. Rats' clinical behavior also reached healthy status.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>31760709</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Isolation of Secretome with Enhanced Antifibrotic Properties from miR-214-Transfected Adipose-Derived Stem Cells.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Secretome refers to the total set of molecules secreted or surface-shed by stem cells. The limitations of stem cell research have led numerous investigators to turn their attention to the use of secretome instead of stem cells. In this study, we intended to reinforce antifibrotic properties of the secretome released from adipose-derived stem cells (ASCs) transfected with miR-214. We generated miR-214-transfected ASCs, and extracted the secretome (miR214-secretome) from conditioned media of the transfected ASCs through a series of ultrafiltrations. Subsequently, we intravenously injected the miR-214-secretome into mice with liver fibrosis, and determined the effects of miR-214-secretome on liver fibrosis. Compared with that by naïve secretome, liver fibrosis was ameliorated by intravenous infusion of miR-214-secretome into mice with liver fibrosis, which was demonstrated by significantly lower expression of fibrosis-related markers (alpha-smooth muscle actin, transforming growth factor-β, and metalloproteinases-2) in the livers as well as lower fibrotic scores in the special stained livers compared with naïve secretome. The infusion of miR-214-secretome also led to lesser local and systemic inflammation, higher expression of an antioxidant enzyme (superoxide dismutase), and higher liver proliferative and synthetic function. MicroRNA-214 transfection stimulates ASCs to release the secretome with higher antifibrotic and anti-inflammatory properties. miR-214-secretome is thus expected to be one of the prominent ways of overcoming liver fibrosis, if further studies consistently validate its safety and efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>34012193</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cells Suppress TGF-β Release to Decrease α-SMA Expression in Ameliorating CCl4-Induced Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Liver fibrosis (LF) is the excessive deposition of extracellular matrix (ECM), produced by overactivated hepatic stellate cells, following prolonged transforming growth factor-β (TGF-β) stimulation. The ability of mesenchymal stem cells (MSCs) to improve LF has been reported. However, the mechanisms of MSCs to ameliorate LF through suppressing TGF-β and α-smooth muscle actin (α-SMA) remains unclear. To investigate the effects of MSCs treatment on suppressing TGF-β levels and decreasing α-SMA expression in an LF model. In this study, wenty-four male Wistar rats were injected intraperitoneal (IP) with carbon tetrachloride (CCL4), twice weekly, for eight weeks, to induce LF. Rats were randomly assigned to six groups: Sham, Control, Sham-lo, Sham-hi, and MSC-treated groups, at doses of 1 x 10&lt;sup&gt;6&lt;/sup&gt; (T1) and 2x10&lt;sup&gt;6&lt;/sup&gt; (T2) cells. TGF-β levels were analyzed by enzyme-linked immunosorbent assay (ELISA), whereas α-SMA expression was determined by immunohistochemistry staining. MSCs decreased the expression of TGF-β in T1 and T2 groups on day 3 and 14. The T2 group showed lower TGF-β levels than that in the T1 group. This finding was in line with the observed decrease in α-SMA expression and the number of collagen. MSCs treatment ameliorated LF by suppressing TGF-β production, leading to decreased α-SMA expression in a CCL4-induced LF animal model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>26006200</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Efficacy of autologous mesenchymal stem cell transplantation in patients with liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Because of several limitations and complications of liver transplantation, new alternative treatment modalities are required for patients with liver cirrhosis. Many study results encourage the use of autologous bone marrow-derived mesenchymal stem cells for liver diseases. In this study, we assessed the impact of autologous mesenchymal stem cell transplantation on liver tissue and liver chemistry. Twenty-five patients with biopsy-proven liver cirrhosis were enrolled in the study. Patients received 1×106 autologous mesenchymal stem cells/kg via a peripheral vein. Biochemical parameters were checked monthly. Periodical radiological screening and liver biopsies before mesenchymal stem cell transplantation were performed after 6 months. Liver specimens were assessed by a pathologist. No side effect was observed and the mesenchymal stem cell transplantation procedure was well tolerated. Twelve patients completed the study. In 8 patients, improvements in Model for End-Stage Liver Disease (MELD) scores were observed. Serum albumin levels markedly increased in the third month. In patients with non-responder hepatitis C, HCV RNA levels both became negative after mesenchymal stem cell transplantation. Histopathological examinations of liver tissues before and at 6 months after transplantation revealed no change in liver tissue regeneration or fibrosis. However, in 5 patients, hepatitis activity index scores decreased. Autologous mesenchymal stem cell transplantation via peripheral vein is safe and feasible. Consecutive liver biopsy examinations suggested that mesenchymal stem cells could not reach the liver in a sufficient amount. Improvement in patients and clearance of HCV RNA may have occurred through immunomodulatory mediators secreted by transplanted mesenchymal stem cells, namely the "endocrine" effect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>31147180</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Advantages of adipose tissue stem cells over CD34&lt;sup&gt;+&lt;/sup&gt; mobilization to decrease hepatic fibrosis in Wistar rats.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Chronic liver inflammation may lead to hepatic cirrhosis, limiting its regenerative capacity. The clinical standard of care is transplantation, although stem cell therapy may be an alternative option. The study aim was to induce endogenous hematopoietic stem cells (HSCs) with granulocyte colony stimulating factor (G-CSF) and/or intravenous administration of adipose tissue-derived mesenchymal stem cells (MSCs) to decrease hepatic fibrosis in an experimental model. A liver fibrosis model was developed with female Wistar rats via multiple intraperitoneal doses of carbon tetrachloride. Three rats were selected to confirm cirrhosis, and the rest were set into experimental groups to evaluate single and combined therapies of G-CSF-stimulated HSC mobilization and intravenous MSC administration. Treatment with MSCs and G-CSF significantly improved alanine amino transferase levels, while treatment with G-CSF, MSCs, and G-CSF+MSCs decreased aspartate amino transferase levels. Hepatocyte growth factor (HGF) and interleukin 10 levels increased with MSC treatment. Transforming growth factor β levels were lower with MSC treatment. Interleukin 1β and tumor necrosis factor alpha levels decreased in all treated groups. Histopathology showed that MSCs and G-CSF reduced liver fibrosis from F4 to F2. MSC treatment improves liver function, decreases hepatic fibrosis, and plays an anti-inflammatory role; it promotes HGF levels and increased proliferating cell nuclear antigen when followed by MSC treatment mobilization using G-CSF. When these therapies were combined, however, fibrosis improvement was less evident.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>36649501</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Umbilical Cord Wharton's Jelly-Derived Mesenchymal Stem Cells Inhibit the TGF-β1 Pathway in Hepatic Fibrosis Rats Through a Paracrine Regulation Process.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>The aim is to verify the therapeutic effect and possible mechanism of human umbilical cord Wharton's jelly-derived transplantation of mesenchymal stem cells (UMSCs) on CCl4-induced hepatic fibrosis rats through in vivo studies and to explore the regulatory mechanism of UMSCs on fibrosis of hepatic stellate cells (HSCs) through in vitro experiments. In vivo experiment: Rats were randomly divided into blank control group and hepatic fibrosis group. During the entire trial, the blank control group received subcutaneous injection of normal saline, while in the hepatic fibrosis group received injections of 50% CCl4-olive oil subcutaneously for 10 weeks to establish the rat model of liver fibrosis. Hepatic fibrosis rats were then randomly and evenly divided into umbilical cord mesenchymal stem cell (UMSC) group, bone marrow mesenchymal stem cell (BMSC) group, UMSC-culture medium (CM) group, and control group. Rats in each group were infused with the following substances through the caudal vein as follows: 1 mL UMSCs (2 × 106/mL) in UMSC group, 1 mL BMSCs (2 × 106/mL) in BMSC group, 1 mL UMSCs-CM in CM group, and 1 mL saline in control group. Rats of each group were closely observed (weight, hair condition, activity, appetite, diarrhea, etc.), venous blood samples were collected, the number of white blood cells and lymphocytes were measured, and liver function indicators (ALT, AST, TBIL, ALB) were determined. Three weeks later, rat liver specimens were taken, HE stained, pathological changes were examined and quantified. In vitro experiments: HSCs were seeded in 6-well plates at 1.0 × 105/mL, with a serum-free medium for 24 hours. Then, 2 mL of UMSCs-CM was added in the study group, while an equal amount of complete medium was added to the control group. RT-PCR was used to detect TGF-β1, Collagen-I, TIMP-2 mRNA expression in HSCs, and western blot was used to detect TGF-β1 protein expression in HSCs. In vivo experiment: Compared with the control group, after the transplantation, the activity status (weight, spirit, appetite, movement, hair, diarrhea, etc.) of rats in the UMSC group, BMSC group, and CM group were improved. The liver function indexes of these groups, such as alanine aminotransferase (ALT), aspartate aminotransferase (AST), and total bilirubin (TBIL) were significantly decreased (p &lt; 0.05), while albumin (ALB) levels were mildly but not significantly increased (p &gt; 0.05). The Knodell score (reflecting the degree of liver inflammation) and Chevallier score (reflecting the degree of liver fibrosis) of liver specimens in pathological examination were also significantly reduced, and the difference in the quantitative scores of those indexes was statistically significant (p &lt; 0.05). There was no statistically significant difference in the number of venous white blood cells and lymphocytes, liver function indexes (ALT, AST, TBIL, ALB), Knodell score, and Chevallier score of liver samples among the UMSC group, BMSC group, and CM group. In vitro experiments: After treatment with UMSCs-CM, the expression of TGF-β1, Collagen-I, and TIMP-2 mRNA in HSCs was significantly down-regulated compared with that of the control group (treated with complete medium), and it gradually decreased with the extension of the treatment time. Compared with the control group, the expression of TGF-β1 protein in the HSCs of the experimental group was down-regulated, and this effect was time-dependent, specifically, the control group (2.49 ± 0.43) &gt; the experimental group at 48 hours (1.98 ± 0.26) &gt; the experimental group at 72 hours (1.62 ± 0.20) (F = 7.796, p &lt; 0.05). In rats with liver fibrosis, transplantation of UMSCs can improve liver function and reduce the inflammatory activity and fibrosis of the liver, possibly through the paracrine mechanism. UMSCs inhibit HSCs fibrosis through a paracrine mechanism, which is time-dependent, possibly by targeting TGF-β1 and its downstream gene products.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>25722117</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tonsil-derived mesenchymal stem cells ameliorate CCl4-induced liver fibrosis in mice via autophagy activation.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Liver transplantation is the treatment of choice for chronic liver failure, although it is complicated by donor shortage, surgery-related complications, and immunological rejection. Cell transplantation is an alternative, minimally invasive treatment option with potentially fewer complications. We used human palatine tonsil as a novel source of mesenchymal stem cells (T-MSCs) and examined their ability to differentiate into hepatocyte-like cells in vivo and in vitro. Carbon tetrachloride (CCl4) mouse model was used to investigate the ability of T-MSCs to home to the site of liver injury. T-MSCs were only detected in the damaged liver, suggesting that they are disease-responsive. Differentiation of T-MSCs into hepatocyte-like cells was confirmed in vitro as determined by expression of hepatocyte markers. Next, we showed resolution of liver fibrosis by T-MSCs via reduction of TGF-β expression and collagen deposition in the liver. We hypothesized that autophagy activation was a possible mechanism for T-MSC-mediated liver recovery. In this report, we demonstrate for the first time that T-MSCs can differentiate into hepatocyte-like cells and ameliorate liver fibrosis via autophagy activation and down-regulation of TGF-β. These findings suggest that T-MSCs could be used as a novel source for stem cell therapy targeting liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>28583205</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Human liver mesenchymal stem/progenitor cells inhibit hepatic stellate cell activation: in vitro and in vivo evaluation.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Progressive liver fibrosis leads to cirrhosis and end-stage liver disease. This disease is a consequence of strong interactions between matrix-producing hepatic stellate cells (HSCs) and resident and infiltrating immune cell populations. Accumulated experimental evidence supports the involvement of adult-derived human liver mesenchymal stem/progenitor cells (ADHLSCs) in liver regeneration. The aim of the present study was to evaluate the influence of ADHLSCs on HSCs, both in vitro and in vivo. Activated human HSCs were co-cultured with ADHLSCs or ADHLSC-conditioned culture medium. The characteristics of the activated human HSCs were assessed by microscopy and biochemical assays, whereas proliferation was analyzed using flow cytometry and immunocytochemistry. The secretion profile of activated HSCs was evaluated by ELISA and Luminex. ADHLSCs were transplanted into a juvenile rat model of fibrosis established after co-administration of phenobarbital and CCl&lt;sub&gt;4&lt;/sub&gt;. When co-cultured with ADHLSCs or conditioned medium, the proliferation of HSCs was inhibited, beginning at 24 h and for up to 7 days. The HSCs were blocked in G0/G1 phase, and showed decreased Ki-67 positivity. Pro-collagen I production was reduced, while secretion of HGF, IL-6, MMP1, and MMP2 was enhanced. Neutralization of HGF partially blocked the inhibitory effect of ADHLSCs on the proliferation and secretion profile of HSCs. Repeated intrahepatic transplantation of cryopreserved/thawed ADHLSCs without immunosuppression inhibited the expression of markers of liver fibrosis in 6 out of 11 rats, as compared to their expression in the vehicle-transplanted group. These data provide evidence for a direct inhibitory effect of ADHLSCs on activated HSCs, which supports their development for the treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>30048056</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cord blood-derived mesenchymal stem cells with hepatogenic differentiation potential ameliorate chronic liver affection in experimental models.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>The liver is one of the major target organs for which cell-based therapies are very promising. The limitations of various cellular therapies, including bone marrow (BM)-derived mesenchymal stem cells (MSCs), urges the exploration of stem cell sources more suitable for transplantation. Human umbilical cord blood (HUCB) can overcome these drawbacks with a favorable reparative outcome. The aim of this study was to evaluate the therapeutic potential of MSCs in 2 groups of chronic liver injury experimental models. Propagation and characterization of MSCs isolated from cord blood (CB) samples were performed and differentiation into osteogenic, adipogenic and hepatogenic lineages was induced. The 1st experimental model group (80 mice) included a negative control, a pathological control and 60 mice infected with Schistosoma mansoni (S. mansoni) and transplanted with MSCs. The 2nd experimental model group (30 hamsters) included 10 healthy hamsters serving as a negative control and 20 hamsters injected with repeated doses of carbon tetrachloride (CCl4) to induce liver fibrosis; 10 of them were treated with an intrahepatic (IH) injection of 3 × 106 MSCs and the other 10 were untreated pathological controls. Mice and hamsters were sacrificed 12 weeks post-transplantation and their liver sections were stained immunohistochemically for the detection of human hepatocyte-like cells. Moreover, the sections were examined for the levels of fibrosis. In both models, the transplantation of CB-derived MSCs (CB-MSCs) resulted in the engraftment of the fibrotic livers with newly formed hepatocytes, as evidenced by positive immunohistochemistry staining with human Hepatocyte Paraffin 1 (Hep Par 1), alpha-fenoprotein (AFP), cytokeratin 18 (CK18), cytokeratin 7 (CK7), and OV6 monoclonal antibody. The transplanted liver sections showed markedly reduced hepatic fibrosis with a significantly lower fibrotic index, as well as significantly improved liver functions compared to the pathological control (p &lt; 0.001). This data provides hope that human CB-MSCs can be utilized as multipotent stem cells with unlimited potentiality in regenerative medicine and supports the concept of cellular therapy for the cure of hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>33389680</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Human Amnion-Derived Mesenchymal Stromal Cells in Cirrhotic Patients with Refractory Ascites: A Possible Anti-Inflammatory Therapy for Preventing Spontaneous Bacterial Peritonitis.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cirrhosis is associated with dysregulated immune cell activation and immune dysfunction. These conditions modify gut flora, facilitate bacterial translocation, and increase susceptibility to bacterial peritonitis and consequent systemic infections by dramatically affecting long-term patient survival. Human amnion-derived mesenchymal stromal cells (hA-MSCs) exert immunomodulatory potential benefit, and have the ability to modulate their actions, especially in situations requiring immune activation through mechanisms not fully understood. In this study, we aimed to investigate, in vitro, the immunostimulant or immunosuppressive effects of hA-MSCs on cellular components of ascitic fluid obtained from cirrhotic patients with refractory ascites. We found that hA-MSCs viability is not affected by ascitic fluid and, interestingly, hA-MSCs diminished the pro-inflammatory cytokine production, and promoted anti-inflammatory M2 macrophage polarization. Moreover, we found that there was no simultaneous significant decrease in the M1-like component, allowing a continual phagocytosis activity of macrophages and NK cells to restore a physiological condition. These data highlight the plasticity of hA-MSCs' immunomodulatory capacity, and pave the way to further understanding their role in conditions such as spontaneous bacterial peritonitis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>22533821</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitric oxide augments mesenchymal stem cell ability to repair liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a major health problem worldwide and poses a serious obstacle for cell based therapies. Mesenchymal stem cells (MSCs) are multipotent and important candidate cells for future clinical applications however success of MSC therapy depends upon their homing and survival in recipient organs. This study was designed to improve the repair potential of MSCs by transplanting them in sodium nitroprusside (SNP) pretreated mice with CCl(4) induced liver fibrosis. SNP 100 mM, a nitric oxide (NO) donor, was administered twice a week for 4 weeks to CCl(4)-injured mice. MSCs were isolated from C57BL/6 wild type mice and transplanted in the left lateral lobe of the liver in experimental animals. After 4 weeks, animals were sacrificed and liver improvement was analyzed. Analysis of fibrosis by qRT-PCR and sirius red staining, homing, bilirubin and alkaline phosphatase (ALP) serum levels between different treatment groups were compared to control. Liver histology demonstrated enhanced MSCs homing in SNP-MSCs group compared to MSCs group. The gene expression of fibrotic markers; αSMA, collagen 1α1, TIMP, NFκB and iNOS was down regulated while cytokeratin 18, albumin and eNOS was up-regulated in SNP-MSCs group. Combine treatment sequentially reduced fibrosis in SNP-MSCs treated liver compared to the other treatment groups. These results were also comparable with reduced serum levels of bilirubin and ALP observed in SNP-MSCs treated group. This study demonstrated that NO effectively augments MSC ability to repair liver fibrosis induced by CCl(4) in mice and therefore is a better treatment regimen to reduce liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>34809720</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Biliary atresia-specific deciduous pulp stem cells feature biliary deficiency.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Biliary atresia (BA) is a severe hepatobiliary disease in infants that ultimately results in hepatic failure; however, its pathological mechanism is poorly elucidated. Current surgical options, including Kasai hepatoportoenterostomy and orthotopic liver organ transplantations, are palliative; thus, innovation in BA therapy is urgent. To examine whether BA-specific post-natal stem cells are feasible for autologous cell source for BA treatment, we isolated from human exfoliated deciduous teeth, namely BA-SHED, using a standard colony-forming unit fibroblast (CFU-F) method and compared characteristics as mesenchymal stem cells (MSCs) to healthy donor-derived control SHED, Cont-SHED. BA-SHED and Cont-SHED were intrasplenically transplanted into chronic carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver fibrosis model mice, followed by the analysis of bile drainage function and donor integration in vivo. Immunohistochemical assay was examined for the regeneration of intrahepatic bile ducts in the recipient's liver using anti-human specific keratin 19 (KRT19) antibody. BA-SHED formed CFU-F, expressed MSC surface markers, and exhibited in vitro mesenchymal multipotency similar to Cont-SHED. BA-SHED showed less in vitro hepatogenic potency than Cont-SHED. Cont-SHED represented in vivo bile drainage function and KRT19-positive biliary regeneration in chronic carbon tetrachloride-induced liver fibrosis model mice. BA-SHED failed to show in vivo biliary potency and bile drainage function compared to Cont-SHED. These findings indicate that BA-SHED are not feasible source for BA treatment, because BA-SHED may epigenetically modify the underlying prenatal and perinatal BA environments. In conclusion, these findings suggest that BA-SHED-based studies may provide a platform for understanding the underlying molecular mechanisms of BA development and innovative novel modalities in BA research and treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>30675167</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Extracellular Vesicles from Amnion-Derived Mesenchymal Stem Cells Ameliorate Hepatic Inflammation and Fibrosis in Rats.</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>There are no approved drug treatments for liver fibrosis and nonalcoholic steatohepatitis (NASH), an advanced stage of fibrosis which has rapidly become a major cause of cirrhosis. Therefore, development of anti-inflammatory and antifibrotic therapies is desired. Mesenchymal stem cell- (MSC-) based therapy, which has been extensively investigated in regenerative medicine for various organs, can reportedly achieve therapeutic effect in NASH via paracrine action. Extracellular vesicles (EVs) encompass a variety of vesicles released by cells that fulfill functions similar to those of MSCs. We herein investigated the therapeutic effects of EVs from amnion-derived MSCs (AMSCs) in rats with NASH and liver fibrosis. NASH was induced by a 4-week high-fat diet (HFD), and liver fibrosis was induced by intraperitoneal injection of 2 mL/kg 50% carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) twice a week for six weeks. AMSC-EVs were intravenously injected at weeks 3 and 4 in rats with NASH (15 &lt;i&gt;μ&lt;/i&gt;g/kg) and at week 3 in rats with liver fibrosis (20 &lt;i&gt;μ&lt;/i&gt;g/kg). The extent of inflammation and fibrosis was evaluated with quantitative reverse transcription polymerase chain reaction and immunohistochemistry. The effect of AMSC-EVs on inflammatory and fibrogenic response was investigated &lt;i&gt;in vitro&lt;/i&gt;. AMSC-EVs significantly decreased the number of Kupffer cells (KCs) in the liver of rats with NASH and the mRNA expression levels of inflammatory cytokines such as tumor necrosis factor- (&lt;i&gt;Tnf-&lt;/i&gt;) &lt;i&gt;α&lt;/i&gt;, interleukin- (&lt;i&gt;Il-&lt;/i&gt;) &lt;i&gt;1β&lt;/i&gt; and &lt;i&gt;Il-6&lt;/i&gt;, and transforming growth factor- (&lt;i&gt;Tgf-&lt;/i&gt;) &lt;i&gt;β&lt;/i&gt;. Furthermore, AMSC-EVs significantly decreased fiber accumulation, KC number, and hepatic stellate cell (HSC) activation in rats with liver fibrosis. &lt;i&gt;In vitro&lt;/i&gt;, AMSC-EVs significantly inhibited KC and HSC activation and suppressed the lipopolysaccharide (LPS)/toll-like receptor 4 (TLR4) signaling pathway. AMSC-EVs ameliorated inflammation and fibrogenesis in a rat model of NASH and liver fibrosis, potentially by attenuating HSC and KC activation. AMSC-EV administration should be considered as a new therapeutic strategy for chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>23686136</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Evidence for a common progenitor of epithelial and mesenchymal components of the liver.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Tissues of the adult organism maintain the homeostasis and respond to injury by means of progenitor/stem cell compartments capable to give rise to appropriate progeny. In organs composed by histotypes of different embryological origins (e.g. the liver), the tissue turnover may in theory involve different stem/precursor cells able to respond coordinately to physiological or pathological stimuli. In the liver, a progenitor cell compartment, giving rise to hepatocytes and cholangiocytes, can be activated by chronic injury inhibiting hepatocyte proliferation. The precursor compartment guaranteeing turnover of hepatic stellate cells (HSCs) (perisinusoidal cells implicated with the origin of the liver fibrosis) in adult organ is yet unveiled. We show here that epithelial and mesenchymal liver cells (hepatocytes and HSCs) may arise from a common progenitor. Sca+ murine progenitor cells were found to coexpress markers of epithelial and mesenchymal lineages and to give rise, within few generations, to cells that segregate the lineage-specific markers into two distinct subpopulations. Notably, these progenitor cells, clonally derived, when transplanted in healthy livers, were found to generate epithelial and mesenchymal liver-specific derivatives (i.e. hepatocytes and HSCs) properly integrated in the liver architecture. These evidences suggest the existence of a 'bona fide' organ-specific meso-endodermal precursor cell, thus profoundly modifying current models of adult progenitor commitment believed, so far, to be lineage-restricted. Heterotopic transplantations, which confirm the dual differentiation potentiality of those cells, indicates as tissue local cues are necessary to drive a full hepatic differentiation. These data provide first evidences for an adult stem/precursor cell capable to differentiate in both parenchymal and non-parenchymal organ-specific components and candidate the liver as the instructive site for the reservoir compartment of HSC precursors as yet non-localized in the adult.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>26464632</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Transplantation of mesenchymal stem cells expressing TIMP-1-shRNA improves hepatic fibrosis in CCl₄-treated rats.</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>This study was to investigate the therapeutic effect of intravenous transplantation of TIMP-1-silencing mesenchymal stem cells (MSCs) in a rat model of liver fibrosis. MSCs were transduced with a lentiviral vector expressing tissue inhibitor of metalloproteinase 1 (TIMP-1)-shRNA, and the liver cirrhosis model was established by injection of CCl4 (1 ml/kg body weight twice a week for 4 weeks) in Sprague Dawley rats. The survived 36 rats were randomly divided into 3 groups: control group, MSCs group, and TIMP-1-shRNA group. At 4 weeks after establishment of animal model, 3×10(6) MSCs were intravenously injected. In TIMP-1-shRNA group, MSCs expressing TIMP-1-shRNA were transplanted. Animals were sacrificed 4 weeks later. Blood was collected for the detection of alanine aminotransferase (ALT) and aspartate aminotransferase (AST). The livers were harvested for histological examination. At 5 days after transfection, strong fluorescence was detectable in each group. TIMP-1-shRNA group had the lowest TIMP-1 expression. Following MSCs transplantation, serum ALT and AST reduced in rats with hepatic cirrhosis, and histology showed less fibrotic areas and collagens, as compared to control group. These improvements were more obvious in the TIMP-1-shRNA group. Our study indicates that transplantation of MSCs expressing TIMP-1-shRNA is able to inhibit the progression of liver fibrosis and possibly restore the liver function in a rat model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>22753359</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Effects of two mesenchymal cell populations on hepatocytes and lymphocytes.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>The inflammatory response to liver injury plays an important role in the onset of liver fibrosis, which may ultimately lead to liver failure. The attenuation of inflammation and hepatocyte rescue are, therefore, of the utmost importance for recovery. Mesenchymal stromal cells (MSCs) from adult bone marrow have been shown to rescue hepatocyte function. Here we explore a more plentiful source of neonatal MSCs: human umbilical cord perivascular cells (HUCPVCs). We cocultured HUCPVCs or bone marrow-derived mesenchymal stromal cells (BM-MSCs) with rat hepatocytes or human peripheral blood mononuclear cells in order to identify their effects on hepatocyte functionality and the proliferation of phytohemagglutinin-stimulated peripheral blood mononuclear cells (phaPBMCs). The expression of hepatotrophic factors by both types of MSCs in the presence of hepatocytes and the functional implications of blocking putative MSC anti-inflammatory factors were compared. Both types of MSCs improved albumin secretion, ureagenesis, hepatospecific gene expression, cytochrome P450 (CYP) activity, and functional hepatocyte mass maintenance. However, although HUCPVCs had an improved effect on the maintenance of ureagenesis, BM-MSCs had a strong effect on hepatocyte CYP activity. Additionally, each MSC type differentially expressed putative hepatotrophic factors, whereas phaPBMC proliferation was significantly decreased. Indoleamine 2,3-dioxygenase (IDO) was the main immunosuppressive mechanism used by both types of MSCs, but HUCPVCs exhibited higher expression of programmed death 1 ligands. However, the functional significance of the difference in anti-inflammatory factor expression still remains to be elucidated. Thus, both MSC types can serve as hepatocyte stromal cells and mitigate inflammation with IDO, but they present differences in the manner in which they affect hepatocytes and in the expression of both hepatotrophic and anti-inflammatory factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>31245923</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Local but not systemic administration of mesenchymal stromal cells ameliorates fibrogenesis in regenerating livers.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Chronic liver injury leads to the accumulation of myofibroblasts resulting in increased collagen deposition and hepatic fibrogenesis. Treatments specifically targeting fibrogenesis are not yet available. Mesenchymal stromal cells (MSCs) are fibroblast-like stromal (stem) cells, which stimulate tissue regeneration and modulate immune responses. In the present study we assessed whether liver fibrosis and cirrhosis can be reversed by treatment with MSCs or fibroblasts concomitant to partial hepatectomy (pHx)-induced liver regeneration. After carbon tetrachloride-induced fibrosis and cirrhosis, mice underwent a pHx and received either systemically or locally MSCs in one of the two remaining fibrotic/cirrhotic liver lobes. Eight days after treatment, liver fibrogenesis was evaluated by Sirius-red staining for collagen deposition. A significant reduction of collagen content in the locally treated lobes of the regenerated fibrotic and cirrhotic livers was observed in mice that received high dose MSCs. In the non-MSC-treated counterpart liver lobes no changes in collagen deposition were observed. Local fibroblast administration or intravenous administration of MSCs did not ameliorate fibrosis. To conclude, local administration of MSCs after pHx, in contrast to fibroblasts, results in a dose-dependent on-site reduction of collagen deposition in mouse models for liver fibrosis and cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>37226801</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Exosomal miR-192-5p secreted by bone marrow mesenchymal stem cells inhibits hepatic stellate cell activation and targets PPP2R3A.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cell (BSMC)-derived extracellular vehicles (EVs) have a pivotal therapeutic potential in hepatic fibrosis (HF). Activation of hepatic stellate cells (HSCs) is the key mechanism in HF progression. Downregulation of miR-192-5p was previously observed in activated HSCs. Nonetheless, the functions of BSMC-derived exosomal miR-192-5p in activated HSCs remain unclear. In this study, transforming growth factor (TGF)-β1 was used to activate HSC-T6 cells to mimic HF in vitro. Characterization of BMSCs and BMSC-derived EVs was performed. Cell-counting kit-8 assay, flow cytometry, and western blotting revealed that TGF-β1 increased cell viability, promoted cell cycle progression, and induced upregulation of fibrosis markers in HSC-T6 cells. Overexpression of miR-192-5p or BMSC-derived exosomal miR-192-5p suppressed TGF-β1-triggered HSC-T6 cell activation. RT-qPCR revealed that protein phosphatase 2 regulatory subunit B'' alpha (PPP2R3A) was downregulated in miR-192-5p-overexpressed HSC-T6 cells. Luciferase reporter assay was used for verifying the relation between miR-192-5p and PPP2R3A, which showed that miR-192-5p targeted PPP2R3A in activated HSC-T6 cells. Collectively, BMSC-derived exosomal miR-192-5p targets PPP2R3A and inhibits activation of HSC-T6 cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>36359733</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Adipose-Derived Stem Cells (ADSCs) Supplemented with Hepatocyte Growth Factor (HGF) Attenuate Hepatic Stellate Cell Activation and Liver Fibrosis by Inhibiting the TGF-β/Smad Signaling Pathway in Chemical-Induced Liver Fibrosis Associated with Diabetes.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Liver fibrosis can develop on the background of hyperglycemia in diabetes mellitus. However, xenobiotic-related factors may accelerate diabetes-associated liver fibrosis. In this study, we aimed to assess the antfibrotic effect of ADSC and HGF therapy and to establish the cellular and molecular mechanisms through in vitro and in vivo experiments. In vitro, TGF-β1-activated hepatic stellate cells (HSCs) were cocultured with ADSCs or HGF, and the expression of several fibrosis markers was investigated. The antifibrotic effect of the ADSCs, HGF, and ADSCs supplemented with HGF was further assessed in vivo on diabetic mice with liver fibrosis experimentally induced. In vitro results showed the inhibition of HSC proliferation and decrease in fibrogenesis markers. Coadministration of ADSCs and HGF on diabetic mice with liver fibrosis enhanced antifibrotic effects confirmed by the downregulation of Col I, α-SMA, TGF-β1, and Smad2, while Smad7 was upregulated. Moreover, stem cell therapy supplemented with HGF considerably attenuated inflammation and microvesicular steatosis, decreased collagen deposits, and alleviated liver fibrosis. In conclusion, the HGF-based ADSC therapy might be of interest for the treatment of liver fibrosis in diabetic patients, consecutive aggression exerts by different environmental factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>36735212</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>The Effect of Boric Acid and Sodium Pentaborate Pentahydrate-Treated Foreskin Derived Mesenchymal Stem Cells on Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a worldwide public health problem due to its life-threatening complications, including portal hypertension, liver failure, cirrhosis, and hepatocellular carcinoma (HCC). Liver fibrosis is the net result of a complex excessive accumulation of extracellular matrix (ECM). Activation of hepatic stellate cells (HSCs) are the cause of deposition of ECM and are commonly recognized as a key step in liver fibrosis. The aim of this study was to investigate the effect of foreskin-derived mesenchymal stem cells treated with boron compounds on liver fibrosis. Rats were injected intraperitoneally with thioacetamide (TAA) at a dose of 150 mg/kg except sham and control groups' rats. Thioacetamide (TAA), foreskin-derived mesenchymal stem cells (TAA + FSDMSC), FSDMSC treated with boric acid (TAA + FSDMSC + BA), FSDMSC treated with sodium pentaborate pentahydrate (TAA + FSDMSC + NaB), control and sham groups were studied. Boron compound treated foreskin-derived mesenchymal stem cells were injected into the tail vein, and evaluations were conducted after 4 weeks and liver tissues were obtained for structural, immunohistochemical, and western blot studies and blood samples were taken for biochemical analysis. FSDMSC (BA) alleviates TAA-induced rats liver fibrosis, and BA showed a positive effect on foreskin-derived mesenchymal stem cells viability. After using BA-treated mesenchymal stem cells, we observed that there was regression in the fibrotic areas at TAA-induced liver fibrosis. The result demonstrates that the contribution of TAA + FSDMSC and TAA + FSDMSC (NaB) at the level of structure is not effective in regression of fibrosis in TAA-generated liver fibrosis. We concluded that FSDMSC treated with BA may be a factor in the regression of fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>36411771</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Model of Liver Fibrosis Induction by Thioacetamide in Rats for Regenerative Therapy Studies.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is caused by chronic injury due to toxic, infectious, or metabolic causes, and it may progress to cirrhosis and hepatocellular carcinoma. There is currently no antifibrotic therapy authorized for human use; however, there are promising studies using cell therapies. There are also no animal models that exactly reproduce human liver fibrosis that can be used to better understand the mechanisms of its regression and identify new targets for treatment and therapeutic approaches. On the other hand, mesenchymal stem cells (MSC) have experimentally demonstrated fibrosis regression effects, but it is necessary to have an animal model of advanced liver fibrosis to evaluate the effect of these cells. The aim of this work was to establish a protocol for the induction of advanced liver fibrosis in rats using thioacetamide (TAA), which will allow us to perform trials using MSC as a possible therapy for fibrosis regression. For this purpose, we selected 24 female rats and grouped them into three experimental groups: the control group (G-I) without treatment and groups II (G-II) and III (G-III) that received TAA by intraperitoneal injection for 24 weeks. Then, 1 × 106/kg adipose mesenchymal stem cells (ASCs) were infused intravenously. Groups G-I and G-II were sacrificed 7 days after the last dose of ASC, and G-III was sacrificed 8 weeks after the last ASC infusion, all with xylazine/ketamine (40 mg/kg). The protocol used in this work established a model of advanced hepatic fibrosis as corroborated by METAVIR tests of the histological lesions; by the high levels of the markers &lt;i&gt;α&lt;/i&gt;-SMA, CD68, and collagen type I; by functional alterations due to elevated markers of the hepatic lesions; and by alterations of the leukocytes, lymphocytes, and platelets. Finally, transplanted cells in the fibrous liver were detected. We conclude that TAA applied using the protocol introduced in this study induces a good model of advanced liver fibrosis in rats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>36183364</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>The effect of mesenchymal stem cells and imatinib on macrophage polarization in rat model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a disorder in which inflammatory reactions play an important role, and central to the progression and pathogenesis of this disease are the immune-specific cells known as macrophages. Macrophage types are distinguished from each other by the expression of a series of surface markers. STAT6 and Arg1 play an important role in the polarization of macrophages, so these two factors are downstream of interleukin 4 (IL-4) and IL-13 cytokines and cause to differentiate M2. Therefore, this study aimed to compare the independent effects of imatinib and mesenchymal cell treatment on the polarization of macrophages in rat models of liver fibrosis. The liver fibrosis was induced by the injection of CCL4 for 6 weeks in Sprague-Dawley rats. Then, rats were divided into four different groups, and the effects of imatinib and mesenchymal cells on the expression of Arg1, Ly6c, and STAT6 were evaluated. Histopathology experiments considered the amelioration effect of treatments. Our results showed that Arg1 expression was significantly increased in the groups treated with mesenchymal cells and imatinib compared to the control group. On the other hand, expression of STAT6 was significantly increased in the imatinib-treated mice compared to mesenchymal and control groups. Moreover, the expression of LY6C significantly decreased in imatinib and mesenchymal treated groups compared to the control group. Therefore, our data showed that mesenchymal stem cells and imatinib significantly modulate the fibrotic process in rat models of fibrosis, probably by polarizing macrophages towards an anti-inflammatory profile and increasing the frequency of these cells in liver tissue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>27908750</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cell-based therapies reduce obesity and metabolic syndromes induced by a high-fat diet.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Obesity is an alarming global health problem that results in multiaspect metabolic syndromes in both genders and most age groups. The lack of effective therapies for obesity and its associated metabolic syndrome is an urgent societal issue. To elucidate whether mesenchymal stromal cell (MSC)-based therapies can ameliorate high-fat diet-induced obesity and compare the effectiveness of several methodological approaches, we transplanted human MSCs, MSC-derived brown adipocytes (M-BA), and MSC lysateinto obese mice. All 3 MSC-based treatments improved obesity-associated metabolic syndromes including nonalcoholic fatty liver disease, nonalcoholic steatohepatitis, glucose intolerance, and inflammation in obese mice after repeated administration for 10 weeks. MSC-based treatments altered the ratio of adiponectin to leptin and regulated the expression of Pparα and Pparγ, which are involved in maintaining energy homeostasis, in major metabolic tissues. Among treatments, M-BA showed the strongest beneficial effect. Importantly, M-BA administration not only reduced obesity-associated metabolic syndromes but also reduced body weight and hyperlipidemia, indicating that it is an effective therapy for obesity. Together, our findings revealed the therapeutic potential of MSCs for the treatment of metabolic syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>33555212</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Three-dimensional Differentiated Human Mesenchymal Stem Cells Exhibit Robust Antifibrotic Potential and Ameliorates Mouse Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Recently, three-dimensional (3D)-cultured adipose mesenchymal stem cells (ASCs) have provided an effective therapy for liver fibrosis. This study aimed to enhance the potential of human ASCs for antifibrosis or hepatocyte regeneration using a 3D culture system and investigate their therapeutic mechanism in experimental liver fibrosis. ASC-3Dc were generated in a 3D culture system and stimulated with four growth factors, namely epidermal growth factor, insulin-like growth factor (IGF)-1, fibroblast growth factor-2, and vascular endothelial growth factor-A. The expression levels of antifibrotic or hepatic regeneration factors were then measured using quantitative real-time polymerase chain reaction and enzyme-linked immunosorbent assay. The therapeutic effects of ASC-3Dc were determined using a liver fibrosis model induced by thioacetamide. Histological analysis was performed to elucidate the therapeutic mechanism. ASC-3Dc exhibited high levels of hepatocyte growth factor (HGF), IGF-1, stromal cell-derived factor (SDF)-1 genes, and protein expression. In addition, injecting ASC-3Dc significantly prevented hepatic fibrosis and improved liver function in vivo. Moreover, high numbers of ki-67-expressing hepatocytes were detected in the ASC-3Dc-injected livers. Albumin-expressing ASC-3Dc engrafted in fibrotic livers augmented HGF expression. Thus, short-term 3D-cultured ASCs may be a novel alternative to the conventional treatment for liver damage in clinical settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>33348053</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>sEVs from tonsil-derived mesenchymal stromal cells alleviate activation of hepatic stellate cells and liver fibrosis through miR-486-5p.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells (MSCs) are considered as a promising therapeutic tool for liver fibrosis, a main feature of chronic liver disease. Because small extracellular vesicles (sEVs) harboring a variety of proteins and RNAs are known to have similar functions with their derived cells, MSC-derived sEVs carry out the regenerative capacities of MSCs. Human tonsil-derived MSCs (T-MSCs) are reported as a novel source of MSCs, but their effects on liver fibrosis remain unclear. In the present study, we investigated the effects of T-MSC-derived sEVs on liver fibrosis. The expression of profibrotic genes decreased in human primary hepatic stellate cells (pHSCs) co-cultured with T-MSCs. Treatment of T-MSC-sEVs inactivated human and mouse pHSCs. Administration of T-MSC-sEVs ameliorated hepatic injuries and fibrosis in chronically damaged liver induced by carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;). miR-486-5p highly enriched in T-MSC-sEVs targeting the hedgehog receptor, smoothened (Smo), was upregulated, whereas Smo and Gli2, the hedgehog target gene, were downregulated in pHSCs and liver tissues treated with T-MSC-sEVs or miR-486-5p mimic, indicating that sEV-miR-486 inactivates HSCs by suppressing hedgehog signaling. Our results showed that T-MSCs attenuate HSC activation and liver fibrosis by delivering sEVs, and miR-486 in the sEVs inactivates hedgehog signaling, suggesting that T-MSCs and their sEVs are novel anti-fibrotic therapeutics for treating chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>30850965</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells suppress hepatic fibrosis accompanied by expanded intrahepatic natural killer cells in rat fibrosis model.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Natural killer (NK) cells have antifibrotic effects. We have evaluated the influence of rat bone marrow-mesenchymal stem cell (BM-MSC) treatment on liver histology, biochemical liver function tests, systemic immunoregulatory state and NK cell distribution in liver and peripheral blood in rat model of common bile duct (CBD) ligation and compared the results with the control group. Rats were divided into three groups: (1) CBD ligated (CBDL) rats received phosphate-buffered saline (CBDL + PBS group) or (2) MSC (CBDL + MSC group) and sham-operated rats received MSC (healthy + MSC group). We found significantly decreased fibrosis scores with BM-MSC treatment in CBDL rats compared to the control (CBDL + PBS) group while no fibrosis developed in sham operated (healthy + MSC) group. BM-MSC treatment has decreased the inflammation as reflected by the significantly decreased T cell proliferation and inflammatory cytokine concentrations from splenocyte culture and liver tissue itself compared to CBDL + PBS. NK cells both in parenchyme and portal areas decreased significantly in liver and blood in CBDL + PBS compared to healthy + MSC while they were found to be increased in CBDL + MSC compared to CBDL + PBS rats. In conclusion, BM-MSCs may suppress hepatic fibrosis accompanied by expanded intrahepatic NK cells in CBDL rats. Thus, our animal study shows that MSC treatment holds great promise for treatment of patients with end-stage liver diseases through a possible mechanism by adopting the NK cell population and new studies investigating the role of NK cells and clinical fibrosis are warranted.Trial registration number: Marmara University Animal Care and Use Committee approval code: 73.2013.mar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>33060633</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Hepatic stem cell Numb gene is a potential target of Huang Qi Decoction against cholestatic liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Numb is a negative regulator of Notch signal pathway. Previous study has demonstrated that Notch signal pathway activation is required for hepatic progenitor cell (HPC) differentiating into cholangiocytes in cholestatic liver fibrosis (CLF), and Huang Qi Decoction (HQD) could prevent CLF through inhibition of the Notch signal pathway. However, the role of Numb in HQD against CLF is yet unclear. Thus, CLF rats transplanted into rat bone marrow-derived mesenchymal stem cells with knocked down Numb gene (BMSC&lt;sup&gt;Numb-KD&lt;/sup&gt;) were treated with HQD. Simultaneously, Numb gene knockdown was also performed in WB-F344 cell line and then treated with refined HQD in vitro. In vivo study revealed that liver fibrosis was inhibited by HQD plus BMSC&lt;sup&gt;Numb-KD&lt;/sup&gt; treatment, while Hyp content in liver tissue, the gene and protein expression of α-SMA, gene expression of Col I, TNF-α, and TGF-β1 were increased compared to that in HQD group. Furthermore, Notch signal pathway was inhibited by HQD plus BMSC&lt;sup&gt;Numb-KD&lt;/sup&gt;, while the protein expression of Numb was decreased and RBP-Jκ and Hes1 was increased compared to that in HQD group. In vitro, HQD reduced the differentiation of WB-F344 cells into cholangiocyte phenotype, while this effect was attenuated after Numb-knockdown. This study highlights that the absence of hepatic stem cell Numb gene decreases effect of HQD against CLF, which give rise the conclusion that Numb might be a potential target for HQD against CLF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>33785758</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Small extracellular vesicles derived from interferon-γ pre-conditioned mesenchymal stromal cells effectively treat liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells (MSCs) are used for ameliorating liver fibrosis and aiding liver regeneration after cirrhosis; Here, we analyzed the therapeutic potential of small extracellular vesicles (sEVs) derived from interferon-γ (IFN-γ) pre-conditioned MSCs (γ-sEVs). γ-sEVs effectively induced anti-inflammatory macrophages with high motility and phagocytic abilities in vitro, while not preventing hepatic stellate cell (HSC; the major source of collagen fiber) activation in vitro. The proteome analysis of MSC-derived sEVs revealed anti-inflammatory macrophage inducible proteins (e.g., annexin-A1, lactotransferrin, and aminopeptidase N) upon IFN-γ stimulation. Furthermore, by enabling CX&lt;sub&gt;3&lt;/sub&gt;CR1+ macrophage accumulation in the damaged area, γ-sEVs ameliorated inflammation and fibrosis in the cirrhosis mouse model more effectively than sEVs. Single cell RNA-Seq analysis revealed diverse effects, such as induction of anti-inflammatory macrophages and regulatory T cells, in the cirrhotic liver after γ-sEV administration. Overall, IFN-γ pre-conditioning altered sEVs resulted in efficient tissue repair indicating a new therapeutic strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>35435145</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Human umbilical cord blood mesenchymal stem cells as a potential therapy for schistosomal hepatic fibrosis: an experimental study.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>The objective of our study was to assess the effect of human umbilical cord blood (HUCB) mesenchymal stem cells (MSCs) transplantation on schistosomal hepatic fibrosis in mice. The study animals were divided into three groups. Group I is a control group, where the mice were infected with &lt;i&gt;Schistosoma mansoni&lt;/i&gt; cercariae and remained untreated. The mice of the other two groups were infected and treated with either praziquantel (Group II) or HUCB-MSCs (Group III). Liver function tests, as well as histopathological evaluation of liver fibrosis using hematoxylin and eosin and Masson's trichrome stains, were performed. Additionally, an immunohistochemical study was carried out using anti-glial fibrillary acidic protein (GFAP) in hepatic stellate cells. Compared to the control group, the treated (praziquantel and MSCs) groups showed a substantial improvement, with a significant difference regarding the histopathological evaluation of liver fibrosis in the MSCs-treated group. In conclusion, MSCs could be a promising and efficient cell therapy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>34775285</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Therapeutic effects of CXCL9-overexpressing human umbilical cord mesenchymal stem cells on liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Umbilical cord mesenchymal stem cells (UC-MSCs) transplantation has become a promising treatment for liver fibrosis. However, UC-MSCs have limited anti-fibrosis ability, and their homing ability of UC-MSCs to the injured liver seems to be poor. In our study, we aimed to determine if the CXCL9-overexpressing UC-MSCs could have synergistic anti-fibrosis effects and whether it can promote the homing ability of UC-MSCs. Overexpression of CXCL9 in UC-MSCs (CXCL9-UC-MSCs) was attained by transfecting the lenti-CXCL9-mCherry to naive UC-MSCs. The therapeutic effect of transducted CXCL9-UC-MSCs on both repairing of hepatic fibrosis and target homing were evaluated by comparing with the control of UC-MSCs transfected with empty lenti-mCherry vector. The results revealed that the liver function of CXCL9-UC-MSCs treated group was significantly improved when compared with that of control UC-MSCs (P &lt; 0.05), and the histopathology indicated an obvious decrease of the collagen fiber content and significant disappearing of pseudo-lobules with basically normal morphology of hepatic lobules. Furthermore, liver frozen sections confirmed that CXCL9-UC-MSCs have significantly stronger chemotaxis and stable persistence in the injured liver tissues. In summary, overexpression of CXCL9 could improve the efficacy of UC-MSCs therapy for liver fibrosis repairing on account of an enhanced ability of UC-MSCs in homing to and staying in the injured sites of liver fibrosis in rat models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>32374186</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Comparative study on effect of mesenchymal stem cells and endothelial progenitor cells on treatment of experimental CCL4-induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>We speculated impacts of BM-MSCs and UC-EPCs on reversal of hepatic injury induced by carbon tetrachloride (CCl4). Fifty adult rats were divided into five groups: control group, CCl4A group, CCl4B group, CCl4/BM-MSCs group and CCl4/UC-EPCs group. Blood samples were driven to measure concentration of albumin and ALT. Quantitative expression of HGF, TGF-β, MMP-2, and VEGF were assessed by PCR. Histological and immunohistochemistry examination of the liver tissue were performed. There was elevating albumin (&lt;i&gt;p&lt;/i&gt; &lt; .05) and reducing ALT (&lt;i&gt;p&lt;/i&gt; &lt; .05) concentrations in groups treated with BM-MSCs and UC-EPCs compared to untreated CCL4A&amp;B groups. UC-EPCs treated group have significantly higher MMP-2 and VEGF (&lt;i&gt;p&lt;/i&gt; &lt; .01) genes expression than BM-MSCs treated group. Furthermore, UC-EPCs were more valuable than BMMSCs in increasing gene expression of HGF (&lt;i&gt;p&lt;/i&gt; &lt; .05) and immunohistochemistry of α-SMA and Ki-67 (&lt;i&gt;p&lt;/i&gt; &lt; .01). BM-MSCs have significantly lower TGF-β (&lt;i&gt;p&lt;/i&gt; &lt; .00) compared to UC-EPCs. This study highlighted on liver regeneration role of both UC-EPCs and BM-MSCs in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>26310071</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Nanovector for Gene Transfection and MR Imaging of Mesenchymal Stem Cells.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>This study centers on the use of superparamagnetic iron oxide nanoparticles coated with polyethylene glycol-grafted polyethylenimine (PEG-g-PEI-SPION) as an MRI-visible and efficient nanovector for the gene modification and in vivo MRI tracking of rat bone marrow-derived mesenchymal stem cells (rBMSCs). PEG-g-PEI-SPION was first condensed with plasmid DNA to form nanoparticles, demonstrating low cytotoxicity and good biocompatibility for rBMSCs. Based on a reporter gene assay, PEG-g-PEI-SPION/pDNA had the highest transfection efficiency (62.6 ± 5.5%) in rBMSCs, which was significantly higher than that obtained using the cationic liposomes in lipofectamine 2000, a commercially available and worldwide used gene transfection agent, under the most optimal conditions (13.9 ± 2.6%; P &lt; 0.05). More excitingly, the transplantation of rBMSCs modified by our MRI-visible vector complexed with a plasmid encoding human hepatocyte growth factor into fibrotic rat livers effectively restored albumin production and significantly suppressed transaminase activities. In addition, the transplanted rBMSCs displayed a sensitive signal on T2/T2*-weighted images in vitro and in vivo, which enabled effective MRI tracking of the cells for up to 14 days post-transplantation. Although mesenchymal stem cells are well-known to be refractory in most of the current nonviral gene delivery techniques, our results demonstrate that the MRI-sensitive PEG-g-PEI-SPION is a highly efficient and readily observable nanovector for gene delivery into rBMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>26041737</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>First-in-Human Case Study: Multipotent Adult Progenitor Cells for Immunomodulation After Liver Transplantation.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells and multipotent adult progenitor cells (MAPCs) have been proposed as novel therapeutics for solid organ transplant recipients with the aim of reducing exposure to pharmacological immunosuppression and its side effects. In the present study, we describe the clinical course of the first patient of the phase I, dose-escalation safety and feasibility study, MiSOT-I (Mesenchymal Stem Cells in Solid Organ Transplantation Phase I). After receiving a living-related liver graft, the patient was given one intraportal injection and one intravenous infusion of third-party MAPC in a low-dose pharmacological immunosuppressive background. Cell administration was found to be technically feasible; importantly, we found no evidence of acute toxicity associated with MAPC infusions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>29266258</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles derived from human embryonic stem cell-MSCs ameliorate cirrhosis in thioacetamide-induced chronic liver injury.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Various somatic tissue-derived mesenchymal stromal cells (MSCs) have been considered as an attractive therapeutic tool for treatment of liver diseases in which the secretion of soluble factors or extracellular vesicles (EVs) is the most probable mechanism. The experimental application of human embryonic stem cell-derived MSC (ES-MSC) increased rapidly and showed promising results, in vitro and in vivo. However, possible therapeutic effects of human ES-MSC and their EVs on Thioacetamide (TAA)-induced chronic liver injury have not been evaluated yet. Our data indicated that human ES-MSC can significantly suppress the proliferation of peripheral blood mononuclear cells compared to bone marrow (BM)-MSC and adipose (AD)-MSC. Moreover, ES-MSC increased the secretion of anti-inflammatory cytokines (i.e., TGF-β and IL-10) and decreased IFN-γ, compared to other MSCs. ES-MSC EVs demonstrated immunomodulatory activities comparable to parental cells and ameliorated cirrhosis in TAA-induced chronic rat liver injury, that is, reduction in fibrosis and collagen density, necrosis, caspase density, portal vein diameter, and transaminitis. The gene expression analyses also showed upregulation in collagenases (MMP9 and MMP13), anti-apoptotic gene (BCL-2) and anti-inflammatory cytokines (TGF-β1 and IL-10) and down-regulation of major contributors to fibrosis (Col1α, αSMA, and TIMP1), pro-apoptotic gene (BAX) and pro-inflammatory cytokines (TNFα and IL-2) following treatment with ES-MSC and ES-MSC-EV. These results demonstrated that human ES-MSC and ES-MSC EV as an off-the-shelf product, that needs further assessment to be suggested as an allogeneic product for therapeutic applications for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>22416179</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Intravenous injection of mesenchymal stem cells is effective in treating liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>To compare the influence of different transplant sites in bone marrow mesenchymal stem cell (MSC)-based therapy for liver fibrosis. MSCs isolated from Sprague Dawley (SD) rats were induced into hepatocyte-like cells. Liver fibrosis in SD rats was induced with carbon tetrachloride. Following hepatocyte induction in vitro, 4',6-diamidino-2-phenylindole (DAPI)-labeled MSCs were transplanted by intravenous, intrahepatic, and intraperitoneal injection. Histopathological staining, immunohistochemistry, and biochemical analysis were used to compare the morphological and functional liver regeneration among different MSC injection modalities. The expression differences of interleukins, growth factor, extracellular matrix, matrix metalloproteinases, and tissue inhibitor of metalloproteinase were examined by real-time reverse transcription-polymerase chain reaction (RT-PCR) and enzyme linked immunosorbent assay (ELISA). Four days after exposure to hepatocyte differentiation medium, MSCs that did not express hepatocyte markers could express α-fetoprotein, albumin, and cytokeratin 18. The results of histopathological staining, immunohistochemistry, and biochemical analysis indicated that intravenous injection is more effective at rescuing liver failure than other injection modalities. DAPI-labeled cells were found around liver lobules in all three injection site groups, but the intravenous group had the highest number of cells. PCR and ELISA analysis indicated that interleukin-10 (IL-10) was highest in the intravenous group, whereas il1β, il6, tnfα and tgfβ, which can be regulated by IL10 and are promoters of liver fibrosis, were significantly lower than in the other groups. MSC administration is able to protect against liver fibrosis. Intravenous injection is the most favorable treatment modality through promotion of IL10 expression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>29286155</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells reverse high‑fat diet‑induced non‑alcoholic fatty liver disease through suppression of CD4+ T lymphocytes in mice.</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Although the multipotency of mesenchymal stem cells (MSCs) makes them an attractive choice for clinical applications, immune modulation is an important factor affecting MSC transplantation. At present, the effect of treatment with MSCs on non‑alcoholic fatty liver disease (NAFLD) has received little attention. In the present study, a compact bone‑derived method was used to isolate mouse MSCs (mMSCs) and a high‑fat diet was used to establish a mouse model of NAFLD. Immunophenotypic features of mMSCs were analyzed using flow cytometry. Paraffin sections were stained with hematoxylin and eosin to assess inflammation and steatosis, and with picrosirius red to assess fibrosis. Spleen leukocytes were analyzed by flow cytometry. The results demonstrated that compact bone‑derived MSC transplantation decreased high‑fat diet‑induced weight gain, expansion of subcutaneous adipose tissue, steatosis, lobular inflammation and liver fibrogenesis. Flow cytometry analysis of spleen leukocytes demonstrated that compact bone‑derived MSC transplantation suppressed the proliferation of cluster of differentiation (CD) 4+ T lymphocytes in the spleen, which had been induced by the high‑fat diet. In conclusion, compact bone‑derived MSCs may exhibit clinical value in the treatment of NAFLD through their capacity to suppress the activation of CD4+ T cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>23002959</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Exosomes derived from human umbilical cord mesenchymal stem cells alleviate liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have been considered as an attractive tool for the therapy of diseases. Exosomes excreted from MSCs can reduce myocardial ischemia/reperfusion damage and protect against acute tubular injury. However, whether MSC-derived exosomes can relieve liver fibrosis and its mechanism remain unknown. Previous work showed that human umbilical cord-MSCs (hucMSCs) transplanted into acutely injured and fibrotic livers could restore liver function and improve liver fibrosis. In this study, it was found that transplantation of exosomes derived from hucMSC (hucMSC-Ex) reduced the surface fibrous capsules and got their textures soft, alleviated hepatic inflammation and collagen deposition in carbon tetrachloride (CCl4)-induced fibrotic liver. hucMSC-Ex also significantly recovered serum aspartate aminotransferase (AST) activity, decreased collagen type I and III, transforming growth factor (TGF)-β1 and phosphorylation Smad2 expression in vivo. In further experiments, we found that epithelial-to-mesenchymal transition (EMT)-associated markers E-cadherin-positive cells increased and N-cadherin- and vimentin-positive cells decreased after hucMSC-Ex transplantation. Furthermore, the human liver cell line HL7702 underwent typical EMT after induction with recombinant human TGF-β1, and then hucMSC-Ex treatment reversed spindle-shaped and EMT-associated markers expression in vitro. Taken together, these results suggest that hucMSC-Ex could ameliorate CCl4-induced liver fibrosis by inhibiting EMT and protecting hepatocytes. This provides a novel approach for the treatment of fibrotic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>36674693</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Neuron-Glial Antigen 2 Participates in Liver Fibrosis via Regulating the Differentiation of Bone Marrow Mesenchymal Stem Cell to Myofibroblast.</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Neuron-glial antigen 2 (NG2, gene name: &lt;i&gt;Cspg4&lt;/i&gt;) has been characterized as an important factor in many diseases. However, the pathophysiological relevance of NG2 in liver disease specifically regarding bone marrow mesenchymal stem cell (BMSC) differentiation to myofibroblast (MF) and the molecular details remain unknown. Human liver tissues were obtained from patients with different chronic liver diseases, and mouse liver injury models were induced by feeding a methionine-choline-deficient and high-fat diet, carbon tetrachloride administration, or bile duct ligation operation. NG2 expression was increased in human and mouse fibrotic liver and positively correlated with MF markers α-smooth muscle actin (αSMA) and other fibrotic markers in the liver. There was a co-localization between NG2 and αSMA, NG2 and EGFP (BMSC-derived MF) in the fibrotic liver determined by immunofluorescence analysis. In vitro, TGFβ1-treated BMSC showed a progressive increase in NG2 levels, which were mainly expressed on the membrane surface. Interestingly, there was a translocation of NG2 from the cell membrane into cytoplasm after the transfection of &lt;i&gt;Cspg4&lt;/i&gt; siRNA in TGFβ1-treated BMSC. siRNA-mediated inhibition of &lt;i&gt;Cspg4&lt;/i&gt; abrogated the TGFβ1-induced BMSC differentiation to MF. Importantly, inhibition of NG2 in vivo significantly attenuated the extent of liver fibrosis in methionine-choline-deficient and high fat (MCDHF) mice, as demonstrated by the decreased mRNA expression of fibrotic parameters, collagen deposition, serum transaminase levels, liver steatosis and inflammation after the administration of &lt;i&gt;Cspg4&lt;/i&gt; siRNA in MCDHF mice. We identify the positive regulation of NG2 in BMSC differentiation to MF during liver fibrosis, which may provide a promising target for the treatment of liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>23763455</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Randomized placebo-controlled trial of mesenchymal stem cell transplantation in decompensated cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>There has been great interest in recent years to take advantage of bone marrow stem cells to treat cirrhosis. Our uncontrolled trial showed promising results for bone marrow mesenchymal stem cell (MSC) transplantation in cirrhosis. Therefore, we conducted a randomized, placebo-controlled trial to evaluate the efficacy of autologous MSC transplantation in cirrhosis. The enrolled patients with decompensated cirrhosis were randomly assigned to receive MSC or placebo infusions. A median of 195 million (range: 120-295 million) cultured MSCs were infused through a peripheral vein. The primary outcome was absolute changes in MELD score. Secondary outcomes were absolute changes in Child score, liver function tests and liver volumes between the MSC and placebo group 12 months after infusion. A total of 27 patients were enrolled. Of these, 15 patients received MSC and 12 patients received placebo. One patient in the MSC group and one patient in the placebo group were lost to follow-up. Three patients in the MSC group died of liver failure 3 months (one patient), or 5 months (two patients) after cellular infusion. The baseline MELD scores of the deceased patients were significantly higher than those who remained alive in either group (20.0 vs. 15.1; P = 0.02). The absolute changes in Child scores, MELD scores, serum albumin, INR, serum transaminases and liver volumes did not differ significantly between the MSC and placebo groups at 12 months of follow-up. Based on this randomized controlled trial, autologous bone marrow MSC transplantation through peripheral vein probably has no beneficial effect in cirrhotic patients. Further studies with higher number of patients are warranted to better clarify the impact of MSC infusion through peripheral vein or portal vein in cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>31722556</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Transplantation with GXHPC1 for Liver Cirrhosis: Phase 1 Trial.</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Currently, the only effective therapy for cirrhosis of the liver is liver transplantation. However, finding a compatible liver is difficult due to the low supply of healthy livers and the ever-increasing demand. However, stem-cell therapy may offer a solution for liver cirrhosis; for example, GXHPC1 therapy preparation contains adipose-derived mesenchymal stem cells (AD-MSCs) and was developed for the treatment of liver cirrhosis. In our previous report, animal studies suggested that treatment of a diseased liver via GXHPC1 transplantation can abrogate liver fibrosis and facilitate recovery of liver function. In our current human trial, patients with liver cirrhosis were included. Their adipose tissue was harvested from the subcutaneous fat of the abdominal wall during surgery. AD-MSCs were cultured and suspended at a concentration of 100 million cells in 1 ml of physiological saline (i.e., GXHPC1). This human study passed the Taiwan Food and Drug Administration IND inspection and received Phase I clinical trial permission. The trial was conducted with six patients with liver cirrhosis to demonstrate the safety and efficacy of administering GXHPC1. Intrahepatic injection of GXHPC1 did not cause any safety issues in the analysis of adverse drug reactions and suspected unexpected serious adverse reactions, and showed a tendency for improvement of liver function, METAVIR score, Child-Pugh score, MELD score, and quality of life for patients with liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>33708992</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Human Umbilical Cord Mesenchymal Stem Cells Ameliorate Hepatic Stellate Cell Activation and Liver Fibrosis by Upregulating MicroRNA-455-3p through Suppression of p21-Activated Kinase-2.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) were shown to have potential therapeutic effects for treatment of liver fibrosis, and dysregulated expression of microRNAs (miRNAs) played a pivotal role in the pathogenesis of liver fibrosis by regulating their downstream target genes. However, the mechanism by which MSCs affect the progression of liver fibrosis by regulating miRNA expression remains unclear. Here, we investigated whether human umbilical cord MSCs (HUC-MSCs) attenuated hepatic fibrosis by regulating miR-455-3p and its target gene. Significantly upregulated miRNA (miR-455-3p) was screened out by GEO datasets analysis and coculture HUC-MSCs with hepatic stellate cell (HSC) LX-2 cells. p21-activated kinase-2 (PAK2) was forecasted to be the target gene of miR-455-3p by bioinformatics analyses and confirmed by luciferase reporter assay. HUC-MSCs were transplanted into mice with carbon tetrachloride- (CCl&lt;sub&gt;4&lt;/sub&gt;-) induced liver fibrosis, the result showed that HUC-MSC transplantation significantly ameliorated the severity of CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis, attenuated collagen deposition, improved liver function by reducing the expression of alanine aminotransferase (ALT) and aspartate aminotransferase (AST) in serum, upregulated miR-455-3p, and suppressed PAK2 expression of liver tissue in mice. Taken together, our study suggests that HUC-MSCs inhibit the activation of HSCs and mouse CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis by upregulation of miR-455-3p through targeting PAK2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>25425284</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Effect of bone marrow-derived mesenchymal stem cells on hepatic fibrosis in a thioacetamide-induced cirrhotic rat model.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a long-term consequence of chronic hepatic injury with fibrosis. No effective therapy is currently available for decompensated cirrhosis except liver transplantation. Hence, we investigated the effect of bone marrow-derived mesenchymal stem cells (BM-MSCs) on hepatic fibrosis in a thioacetamide (TAA)-induced cirrhotic rat model. The BM-MSCs were injected directly into the right liver lobe twice, at 6 and 8 weeks during the 12-week TAA administration, in thioacetamide (TAA)-induced cirrhotic rats model, and hepatic fibrosis was evaluated. At 12 weeks, the effect of BM-MSCs on hepatic fibrosis was analyzed histomorphologically using the Laennec fibrosis scoring system, and the collagen proportionate area was quantified. Cirrhosis-related factors, such as transforming growth factor β1 (TGF-β1), type 1 collagen (collagen-1), α-smooth muscle actin (α-SMA), and P-Smad3/Smad3 expression levels, were evaluated using real-time polymerase chain reaction and western blot assays. According to the Laennec fibrosis scoring system, histological improvement was observed in hepatic fibrosis after BM-MSC treatment (P &lt;0.01). The percentage of the collagen proportionate area decreased from 16.72 ± 5.51 to 5.06 ± 1.27 after BM-MSC treatment (P &lt;0.01). The content of hepatic hydroxyproline was significantly lower in the BM-MSC treated group (46.25 ± 13.19) compared to the untreated cirrhotic group (85.81 ± 17.62; P &lt;0.01). BM-MSC administration significantly decreased TGF-β1, collagen-1, and α-SMA expression in TAA-induced cirrhotic rats (P &lt;0.01). We also confirmed P-Smad3/Smad3, downstream effectors of the TGF-β1 signaling pathway, and found that MSC transplantation inhibited Smad3 phosphorylation. BM-MSC treatment attenuated hepatic fibrosis in rats with TAA-induced cirrhosis, raising the possibility of the clinical use of BM-MSCs in the treatment of cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>33342075</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles-derived miR-150-5p secreted by adipose-derived mesenchymal stem cells inhibits CXCL1 expression to attenuate hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis (HF) is involved in aggravated wound-healing response as chronic liver injury. Extracellular vesicles (EVs) carrying microRNA (miR) have been reported as therapeutic targets for liver diseases. In this study, we set out to explore whether adipose-derived mesenchymal stem cells (ADMSCs)-derived EVs containing miR-150-5p affect the progression of HF. Carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt; ) was firstly used to induce HF mouse models in C57BL/6J mice, and activation of hepatic stellate cells (HSCs) was achieved using transforming growth factor β (TGF-β). EVs were then isolated from ADMSCs and co-cultured with HSCs. The relationship between miR-150-5p and CXCL1 was identified using dual luciferase gene reporter assay. Following loss- and gain-function experimentation, HSC proliferation was examined by MTT assay, and levels of fibrosis-, HSC activation- and apoptosis-related genes were determined in vitro. Additionally, pathological scores, collagen volume fraction (CVF) as well as levels of inflammation- and hepatic injury-associated genes were determined in in vivo. Down-regulated miR-150-5p and elevated CXCL1 expression levels were detected in HF tissues. ADMSCs-derived EVs transferred miR-150-5p to HSCs. CXCL1 was further verified as the downstream target gene of miR-150-5p. Moreover, ADMSCs-EVs containing miR-150-5p markedly inhibited HSC proliferation and activation in vitro. Meanwhile, in vivo experiments also concurred with the aforementioned results as demonstrated by inhibited CVF, reduced inflammatory factor levels and hepatic injury-associated indicators. Both experiments results were could be reversed by CXCL1 over-expression. Collectively, our findings indicate that ADMSCs-derived EVs containing miR-150-5p attenuate HF by inhibiting the CXCL1 expression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>35075209</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Transplantation of 3D adipose-derived stem cell/hepatocyte spheroids alleviates chronic hepatic damage in a rat model of thioacetamide-induced liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Cirrhosis refers to irreversible liver damage where healthy tissue is replaced by scar tissue, resulting in impaired liver function. There is no cure and current treatments only prevent further liver damage; thus, novel therapeutic options are urgently needed. Here, we report a new approach that enables the formation of self-assembled 3D spheroids of adipose-derived stem cells (ADSCs) and murine hepatocytes (AML12) via reconstituted collagen fibers. Compared with the spheroids formed in the commercially available EZSHERE dish, the collagen fiber-based ADSC/hepatocyte spheroids offer a notable benefit in structure formation and paracrine factor secretion. To test the regenerative capability of the collagen fiber-based 3D ADSC/hepatocyte spheroids, a rat model of thioacetamide (TAA)-induced liver cirrhosis was employed. The transplantation of the collagen fiber-based 3D ADSC/hepatocyte spheroids show an improvement in liver function and ameliorates pathological liver cirrhosis in TAA-treated rats. In summary, our data show collagen fiber-based self-assembled 3D ADSC/hepatocyte spheroids to possess the excellent regenerative capacity in response to TAA-induced liver injury, promising an alternative therapeutic strategy for liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>38402155</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Ultrasonic microbubbles promote mesenchymal stem cell homing to the fibrotic liver via upregulation of CXCR4 expression.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>To investigate the mechanism of ultrasound microbubbles (UTMB) promoting stem cells homing to fibrotic liver. Bone marrow derived mesenchymal stem cells (BMSCs) were divided into 5 groups with or without ultrasound microbubbles and continuously irradiated with ultrasound conditions of frequency 1 MHZ and output power 0.6 W/cm&lt;sup&gt;2&lt;/sup&gt; for different times, and then injected into a mouse model of liver fibrosis through the tail vein with or without ultrasound microbubbles, with sound intensity. The effect of ultrasound microbubbles on MSC expression of CXC chemokine receptor 4 (CXCR4) and homing fibrotic liver was evaluated by flow cytometry (FCM), western blot (WB) and immunohistochemistry (IHC) analysis. The level of CXCR4 expression was significantly higher in the ultrasound microbubble group than in the non-intervention group (P &lt; 0.05), and the number of MSC and the rate of CXCR4 receptor positivity in the ultrasound microbubble-treated liver tissues were significantly higher than in the non-intervention group (P &lt; 0.01). Ultrasonic microbubbles can promote the expression of CXCR4 on the surface of MSCs, thus improving the homing rate of MSCs in fibrotic liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>32389821</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Therapeutic effect of bone marrow mesenchymal stem cells in a rat model of carbon tetrachloride induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a major medical problem with high mortality and morbidity rates where the formation of regenerative nodules and cirrhosis leads to loss of liver function and may result in the development of hepatocellular carcinoma. bone marrow mesenchymal stem cells (BM-MSCs) have drawn attention as a novel approach for treatment of liver fibrosis. This study aimed to evaluate the therapeutic effect of BM-MSCs on the liver structure in carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) induced liver fibrosis in male rats relative to resveratrol and Silybum marianum as standard drugs derived from herbal plants. Fifty adult male albino rats (Sprague Dawley strain; 180-220 g mean body weight) were purchased from the Laboratory Animal Unit in the Nile Center of Experimental Research, Mansoura, Egypt. Liver function were determined, isolation and preparation of BM- MSCs and detection of cell-surface markers by flow cytometry. Animals exposed to CCl&lt;sub&gt;4&lt;/sub&gt; developed liver injury characterized by significant increase of liver enzymes, malondialdehyde (MDA), tumor necrosis factor alpha (TNFα), and CYP450, inhibition of antioxidant enzymes, and decreased albumin. Treatment with stem cells enhanced liver state more effectively than resveratrol and S. marianum. It significantly decreased AST, ALT, ALP, MDA, TNF-α, and CYP450 and increased albumin, SOD, GSH, GST, and CAT. Histopathological study and atomic force microscope results confirmed the therapeutic effects of MSCs. BM-MSCs could restore liver structure and function in CCL&lt;sub&gt;4&lt;/sub&gt; induced liver fibrosis rat model, ameliorating the toxicity of CCl&lt;sub&gt;4&lt;/sub&gt; and improving liver function tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>33617844</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Vitamin E pretreated Wharton's jelly-derived mesenchymal stem cells attenuate CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatocyte injury in vitro and liver fibrosis in vivo.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Oxidative microenvironment in fibrotic liver alleviates the efficacious outcome of mesenchymal stem cells (MSCs)-based cell therapy. Recent evidence suggests that pharmacological pretreatment is a rational approach to harness the MSCs with higher therapeutic potential. Here, we investigated whether Vitamin E pretreatment can boost the antifibrotic effects of Wharton's jelly-derived MSCs (WJMSCs). We used rat liver-derived hepatocytes injured by CCl&lt;sub&gt;4&lt;/sub&gt; treatment in co-culture system with Vitamin E pretreated-WJMSCs (Vit E-WJMSCs) to evaluate the hepatoprotective effect of Vit E-WJMSCs. After 24 h of co-culturing, we found that Vit E-WJMSCs rescued injured hepatocytes as hepatocyte injury-associated medium (AST, ALT, and ALP) and mRNA (Cyp2e1, Hif1-α, and Il-1β) markers reduced to normal levels. Subsequently, CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis rat models were employed to examine the antifibrotic potential of Vit E-WJMSCs. After 1 month of cell transplantation, it was revealed that Vit E-WJMSCs transplantation ceased fibrotic progression, as evident by improved hepatic architecture and functions, more significantly in comparison to naïve WJMSCs. In addition, Vit E-WJMSCs transplantation decreased the expressions of fibrosis-associated gene (Tgf-β1, α-Sma, and Col1α1) markers in the liver parenchyma. Intriguingly, the results of tracing experiments discovered that more WJMSCs engrafted in the Vit E-WJMSCs treated rat livers compared to naïve WJMSCs treated livers. These findings implicate that pretreatment of WJMSCs with Vitamin E improves their tolerance to hostile niche of fibrotic liver; thereby further enhancing their efficacy for hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>34016164</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Human placental mesenchymal stem cells ameliorate liver fibrosis in mice by upregulation of Caveolin1 in hepatic stellate cells.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Liver fibrosis (LF) is a common pathological process characterized by the activation of hepatic stellate cells (HSCs) and accumulation of extracellular matrix. Severe LF causes cirrhosis and even liver failure, a major cause of morbidity and mortality worldwide. Transplantation of human placental mesenchymal stem cells (hPMSCs) has been considered as an alternative therapy. However, the underlying mechanisms and the appropriate time window for hPMSC transplantation are not well understood. We established mouse models of CCl&lt;sub&gt;4&lt;/sub&gt;-injured LF and administered hPMSCs at different stages of LF once a week for 2 weeks. The therapeutic effect of hPMSCs on LF was investigated, according to histopathological and blood biochemical analyses. In vitro, the effect of hPMSCs and the secretomes of hPMSCs on the inhibition of activated HSCs was assessed. RNA sequencing (RNA-seq) analysis, real-time PCR array, and western blot were performed to explore possible signaling pathways involved in treatment of LF with hPMSCs. hPMSC treatment notably alleviates experimental hepatic fibrosis, restores liver function, and inhibits inflammation. Furthermore, the therapeutic effect of hPMSCs against mild-to-moderate LF was significantly greater than against severe LF. In vitro, we observed that the hPMSCs as well as the secretomes of hPMSCs were able to decrease the activation of HSCs. Mechanistic dissection studies showed that hPMSC treatment downregulated the expression of fibrosis-related genes, and this was accompanied by the upregulation of Caveolin-1 (Cav1) (p &lt; 0.001). This suggested that the amelioration of LF occurred partly due to the restoration of Cav1 expression in activated HSCs. Upregulation of Cav1 can inhibit the TGF-β/Smad signaling pathway, mainly by reducing Smad2 phosphorylation, resulting in the inhibition of activated HSCs, whereas this effect could be abated if Cav1 was silenced in advance by siRNAs. Our findings suggest that hPMSCs could provide multifaceted therapeutic benefits for the treatment of LF, and the TGF-β/Cav1 pathway might act as a therapeutic target for hPMSCs in the treatment of LF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>19780871</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Recruitment of endogenous bone marrow mesenchymal stem cells towards injured liver.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Recent studies suggest that mesenchymal stem cells (MSCs) possess a greater differentiation potential than once thought and that they have the capacity to regenerate damaged tissues/organs. However, the evidence is insufficient, and the mechanism governing the recruitment and homing of MSCs to these injured sites is not well understood. We first examined the MSCs circulating in peripheral blood and then performed chemotaxis, wound healing and tubule-formation assays to investigate the migration capability of mouse bone marrow MSCs (mBM-MSCs) in response to liver-injury signals. In addition, BM-MSCs from donor enhanced green fluorescent protein transgenic male mice were transplanted into liver-injured co-isogenic female recipients, either by intra-bone marrow injection or through the caudal vein, to allow in vivo tracking analysis of the cell fate after transplantation. Donor-derived cells were analysed by in vivo imaging analysis, PCR, flow cytometry and frozen sections. Microarray and real-time PCR were used for chemokine/cytokine and receptor analyses. We successfully isolated circulating MSCs in peripheral blood of liver-injured mice and provided direct evidence that mBM-MSCs could be mobilized into the circulation and recruited into the liver after stimulation of liver injury. CCR9, CXCR4 and c-MET were essential for directing cellular migration towards the injured liver. The recruited mBM-MSCs may play different roles, including hepatic fate specification and down-regulation of the activity of hepatic stellate cells which inhibits over-accumulation of collagen and development of liver fibrosis. Our results provide new insights into liver repair involving endogenous BM-MSCs and add new information for consideration when developing clinical protocols involving the MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>26369870</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells: In vivo therapeutic application ameliorates carbon tetrachloride induced liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Egypt has the highest prevalence of hepatitis C virus in the world with infection rate up to 60%, for which liver fibrosis or hepatic carcinoma is the final outcome. Stem cell therapy provides a new hope for hepatic repair instead of traditional treatment, liver transplantation, as it is safer, gives long term engraftment and avoid expensive immunosuppressive drugs and unexpected hazardous effects. This work aimed at determining the therapeutic potential of mesenchymal stem cells (MSC) in hepatic repair as a new line of therapy for liver fibrosis. 33 female albino rats were divided into three groups: Group I: 10 rats injected subcutaneously with olive oil, Group II: 13 rats injected with carbon tetrachloride (CCl4) and Group III: 10 rats injected with CCl4 then bone marrow derived MSC from male rats. Blood and liver tissue samples were taken from all rats for biochemical and histological study. Liver functions for group II rats showed significant deterioration in response to CCl4 in addition to significant histological changes in liver lobules and portal areas. Those parameters tend to be normal in MSC-treated group. Group III rats revealed normalized liver function and histological picture. Meanwhile, most of the pathological lesions were still detected in rats of second group. Undifferentiated MSCs have the ability to ameliorate CCl4 induced liver injury in albino rats in terms of liver functions and histological features. So, stem cell therapy can be considered clinically to offer a hope for patients suffering from liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>33349209</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Therapeutic Potential of Bama Pig Adipose-Derived Mesenchymal Stem Cells for the Treatment of Carbon Tetrachloride-Induced Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is inevitable in the healing process of liver injury. Liver fibrosis will develop into liver cirrhosis unless the damaging factors are removed. This study investigated the potential therapy of Bama pig adipose-derived mesenchymal stem cells in a carbon tetrachloride-induced liver fibrosis Institute of Cancer Research strain mice model. Adipose-derived mesenchymal stem cells were injected intravenously into the tails of mice of the Institute of Cancer Research strain that had been treated with carbon tetrachloride for 4 weeks. Survival rate, migration, and proliferation of adipose-derived mesenchymal stem cells in the liver were observed by histochemistry, fluorescent labeling, and serological detection. At 1, 2, and 3 weeks after adipose-derived mesenchymal stem cell injection, liver fibrosis was significantly ameliorated. The injected adipose-derived mesenchymal stem cells had hepatic differentiation potential in vivo, and the survival rate of adipose-derived mesenchymal stem cells declined over time. The findings in this study confirmed that adipose-derived mesenchymal stem cells derived from the Bama pig can be used in the treatment of liver fibrosis, and the grafted adipose-derived mesenchy-mal stem cells can migrate, survive, and differentiate into hepatic cells in vivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>27805290</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>In vitro differentiated hepatic oval-like cells enhance hepatic regeneration in CCl&lt;sub&gt;4&lt;/sub&gt; -induced hepatic injury.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Hepatic oval cells are likely to be activated during advanced stage of liver fibrosis to reconstruct damaged hepatic tissue. However, their scarcity, difficulties in isolation, and in vitro expansion hampered their transplantation in fibrotic liver. This study was aimed to investigate the repair potential of in vitro differentiated hepatic oval-like cells in CCl&lt;sub&gt;4&lt;/sub&gt; -induced liver fibrosis. BMSCs and oval cells were isolated and characterized from C57BL/6 GFP&lt;sup&gt;+&lt;/sup&gt; mice. BMSCs were differentiated into oval cells by preconditioning with HGF, EGF, SCF, and LIF and analyzed for the oval cells-specific genes. Efficiency of oval cells to reduce hepatocyte injury was studied by determining cell viability, release of LDH, and biochemical tests in a co-culture system. Further, in vivo repair potential of differentiated oval cells was determined in CCl&lt;sub&gt;4&lt;/sub&gt; -induced fibrotic model by gene expression analysis, biochemical tests, mason trichrome, and Sirius red staining. Differentiated oval cells expressed hepatic oval cells-specific markers AFP, ALB, CK8, CK18, CK19. These differentiated cells when co-cultured with injured hepatocytes showed significant hepato-protection as measured by reduction in apoptosis, LDH release, and improvement in liver functions. Transplantation of differentiated oval cells like cells in fibrotic livers exhibited enhanced homing, reduced liver fibrosis, and improved liver functions by augmenting hepatic microenvironment by improved liver functions. This preconditioning strategy to differentiate BMSCs into oval cell leads to improved survival and homing of transplanted cells. In addition, reduction in fibrosis and functional improvement in mice with CCl&lt;sub&gt;4&lt;/sub&gt; -induced liver fibrosis was achieved.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>30538216</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Therapeutic effect of hepatocyte growth factor-overexpressing bone marrow-derived mesenchymal stem cells on CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatocirrhosis.</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Hepatocirrhosis is one of the most severe complications of chronic hepatic disease in terms of medical intervention, and the available therapies are limited and not very successful. In this study, bone marrow-derived mesenchymal stem cells (BM-MSCs) from host rats were transduced with an adenoviral vector labelled with green fluorescent protein (EGFP) to overexpress hepatocyte growth factor (HGF). The therapeutic effect of these modified stem cells (HGF-BM-MSC group) transplanted intravenously into hepatocirrhosis model rats treated with CCl&lt;sub&gt;4&lt;/sub&gt; was evaluated using serological, biochemical and histological approaches. We compared the rats in the HGF-BM-MSC group with those in the other groups (rats treated with BM-MSCs, rats treated with HGF and untreated rats (Controls)) in detail. The localisation of EGFP-tagged BM-MSCs in the injured liver was evaluated using a microscope, and the cells co-expressed hepatocyte nuclear factor 4α, albumin and cytokeratin 18. After treatment for 4 weeks, the HGF-BM-MSC, BM-MSC and HGF groups exhibited increased protein and mRNA levels of hepatocyte nuclear factor 4α, albumin and cytokeratin 18, but decreased levels of aspartate aminotransferase, alanine aminotransferase and total bilirubin. These findings indicate that BM-MSC transplantation and HGF application have great potential for the treatment of hepatocirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20943307</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Enhanced hepatic differentiation of mesenchymal stem cells after pretreatment with injured liver tissue.</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Liver failure represents a serious challenge for cell based therapies. Mesenchymal stem cells (MSCs) possess potential for regeneration of fibrotic liver; however, there is a dire need to improve their hepatic differentiation. This study examines a pretreatment strategy to augment the differentiation potential of MSCs towards hepatic lineage. MSCs were isolated from C57BL/6 wild type mice and were characterized by flow cytometry for CD44 (92.4%), CD90 (96.6%), CD105 (94.7%), CD45 (0.8%) and CD34 (1.4%) markers. To improve the differentiation potential of MSCs towards hepatic lineage, cells were pretreated with injured liver tissue in an in-vitro model, which resulted in high expression of albumin, cytokeratin 8, 18, TAT and HNF1α as compared to untreated MSCs. The efficacy of pretreated MSCs was evaluated by preparing in-vivo mouse model with liver fibrosis by intraperitoneal administration of CCl(4). Pretreated MSCs were transplanted in the left lateral lobe of mice with liver fibrosis and showed enhanced localization and differentiation abilities after 1 month. The expression for cytokeratin 8, 18, albumin and Bcl-xl was up-regulated and that of HGF, Bax and Caspase- 3 was down-regulated in animals transplanted with pretreated MSCs. Sirus red staining also confirmed a significant reduction in the fibrotic area in liver tissue transplanted with pretreated MSCs as compared to untreated MSCs and was concomitant with improved serum levels of bilirubin and alkaline phosphatase (ALP). Therefore, it was concluded that pretreatment with injured liver tissue augment homing and hepatic differentiation abilities of MSCs and provides an improved procedure for the treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>24507685</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Effect of bone marrow mesenchymal stem cells on the Smad expression of hepatic fibrosis rats.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>To investigate the impact of bone marrow mesenchymal stem cells on Smad expression of hepatic fibrosis rats. A total of 48 adult female SD rats were randomly divided into three groups, normal control group (n=10), observation group (n=19) with liver fibrosis model rats injected with BMSCs cells; model group (n=19), with liver fibrosis model rats injected with physiological saline. Serum index, TGF-β1 and Smad expression were detected. Type III procollagen, IV collagen, hyaluronic acid, laminin levels of observation group were significantly lower than those of model group (P&lt;0.05). The content and expression of TGF-β1 in serum and liver tissue of observation group were significantly lower than those of model group(P&lt;0.05). Compared with normal control group, the Smad3, Smad4 mRNA and protein expression of model group were significantly increased, the Smad7 mRNA and protein expression were significantly reduced (P&lt;0.05). Compared with model group, Smad3, Smad4 mRNA and protein expression of observation group were significantly reduced, and Smad7 mRNA expression were significantly increased (P&lt;0.05). BMSCs can regulate Smad expression to some extent, and reduce the degree of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>36941658</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BM-MSCs overexpressing the Numb enhance the therapeutic effect on cholestatic liver fibrosis by inhibiting the ductular reaction.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Cholestatic liver fibrosis (CLF) is caused by inflammatory destruction of the intrahepatic bile duct and abnormal proliferation of the small bile duct after cholestasis. Activation of the Notch signaling pathway is required for hepatic stem cells to differentiate into cholangiocytes during the pathogenesis of CLF. Our previous research found that the expression of the Numb protein, a negative regulator of Notch signaling, was significantly reduced in the livers of patients with primary biliary cholangitis and CLF rats. However, the relationship between the Numb gene and CLF is largely unclear. In this study, we investigated the role of the Numb gene in the treatment of bile duct ligation (BDL)-induced CLF. In vivo, bone marrow-derived mesenchymal stem cells (BM-MSCs) with Numb gene overexpression or knockdown obtained using lentivirus transfection were transplanted into the livers of rats with BDL-induced CLF. The effects of the Numb gene on stem cell differentiation and CLF were evaluated by performing histology, tests of liver function, and measurements of liver hydroxyproline, cytokine gene and protein levels. In vitro, the Numb gene was overexpressed or knocked down in the WB-F344 cell line by lentivirus transfection, Then, cells were subjected immunofluorescence staining and the detection of mRNA levels of related factors, which provided further evidence supporting the results from in vivo experiments. BM-MSCs overexpressing the Numb gene differentiated into hepatocytes, thereby inhibiting CLF progression. Conversely, BM-MSCs with Numb knockdown differentiated into biliary epithelial cells (BECs), thereby promoting the ductular reaction (DR) and the progression of CLF. In addition, we confirmed that knockdown of Numb in sodium butyrate-treated WB-F344 cells aggravated WB-F344 cell differentiation into BECs, while overexpression of Numb inhibited this process. The transplantation of BM-MSCs overexpressing Numb may be a useful new treatment strategy for CLF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>32011099</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Contribution of neural crest and GLAST&lt;sup&gt;+&lt;/sup&gt; Wnt1&lt;sup&gt;+&lt;/sup&gt; bone marrow pericytes with liver fibrogenesis and/or regeneration.</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Liver fibrosis results from cycles of liver damage and scar formation. We herein aimed at analysing neural crest cells and/or bone marrow stromal cells contribution to the liver. Two liver fibrosis and one hepatectomy model were applied on double-transgenic loxP-Cre mouse lines. Increased numbers of glia with more complex processes were found in fibrotic livers. During embryonic development, only few cells were traced in the liver and bone marrow, in a minor fraction of mice of different neural crest reporter strains analysed: therefore, a neural crest origin of such cells is doubtful. In the fibrotic liver, a significantly higher incidence of endothelial cells and hepatocyte-like cells expressing the reporter gene Tomato were found in Wnt1-Cre-Tom and GLAST-CreERT2-Tom mice. Consistently, during early fibrogenesis stromal Wnt1-traced cells, with progenitor (CFU-F) properties, get likely mobilized to peripheral blood. Circulating adult Wnt1-traced cells are stromal cells and lack from the expression of other bone marrow and endothelial progenitor cells markers. Furthermore, in a 70% hepatectomy model GLAST&lt;sup&gt;+&lt;/sup&gt; Wnt1-traced pericytes were found to be mobilized from the bone marrow and the incidence of GLAST-traced hepatocyte-like cells was increased. Finally, GLAST-traced hepatocyte like-cells were found to maintain the expression of stromal markers. Our data suggest a gliosis process during liver fibrogenesis. While neural crest cells probably do not contribute with other liver cell types than glia, GLAST&lt;sup&gt;+&lt;/sup&gt; Wnt1-traced bone marrow pericytes are likely a source of endothelial and hepatocyte-like cells after liver injury and do not contribute to scarring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>38356602</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Human umbilical cord mesenchymal stem cells attenuate diet-induced obesity and NASH-related fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Non-alcoholic steatohepatitis (NASH) is a progressive form of non-alcoholic fatty liver disease (NAFLD) that may progress to cirrhosis and hepatocellular carcinoma but has no available treatment. Mesenchymal stem cells (MSCs) have become increasingly prominent in cell therapy. Human umbilical cord MSCs (hUC-MSCs) are considered superior to other MSCs due to their strong immunomodulatory ability, ease of collection, low immune rejection, and no tumorigenicity. Though hUC-MSCs have received increasing attention in research, they have been rarely applied in any investigations or treatments of NASH and associated fibrosis. Therefore, this study evaluated the therapeutic efficacy of hUC-MSCs in C57BL/6 mice with diet-induced NASH. At week 32, mice were randomized into two groups: phosphate-buffered saline and MSCs, which were injected into the tail vein. At week 40, glucose metabolism was evaluated using glucose and insulin tolerance tests. NASH-related indicators were examined using various biological methods. hUC-MSC administration alleviated obesity, glucose metabolism, hepatic steatosis, inflammation, and fibrosis. Liver RNA-seq showed that the expression of the acyl-CoA thioesterase (ACOT) family members Acot1, Acot2, and Acot3 involved in fatty acid metabolism were altered. The cytochrome P450 (CYP) members Cyp4a10 and Cyp4a14, which are involved in the peroxisome proliferator-activator receptor (PPAR) signaling pathway, were significantly downregulated after hUC-MSC treatment. In conclusion, hUC-MSCs effectively reduced Western diet-induced obesity, NASH, and fibrosis in mice, partly by regulating lipid metabolism and the PPAR signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>33781314</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>The effect of bone marrow-derived mesenchymal stem cell co-transplantation with hematopoietic stem cells on liver fibrosis alleviation and survival in patients with class III β-thalassemia major.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is a common complication in transfusion-dependent thalassemia patients. Data on the co-transplantation of mesenchymal stem cells (MSCs) with hematopoietic stem cells (HSCs) in beta-thalassemia major patients are scarce. Therefore, we aimed to evaluate the effect of co-transplantation of bone marrow-derived MSC with HSCs on the liver fibrosis alleviation and transplant outcomes in class III beta-thalassemia major. Between April 1998 and January 2017, a total of 224 consecutive patients with class III beta-thalassemia major underwent allogeneic HSCT in the Research Institute for Oncology, Hematology and Cell Therapy, Tehran University of Medical Sciences, Tehran, Iran. To assess liver fibrotic changes after transplantation, 47 patients participated in the MSC plus HSC group and 30 patients in the HSC only group at the end of the follow-up period. All patients underwent laboratory tests, especially serum ferritin and liver function testing, hepatic T2* MRI, liver biopsy, and FibroScan before and 2 years after transplantation. Kaplan-Meier curves were derived to determine survival and were compared using the log-rank test. Repeated-measure, mixed-effect linear regression models were used to examine the changes in liver fibrosis over time. The 10-year OS rate was 71.84% in the mesenchymal group and 61.89% in the non-mesenchymal group (P value = 0.294), while the 10-year TFS rate was 63.64% in the mesenchymal group and 52.78% in the non-mesenchymal group (P value = 0.285). No significant difference was observed in the 10-year NRM, rejection rate, ANC engraftment, platelet engraftment, acute GvHD, and chronic GvHD between the two groups. In addition, the results of repeated-measure, mixed-effect linear regression models showed that none of the variables determining hepatic fibrosis had a significant difference between patients receiving MSCs and patients who did not receive MSCs. Based on the results of this study, a single infusion of MSCs at the time of HSCT to patients with class III beta-thalassemia major could not significantly improve the liver fibrosis alleviation and transplantation outcomes, including OS, TFS, TRM, rejection rate, ANC engraftment, platelet engraftment, acute GvHD, and chronic GvHD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>32245503</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Ultrasound-targeted microbubble destruction optimized HGF-overexpressing bone marrow stem cells to repair fibrotic liver in rats.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cells (BMSCs) have shown their therapeutic potential in cytotherapy for liver fibrosis. However, the insufficient homing of BMSCs and undefined proliferation of BMSCs represent a significant challenge and largely limit the effective implementation. The aims of the present study were to determine whether stable expression of hepatic growth factor (HGF) in BMSCs coupled with ultrasound-targeted microbubble destruction (UTMD) technique could effectively and definitely alleviating carbon tetrachloride (CCl4)-induced liver fibrosis in rats. A rat model of liver fibrosis was acquired by injection of carbon tetrachloride (CCl4). The experimental rats were randomly assigned to the four groups: normal, CCl4, BMSCs-HGF/US, and BMSCs-HGF/UTMD groups. The BMSCs, transfected by recombinant adeno-associated virus vector encoding human genome sequence of HGF (BMSCs-HGF), were transplanted in rat via the tail vein. The homing efficiency of BMSCs was observed by immunofluorescence staining. The liver function and its morphological changes were analyzed by biochemical tests and liver histology. The expression of liver fibrosis markers including α-smooth muscle actin (α-SMA), collagen I, and vimentin were examined by immunohistochemistry and quantitative real-time polymerase chain reaction. The homing efficiency of BMSCs in the fibrotic liver was significantly greater with the application of UTMD. The biochemical markers of liver function and histopathological results showed significantly better improvement in BMSCs-HGF/UTMD group than the other groups, and the serum levels of biochemical markers returned to normal ranges in 12 weeks in this group. Furthermore, the expression levels of liver fibrosis markers (α-SMA, collagen I, and Vimentin) were all significantly lower in BMSCs-HGF/UTMD group in comparison with other groups. Our findings have demonstrated that stable expression of HGF in BMSCs and application of the UTMD technique facilitate the homing of BMSCs, and more importantly, which could further improve their alleviation of liver fibrosis. Therefore, these findings have an important clinical implication that AAV-BMSCs-HGF and UTMD hold promise as a novel therapeutic approach for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>29861737</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>NADPH Oxidase Signaling Pathway Mediates Mesenchymal Stem Cell-Induced Inhibition of Hepatic Stellate Cell Activation.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (BMSCs) have blossomed into an effective approach with great potential for the treatment of liver fibrosis. The aim of this study was to investigate the underlying antifibrosis mechanisms by which the BMSC inhibit activated hepatic stellate cells (HSCs) in vivo and in vitro. To study the effect of human bone marrow-derived mesenchymal stem cells (hBM-MSCs) on activated HSCs, we used HSCs and the coculture systems to evaluate the inhibition of activated HSCs from the aspects of the apoptosis of activated HSCs. In addition, activation of NADPH oxidase pathway and the changes in liver histopathology were tested by using the carbon tetrachloride- (CCl&lt;sub&gt;4&lt;/sub&gt;-) induced liver fibrosis in mice. Introduction of hBM-MSCs significantly inhibited the proliferation of activated HSCs by inducing the apoptosis process of activated HSCs. The effect of hBM-MSCs reduced the signaling pathway of NADPH oxidase in activated HSCs. Besides, the signaling pathway of NADPH oxidase mediated hBM-MSC upregulation of the expression of the peroxisome proliferator-activated receptor &lt;i&gt;γ&lt;/i&gt; and downregulation of the expression of &lt;i&gt;α&lt;/i&gt;1(I) collagen and alpha-smooth muscle actin (&lt;i&gt;α&lt;/i&gt;-SMA) in activated HSCs. Moreover, the hBM-MSC-induced decrease in the signaling pathway of NADPH oxidase was accompanied by the decrease of the activated HSC number and liver fibrosis in a mouse model of CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis. The hBM-MSCs act as a promising drug source against liver fibrosis development with respect to hepatopathy as a therapeutic target.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>30901579</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MicroRNA-26b-5p Inhibits Mouse Liver Fibrogenesis and Angiogenesis by Targeting PDGF Receptor-Beta.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Here microRNAs (miRNAs) with potentially therapeutic effects were screened and explored during liver fibrogenesis and angiogenesis via targeting the important mediators. Chimera mice with EGFP&lt;sup&gt;+&lt;/sup&gt; bone marrow mesenchymal stromal cells (BMSCs) were fed with methionine-choline-deficient and high-fat (MCDHF) diet to induce liver injury. Increased expression of platelet-derived growth factor receptor-beta (PDGFR-β) was detected in MCDHF mice, with a positive correlation to fibrosis and angiogenesis markers. BMSCs contributed to the significant proportion of PDGFR-β&lt;sup&gt;+&lt;/sup&gt; cells in the fibrotic liver. MicroRNA-26b-5p (miR-26b-5p) was predicted to target PDGFR-β from three databases. The hepatic expression of miR-26b-5p was decreased in the fibrotic liver, with a negative correlation to PDGFR-β and fibrosis and angiogenesis markers. miR-26b-5p directly targeted PDGFR-β in TGF-β1-treated BMSCs by pull-down and lucifer reporter assays, which can be sponged by long non-coding RNA (lncRNA) maternally expressed gene 3 (lncMEG3). Microarray analysis revealed that miR-26b-5p overexpression affected a list of genes associated with fibrosis and angiogenesis. In vivo miR-26b-5p negatively regulated PDGFR-β expression and attenuated liver fibrosis and angiogenesis. Together, miR-26b-5p inhibits liver fibrogenesis and angiogenesis via directly targeting PDGFR-β and interacting with lncMEG3, which may represent an effective therapeutic strategy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>35186473</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>From hair to liver: emerging application of hair follicle mesenchymal stem cell transplantation reverses liver cirrhosis by blocking the TGF-β/Smad signaling pathway to inhibit pathological HSC activation.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Liver cirrhosis (LC) involves multiple systems throughout the body, and patients with LC often die of multiple organ failure. However, few drugs are useful to treat LC. Hair follicle mesenchymal stem cells (HF-MSCs) are derived from the dermal papilla and the bulge area of hair follicles and are pluripotent stem cells in the mesoderm with broad prospects in regenerative medicine. As an emerging seed cell type widely used in skin wound healing and plastic surgery, HF-MSCs show considerable prospects in the treatment of LC due to their proliferation and multidirectional differentiation capabilities. We established an LC model in C57BL/6J mice by administering carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) and injected HF-MSCs through the tail vein to explore the therapeutic effects and potential mechanisms of HF-MSCs on LC. Here, we found that HF-MSCs improved liver function and ameliorated the liver pathology of LC. Notably, PKH67-labeled HF-MSCs were detected in the injured liver and expressed the hepatocyte-specific markers cytokeratin 18 (CK18) and albumin (ALB). In addition, in contrast to that in the LC group, the α-SMA expression showed a decreasing trend in the treatment group &lt;i&gt;in vitro&lt;/i&gt; and &lt;i&gt;in vivo&lt;/i&gt;, indicating that the pathological activation of hepatic stellate cells (HSCs) was inhibited by HF-MSC treatment. Moreover, the levels of transforming growth factor β (TGF-β1) and p-Smad3, a signaling molecule downstream of TGF-β1, were increased in mice with LC, while HF-MSC treatment reversed these changes &lt;i&gt;in vivo&lt;/i&gt; and &lt;i&gt;in vitro&lt;/i&gt;. Based on these findings, HF-MSCs may reverse LC by blocking the TGF-β/Smad pathway and inhibiting the pathological activation of HSCs, which may provide evidence for the application of HF-MSCs to treat LC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>32535098</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of bone marrow-derived mesenchymal stem cells and imatinib in a rat model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Considering the global increase in the prevalence of hepatic fibrosis and ineffective disease treatment, novel therapies are urgently needed. The current study is focused on comparing the therapeutic effects of mesenchymal stem cells (MSC)/imatinib combination therapy to single (MSCs or imatinib) therapy, in a rat model of carbon tetrachloride (CCL4)-induced liver fibrosis. Using rats, hepatic fibrosis was induced by injection of CCL4. Rats were divided into 5 groups: CCL4-induced hepatic fibrosis, phosphate buffered saline (PBS) treatment (vehicle control), Bone marrow-MSCs (BM_MSCs), imatinib, and bone marrow-MSCs/imatinib co-treatment. The therapeutic impact of these approaches was determined using histopathology, sirius-red staining, serum markers, and qRT-PCR for over expression of matrix components. IHC and Western blot were conducted for further confirmation of the results. Single treatment with MSCs or imatinib and the combination therapy, all significantly reduced serum levels of ALT, AST, and ALP concomitant with down-regulation of α-SMA, pro-collagen I, pro-collagen III, collagen IV, and laminin. A significant reduction of ECM components deposits and a decrease in α-SMA expression were detected in all treatment groups. Pathological observations demonstrated that 20% and 40% of the rats in the MSC and MSC/imatinib group were in grade F0 respectively, while 80% of the rats of the imatinib group were in grade 2. Even though all treatment strategies studied resulted in an equally potent reduction in the mRNA and protein expression levels of pro-fibrotic markers, in aspect of pathological observations, our results demonstrate the highest therapeutic potential of utilizing combination of BM-MSCs and imatinib.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>30810620</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Observation of the effect of bone marrow mesenchymal stem cell transplantation by different interventions on cirrhotic rats.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cells (BMSCs) transplantation has attracted attention for the treatment of liver cirrhosis and end-stage liver diseases. Therefore, in this study, we evaluated the effect of different methods of BMSCs transplantation in the treatment of liver cirrhosis in rats. Seventy-two male Sprague-Dawley rats were divided into 7 groups: 10 were used to extract BMSCs, 10 were used as normal group, and the remaining 52 rats were randomly divided into five groups for testing: control group, BMSCs group, BMSCs+granulocyte colony-stimulating factor (G-CSF) group, and BMSCs+Jisheng Shenqi decoction (JSSQ) group. After the end of the intervention course, liver tissue sections of rats were subjected to hematoxylin and eosin (H&amp;E) and Masson staining, and pathological grades were scored. Liver function [aminotransferase (ALT), aspartate aminotransferase (AST), albumin (ALB)] and hepatic fibrosis markers [hyaluronidase (HA), laminin (LN), type III procollagen (PCIII), type IV collagen (CIV)] were measured. BMSCs+JSSQ group had the best effect of reducing ALT and increasing ALB after intervention therapy (P&lt;0.05). The reducing pathological scores and LN, PCIII, CIV of BMSCs+G-CSF group and BMSCs+JSSQ group after intervention therapy were significant, but there was no significant difference between the two groups (P&gt;0.05). The effect of JSSQ on improving stem cell transplantation in rats with liver cirrhosis was confirmed. JSSQ combined with BMSCs could significantly improve liver function and liver pathology scores of rats with liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>37031397</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>In vitro expansion of human mesenchymal stem cells and hepatocytes using purified platelet derived growth factors, a potential therapeutic modality for liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) and hepatocytes are considered valuable candidates for cell-based therapy. The use of free zoonotic media, as purified platelets derived growth factors (L-GF) and human platelet lysate (hPL), instead of using fetal bovine serum (FBS) to support the growth and proliferation of these cells could be used as a promising therapeutic tool in hepatic regeneration. This study aimed to evaluate the usage of purified platelet derived growth factors and platelet lysate in both MSCs and hepatocyte cultures and to compare them with the usage of FBS. MSCs and hepatocytes were cultured in growth media supplemented with L-GF or hPL and compared them to their culture in growth media supplemented with FBS. Cells were subjected to population doubling (PD) and generation time (GT) calculations. The best result for MSCs was that obtained by using 10% hPL or 10% FBS with the highest cell count, highest viability and shortest incubation time needed to reach confluency compared to supplementation with 10%, 20% or 30% L-GF. As for hepatocyte culture, the use of 10% FBS for supplementation of media used for hepatic cell proliferation showed better performance regarding cell count, viability, and incubation time to reach confluency compared to the use of either hPL or L-GF. In conclusion, our study showed that 10% hPL had the best results in MSCs culture which suggests that hPL could be a better alternative for the development of xenofree stem cell culture that can be used for many clinical applications. On the other hand, 10% FBS showed the best results in hepatocyte culture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>36610716</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Comparing the Therapeutic Mechanism and Immune Response of Human and Mouse Mesenchymal Stem Cells in Immunocompetent Mice With Acute Liver Failure.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Current mesenchymal stem cell (MSC) research is based on xenotransplantation of human MSCs (hMSCs) in immunodeficient mice and cannot comprehensively predict MSC repair mechanisms and immunomodulatory effects in damaged tissue. This study compared the therapeutic efficacy, mechanisms, and immune response of hMSCs and mouse MSCs (mMSCs) in immunocompetent mice with CCl4-induced acute liver failure. mMSCs maintained F4/80+ hepatic macrophage recruitment into the damaged liver region, increased IL-6-dependent hepatocyte proliferation, and reduced inflammatory TNF-α cytokine secretion. Moreover, mMSCs reduced α-SMA+ myofibroblast activation by lowering TGF-β1 accumulation in damaged liver tissue. In contrast, hMSCs lowered TNF-α and TGF-β1 by reducing the recruitment of F4/80+ hepatic macrophages, which lost the ability to remove debris and induce IL-6 liver regeneration. Finally, hMSCs, but not mMSCs, caused a significant antibody response in immunocompetent mice; therefore, hMSCs are unsuitable for long-term MSC studies. This comparative study provides reference information for further MSC studies of immunocompetent mice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>25315017</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells engineered to produce IGF-I by recombinant adenovirus ameliorate liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Liver cirrhosis involves chronic wound healing and fibrotic processes. Mesenchymal stromal cells (MSCs) are multipotent adult progenitor cells that are used as vehicles of therapeutic genes. Insulin growth factor like-I (IGF-I) was shown to counteract liver fibrosis. We aimed at analyzing the effect of applying IGF-I overexpressing mouse bone marrow-derived MSCs on hepatic fibrosis. Fibrosis was induced by chronic thioacetamide application or bile duct ligation. MSCs engineered to produce green fluorescent protein (GFP) (AdGFP-MSCs) or IGF-I (AdIGF-I-MSCs) were applied systemically, and changes in collagen deposition and in the expression of key pro-fibrogenic and pro-regenerative genes/proteins were assessed. In addition, immunogenicity of transduced cells was analyzed. Liver fibrosis was further ameliorated after a single-dose application of AdIGF-I-MSCs when compared with AdGFP-MSCs and/or recombinant IGF-I treatments. Interestingly, an early and transitory upregulation in IGF-I and hepatocyte growth factor (HGF) mRNA expression was found in the liver of MSC-treated animals, which was more pronounced in AdIGF-I-MSCs condition. A reduction in hepatic stellate cell activation status was found after incubation with MSCs conditioned media. In addition, the AdIGF-I-MSCs cell-free supernatant induced the expression of IGF-I and HGF in primary cultured hepatocytes. From day 1 after transplantation, the proliferation marker proliferating cell nuclear antigen was upregulated in the liver of AdIGF-I-MSCs group, mainly in hepatocytes. MSCs were in vivo traced till day 14 after injection. In addition, multiple doses of Ad-IGF-I-MSCs likely suppressed antiviral immune response and it further reduced collagen deposition. Our results uncover early events that are likely involved in the anti-fibrogenic effect of genetically modified MSCs and overall would support the use of AdIGF-I-MSCs in treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>26876222</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Wharton's jelly-derived mesenchymal stem cells combined with praziquantel as a potential therapy for Schistosoma mansoni-induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is one of the most serious consequences of S. mansoni infection. The aim of the present study was to investigate the potential anti-fibrotic effect of human Wharton's jelly-derived mesenchymal stem cells (WJMSCs) combined with praziquantel (PZQ) in S. mansoni-infected mice. S. mansoni-infected mice received early (8(th) week post infection) and late (16(th) week post infection) treatment with WJMSCs, alone and combined with oral PZQ. At the 10(th) month post infection, livers were collected for subsequent flow cytometric, histopathological, morphometric, immunohistochemical, gene expression, and gelatin zymographic studies. After transplantation, WJMSCs differentiated into functioning liver-like cells as evidenced by their ability to express human hepatocyte-specific markers. Regression of S. mansoni-induced liver fibrosis was also observed in transplanted groups, as evidenced by histopathological, morphometric, and gelatin zymographic results besides decreased expression of three essential contributors to liver fibrosis in this particular model; alpha smooth muscle actin, collagen-I, and interleukin-13. PZQ additionally enhanced the beneficial effects observed in WJMSCs-treated groups. Our results suggest that combining WJMSCs to PZQ caused better enhancement in S. mansoni-induced liver fibrosis, compared to using each alone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>33629329</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BMSCs attenuate hepatic fibrosis in autoimmune hepatitis through regulation of LMO7-AP1-TGFβ signaling pathway.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>In a previous study, we reported that transplantation of bone mesenchymal stem cells (BMSCs) significantly attenuated liver damage in a mouse autoimmune hepatitis (AIH) model. Moreover, expression of the LIM domain protein, LMO7, correlated positively with the invasive capacity of hepatoma cells. However, whether LMO7 plays a role in inflammation and fibrosis of AIH remains unknown. This investigation aimed to explore the effect of BMSC transplantation on LMO7 and the role of LMO7 in hepatic fibrosis. S100-induced murine AIH and LPS-induced hepatocyte injury models were successfully established. Three doses of BMSCs were injected into AIH mice via the tail vein. LPS-treated AML12 cells were co-cultured with BMSCs in vitro. Small interfering (si) LMO7 RNA and T5224 (a specific inhibitor of AP-1) were used to demonstrate the relationship between LMO7-AP1-transforming growth factor (TGF)-β. Pathological examination and serum alanine and aspartate aminotransferase levels indicated that liver damage was notably ameliorated in the BMSC-treated mice. LMO7 level was upregulated, while AP-1 and TGF-β levels were downregulated upon intervention with BMSCs. AP-1 expression was upregulated in the siLMO7 group, whereas TGF-β level was downregulated in the T5224 group when compared to those in the control group. BMSC transplantation significantly limits liver fibrosis and upregulates the expression of LMO7. LMO7 inhibits the TGF-β pathway by inhibiting AP-1. This implies that BMSCs are a potential means of treating liver fibrosis. This approach has important implications for the treatment of AIH and other fibrotic diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>22182291</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Liver Anti-Fibrosis Therapy with Mesenchymal Stem Cells Secreting Hepatocyte Growth Factor.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>The objective of this study is to investigate the anti-fibrotic effect of combined mesencymal stem cells (MSCs) and gene therapy on liver fibrosis. When transfected by the complex with a plasmid DNA of hepatocyte growth factor (HGF) and the spermine-introduced pullulan of gene carrier, MSCs secreted HGF protein over 1 week. The HGF secreted from transfected MSC had the biological activity to promote the albumin production of hepatocytes. After intravenous injection, the HGF-secreting MSCs (HGF-MSC) accumulated in the liver. The injection of HGF-MSC decreased the fibrosis area in a rat model of liver fibrosis to a significantly great extent compared with that of original MSC. In the in vitro experiment, the higher number of HGF-transfected MSCs was migrated by stromal cell-derived factor (SDF)-1α more strongly than the original MSC. Considering the promotion of SDF-1α secretion in the liver fibrosis, it is possible that, when transplanted, genetically-engineered MSCs are accumulated in the liver due to their higher response to SDF-1α. It is concluded that the intravenous injection of genetically-engineered MSCs is a promising therapy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>30635054</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>The therapeutic potential of induced hepatocyte-like cells generated by direct reprogramming on hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Until now, there is no effective anti-fibrotic therapy available for liver cirrhosis. Stem cell therapies have been studied for the treatment of hepatic fibrosis. However, the use of embryonic stem cells or induced pluripotent stem cells (iPSC) has limitations such as ethical concern or malignancy potential. Induced hepatocyte-like cells (iHEPs) generated by direct reprogramming technology may overcome these limitations. In this study, we generated iHEPs by direct reprogramming from mouse embryonic fibroblast (MEF) either using specific transcription factors such as c-Myc and Klf-4 (type A), or adding small molecules to HNF1α (type B). We investigated the effect of iHEPs on acute liver injury and chronic hepatic fibrosis animal models induced by CCl&lt;sub&gt;4&lt;/sub&gt; intra-peritoneal injection in BALB/C nude mice. In acute liver injury model, serum AST/ALT levels peaked at 24 h after CCl&lt;sub&gt;4&lt;/sub&gt; injection. Intra-splenic transplantation of iHEPs significantly attenuated CCl&lt;sub&gt;4&lt;/sub&gt;-induced acute liver injury. GFP-labeled iHEPs (type A) migrated to the liver after intra-splenic transplantation that was confirmed by Western blotting and immunofluorescence staining. We found that GFP and albumin were co-localized in migrated iHEPs in the liver suggesting migrated iHEPs were functional. In chronic hepatic fibrosis mice experiment, transplantation of either type A or type B iHEPs significantly attenuated liver fibrosis induced by CCl&lt;sub&gt;4&lt;/sub&gt; injection for 10 weeks. Our study suggests that iHEPs may be used as a novel therapeutic strategy for the treatment of hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>25445161</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bone Marrow Stromal Cells Inhibit the Activation of Liver Cirrhotic Fat-Storing Cells via Adrenomedullin Secretion.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Cirrhosis, or liver fibrosis, which is mainly triggered by cirrhosis fat-storing cells (CFSCs) activation, has traditionally been considered an irreversible disease. However, recent observations indicate that even advanced fibrosis is still reversible by removing the causative agents. Anti-fibrotic effects of bone marrow-derived stromal cells (BMSCs) have been demonstrated by inhibiting CFSCs via cytokines secretion; however, the mechanisms are still unclear. The purpose of this study was to explore the underlying mechanisms by which BMSCs modulate the function of activated CFSCs. After the co-culture of CFSCs with BMSCs supernatants with or without the addition of recombinant rat adrenomedullin (AM)/AM-specific siRNA, western blot analysis was mainly used to detect the differences of relative protein expression on CFSCs. BMSC-secreted adrenomedullin (AM) effectively inhibited the proliferation and activation of CFSCs by suppressing the expression of Ang II and its binding receptor, AT1, which resulted in a reduction of p47-phox formation. Our data suggested that BMSCs inhibited CFSC activation in vitro via the AM-Ang II-p47-phox signaling pathway, and since CFSC activation is an essential part of hepatic fibrosis process, this inhibition by BMSCs implies us new insights into the potential treatment of hepatic fibrosis via BMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>27365486</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Effect of Function-Enhanced Mesenchymal Stem Cells Infected With Decorin-Expressing Adenovirus on Hepatic Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>: Bone marrow-derived mesenchymal stem cells (BM-MSCs) are known to have an antifibrotic effect and could be used as vehicles for targeted gene delivery. Decorin plays a protective role against fibrogenesis by modulating the degradation of the extracellular matrix. The aim of this study was to determine whether the antifibrotic effect of a combination treatment consisting of BM-MSCs and decorin on hepatic fibrosis is superior to BM-MSCs alone. The effects of BM-MSCs infected with decorin-expressing adenovirus (DCN-MSCs) on hepatic fibrosis were examined in a rat model of thioacetamide (TAA)-induced cirrhosis. The effects of infection with decorin-expressing adenovirus and of incubation with the conditioned medium of DCN-MSCs on transforming growth factor-β (TGF-β) signaling were analyzed in immortalized human hepatic stellate cells (HSCs). According to the Laennec fibrosis scoring system, cirrhotic livers from rats treated with DCN-MSCs exhibited histological improvement compared with cirrhotic livers from rats treated with control adenovirus-infected MSCs (CA-MSCs). DCN-MSC treatment reduced hepatic collagen distribution, lowered the hydroxyproline content, and rescued liver function impairment in rats with TAA-induced cirrhosis. These protective effects were more potent with DCN-MSCs than with CA-MSCs. The upregulation of collagen-1, α-smooth muscle actin (α-SMA), TGF-β1, and Smad3 phosphorylation in cirrhotic livers was prevented by DCN-MSC administration. Intriguingly, medium from cultured DCN-MSCs blocked both Smad3 phosphorylation and exogenous TGF-β1 stimulated α-SMA synthesis in HSCs. DCN-MSCs exert strong protective effects against hepatic fibrosis by suppressing TGF-β/Smad signaling. Thus, treatment with DCN-MSCs is a potentially novel and efficient therapeutic approach for patients with intractable cirrhosis. A combination treatment consisting of bone marrow-derived mesenchymal stem cells (BM-MSCs) and decorin strongly inhibited the progression of thioacetamide-induced hepatic fibrosis in rats, compared with BM-MSCs alone. Furthermore, the significant inhibitory effect of BM-MSCs infected with decorin-expressing adenovirus was attributed to suppressing transforming growth factor-β (TGF-β)/Smad signaling pathway, supported by attenuation of TGF-β1 expression and inhibition of Smad3 phosphorylation. Therefore, treatment with BM-MSCs infected with decorin-expressing adenovirus could constitute a novel and efficient therapeutic approach for patients with intractable cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>28382720</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Exosomes derived from miR-181-5p-modified adipose-derived mesenchymal stem cells prevent liver fibrosis via autophagy activation.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Proliferating hepatic stellate cells (HSCs) respond to liver damage by secreting collagens that form fibrous scar tissue, which can lead to cirrhosis if in appropriately regulated. Advancement of microRNA (miRNA) hepatic therapies has been hampered by difficulties in delivering miRNA to damaged tissue. However, exosomes secreted by adipose-derived mesenchymal stem cells (ADSCs) can be exploited to deliver miRNAs to HSCs. ADSCs were engineered to overexpress miRNA-181-5p (miR-181-5p-ADSCs) to selectively home exosomes to mouse hepatic stellate (HST-T6) cells or a CCl4-induced liver fibrosis murine model and compared with non-targeting control Caenorhabditis elegans miR-67 (cel-miR-67)-ADSCs. In vitro analysis confirmed that the transfer of miR-181-5p from miR-181-5p-ADSCs occurred via secreted exosomal uptake. Exosomes were visualized in HST-T6 cells using cyc3-labelled pre-miRNA-transfected ADSCs with/without the exosomal inhibitor, GW4869. The effects of miRNA-181-5p overexpression on the fibrosis associated STAT3/Bcl-2/Beclin 1 pathway and components of the extracellular matrix were assessed. Exosomes from miR181-5p-ADSCs down-regulated Stat3 and Bcl-2 and activated autophagy in the HST-T6 cells. Furthermore, the up-regulated expression of fibrotic genes in HST-T6 cells induced by TGF-β1 was repressed following the addition of isolated miR181-5p-ADSC exosomes compared with miR-67-ADSCexosomes. Exosome therapy attenuated liver injury and significantly down-regulated collagen I, vimentin, α-SMA and fibronectin in liver, compared with controls. Taken together, the effective anti-fibrotic function of engineered ADSCs is able to selectively transfer miR-181-5p to damaged liver cells and will pave the way for the use of exosome-ADSCs for therapeutic delivery of miRNA targeting liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>37899504</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Two-Membrane Hybrid Nanobiomimetic Delivery System for Targeted Autophagy Inhibition of Activated Hepatic Stellate Cells To Synergistically Treat Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is one of the most common and highly prevalent chronic liver diseases caused by multiple pathogenic factors, and there is still no effective therapeutic drugs up to now. The activated hepatic stellate cells (aHSCs) are the main executor in liver fibrosis, and the autophagy plays a key role in the proliferation and differentiation of aHSCs, which promotes the development of liver fibrosis. However, autophagy has the opposite effect on the different kinds of liver cells in the development of liver fibrosis, and the clinical treatment has been limited by the poor selectivity and inefficient drug delivery to aHSCs. Therefore, in this study, a liposome (Lip) and exosome (Exo) two-membrane hybrid nanobiomimetic delivery system HCQ@VA-Lip-Exo was designed, which was modified by vitamin A (VA) to target the aHSCs and carried the autophagy inhibitor hydroxychloroquine (HCQ). The experimental results &lt;i&gt;in vitro&lt;/i&gt; and &lt;i&gt;in vivo&lt;/i&gt; revealed that the constructed aHSC-targeted hybrid delivery system HCQ@VA-Lip-Exo combined with the benefits of HCQ and exosomes derived from bone marrow mesenchymal stem cells. HCQ@VA-Lip-Exo had good aHSC-targeted delivery ability, effective autophagy inhibition, and synergistical anti-liver fibrosis performance, thus reducing the production and deposition of the extracellular matrix to inhibit the liver fibrosis. This combined strategy provided a potential idea for the construction and clinical application of a two-membrane hybrid delivery system as an effective targeted therapy of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>31452434</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Effects of hepatocyte growth factor gene-transfected mesenchymal stem cells on dimethylnitrosamine-induced liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Nowadays, transplantation of human mesenchymal stem cells (MSCs) has emerged as a potential cellular therapy for liver cirrhosis. Hepatocyte growth factor (HGF) plays an important role in the regeneration of the liver. The objective of the study was to investigate the therapeutic effect of HGF-transfected human umbilical cord blood-derived MSCs on dimethylnitrosamine (DMN)-induced liver fibrosis in rats. HGF-transfected MSCs were transplanted into rats with DMN-induced liver fibrosis. H&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;-induced cytotoxicity, apoptosis and intracellular reactive oxygen species were reduced in HGF-transfected MSCs in HGF-transfected MSCs. Pro-apoptotic proteins, such as cleaved poly (ADP-ribose) polymerase and cleaved caspase-3, were decreased in HGF-transfected MSCs. Biochemical analysis showed that the levels of aspartate aminotransferase and alanine aminotransferase were decreased after transplantation of HGF-transfected MSCs in rat fibrosis. Trichrome staining showed that HGF-transfected MSCs reduced liver damage. Taken together, our study indicated that HGF-transfected MSCs have therapeutic effects on DMN-induced liver fibrosis in rats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>34859376</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Comparative Evaluation of Anti-Fibrotic Effect of Tissue Specific Mesenchymal Stem Cells Derived Extracellular Vesicles for the Amelioration of CCl4 Induced Chronic Liver Injury.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cells (MSCs) derived Extracellular Vesicles (EVs) have emerged as an effective candidate for amelioration of liver fibrosis. However, the effect and the mechanisms of MSC-EVs in liver repair remains elusive. In this study, we have evaluated the differential regenerative efficacy of EVs derived from two different human tissue-specific MSCs (Adipose tissue; AD-MSC and Wharton's Jelly; WJ-MSC), in a murine model of chronic liver fibrosis. Mouse model of chronic liver injury was induced by carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) injection, followed by administration of EVs via the tail vein. Both quantitative and qualitative assessment was done to evaluate the hepatic regenerative potential of tissue specific MSC-extracellular vesicles. EVs, regardless of their MSC source, were found to be effective in alleviating chronic liver fibrosis, as demonstrated by macroscopic alterations in the liver. According to the findings of the comprehensive study, there were subtle variations in the tissue specific MSCs-EVs mediated approaches. A greater anti-fibrotic impact was demonstrated by AD-MSC derived EVs through extracellular matrix alteration and hepatocyte proliferation. WJ-MSC EVs, on the other hand, have an anti-inflammatory effect, as evidenced by alterations in the expression of pro- and anti-inflammatory cytokines. Furthermore, cargo profiling of these EVs revealed differences in the miRNA and protein expression, as well as the pathways that they were associated. Comparative overview of regression of fibrosis using tissue specific MSC derived EVs (credits BioRender.com ).</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>28494546</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[Regulatory effect of bone marrow mesenchymal stem cells on polarization of macrophages].</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Objective:&lt;/b&gt; To examine the regulatory effect of bone marrow mesenchymal stem cells (BM-MSCs) on the polarization of bone marrow-derived macrophages, and to provide a theoretical support for the application of mesenchymal stem cells in the treatment of liver fibrosis. &lt;b&gt;Methods:&lt;/b&gt; MSCs and macrophages were first isolated from the bone marrow of mice. Macrophages were polarized to M1 macrophages with lipopolysaccharide (LPS) and interferon-γ (IFN-γ), and to M2 macrophages with interleukin-4 (IL-4). The macrophages were then co-cultured with BM-MSCs in a Transwell for 24 h, and changes in the percentages of M1 and M2 macrophages were examined using flow cytometry. The mRNA levels of the M1 macrophage-associated cytokines, tumor necrosis factor-α (TNF-α) and interleukin-23a (IL-23a), and M2 macrophage-associated molecules, arginase-1 (Arg-1) and CD163, were measured by real-time quantitative PCR. The two samples were compared using the t test, and &lt;i&gt;P&lt;/i&gt; &lt; 0.05 was considered as statistically significant. &lt;b&gt;Results:&lt;/b&gt; Flow cytometry showed that the percentage of M1 macrophages was significantly lower in the (macrophage + LPS + IFN-γ + BM-MSC) co-culture group than in the (macrophage + LPS + IFN-γ) group (62.5% ± 4.6% vs 86.6% ± 6.9%, &lt;i&gt;t&lt;/i&gt; = 5.034, &lt;i&gt;P&lt;/i&gt; = 0.0073). In addition, the relative mRNA expression of TNF-α and IL-23a was also significantly reduced in the co-culture group compared with those in the macrophage control group as measured by RT-qPCR (&lt;i&gt;t&lt;/i&gt; = 11.57 and 10.57, respectively, &lt;i&gt;P&lt;/i&gt; &lt; 0.05). Compared with that in the macrophage control group, the percentage of M2 macrophages in the (macrophage+BM-MSC) co-culture group was significantly increased (89.5% ± 5.8% vs 70.1% ± 6.3%, &lt;i&gt;t&lt;/i&gt; = 3.924, &lt;i&gt;P&lt;/i&gt; = 0.0172), along with significantly elevated relative mRNA expression of Arg1 (14.35±1.05 vs 1.00±0.03, &lt;i&gt;t&lt;/i&gt; = 21.96, &lt;i&gt;P&lt;/i&gt; &lt; 0.05) and CD163 (3.04 ± 0.27 vs 1.00 ± 0.03, &lt;i&gt;t&lt;/i&gt; = 13.14, &lt;i&gt;P&lt;/i&gt; &lt; 0.05). &lt;b&gt;Conclusion:&lt;/b&gt; BM-MSCs can inhibit LPS + IFN-γ-induced polarization to M1 macrophages and promote polarization to M2 macrophages through the release of paracrine factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>35831878</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Human skin dermis-derived fibroblasts are a kind of functional mesenchymal stromal cells: judgements from surface markers, biological characteristics, to therapeutic efficacy.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Human mesenchymal stromal cells (MSCs) have been widely advocated to clinical use. Human skin dermis-derived fibroblasts shared similar cellular morphology and biological characteristics to MSCs, while it still keeps elusive whether fibroblasts are functionally equivalent to MSCs for therapeutic use. We isolated various fibroblasts derived from human foreskins (HFFs) and human double-fold eyelids (HDF) and MSCs derived from human umbilical cords (UC-MSCs), and then comprehensively investigated their similarities and differences in morphology, surface markers, immunoregulation, multilineage differentiation, transcriptome sequencing, and metabolomics, and therapeutic efficacies in treating 2,4,6-Trinitrobenzenesulfonic acid (TNBS) induced colitis and carbontetrachloride (CCL&lt;sub&gt;4&lt;/sub&gt;) induced liver fibrosis. Fibroblasts and UC-MSCs shared similar surface markers, strong multilineage differentiation capacity, ability of inhibiting Th1/Th17 differentiation and promoting Treg differentiation in vitro, great similarities in mRNA expression profile and metabolites, and nearly equivalent therapeutic efficacy on TNBS-induced colitis and CCL&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis. Human skin dermis-derived fibroblasts were a kind of functional MSCs with functionally equivalent therapeutic efficacy in treating specific complications, indicating fibroblasts potentially had the same lineage hierarchy of origin as MSCs and had a remarkable potential as an alternative to MSCs in the treatment of a variety of diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>37133409</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Relationship Between Platelets and the Clinical Efficacy of Umbilical Cord Mesenchymal Stem Cells for HBV-Related Acute-on-Chronic Liver Failure and Liver Cirrhosis: A Preliminary Clinical Study.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Previous studies have found that the production of platelets could enhance the therapeutic effects of stem cells. Nevertheless, there are still no articles reporting on the relationship between platelets and the clinical efficacy of umbilical cord mesenchymal stem cells (UCMSCs) for HBV-related acute-on-chronic liver failure (ACLF) and liver cirrhosis (LC). In this retrospective observational study, patients who met the criteria were included. Patients were divided into subgroups according to the aims of this study. In the first part, the platelet count changes of ACLF and patients with LC after UCMSC therapy were compared and analyzed. Subgroup analysis based on UCMSC infusion times and patient age was also performed. In the second part, patients in the ACLF group and LC group were further divided into subgroups according to their platelet levels. Their clinical characteristics, demographics, and biochemical factors were compared. This study enrolled 64 patients with ACLF and 59 patients with LC. In both groups, platelet levels declined similarly. Compared with the short-course UCMSC treatment group (≤4 times), patients with ACLF and patients with LC with long-course UCMSC treatment (&gt;4 times) showed an overall increasing trend. Younger patients with LC (&lt;45 years) had significantly higher platelet levels than older patients with LC (≥45 years). However, this age difference was not present in the ACLF group. The median TBIL decrease and cumulative TBIL decrease were not significantly different between patients with high PLT and patients with low PLT after UCMSC transfusions. For patients with ACLF, the cumulative TBIL decrease and the median TBIL decrease were significantly greater than those of patients with LC at the same platelet level after UCMSC treatment. However, this difference was not observed at all time points. Trend of the platelet levels for HBV-related patients with ACLF and LC after UCMSC treatment did not parallel and varied according to treatment times and patients' age. Platelet levels did not affect the efficacy of MSCs for patients with ACLF or LC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>30402110</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Conditioned Medium from Human Amnion-Derived Mesenchymal Stem Cells Regulates Activation of Primary Hepatic Stellate Cells.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs), or multipotent mesenchymal stromal cells, are present in almost all organs and tissues, including the amnion. Human amnion-derived mesenchymal stem cell (hAMSC) transplantation has been reported to ameliorate liver fibrosis in animal models. However, the mechanism for the prevention of liver fibrosis is poorly understood. In this study, we investigated the effects, and underlying mechanisms, of a conditioned medium obtained from hAMSC cultures (hAMSC-CM) on a primary culture of rat hepatic stellate cells (HSCs). We observed that in routine culture, hAMSC-CM in HSCs significantly inhibited the expression of alpha-smooth muscle actin (α-SMA), an activation marker of HSCs, and the production of collagen type 1 (COL1), a dominant component of the extracellular matrix (ECM) in the culture medium. In addition, hAMSC-CM upregulated the expression of ECM degradation-related genes, such as metalloproteinase- (&lt;i&gt;Mmp&lt;/i&gt;-) 2, &lt;i&gt;Mmp&lt;/i&gt;-9, &lt;i&gt;Mmp&lt;/i&gt;-13, and tissue inhibitor of metalloproteinase- (&lt;i&gt;Timp&lt;/i&gt;-) 1; however, it did not affect the expression of collagen type 1α1 (&lt;i&gt;Col1a1&lt;/i&gt;). These regulatory effects on HSCs were concentration-dependent. A cell proliferation assay indicated that hAMSC-CM significantly suppressed HSC proliferation and downregulated the expression of cyclin B (&lt;i&gt;Ccnb&lt;/i&gt;), a proliferation-related gene. Transforming growth factor-beta (TGF-β) treatment further activated HSCs and hAMSC-CM significantly inhibited the upregulation of &lt;i&gt;α-Sma&lt;/i&gt; and &lt;i&gt;Col1a1&lt;/i&gt; induced by TGF-β. These findings demonstrated that hAMSC-CM can modulate HSC function via secretory factors and provide a plausible explanation for the protective role of hAMSCs in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>34174353</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Vitamin A-coupled stem cell-derived extracellular vesicles regulate the fibrotic cascade by targeting activated hepatic stellate cells in vivo.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Allogeneic transplantation of mesenchymal stem cell-derived extracellular vesicles (EVs) offers great potential for treating liver fibrosis. However, owing to their intrinsic surface characteristics, bare EVs are non-specifically distributed in the liver tissue after systemic administration, leading to limited therapeutic efficacy. To target activated hepatic stellate cells (HSCs), which are responsible for hepatic fibrogenesis, vitamin A-coupled small EVs (V-EVs) were prepared by incorporating vitamin A derivative into the membrane of bare EVs. No significant differences were found in the particle size and morphology between bare and V-EVs. In addition, surface engineering of EVs did not affect the expression of surface marker proteins (e.g., CD63 and CD9), as demonstrated by flow cytometry. Owing to the surface incorporation of vitamin A, V-EVs were selectively taken up by activated HSCs via receptor-mediated endocytosis. When systemically administered to mice with liver fibrosis, V-EVs effectively targeted activated HSCs in the liver tissue, resulting in reversal of the fibrotic cascade. Consequently, even at a 10-fold lower dose, V-EVs exhibited comparable anti-fibrotic effects to those of bare EVs, substantiating their therapeutic potential for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>24488807</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Mesodermal mesenchymal cells give rise to myofibroblasts, but not epithelial cells, in mouse liver injury.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Hepatic stellate cells (HSCs) and portal fibroblasts (PFs) are believed to be the major source of myofibroblasts that participate in fibrogenesis by way of synthesis of proinflammatory cytokines and extracellular matrices. Previous lineage tracing studies using MesP1(Cre) and Rosa26lacZ(flox) mice demonstrated that MesP1+ mesoderm gives rise to mesothelial cells (MCs), which differentiate into HSCs and PFs during liver development. In contrast, several in vivo and in vitro studies reported that HSCs can differentiate into other cell types, including hepatocytes, cholangiocytes, and progenitor cell types known as oval cells, thereby acting as stem cells in the liver. To test whether HSCs give rise to epithelial cells in adult liver, we determined the hepatic lineages of HSCs and PFs using MesP1(Cre) and Rosa26mTmG(flox) mice. Genetic cell lineage tracing revealed that the MesP1+ mesoderm gives rise to MCs, HSCs, and PFs, but not to hepatocytes or cholangiocytes, in the adult liver. Upon carbon tetrachloride injection or bile duct ligation surgery-mediated liver injury, mesodermal mesenchymal cells, including HSCs and PFs, differentiate into myofibroblasts but not into hepatocytes or cholangiocytes. Furthermore, differentiation of the mesodermal mesenchymal cells into oval cells was not observed. These results indicate that HSCs are not sufficiently multipotent to produce hepatocytes, cholangiocytes, or oval cells by way of mesenchymal-epithelial transition in vivo. Cell lineage tracing demonstrated that mesodermal mesenchymal cells including HSCs are the major source of myofibroblasts but do not differentiate into epithelial cell types such as hepatocytes, cholangiocytes, and oval cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>35315848</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;In vivo&lt;/i&gt; MRI tracking and therapeutic efficacy of transplanted mesenchymal stem cells labeled with ferrimagnetic vortex iron oxide nanorings for liver fibrosis repair.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have showed promising effects in the treatment of liver fibrosis. Long-term and noninvasive &lt;i&gt;in vivo&lt;/i&gt; tracking of transplanted MSCs is essential for understanding the therapeutic mechanism of MSCs during the therapy of liver fibrosis. In this study, we report the development of a ferrimagnetic vortex iron oxide nanoring (FVIO)-based nanotracer for the long-term visualization of transplanted human MSCs (hMSCs) by magnetic resonance imaging (MRI). The FVIOs were prepared by a hydrothermal reaction followed by hydrogen reduction. To endow the FVIOs with biocompatibility, polyethylene glycol amine (mPEG-NH&lt;sub&gt;2&lt;/sub&gt;) was covalently coupled on the surface of FVIOs, forming FVIO@PEG nanotracers with high contrast enhancement and intracellular uptake. The hMSCs labeled with FVIO@PEG nanotracers exhibited enhanced MRI contrast than those labeled with a commercial contrast agent, and could be continuously monitored by MRI in liver fibrosis mice for 28 days after transplantation, clearly clarifying the migration behavior of hMSCs &lt;i&gt;in vivo&lt;/i&gt;. Moreover, we explored the therapeutic mechanism of the FVIO@PEG labeled hMSCs in the amelioration of liver fibrosis, including the reduction in inflammation and oxidative stress, the inhibition of hepatic fibrosis-caused histopathological damage, as well as the down-regulation of the expression of relevant cytokines. The results obtained in this work may deepen our understanding of the behavior and role of hMSCs in the treatment of liver fibrosis, which is key to the clinical application of stem cells in the therapy of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>37064607</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Curcumin Nanofiber PCL/PLGA/Collagen Enhanced the Therapeutic Efficacy of Mesenchymal Stem Cells against Liver Fibrosis in Animal Model and Prevented its Recurrence.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>The aim of this study is preconditioning of hBM-MSCs using curcumin modified nanomembrane to optimize therapy of hepatic fibrosis and preventing its recurrence. &lt;b&gt;Methods:&lt;/b&gt; The nanomembrane was prepared by electrospinning technique and characterized using conventional method (cur&lt;sup&gt;-&lt;/sup&gt; nanoscaffold and cur&lt;sup&gt;+&lt;/sup&gt; nanoscaffold). Kinetic release of curcumin was also measured by spectrophotometry. MSCs were isolated from human bone marrow (hBM-MSCs) and cultured on the both nanoscaffolds. We evaluated the &lt;i&gt;in-vivo&lt;/i&gt; effect of hBM-MSCs from both nanoscaffold cultures (cur&lt;sup&gt;-&lt;/sup&gt; nanoscaffold/hMSCs and cur&lt;sup&gt;+&lt;/sup&gt; nanoscaffold/MSCs) on liver fibrosis from its effective and preventive points and we assessed the mechanisms of these effects as &lt;i&gt;in vitro&lt;/i&gt; studies as cell proliferation, its effect on hepatogenic differentiation, its effect on paracrine release of hBM-MSCs and &lt;i&gt;in-vivo&lt;/i&gt; studying the effect on cell migration, survival, engraftment, fate of transplanted cells, modifying the fibrogenic and inflammatory microenvironments. &lt;b&gt;Results:&lt;/b&gt; The results of animal model showed that single injection of preconditioning of hBM-MSCs using curcumin modified nanoscaffold ameliorate the fibrosis and prevent its recurrence until 24 weeks of therapy in contrast to improvement but not ameliorative effect of hBM-MSCs/ curcumin negative nanoscaffold which recurred progressively after 12 weeks of therapy. These effects of curcumin modified nanoscaffold were results from its highly efficacy on cell proliferation, &lt;i&gt;in-vitro&lt;/i&gt; and &lt;i&gt;in-vivo&lt;/i&gt; hepatogenic differentiation, increasing cell migration, engraftment and survival in the inflammatory microenvironment which was markedly improved by down regulation of inflammatory mediators and upregulation of anti-oxidant factors. &lt;b&gt;Conclusion:&lt;/b&gt; hBM-MSCs cultured on the prepared curcumin nanomembrane in this study is promising in regenerative therapy for ameliorating the hepatic fibrosis and to prevent its recurrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>30700543</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>HBV infection-induced liver cirrhosis development in dual-humanised mice with human bone mesenchymal stem cell transplantation.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Developing a small animal model that accurately delineates the natural history of hepatitis B virus (HBV) infection and immunopathophysiology is necessary to clarify the mechanisms of host-virus interactions and to identify intervention strategies for HBV-related liver diseases. This study aimed to develop an HBV-induced chronic hepatitis and cirrhosis mouse model through transplantation of human bone marrow mesenchymal stem cells (hBMSCs). Transplantation of hBMSCs into &lt;i&gt;Fah&lt;sup&gt;-/-&lt;/sup&gt;Rag2&lt;sup&gt;-/-&lt;/sup&gt;IL-2Rγc&lt;sup&gt;-/-&lt;/sup&gt; SCID&lt;/i&gt; (FRGS) mice with fulminant hepatic failure (FHF) induced by hamster-anti-mouse CD95 antibody JO2 generated a liver and immune cell dual-humanised (hBMSC-FRGS) mouse. The generated hBMSC-FRGS mice were subjected to assessments of sustained viremia, specific immune and inflammatory responses and liver pathophysiological injury to characterise the progression of chronic hepatitis and cirrhosis after HBV infection. The implantation of hBMSCs rescued FHF mice, as demonstrated by robust proliferation and transdifferentiation of functional human hepatocytes and multiple immune cell lineages, including B cells, T cells, natural killer cells, dendritic cells and macrophages. After HBV infection, the hBMSC-FRGS mice developed sustained viremia and specific immune and inflammatory responses and showed progression to chronic hepatitis and liver cirrhosis at a frequency of 55% after 54 weeks. This new humanised mouse model recapitulates the liver cirrhosis induced by human HBV infection, thus providing research opportunities for understanding viral immune pathophysiology and testing antiviral therapies in vivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>33855751</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Therapeutic targeting of STAT3 with small interference RNAs and antisense oligonucleotides embedded exosomes in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is a wound healing response that results in excessive extracellular matrix (ECM) accumulation in response to chronic hepatic injury. Signal transducer and activator of transcription 3 (STAT3) is an important transcription factor associated with the pathogenesis of liver fibrosis. Though a promising potential therapeutic target, there are no specific drug candidates for STAT3. Exosomes are extracellular vesicles generated by all cell types with a capacity to efficiently enter cells across different biological barriers. Here, we utilize exosomes as delivery conduit to specifically target STAT3 in liver fibrosis. Exosomes derived from clinical grade fibroblast-like mesenchymal stem cells (MSCs) were engineered to carry siRNA or antisense oligonucleotide (ASO) targeting STAT3 (iExo&lt;sup&gt;siRNA-STAT3&lt;/sup&gt; or iExo&lt;sup&gt;mASO-STAT3&lt;/sup&gt; ). Compared to scrambled siRNA control, siRNA-STAT3, or ASO-STAT3, iExo&lt;sup&gt;siRNA-STAT3&lt;/sup&gt; or iExo&lt;sup&gt;mASO-STAT3&lt;/sup&gt; showed enhanced STAT3 targeting efficiency. iExo&lt;sup&gt;siRNA-STAT3&lt;/sup&gt; or iExo&lt;sup&gt;mASO-STAT3&lt;/sup&gt; treatments suppressed STAT3 levels and ECM deposition in established liver fibrosis in mice, and significantly improved liver function. iExo&lt;sup&gt;mASO-Stat3&lt;/sup&gt; restored liver function more efficiently when compared to iExo&lt;sup&gt;siRNA-STAT3&lt;/sup&gt; . Our results identify a novel anti-fibrotic approach for direct targeting of STAT3 with exosomes with immediate translational potential.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>19684854</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Fibrogenic potential of human multipotent mesenchymal stromal cells in injured liver.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Multipotent mesenchymal stromal cells (MSC) are currently investigated clinically as cellular therapy for a variety of diseases. Differentiation of MSC toward endodermal lineages, including hepatocytes and their therapeutic effect on fibrosis has been described but remains controversial. Recent evidence attributed a fibrotic potential to MSC. As differentiation potential might be dependent of donor age, we studied MSC derived from adult and pediatric human bone marrow and their potential to differentiate into hepatocytes or myofibroblasts in vitro and in vivo. Following characterization, expanded adult and pediatric MSC were co-cultured with a human hepatoma cell line, Huh-7, in a hepatogenic differentiation medium containing Hepatocyte growth factor, Fibroblast growth factor 4 and oncostatin M. In vivo, MSC were transplanted into spleen or liver of NOD/SCID mice undergoing partial hepatectomy and retrorsine treatment. Expression of mesenchymal and hepatic markers was analyzed by RT-PCR, Western blot and immunohistochemistry. In vitro, adult and pediatric MSC expressed characteristic surface antigens of MSC. Expansion capacity of pediatric MSC was significantly higher when compared to adult MSC. In co-culture with Huh-7 cells in hepatogenic differentiation medium, albumin expression was more frequently detected in pediatric MSC (5/8 experiments) when compared to adult MSC (2/10 experiments). However, in such condition pediatric MSC expressed alpha smooth muscle more strongly than adult MSC. Stable engraftment in the liver was not achieved after intrasplenic injection of pediatric or adult MSC. After intrahepatic injection, MSC permanently remained in liver tissue, kept a mesenchymal morphology and expressed vimentin and alpha smooth muscle actin, but no hepatic markers. Further, MSC localization merges with collagen deposition in transplanted liver and no difference was observed using adult or pediatric MSC. In conclusion, when transplanted into an injured or regenerating liver, MSC differentiated into myofibroblasts with development of fibrous tissue, regardless of donor age. These results indicate that MSC in certain circumstances might be harmful due to their fibrogenic potential and this should be considered before potential use of MSC for cell therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>26157751</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Inhibition of hepatic stellate cells by bone marrow-derived mesenchymal stem cells in hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Therapies involving bone-marrow-derived mesenchymal stem cells (BM-MSCs) have considerable potential in the management of hepatic disease. BM-MSCs have been investigated in regenerative medicine due to their ability to secrete various growth factors and cytokines that regress hepatic fibrosis and enhance hepatocyte functionality. The aim of this study was to determine the antifibrosis effect of BM-MSCs on activated hepatic stellate cells (HSCs) and the mechanism underlying how BM-MSCs modulate the function of activated HSCs. We used HSCs in both direct and indirect co-culture systems with BM-MSCs to evaluate the antifibrosis effect of BM-MSCs. The cell viability and apoptosis were evaluated by a direct co-culture system of activated HSCs with BM-MSCs. The activations of both HSCs alone and HSCs with BM-MSCs in the direct co-culture system were observed by immunocytochemistry for alpha-smooth muscle actin (α-SMA). The levels of growth factors and cytokines were evaluated by an indirect co-culture system of activated HSCs with BM-MSCs. The BM-MSCs in the direct co-culture system significantly decreased the production of α-SMA and the viability of activated HSCs, whereas they induced the apoptosis of activated HSCs. The BM-MSCs in the indirect co-culture system decreased the production of transforming growth factor-β1 and interleukin (IL)-6, whereas they increased the production of hepatocyte growth factor and IL-10. These results confirmed that the juxtacrine and paracrine effects of BM-MSCs can inhibit the proliferative, fibrogenic function of activated HSCs and have the potential to reverse the fibrotic process by inhibiting the production of α-SMA and inducing the apoptosis of HSCs. These results have demonstrated that BM-MSCs may exert an antifibrosis effect by modulating the function of activated HSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>17869217</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Immunomodulation of activated hepatic stellate cells by mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (MSCs) have been reported to prevent the development of liver fibrosis in a number of pre-clinical studies. Marked changes in liver histopathology and serological markers of liver function have been observed without a clear understanding of the therapeutic mechanism by which stem cells act. We sought to determine if MSCs could modulate the activity of resident liver cells, specifically hepatic stellate cells (SCs) by paracrine mechanisms using indirect cocultures. Indirect coculture of MSCs and activated SCs led to a significant decrease in collagen deposition and proliferation, while inducing apoptosis of activated SCs. The molecular mechanisms underlying the modulation of SC activity by MSCs were examined. IL-6 secretion from activated SCs induced IL-10 secretion from MSCs, suggesting a dynamic response of MSCs to the SCs in the microenvironment. Blockade of MSC-derived IL-10 and TNF-alpha abolished the inhibitory effects of MSCs on SC proliferation and collagen synthesis. In addition, release of HGF by MSCs was responsible for the marked induction of apoptosis in SCs as determined by antibody-neutralization studies. These findings demonstrate that MSCs can modulate the function of activated SCs via paracrine mechanisms provide a plausible explanation for the protective role of MSCs in liver inflammation and fibrosis, which may also be relevant to other models of tissue fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>28544786</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MiR-122 modification enhances the therapeutic efficacy of adipose tissue-derived mesenchymal stem cells against liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) transplantation alone may be insufficient for treatment of liver fibrosis because of complicated histopathological changes in the liver. Given that miR-122 plays an essential role in liver fibrosis by negatively regulating the proliferation and transactivation of hepatic stellate cells (HSCs), this study investigated whether miR-122 modification can improve the therapeutic efficacy of adipose tissue-derived MSCs in treating liver fibrosis. MiR-122-modified AMSCs (AMSC-122) were constructed through lentivirus-mediated transfer of pre-miR-122. MiR-122-modified AMSCs expressed high level of miR-122, while they retained their phenotype and differentiation potential as naïve AMSCs. AMSC-122 more effectively suppressed the proliferation of and collagen maturation in HSCs than scramble miRNA-modified AMSCs. In addition, AMSC-derived exosomes mediated the miR-122 communication between AMSCs and HSCs, further affecting the expression levels of miR-122 target genes, such as insulin-like growth factor receptor 1 (IGF1R), Cyclin G(1) (CCNG1) and prolyl-4-hydroxylase α1 (P4HA1), which are involved in proliferation of and collagen maturation in HSCs. Moreover, miR-122 modification enhanced the therapeutic efficacy of AMSCs in the treatment of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt; )-induced liver fibrosis by suppressing the activation of HSCs and alleviating collagen deposition. Results demonstrate that miR-122 modification improves the therapeutic efficacy of AMSCs through exosome-mediated miR-122 communication; thus, miR-122 modification is a new potential strategy for treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>23809154</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Autologous bone marrow-derived mesenchymal stem cell transplantation promotes liver regeneration after portal vein embolization in cirrhotic rats.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Preexisting cirrhosis usually leads to an inadequate and delayed regeneration of the future liver remnant (FLR) after portal vein embolization (PVE). Bone marrow-derived mesenchymal stem cells (BMSC) are promising candidates for therapeutic applications in liver diseases. In this study, the efficacy of autologous BMSCs transplantation to promote FLR regeneration was investigated in a rat cirrhotic model. Autologous BMSCs were expanded and labeled with PKH26, and then were injected immediately into nonembolized lobes after PVE through portal vein in cirrhotic rat. At 7, 14, and 28 d after this, liver weight and Ki-67 labeling index were measured, and blood analysis was performed. Cirrhotic degree of FLR was assessed by hydroxyproline content assay and histopathology. Gene expressions of vascular endothelial growth factor (VEGF), hepatocyte growth factor (HGF), interleukin-10 (IL-10), and matrix metalloproteinase-9 (MMP-9) were detected with real-time reverse transcriptase-polymerase chain reaction. Distribution and hepatocyte differentiation of BMSCs in FLR were determined by confocal microscopy. Autologous BMSCs significantly increased the FLR weight ratio to the total liver and the Ki-67 labeling index, and serum albumin levels were significantly higher and total bilirubin levels were significantly lower in the BMSCs group compared with the controls without BMSCs transplantation 14 and 28 d post-PVE. BMSCs significantly decreased the hydroxyproline content and collagen accumulation, up-regulated the expressions of HGF, IL-10, VEGF, and MMP-9 28 d post-PVE, and expressed hepatocyte-specific markers, such as α-fetoprotein, cytokeratin 18, and albumin in a time-dependent manner in FLR. Autologous BMSCs can differentiate into hepatocyte and promote FLR regeneration after PVE in cirrhotic liver, which may be through improving local microenvironment by decreasing cirrhosis, up-regulating the gene expressions of VEGF, HGF, IL-10, and MMP-9.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>34343826</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Comparison of the biological and functional characteristics of mesenchymal stem cells from intrahepatic and identical bone marrow.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>In our privious work, our reseach group characterized a population of hepatic-sourced mesenchymal stem cells (MSCs) called MLpvNG2&lt;sup&gt;+&lt;/sup&gt; cells. In the present study, we compared the biological and functional characteristics of naïve MLpvNG2 cells with identical bone marrow-derived MSCs (niBM-MSCs) using in vitro (conditioned media) and in vivo (a well-set diethylnitrosamine (DEN)-induced liver fibrotic/cirrhotic murine model) procedures. The intrahepatic-sourced mesodermal MLpvNG2&lt;sup&gt;+&lt;/sup&gt; cells exhibited some biological characteristics (e.g., a set of surface markers) similar to those of extrahepatic niBM-MSCs. In responsed to signals of pathological conditions, such as singals of fibrotic/cirrhotic liver, MLpvNG2&lt;sup&gt;+&lt;/sup&gt; cells showed higher survival and favored differentiation into ALB(+) and G6Pc(+) hepatocytes, whereas niBM-MSCs predominantly differentiated into CK/KRT19(+) cholangiocytes. We identified C/EBPα/β expression as a biological characteristic differentiating these two populations of MSCs, wherein MLpvNG2&lt;sup&gt;+&lt;/sup&gt; cells are likely regulated by C/EBPβ transcriptional signaling, whereas niBM-MSCs are likely controlled by C/EBPα transcriptional signaling. Notably, although C/EBPα and C/EBPβ transcriptional signaling regulate hepatocyte and cholangiocyte fate, respectively, the expression of these proteins in MLpvNG2&lt;sup&gt;+&lt;/sup&gt; cells is, to our knowledge, reported for the first time in the present study. We used anti-C/EBP neutralizing antibodies (Abs) both in vitro and in vivo to determine the functional characteristics of these proteins. We conclude that the biological characteristics of these two populations of MSCs depend on their differential C/EBPα/β expression patterns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>31508820</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Autophagy inhibition via Becn1 downregulation improves the mesenchymal stem cells antifibrotic potential in experimental liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Liver fibrosis (LF) is the result of a vicious cycle between inflammation-induced chronic hepatocyte injury and persistent activation of hepatic stellate cells (HSCs). Mesenchymal stem cell (MSC)-based therapy may represent a potential remedy for treatment of LF. However, the fate of transplanted MSCs in LF remains largely unknown. In the present study, the fate and antifibrotic effect of MSCs were explored in a LF model induced by CCl&lt;sub&gt;4&lt;/sub&gt; in mouse. Additionally, MSCs were stimulated in vitro with LF-associated factors, tumor necrosis factor-α (TNF-α), interferon-γ (IFN-γ), and transforming growth factor-β1 (TGF-β1), to mimic the LF microenvironment. We unveiled that MSCs exhibited autophagy in response to the LF microenvironment through Becn1 upregulation both in vivo and in vitro. However, autophagy suppression induced by Becn1 knockdown in MSCs resulted in enhanced antifibrotic effects on LF. The improved antifibrotic potential of MSCs may be attributable to their inhibitory effects on T lymphocyte infiltration, HSCs proliferation, as well as production of TNF-α, IFN-γ, and TGF-β1, which may be partially mediated by elevated paracrine secretion of PTGS2/PGE&lt;sub&gt;2&lt;/sub&gt; . Thus, autophagy manipulation in MSCs may be a novel strategy to promote their antifibrotic efficacy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>17543295</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of bone marrow-derived mesenchymal stem cells on experimental liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>To study the effect of mesenchymal stem cells (MSC) on experimental liver fibrosis in rats. MSC were derived from bone marrow obtained from femoral and tibial bones of male albino rats. MSC were separated, grown, and propagated in culture for 4 weeks and were characterized morphologically and by detection of CD29 by RT-PCR. They were then infused into the tail vein of female rats that received CCl4 injection to induce liver fibrosis. Rats were divided into 4 groups: control, CCl4, CCl4 plus MSC, and MSC. Liver tissue was examined histopathologically and liver functions (ALT and serum albumin) were estimated for all groups. Y-chromosome gene (sry) was assessed by PCR in liver tissue of the female rats to confirm uptake of the male stem cells. Hydroxyproline content in liver tissue was assessed by chemical methods and expression of the collagen gene (type I) was detected as a marker for liver fibrosis. Results of the present study showed that MSC have a significant antifibrotic effect as evidenced by the significant decrease in liver collagen gene expression as well as the decrease in hydroxyproline content in the CCl4/MSC group (p&lt;0.001) compared to the CCl4 group. The Y-chromosome gene (sry) was detected by RT-PCR in the CCl4/MSC group, but was not detected in control group and other groups. The CD29 gene was expressed in MSC culture, and this confirmed the efficiency of isolation and propagation of MSC in culture. With regard to liver function, there was also a significant improvement and elevation of serum albumin in the CCl4/MSC group compared to the CCl4 group (p&lt;0.05). As regard to the liver enzyme ALT, there was a decrease of its level in the CCl4/MSC group compared to the CCl4 group. However, this was statistically nonsignificant (p&gt;0.05). In conclusion, MSC have a potential therapeutic effect against the fibrotic process through their effect in minimizing collagen deposition in addition to their capacity to differentiate into hepatocytes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>27981544</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Human umbilical cord mesenchymal stem cells ameliorate experimental cirrhosis through activation of keratinocyte growth factor by suppressing microRNA-199.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Keratinocyte growth factor (KGF) has a demonstrated role in the prevention of cirrhosis during liver regeneration. Previous studies have shown that transplantation of human umbilical cord mesenchymal stem cells (HUCMSCs) reduces the development of cirrhosis after liver injury. However, whether KGF may be involved in the underlying molecular mechanisms remains unknown. Here we addressed this question. We did HUCMSC transplantation in mice that had developed cirrhosis by carbon tetrachloride (CCl4). The effects of UCMSC transplantation on KGF levels and liver damage were examined. The level of a KGF-targeting microRNA, miR-199, was examined. The regulation of KGF by miR-199 was studied by bioinformatics analyses and luciferase reporter assay. HUCMSC transplantation significantly ameliorated the severity of liver fibrosis, reduced portal hypertension and sodium retention that were induced by CCl4. HUCMSC transplantation significantly increased the levels of KGF in the injured liver, seemingly through suppression of miR-199, which targeted 3'-UTR of KGF mRNA to inhibit its protein translation. HUCMSCs may ameliorate cirrhosis through activation of KGF by suppressing miR-199.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>28115038</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Identification of MFGE8 in mesenchymal stem cell secretome as an anti-fibrotic factor in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>The beneficial paracrine roles of mesenchymal stem cells (MSCs) in tissue repair have potential in therapeutic strategies against various diseases. However, the key therapeutic factors secreted from MSCs and their exact molecular mechanisms of action remain unclear. In this study, the cell-free secretome of umbilical cord-derived MSCs showed significant anti-fibrotic activity in the mouse models of liver fibrosis. The involved action mechanism was the regulation of hepatic stellate cell activation by direct inhibition of the TGFβ/Smad-signaling. Antagonizing the milk fat globule-EGF factor 8 (MFGE8) activity blocked the anti-fibrotic effects of the MSC secretome in vitro and in vivo. Moreover, MFGE8 was secreted by MSCs from the umbilical cord as well as other tissues, including teeth and bone marrow. Administration of recombinant MFGE8 protein alone had a significant anti-fibrotic effect in two different models of liver fibrosis. Additionally, MFGE8 downregulated TGFβ type I receptor expression by binding to αvβ3 integrin on HSCs. These findings revealed the potential role of MFGE8 in modulating TGFβ-signaling. Thus, MFGE8 could serve as a novel therapeutic agent for liver fibrosis. [BMB Reports 2017; 50(2): 58-59].</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>33078915</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Anti-fibrotic effect of intravenous umbilical cord-derived mesenchymal stem cells (UC-MSCs) injection in experimental rats induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Aim To investigate the effect of umbilical cord-derived mesenchymal stem cells (UC-MSCs) administration among liver fibrosis experimental rat model via the regulation of angiotensin II type 1 receptor (AT1R) and platelet-derived growth factor-β (PDGF-β) due to their therapeutic potential to replace liver transplantation for advanced liver fibrosis. Yet the mechanism of action has been questionably associated with UC-MSCs fibrosis regression properties. Methods Sprague-Dawley (SD) rats (n=18) were separated into three groups (control, untreated liver fibrosis, and UC-MSCs treated group). Serum PDGF-β level was determined by enzymelinked immunosorbent assay (ELISA) following 14 days of UCMSCs injection. Meanwhile, AT1R expression was interpreted based on immunoreactive score (IRS) stained using polyclonal antibody and liver fibrosis stained with hematoxylin &amp; eosin was graded using the METAVIR score. Results UC-MSCs were isolated successfully from rat umbilical cord. Liver fibrosis was observed following 14 weeks of CCl4 injection concurrent with higher serum level of PDGF-β, but the UC-MSCs-treated group had lower level (980.08 ±289.41 and 606.42±109.85 for untreated liver fibrosis and UC-MSCs treated group, respectively; p=0.004). There was also a high expression of AT1R among untreated liver fibrosis group, as well as highgrade liver fibrosis versus localized fibrosis and low level of AT1R expression among UC-MSCs treated-group (p=0.001). Conclusion UC-MSCs administration could ameliorate liver fibrosis by reducing the AT1R expression and PDGF-β serum levels, and intervention through this signaling pathway could be alternative evidence for the causative of positive outcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>27876093</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Involvement of hepatic macrophages in the antifibrotic effect of IGF-I-overexpressing mesenchymal stromal cells.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a major health problem worldwide and new therapies are needed. Hepatic macrophages (hMø) have a pivotal role in liver fibrosis, being able to act in both its promotion and its resolution. It is well-known that mesenchymal stromal cells (MSCs) can modulate the immune/inflammatory cells. However, the effects of MSCs over hMø in the context of liver fibrosis remain unclear. We previously described evidence of the antifibrotic effects of in vivo applying MSCs, which were enhanced by forced overexpression of insulin-like growth factor 1 (AdIGF-I-MSCs). The aim of this work was to analyze the effect of MSCs on hMø behavior in the context of liver fibrosis resolution. Fibrosis was induced in BALB/c mice by chronic administration of thioacetamide (8 weeks). In vivo gene expression analyses, in vitro experiments using hMø isolated from the nonparenchymal liver cells fraction, and in vivo experiments with depletion of Mø were performed. One day after treatment, hMø from fibrotic livers of MSCs-treated animals showed reduced pro-inflammatory and pro-fibrogenic gene expression profiles. These shifts were more pronounced in AdIGF-I-MSCs condition. This group showed a significant upregulation in the expression of arginase-1 and a higher downregulation of iNOS expression thus suggesting decreased levels of oxidative stress. An upregulation in IGF-I and HGF expression was observed in hMø from AdIGF-I-MSCs-treated mice suggesting a restorative phenotype in these cells. Factors secreted by hMø, preconditioned with MSCs supernatant, caused a reduction in the expression levels of hepatic stellate cells pro-fibrogenic and activation markers. Interestingly, hMø depletion abrogated the therapeutic effect achieved with AdIGF-I-MSCs therapy. Expression profile analyses for cell cycle markers were performed on fibrotic livers after treatment with AdIGF-I-MSCs and showed a significant regulation in genes related to DNA synthesis and repair quality control, cell cycle progression, and DNA damage/cellular stress compatible with early induction of pro-regenerative and hepatoprotective mechanisms. Moreover, depletion of hMø abrogated such effects on the expression of the most highly regulated genes. Our results indicate that AdIGF-I-MSCs are able to induce a pro-fibrotic to resolutive phenotype shift on hepatic macrophages, which is a key early event driving liver fibrosis amelioration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>29130552</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Resveratrol pretreatment enhanced homing of SDF-1α-preconditioned bone marrow-derived mesenchymal stem cells in a rat model of liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Stromal cell-derived factor-1α (SDF-1α) has been known to implicate in homing of MSCs, and resveratrol has been reported to have a positive influence on SDF-1 level in the site of injury. In this study, a combined strategy was applied to evaluate bone marrow-derived MSCs (BMSCs) homing to the rat model of liver cirrhosis induced by common bile duct ligation (CBDL): (1) pretreatment delivery of resveratrol into the cirrhotic liver, and (2) transplantation of ex vivo BMSC preconditioning with SDF-1α. BMSCs were preconditioned with 10 ng/µL SDF-1α for 1 h and then labeled with the CM-Dil. Cirrhosis was induced by CBDL. Animals received intraperitoneal injection of resveratrol for 7 days, started on day 28 of CBDL post-operative. On day 36 post-operative, 1 × 10&lt;sup&gt;6&lt;/sup&gt; of SDF-1α-preconditioned BMSCs was injected via caudal vein. Animals were sacrificed at 72 h post-cell transplantation. Immunofluorescence and flow cytometry assessments showed that the BMSC+SDF+RV group had an increased rate of homing into the liver, but it had a decreased rate of homing into the lung and spleen, as compared with the other groups (P &lt; 0.05). The BMSC+SDF+RV group showed high protein expression of SIRT1, but low protein expression of p53 in the liver (P &lt; 0.05 vs other groups). CXCR4 and matrix metalloproteinase (MMP)-9 highly expressed in SDF-1α-preconditioned BMSCs in vitro, and that AKTs and CXCL12 expressed in injured liver undergoing resveratrol injection. Our findings suggest that reseveratrol pretreatment prior to SDF-1α preconditioning could be a promising strategy for designing cell-based therapies for liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>34158112</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Individual heterogeneity screened umbilical cord-derived mesenchymal stromal cells with high Treg promotion demonstrate improved recovery of mouse liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>To investigate the heterogeneities of human umbilical cord mesenchymal stromal cells (HUCMSCs) derived from different donors and their therapeutic variations when applied to mouse liver fibrosis model. The characteristics of HUCMSCs derived from multiple donors were comprehensively analyzed including expressions of surface markers, viability, growth curve, karyotype analysis, tumorigenicity, differentiation potentials, and immune regulation capability. Then, the HUCMSCs with distinct immunomodulatory effects were applied to treat mouse liver fibrosis and their therapeutic effects were observed. The HUCMSCs derived from multiple donors kept a high consistency in surface marker expressions, viability, growth curve, and tumorigenicity in nude mice but had robust heterogeneities in differentiation potentials and immune regulations. In addition, three HUCMSC lines applied to mice liver fibrosis model had different therapeutic outcomes, in line with individual immune regulation capability. The HUCMSCs derived from different donors have individual heterogeneity, which potentially lead to distinct therapeutic outcomes in mouse liver fibrosis, indicating we could make use of the donor-variation of MSCs to screen out guaranteed general indicators of MSCs for specific diseases in further stromal cell therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>31768225</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ameliorating liver fibrosis in an animal model using the secretome released from miR-122-transfected adipose-derived stem cells.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Recently, the exclusive use of mesenchymal stem cell (MSC)-secreted molecules, called secretome, rather than cells, has been evaluated for overcoming the limitations of cell-based therapy, while maintaining its advantages. However, the use of naïve secretome may not fully satisfy the specificity of each disease. Therefore, it appears to be more advantageous to use the functionally reinforced secretome through a series of processes involving physico-chemical adjustments or genetic manipulation rather than to the use naïve secretome. To determine the therapeutic potential of the secretome released from miR-122-transfected adipose-derived stromal cells (ASCs). We collected secretory materials released from ASCs that had been transfected with antifibrotic miR-122 (MCM) and compared their antifibrotic effects with those of the naïve secretome (CM). MCM and CM were intravenously administered to the mouse model of thioacetamide-induced liver fibrosis, and their therapeutic potentials were compared. MCM infusion provided higher therapeutic potential in terms of: (A) Reducing collagen content in the liver; (B) Inhibiting proinflammatory cytokines; and (C) Reducing abnormally elevated liver enzymes than the infusion of the naïve secretome. The proteomic analysis of MCM also indicated that the contents of antifibrotic proteins were significantly elevated compared to those in the naïve secretome. We could, thus, conclude that the secretome released from miR-122-transfected ASCs has higher antifibrotic and anti-inflammatory properties than the naïve secretome. Because miR-122 transfection into ASCs provides a specific way of potentiating the antifibrotic properties of ASC secretome, it could be considered as an enhanced method for reinforcing secretome effectiveness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>32546282</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Antioxidant preconditioning improves therapeutic outcomes of adipose tissue-derived mesenchymal stem cells through enhancing intrahepatic engraftment efficiency in a mouse liver fibrosis model.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Although it has been preclinically suggested that adipose tissue-derived mesenchymal stem cell (ADSC)-based therapy could effectively treat chronic liver diseases, the hepatic engraftment of ADSCs is still extremely low, which severely limits their long-term efficacy for chronic liver diseases. This study was designed to investigate the impact of antioxidant preconditioning on hepatic engraftment efficiency and therapeutic outcomes of ADSC transplantation in liver fibrotic mice. Liver fibrosis model was established by using intraperitoneal injection of carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) in the male C57BL/6 mice. Subsequently, the ADSCs with or without antioxidant pretreatment (including melatonin and reduced glutathione (GSH)) were administrated into fibrotic mice via tail vein injection. Afterwards, the ADSC transplantation efficiency was analyzed by ex vivo imaging, and the liver functions were assessed by biochemical analysis and histopathological examination, respectively. Additionally, a typical hydrogen peroxide (H&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt;)-induced cell injury model was applied to mimic the cell oxidative injury to further investigate the protective effects of antioxidant preconditioning on cell migration, proliferation, and apoptosis of ADSCs. Our data showed that antioxidant preconditioning could enhance the therapeutic effects of ADSCs on liver function recovery by reducing the level of AST, ALT, and TBIL, as well as the content of hepatic hydroxyproline and fibrotic area in liver tissues. Particularly, we also found that antioxidant preconditioning could enhance hepatic engraftment efficiency of ADSCs in liver fibrosis model through inhibiting oxidative injury. Antioxidant preconditioning could effectively improve therapeutic effects of ADSC transplantation for liver fibrosis through enhancing intrahepatic engraftment efficiency by reducing oxidative injuries. These findings might provide a practical strategy for enhancing ADSC transplantation and therapeutic efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>33855079</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>The Potential Safe Antifibrotic Effect of Stem Cell Conditioned Medium and Nilotinib Combined Therapy by Selective Elimination of Rat Activated HSCs.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is a progressive disease with serious clinical complications that arise from abnormal propagation and activation of multiple inflammatory pathways. Nilotinib is an oral tyrosine kinase inhibitor with antifibrotic activity. Mesenchymal stem cells (MSCs) are blank cells and can differentiate into specific cell types. They have the potential to repair and regenerate cells. MSCs have a special paracrine fashion where they produce special exosomes, microvesicles, and cytokines like IL-6, transforming growth factor-beta (TGF-&lt;i&gt;β&lt;/i&gt;), and HGF as well as hepatic stellate cell suppressors. This paracrine fashion can decrease collagen deposition, enhance antifibrotic, anti-inflammatory, and angiogenic activity in vitro and in vivo. In our study, the rat's hepatic stellate cells (HSCs) in addition to different normal cell lines were treated with Nilotinib alone and in combination with liver mesenchymal stem cells conditioned medium (LMSCs-CM) for 24 h. Mono and combined therapy antifibrotic and cytotoxicity effects were evaluated using different parameters including &lt;i&gt;α&lt;/i&gt;-SMA, cytochrome c, P53 expression, collagen deposition, DNA content, oxidative stress parameters, cell viability, and apoptosis by flow cytometry analysis. Our results showed that Nilotinib and LMSCs-CM in combination had a significantly potent antifibrotic and anti-inflammatory effect on activated hepatic stellate cells than Nilotinib alone; otherwise, this combination showed the best safety with minimal cytotoxicity on different normal cell lines.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>24835895</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Allogeneic bone marrow mesenchymal stem cell transplantation in patients with UDCA-resistant primary biliary cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>The objective of this study was to evaluate the safety and efficacy of allogeneic bone marrow mesenchymal stromal/stem cell transplantation (BM-MSCT) for patients with ursodeoxycholic acid (UDCA)-resistant primary biliary cirrhosis (PBC). Ten patients were enrolled in this trial of BM-MSCT. All patients were permitted to concurrently continue their previous UDCA treatment. The efficacy of BM-MSCT in UDCA-resistant PBC was assessed at various time points throughout the 12-month follow up. No transplantation-related side effects were observed. The life quality of the patients was improved after BM-MSCT as demonstrated by responses to the PBC-40 questionnaire. Serum levels of ALT, AST, γ-GT, and IgM significantly decreased from baseline after BM-MSCT. In addition, the percentage of CD8+ T cells was reduced, while that of CD4+CD25+Foxp3+ T cells was increased in peripheral lymphocytic subsets. Serum levels of IL-10 were also elevated. Notably, the optimal therapeutic outcome was acquired in 3 to 6 months and could be maintained for 12 months after BM-MSCT. In conclusion, allogeneic BM-MSCT in UDCA-resistant PBC is safe and appears to be effective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>21347513</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>In vivo hepatic differentiation potential of human cord blood-derived mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Although recent studies have demonstrated the in vitro hepatic differentiation potential of mesenchymal stem cells (MSCs), the evidence supporting the in vivo engraftment of MSCs, hepatic differentiation and improvement of hepatic function is still lacking. We investigated in vivo hepatic differentiation potential and therapeutic effect of cord blood derived-MSCs (CBMSCs) transplantation in a cirrhotic rat model. CBMSCs (2 x 10(6)) were infused in Wistar rats with thioacetamide-induced chronic liver injury. Biochemical markers, liver fibrosis and engraftment of CBMSCs were assessed. Infused CBMSCs were detected in the perivascular or fibrous region of the liver and did not acquire mature hepatic phenotypes. There was no difference in biochemical markers and in the area of liver fibrosis between the experimental and placebo groups. After infusion of CBMSCs in our experimental cirrhotic rat model we did not observe an improvement of liver function and liver fibrosis. Inversely, CBMSCs could have a pro-fibrogenic potential suggesting that a cautious approach is required in future research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>19686763</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells facilitate recovery from chemically induced liver damage and decrease liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>To investigate the feasibility and mechanism of liver damage repair using human bone marrow mesenchymal stem cells (hBMMSCs), we investigated the potential for hBMMSCs in recovery from liver damage, including fibrotic liver repair, using the CCl(4)-induced model for liver damage in the rat. Rats were injected with 0.5 ml/kg CCl(4) to induce liver damage and progressive liver fibrosis. hBMMSCs labeled with GFP were injected into the rats through the portal vein. After one day of transplantation, GFP-labeled cells were found around the liver lobules, the hepatic blood vessels, and the edge of the liver lobes. Biochemical and histopathological analyses showed significantly increased recovery from liver damage in the transplanted group. In addition, transplanted hBMMSCs express matrix metalloproteinases (MMP), and liver fibrosis was significantly decreased. The degree of fibrosis reduction paralleled the number of hBMMSCs observed in liver sections. Our data suggest that hBMMSCs may facilitate recovery from chronic liver damage and may decrease liver fibrosis. Therefore, hBMMSCs are a potential option for treatment of liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>27430962</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Liver extracellular matrix promotes BM-MSCs hepatic differentiation and reversal of liver fibrosis through activation of integrin pathway.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>In cell-based therapies for liver injuries, the clinical outcomes are closely related to the surrounding microenvironment of the transplanted bone marrow mesenchymal stem cells (BM-MSCs). However, whether liver-specific ECM (L-ECM), as one of major microenvironment signals, could regulate the therapeutic effect of BM-MSCs through changing their biological characteristics is unclear. This study aimed to investigate the hepatogenicity and underlying mechanism of L-ECM as well as its potential regulative role in the MSC-based liver recovery. L-ECM was prepared by homogenization of decellularized whole porcine liver. After three-dimensional culture with or without the presence of L-ECM, BM-MSCs expressed hepatocyte-specific genes and proteins in an L-ECM concentration-dependent manner. Further analysis showed that L-ECM could activate specific types of integrins (ITGs) as well as their downstream signalling pathways. When the cell/ECM interaction was enhanced by incorporating BM-MSCs with Mn&lt;sup&gt;2&lt;/sup&gt;&lt;sup&gt;+&lt;/sup&gt; , ITGs were activated and the hepatogenic capacity of L-ECM was improved. The regeneration of rat livers from either acute or chronic fibrosis could also be accelerated after transplantation of Mn&lt;sup&gt;2&lt;/sup&gt;&lt;sup&gt;+&lt;/sup&gt; -treated BM-MSCs. L-ECM therefore promotes hepatic differentiation of BM-MSCs via the ITG pathway and plays a therapeutically beneficial role for stem cell-based liver regeneration. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>21289474</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Dimethylnitrosamine-induced liver fibrosis and recovery in NOD/SCID mice.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>There is a need for a new liver fibrosis model of immunodeficient mice to study the effects of cell therapy on liver disease because there are not many animal models available to study the effects of cell therapy. In this study, we induced liver fibrosis using dimethylnitrosamine (DMN) in NOD/SCID mice to create an animal model for liver disease. DMN (5 mg/kg, i.p.) was injected intraperitoneally for three consecutive days per week for 6 or 8 weeks, and the mice were sacrificed at weeks 0, 4 and 8 after the last DMN injection. The 6-week DMN-treated group gradually recovered from serum biochemical changes, histopathological toxic effects and lesions in the liver at weeks 4 and 8 after the last DMN injection. However, the progression of liver fibrosis and toxic levels were maintained in the 8-week DMN-treated group at week 4 after the last DMN injection. The increases in iron and extracellular matrix (collagen) in the DMN-treated group were confirmed by Prussian blue (PB) and Masson's trichrome (MT) staining, respectively. Additionally, activation of hepatic stellate cells was observed by alpha smooth muscle actin (α-SMA) immunostaining and western blot. In conclusion, treatment of NOD/SCID mice with 5 mg/kg of DMN for 8 weeks can be used to induce an appropriate animal model of disease for liver fibrosis. This model may be useful for evaluation of the efficacy and safety of cell therapies such as human mesenchymal stem cell therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>30114694</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Treatment Efficiency of Different Routes of Bone Marrow-Derived Mesenchymal Stem Cell Injection in Rat Liver Fibrosis Model.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>The most appropriate route for bone marrow-derived mesenchymal stem cell (BM-MSC) transplantation in the management of liver fibrosis remains controversial. This study investigated the therapeutic efficacy of intravenous and intrasplenic BM-MSC transplantation on carbon tetrachloride (CCl4)-induced rat liver fibrosis. Fifty rats were divided into 5 groups (n = 10 rats per group): healthy control group, CCl4 group, CCl4/ recovery group, CCl4/BM-MSC intravenous group, and CCl4/BM-MSC intrasplenic group. BM-MSCs were isolated, labeled with green fluorescent protein (GFP), and injected into fibrotic rats either intravenously or intrasplenically. Gene expression of interleukins (IL-1β and IL-6), interferon (INF)-γ, hepatic growth factor, and the hepatocyte-specific marker cytokeratin 18 was estimated by quantitative real-time reverse transcription-polymerase chain reaction. Vascular endothelial growth factor and connective tissue growth factor was detected by western blot analysis and enzyme-linked immunosorbent assay, respectively. At 2 weeks after intravenous and intrasplenic BM-MSC injections, GFP-positive cells were detected in liver tissue. Both routes achieved a similar enhancement of liver function, which was confirmed by histopathological examination. The intravenous route was more effective than the intrasplenic route in reducing gene expression levels of IL-1β, IL-6, and INF-γ. However, fibrotic changes were still observed in the recovery group. Intravenous BM-MSC injection was an efficient and appropriate route for BM-MSC transplantation for the management of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>29145157</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BMSCs-derived miR-223-containing exosomes contribute to liver protection in experimental autoimmune hepatitis.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Autoimmune hepatitis is a chronic inflammatory disease in the liver with potential to the development of liver fibrosis. Recent evidences suggest that bone marrow derived mesenchymal stem cells (BMSCs) may exert its therapeutic activity through exosomes. Moreover, miR-223 is highly expressed in BMSCs and plays an important role in autoimmune diseases. Therefore, in this study, hepatoprotective role of BMSCs and miR-223 was investigated in both mice and hepatocytes. Liver antigen S100 was used to establish autoimmune hepatitis model in mice while LPS and ATP were used to establish cell injury model in hepatocyte. Before the experiments, BMSCs were infected with pre-miR-223 and transfected with miR-223 inhibitor respectively. Exosomes from bone marrow stem cells were isolated by ultracentrifugation. Liver injury was evaluated by serum levels of ALT and AST as well as liver histology. Inflammation and cell death were examined by inflammatory cytokines and lactase dehydrogenase respectively. Both BMSCs-exo and BMSCs-exo&lt;sup&gt;miR-223(+)&lt;/sup&gt; significantly reversed either S100 or LPS/ATP induced injury in mice and hepatocytes. Meanwhile, the expressions of cytokines, NLRP3 and caspase-1 were also downregulated by BMSCs-exo and BMSCs-exo&lt;sup&gt;miR-223(+)&lt;/sup&gt; at both protein and mRNA levels in mice and hepatocytes. Moreover, BMSCs-exo&lt;sup&gt;miR-223(-)&lt;/sup&gt; reverses the effects of BMSCs-exo and BMSCs-exo&lt;sup&gt;miR-223(+)&lt;/sup&gt; in mouse AIH and in hepatocytes. In conclusion, bone marrow stem cell derived exosomes can protect liver injury in an experimental model of autoimmune hepatitis and the mechanism could be related to exosomal miR-223 regulation of NLRP3 and caspase-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>34689832</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Activation of the EGFR-PI3K-CaM pathway by PRL-1-overexpressing placenta-derived mesenchymal stem cells ameliorates liver cirrhosis via ER stress-dependent calcium.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Cholesterol accumulation and calcium depletion induce hepatic injury via the endoplasmic reticulum (ER) stress response. ER stress regulates the calcium imbalance between the ER and mitochondria. We previously reported that phosphatase of regenerating liver-1 (PRL-1)-overexpressing placenta-derived mesenchymal stem cells (PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt;) promoted liver regeneration via mitochondrial dynamics in a cirrhotic rat model. However, the role of PRL-1 in ER stress-dependent calcium is not clear. Therefore, we demonstrated that PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; improved hepatic functions by regulating ER stress and calcium channels in a rat model of bile duct ligation (BDL). Liver cirrhosis was induced in Sprague-Dawley (SD) rats using surgically induced BDL for 10 days. PD-MSCs and PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; (2 × 10&lt;sup&gt;6&lt;/sup&gt; cells) were intravenously administered to animals, and their therapeutic effects were analyzed. WB-F344 cells exposed to thapsigargin (TG) were cocultured with PD-MSCs or PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt;. ER stress markers, e.g., eukaryotic translation initiation factor 2α (eIF2α), activating transcription factor 4 (ATF4), and C/EBP homologous protein (CHOP), were increased in the nontransplantation group (NTx) compared to the control group. PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; significantly decreased ER stress markers compared to NTx and induced dynamic changes in calcium channel markers, e.g., sarco/endoplasmic reticulum Ca&lt;sup&gt;2+&lt;/sup&gt; -ATPase 2b (SERCA2b), inositol 1,4,5-trisphosphate receptor (IP3R), mitochondrial calcium uniporter (MCU), and voltage-dependent anion channel 1 (VDAC1) (*p &lt; 0.05). Cocultivation of TG-treated WB-F344 cells with PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; decreased cytosolic calmodulin (CaM) expression and cytosolic and mitochondrial Ca&lt;sup&gt;2+&lt;/sup&gt; concentrations. However, the ER Ca&lt;sup&gt;2+&lt;/sup&gt; concentration was increased compared to PD-MSCs (*p  &lt; 0.05). PRL-1 activated phosphatidylinositol-3-kinase (PI3K) signaling via epidermal growth factor receptor (EGFR), which resulted in calcium increase via CaM expression. These findings suggest that PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; improved hepatic functions via calcium changes and attenuated ER stress in a BDL-injured rat model. Therefore, these results provide useful data for the development of next-generation MSC-based stem cell therapy for regenerative medicine in chronic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>18176050</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>[Application of mesenchymal stem cells to liver regenerative medicine].</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Stem cell-based therapy has received attention as a possible alternative to organ transplantation, owing to the ability of stem cells to repopulate and differentiate at the engrafted site. We transplanted bone marrow-derived mesenchymal stem cells (BMSCs) into liver-injured rats to test the therapeutic effect. Rat bone marrow cells were cultured in the presence of hepatocyte growth factor (HGF). RT-PCR and immunocytochemical analysis indicated that the BMSCs expressed the albumin mRNA and the production of protein after cultivation with HGF for 2 weeks. The BMSCs appeared to differentiate into hepatocyte-like cells in response to the culture with HGF. After labeling with a fluorescent marker, the BMSCs were transplanted into CCl(4)-injured rats by injection through the caudal vein. The liver was excised and blood samples were collected 4 weeks later. Engraftment of the transplanted BMSCs was seen with significant fluorescence in the injured liver. Transplantation of the BMSCs into liver-injured rats restored their serum albumin level and suppressed transaminase activity and liver fibrosis. Therefore, BMSCs were shown to have a therapeutic effect on liver injury. Recently, we have been trying to use mesenchymal stem cells isolated from dental papilla of discarded human wisdom teeth. Autologous transplantation of mesenchymal stem cells from bone marrow and dental papilla could be ethically and functionally promising for stem cell-based therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>32289375</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Hedgehog Signaling Demarcates a Niche of Fibrogenic Peribiliary Mesenchymal Cells.</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>In response to tissue injury, stromal cells secrete extracellular matrix (ECM) components that remodel the tissue and lead to fibrosis. Parenchymal stellate cells are the primary contributors to fibrosis in models of hepatocellular and cholestatic injury. The liver comprises different, heterogenous compartments; stromal cells within those compartments might have unique identities and regional functions. The portal tract contains the bile duct, which is surrounded by stromal cells often called portal fibroblasts. We investigated the contributions of these cells to hepatic injury. We performed studies with Gli1:Cre&lt;sup&gt;ERT2&lt;/sup&gt;;Rosa26:lox-STOP-lox-tdTomato mice. Mice underwent bile duct ligation or were fed 3,5-diethoxycarbonyl-1,4-dihydrocollidine to induce cholestatic injury or were given carbon tetrachloride to induce liver fibrosis. Liver tissues were collected and analyzed by histology and immunofluorescence, and mesenchymal cells were isolated. We performed lineage tracing experiments to determine the fates of peribiliary mesenchymal cells (PMCs) that surround the bile duct after cholestatic and hepatocellular injury. We used cell sorting combined with RNA sequencing to isolate stellate cells and PMCs, and we identified determinants of cell identity within each population. Liver tissues were obtained from patients with primary sclerosing cholangitis, alcoholic liver disease, or nonalcoholic steatohepatitis or individuals without disease and were analyzed by quantitative reverse transcription polymerase chain reaction. Gli1 was a marker of mesenchymal cells that surround the biliary tree but not epithelial cells of the canals of Hering. Lineage-traced Gli1&lt;sup&gt;+&lt;/sup&gt; PMCs proliferated and acquired a myofibroblast phenotype after cholestatic injury; Gli1&lt;sup&gt;+&lt;/sup&gt; PMCs were found only surrounding the main duct of a portal tract but not the epithelial cells of the ductular reaction, which were instead encased by stellate cells. Compared with stellate cells, Gli1&lt;sup&gt;+&lt;/sup&gt; PMCs expressed a different subset of genes, including genes that are markers of active hedgehog signaling, Osr1 (encodes a transcription factor), and ECM-related genes. Loss of hedgehog signaling reduced expression of Osr1 and PMC-specific ECM genes. Liver tissues from patients with liver disease had increased expression of genes that define PMC identity compared with control liver tissues. In lineage-tracing studies of mice, we found that Gli1&lt;sup&gt;+&lt;/sup&gt; PMCs are a subset of stromal cells characterized by active hedgehog signaling that proliferate, acquire a myofibroblast phenotype, and surround the biliary tree in response to cholestatic injury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>22609227</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells differentiate to hepatic myofibroblasts by transforming growth factor-β1 via sphingosine kinase/sphingosine 1-phosphate (S1P)/S1P receptor axis.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Sphingosine kinase (SphK) is involved in numerous biological processes, including cell growth, proliferation, and differentiation. However, whether SphK participates in the differentiation of bone marrow-derived mesenchymal stem cells (BMSCs) to myofibroblasts has been unknown. In a carbon tetrachloride-treated mouse model, SphK1 was expressed in BMSCs in damaged liver. Furthermore, mRNA expression of both SphK1 and transforming growth factor β1 (TGF-β1) was significantly increased after liver injury, with a positive correlation between them. The SphK inhibitor SKI significantly blocked BMSC differentiation to myofibroblasts during liver injury (the proportion of BMSC-derived myofibroblasts decreased markedly, compared with no SKI treatment) and attenuated the extent of liver fibrosis. Using primary mouse BMSCs, we demonstrated that TGF-β1 induced BMSC differentiation to myofibroblasts, accompanied by the up-regulation of SphK1 and modulation of sphingosine 1-phosphate (S1P) receptor (S1PR) expression. Notably, pharmacological or siRNA-mediated inhibition of SphK1 abrogated the prodifferentiating effect of TGF-β1. Moreover, using either S1PR subtype-specific antagonists or specific siRNAs, we found that the prodifferentiating effect of TGF-β1 was mediated by S1PR(1) and S1PR(3). These data suggest that SphK1 activation by TGF-β1 leads to differentiation of BMSCs to myofibroblasts mediated by S1PR(1) and S1PR(3) up-regulation, thus providing new information on the mechanisms by which TGF-β1 gives rise to fibrosis and opening new perspectives for pharmacological treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>29362496</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>The microRNA regulatory landscape of MSC-derived exosomes: a systems view.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC)-derived exosomes mediate tissue regeneration in a variety of diseases including ischemic heart injury, liver fibrosis, and cerebrovascular disease. Despite an increasing number of studies reporting the therapeutic effects of MSC exosomes, the underlying molecular mechanisms and their miRNA complement are poorly characterized. Here we microRNA (miRNA)-profiled MSC exosomes and conducted a network analysis to identify the dominant biological processes and pathways modulated by exosomal miRNAs. At a system level, miRNA-targeted genes were enriched for (cardio)vascular and angiogenesis processes in line with observed cardiovascular regenerative effects. Targeted pathways were related to Wnt signaling, pro-fibrotic signaling via TGF-β and PDGF, proliferation, and apoptosis. When tested, MSC exosomes reduced collagen production by cardiac fibroblasts, protected cardiomyocytes from apoptosis, and increased angiogenesis in HUVECs. The intrinsic beneficial effects were further improved by virus-free enrichment of MSC exosomes with network-informed regenerative miRNAs capable of promoting angiogenesis and cardiomyocyte proliferation. The data presented here help define the miRNA landscape of MSC exosomes, establish their biological functions through network analyses at a system level, and provide a platform for modulating the overall phenotypic effects of exosomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>29264872</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapy of hepatocellular carcinoma in rats: Detection of cell homing and tumor mass by magnetic resonance imaging using iron oxide nanoparticles.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (MSCs) are reported to improve hepatic fibrosis, and may impact the signaling mechanisms leading to the induction of hepatocellular carcinoma (HCC) in animal models of liver cirrhosis. The aim of this study was to clarify and explain the therapeutic role played by MSCs in hepatic cirrhosis and HCC by tracking them using nanoparticles. Liver cirrhosis and HCC were established in rats with the use of carbon tetrachloride and diethylnitrosamine injection. Magnetic resonance imaging (MRI) was used to track nanoparticlelabeled MSCs in the intact animal following injection and to monitor the changes in the hepatic parenchyma. Labeling of MSCs with iron oxide nanoparticles did not adversely affect their viability and proliferation. MRI indicated a significant reduction in tumor mass in the labeled MSCs group compared to the control group. Histopathologic examination of the liver, following MSCs treatment, showed an apparently normal looking liver with no evidence of neoplastic cellular changes. The biochemical results support these findings. This work documents that MSCs could be labeled with nanoparticles and traced in normal and cirrhotic liver and in liver with HCC in animals using MRI. MRI monitors the homing and localization of MSCs in the liver. MSCs infusion in animal models of cirrhosis and carcinoma may prove to be useful in limiting the cirrhotic process. Also, it may have a possible therapeutic potential on the carcinogenic process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>24104560</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Improvement of liver fibrosis by infusion of cultured cells derived from human bone marrow.</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>We develop "autologous bone marrow cell infusion (ABMi) therapy" for the treatment of human decompensated liver cirrhosis and confirm the efficacy and safety of this treatment in multicenter clinical studies. With the goal of further expanding the applications of ABMi, we first cultured human bone marrow cells and then determined whether a cell fraction found to be effective in improving liver fibrosis can be amplified. Cells harvested after two passages (P2 cells) consistently contained approximately 94% mesenchymal stem cells (MSCs); conversely, the cells harvested after only medium change (P0 cells) contained many macrophages. MSCs (2.8 × 10(8)) in P2 cells were harvested from 3.8 × 10(8) bone marrow-derived mononuclear cells after 22 days. DNA-chip analysis also showed during the culturing step that bone marrow-derived cells decreased with macrophage phenotype. The infused 5 × 10(5) P2 cells significantly improved liver fibrosis in the nonobese diabetic/severe combined immunodeficient (NOD-SCID) mouse carbon tetrachloride (CCl4) liver cirrhosis model and induced the expression of matrix metalloproteinase (MMP)-9 and suppressed expressions of alpha smooth muscle actin (αSMA), tumor necrosis factor alpha (TNFα) and transforming growth factor beta (TGFβ) in the liver. Cultured human bone marrow-derived cells (P2 cells) significantly inhibited liver fibrosis. The increase of MMP-9 and suppressed activation of hepatic stellate cells (HSCs) through the regulation of humoral factors (TNFα and TGFβ) contribute to the improvement of liver fibrosis by MSCs comprising about 94% of P2 cells. MSCs in cultured human bone marrow-derived mono-nuclear cells (BM-MNCs) proliferate sufficiently in cell therapy, so we believe our cultured bone marrow-derived cell therapy can lead to expanded clinical applications and enable outpatient therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>29150810</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Liver fibrosis alleviation after co-transplantation of hematopoietic stem cells with mesenchymal stem cells in patients with thalassemia major.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>The aims of this study are to determine the replacement rate of damaged hepatocytes by donor-derived cells in sex-mismatched recipient patients with thalassemia major and to determine whether co-transplantation of mesenchymal stem cells and hematopoietic stem cells (HSCs) can alleviate liver fibrosis. Ten sex-mismatched donor-recipient pairs who received co-transplantation of HSCs with mesenchymal stem cells were included in our study. Liver biopsy was performed before transplantation. Two other liver biopsies were performed between 2 and 5 years after transplantation. The specimens were studied for the presence of donor-derived epithelial cells or hepatocytes using fluorescence in situ hybridization by X- and Y-centromeric probes and immunohistochemical staining for pancytokeratin, CD45, and a hepatocyte-specific antigen. All sex-mismatched tissue samples demonstrated donor-derived hepatocyte independent of donor gender. XY-positive epithelial cells or hepatocytes accounted for 11 to 25% of the cells in histologic sections of female recipients in the first follow-up. It rose to 47-95% in the second follow-up. Although not statistically significant, four out of ten patients showed signs of improvement in liver fibrosis. Our results showed that co-transplantation of HSC with mesenchymal stem cells increases the rate of replacement of recipient hepatocytes by donor-derived cells and may improve liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>34514810</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Effect of Hepatocyte Growth Factor-Transfected Human Umbilical Cord Mesenchymal Stem Cells on Hepatic Stellate Cells by Regulating Transforming Growth Factor-β1/Smads Signaling Pathway.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Studies have shown that human umbilical cord mesenchymal stem cells (hUCMSCs) could ameliorate liver fibrosis (LF) through inhibiting the activation of hepatic stellate cells (HSCs). However, the specific mechanisms have not been studied clearly. The purpose of this study was to explore the possible mechanism of hepatocyte growth factor (HGF)-transfected hUCMSCs in inhibiting the proliferation and activation of HSCs-T6. The upper and lower double-cell coculture system was established among HGF-hUCMSCs, LV5-NC-hUCMSCs, hUCMSCs, and HSCs-T6 in experimental groups; HSCs-T6 were cultured alone as control group. After coculturing for 1, 2, and 3 days, results showed that HGF-transfected hUCMSCs could decrease cell viability of HSCs-T6 and promote apoptosis; inhibit their activation and reduce the expression of Collagen I, Collagen III, TGF-β1, Smad2 and Smad3, which may be related to inhibiting the activation of TGF-β1/Smads signaling pathway. These findings suggested that HGF-transfected hUCMSCs may be used as an alternative and novel therapeutic approach for the treatment of LF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>31550244</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Effects of Bone Marrow-Derived Mesenchymal Stem Cells on Hypoxia and the Transforming Growth Factor beta 1 (TGFβ-1) and SMADs Pathway in a Mouse Model of Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>BACKGROUND The role of bone marrow-derived mesenchymal stem cells (BM-MSCs) in liver fibrosis remains poorly understood. This study aimed to use a mouse model of carbon tetrachloride (CCL₄)-induced liver fibrosis to investigate the effects of BM-MSCs during liver hypoxia and the involvement of the transforming growth factor beta 1 (TGF-ß1) and SMADs pathway. MATERIAL AND METHODS Thirty C57BL/6 mice were randomly divided into the control group (n=10), the model group (n=10), and the BM-MSC-treated model group (n=10). In the model group, liver fibrosis was induced by intraperitoneal injection of CCl₄. BM-MSCs were transplanted after 12 weeks of CCl₄ treatment. The serum biochemical parameters and histological changes in the liver, using histochemical stains, were investigated. The expression of collagen type I (collagen I), alpha-smooth muscle actin (alpha-SMA), TGF-ß1, SMAD3, SMAD7, hypoxia-inducible factor 1 alpha (HIF-1alpha), and vascular endothelial grow factor (VEGF) were assessed by immunohistochemistry and quantitative real-time polymerase chain (RT-qPCR) reaction. RESULTS Treatment with BM-MSCs reduced the expression of alanine aminotransferase (ALT) and aspartate aminotransferase (AST) compared with the model group, and reduced liver fibrosis determined histologically using hematoxylin and eosin (H&amp;E) and Masson's trichrome staining compared with the model group. The area of liver fibrosis decreased after BM-MSCs treatment (p&lt;0.05). Protein expression of HIF-1alpha and VEGF were decreased after BM-MSCs treatment (p&lt;0.05). Transplantation of BM-MSCs reduced the mRNA expression of TGF-ß1, collagen I, alpha-SMA, and SMAD3 (p&lt;0.05). CONCLUSIONS BM-MSC transplantation reduced CCl₄-induced murine liver fibrosis, indicating that in a hypoxic microenvironment, BM-MSCs may inhibit the TGFß-1/SMADs pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>25490388</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of human adipose tissue-derived multi-lineage progenitor cells in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is characterized by excessive accumulation of extracellular matrix. In a mouse model of liver fibrosis, systemic injection of bone marrow mesenchymal stem cells (BM-MSCs) was considered to rescue the diseased phenotype. The aim of this study was to assess the effectiveness of human adipose tissue-derived multi-lineage progenitor cells (hADMPCs) in improving liver fibrosis. hADMPCs were isolated from subcutaneous adipose tissues of healthy volunteers and expanded. Six week-old male nude mice were treated with carbon tetra-chloride (CCl4) by intraperitoneal injection twice a week for 6 weeks, followed by a tail vein injection of hADMPCs or placebo control. After 6 more weeks of CCl4 injection (12 weeks in all), nude mice with hADMPCs transplants exhibited a significant reduction in liver fibrosis, as evidenced by Sirius Red staining, compared with nude mice treated with CCl4 for 12 weeks without hADMPCs transplants. Moreover, serum glutamic pyruvate transaminase and total bilirubin levels in hADMPCs-treated nude mice were lower levels than those in placebo controls. Production of fibrinolytic enzyme MMPs from hADMPCs were examined by ELISA and compared to that from BM-MSCs. MMP-2 levels in the culture media were not significantly different, whereas those of MMP-3 and -9 of hADMPCs were higher than those by BM-MSCs. These results showed the mode of action and proof of concept of systemic injection of hADMPCs, which is a promising therapeutic intervention for the treatment of patients with liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>32357508</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Preconditioning of Adipose-Derived Mesenchymal Stem-Like Cells with Eugenol Potentiates Their Migration and Proliferation In Vitro and Therapeutic Abilities in Rat Hepatic Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have considerable therapeutic abilities in various disorders, including hepatic fibrosis. They may be affected with different culture conditions. This study investigated, on molecular basics, the effect of pretreatment with eugenol on the characteristics of adipose tissue-derived MSCs (ASCs) in vitro and the implication of eugenol preconditioning on the in vivo therapeutic abilities of ASCs against CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis in rats. The effect of eugenol on ASCs was assessed using viability, scratch migration and sphere formation assays. Expressions of genes and proteins were estimated by immunofluorescence or qRT-PCR. For the in vivo investigations, rats were divided into four groups: the normal control group, fibrotic (CCl&lt;sub&gt;4&lt;/sub&gt;) group, CCl&lt;sub&gt;4&lt;/sub&gt;+ASCs group and CCl&lt;sub&gt;4&lt;/sub&gt; + eugenol-preconditioned ASCs (CCl&lt;sub&gt;4&lt;/sub&gt;+E-ASCs) group. Eugenol affected the viability of ASCs in a concentration- and time-dependent manner. Eugenol improved their self-renewal, proliferation and migration abilities and significantly increased their expression of &lt;i&gt;c-Met&lt;/i&gt;, reduced expression 1 (&lt;i&gt;Rex1&lt;/i&gt;), octamer-binding transcription factor 4 (&lt;i&gt;Oct4&lt;/i&gt;) and &lt;i&gt;nanog&lt;/i&gt; genes. Furthermore, E-ASCs showed more of a homing ability than ASCs and improved the serum levels of ALT, AST, albumin, total bilirubin and hyaluronic acid more efficient than ASCs in treating CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis, which was confirmed with histopathology. More interestingly, compared to the CCl&lt;sub&gt;4&lt;/sub&gt;+ASCs group, CCl&lt;sub&gt;4&lt;/sub&gt;+E-ASCs group showed a lower expression of inducible nitric oxide synthase (&lt;i&gt;iNOS&lt;/i&gt;), monocyte chemoattractant protein-1 (&lt;i&gt;MCP-1&lt;/i&gt;), cluster of differentiation 163 (&lt;i&gt;CD163&lt;/i&gt;) and tumor necrosis factor-α (&lt;i&gt;TNF-α&lt;/i&gt;) genes and higher expression of matrix metalloproteinase (&lt;i&gt;MMP&lt;/i&gt;)-9 and &lt;i&gt;MMP-13&lt;/i&gt; genes. This study, for the first time, revealed that eugenol significantly improved the self-renewal, migration and proliferation characteristics of ASCs, in vitro. In addition, we demonstrated that eugenol-preconditioning significantly enhanced the therapeutic abilities of the injected ASCs against CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>34627378</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>A novel minimally invasive OFM technique with orthotopic transplantation of hUC-MSCs and in vivo monitoring of liver metabolic microenvironment in liver fibrosis treatment.</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells (MSCs) transplantation showed promising therapeutic results in liver fibrosis. However, efficient cell delivery method is urgently needed and the therapeutic mechanism remains unclear. This study focused on developing a minimally invasive open-flow microperfusion (OFM) technique, which combined orthotopic transplantation of human umbilical cord-derived (hUC)-MSCs to liver and in vivo monitoring of liver microenvironment in mice with CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis. The therapeutic potential of OFM route was evaluated by comparing OFM with intravenous (IV) injection route in terms of hUC-MSCs engraftment at the fibrosis liver, liver histopathological features, liver function and fibrotic markers expression after hUC-MSCs administration. OFM was also applied to sample liver interstitial fluid in vivo, and subsequent metabolomic analysis was performed to investigate metabolic changes in liver microenvironment. Compared with IV route, OFM route caused more hUC-MSCs accumulation in the liver and was more effective in improving the remodeling of liver structure and reducing collagen deposition in fibrotic liver. OFM transplantation of hUC-MSCs reduced blood ALT, AST, ALP and TBIL levels and increased ALB levels, to a greater extent than IV route. And OFM route appeared to have a more pronounced effect on ameliorating the CCl&lt;sub&gt;4&lt;/sub&gt;-induced up-regulation of the fibrotic markers, such as α-SMA, collagen I and TGF-β. In vivo monitoring of liver microenvironment demonstrated the metabolic perturbations induced by pathological condition and treatment intervention. Two metabolites and eight metabolic pathways, which were most likely to be associated with the liver fibrosis progression, were regulated by hUC-MSCs administration. The results demonstrated that the novel OFM technique would be useful for hUC-MSCs transplantation in liver fibrosis treatment and for monitoring of the liver metabolic microenvironment to explore the underlying therapeutic mechanisms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>20178458</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell infusion therapy in a carbon tetrachloride-induced liver fibrosis model affects matrix metalloproteinase expression.</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>In order to investigate the effects of bone marrow-derived MSCs (mesenchymal stem cells) in reversing liver fibrosis and to determine their possible mechanism of action, mouse MSCs were infused into the tail vein of a CCl(4) injection mouse chronic model. MSCs caused a decrease in liver fibrosis histopathologically, 4 weeks after transplantation. The reduction in liver collagen was confirmed by quantitative analysis. Moreover, lipid peroxidation in the CCl(4)/MSC group decreased significantly. Quantitative RT (reverse transcription)-PCR analysis showed administration of MSCs has a significant antifibrotic effect as evidenced by the decrease in expression of liver collagen and increase in MMP13 (matrix metalloproteinase 13) in the CCl(4)/MSC group when compared with the CCl(4) group, 4 weeks after transplantation. The expression of alphaSMA (smooth muscle actin) and TIMP1 was also down-regulated in the CCl(4)/MSC group. Additionally, the expression of MMP9 was significantly up-regulated in the CCl(4)-treated group; however, there was no significant change after MSC injection. Few engrafted cells in the recipient liver and were able to differentiate into albumin-positive cells. In conclusion, MSCs can enhance recovery of a CCl(4)-injured mouse liver through their influence in reducing collagen deposition by possibly affecting expression of MMPs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>22735033</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Adipose derived mesenchymal stem cells transplantation via portal vein improves microcirculation and ameliorates liver fibrosis induced by CCl4 in rats.</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Adipose derived mesenchymal stem cells (ADMSCs), carrying the similar characteristics to bone marrow mesenchymal stem cells, only much more abundant and easier to obtain, may be a promising treatment for liver fibrosis. We aim to investigate the therapeutic potential of ADMSCs transplantation in liver fibrosis caused by carbon tetrachloride (CCl4) in rats as well as its underlying mechanism, and to further explore the appropriate infusion pathway. ADMSCs were isolated, cultured and identified. Placebo and ADMSCs were transplanted via portal vein and tail vein respectively into carbon tetrachloride (CCl4)-induced liver fibrosis rats. Computed tomography (CT) perfusion scan and microvessel counts were performed to measure the alteration of liver microcirculation after therapy. Liver function tests and histological findings were estimated. CT perfusion scan shown significant decrease of hepatic arterial perfusion index, significant increased portal vein perfusion, total liver perfusion in rats receiving ADMSCs from portal vein, and Factor VIII (FVIII) immunohistochemical staining shown significant decrease of microvessels in rats receiving ADMSCs from portal vein, indicating microcirculation improvement in portal vein group. Vascular endothelial growth Factor (VEGF) was significantly up-regulated in fibrosis models, and decreased after ADMSCs intraportal transplantation. A significant improvement of liver functional test and histological findings in portal vein group were observed. No significance was found in rats receiving ADMSCs from tail vein. ADMSCs have a therapeutic effect against CCl4-mediated liver fibrosis. ADMSCs may benefit the fibrotic liver through alteration of microcirculation, evidenced by CT perfusion scan and down-regulation of VEGF. Intraportal transplantation is a better pathway than tail vein transplantation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>34712665</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Regulatory T Cells Improved the Anti-cirrhosis Activity of Human Amniotic Mesenchymal Stem Cell in the Liver by Regulating the TGF-β-Indoleamine 2,3-Dioxygenase Signaling.</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is a progression stage of chronic liver disease, while current therapies cannot cure or attune cirrhosis effectively. Human amniotic mesenchymal stromal cell (hAMSC) presented immunoregulatory and tissue repairability of multiple illnesses. Regulatory T cells (Treg) had been proved to be functional in reducing immune cell activity. We showed that co-infusion of hAMSC and Treg prevented mild liver fibrosis comparing with hAMSC or Treg alone group. &lt;i&gt;In vitro&lt;/i&gt; study indicated that the addition of Treg or the supernatant of Treg improved the hepatocyte growth factor (HGF) secreting and cell differentiation ability of hAMSC. Reduction of TGF-β significantly decreased the HGF secreting and differentiation of hAMSC. Multiple signal neutralizers were added to the culture to understand further the mechanism, which showed that 1-MT, the suppressor of Indoleamine 2,3-dioxygenase (IDO), was involved in the effect of TGF-β in regulating hAMSC. Depletion of TGF-β or IDO signaling successfully abolished the effect of Treg in improving hAMSC's function both &lt;i&gt;in vitro&lt;/i&gt; and vivo. Finally, our result indicated that Treg improved the function of hAMSC by regulating the TGF-β-IDO signaling and co-infusion of hAMSC and Treg provided a promising approach for treating liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>19398237</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Homing of bone marrow mesenchymal stem cells mediated by sphingosine 1-phosphate contributes to liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Myofibroblasts play a central role in the pathogenesis of liver fibrosis. Myofibroblasts of bone marrow (BM) origin have recently been identified in fibrotic liver. However, little is known about the mechanism that controls their mobilization in vivo. Here we confirmed that BM mesenchymal stem cells (BMSCs) can migrate to the damaged liver and differentiate into myofibroblasts. We also investigated the mechanism underlying the homing of BMSCs after liver injury. ICR mice were lethally irradiated and received BM transplants from enhanced green fluorescent protein transgenic mice. Carbon tetrachloride or bile duct ligation was used to induce liver fibrosis. The fibrotic liver tissue was examined by immunofluorescent staining to identify BM-derived myofibroblasts. BMSCs contributed significantly to myofibroblast population in fibrotic liver. Moreover, analysis in vivo and in vitro suggested that homing of BMSCs to the damaged liver was in response to sphingosine 1-phosphate (S1P) gradient between liver and BM. Furthermore, S1P receptor type 3 (S1P3) was required for migration of BMSCs triggered by S1P. S1P mediates liver fibrogenesis through homing of BMSCs via S1P3 receptor, which may represent a novel therapeutic target in liver fibrosis through inhibiting S1P formation and/or receptor activation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>29398486</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Hepatocyte Growth Factor Improves the Therapeutic Efficacy of Human Bone Marrow Mesenchymal Stem Cells via RAD51.</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Human embryonic stem cell-derived mesenchymal stem cells (hE-MSCs) have greater proliferative capacity than other human mesenchymal stem cells (hMSCs), suggesting that they may have wider applications in regenerative cellular therapy. In this study, to uncover the anti-senescence mechanism in hE-MSCs, we compared hE-MSCs with adult bone marrow (hBM-MSCs) and found that hepatocyte growth factor (HGF) was more abundantly expressed in hE-MSCs than in hBM-MSCs and that it induced the transcription of RAD51 and facilitated its SUMOylation at K70. RAD51 induction/modification by HGF not only increased telomere length but also increased mtDNA replication, leading to increased ATP generation. Moreover, HGF-treated hBM-MSCs showed significantly better therapeutic efficacy than naive hBM-MSCs. Together, the data suggest that the RAD51-mediated effects of HGF prevent hMSC senescence by promoting telomere lengthening and inducing mtDNA replication and function, which opens the prospect of developing novel therapies for liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>21966929</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Hepatogenic differentiation of mesenchymal stem cells in a rat model of thioacetamide-induced liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Implantation of bone-marrow-derived MSCs (mesenchymal stem cells) has emerged as a potential treatment modality for liver failure, but in vivo differentiation of MSCs into functioning hepatocytes and its therapeutic effects have not yet been determined. We investigated MSC differentiation process in a rat model of TAA (thioacetamide)-induced liver cirrhosis. Male Sprague-Dawley rats were administered 0.04% TAA-containing water for 8 weeks, MSCs were injected into the spleen for transsplenic migration into the liver, and liver tissues were examined over 3 weeks. Ingestion of TAA for 8 weeks induced micronodular liver cirrhosis in 93% of rats. Injected MSCs were diffusely engrafted in the liver parenchyma, differentiated into CK19 (cytokeratin 19)- and thy1-positive oval cells and later into albumin-producing hepatocyte-like cells. MSC engraftment rate per slice was measured as 1.0-1.6%. MSC injection resulted in apoptosis of hepatic stellate cells and resultant resolution of fibrosis, but did not cause apoptosis of hepatocytes. Injection of MSCs treated with HGF (hepatocyte growth factor) in vitro for 2 weeks, which became CD90-negative and CK18-positive, resulted in chronological advancement of hepatogenic cellular differentiation by 2 weeks and decrease in anti-fibrotic activity. Early differentiation of MSCs to progenitor oval cells and hepatocytes results in various therapeutic effects, including repair of damaged hepatocytes, intracellular glycogen restoration and resolution of fibrosis. Thus, these results support that the in vivo hepatogenic differentiation of MSCs is related to the beneficial effects of MSCs rather than the differentiated hepatocytes themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>34256837</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Human umbilical cord-derived mesenchymal stem cells improve the function of liver in rats with acute-on-chronic liver failure via downregulating Notch and Stat1/Stat3 signaling.</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Effective treatments for acute-on-chronic liver failure (ACLF) are lacking. Human umbilical cord-derived mesenchymal stem cells (hUC-MSCs) have been applied in tissue regeneration and repair, acting through paracrine effects, cell fusion, and actual transdifferentiation. The present study was designed to investigate the therapeutic potential of hUC-MSCs in acute-on-chronic liver injury (ACLI) and ACLF rat models. Wistar rats aged 6 weeks were intraperitoneally administered porcine serum (PS) at a dose of 0.5 mL twice per week for 11 weeks to generate an immune liver fibrosis model. After 11 weeks, rats with immune liver fibrosis were injected intravenously with lipopolysaccharide (LPS) to induce an ACLI model or combined LPS and D-galactosamine (D-GalN) to induce an ACLF model. The rats with ACLI or ACLF were injected intravenously with 2×10&lt;sup&gt;6&lt;/sup&gt; hUC-MSCs, 4×10&lt;sup&gt;6&lt;/sup&gt; hUC-MSCs, or 0.9% sodium chloride as a control. The rats were sacrificed at 1, 2, 4, and 6 weeks (ACLI rats) or 4, 12, and 24 h (ACLF rats). The blood and liver tissues were collected for biochemical and histological investigation. The application of hUC-MSCs in rats with ACLI and ACLF led to a significant decrease in the serum levels of ALT, AST, TBil, DBil, ALP, ammonia, and PT, with ALB gradually returned to normal levels. Inflammatory cell infiltration and collagen fiber deposition in liver tissues were significantly attenuated in ACLI rats that received hUC-MSCs. Inflammatory cell infiltration and apoptosis in liver tissues of ACLF rats that received hUC-MSCs were significantly attenuated. Compared with those in the rats that received 0.9% sodium chloride, a significant reduction in proinflammatory cytokine levels and elevated serum levels of hepatocyte growth factor (HGF) were found in ACLF rats that received hUC-MSCs. Furthermore, Notch, IFN-γ/Stat1, and IL-6/Stat3 signaling were inhibited in ACLI/ACLF rats that received hUC-MSCs. hUC-MSC transplantation can improve liver function, the degree of fibrosis, and liver damage and promote liver repair in rats with ACLI or ACLF, mediated most likely by inhibiting Notch signaling and reversing the imbalance of the Stat1/Stat3 pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>28301671</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>A clinical study of bone mesenchymal stem cells for the treatment of hepatic fibrosis induced by hepatolenticular degeneration.</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>The efficacy of bone marrow mesenchymal stem cell (BMSC) on liver fibrosis in animal has been proven, but a few studies have been made in human body and few such researches in China. This study was designed to investigate the effect of BMSC treatment on hepatic fibrosis induced by hepatolenticular degeneration and the influence on serological indicators. Sixty patients with liver fibrosis induced by hepatolenticular degeneration were randomly divided into two groups, a penicillamine group and a BMSCs plus penicillamine group, with 30 patients in each. The therapeutic effects on hepatic fibrosis, liver function, and serological indicators were recorded before and after the treatment, and the data were compared. After treatment, serum levels of HA, PCIII, LN, CIV, TIMP-1, and MMP-1 were reduced in both groups (P &lt; 0.05). However, cytokine levels in the BMSCs plus penicillamine group were significantly lower than those in the penicillamine group (P &lt; 0.05). Combination therapy with BMSCs and penicillamine had a significant positive effect on liver fibrosis induced by hepatolenticular degeneration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>29512750</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Transplantation of human matrix metalloproteinase-1 gene-modified bone marrow-derived mesenchymal stem cell attenuates CCL4-induced liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>It has been reported that bone marrow-derived mesenchymal stem cells (BMSCs) alleviated liver fibrosis. We investigated whether BMSCs transfected with human matrix metalloproteinase 1 (BMSCs/MMP1) would improve their therapeutic effect in liver fibrosis induced by carbon tetrachloride (CCl4) in rats. BMSCs were transfected with an adenovirus carrying enhanced green fluorescence protein (GFP) and human MMP1 gene. BMSCs or BMSCs/MMP1 were directly injected into fibrotic rats via the tail vein. GFP-labeled cells appeared in the fibrotic liver after BMSC transplantation. The expression of BMSCs/MMP1 elevated levels of MMP1 in vitro. Although BMSC administration reduced liver fibrosis, transplantation of BMSCs/MMP1 enhanced the reduction of liver fibrosis to a higher level. Treatment with BMSCs/MMP1 not only decreased collagen content but also suppressed activation of hepatic stellate cells (HSCs) in fibrotic liver, which led to subsequent improvement of both liver injury and fibrosis. Treatment with BMSCs/MMP1 resulted in an improved therapeutic effect compared with BMSCs alone, which is probably because of the sustainably expressed MMP1 level in the liver. BMSCs/MMP1 transplantation not only improved biochemical parameters but also attenuated progression of liver fibrosis, suggesting that BMSCs may be a potential cell source in preventing liver fibrosis and MMP1 gene may enhance the anti-fibrotic effect of BMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>28217916</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Effects of allogeneic mesenchymal stem cell transplantation in the treatment of liver cirrhosis caused by autoimmune diseases.</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>There has been great interest in recent years to take advantage of mesenchymal stem cells (MSCs) to treat end-stage liver disease. This study is aimed to evaluate clinical therapeutic effects of allogeneic MSC transplantation in liver cirrhosis caused by autoimmune diseases. The enrolled patients with liver cirrhosis were assigned to receive allogeneic MSC infusions through a peripheral vein. The primary objective of this study was to assess the safety and effectiveness of MSCT in patients with autoimmune diseases-induced cirrhosis. Secondary endpoints were to assess changes in the Models of End Stage Liver Disease (MELD) scores and liver functions after the transplantation. A total of 26 patients were enrolled. Of these, 23 patients received umbilical cord MSCT, two received cord blood MSCT and one received bone marrow MSCT. Three patents died of the complications caused by cirrhosis and two patients received liver transplantation after MSCT. Four patients were lost to follow-up. The mean of alanine transaminase values decreased 6 months, 1 and 2 years after the transplantation, but there were no statistical significance. The mean value of total bilirubin decreased at 6 months and 1 year follow-up. Average serum albumin levels improved at 6 months, 1 and 2 years follow-up. The mean value at 2 years increased significantly compared with the baseline value. A lowering of prothrombin time was seen at 6 months after MSCT. MELD score improved at 6 months, 1 and 2 years of follow-up. No serious adverse events were observed during or 24 h after infusions of MSCs in any of the 26 patients with liver cirrhosis. Based on this clinical trial, allogeneic MSCT through the peripheral vein probably is safe and seemingly has beneficial effect in patients with liver cirrhosis. Therefore, allogeneic MSCT is a potential option for treatment of liver cirrhosis caused by autoimmune diseases. Further studies with higher numbers of patients are warranted to better clarify the impact and mechanisms of MSCT in liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>27028843</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Cannabinoid Receptor 1 Mediates Homing of Bone Marrow-Derived Mesenchymal Stem Cells Triggered by Chronic Liver Injury.</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Cannabinoid receptors (CBs) have been implicated in the pathogenesis of various liver diseases, including liver fibrosis. Our previous studies have demonstrated that after liver injury, mouse bone marrow-derived mesenchymal stem cells (BMSCs) can migrate to the injured liver and differentiate to myofibroblasts, contributing to hepatic fibrogenesis. However, the role of CBs in the homing of BMSCs in liver injury is yet unclear. In this study, we found that both CB1 and CB2 were expressed in BMSCs. Migration assays were performed by transwell chambers. CB1 agonist ACEA promoted the migration of BMSCs, but CB2 agonist JWH133 had no effect. Pharmacological or genetic ablation of CB1 reduced ACEA-induced migration, whereas CB2 did not. Moreover, activation of CB1 increased active GTP-bound Rac1, RhoA, and Cdc42 protein levels. The elevated GTP-bound Rac1 and RhoA protein levels were decreased by CB1 antagonist AM281 treatment, but not Cdc42. In addition, ACEA-induced migration was suppressed by NSC23766 (Rac1 inhibitor) or C3 transferase (RhoA inhibitor), whereas MLS-573151 (Cdc42 inhibitor) had no effect. Consistent with these data, Rac1 or RhoA knock-down significantly blocked CB1-mediated migration. Meanwhile, CB1-mediated migration was associated with cytoskeletal remodeling. In vivo, administration of CB1 antagonist AM281 markedly inhibited the recruitment of BMSCs to the injured liver using fluorescence-activated cell sorting. Furthermore, blockade of CB1 significantly attenuated liver fibrosis. In conclusion, our results suggest that CB1 plays a crucial role in liver fibrosis through mediating the homing of BMSCs to damaged liver, which may provide new insight into the pathogenesis and treatment of liver fibrosis. J. Cell. Physiol. 232: 110-121, 2017. © 2016 Wiley Periodicals, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>26353075</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Splenectomy enhances the therapeutic effect of adipose tissue-derived mesenchymal stem cell infusion on cirrhosis rats.</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Clinical studies suggest that splenectomy improves liver function in cirrhotic patients, but the influence of splenectomy on stem cell transplantation is poorly understood. This study investigated the effect of splenectomy on stem cell infusion and elucidated its mechanism. Rat adipose tissue-derived mesenchymal stem cells were infused into cirrhosis rats with or without splenectomy, followed by the assessment of the in vivo distribution of stem cells and pathological changes. Stromal cell-derived factor-1 and hepatocyte growth factor expression were also investigated in splenectomized cirrhosis patients and rats. Splenectomy, prior to cell infusion, improved liver function and suppressed fibrosis progression more efficiently than cell infusion alone in the experimental cirrhosis model. Stromal cell-derived factor-1 and hepatocyte growth factor levels after splenectomy were increased in patients and rats. These upregulated cytokines significantly facilitated stem cell motility, migration and proliferation in vitro. C-X-C chemokine receptor type 4 neutralization weakened the promotion of cell migration by these cytokines. The infused cells integrated into liver fibrosis septa and participated in regeneration more efficiently in splenectomized rats. Direct coculture with stem cells led to inhibition of hepatic stellate cell proliferation. In addition, hepatocyte growth factor induced hepatic stellate cell apoptosis via the c-jun N-terminal kinase-p53 pathway. Splenectomy prior to cell infusion enhanced the therapeutic effect of stem cells on cirrhosis, which involved upregulation of stromal cell-derived factor-1 and hepatocyte growth factor after splenectomy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>34416908</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>The impact of recipient age on the effects of umbilical cord mesenchymal stem cells on HBV-related acute-on-chronic liver failure and liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>The results of a previous study verified that umbilical cord mesenchymal stem cells (UCMSCs) have good therapeutic effects for the treatment of HBV-related acute-on-chronic liver failure (ACLF) and liver cirrhosis (LC). Nevertheless, it is still unknown whether the effects of UCMSCs are affected by recipient age. Patients treated with UCMSCs who met the criteria of HBV-related ACLF and liver cirrhosis were identified in this retrospective observational study. Patients were divided into subgroups according to the World Health Organization (WHO) age criteria (&lt; 45 vs. ≥ 45 years). Group A included young ACLF patients (&lt; 45 y), and group B included older ACLF patients (≥ 45 y). Young LC patients (&lt; 45 y) were assigned to group C, and group D included older LC patients (≥ 45 y). Patients' clinical characteristics, demographics, biochemical factors, and model for end-stage liver disease (MELD) scores were compared for 24 weeks. Sixty-four ACLF patients and 59 LC patients were enrolled in this study. Compared with patients in groups B and C, patients in group A did not show significant superiority in terms of the levels of ALT, AST, TBIL, AFP, and PTA and MELD scores. However, the median decrease and cumulative decrease in the TBIL and ALT levels of patients in group C were larger than those of patients in group D after four weeks of UCMSC transfusions. For older patients (≥ 45 y), the cumulative decrease and the median decrease in the TBIL of ACLF patients were significantly greater than those of LC patients after UCMSC treatment. However, the median decrease in ALT levels of ACLF patients was significantly greater than that of LC patients during UCMSC treatment, and the cumulative decrease in ALT levels of ACLF patients was significantly greater than that of LC patients at all time points. The therapeutic effects of UCMSCs for HBV-related acute-on-chronic liver failure and liver cirrhosis varied partly by patient age. Assessing patient age is necessary prior to UCMSC clinical use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>24969793</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived stromal cell therapy in cirrhosis: clinical evidence, cellular mechanisms, and implications for the treatment of hepatocellular carcinoma.</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Current treatment options for hepatocellular carcinoma (HCC) are often limited by the presence of underlying liver disease. In patients with liver cirrhosis, surgery, chemotherapy, and radiation therapy all carry a high risk of hepatic complications, ranging from ascites to fulminant liver failure. For patients receiving radiation therapy, cirrhosis dramatically reduces the already limited radiation tolerance of the liver and represents the most important clinical risk factor for the development of radiation-induced liver disease. Although improvements in conformal radiation delivery techniques have improved our ability to safely irradiate confined areas of the liver to increasingly higher doses with excellent local disease control, patients with moderate-to-severe liver cirrhosis continue to face a shortage of treatment options for HCC. In recent years, evidence has emerged supporting the use of bone marrow-derived stromal cells (BMSCs) as a promising treatment for liver cirrhosis, with several clinical studies demonstrating sustained improvement in clinical parameters of liver function after autologous BMSC infusion. Three predominant populations of BMSCs, namely hematopoietic stem cells, mesenchymal stem cells, and endothelial progenitor cells, seem to have therapeutic potential in liver injury and cirrhosis. Preclinical studies of BMSC transplantation have identified a range of mechanisms through which these cells mediate their therapeutic effects, including hepatocyte transdifferentiation and fusion, paracrine stimulation of hepatocyte proliferation, inhibition of activated hepatic stellate cells, enhancement of fibrolytic matrix metalloproteinase activity, and neovascularization of regenerating liver. By bolstering liver function in patients with underlying Child's B or C cirrhosis, autologous BMSC infusion holds great promise as a therapy to improve the safety, efficacy, and utility of surgery, chemotherapy, and hepatic radiation therapy in the treatment of HCC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>29666468</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>A novel endogenous damage signal, glycyl tRNA synthetase, activates multiple beneficial functions of mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>During tissue repair, the injury site releases various bioactive molecules as damage signals to actively recruit stem cells to the damaged region. Despite convincing evidence that mesenchymal stem cells (MSCs) can sense damage signals and promote repair processes, the identity of these signals and how these signals regulate stem cell-mediated tissue repair remain unknown. Glycyl tRNA synthetase (GRS) is a ubiquitously expressed enzyme that catalyzes the first step of protein synthesis in all organisms. In addition to this canonical function, we identified for the first time that GRS is released by damaged tissues or cells in response to various injury signals and may function as a damage signal that activates the proliferative, differentiation, and migratory potential of MSCs, possibly through its identified receptor, cadherin-6 (CDH-6). Binding between GRS and CDH-6 activates survival signals, such as those of the PI3K/Akt and/or FAK/ERK1/2 pathways. More importantly, we also found that MSCs stimulated with GRS show significantly improved homing and differentiation potential and subsequent in vivo therapeutic effects, in a liver fibrosis animal model. Collectively, our findings provide compelling evidence for a novel function of GRS in enhancing the multiple beneficial functions of stem cells via a non-canonical mechanism as a damage signal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>21326862</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Transplanted human amniotic membrane-derived mesenchymal stem cells ameliorate carbon tetrachloride-induced liver cirrhosis in mouse.</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Human amniotic membrane-derived mesenchymal stem cells (hAMCs) have the potential to reduce heart and lung fibrosis, but whether could reduce liver fibrosis remains largely unknown. Hepatic cirrhosis model was established by infusion of CCl₄ (1 ml/kg body weight twice a week for 8 weeks) in immunocompetent C57Bl/6J mice. hAMCs, isolated from term delivered placenta, were infused into the spleen at 4 weeks after mice were challenged with CCl₄. Control mice received only saline infusion. Animals were sacrificed at 4 weeks post-transplantation. Blood analysis was performed to evaluate alanine aminotransferase (ALT) and aspartate aminotransferase (AST). Histological analysis of the livers for fibrosis, hepatic stellate cells activation, hepatocyte apoptosis, proliferation and senescence were performed. The donor cell engraftment was assessed using immunofluorescence and polymerase chain reaction. The areas of hepatic fibrosis were reduced (6.2%±2.1 vs. control 9.6%±1.7, p&lt;0.05) and liver function parameters (ALT 539.6±545.1 U/dl, AST 589.7±342.8 U/dl,vs. control ALT 139.1±138.3 U/dl, p&lt;0.05 and AST 212.3±110.7 U/dl, p&lt;0.01) were markedly ameliorated in the hAMCs group compared to control group. The transplantation of hAMCs into liver-fibrotic mice suppressed activation of hepatic stellate cells, decreased hepatocyte apoptosis and promoted liver regeneration. More interesting, hepatocyte senescence was depressed significantly in hAMCs group compared to control group. Immunofluorescence and polymerase chain reaction revealed that hAMCs engraftment into host livers and expressed the hepatocyte-specific markers, human albumin and α-fetoproteinran. The transplantation of hAMCs significantly decreased the fibrosis formation and progression of CCl₄-induced cirrhosis, providing a new approach for the treatment of fibrotic liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>35118577</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Umbilical Cord Mesenchymal Stem/Stromal Cells and Low-Dose Obeticholic Acid as a Possible Combined Treatment for Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>25678175</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Adipose-derived mesenchymal stem cells inhibit activation of hepatic stellate cells in vitro and ameliorate rat liver fibrosis in vivo.</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Previous studies suggested that mesenchymal stem cells may ameliorate fibrogenesis through the inhibition of hepatic stellate cells (HSCs) activation. This study aimed to investigate whether adipose derived mesenchymal stem cells (ADSCs) could modulate the activation of HSCs and contribute to the recovery of liver fibrogenesis. ADSCs and HSCs were isolated from Sprague-Dawley rats and co-cultured using a transwells insert. Cell proliferation, apoptosis and smooth muscle α-actin (α-SMA) expression in HSCs were examined. Rats were injected with CCl4 to induce liver fibrogenesis. After injection of ADSCs through portal vein, the rats were examined for pathological changes in the liver. α-SMA expression and hydroxyproline content in the liver and serum levels of collagen III and hyaluronic acid was detected. After co-culturing for 72 h, the proliferation and activation of HSCs was inhibited by ADSCs and the apoptosis of HSCs was promoted by ADSCs. Transplantation of ADSCs inhibited liver fibrogenesis in the rats. ADSCs inhibit the proliferation and activation of HSCs in vitro and inhibit liver fibrogenesis in rat model, suggesting the potential application of ADSCs in liver fibrogenesis therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>22927965</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>HGF and direct mesenchymal stem cells contact synergize to inhibit hepatic stellate cells activation through TLR4/NF-kB pathway.</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (BMSCs) can reduce liver fibrosis. Apart from the paracrine mechanism by which the antifibrotic effects of BMSCs inhibit activated hepatic stellate cells (HSCs), the effects of direct interplay and juxtacrine signaling between the two cell types are poorly understood. The purpose of this study was to explore the underlying mechanisms by which BMSCs modulate the function of activated HSCs. We used BMSCs directly and indirectly co-culture system with HSCs to evaluate the anti-fibrosis effect of BMSCs. Cell proliferation and activation were examined in the presence of BMSCs and HGF. c-met was knockdown in HSCs to evaluate the effect of HGF secreted by BMSCs. The TLR4 and Myeloid differentiation primary response gene 88(MyD88) mRNA levels and the NF-kB pathway activation were determined by real-time PCR and western blotting analyses. The effect of BMSCs on HSCs activation was investigated in vitro in either MyD88 silencing or overexpression in HSCs. Liver fibrosis in rats fed CCl(4) with and without BMSCs supplementation was compared. Histopathological examinations and serum biochemical tests were compared between the two groups. BMSCs remarkably inhibited the proliferation and activation of HSCs by interfering with LPS-TLR4 pathway through a cell-cell contact mode that was partially mediated by HGF secretion. The NF-kB pathway is involved in HSCs activation inhibition by BMSCs. MyD88 over expression reduced the BMSC inhibition of NF-kB luciferase activation. BMSCs protected liver fibrosis in vivo. BMSCs modulate HSCs in vitro via TLR4/MyD88/NF-kB signaling pathway through cell-cell contact and secreting HGF. BMSCs have therapeutic effects on cirrhosis rats. Our results provide new insights into the treatment of hepatic fibrosis with BMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>33246509</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Enhanced PRL-1 expression in placenta-derived mesenchymal stem cells accelerates hepatic function via mitochondrial dynamics in a cirrhotic rat model.</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Placenta-derived mesenchymal stem cells (PD-MSCs) have been highlighted as an alternative cell therapy agent that has become a next-generation stem cell treatment. Phosphatase of regenerating liver-1 (PRL-1), an immediate early gene, plays a critical role during liver regeneration. Here, we generated enhanced PRL-1 in PD-MSCs (PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt;, PRL-1+) using lentiviral and nonviral gene delivery systems and investigated mitochondrial functions by PD-MSC&lt;sup&gt;PRL-1&lt;/sup&gt; transplantation for hepatic functions in a rat bile duct ligation (BDL) model. PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; were generated by lentiviral and nonviral AMAXA gene delivery systems and analyzed for their characteristics and mitochondrial metabolic functions. Liver cirrhosis was induced in Sprague-Dawley (SD) rats using common BDL for 10 days. PKH67+ naïve and PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; using a nonviral sysyem (2 × 10&lt;sup&gt;6&lt;/sup&gt; cells/animal) were intravenously administered into cirrhotic rats. The animals were sacrificed at 1, 2, 3, and 5 weeks after transplantation and engraftment of stem cells, and histopathological analysis and hepatic mitochondrial functions were performed. PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; were successfully generated using lentiviral and nonviral AMAXA systems and maintained characteristics similar to those of naïve cells. Compared with naïve cells, PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; improved respirational metabolic states of mitochondria. In particular, mitochondria in PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; generated by the nonviral AMAXA system showed a significant increase in the respirational metabolic state, including ATP production and mitochondrial biogenesis (*p &lt; 0.05). Furthermore, transplantation of PD-MSCs&lt;sup&gt;PRL-1&lt;/sup&gt; using a nonviral AMAXA system promoted engraftment into injured target liver tissues of a rat BDL cirrhotic model and enhanced the metabolism of mitochondria via increased mtDNA and ATP production, thereby improving therapeutic efficacy. Our findings will further our understanding of the therapeutic mechanism of enhanced MSCs and provide useful data for the development of next-generation MSC-based cell therapy and therapeutic strategies for regenerative medicine in liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>20367252</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of bone-marrow-derived mesenchymal stem cells differentiated with growth-factor-free coculture method in liver-injured rats.</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) differentiation by growth factors may be improper due to possibility of clinical risk. We have previously developed a growth-factor-free coculture method and observed rat MSCs differentiated into hepatic progenitor cells. This study was aimed to validate hepatic differentiation potential in vivo. MSCs from bone marrow of green fluorescent protein-transgenic Sprague-Dawley rats were cocultured with hepatocytes from normal Sprague-Dawley rats, sharing growth-factor-free media. After 14 days, cells were implanted into the spleen of carbon tetrachloride (CCl4)-injured rats and kept for 4 weeks. Fibrosis remarkably decreased in CCl4/cocultured MSC at weeks 1, 3, and 4. Immunohistochemistry revealed that albumin, alpha-fetoprotein, and cytokeratin 19 (CK19) expression was high in CCl4/cocultured MSC only at week 1. Reverse transcription-polymerase chain reaction and Western blot revealed that CCl4/cocultured MSC had reduced alpha-fetoprotein expression at week 4, whereas CK18 and CK19 exhibited stronger expression. Albumin in CCl4/cocultured MSC increased at week 4 only in protein level. We assume that cocultured MSCs had stayed at hepatic progenitor stage until week 3, and differentiated into hepatocytes or bile-ductal epithelial cells afterward. Hepatic progenitor cells from MSC differentiation in the growth-factor-free coculture system may contribute to the therapeutic effect for liver disease in vivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>23402186</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>[Mesenchymal stem cells in the treatment of chronic liver disease--from experiment to clinical practice].</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>The paper presents an analytical review of recent literature on the relevance and perspectives of using of mesenchymal stromal cells (MSCs) in chronic liver disease (CLD). The possible mechanisms of action of stem cells and the results of the original experience of the MSC application in liver cirrhosis of different etiologies are described. Systemic application of stem cells was accompanied by decreasing of clinical and biochemical disease activity, of levels of proinflammatory cytokines, the concentrations of transforming growth factor and procollagen type IV in serum. Anti-inflammatory and antifibrotic effect of MSC is confirmed by morphological examination of liver tissue over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>26861623</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells and their secreted molecules predominantly ameliorate fulminant hepatic failure and chronic liver fibrosis in mice respectively.</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Orthotopic liver transplantation is the only effective treatment for liver failure but limited with shortage of available donor organs. Recent studies show promising results of mesenchymal stem cells (MSCs)-based therapies. We systematically investigate the therapeutic effects of MSCs or MSC-conditioned medium (MSC-CM) in ameliorating fulminant hepatic failure (FHF) and chronic liver fibrosis in mice. In addition, extensive flow cytometry analysis of spleens from vehicle and MSC- and MSC-CM-treated mice was applied to reveal the alteration of inflammatory state. In FHF model, MSCs treatment reduced remarkably the death incidents; the analysis of gross histopathology showed that control livers were soft and shrunken with extensive extravasated blood, which was gradually reduced at later time points, while MSC-treated livers showed gross pathological changes, even 24 h after MSC infusion, and hematoxylin and eosin staining revealed dramatical hepatocellular death with cytoplasmic vacuolization suppressed by MSCs treatment; flow cytometry analysis of total lymphocytes showed that macrophages (F4/80) infiltrated into control livers more than MSC-treated livers; by contrast, MSC-CM partially ameliorates FHF. In chronic liver injury model, MSC and MSC-CM both suppressed fibrogenesis and necroinflammatory, and the later was better; activation of hepatic stellate cells (α-SMA) was inhibited; glycogen synthesis and storage (indicated by periodic acid-Schiff -staining) was improved; liver regeneration (Ki67) was promoted while liver apoptosis (TUNEL) was reduced. In the in vitro, MSCs promote macrophage line RAW264.7 apoptosis and MSC-CM promotes apoptosis and inhibits proliferation of HSC line LX-2. We also found that MSCs and MSC-CM could improve spleen; MSC-CM increased levels of Th2 and Treg cells, and reduced levels of Th17 cells, whereas levels of Th1 cells were unchanged; comparatively, MSC treatment did not affect Th17 and Treg cells and only slightly alters inflammatory state; MSC and MSC-CM treatment both substantially down-regulated macrophages in the spleens. Both MSCs and MSC-CM exert therapeutic effects by acting on various key cells during the pathogenesis of FHF and chronic fibrosis, stimulating hepatocyte proliferation and suppressing apoptosis, down-regulating infiltrating macrophages, converting CD4(+) T lymphocyte system into an anti-inflammatory state, and facilitating hepatic stellate cell death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>20096523</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MR tracking of magnetically labeled mesenchymal stem cells in rats with liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>In vivo magnetic resonance (MR) tracking of magnetically labeled bone marrow mesenchymal stem cells (BMSCs) administered via the mesenteric vein to rats with liver fibrosis. Rat BMSCs were labeled with superparamagnetic iron oxide (SPIO) and the characteristics of the BMSCs after labeling were investigated. Eighteen rats with CCL4-induced liver fibrosis were randomized to three groups to receive SPIO-labeled BMSCs (BMSC-labeled group), cell-free SPIO (SPIO group), or unlabeled BMSCs (control group). MR imaging of the liver was performed at different time points, and signal-to-noise ratio (SNR) of the liver was measured. In vivo distribution of delivered BMSCs was assessed by histological analysis. Labeling of BMSCs with SPIO did not significantly alter cell viability and proliferation activity. In BMSC-labeled group, the liver SNR immediately decreased from 8.56+/-0.26 to 3.53+/-0.41 at 1 h post injection and remained at a significantly lower level till 12 days (P&lt;.05 versus the level before). By contrast, the liver SNR of the SPIO group almost recovered to the preinjection level (P=.125) at 3 days after a transient decrease. In control group, the liver SNR demonstrated no significant difference at the tested time points. Additionally, Prussian blue-positive cells were mainly distributed in the liver parenchyma, especially in injured areas. The magnetically labeled BMSCs infused through the mesenteric vein can be detected in the fibrotic liver of rats using in vivo MR imaging up to 12 days after injection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>16469408</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Therapeutic effect of transplanting HGF-treated bone marrow mesenchymal cells into CCl4-injured rats.</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>The autologous transplantation of bone marrow cells is a promising treatment for liver disease. Pluripotent bone marrow stem cells can differentiate into hepatocytes, but few reports address the therapeutic effect of transplanting these stem cells into damaged liver in vivo. Here, we transplanted bone marrow-derived mesenchymal cells (BMMCs) to test their effect in liver-injured rats. Rat bone marrow cells were cultivated for 2 weeks in the presence or absence of hepatocyte growth factor (HGF), labeled with a fluorescent marker, and transplanted by injection into CCl(4)-injured rats. Blood samples collected 4 weeks later were analyzed for albumin production and transaminase levels. The amount of fibrosis was determined by histology. RT-PCR analysis detected alpha-fetoprotein and albumin mRNAs in BMMCs cultured with HGF for 2 weeks. Albumin protein was also produced in the BMMC cultures by a subpopulation of cells. Transplantation of the BMMCs into liver-injured rats restored their serum albumin level and significantly suppressed transaminase activity and liver fibrosis. These effects were not seen when the BMMCs were cultured without HGF. The transplantation of BMMCs cultured with HGF effectively treats liver injury in rats. This is a promising technique for autologous transplantation in humans with liver injury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>28259796</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Milk Fat Globule-EGF Factor 8 for Liver Fibrosis Therapy: Creaming Off the Beneficial Effects of Mesenchymal Stromal Cells.</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>32650827</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Enhanced therapeutic effects of umbilical cord mesenchymal stem cells after prolonged treatment for HBV-related liver failure and liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Umbilical cord mesenchymal stem cells (UCMSCs) have been demonstrated to have good therapeutic effects in the treatment of HBV-related liver diseases. However, the therapeutic effect of UCMSCs on HBV-related liver failure and liver cirrhosis and the variations in the efficacy of UCMSCs after different treatment courses remain poorly understood. Therefore, this study was designed to answer these two questions. This was an observational study that retrospectively considered a 3-year period during which 513 patients who received stem cell infusion and met the criteria of hepatic failure and liver cirrhosis were identified from the databases of the Third Affiliated Hospital of Sun Yat-sen University. The eligible patients were categorized into the liver failure group and liver cirrhosis group. The two groups were divided into different subgroups according to the duration of stem cell therapy. In the liver failure group, group A received more than 4 weeks and group B received less than 4 weeks of stem cell therapy. In the liver cirrhosis group, patients who received more than 4 weeks of stem cell therapy belonged to group C, and the patients in group D received less than 4 weeks of stem cell therapy. The patients were followed up for 24 weeks. The demographics, clinical characteristics, biochemical factors, and model for end-stage liver disease (MELD) scores were recorded and compared among different groups. A total of 64 patients met the criteria for liver failure, and 59 patients met the criteria for liver cirrhosis. After UCMSC treatment, the levels of alanine aminotransferase (ALT), glutamic-oxaloacetic transaminase (AST), and total bilirubin (TBIL) at all postbaseline time points were significantly lower than those at baseline in the liver failure group and liver cirrhosis group; the prothrombin activity (PTA) and MELD scores gradually improved in only the liver failure group. Four weeks after UCMSC treatment, patients who received prolonged treatment with UCMSCs had a larger decrease in TBIL levels than patients who terminated treatment with UCMSCs. After more than 4 weeks of UCMSC treatment, there were no statistically significant differences in the changes in ALT, AST, TBIL, and PTA values and MELD scores between patients with liver failure who received prolonged treatment with UCMSCs and patients with liver cirrhosis who received prolonged treatment with UCMSCs at any time point. However, the median decrease and cumulative decrease in the TBIL level of patients with liver failure with a standard 4-week treatment course were larger than those of patients with liver cirrhosis with a standard 4-week treatment course. Peripheral infusion of UCMSCs showed good therapeutic effects for HBV-related liver failure and liver cirrhosis. Prolonging the treatment course can increase the curative effect of UCMSCs for end-stage liver disease, especially for patients with cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>29290652</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>&lt;i&gt;In vivo&lt;/i&gt; hepatic differentiation potential of human umbilical cord-derived mesenchymal stem cells: Therapeutic effect on liver fibrosis/cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>To investigate the hepatic differentiation potential of human umbilical cord-derived mesenchymal stem cells (hUC-MSCs) and to evaluate their therapeutic effect on liver fibrosis/cirrhosis. A CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrotic/cirrhotic rat model was used to assess the effect of hUC-MSCs. Histopathology was assessed by hematoxylin and eosin (H&amp;E), Masson trichrome and Sirius red staining. The liver biochemical profile was measured using a Beckman Coulter analyzer. Expression analysis was performed using immunofluorescent staining, immunohistochemistry, Western blot, and real-time PCR. We demonstrated that the infused hUC-MSCs could differentiate into hepatocytes &lt;i&gt;in vivo&lt;/i&gt;. Functionally, the transplantation of hUC-MSCs to CCl&lt;sub&gt;4&lt;/sub&gt;-treated rats improved liver transaminases and synthetic function, reduced liver histopathology and reversed hepatobiliary fibrosis. The reversal of hepatobiliary fibrosis was likely due to the reduced activation state of hepatic stellate cells, decreased collagen deposition, and enhanced extracellular matrix remodeling &lt;i&gt;via&lt;/i&gt; the up-regulation of MMP-13 and down-regulation of TIMP-1. Transplanted hUC-MSCs could differentiate into functional hepatocytes that improved both the biochemical and histopathologic changes in a CCl&lt;sub&gt;4&lt;/sub&gt;-induced rat liver fibrosis model. hUC-MSCs may offer therapeutic opportunities for treating hepatobiliary diseases, including cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>19422480</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Effect of human umbilical cord blood-derived mesenchymal stem cells in a cirrhotic rat model.</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Cirrhosis is a long-term consequence of chronic hepatic injury and no effective therapy is currently available for this disease. Recent reports have shown that the mesenchymal stem cells (MSCs) have the capacity to differentiate into hepatocytes, and umbilical cord blood is a rich source of MSCs. Hence, we investigated the effect of infusing of human umbilical cord blood-derived MSCs (HMSCs) in carbon tetrachloride (CCl4)-induced cirrhosis in a rat model. The effect of HMSCs on cirrhosis was evaluated using haematoxylin and eosin and Masson's trichrome staining. To evaluate cirrhosis-related factors, we measured protein and mRNA expression of transforming growth factor beta1 (TGF-beta1), collagen type I and alpha-smooth muscle actin (alpha-SMA). Histological findings showed that liver fibrosis in rats was alleviated by HMSCs infusion. Interestingly, CM-DiI-labelled HMSCs expressed the hepatocyte-specific markers, human albumin and alpha-fetoprotein. Infusion of HMSCs significantly inhibited TGF-beta1, collagen type I and alpha-SMA expressions in CCl4-induced cirrhotic rats. Our results showed that HMSCs infusion could improve liver fibrosis in rats with CCl4-induced cirrhosis, raising the possibility for clinical use of HMSCs in the treatment of cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>27280796</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Multifaceted Therapeutic Benefits of Factors Derived From Dental Pulp Stem Cells for Mouse Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>: Chronic liver injury from various causes often results in liver fibrosis (LF). Although the liver possesses endogenous tissue-repairing activities, these can be overcome by sustained inflammation and excessive fibrotic scar formation. Advanced LF leads to irreversible cirrhosis and subsequent liver failure and/or hepatic cancer. Here, using the mouse carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced LF model, we showed that a single intravenous administration of stem cells derived from human exfoliated deciduous teeth (SHEDs) or of SHED-derived serum-free conditioned medium (SHED-CM) resulted in fibrotic scar resolution. SHED-CM suppressed the gene expression of proinflammatory mediators, such as TNF-α, IL-1β, and iNOS, and eliminated activated hepatic stellate cells by inducing their apoptosis, but protected parenchymal hepatocytes from undergoing apoptosis. In addition, SHED-CM induced tissue-repairing macrophages that expressed high levels of the profibrinolytic factor, matrix metalloproteinase 13. Furthermore, SHED-CM suppressed the CCl&lt;sub&gt;4&lt;/sub&gt;-induced apoptosis of primary cultured hepatocytes. SHED-CM contained a high level of hepatocyte growth factor (HGF). Notably, HGF-depleted SHED-CM (dHGF-CM) did not suppress the proinflammatory response or resolve fibrotic scarring. Furthermore, SHED-CM, but not dHGF-CM, inhibited CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatocyte apoptosis. These results suggest that HGF plays a central role in the SHED-CM-mediated resolution of LF. Taken together, our findings suggest that SHED-CM provides multifaceted therapeutic benefits for the treatment of LF. This study demonstrated that a single intravenous administration of stem cells from human exfoliated deciduous teeth (SHEDs) or of the serum-free conditioned medium (CM) derived from SHEDs markedly improved mouse liver fibrosis (LF). SHED-CM suppressed chronic inflammation, eliminated activated hepatic stellate cells by inducing their apoptosis, protected hepatocytes from undergoing apoptosis, and induced differentiation of tissue-repairing macrophages expressing high levels of the profibrinolytic factor matrix metalloproteinase 13. Furthermore, hepatocyte growth factor played a central role in the SHED-CM-mediated resolution of LF. This is the first report demonstrating the multifaceted therapeutic benefits of secreted factors derived from SHEDs for LF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>29804359</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>[Effect of adipose tissue-derived mesenchymal stem cell transplantation in treatment of liver fibrosis and possible mechanism].</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Objective:&lt;/b&gt; To investigate the effect of adipose tissue-derived mesenchymal stem cell (ADSC) transplantation in the treatment of liver fibrosis rats and possible mechanism. &lt;b&gt;Methods:&lt;/b&gt; Subcutaneous adipose tissue in the inguinal region of rats was collected to isolate ADSCs. The rats with liver fibrosis induced by intraperitoneally injected carbon tetrachloride were divided into cell transplantation group and phosphate buffer saline (PBS) injection group, and the rats which were fed normally were enrolled as negative control group. The rats in the cell transplantation group were given tail vein injection of ADSCs, and those in the PBS injection group were given injection of 0.5 ml PBS. At 7 days after transplantation, blood samples were collected from the inferior vena cava to evaluate liver function; liver tissue was collected to measure the protein expression of hepatocyte growth factor (HGF) and alpha-smooth muscle actin (α-SMA); Masson trichrome staining was used to evaluate intrahepatic collagen deposition. Hepatic stellate cells (HSCs) were collected from the rats with liver fibrosis, and indirect co-culture of HSCs and ADSCs was performed in vitro to analyze the influence of ADSCs on the proliferation and apoptosis of HSCs. The independent samples t-test was used for comparison between groups, and an analysis of variance was used for comparison of means between multiple samples. &lt;b&gt;Results:&lt;/b&gt; ADSCs were found in liver tissue in the transplantation group, and compared with the PBS injection group, the transplantation group had significant alleviation in hepatocyte necrosis, vacuolization, and area of fibrosis and significant reductions in the serum levels of aminotransferases, while there was no significant difference in the level of albumin between the two groups. Compared with the PBS injection group, the transplantation group had significant upregulation in the protein expression of HGF and significant downregulation in the protein expression of α-SMA (both &lt;i&gt;P&lt;/i&gt; &lt; 0.05). In vitro co-culture for 72 hours showed that ADSCs inhibited the proliferation of HSCs, and there was a significant difference between the co-culture group and the control group with HSCs cultured alone. Caspase-3 immunostaining showed that after co-culture for 72 hours, there was a significant difference in the apoptosis rate of HSCs between the co-culture group and the control group with HSCs cultured alone (23.42% ± 3.02% vs 14.82% ± 3.93%). &lt;b&gt;Conclusion:&lt;/b&gt; ADSC transplantation can upregulate the expression of HGF in the liver, promote the apoptosis of HSCs, and thus alleviate liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>32801431</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Intravenous Umbilical Cord-derived Mesenchymal Stem Cells Transplantation Regulates Hyaluronic Acid and Interleukin-10 Secretion Producing Low-grade Liver Fibrosis in Experimental Rat.</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Immunomodulation properties of mesenchymal stem cells have attracted tremendous attention that eventually could regress liver fibrosis process. The study aims to demonstrate the immunomodulation activities of Umbilical cord-derived Mesenchymal stem cells (UC-MSCs) affecting interleukin-10 (IL-10) and hyaluronic acid (HA) secretion post intraperitoneal injection of CCl&lt;sub&gt;4&lt;/sub&gt;, potent hepatotoxin, induced liver fibrosis among experimental rats. There were 18 Sprague-Dawley (SD) rats divided into three treatment groups (G1 sham group, G2 untreated liver fibrosis group, and G3 UC-MSCs treated-group) and isolated in Stem Cell and Cancer Research Facility, Semarang, Indonesia. Blood examination was conducted after 3 and 14 days of UC-MSCs transplantation using sandwich based ELISA followed by the histopathological analysis of rat liver tissue. ANOVA and posthoc LSD tests were determined the significance against all groups based on their quantitative measurement. UC-MSCs have been successfully extracted and isolated as well as positive with osteogenic differentiation (Alizarin dye). In further analysis, there were significant mean differences among all groups through the ANOVA test, both IL-10 and HA secretion, concurrent with low-grade liver fibrosis in G3. IL-10 elevates during the early phase of UC-MSCs transplantation, and HA significantly reduced on the 14th day of transplantation, it characterizes the liver fibrosis that has been attenuated. The transplantation of UC-MSCs has given an opportunity for the treatment of a wide range of chronic liver diseases through the immunomodulation properties via its paracrine effects that regulate specific cytokine to suppress fibrosis development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>31525863</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Hydrogel-Mediated Sustained Systemic Delivery of Mesenchymal Stem Cell-Derived Extracellular Vesicles Improves Hepatic Regeneration in Chronic Liver Failure.</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles derived from mesenchymal stem cells (MSC-EVs) have been widely reported as promising cell-free products that show therapeutic effects of the parental cells but not their limitations. Due to the intrinsic liver tropism of MSC-EVs, they have been widely used as therapeutics or drug carriers for treatment of liver diseases. However, rapid clearance from the target site may attenuate the efficiency of systemically administered MSC-EVs. Herein, sustained release into the peritoneum has been proposed as a new strategy to prolong the bioavailability of the MSC-EVs in the target liver. During intraperitoneal injection, clickable polyethylene glycol (PEG) macromeres were mixed with MSC-EVs to form EV-encapsulated PEG hydrogels via a fast, biocompatible click reaction. Upon biodegradation, the EV-laden hydrogels were swollen gradually to release EVs in a sustained manner over 1 month. In vivo tracking of the labeled EVs revealed that the accumulation of EVs in the liver was extended by hydrogel-mediated delivery for 1 month. Four weeks after injection in a rat model of chronic liver fibrosis, the physical and histopathological investigations of the harvested liver showed superior antifibrosis, anti-apoptosis, and regenerative effects of the EVs when delivered by the sustained systemic release (Gel-EV) to the conventional bolus injection (Free-EV). Specifically, the Gel-EV system improved the antifibrosis, anti-inflammation, anti-apoptosis, and regenerative effects of the EVs to nearly 40, 50, 40, and 50% compared to Free-EV, respectively, as was specified by quantification of the fibrotic area, α-SMA density, and caspase-3 density in the harvested tissues and ALT enzyme in serum. This study may potentiate the use of MSC-EVs as cell-free therapeutics for chronic liver failure. The sustained systemic delivery strategy may open a new paradigm to extend the effects of disease-targeting EVs over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>32867602</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Effect of Human Umbilical Cord Mesenchymal Stem Cells Transfected with HGF on TGF-β1/Smad Signaling Pathway in Carbon Tetrachloride-Induced Liver Fibrosis Rats.</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>The research on human umbilical cord-derived mesenchymal stem cells (hUCMSCs) suggests promising therapeutic strategy for ameliorating liver fibrosis and it can be an effective alternative method of orthotopic liver transplantation. Hepatocyte growth factor (HGF) is the most basic cytokine involved in the inhibition of liver fibrosis and promotion of hepatocyte proliferation and regeneration. The objective of this study was to determine the possible mechanism about how the microencapsulated hUCMSCs made by alginate-poly-lysine-alginate (A-P-A) transfected with HGF could ameliorate liver fibrosis through the TGF-β1/Smad signaling pathway. The microencapsulated cells were divided into four groups: hUCMSC (microcapsules of hUCMSCs), HGF (microcapsules of HGF+hUCMSCs), LV5-NC (microcapsules of LV5-NC, an rLV-EF1a-EGFP+Puro control lentiviral vector+hUCMSCs), and empty microcapsule (microcapsules without any hUCMSCs), and then transplanted by intraperitoneal injection into carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver fibrosis rats, respectively. The results showed that the fibrosis in the hUCMSC, LV5-NC, and HGF groups was significantly alleviated. Moreover, the messenger RNA (mRNA) and protein levels of collagen I, collagen III, α-SMA, TGF-β1, Smad2, and Smad3 were significantly decreased compared with the empty microcapsule group and these indices in HGF group were more decreased compared with hUCMSC and LV5-NC groups. This study indicated that microencapsulated hUCMSCs transfected with HGF could effectively improve CCl&lt;sub&gt;4&lt;/sub&gt;-induced rat liver fibrosis and the possible mechanism was closely related to the inhibition of TGF-β1/Smad signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>25426285</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Antioxidant Effects of Bone Marrow Mesenchymal Stem Cell against Carbon Tetrachloride-Induced Oxidative Damage in Rat Livers.</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Liver fibrosis results from excessive accumulation of extracellular matrix, which affects liver function over time and leads to its failure. In the past, liver transplant was thought to be the only treatment for end-stage liver disease, but due to the shortage of proper donors other medical treatments have been taken into consideration. To evaluate the therapeutic effects of bone marrow derived mesenchymal stem cells (BM-MSC) in CCl4 damaged rats. Liver damage in adult male Wistar rats was induced with carbon tetrachloride (CCl4). The rats were divided into normal control group, receiving CCl4, and those receiving CCl4 + marrow derived-MSC. Human BM-MSC was isolated, cultured, and characterized. The rats were injected with xenograft MSCs into the hepatic lobes of the liver. In the eighth week, blood samples were taken from all groups. Histological examination and biochemical analyses were used to compare the morphological and functional liver regeneration among different groups. Measurement of lipid peroxidation and glutathione transferase activity was also performed. Histopathology and biochemical analyses indicated that local injection of human BM-MSCs was effective in treating liver failure in the rat model. Furthermore, oxidative stress was attenuated by increased level of GSH content after MSC transplantation. Evidence of this animal model approach showed that bone marrow-derived MSCs promote an antioxidant response and support the potential of using MSCs transplantation as an effective treatment modality for liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>29223366</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Therapeutic efficacy and safety of umbilical cord mesenchymal stem cell transplantation for liver cirrhosis in Chinese population: A meta-analysis.</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells transfusion has been considered as a promising option for liver cirrhosis (LC). The aim of this study was to systematically evaluate the efficacy and safety of umbilical cord mesenchymal stem cells (UMSC) combined with traditional supportive therapy (TST) for the treatment of patients with LC. Data was extracted from clinical trials published on Web of Science, PubMed, EMBASE, Cochrane Library, Wanfang and CNKI database. The evaluated outcome measurements included liver function, coagulation function, liver fibrosis indexes, clinical symptoms, quality of life (QOL) and adverse events. A total of 14 trials including 717 LC patients met our selection criteria were involved. The liver function of LC patients was significantly improved after combined therapy (UMSC plus TST), indicated by decreased total bilirubin, alanine aminotransferase and prothrombin time, and increased serum albumin, cholinesterase and prothrombin activity. The QOL of patients was also improved after UMSC therapy. Compared with TST alone, the combined therapy showed better treatment effect based on measurements of hyaluronic acid (OR=-143.20, CI=-181.58 to -104.82, P&lt;0.00001), laminin (OR=-50.65, CI=-53.70 to -47.61, P&lt;0.00001), type III procollagen (OR=-8.68, CI=-9.00 to -8.36, P&lt;0.00001), type IV collagen (OR=-105.79, CI=-132.44 to -79.14, P&lt;0.00001) and plasma prolidase (OR=-876.54, CI=-911.89 to -840.56, P&lt;0.00001). Moreover, the patients' clinical symptoms including fatigue (4th, P=0.003; 8th, P=0.01), appetite (4th, P&lt;0.0001; 8th, P=0.06), ascites (4th, P=0.03; 8th, P=0.17), and abdominal distension (4th, P=0.0008; 8th, P=0.64) were also improved in patients treated by combined therapy without adverse events observed. UMSC and TST combined therapy for LC patients improved their liver function, clinical symptoms and QOL without severe adverse events, therefore is safe and effective in LC therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>38016185</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Recent Advances in Mesenchymal Stem/Stromal Cell-Based Therapy for Alcohol-Associated Liver Disease and Non-alcoholic Fatty Liver Disease.</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Alcohol-associated liver disease (ALD) and non-alcoholic fatty liver disease (NAFLD) represent pathological conditions that include many distinct stages, potentially leading to the final stage of cirrhotic liver. To date, liver transplantation is the sole successful treatment with concomitant limitations related to donor organ shortage and the need of life-long immunosuppressive therapy. Recently, cell-based therapies for ALD and NAFLD have been proposed with mesenchymal stem/stromal cells (MSCs) as promising effectors. MSC therapeutic applications offer hepatoprotection, regulation of the inflammatory process and angiogenesis particularly in ALD and NAFLD pre-clinical disease models. Recent studies suggested that hepatospecific MSC-based therapies could benefit liver diseases by restoring liver function and decreasing inflammation and fibrosis. Similarly to solid-organ transplantation, limitations in MSC approaches include donor availability exacerbated by high number of cells and cell trapping into lungs. Herein, based on recent advances, we discuss the use of MSCs as a therapeutic approach for ALD and NAFLD and we provide the available information for the establishment of a framework toward a potential clinical application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>18486597</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Hedgehog-mediated paracrine interaction between hepatic stellate cells and marrow-derived mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>During liver injury, bone marrow-derived mesenchymal stem cells (MSCs) can migrate and differentiate into hepatocytes. Hepatic stellate cell (SC) activation is a pivotal event in the development of liver fibrosis. Therefore, we hypothesized that SCs may play an important role in regulating MSC proliferation and differentiation through the paracrine signaling pathway. We demonstrate that MSCs and SCs both express hedgehog (Hh) pathway components, including its ligands, receptors, and target genes. Transwell co-cultures of SCs and MSCs showed that the SCs produced sonic hedgehog (Shh), which enhanced the proliferation and differentiation of MSCs. These findings demonstrate that SCs indirectly modulate the activity of MSCs in vitro via the Hh pathway, and provide a plausible explanation for the mechanisms of transplanted MSCs in the treatment of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>28413861</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Preconditioning with melatonin improves therapeutic outcomes of bone marrow-derived mesenchymal stem cells in targeting liver fibrosis induced by CCl4.</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Preconditioning of mesenchymal stem cells (MSCs) with melatonin (MT) has shown promising results in animal models of myocardial infarction, renal ischemia and cerebral ischemia. Here, we use this strategy in the liver fibrosis induced by CCl4. There were five groups: normal, CCl4, CCl4 + vehicle, CCl4 + BMMSCs and CCl4 + MT-bone marrow (BM)-derived MSCs (MT-BMMSCs). CCl4 was injected twice weekly for 8 weeks and treatment either with cells or vehicle was performed at the beginning of week 5 with a single dose. BMMSCs were preconditioned with MT for 24 h before injection. MT-BMMSCs had a high ability of homing into the injured liver (P ≤ 0.05 vs. BMMSCs). The CCl4 + MT-BMMSCs group showed higher percentage of glycogen storage but lower percentage of collagen and lipid accumulation (P ≤ 0.05 vs. CCl4 + BMMSCs). The CCl4 + MT-BMMSCs group showed lower expressions of transforming growth factor-β1 (TGF-β1) and Bax and lower content of sera alanine aminotransferase (ALT) but higher expressions of matrix metalloproteinases (MMPs) and Bcl2 compared with the BMMSCs group (P ≤ 0.05). The results showed the better therapeutic outcomes of MT preconditioning by probably improving cell homing and also better maintenance of the balance between matrix degrading and accumulating factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>32603821</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MSC-derived exosomal miR-34a/c-5p and miR-29b-3p improve intestinal barrier function by targeting the Snail/Claudins signaling pathway.</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC)-derived exosomes (MSCs-exos) regulate biological functions in different diseases, such as liver fibrosis, diabetes, and ischaemic heart injury. However, the function of MSC-derived exosomes on the intestinal barrier and the underlying mechanisms are poorly characterized. The expression of miR-34a/c-5p, miR-29b-3p and Claudin-3 in human normal intestinal tissues and damaged intestinal tissues was evaluated by RT-qPCR. The effect of MSC-secreted exosomes on Claudins in Caco-2 cells was measured by using confocal microscopy, RT-qPCR and Western blot. Dual luciferase reporter assays and RNA immunoprecipitation (RIP) assays were performed to study the interaction between miR-34a/c-5p, miR-29b-3p and Snail. I/R-induced intestinal damage in rats was used to determine the in vivo effect of MSC-exos on intestinal barrier function. In this study, we found that miR-34a/c-5p, miR-29b-3p and Claudin-3 were downregulated in damaged human intestinal tissues. MSC-exos increased the expression of Claudin-3, Claudin-2 and ZO-1 in Caco-2 cells. Further studies demonstrated that MSC-exos promoted Claudin-3, Claudin-2 and ZO-1 expression in Caco-2 cells by Snail, which was targeted by miR-34a/c-5p and miR-29b-3p. In vivo experiments showed that MSC-derived exosomes could improve I/R-induced intestinal damage through the Snail/Claudins signaling pathway. The findings here suggest a novel molecular basis for the therapy of intestinal barrier dysfunction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>16150456</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Hepatic potential of bone marrow stromal cells: development of in vitro co-culture and intra-portal transplantation models.</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Bone marrow comprises heterogeneous cell populations and is thought to contain certain progenitors with the ability to differentiate into multiple mesenchymal cell lineages. To identify any differentiation plasticity of adult bone marrow stromal cells (BMSCs) into hepatocyte-like phenotypes, we developed a co-culture model with damaged liver tissue and an animal model of engraftment in cirrhotic liver via intra-portal transplantation. After 10 days of co-culture with injured liver tissues, BMSC expressed specific markers for hepatocytes by RT-PCR and Western blot. The two animal models for liver injury employed used carbon tetrachloride (CCl4) induction or bile duct ligation. For tracing BMSC resident in the liver after intra-portal transplantation, green fluorescent protein (GFP)-positive BMSCs or in situ hybridization of Y-chromosome Sry gene in male BMSC were used in a cross-sex transplantation model. Expression of hepatocyte-specific markers in recipients' liver tissues was determined by fluorescence immunohistochemistry. Our findings demonstrated that about 16% parenchyma cells were GFP-positive cells derived from infused BMSCs, and expression of albumin was detected in these cells in engrafted liver tissues. In conclusion, BMSCs exhibited hepatocyte-like phenotypes after co-cultivation with liver tissue and transplanted into the injured liver. The presented evidence indicated the trans differentiation potential of BMSC developing to the hepatocytes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>31552493</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of spheroids of stem cells from human exfoliated deciduous teeth for chronic liver fibrosis and hemophilia A.</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC)-based cell therapies have emerged as a promising treatment option for various diseases. Due to the superior survival and higher differentiation efficiency, three-dimensional spheroid culture systems have been an important topic of MSC research. Stem cells from human exfoliated deciduous teeth (SHED) have been considered an ideal source of MSCs for regenerative medicine. Thus, in the present study, we introduce our newly developed method for fabricating SHED-based micro-hepatic tissues, and demonstrate the therapeutic effects of SHED-based micro-hepatic tissues in mouse disease models. SHED-converted hepatocyte-like cells (SHED-HLCs) were used for fabricating spherical micro-hepatic tissues. The SHED-HLC-based spheroids were then transplanted both into the liver of mice with CCl&lt;sub&gt;4&lt;/sub&gt;-induced chronic liver fibrosis and the kidney of factor VIII (F8)-knock-out mice. At 4 weeks after transplantation, the therapeutic efficacy was investigated. Intrahepatic transplantation of SHED-HLC-spheroids improved the liver dysfunction in association with anti-fibrosis effects in CCl&lt;sub&gt;4&lt;/sub&gt;-treated mice. Transplanted SHED-converted cells were successfully engrafted in the recipient liver. Meanwhile, renal capsular transplantation of the SHED-HLC-spheroids significantly extended the bleeding time in F8-knock-out mice. These findings suggest that SHED-HLC-based micro-hepatic tissues might be a promising source for treating pediatric refractory diseases, including chronic liver fibrosis and hemophilia A.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>30979485</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Evaluation of the Effects of Cultured Bone Marrow Mesenchymal Stem Cell Infusion on Hepatocarcinogenesis in Hepatocarcinogenic Mice With Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Liver transplantation remains the only curative therapy for decompensated liver cirrhosis. However, it has several limitations, and not all patients can receive liver transplants. Therefore, liver regenerative therapy without liver transplantation is considered necessary. In this study, we attempted minimally invasive liver regenerative therapy by peripheral vein infusion of bone marrow-derived mesenchymal stem cells (BMSCs) cultured from a small amount of autologous bone marrow fluid and evaluated the effects of BMSCs on hepatocarcinogenesis in a mouse model. C57BL/6 male mice were injected intraperitoneally with N-nitrosodiethylamine once at 2 weeks of age, followed by carbon tetrachloride twice a week from 6 weeks of age onwards, to create a mouse model of highly oncogenic liver cirrhosis. From 10 weeks of age, mouse isogenic green fluorescent protein-positive BMSCs (1.0 × 10&lt;sup&gt;6&lt;/sup&gt;/body weight) were infused once every 2 weeks, for a total of 5 times, and the effects of frequent BMSC infusion on hepatocarcinogenesis were evaluated. In the histologic evaluation, no significant differences were observed between the controls and BMSC-administered mice in terms of incidence rate, number, or average size of foci and tumors. However, significant suppression of fibrosis and liver injury was confirmed in the group that received BMSC infusions. Considering that BMSC infusion did not promote carcinogenesis, even in the state of highly oncogenic liver cirrhosis, autologous BMSC infusion might be a safe and effective therapy for human decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>27960154</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Mesenchymal Stem Cells with Enhanced Bcl-2 Expression Promote Liver Recovery in a Rat Model of Hepatic Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) transplantation has emerged as an option for the treatment of chronic hepatic cirrhosis, while its therapeutic efficacy could be improved. The bcl-2 gene is anti-apoptotic and can help cell survival and proliferation. Therefore, we explored whether transplanted MSCs with enhanced bcl-2 expression may be beneficial in the treatment of experimental cirrhosis in rats. MSCs were isolated from rat bone marrow, expanded in vitro and transfected with adeno-associated virus (AAV) engineered the bcl-2 gene (AAV-bcl-2). Rats with cirrhosis induced by carbon tetrachloride (CCl4) were treated with AAV-bcl-2 infected BMSCs-AAV-bcl-2, with the cells traced in vivo post transplantation. Liver pathology and function were evaluated 7, 14, 21, and 28 days post transplantation, respectively. On day 7 post transplantation, the infused AAV-bcl-2 had integrated into the hepatocyte-like cells (HLCs) that expressed albumin (ALB), Cytokeratin 18 (CK18), and hepatocytes nuclear factor 4a (HNF4a). On day 28 post transplantation, rats in the cirrhosis + BMSCs-AAV-bcl-2 group showed the most dense HLCs, highest mRNA and protein levels of ALB, CK18, and HNF4a, compared to the other groups. Their liver function recovered most rapidly in 4 week observation, while histological sign of cirrhosis remained at the end of this period. BMSCs over expressing bcl-2 gene showed better survival, and enhanced the differentiation into hepatocytes-like cells, and appeared to promote the recovery of liver function in rats with experimental cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>24481983</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Infusion of human umbilical cord‑derived mesenchymal stem cells effectively relieves liver cirrhosis in DEN‑induced rats.</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Cirrhosis is the long‑term outcome of chronic hepatic injury and no effective therapy is currently available for this disease. Mesenchymal stromal cells (MSCs) are multipotent cells that are easily acquired and amplified, and may be potential candidates for cell therapy against cirrhosis. This study aimed to determine the therapeutic effects of human umbilical cord‑derived MSCs (hUCMSCs) for the treatment of liver cirrhosis and identify an effective method for engrafting MSCs. The model of liver cirrhosis was established by induction of diethylnitrosamine (DEN) in rats. The isolated hUCMSCs were identified by morphology, flow cytometry and multilineage differentiation; they were injected into the vein of DEN‑induced rats at varied cell doses and infusion times. Biochemical analyses of the serum and histopathological analysis of the liver tissues were performed to evaluate the therapeutic effects of hUCMSCs in all treatment groups. The results indicated that isolated hUCMSCs were capable of self‑replication and differentiated into multiple lineages, including osteoblast‑, adipocyte‑ and hepatocyte‑like cells. Compared with the control group, administration of hUCMSCs at different cell doses and infusion times relieved DEN‑induced cirrhosis to varying degrees. The therapeutic effects of hUCMSCs on liver cirrhosis gradually improved with increased cell dose and infusion times. The improvement of cirrhosis was due to the capacity of hUCMSCs to breakdown collagen fibers in the liver. It was demonstrated that infusion of hUCMSCs effectively relieved liver cirrhosis by facilitating the breakdown of collagen fibers in a dose‑dependent manner and multiple infusions caused a relatively greater improvement in cirrhosis compared with a single infusion of hUCMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>22320928</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Human umbilical cord mesenchymal stem cells improve liver function and ascites in decompensated liver cirrhosis patients.</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Decompensated liver cirrhosis (LC), a life-threatening complication of chronic liver disease, is one of the major indications for liver transplantation. Recently, mesenchymal stem cell (MSC) transfusion has been shown to lead to the regression of liver fibrosis in mice and humans. This study examined the safety and efficacy of umbilical cord-derived MSC (UC-MSC) in patients with decompensated LC. A total of 45 chronic hepatitis B patients with decompensated LC, including 30 patients receiving UC-MSC transfusion, and 15 patients receiving saline as the control, were recruited; clinical parameters were detected during a 1-year follow-up period. No significant side-effects and complications were observed in either group. There was a significant reduction in the volume of ascites in patients treated with UC-MSC transfusion compared with controls (P &lt; 0.05). UC-MSC therapy also significantly improved liver function, as indicated by the increase of serum albumin levels, decrease in total serum bilirubin levels, and decrease in the sodium model for end-stage liver disease scores. UC-MSC transfusion is clinically safe and could improve liver function and reduce ascites in patients with decompensated LC. UC-MSC transfusion, therefore, might present a novel therapeutic approach for patients with decompensated LC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>31551525</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Human umbilical cord perivascular cells-derived extracellular vesicles mediate the transfer of IGF-I to the liver and ameliorate hepatic fibrogenesis in mice.</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Extracellular vesicles (EVs) can mediate mesenchymal stromal cells (MSCs) paracrine effects. We aimed to evaluate the therapeutic potential of human umbilical cord perivascular cells (HUCPVCs) engineered to produce Insulin Growth Factor like-I (IGF-I) in experimental liver fibrosis and the role of EVs in this effect. HUCPVCs were engineered to produce human IGF-I (AdhIGF-I) or green fluorescence protein (AdGFP) using adenoviruses, and EVs were isolated from their conditioned medium (CM). In vitro effects of CM and EVs on hepatic stellate cells and hepatic macrophages were studied. Cells or EVs-based treatments were evaluated in thioacetamide-induced liver fibrosis in mice. The application of AdhIGF-I-HUCPVCs resulted in a further amelioration of liver fibrosis when compared to AdGFP-HUCPVCs and saline. Similarly, treatment with AdhIGF-I-HUCPVCs-derived EVs resulted in a reduction of collagen deposition and gene expression of the fibrogenic related molecules TGF-β1, α-SMA, and COL1A2. In vitro incubation of hepatic stellate cells with EVs-AdhIGF-I-HUCPVCs significantly reduced activation of fibrogenic cells. In addition, EVs-AdhIGF-I-HUCPVCs trigger hepatic macrophages to switch their phenotype towards anti-inflammatory phagocytes, which might be involved in the antifibrotic effect. Consistently, high levels of IGF-I were observed within EVs-AdhIGF-I-HUCPVCs but not in controls EVs. Our results showed that hIGF-I carrying EVs could mediate the paracrine mechanism by which AdhIGF-I-HUCPVCs reduce liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>27543493</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>HuR mediates motility of human bone marrow-derived mesenchymal stem cells triggered by sphingosine 1-phosphate in liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Sphingosine 1-phosphate (S1P) participates in migration of bone marrow (BM)-derived mesenchymal stem cells (BMSCs) toward damaged liver via upregulation of S1P receptor 3 (S1PR3) during mouse liver fibrogenesis. But, the molecular mechanism is still unclear. HuR, as an RNA-binding protein, regulates tumor cell motility. Here, we examined the role of HuR in migration of human BMSCs (hBMSCs) in liver fibrosis. Results showed that HuR messenger RNA (mRNA) level was increased in human or mouse fibrotic livers, and correlated with S1PR3 mRNA expression. Using immunofluorescence, we found that HuR mainly localized in the nuclei of hepatocytes and non-parenchymal cells in normal livers. However, in fibrotic livers, we detected an increased HuR cytoplasmic localization in non-parenchymal cells. In chimeric mice of BM cell-labeled by EGFP, significant numbers of EGFP-positive cells (BM origin) were positive for HuR in fibrotic areas. Meanwhile, HuR-positive cells were also positive for α-SMA (myofibroblasts). In vitro, S1P induced hBMSCs migration via S1PR3 upregulation. HuR involved in S1P-induced hBMSCs migration and increased stabilization of S1PR3 mRNA via competing with miR-30e. RNA immunoprecipitation showed that HuR interacted with S1PR3 mRNA 3'UTR. Moreover, S1P resulted in phosphorylation and cytoplasmic translocation of HuR via S1PR3 and p38MAPK. Furthermore, we transplanted EGFP&lt;sup&gt;+&lt;/sup&gt; BMSCs with or without HuR small interfering RNA (siRNA) into carbon tetrachloride-treated mice and found that knockdown of HuR inhibited the migration of BMSCs toward injured livers by flow cytometric analysis in vivo. We identified a positive feedback regulation mechanism between HuR and S1PR3 in S1P-induced BMSCs migration. HuR participates in upregulation of S1PR3 induced by S1P. S1P results in phosphorylation and translocation of HuR via S1PR3. Our results provide a new regulatory manner to the mechanism of liver fibrogenesis. HuR expression and cytoplasmic localization were increased in fibrotic livers. S1P induced migration of human bone marrow Mesenchymal Stem Cells via S1PR3 and HuR. HuR regulated S1PR3 mRNA expression by binding with S1PR3 mRNA 3'UTR. S1P induced HuR phosphorylation and cytoplasmic translocation via S1PR3. HuR regulated S1PR3 expression by competing with miR-30e.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>28610623</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Transplantation of human bone marrow mesenchymal stromal cells reduces liver fibrosis more effectively than Wharton's jelly mesenchymal stromal cells.</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells (MSCs) from various tissues have shown moderate therapeutic efficacy in reversing liver fibrosis in preclinical models. Here, we compared the relative therapeutic potential of pooled, adult human bone marrow (BM)- and neonatal Wharton's jelly (WJ)-derived MSCs to treat CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis in rats. Sprague-Dawley rats were injected with CCl&lt;sub&gt;4&lt;/sub&gt; for 8 weeks to induce irreversible liver fibrosis. Ex-vivo expanded, pooled human MSCs obtained from BM and WJ were intravenously administered into rats with liver fibrosis at a dose of 10 × 10&lt;sup&gt;6&lt;/sup&gt; cells/animal. Sham control and vehicle-treated animals served as negative and disease controls, respectively. The animals were sacrificed at 30 and 70 days after cell transplantation and hepatic-hydroxyproline content, histopathological, and immunohistochemical analyses were performed. BM-MSCs treatment showed a marked reduction in liver fibrosis as determined by Masson's trichrome and Sirius red staining as compared to those treated with the vehicle. Furthermore, hepatic-hydroxyproline content and percentage collagen proportionate area were found to be significantly lower in the BM-MSCs-treated group. In contrast, WJ-MSCs treatment showed less reduction of fibrosis at both time points. Immunohistochemical analysis of BM-MSCs-treated liver samples showed a reduction in α-SMA&lt;sup&gt;+&lt;/sup&gt; myofibroblasts and increased number of EpCAM&lt;sup&gt;+&lt;/sup&gt; hepatic progenitor cells, along with Ki-67&lt;sup&gt;+&lt;/sup&gt; and human matrix metalloprotease-1&lt;sup&gt;+&lt;/sup&gt; (MMP-1&lt;sup&gt;+&lt;/sup&gt;) cells as compared to WJ-MSCs-treated rat livers. Our findings suggest that BM-MSCs are more effective than WJ-MSCs in treating liver fibrosis in a CCl&lt;sub&gt;4&lt;/sub&gt;-induced model in rats. The superior therapeutic activity of BM-MSCs may be attributed to their expression of certain MMPs and angiogenic factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>22167104</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Matrix metalloproteinases (MMPs) activity in cultured canine bone marrow stromal cells (BMSCs).</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Autologous bone marrow stromal cells (BMSCs) infusion therapy improves the hepatic fibrosis. To investigate the mechanism of remission, we evaluated the matrix metalloproteinase (MMP)-2 and -9 activity in canine BMSCs and the effect of pro-inflammatory cytokines on their expression. The activity and the gene expression of MMPs were analyzed by gelatin zymography and quantitative RT-PCR, respectively. The specific gelatinase bands were indicative effect of MMP-2 and -9 in canine BMSCs. MMP-2 expression seemed to be increased by TNF-α and IL-1β while MMP-9 was enhanced by TNF-α and IL-6. These results suggested that remissive effect on liver fibrosis might be partly attributable to the MMP-2 and -9 activity in BMSCs under the inflammatory condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>31952158</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>AT-MSCs Antifibrotic Activity is Improved by Eugenol through Modulation of TGF-β/Smad Signaling Pathway in Rats.</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>For hepatic failure, stem cell transplantation has been chosen as an alternative therapy, especially for mesenchymal stem cells (MSCs). The aim of this study was to investigate the effect of eugenol (EUG) on the in vivo antifibrotic activity of adipose tissue-derived MSCs (AT-MSCs) and the underlying mechanism. After characterization of MSCs, rats were divided into five groups, Group 1 (normal control), Group 2 (CCl&lt;sub&gt;4&lt;/sub&gt;), Group 3 (CCl&lt;sub&gt;4&lt;/sub&gt; + AT-MSCs), Group 4 (CCl&lt;sub&gt;4&lt;/sub&gt; + EUG) and Group 5 (CCl&lt;sub&gt;4&lt;/sub&gt; + AT-MSCs + EUG). Biochemical and histopathological investigations were performed. Furthermore, expression of type 1 collagen, α-SMA, TGF-β1, Smad3 and P-Smad3 was estimated. Compared to the single treatment with AT-MSCs, the combination treatment of the fibrotic rats with AT-MSCs and EUG significantly improved the plasma fibrinogen concentration, IL-10 level and proliferating cell nuclear antigen expression, and also significantly decreased the serum levels of liver enzymes, IL-6, IL-1β, TNF-α, type III collagen, hyaluronic acid, hydroxyproline and the TGF-β growth factor. Furthermore, the combination treatment significantly decreased the hepatic expression of fibrotic markers genes (&lt;i&gt;Type 1 collagen&lt;/i&gt; and &lt;i&gt;α-SMA&lt;/i&gt;) and proteins (α-SMA, TGF-β1 and phospho-Smad3) more than the treatment with AT-MSCs alone. We demonstrated that the combination treatment with EUG and AT-MSCs strongly inhibited the advancement of CCl&lt;sub&gt;4&lt;/sub&gt;-induced hepatic fibrosis, compared with AT-MSCs alone, through TGF-β/Smad pathway inhibition. This approach is completely novel, so more investigations are necessary to improve our perception of the underlying molecular mechanisms accountable for the effects of EUG on the antifibrotic potential of AT-MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>23855301</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Pilot study of umbilical cord-derived mesenchymal stem cell transfusion in patients with primary biliary cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Ursodeoxycholic acid (UDCA) treatment is an effective medical therapy for patients with primary biliary cirrhosis (PBC); however, 40% of PBC patients show an incomplete response to the UDCA therapy. This study aimed to investigate the safety and efficacy of umbilical cord-derived mesenchymal stem cell (UC-MSC) transfusion in PBC patients with an incomplete response to UDCA. We conducted a single-arm trial that included seven PBC patients with a suboptimal response to UDCA treatment. UC-MSCs were first cultured, and then 0.5 × 10(6) cells/kg body weights were infused through a peripheral vein. UC-MSCs were given three times at 4-week intervals, and patients were followed up for 48 weeks. Primary outcomes were to evaluate the safety and feasibility of UC-MSC treatment, and secondary outcomes were to evaluate liver functions and patient's quality of life. No obvious side-effects were found in the patients treated with UC-MSCs. Symptoms such as fatigue and pruritus were obviously alleviated in most patients after UC-MSC treatment. There was a significant decrease in serum alkaline phosphatase and γ-glutamyltransferase levels at the end of the follow-up period as compared with baseline. No significant changes were observed in serum alanine aminotransferase, aspartate aminotransferase, total bilirubin, albumin, prothrombin time activity, international normalized ratio, or immunoglobulin M levels. The Mayo risk score, a prognostic index, was also stable during the treatment and follow-up period. UC-MSC transfusion is feasible and well tolerated in patients with PBC who respond only partially to UDCA treatment, thus representing a novel therapeutic approach for patients in this subgroup. A larger, randomized controlled cohort study is warranted to confirm the clinical efficacy of UC-MSC transfusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>27956229</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Milk Fat Globule-EGF Factor 8, Secreted by Mesenchymal Stem Cells, Protects Against Liver Fibrosis in Mice.</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) mediate tissue repair and might be used to prevent or reduce liver fibrosis. However, little is known about the anti-fibrotic factors secreted from MSCs or their mechanisms. Umbilical cord-derived MSCs (UCMSCs) were differentiated into hepatocyte-like cells (hpUCMSCs), medium was collected, and secretome proteins were identified and quantified using nanochip-liquid chromatography/quadrupole time-of-flight mass spectrometry. Liver fibrosis was induced in mice by intraperitoneal injection of thioacetamide or CCl&lt;sub&gt;4&lt;/sub&gt;; some mice were then given injections of secretomes or proteins. Liver tissues were collected and analyzed by histology or polymerase chain reaction array to analyze changes in gene expression patterns. We analyzed the effects of MSC secretomes and potential anti-fibrotic proteins on transforming growth factor β 1 (TGFβ1)-mediated activation of human hepatic stellate cell (HSC) lines (hTert-HSC and LX2) and human primary HSCs. Liver tissues were collected from 16 patients with liver cirrhosis and 16 individuals without cirrhosis (controls) in Korea and analyzed by immunohistochemistry and immunoblots. In mice with fibrosis, accumulation of extracellular matrix proteins was significantly reduced 3 days after injecting secretomes from UCMSCs, and to a greater extent from hpUCMSCs; numbers of activated HSCs that expressed the myogenic marker α-smooth muscle actin (α-SMA, encoded by ACTA2 [actin, alpha 2, smooth muscle]) were also reduced. Secretomes from UCMSCs, and to a greater extent from hpUCMSCs, reduced liver expression of multiple fibrotic factors, collagens, metalloproteinases, TGFβ, and Smad proteins in the TGFβ signaling pathways. In HSC cell lines and primary HSCs, TGFβ1-stimulated upregulation of α-SMA was significantly inhibited (and SMAD2 phosphorylation reduced) by secretomes from UCMSCs, and to a greater extent from hpUCMSCs. We identified 32 proteins in secretomes of UCMSCs that were more highly concentrated in secretomes from hpUCMSCs and inhibited TGFβ-mediated activation of HSCs. One of these, milk fat globule-EGF factor 8 (MFGE8), was a strong inhibitor of activation of human primary HSCs. We found MFGE8 to down-regulate expression of TGFβ type I receptor by binding to α&lt;sub&gt;v&lt;/sub&gt;β&lt;sub&gt;3&lt;/sub&gt; integrin on HSCs and to be secreted by MSCs from umbilical cord, teeth, and bone marrow. In mice, injection of recombinant human MFGE8 had anti-fibrotic effects comparable to those of the hpUCMSC secretome, reducing extracellular matrix deposition and HSC activation. Co-injection of an antibody against MFGE8 reduced the anti-fibrotic effects of the hpUCMSC secretome in mice. Levels of MFGE8 were reduced in cirrhotic liver tissue from patients compared with controls. MFGE8 is an anti-fibrotic protein in MSC secretomes that strongly inhibits TGFβ signaling and reduces extracellular matrix deposition and liver fibrosis in mice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>16233854</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Availability of bone marrow stromal cells in three-dimensional coculture with hepatocytes and transplantation into liver-damaged mice.</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Rat bone marrow stromal cells (BMSCs) were cultured in porous hydroxyapatite (HA) disks for 2 weeks to form a cell layer on the surface. Freshly isolated hepatocytes were then inoculated into both BMSC-cultured and non-treated HA disks. Hepatocytes cocultured with BMSCs secreted significantly more albumin than those in monoculture in vitro. The cell-packed HA disks were implanted into the peritoneal cavity of Nagase analbuminemia rats (NARs), and 4 weeks later, blood samples were collected to measure the albumin concentration. The cotransplantation of BMSCs with hepatocytes significantly increased the serum albumin concentration in NARs. The HA disks coculturing mice hepatocytes and BMSCs were also implanted into mice, in which liver damage had been induced using carbon tetrachloride and phenobarbital. The decreased serum albumin level in liver-damaged mice was completely recovered by the transplantation of hepatocytes and BMSCs. The serum level of IL-6 in liver-damaged mice was also increased by the cotransplantation of BMSCs and hepatocytes. Thus, the transplantation of BMSCs appears to have a systemic effect on recipients through the increase in the serum cytokine level as well as a local effect on cotransplanted hepatocytes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>23807535</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>The therapeutic effects of bone marrow-derived mesenchymal stem cells and simvastatin in a rat model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is the excessive accumulation of extracellular matrix (ECM) proteins including collagen that occurs in most types of chronic liver diseases. Studies concerning the capacity of mesenchymal stem cells (MSCs) and simvasatain (SIMV) to repair fibrotic tissues through reducing inflammation, collagen deposition, are still controversial. This study aimed to investigate the therapeutic efficacy of bone marrow (BM)-derived MSCs and SIMV on carbon tetrachloride (CCl4)-induced liver fibrosis in rats. Rats were divided into: normal, CCl4, CCl4/MSCs, CCl4/SIMV, CCl4/MSCs/SIMV, and SIMV groups. BM-derived MSCs were detected by RT-PCR of CD29 and were then infused into the tail vein of female rats that received CCl4 injection to induce liver fibrosis. Sex-determining region Y (SRY) gene on Y-chromosome gene was assessed by PCR to confirm homing of the male stem cells in liver tissue of the female recipients. Serum liver function tests, liver procollagens I and III, tissue inhibitors of metalloproteinase-1 (TIMP-1), endoglin, matrix metalloproteinase-1 (MMP-1) gene expressions, transforming growth factor-beta (TGF-β1) immunostaining, and histopathologicl examination were performed. MSCs and SIMV decreased liver procollagens I and III, TIMP-1 and endoglin gene expressions, TGF-β1 immunostaining, and serum liver function tests compared with the CCl4 group. MMP-1 expression was increased in the CCl4/MSCs group. Histopathological examination as well as fibrosis score supports the biochemical and molecular findings. It can be concluded that MSCs and SIMV were effective in the treatment of hepatic CCl4-induced fibrosis-rat model. Treatment with MSCs was superior to SIMV. This antifibrotic effect can be attributed to their effect on the MMPs/TIMPs balance which is central in fibrogenesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>28585911</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Transplant of Hepatocytes, Undifferentiated Mesenchymal Stem Cells, and In Vitro Hepatocyte-Differentiated Mesenchymal Stem Cells in a Chronic Liver Failure Experimental Model: A Comparative Study.</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Liver transplant is the cornerstone line of treatment for chronic liver diseases; however, the long list of complications and obstacles stand against this operation. Searching for new modalities for treatment of chronic liver illness is a must. In the present research, we aimed to compare the effects of transplant of undifferentiated human mesenchymal stem cells, in vitro differentiated mesenchymal stem cells, and adult hepatocytes in an experimental model of chronic liver failure. Undifferentiated human cord blood mesenchymal stem cells were isolated, pro-pagated, and characterized by morphology, gene expression analysis, and flow cytometry of surface markers and in vitro differentiated into hepatocyte-like cells. Rat hepatocytes were isolated by double perfusion technique. An animal model of chronic liver failure was developed, and undifferentiated human cord blood mesenchymal stem cells, in vitro hepato-genically differentiated mesenchymal stem cells, or freshly isolated rat hepatocytes were transplanted into a CCL4 cirrhotic experimental model. Animals were killed 3 months after transplant, and liver functions and histopathology were assessed. Compared with the cirrhotic control group, the 3 cell-treated groups showed improved alanine aminotransferase, aspartate aminotransferase, albumin, and bilirubin levels, with best results shown in the hepatocyte-treated group. Histopathologic examination of the treated groups showed improved fibrosis, with best results obtained in the undifferentiated mesenchymal stem cell-treated group. Both adult hepatocytes and cord blood mesenchymal stem cells proved to be promising candidates for cell-based therapy in liver regeneration on an experimental level. Improved liver function was evident in the hepatocyte-treated group, and fibrosis control was more evident in the undifferentiated mesenchymal stem cell-treated group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>38540717</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Comparison between the Regenerative and Therapeutic Impacts of Bone Marrow Mesenchymal Stem Cells and Adipose Mesenchymal Stem Cells Pre-Treated with Melatonin on Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>The distinctive feature of liver fibrosis is the progressive replacement of healthy hepatic cells by the extracellular matrix protein, which is abundant in collagen I and III, with impaired matrix remodeling. The activation of myofibroblastic cells enhances the fibrogenic response of complex interactions of hepatic stellate cells, fibroblasts, and inflammatory cells to produce the excessive deposition of the extracellular protein matrix. This process is activated by multiple fibrogenic mediators and cytokines, such as TNF-α and IL-1β, accompanied with a decrease in the anti-fibrogenic factor NF-κβ. Mesenchymal stem cells (MSCs) represent a promising therapy for liver fibrosis, allowing for a more advanced regenerative influence when cultured with extrinsic or intrinsic proliferative factors, cytokines, antioxidants, growth factors, and hormones such as melatonin (MT). However, previous studies showed conflicting findings concerning the therapeutic effects of adipose (AD) and bone marrow (BM) MSCs; therefore, the present work aimed to conduct a comparative and comprehensive study investigating the impact of MT pre-treatment on the immunomodulatory, anti-inflammatory, and anti-apoptotic effects of AD- and BM-MSCs and to critically analyze whether MT-pre-treated AD-MSCs and BM-MSCs reveal equal or different therapeutic and regenerative potentials in a CCl4-injured liver experimental rat model. Six groups of experimental rats were used, with ten rats in each group: group I (control group), group II (CCl4-treated group), group III (CCl4- and BM-MSC-treated group), group IV (CCl4 and MT-pre-treated BM-MSC group), group V (CCl4- and AD-MSC-treated group), and group VI (CCl4 and MT-pre-treated AD-MSC group). Liver function tests and the gene expression of inflammatory, fibrogenic, apoptotic, and proliferative factors were analyzed. Histological and immunohistochemical changes were assessed. The present study compared the ability of AD- and BM-MSCs, with and without MT pre-treatment, to reduce hepatic fibrosis. Both types of MSCs improved hepatocyte function by reducing the serum levels of ALT, aspartate aminotransferase (AST), alkaline phosphatase (AKP), and total bilirubin (TBIL). In addition, the changes in the hepatocellular architecture, including the hepatocytes, liver sinusoids, central veins, portal veins, biliary ducts, and hepatic arteries, showed a decrease in hepatocyte injury and cholestasis with a reduction in inflammation, apoptosis, and necrosis of the hepatic cells, together with an inhibition of liver tissue fibrosis. These results were augmented by an analysis of the expression of the pro-inflammatory cytokines TNFα and IL-1β, the anti-fibrogenic factor NF-κβ, the apoptotic factor caspase-3, and the proliferative indicators antigen Ki-67 and proliferating cell nuclear antigen (PCNA). These findings were found to be statistically significant, with the restoration of normal parameters in the rats that received AD-MSCs pre-treated with MT, denoting optimal regenerative and therapeutic effects. AD-MSCs pre-treated with MT are the preferred choice in improving hepatic fibrosis and promoting the therapeutic and regenerative ability of liver tissue. They represent a very significant tool for future stem cell use in the tissue regeneration strategy for the treatment of liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>38413394</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Secretome of Hypoxia-Preconditioned Mesenchymal Stem Cells Promotes Liver Regeneration and Anti-Fibrotic Effect in Liver Fibrosis Animal Model.</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>&amp;lt;b&amp;gt;Background and Objective:&amp;lt;/b&amp;gt; Liver fibrosis (LF) is a most common pathological process characterized by the activation of hepatocytes leading to the accumulation of extracellular matrix (ECM). Hypoxia precondition treated in MSCs (H-MSCs) could enhance their immunomodulatory and regeneration capability, through expressing robust anti-inflammatory cytokines and growth factors, known as H-MSCs secretome (SH-MSCs) that are critical for the improvement of liver fibrosis. However, the study regarding the efficacy and mechanism of action of SH-MSCs in ameliorating liver fibrosis is still inconclusive. In this study, the therapeutic potential and underlying mechanism for SH-MSCs in the treatment of liver fibrosis were investigated. &amp;lt;b&amp;gt;Materials and Methods:&amp;lt;/b&amp;gt; A rat model with liver fibrosis induced by CCl&amp;lt;sub&amp;gt;4&amp;lt;/sub&amp;gt; was created and maintained for 8 weeks. The rats received intravenous doses of SH-MSCs and secretome derived from normoxia MSCs (SN-MSCs), filtered using a tangential flow filtration (TFF) system with different molecular weight cut-off categories, both at a dosage of 0.5 mL. The ELISA assay was employed to examine the cytokines and growth factors present in both SH-MSCs and SN-MSCs. On the ninth day, the rats were euthanized and liver tissues were collected for subsequent histological examination and analysis of mRNA expression. &amp;lt;b&amp;gt;Results:&amp;lt;/b&amp;gt; The ELISA test revealed that SH-MSCs exhibited higher levels of VEGF, PDGF, bFGF, IL-10, TGF-β and IL-6 compared to SN-MSCs. &amp;lt;i&amp;gt;In vivo&amp;lt;/i&amp;gt;, administration of SH-MSCs notably decreased mortality rates. It also demonstrated a reduction in liver fibrosis, collagen fiber areas, α-SMA positive staining and relative mRNA expression of TGF-β. Conversely, SN-MSCs also contributed to liver fibrosis improvement, although SH-MSCs demonstrated more favorable outcomes. &amp;lt;b&amp;gt;Conclusion:&amp;lt;/b&amp;gt; Current findings suggested that SH-MSCs could improve CCl&amp;lt;sub&amp;gt;4&amp;lt;/sub&amp;gt;-induced liver fibrosis and decrease α-SMA and TGF-β expression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>24886681</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Peripheral vein infusion of autologous mesenchymal stem cells in Egyptian HCV-positive patients with end-stage liver disease.</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>We have assessed the utility of autologous mesenchymal stem cell (MSC) peripheral vein infusion as a possible therapeutic modality for patients with end-stage liver diseases. Forty patients with post-hepatitis C virus (HCV) end-stage liver disease were randomized into two groups: Group 1 (GI): 20 patients who received granulocyte colony-stimulating factor (G-CSF) for 5 days followed by autologous MSCs peripheral-vein infusion and group 2 (GII): 20 patients who received regular liver-supportive treatment only (control group). In MSC-infused patients (GI), 54% showed near normalization of liver enzymes and improvement in liver synthetic function. Significant changes were reported in albumin (P = 0.000), bilirubin (P = 0.002), increased international normalized ratio (INR) (P = 0.017), prothrombin concentration (P = 0.029) and alanine transaminase (ALT) levels (P = 0.029), with stabilization of clinical and biochemical status in 13% of cases. None of the patients in GII showed any significant improvement. Hepatic fibrosis was assessed in GI by detection of procollagen IIIC peptide level (PIIICP) and procollagen III N peptide level (PIIINP). The pretreatment values of s-PIIICP and s-PIIINP were 9.4 ± 4.2 and 440 ± 189, respectively, with a decrease to 8.1 ± 2.6 and 388 ± 102, respectively, 3 months after MSC therapy. However, the difference was statistically nonsignificant (P = 0.7). A significant correlation coefficient was reported after 3 months between the s-PIIINP and prothrombin concentration (P = -0.5) and between s-PIIICP and ascites (P = 0.550). First, autologous MSC infusion into a peripheral vein is as effective as the previously reported intrahepatic infusion. Second, MSCs have a supportive role in the treatment of end-stage liver disease, with satisfactory tolerability and beneficial effects on liver synthetic functions and hepatic fibrosis. Third, IV infusion of MSCs after G-CSF mobilization improves s-albumin within the first 2 weeks and prothrombin concentration and alanine Taransaminase after 1 month. According to the data from this current study and those previously reported by our group, we recommend further studies on patients' infusion with pure CD133 and CD34 followed by IV infusion of in vitro-differentiated MSCs within 1 week and another infusion after 3 months. ClinicalTrials.gov NCT01729221. Registered 17 November 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>21356258</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Intravenous administration of multipotent stromal cells prevents the onset of non-alcoholic steatohepatitis in obese mice with metabolic syndrome.</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Metabolic syndrome is secondary to obesity and characterized by dyslipidemia, insulin resistance, and hypertension. Non-alcoholic fatty liver disease is its hepatic manifestation, whose progression-limiting step is non-alcoholic steatohepatitis (NASH). The latter is characterized by lipid accumulation, hepatocyte damage, leukocyte infiltration, and fibrosis. NASH is a prodrome to cirrhosis and hepatocellular carcinoma. Multipotent stromal cells (MSCs) have been shown to be immunomodulatory and contribute to liver regeneration in acute failure conditions. Our aim was to evaluate whether MSC administration prevents the onset of NASH in obese mice with metabolic syndrome. C57BL/6 mice were chronically fed with high-fat diet. At week 33, mice received intravenously either the vehicle (obese untreated) or two doses of 0.5×10(6) syngeneic MSCs (obese MSC-treated). Four months later, liver function and structure, and metabolic syndrome markers were assessed. The persistence of donor MSCs(GFP) in obese mice was evaluated 17 weeks after their administration. Obese untreated mice presented high plasma levels of hepatic enzyme, hepatomegaly, liver fibrosis, inflammatory cell infiltration, and hepatic triglyceride accumulation. Furthermore, they showed high expression levels of fibrosis markers and pro-inflammatory cytokines. By contrast, obese MSC-treated mice only presented steatosis. Mice kept obese, hypercholesterolemic, hyperglycemic, and insulin resistant irrespective of whether they received MSCs or not. Donor MSCs(GFP) were found in liver, bone marrow, heart, and kidney of obese mice. MSC administration prevents the onset of NASH in obese mice. Observed hepatoprotection is not related to a reversion of the metabolic syndrome but to the preclusion of the inflammatory process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>22432472</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Therapeutic potential of mesenchymal stem cells overexpressing human forkhead box A2 gene in the regeneration of damaged liver tissues.</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Although a liver transplantation is considered to be the only effective long-term treatment in many cases of liver diseases, it is limited by a lack of donor organs and immune rejection. As an autologous stem cell approach, this study was conducted to assess whether forkhead box A2 (Foxa2) gene overexpression in bone marrow-derived mesenchymal stem cells (MSC) could protect the liver from hepatic diseases by stimulating tissue regeneration after cell transplantation. Rat MSC (rMSC) were isolated, characterized, and induced to hepatocytes that expressed liver-specific markers. Four different treatments (control [phosphate-buffered saline], rMSC alone, rMSC/pIRES-enhanced green fluorescent protein (EGFP) vector, and rMSC/pIRES-EGFP/human Foxa2) were injected into the spleen of carbon tetrachloride-injured rats. Biochemical and histological analyses on days 30, 60, and 90 post-transplantation were performed to evaluate the therapeutic capacities of MSC overexpressing hFoxa2. rMSC transfected with hFoxa2 were induced into hepatogenic linage and expressed several liver-specific genes, such as, Foxa2, α-fetoprotein, cytokeratin-18, hepatocyte nuclear factor-1α, and hepatocyte growth factor. A group of animals treated with MSC/hFoxa2 showed significant recovery of liver-specific enzyme expressions to normal levels at the end of the study (90 days). Furthermore, when compared to the fibrotic areas of the samples treated with MSC alone or MSC/vector, the fibrotic area of the samples treated with rMSC/hFoxa2 for 90 days significantly decreased, until they were completely gone. Human Foxa2 efficiently promoted the incorporation of MSC into liver grafts, suggesting that hFoxa2 genes could be used for the structural or functional recovery of damaged liver cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>26125913</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Immunomodulatory effect of bone marrow mesenchymal stem cells on T lymphocytes in patients with decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>We explored the immunomodulatory effects of bone marrow mesenchymal stem cells (BMSCs) on peripheral blood T lym-phocytes in patients with decompensation stage, hepatitis B-associated cirrhosis. MSCs from nine patients were analyzed by flow cytometry. Peripheral blood lymphocytes were isolated for fluorescent staining. Following stimulation by phytohemagglutinin (PHA), peripheral blood lymphocytes were co-cultured with BMSCs in serum and divided into four groups: (1) BMSC + lymphocyte + PHA contact culture group; (2) BMSC + lymphocyte + PHA non-contact culture group; (3) lym-phocyte + PHA positive control group; and (4) lymphocyte-only negative control group. Lymphocyte proliferation and frequencies of CD4(+)CD25(+)CD127(-) Tregs and CD4(+)CD8(-)IL-17(+) (Th17) cells were de-tected. Cell proliferation in groups 1 and 2 declined compared with group 3 (P &lt; 0.01), and was notably higher than in group 4 (P &lt; 0.01). CD4(+)CD25(+)CD127(-) Tregs frequencies in groups 1 and 2 were higher than in groups 3 and 4. In an intra-group comparison before and after culture, Th17 cell frequencies in groups 1 and 2 were higher than in group 4 (P &lt; 0.01), but lower than in group 3 (P &lt; 0.01). The Treg/Th17 ratio in groups 1 and 2 increased (P &lt; 0.01), but did not change signifi-cantly in groups 3 and 4 (P &gt; 0.05). In a comparison between groups after culture, the Treg/Th17 ratio in groups 1 and 2 increased more than in groups 3 and 4 (P &lt; 0.01). BMSCs from cirrhotic patients can inhibit the proliferation of peripheral blood T lymphocytes, upregulate the ex-pression of CD4(+)CD25(+)CD127(-) Tregs, and improve Treg/Th17 imbal-ance. The mechanism by which this takes place may be associated with immunomodulatory effects induced by the secretion of soluble factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>32503644</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Immunopathology in schistosomiasis is regulated by TLR2,4- and IFN-γ-activated MSC through modulating Th1/Th2 responses.</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>A marked egg-induced CD4&lt;sup&gt;+&lt;/sup&gt; T cell programmed inflammation and subsequent hepatic fibrosis characterize the pathogenesis of schistosomiasis. Mesenchymal stem cell (MSC) has been extensively studied for the treatment of schistosomiasis. However, the mechanism by which MSCs modulate the pathogenesis of schistosomiasis has not been clarified. Furthermore, the local inflammatory milieu may greatly influence the immunoregulatory properties of MSCs, and our early experiments demonstrated that Toll-like receptor (TLR)2/TLR4 agonist effected immune modulation of MSC. Here, we further investigated their modulation on the pathogenesis of schistosomiasis. Adult BALB/c male mice were percutaneously infected with 16 ± 2 pairs S. japonicum cercariae and received intravenously pretreated MSC at 1 week and 3 weeks post-infection, respectively. At 8 weeks post-infection, effects of MSC on liver histology were shown by hematoxylin and eosin (H&amp;E) staining and Masson staining and quantitatively compared by the hepatic hydroxyproline content; α-smooth muscle actin (α-SMA), collagen type I(Col-1), transforming growth factor β (TGF-β), and tumor necrosis factor-α (TNF-α) gene expression in the liver were assessed by semi-quantitative polymerase chain reaction (PCR); the Th1/Th2 dominance among different groups was compared by analyzing CD4&lt;sup&gt;+&lt;/sup&gt; interferon-γ (IFN-γ)+ and CD4+interleukin-4 (IL-4)+T cells in the liver by flow cytometry and serum level of IFN-γ and IL-5 using enzyme-linked immunosorbent assay (ELISA). Effects of different kinds of MSC were further evaluated in vitro by the coculture system. Results showed TLR4- and IFN-γ-activated MSC alleviated liver fibrosis in infected mice, without a significant increase of mortality, and unpretreated MSC showed no clear improvement; however, TLR2- and IFN-γ-activated MSC displayed aggravated immunopathology. In accord with the pathological results, TLR4- and IFN-γ-activated MSC groups showed moderate enhancement of Th1 response in vitro and clear Th1 dominance in vivo without leading to extreme inflammation, whereas TLR2- and IFN-γ-activated MSC not only induced Th1 response, but also triggered excessive inflammation as evidenced by atrophy of the thymus and higher TNF level in the coculture system. This study demonstrates that TLR4 combined with IFN-γ can activate the MSC group with positive effects on the pathology of schistosomiasis by modulating Th subsets at some degree. This result suggests that when MSC is being used to treat different immuno-disturbance complications, subtle pretreatment methods should be seriously considered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>20025519</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Antifibrotic effect of hepatocyte growth factor-expressing mesenchymal stem cells in small-for-size liver transplant rats.</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Ischemia-reperfusion and chronic injuries associated with small-for-size liver transplantation (SFSLT) impair the regeneration of liver graft and induce liver fibrosis. Mesenchymal stem cells (MSCs) can prevent the development of liver fibrosis, and hepatocyte growth factor (HGF) can also attenuate liver cirrhosis. Our previous studies have demonstrated that higher occurrence of liver fibrosis existed in rats post-SFSLT, and that implantation of HGF/MSCs, the human HGF (hHGF)-expressing MSCs, can improve liver regeneration, reduce mortality of rats, as well as have the potent antifibrotic effect in this SFSLT model. In the present study, we implanted HGF/MSCs into liver grafts via the portal vein and investigated their role in antifibrosis effect, using a 30% SFSLT rat model. Fibrosis indexes, including laminin (LN), hyaluronic acid (HA) levels in serum and hydroxyproline (Hyp) content in the liver grafts, the expression of transforming growth factor-beta1 (TGF-beta(1)), rat HGF (rHGF), alpha-smooth muscle actin (alpha-SMA) in hepatic stellate cells (HSCs), alanine aminotransferase (ALT), total bilirubin (BIL), and albumin (ALB) levels in serum, in rats in different treatment groups were assessed at different time points. We found that HGF/MSCs significantly inhibited the formation of liver fibrosis in rats undergoing SFSLT, while MSCs and HGF had synergistic effects in the process. The antifibrosis effect of HGF/MSCs may have contributed in modulating the activation and apoptosis of HSCs, elevating the rHGF expression level, and decreasing the TGF-beta(1) secretion of activated HSCs. These studies suggest that HGF/MSCs may be a novel therapeutic option for the treatment of liver fibrosis after SFSLT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>29187911</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Oval Cells Contribute to Fibrogenesis of Marginal Liver Grafts under Stepwise Regulation of Aldose Reductase and Notch Signaling.</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Background and Aims:&lt;/b&gt; Expanded donor criteria poses increased risk for late phase complications such as fibrosis that lead to graft dysfunction in liver transplantation. There remains a need to elucidate the precise mechanisms of post-transplant liver damage in order to improve the long-term outcomes of marginal liver grafts. In this study, we aimed to examine the role of oval cells in fibrogenic development of marginal liver grafts and explore the underlying mechanisms. &lt;b&gt;Methods&lt;/b&gt;: Using an orthotopic rat liver transplantation model and human post-transplant liver biopsy tissues, the dynamics of oval cells in marginal liver grafts was evaluated by the platform integrating immuno-labeling techniques and ultrastructure examination. Underlying mechanisms were further explored in oval cells and an Aldose reductase (AR) knockout mouse model simulating marginal graft injury. &lt;b&gt;Results:&lt;/b&gt; We demonstrated that activation of aldose reductase initiated oval cell proliferation in small-for-size fatty grafts during ductular reaction at the early phase after transplantation. These proliferative oval cells subsequently showed prevailing biliary differentiation and exhibited features of mesenchymal transition including dynamically co-expressing epithelial and mesenchymal markers, developing microstructures for extra-cellular matrix degradation (podosomes) or cell migration (filopodia and blebs), and acquiring the capacity in collagen production. Mechanistic studies further indicated that transition of oval cell-derived biliary cells toward mesenchymal phenotype ensued fibrogenesis in marginal grafts under the regulation of notch signaling pathway. &lt;b&gt;Conclusions:&lt;/b&gt; Oval cell activation and their subsequent lineage commitment contribute to post-transplant fibrogenesis of small-for-size fatty liver grafts. Interventions targeting oval cell dynamics may serve as potential strategies to refine current clinical management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>21537835</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Human umbilical cord blood-derived mesenchymal stem cells improve glucose homeostasis in rats with liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Disturbance of glucose metabolism is a common feature in liver cirrhosis which is associated with insulin resistance and is an established risk factor for disease progression and survival in patients with chronic liver diseases. We investigated whether umbilical cord blood-derived mesenchymal stem cells (HMSCs) have an effect on the expression of molecules responsible for glucose utilization and hepatic gluconeogenesis, focusing on the insulin signaling pathway in rats with liver cirrhosis. Rats received a dose of CCl4 (100 µl/100 g 4:1 in corn oil) thrice-weekly. HMSCs were infused at 4 weeks after induction of liver cirrhosis by CCl4. Infusion of HMSCs improved insulin resistance which was associated with increased glucose levels and decreased insulin sensitivity in CCl4-induced cirrhotic rats. HMSCs increased activities in the proximal part of the insulin signaling cascade, as evidenced by increased expression of key enzymes such as phosphatidylinositol-3-kinase (PI 3-kinase), protein kinase B (PKB), protein kinase C-ζ (PKC-ζ), and the decrease of glycogen synthase kinase 3 (GSK-3) compared to CCl4-induced liver cirrhotic rats. We also observed that glucose-6-phosphatase (G-6-P) and phosphoenolpyruvate kinase (PEPCK), two hepatic enzymes involved in gluconeogenesis were strongly decreased over 40-50% after infusion of HMSCs. Taken together, our results showed that HMSCs could improve insulin resistance in CCl4-induced liver cirrhosis, thereby contributing to glucose homeostasis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>25501583</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Hepatocyte growth factor gene-modified adipose-derived mesenchymal stem cells ameliorate radiation induced liver damage in a rat model.</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Liver damage caused by radiotherapy is associated with a high mortality rate, but no established treatment exists. Adipose-derived mesenchymal stem cells (ADSCs) are capable of migration to injured tissue sites, where they aid in the repair of the damage. Hepatocyte growth factor (HGF) is critical for damage repair due to its anti-apoptotic, anti-fibrotic and cell regeneration-promoting effects. This study was performed to investigate the therapeutic effects of HGF-overexpressing ADSCs on radiation-induced liver damage (RILD). ADSCs were infected with a lentivirus encoding HGF and HGF-shRNA. Sprague-Dawley (SD) rats received 60Gy of irradiation to induce liver injury and were immediately given either saline, ADSCs, ADSCs + HGF or ADSCs + shHGF. Two days after irradiation, a significant reduction in apoptosis was observed in the HGF-overexpressing ADSC group compared with the RILD group, as assessed by terminal deoxynucleotidyl transferase dUTP nick end labeling (TUNEL) staining. Scanning electron microscopy showed chromatin condensation after irradiation, which was ameliorated in the group that received ADSCs and was reversed in the group that received HGF-overexpressing ADSCs. HGF-overexpressing ADSCs ameliorated radiation- induced liver fibrosis through down regulation of α-SMA and fibronectin. Hepatocyte regeneration was significantly improved in rats treated with ADSCs compared with rats from the RILD group), as assessed by Ki-67 immunohistochemistry. Rats that received HGF-overexpressing ADSCs showed an even greater level of hepatocyte regeneration. HGF-overexpressing ADSCs completely blocked the radiation-induced increase in the enzymes ALT and AST. The effect of mitigating RILD was compromised in the ADSC + shHGF group compared with the ADSC group. Altogether, these results suggest that HGF-overexpressing ADSCs can significantly improve RILD in a rat model, which may serve as a valuable therapeutic alternative.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>37964155</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Human dental pulp stem cells have comparable abilities to umbilical cord mesenchymal stem/stromal cells in regulating inflammation and ameliorating hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis, also called cirrhosis, have wide prevalence worldwide for long yeas. Recently, many treatments for liver cirrhosis made marked progress, especially the umbilical cord-derived mesenchymal stromal cells (UCMSC) therapy. However, limited recourses and potential immune-related issues become the obstacles on UCMSC popularization in clinic. Therefore, we took dental pulp stem cells (DPSCs) into the consideration, since autologous DPSCs can be easily obtained without any ethnic or immune-related issues that heterogenous UCMSCs could encounter. We systematically compared the effects of both cell types and found that DPSCs had similar results to UCMSCs in regulating inflammation and reversing hepatic fibrosis. In our study, co-culturing T cells and PBMSCs showed that DPSCs have the ability to inhibit the proliferation of inflammatory cells and downregulate relevant inflammatory factors. In vitro and in vivo sterility tests confirmed the bio-safety of DPSCs. Moreover, the 1 year-aged mouse model demonstrated that DPSCs successfully reversed hepatic fibrosis. Overall, DPSCs demonstrated comparable effectiveness to UCMSCs in regulating inflammation and reversing hepatic fibrosis, particularly in the aged mouse model that represents middle-aged and elderly humans. Since autologous DPSCs avoid potential immune-related issues that heterogenous UCMSCs could encounter, they may be a better choice for stem cell-related therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>27130910</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Melatonin Pretreatment Enhances the Homing of Bone Marrow-derived Mesenchymal Stem Cells Following Transplantation in a Rat Model of Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (BMMSCs) transplantation has been considered as a promising milestone in liver fibrosis treatment. However, low amounts of homing are a major obstacle. We aimed to investigate the role of melatonin pretreatment in BMMSC homing into experimental liver fibrosis. BMMSCs were obtained, grown, propagated and preconditioned with 5 µM melatonin and analyzed for multipotency and immunophenotypic features at passage three. The cells were labelled with CM-Dil and infused into the rats received the i.p. injection of carbon tetrachloride (CCl4) for five weeks to induce liver fibrosis. Animals were divided into two groups: One group received BMMSCs, whereas the other group received melatonin-pretreated BMMSCs (MT-BMMSCs). After cell injection at 72 h, animals were sacrificed, and the liver tissues were assessed for further evaluations: fibrosis using Masson's trichrome and hematoxylin and eosin staining and homing using fluorescent microscopy and flow cytometry. BMMSCs and MT-BMMSCs expressed a high level of CD44 but low levels of CD11b, CD45 and CD34 (for all P≤0.05) and were able to differentiate into adipocytes and Schwann cells. CCl4 induction resulted in extensive collagen deposition, tissue disruption and fatty accumulation with no obvious difference between the two groups. There was a significant increase in homing of MT-BMMSCs in both florescent microscopy (P≤0.001) and flow cytometry (P≤0.01) assays, as compared with non-treated BMMSCs. This study indicates the improved homing potential of BMMSCs in pretreatment with melatonin. Therefore, this strategy may represent an applied approach for improving the stem cell therapy of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>26389810</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Molecular and Cellular Functions Distinguish Superior Therapeutic Efficiency of Bone Marrow CD45 Cells Over Mesenchymal Stem Cells in Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is strongly associated with chronic inflammation. As an alternative to conventional treatments for fibrosis, mesenchymal stem cells (MSCs) therapy is found to be attractive due to its immunomodulatory functions. However, low survival rate and profibrogenic properties of MSCs remain the major concerns, leading to skepticism in many investigators. Here, we have asked the question whether bone marrow (BM)-derived CD45 cells is the better candidate than MSCs to treat fibrosis, if so, what are the molecular mechanisms that make such distinction. Using CCl4 -induced liver fibrosis mouse model of a Metavir fibrosis score 3, we showed that BM-CD45 cells have better antifibrotic effect than adipose-derived (AD)-MSCs. In fact, our study revealed that antifibrotic potential of CD45 cells are compromised by the presence of MSCs. This difference was apparently due to significantly high level expressions of matrix metalloproteinases-9 and 13, and the suppression of hepatic stellate cells' (HpSCs) activation in the CD45 cells transplantation group. Mechanism dissection studied in vitro supported the above opposing results and revealed that CD45 cell-secreted FasL induced apoptotic death of activated HpSCs. Further analyses suggest that MSC-secreted transforming growth factor β and insulin-like growth factor-1 promoted myofibroblastic differentiation of HpSCs and their proliferation. Additionally, the transplantation of CD45 cells led to functional improvement of the liver through repair and regeneration. Thus, BM-derived CD45 cells appear as a superior candidate for the treatment of liver fibrosis due to structural and functional improvement of CCl4 -induced fibrotic liver, which were much lower in case of AD-MSC therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>19559033</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Nerve growth factor-mediated paracrine regulation of hepatic stellate cells by multipotent mesenchymal stromal cells.</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Multipotent mesenchymal stromal cells (MSC) have been reported to prevent the development of liver fibrosis and have emerged as a promising strategy for cell-based therapy. However, the underlying therapeutic mechanism remains unclear. Hepatic stellate cells (SC) activation is a pivotal event in the development of liver fibrosis. We hypothesized that MSC play an important role in regulating SC proliferation and apoptosis through paracrine mechanisms. To investigate the paracrine interactions between MSC and SC, a co-culture experimental model was developed using human MSC (hMSC) and human SC (hSC). We demonstrate that hMSC and hSC both express nerve growth factor (NGF) receptor p75. Results acquired from transwell co-culture experiments using hSC and hMSC showed that hMSC secrete NGF, which enhances hSC apoptosis. Transcription factor nuclear factor kappa B (NF-KappaB) and B cell leukemia-xl (Bcl-xl) take part in the process. These findings demonstrated that hMSC indirectly modulate activated hSC in vitro via NGF-mediated signaling cascades and provide a potential mechanism of how transplanted MSC are effective in treating liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>20824962</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Synergistic effects of rMSCs and salidroside on the experimental hepatic fibrosis.</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Rat mesenchymal stem cells (rMSCs) and salidroside have been applied in the treatment of hepatic fibrosis. The present study aimed to investigate the mechanism of hepatic differentiation of rMSCs in vitro and synergistic effects of rMSCs and salidroside on the experimental hepatic fibrosis in rats. rMSCs treated with 10 microg/mL, 20 microg/mL and 50 microg/mL salidroside were taken at 14 days and the proteins were subjected to western blot analysis. Hepatic fibrosis was induced in rats by administration of porcine serum for 8 weeks. Then, rats were randomly divided into 6 groups: control group, hepatic fibrosis group (model), salidroside group, rMSCs group and rMSCs plus salidroside group. Four weeks later, the localization and differentiation of rMSCs were determined. To evaluate the improvement of liver injury, the pathology of hepatocytes (or liver) and serum transforming growth factor-beta1 (TGF-beta1) were assessed. Induced rMSCs expressed alpha-fetoprotein (AFP) and albumin (ALB), which suggested rMSCs differentiated towards hepatocytes; moreover, E-adherin and beta-catenin were involved in the hepatic differentiation of rMSCs. In experiments of rMSCs transplantation, the amount of collagen in the liver of rMSCs plus salidroside treated rats was significantly lowered accompanied by reduced expression of TGF-beta1, when compared to the control group and rMSCs group. These findings suggested the synergistic effects of rMSCs transplantation and salidroside on hepatic fibrosis. Salidroside could differentiate rMSCs towards hepatocytes and E-adherin and beta-catenin were involved in the hepatic differentiation of rMSCs. Treatment with rMSCs transplantation and salidroside exerted synergistic effects on the experimental hepatic fibrosis via suppressing the expression of TGF-beta1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>26877613</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Human urokinase-type plasminogen activator gene-modified bone marrow-derived mesenchymal stem cells attenuate liver fibrosis in rats by down-regulating the Wnt signaling pathway.</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>To evaluate the therapeutic effects of bone marrow-derived mesenchymal stem cells (BMSCs) with human urokinase-type plasminogen activator (uPA) on liver fibrosis, and to investigate the mechanism of gene therapy. BMSCs transfected with adenovirus-mediated human urokinase plasminogen activator (Ad-uPA) were transplanted into rats with CCl4-induced liver fibrosis. All rats were sacrificed after 8 wk, and their serum and liver tissue were collected for biochemical, histopathologic, and molecular analyzes. The degree of liver fibrosis was assessed by hematoxylin and eosin or Masson's staining. Western blot and quantitative reverse transcription-polymerase chain reaction were used to determine protein and mRNA expression levels. Serum levels of alanine aminotransferase, aminotransferase, total bilirubin, hyaluronic acid, laminin, and procollagen type III were markedly decreased, whereas the levels of serum albumin were increased by uPA gene modified BMSCs treatment. Histopathology revealed that chronic CCl4-treatment resulted in significant fibrosis while uPA gene modified BMSCs treatment significantly reversed fibrosis. By quantitatively analysing the fibrosis area of liver tissue using Masson staining in different groups of animals, we found that model animals with CCl4-induced liver fibrosis had the largest fibrotic area (16.69% ± 1.30%), while fibrotic area was significantly decreased by BMSCs treatment (12.38% ± 2.27%) and was further reduced by uPA-BMSCs treatment (8.31% ± 1.21%). Both protein and mRNA expression of β-catenin, Wnt4 and Wnt5a was down-regulated in liver tissues following uPA gene modified BMSCs treatment when compared with the model animals. Transplantation of uPA gene modified BMSCs suppressed liver fibrosis and ameliorated liver function and may be a new approach to treating liver fibrosis. Furthermore, treatment with uPA gene modified BMSCs also resulted in a decrease in expression of molecules of the Wnt signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>29110545</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Serum from CCl&lt;sub&gt;4&lt;/sub&gt;-induced acute rat injury model induces differentiation of ADSCs towards hepatic cells and reduces liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Cellular therapies hold promise to alleviate liver diseases. This study explored the potential of allogenic serum isolated from rat with acute CCl&lt;sub&gt;4&lt;/sub&gt; injury to differentiate adipose derived stem cells (ADSCs) towards hepatic lineage. Acute liver injury was induced by CCl&lt;sub&gt;4&lt;/sub&gt; which caused significant increase in serum levels of VEGF, SDF1α and EGF. ADSCs were preconditioned with 3% serum isolated from normal and acute liver injury models. ADSCs showed enhanced expression of hepatic markers (AFP, albumin, CK8 and CK19). These differentiated ADSCs were transplanted intra-hepatically in CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis model. After one month of transplantation, fibrosis and liver functions (alkaline phosphatase, ALAT and bilirubin) showed marked improvement in acute injury group. Elevated expression of hepatic (AFP, albumin, CK 18 and HNF4a) and pro survival markers (PCNA and VEGF) and improvement in liver architecture as deduced from results of alpha smooth muscle actin, Sirius red and Masson's trichome staining was observed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>30230766</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>THE EFFECT OF STEM CELLS AS AN ADJUVANT ON THE IMMUNOGENICITY OF A POTENTIAL ANTI-SCHISTOSOMAL VACCINE IN MICE.</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Vaccination against schistosomes can be targeted towards the prevention of infection and/or to the reduction of parasite fecundity and pathology. However, as eggs are responsible mainly for schistosomiasis pathology, so crude soluble egg antigen (SEA) seems suitable to be used as a potential vaccine. Many studies have provided new insights establishing a role for mesenchymal stem cells (MSCs) in liver regeneration and improvement of schistosomiasis hepatic fibrosis, in addition to the need for standardized and effective adjuvant-vaccine formulations. So, the aim of this work is to evaluate the effect of stem cells when used as an adjuvant of a potential anti-schistosomal vaccine (crude SEA) in murine models. The current work was carried out on 100 mice (30 males for harvesting MSCs + 70 females for seven study groups, each of 10). A schedule of vaccination and challenge infection was followed so, GI (control healthy), G2 (control infected only) infected subcutaneously with S. mansoni cercaria (80-90 Schistosoma mansoni cercariae suspended in 0.2 ml distilled Water), G 3 (FCA then infected) received Freund's complete adjuvant (FCA) then infected, G4 (MSCs then infected) received MSCs then infected, G5 (SEA then infected) received SEA vaccine then infected, G6 (SEA+FCA then infected) received SEA vaccine and FCA then infected, G7 (SEA+MSCs then infected) received SEA vaccine and MSCs then infected. The current work was assessed by histopathological study and morphometric analysis (using H&amp;E and Masson's Trichrome stains) to highlight number, size and type of liver granulomas and percentage of liver fibrosis, immunological and molecular studies (RNA extraction, Re- verse Transcriptase and PCR technique) for detection of interleukin-10 mRNA gene expression in liver tissue by reverse transcriptase &amp; polymerase chain reaction (RT &amp; PCR). The results showed that a- SEA alone as a potential anti-schistosomal vaccine was more or less moderately protective, b- MSCs alone before the infection had mild prophylactic effects, c- MSCs as an adjuvant of the crude SEA increased its capabilities with highly significant results regarding the decrease in granuloma number, size, percentage and density of hepatic fi- brosis, and d-There was significant increase in IL-10 mRNA gene expression on using (SEA+MSCs) (G7) if compared to other tested groups.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>25473446</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Role of Bone Marrow Mesenchymal Stem Cells in the Treatment of CCL4 Induced Liver Fibrosis in Albino Rats: A Histological and Immunohistochemical Study.</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Variety of pathological factors including viral hepatitis, alcohol and drug abuse, metabolic diseases, autoimmune diseases and congenital abnormalities can cause hepatic injury. Liver transplantation is the treatment of choice for end-stage liver diseases, however, it faces several difficulties. So the aim of the work is to evaluate the effect of bone marrow derived mesenchymal stem cells (BM-MSCs) on the liver structure in carbon tetra chloride CCL4 induced liver fibrosis in rats. BM-MSCs were isolated and characterized from long bones of twenty male albino rats. Sixty female rats were divided into the following two groups: Group I; thirty rats which were the control group. Group II; thirty rats were injected intra-peritoneal (IP) by CCL4 twice weekly for four weeks and was further subdivided into the following three subgroups: Subgroup IIA (CCL4 alone); included ten rats which were sacrificed after this four weeks. Subgroup IIB (CCL4/MSCs); included ten rats which were IP injected by a single dose of BM-MSCs and were sacrificed after four weeks. Subgroup IIC (CCL4/recovery); included ten rats which were left for another four weeks without any intervention. Histological examination of liver specimens showed that CCl4 caused variable pathological changes with elevated liver enzymes. Injection of BM-MSCs revealed an improvement in the histological picture of the liver and its enzymatic profile. On the other hand, most of the pathological lesion were still detected in rats of recovery group. BM-MSC could restore the liver structure and function in experimental model of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>25639333</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Basic fibroblast growth factor-treated adipose tissue-derived mesenchymal stem cell infusion to ameliorate liver cirrhosis via paracrine hepatocyte growth factor.</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Recent studies show that adipose tissue-derived mesenchymal stem cells have potential clinical applications. However, the mechanism has not been fully elucidated yet. Here, we investigated the effect of basic fibroblast growth factor-treated adipose tissue-derived mesenchymal stem cells infusion on a liver fibrosis rat model and elucidated the underlying mechanism. Adipose tissue-derived mesenchymal stem cells were infused into carbon tetrachloride-induced hepatic fibrosis rats through caudal vein. Liver functions and pathological changes were assessed. A co-culture model was used to clarify the potential mechanism. Basic fibroblast growth factor treatment markedly improved the proliferation, differentiation, and hepatocyte growth factor expression ability of adipose tissue-derived mesenchymal stem cells. Although adipose tissue-derived mesenchymal stem cells infusion alone slightly ameliorated liver functions and suppressed fibrosis progression, basic fibroblast growth factor-treatment significantly enhanced the therapeutic effect in association with elevated hepatocyte growth factor expression. Moreover, double immunofluorescence staining confirmed that the infused cells located in fibrosis area. Furthermore, co-culture with adipose tissue-derived mesenchymal stem cell led to induction of hepatic stellate cell apoptosis and enhanced hepatocyte proliferation. However, these effects were significantly weakened by knockdown of hepatocyte growth factor. Mechanism investigation revealed that co-culture with adipose tissue-derived mesenchymal stem cells activated c-jun N-terminal kinase-p53 signaling in hepatic stellate cell and promoted apoptosis. Basic fibroblast growth factor treatment enhanced the therapeutic effect of adipose tissue-derived mesenchymal stem cells, and secretion of hepatocyte growth factor from adipose tissue-derived mesenchymal stem cells plays a critical role in amelioration of liver injury and regression of fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>31982488</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Hypericin attenuates nonalcoholic fatty liver disease and abnormal lipid metabolism via the PKA-mediated AMPK signaling pathway in vitro and in vivo.</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Nonalcoholic fatty liver disease (NAFLD) is the most common liver disease worldwide and constitutes a major risk factor for progression to cirrhosis, liver failure and hepatocellular carcinoma (HCC). The occurrence of NAFLD is closely associated with abnormal lipid metabolism and implies a high risk of type 2 diabetes and cardiovascular disease. Therefore, specific and effective drugs for the prevention and treatment of NAFLD are necessary. Hypericin (HP) is one of the main active ingredients of Hypericum perforatum L., and we previously revealed its protective role in islet β-cells and its effects against type 2 diabetes. In this study, we aimed to explore the preventive and therapeutic effects of HP against NAFLD and the underlying mechanisms in vitro and in vivo. Here, we demonstrated that HP improved cell viability by reducing apoptosis and attenuated lipid accumulation in hepatocytes both in vitro and in vivovia attenuating oxidative stress, inhibiting lipogenesis and enhancing lipid oxidization. Thus, HP exhibited significant preventive and therapeutic effects against HFHS-induced NAFLD and dyslipidemia in mice. Furthermore, we demonstrated that HP directly bound to PKACα and activated PKA/AMPK signaling to elicit its effects against NAFLD, suggesting that PKACα is one of the drug targets of HP. In addition, the enhancing effect of HP on lipolysis in adipocytes through the activation of PKACα was also elucidated. Together, the conclusions indicated that HP, of which one of the targets is PKACα, has the potential to be used as a preventive or therapeutic drug against NAFLD or abnormal lipid metabolism in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>14568247</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Hemopoietic progenitor cells and bone marrow stromal cells in patients with autoimmune hepatitis type 1 and primary biliary cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Autologous hematopoietic stem cell transplantation has been used in severe cases of autoimmunity. We investigated whether hemopoietic progenitor cells and/or bone marrow (BM) microenvironment are affected in autoimmune hepatitis type-1 (AIH-1) and primary biliary cirrhosis (PBC). We studied 13 AIH-1 patients, 13 PBC patients, 12 cirrhotic controls (CC) and ten healthy controls (HC). Flow cytometry, expansion cultures, long-term BM cultures and clonogenic progenitor cell assays were used. Stromal cell function was assessed in long-term BM cultures recharged with normal CD34+ cells. AIH-1 had increased CD34+, CD34+/CD38+ and CD34+/CD38- cells compared to all groups (P&lt;0.001). PBC had lower progenitor cells compared to controls (P&lt;0.005). No differences were found between CC and HC. Committed progenitor cells in non-adherent cell fraction were increased in AIH-1 (P&lt;0.05) but decreased in PBC compared to controls (P&lt;0.05). Granulocyte-macrophage colony forming units (CFU) and erythroid-burst CFU were increased in AIH-1 compared to all groups (P&lt;0.001). PBC had these CFUs decreased compared to controls (P&lt;0.005). Stromal cells failed to support normal hemopoiesis in PBC. We demonstrated for the first time that AIH-1 had increased hemopoietic progenitor cells and normal stromal function. In PBC, progenitor cells and BM microenvironment were defective. Further studies will determine the significance of these novel findings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>29293276</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>A study about immunomodulatory effect and efficacy and prognosis of human umbilical cord mesenchymal stem cells in patients with chronic hepatitis B-induced decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>The aim of our study was to investigate the immunomodulatory effect and short-term efficacy and long-term prognosis of decompensated liver cirrhosis patients caused by hepatitis B after a double transplantation with human umbilical cord mesenchymal stem cells (hUCMSCs). Fifty inpatients were recruited and given the same medical treatments, receiving hUCMSCs injection intravenously. Fifty-three patients (Group B) matched for age, sex, and baseline alanine aminotransferase, aspartate aminotransferase, albumin, total bilirubin, prothrombin time, and model for end-stage liver disease score and Child-Pugh classification, acted as the control group. Interleukin-6 and tumor necrosis factor alpha levels markedly decreased, and interleukin-10 level apparently increased in Group A at 2 and 4 weeks after treatment. Transforming growth factor beta in Group A increased more remarkably at 2 weeks after treatment. T4 cells and Treg cells in Group A were apparently higher than those in Group B at 2 and 4 weeks after treatment, and T8 cells and B cells were significantly lower than those in Group B. Aspartate aminotransferase levels in Group A were dramatically declining at 8 and 12 weeks after treatment. Levels of albumin, total bilirubin, and prothrombin time in Group A were apparently improved from 4 to 12 weeks after treatment. The improvements in model for end-stage liver disease and Child-Pugh scores in Group A were notably superior to those in Group B from 4 to 36 weeks after treatment. There were no remarkable differences in the incidence of developing liver failure throughout the follow-up period, but the mortality rate of Group A was lower than that of Group B. This therapeutic method may be an appropriate choice for patients with decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>23150236</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Targeting androgen receptor in bone marrow mesenchymal stem cells leads to better transplantation therapy efficacy in liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Transplantation of bone marrow mesenchymal stem cells (BM-MSCs) has been considered as an alternative therapy, replacing liver transplantation in clinical trials, to treat liver cirrhosis, an irreversible disease that may eventually lead to liver cancer development. However, low survival rate of the BM-MSCs leading to unsatisfactory efficacy remains a major concern. Gender differences have been suggested in BM-MSCs therapeutic application, but the effect of the androgen receptor (AR), a key factor in male sexual phenotype, in this application is not clear. Using two liver cirrhosis mouse models induced by CCl4 or thioacetamide, we showed that targeting AR in the BM-MSCs improved their self-renewal and migration potentials and increased paracrine effects to exert anti-inflammatory and anti-fibrotic actions to enhance liver repair. Mechanism dissection studies suggested that knocking out AR in BM-MSCs led to improved self-renewal and migration by alteration of the signaling of epidermal growth factor receptor and matrix metalloproteinase 9 and resulted in suppression of infiltrating macrophages and hepatic stellate cell activation through modulation of interleukin (IL)1R/IL1Ra signaling. Therapeutic approaches using either AR/small interfering RNA or the AR degradation enhancer, ASC-J9, to target AR in BM-MSCs all led to increased efficacy for liver repair. Targeting AR, a key factor in male sexual phenotype, in BM-MSCs improves transplantation therapeutic efficacy for treating liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>23782511</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Histological improvement following administration of autologous bone marrow-derived mesenchymal stem cells for alcoholic cirrhosis: a pilot study.</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>In experimental models, bone marrow-derived mesenchymal stem cells (BM-MSCs) have the capacity to differentiate into hepatocytes and exhibit antifibrotic effects. However, there have been no studies in humans with alcoholic cirrhosis. The aim of this study was to elucidate the antifibrotic effect of BM-MSCs in patients with alcoholic cirrhosis, as a phase II clinical trial. Twelve patients (11 males, 1 female) with baseline biopsy-proven alcoholic cirrhosis who had been alcohol free for at least 6 months were enrolled. BM-MSCs were isolated from each patient's BM and amplified for 1 month, and 5 × 10(7) cells were then injected twice, at weeks 4 and 8, through the hepatic artery. One patient was withdrawn because of ingestion of alcohol. Finally, 11 patients completed the follow-up biopsy and laboratory tests at 12 weeks after the second injection. The primary outcome was improvement in the patients' histological features. According to the Laennec fibrosis system, histological improvement was observed in 6 of 11 patients (54.5%). The Child-Pugh score improved in ten patients (90.9%) and the levels of transforming growth factor-β1, type 1 collagen and α-smooth muscle actin significantly decreased (as assessed by real-time reverse transcriptase polymerase chain reaction) after BM-MSCs therapy (P &lt; 0.05). No significant complications or side effects were observed during this study. Bone marrow-derived mesenchymal stem cells therapy in alcoholic cirrhosis induces a histological and quantitative improvement of hepatic fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>22941276</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Multigenerational epigenetic adaptation of the hepatic wound-healing response.</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>We investigated whether ancestral liver damage leads to heritable reprogramming of hepatic wound healing in male rats. We found that a history of liver damage corresponds with transmission of an epigenetic suppressive adaptation of the fibrogenic component of wound healing to the male F1 and F2 generations. Underlying this adaptation was less generation of liver myofibroblasts, higher hepatic expression of the antifibrogenic factor peroxisome proliferator-activated receptor γ (PPAR-γ) and lower expression of the profibrogenic factor transforming growth factor β1 (TGF-β1) compared to rats without this adaptation. Remodeling of DNA methylation and histone acetylation underpinned these alterations in gene expression. Sperm from rats with liver fibrosis were enriched for the histone variant H2A.Z and trimethylation of histone H3 at Lys27 (H3K27me3) at PPAR-γ chromatin. These modifications to the sperm chromatin were transmittable by adaptive serum transfer from fibrotic rats to naive rats and similar modifications were induced in mesenchymal stem cells exposed to conditioned media from cultured rat or human myofibroblasts. Thus, it is probable that a myofibroblast-secreted soluble factor stimulates heritable epigenetic signatures in sperm so that the resulting offspring better adapt to future fibrogenic hepatic insults. Adding possible relevance to humans, we found that people with mild liver fibrosis have hypomethylation of the PPARG promoter compared to others with severe fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>26153152</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>MR tracking of SPIO-labeled mesenchymal stem cells in rats with liver fibrosis could not monitor the cells accurately.</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Our previous study showed that in vivo magnetic resonance (MR) imaging is effective in tracking superparamagnetic iron oxide (SPIO)-labeled bone marrow mesenchymal stem cells (BMSCs) in rats with liver fibrosis. SPIO-labeling-induced signal reduction on MR images was completely reversed within 15 days after transplantation. It is still unclear whether the signal changes in MR imaging could reflect the number of transplanted cells in the liver. In the present study, BMSCs of male rats were doubly labeled with enhanced green fluorescent protein (EGFP) and SPIO and injected intravascularly into female rats with liver fibrosis. At different time points after injection, MR imaging was performed. The distribution of SPIO particles and EGFP-positive cells was determined by Prussian blue staining and EGFP immunohistochemistry, respectively. The distribution of transplanted BMSCs in various organs was assessed by detection of the SRY gene using real-time quantitative PCR. At 15 days post transplantation, the numbers of transplanted cells were significantly decreased in the lung, kidney, spleen and muscle, but not liver and heart, in comparison with those at 7 days after transplantation. EGFP staining-positive cells were observed in the liver intralobular parenchyma, while Prussian blue staining was negative at 42 days after transplantation. Taken together, SPIO particles and EGFP-labeled BMSCs show a different tissue distribution pattern in rats with liver fibrosis after a long-term period of monitoring. SPIO-based MR imaging may not be suitable for long-term tracking of transplanted BMSCs in vivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>18522880</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Intra-portal transplantation of bone marrow stromal cells ameliorates liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Bone marrow cells can differentiate into hepatocytes in a suitable microenvironment. This study was undertaken to investigate the effects of transplanted bone marrow stromal cells (BMSCs) on liver fibrosis in mice. BMSCs were harvested and cultured from male BALB/c mice, then transplanted into female syngenic BALB/c mice via the portal vein. After partial hepatectomy, diethylnitrosamine (DEN) was administered to induce liver fibrosis. Controls received BMSCs and non-supplemented drinking water, the model group received DEN with their water, and the experimental group received BMSCs and DEN. Mice were killed after 3 months, and ALT, AST, hyaluronic acid (HA), and laminin (LN) in serum and hydroxyproline (Hyp) in the liver were assessed. Alpha-smooth muscle actin (alpha-SMA) in the liver was assessed by immunohistochemistry. Bone marrow-derived hepatocytes were identified by fluorescent in situ hybridization (FISH) in liver sections. BMSCs were shown to differentiate into hepatocyte-like phenotypes after hepatocyte growth factor treatment in vitro. Serum ALT, AST, HA, and LN were markedly reduced by transplanted BMSCs. Liver Hyp content and alpha-SMA staining in mice receiving BMSCs were lower than in the model group, consistent with altered liver pathology. FISH analysis revealed the presence of donor-derived hepatocytes in the injured liver after cross-gender mouse BMSC transplantation. After three months, about 10% of cells in the injured liver were bone marrow-derived. BMSCs transplanted via the portal vein can convert into hepatocytes to repair liver injury induced by DEN, restore liver function, and reduce liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>20663626</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Tracking of transplanted mesenchymal stem cells labeled with fluorescent magnetic nanoparticle in liver cirrhosis rat model with 3-T MRI.</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>In vivo visualization of transplanted stem cells with noninvasive technique is essential for the monitoring of cell implantation, homing and differentiation. At present, superparamagnetic iron oxide (SPIO) is most commonly used for cell labeling. However, stem cells lack phagocytic capacity and transfection agent is required for sufficient internalization of SPIO for cellular imaging. However, the potential hazards of transfection agents are not fully investigated. Instead of SPIO, we used commercially available new tagging material, fluorescent magnetic nanoparticle (MNP) containing rhodamine B isothiocyanate within a silica shell (Biterials, Seoul, Korea). This tagging material does not require transfection agents for the cell labeling. In addition to that, the core of this MNP is composed of ferrite and the inner portion of silica shell contains fluorescent materials, therefore, it has both magnetic and optical features. This study was designed to track intrasplenically injected bone marrow mesenchymal stem cells (MSCs) labeled with fluorescent MNP in liver cirrhosis rat model with 3-T magnetic resonance equipment. We compared magnetic resonance imaging (MRI) of livers in rats which were injected with non-labeled stem cells or labeled stem cells with MNP or SPIO. We found that the respective liver-to-muscle contrast-to-noise ratios at 3 and 5 h after MNP or SPIO-labeled stem cell injection was significantly lower than that of pre-injection and non-labeled group. There was no significant difference between MNP-labeled group and SPIO-labeled group. We can effectively detect intrasplenically injected MNP-labeled MSCs in an experimental rat model of liver cirrhosis with 3-T MRI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>25842730</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Effect of allogeneic umbilical cord mesenchymal stem cell transplantation in a rat model of hepatic cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>To determine the effects of human umbilical cord mesenchymal stem cell (UCMSC) transplantation, alone or in combination with tanshinone IIA (Tan IIA) on hepatic cirrhosis in rats. A rat model of cirrhosis was established. Rats were divided into control, UCMSC, and UCSMC plus Tan IIA groups. Rats in the UCMSC group were injected via the tail vein with 0.2 mL Dil-labeled UCMSC suspension. Intraperitoneal Tan IIA injections (20 mg/kg) were started on the day of UCMSC transplantation in the UCMSC plus Tan IIA group, and continued for 7 consecutive days thereafter. Rats were sacrificed 1 day, 3 days, 1 month, and 3 months after transplantation and the numbers of Dil-labeled UCMSCs colonizing the liver were determined. Albumin (ALB) and alanine aminotransferase (ALT) levels were measured in venous blood, and mRNA and protein expression levels of human ALB and cytokeratin (CK)-18 in liver tissues were determined by reverse transcription-polymerase chain reaction and western blotting, respectively. Serum ALT levels were significantly lower and serum ALB levels significantly higher in rats in the UCMSC group compared with the control group (P &lt; 0.05). Hepatic CK-18 and ALB mRNA and protein expression levels increased after transplantation, and were significantly higher in the UCMSC plus Tan IIA group compared with the UCMSC group (P &lt; 0.05). Human UCMSCs transplanted into rats with liver cirrhosis can grow and differentiate into hepatocyte-like cells resulting in improved liver function in vivo. Tan IIA further influenced transplantation outcomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>21810549</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>In vivo tracking of 111In-oxine labeled mesenchymal stem cells following infusion in patients with advanced cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Several animal and few human studies suggest the beneficial role of bone marrow mesenchymal stem cells (MSCs) in liver cirrhosis. However, little is known about the fate of MSCs after infusion in cirrhotic patients. We evaluated stem cell biodistribution after peripheral infusion of MSCs in four cirrhotic patients. After three passages of MSCs, the patients received a total of 250-400×10(6) cells, of which only 50% of the cells were labeled. Specific activities of 0.21-0.67 MBq/10(6) cells were maintained for the injected labeled MSCs. Planar whole-body acquisitions (anterior/posterior projections) were acquired immediately following infusion as well as at 2 h, 4 h, 6 h, 24 h, 48 h, 7th and 10th days after cell infusion. After intravenous infusion, the radioactivity was first observed to accumulate in the lungs. During the following hours to days, the radioactivity gradually increased in the liver and spleen, with spleen uptake exceeding that in the liver in all patients. Region-of-interest analysis showed that the percentage of cells homing to the liver (following decay and background corrections and geometric mean calculation) increased from 0.0%-2.8% at immediately post-infusion images to 13.0-17.4% in 10th-day post-infusion. Similarly, the residual activities in the spleen increased from 2.0%-10.2% at immediately post-infusion images to 30.1%-42.2% in 10th-day post-infusion. During the same period, the residual activities in the lungs decreased from 27.0-33.5% to 2.0-5.4%. The infusion of MSCs labeled with (111)In-oxine through a peripheral vein is safe in cirrhosis. Cell labeling with (111)In-oxine is a suitable method for tracking MSC distribution after infusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>25145391</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Therapeutic effect of hepatocyte growth factor-secreting mesenchymal stem cells in a rat model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stromal cells (MSCs) have been reported to be beneficial for the treatment of liver fibrosis. Here, we investigated the use of genetically engineered MSCs that overexpress hepatocyte growth factor (HGF) as a means to improve their therapeutic effect in liver fibrosis. Liver fibrosis was induced by intraperitoneal injection of dimethylnitrosamine. HGF-secreting MSCs (MSCs/HGF) were prepared by transducing MSCs with an adenovirus carrying HGF-encoding cDNA. MSCs or MSCs/HGF were injected directly into the spleen of fibrotic rats. Tissue fibrosis was assessed by histological analysis 12 days after stem cell injection. Although treatment with MSCs reduced fibrosis, treatment with MSCs/HGF produced a more significant reduction and was associated with elevated HGF levels in the portal vein. Collagen levels in the liver extract were decreased after MSC/HGF therapy, suggesting recovery from fibrosis. Furthermore, liver function was improved in animals receiving MSCs/HGF, indicating that MSC/HGF therapy resulted not only in reduction of liver fibrosis but also in improvement of hepatocyte function. Assessment of cell and biochemical parameters revealed that mRNA levels of the fibrogenic cytokines PDGF-bb and TGF-β1 were significantly decreased after MSC/HGF therapy. Subsequent to the decrease in collagen, expression of matrix metalloprotease-9 (MMP-9), MMP-13, MMP-14 and urokinase-type plasminogen activator was augmented following MSC/HGF, whereas tissue inhibitor of metalloprotease-1 (TIMP-1) expression was reduced. In conclusion, therapy with MSCs/HGF resulted in an improved therapeutic effect compared with MSCs alone, probably because of the anti-fibrotic activity of HGF. Thus, MSC/HGF represents a promising approach toward a cell therapy for liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>26643997</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Contribution and Mobilization of Mesenchymal Stem Cells in a mouse model of carbon tetrachloride-induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Hepatic fibrosis is associated with bone marrow derived mesenchymal stem cells (BM-MSCs). In this study, we aimed to determine what role MSCs play in the process and how they mobilize from bone marrow (BM). We employed a mouse model of carbon tetrachloride(CCl4)-induced liver fibrosis. Frozen section was used to detect MSCs recruited to mice and human fibrotic liver. Alanine aminotransferase (ALT) and aspartate aminotransferase (AST) was detected to assess liver function. It was found that MSCs of both exogenous and endogenous origin could aggravate liver fibrosis and attenuate liver damage as indicated by lower serum ALT and AST levels. Stromal cell-derived factor-1 (SDF-1α)/ CXCR4 was the most important chemotactic axis regulating MSCs migration from BM to fibrotic liver. Frozen section results showed that the migration did not start from the beginning of liver injury but occurred when the expression balance of SDF-1α between liver and BM was disrupted, where SDF-1α expression in liver was higher than that in BM. Our findings provide further evidence to show the role of BM-MSCs in liver fibrosis and to elucidate the mechanism underlying MSCs mobilization in our early liver fibrosis mice model induced by CCl4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>38360740</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>TC14012 enhances the anti-fibrosis effects of UC-MSCs on the liver by reducing collagen accumulation and ameliorating inflammation.</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are attracting attention as a promising cell-based therapy for the treatment of liver fibrosis or cirrhosis. However, the strategies and potential mechanisms of MSCs therapy need further investigation. The CXCL12/CXCR4/CXCR7 chemokine axis is well known to regulate cell migration and is involved in the regulation of liver fibrosis. This study aims to treat MSCs with a CXCR7-specific agonist to evaluate its therapeutic effects on hepatic fibrosis and potential mechanisms. TC14012, a potent agonist of CXCR7, has been used to pretreat human umbilical cord-derived MSCs (UC-MSCs) and assess its effect on proliferation, apoptosis, migration, immunoregulation, and gene regulatory network. Then, CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis mice models were used to evaluate the therapeutic effect and mechanism of TC14012-treated UC-MSCs for treating hepatic fibrosis. TC14012 increased CXCR7 expression in UC-MSCs. Notably, co-culture of liver sinusoidal endothelial cells (LSEC) with TC14012-pretreated UC-MSCs increased CXCR7 expression in LSEC. Additionally, TC14012 promoted cell migration and mediated the immunoregulation of UC-MSCs. Compared to UC-MSCs without TC14012 pretreatment, UC-MSCs treated with TC14012 ameliorated live fibrosis by restoring CXCR7 expression, reducing collagen fibril accumulation, inhibiting hepatic stellate cells activation, and attenuating the inflammatory response. This study suggests that TC14012 pretreatment can enhance the therapeutic effects of UC-MSCs on liver fibrosis, mainly by promoting the migration and immunoregulation of MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>21770423</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma cells and their fibrotic microenvironment modulate bone marrow-derived mesenchymal stromal cell migration in vitro and in vivo.</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma (HCC) is the fifth most common cancer and the third cause of cancer-related death. Fibrogenesis is an active process characterized by the production of several proinflammatory cytokines, chemokines and growth factors. It involves the activation of hepatic stellate cells (HSCs) which accumulate at the site of injury and are the main source of the extracellular matrix deposits. There are no curative treatments for advanced HCC, thus, new therapies are urgently needed. Mesenchymal stromal cells (MSCs) have the ability to migrate to sites of injury or to remodeling tissues after in vivo administration; however, in several cancer models they demonstrated limited efficacy to eradicate experimental tumors partially due to poor engraftment. Thus, the aim of this work was to analyze the capacity of human MSCs (hMSCs) to migrate and anchor to HCC tumors. We observed that HCC and HSCs, but not nontumoral stroma, produce factors that induce hMSC migration in vitro. Conditioned media (CM) generated from established HCC cell lines were found to induce higher levels of hMSC migration than CM derived from fresh patient tumor samples. In addition, after exposure to CM from HCC cells or HSCs, hMSCs demonstrated adhesion and invasion capability to endothelial cells, type IV collagen and fibrinogen. Consistently, these cells were found to increase metalloproteinase-2 activity. In vivo studies with subcutaneous and orthotopic HCC models indicated that intravenously infused hMSCs migrated to lungs, spleen and liver. Seven days post-hMSC infusion cells were located also in the tumor in both models, but the signal intensity was significantly higher in orthotopic than in subcutaneous model. Interestingly, when orthotopic HCC tumors where established in noncirrhotic or cirrhotic livers, the amount of hMSCs localized in the liver was higher in comparison with healthy animals. A very low signal was found in lungs and spleens, indicating that liver tumors are able to recruit them at high efficiency. Taken together our results indicate that HCC and HSC cells produce factors that efficiently induce hMSC migration toward tumor microenvironment in vitro and in vivo and make MSCs candidates for cell-based therapeutic strategies to hepatocellular carcinoma associated with fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>22056375</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Activation of Notch1 signaling by marrow-derived mesenchymal stem cells through cell-cell contact inhibits proliferation of hepatic stellate cells.</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (BMSCs) have been reported in many studies to reduce liver fibrosis. Apart from the paracrine mechanism by which the antifibrotic effects of BMSCs inhibit activated hepatic stellate cells (HSCs), the effects of direct interplay and juxtacrine signaling between the two cell types are poorly understood. The purpose of this study was to explore the underlying mechanisms by which BMSCs modulate the function of activated HSCs. We show here that BMSCs directly cocultured with HSCs significantly suppressed the proliferation and α-smooth muscle actin (α-SMA) expression of HSCs. Moreover, the Notch1 and Hes1 mRNA levels and the Hes1 protein level in cocultured HSCs were evidently higher than in other models. Blocking the Notch signaling pathway with Notch1 siRNA caused the increased expression of phospho-Akt and greater cell growth of cocultured HSCs. This effect was attenuated by the PI3K inhibitor LY294002. In conclusion, our results demonstrated that BMSCs remarkably inhibited the proliferation of HSCs through a cell-cell contact mode that was partially mediated by Notch pathway activation. In addition, the PI3K/Akt pathway is involved in HSC growth inhibition by the Notch pathway. These findings demonstrated that BMSCs directly modulate HSCs in vitro via Notch signaling cascades. Our results may provide new insights into the treatment of hepatic fibrosis with BMSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>19399744</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>The therapeutic potential of human umbilical mesenchymal stem cells from Wharton's jelly in the treatment of rat liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>We investigated the effect of human umbilical mesenchymal stem cells (HUMSCs) from Wharton's jelly on carbon tetrachloride (CCl4)-induced liver fibrosis in rats. Rats were treated with CCl4 for 4 weeks, and this was followed by a direct injection of HUMSCs into their livers. After 4 more weeks of CCl4 treatment (8 weeks in all), rats with HUMSC transplants [CCl4 (8W)+HUMSC liver] exhibited a significant reduction in liver fibrosis, as evidenced by Sirius red staining and a collagen content assay, in comparison with rats treated with CCl4 for 8 weeks without HUMSC transplants [CCl4 (8W)]. Moreover, rats in the CCl4 (8W)+HUMSC (liver) group had significantly lower levels of serum glutamic oxaloacetic transaminase, glutamic pyruvate transaminase, alpha-smooth muscle actin, and transforming growth factor-beta1 in the liver, whereas the expression of hepatic mesenchymal epithelial transition factor-phosphorylated type (Met-P) and hepatocyte growth factor was up-regulated, in comparison with the CCl4 (8W) group. Notably, engrafted HUMSCs scattered mostly in the hepatic connective tissue but did not differentiate into hepatocytes expressing human albumin or alpha-fetoprotein. Instead, these engrafted, undifferentiated HUMSCs secreted a variety of bioactive cytokines that may restore liver function and promote regeneration. Human cytokine assay revealed that the amounts of human cutaneous T cell-attracting chemokine, leukemia inhibitory factor, and prolactin were substantially greater in the livers of the CCl4 (8W)+HUMSC (liver) group, with considerably reduced hepatic inflammation manifested by a micro positron emission tomography scan. Our findings suggest that xenogeneic transplantation of HUMSCs is a novel approach for treating liver fibrosis and may be a promising therapeutic intervention in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>37997442</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Comparative study between the effect of mesenchymal stem cells microvesicles versus ozone on induced liver injury in adult male albino rats (Histological &amp; Immunohistochemical study).</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Liver disease accounts for approximately 2 million deaths er year worldwide. Liver fibrisis results from chronic injury to the liver. If not effectively treated in time, liver fibrosis may transform into liver cirrhosis. MVs are recognized as potential biomarkers and important theraputic tools for a wide sectrum of diseases. Medical ozone has the ability to protect the body against pathological conditions caused by oxidative stress. The influence of ozone and MVs on CCL4 induced liver fibrosis was investigated in this study. Forty-eight adult male albino rats were divided into four equal groups. I control, II CCL4 group, III ozone and IV microvesicles groups. Liver fibrosis was induced in group II, III &amp; IV using 12 SC injections (0.5 ml/kg body weight) of CCL4 dissolved in olive oil twice ber week for weeks. Blood samples were obtained to estimate serum ALT &amp; AST. Liver tissues were processed for measurment of GSH &amp; SOD, light and electron microscopic examination. H&amp;E staine sections og group II showed dilated congested sinusoids and centralveins, mononuclear infiltrations, vacuolations and dark nuclei. Ultrastructurally, group II revealed irregular heterochromatic nuclei of hepatocytes, small scanty mitochondria &amp; vacuolations. Morphometric &amp; statistical analyses were performed. Group III showed some improvement, however, group IV showed more imrovement. The results indicates that MVs caused marked improvement than ozone against CCL4 induced liver damage via antioxidant &amp; antiinflammatory properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>38474368</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Synergistic Hepatoprotective Effects of Mesenchymal Stem Cells and Platelet-Rich Plasma in a Rat Model of Bile Duct Ligation-Induced Liver Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Liver cirrhosis poses a global health challenge marked by significant prevalence and mortality. Current therapeutic options are limited by high costs and immune-mediated rejection, necessitating the exploration of innovative strategies to enhance hepatic self-rehabilitation, and counteract the underlying pathological mechanisms. We evaluated the hepatoprotective activity of rat adipose-derived mesenchymal stem cells (ADMSCs) in combination with platelet-rich plasma (PRP) and recombinant human hepatocyte growth factor (rh-HGF) on a rat model of liver fibrosis/cirrhosis induced by bile duct ligation (BDL). Treatment with PRP or rh-HGF alone did not yield significant hepatoprotection in the BDL-induced liver cirrhosis model. However, ADMSC transplantation alone exhibited the potential to alleviate impaired liver conditions. The combination of PRP and rh-HGF demonstrated superior ameliorative effects compared to either treatment alone. Notably, the combination of ADMSC + PRP or ADMSC + rh-HGF significantly enhanced hepatoprotective capacity compared to individual or combined PRP and rh-HGF therapies. Injection of ADMSC via the tail vein reduced inflammation, hepatocyte damage, and collagen deposition, improving overall liver function. This improvement was more pronounced when ADMSC was administered with PRP and rh-HGF versus monotherapy. Our study concludes that ADMSCs exert antifibrotic effects by inhibiting hepatic stellate cell proliferation, collagen synthesis, and inducing apoptosis. ADMSCs also demonstrate immune-modulatory effects and transdifferentiate into hepatic progenitor cells, secreting trophic factors, cytokines, and chemokines that promote impaired liver regeneration. The observed arrest in liver fibrosis progression highlights the potential therapeutic impact of these interventions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>28782844</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Long-Term Management with Adipose Tissue-Derived Mesenchymal Stem Cells and Conventional Treatment in a Dog with Hepatocutaneous Syndrome.</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Hepatocutaneous syndrome (HS) is an uncommon skin disorder that occurs in conjunction with liver disease and is diagnosed based on decreased plasma concentrations of amino acids and the histopathology of skin lesions. The survival period generally is &lt;6 months. A 10-year-old castrated male Maltese dog was presented for evaluation of lethargy, polyuria, polydipsia, and skin lesions including alopecia, erythema, and crusts. Based on increased liver enzyme activity, low plasma amino acid concentrations, and findings from liver cytology and skin biopsy, the dog was diagnosed with HS. In addition to administration of antioxidants, hepatoprotective agents, and amino acids IV, allogenic adipose tissue-derived mesenchymal stem cells were infused 46 times over a 30-month period: 8 times directly into the liver parenchyma guided by ultrasonography and the remainder of the times into peripheral veins. After commencing stem cell therapy, the dog's hair re-grew and the skin lesions disappeared or became smaller. During ongoing management, the patient suddenly presented with anorexia and uncontrolled vomiting, and severe azotemia was observed. The dog died despite intensive care. On necropsy, severe liver fibrosis and superficial necrolytic dermatitis were observed. The dog survived for 32 months after diagnosis. A combination of amino acid and stem cell therapy may be beneficial for patients with HS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>38160190</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>The Effect of Intrahepatic and Intrasplenic Administration of Mesenchymal Stem Cell to Liver Function and Degree of Liver Fibrosis in Common Bile Duct Ligation Model in Rabbit.</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSC) is a promising alternative method in liver cirrhosis management. Several administration routes of MSC have been studied, but few studies compared one to another. The purpose of this study is to compare the intrahepatic and intrasplenic route of MSC administration in terms of liver function and degree of liver fibrosis in the bile duct ligation model in rabbits. Experimental study was conducted using rabbits (Oryctolagus cuniculus) model undergoing bile duct ligation (BDL). The subjects were randomized into 4 groups: sham surgery; bile duct ligation; bile duct ligation followed by intrahepatic route of MSC (BDL + IH MSC), and bile duct ligation followed by intrasplenic route of MSC (BDL + IS MSC). Umbilical cord mesenchymal stem cell (UC MSC) was administered on the fifth day after bile duct ligation, and the subjects were observed until the fourteenth day after bile duct ligation. The liver function was evaluated with alanine aminotransferase (ALT), aspartate aminotransferase (AST), and total and direct bilirubin. The degree of fibrosis was evaluated with Laennec score, fibrosis area fraction, the number of viable and necrosis hepatocytes, and the number of hepatic progenitor cells. The subjects were randomized into 4 groups: 2 in sham surgery group, and 7 in each of the following groups: BDL, BDL + IH MSC and BDL + IS MSC groups. The mortality rate in BDL group was 57.1 %, while mortality in BDL + IH MSC and BDL + IS MSC groups were 14.3 % and 28.6 % respectively. No significant difference was found regarding liver function in each group, such as AST, ALT, total, and direct bilirubin. Histopathology examination in almost every subject undergone bile duct ligation (regardless of MSC administration) showed degree of fibrosis of Laennec 4B. Fibrosis area fraction, the number of viable and necrotic hepatocytes, and progenitor cells were analyzed; no significant difference was found between BDL + IH MSC and BDL + IS MSC groups, but the groups administered with MSC showed a larger number of viable hepatocytes compared to BDL group. No difference was found between BDL + IH MSC and BDL + IS MSC groups in terms of liver function and histologic parameters. Administration of MSC increases the number of viable hepatocytes, but no difference was found in terms of liver function and degree of liver fibrosis between the intrahepatic route and intrasplenic route of administration. Animal Research, Randomized Controlled Study. Level I? (animal research is not indicated in the levels of evidence table in the journal website).</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>34865351</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>[Effect of basic fibroblast growth factor treatment on efficacy of adipose-derived mesenchymal stem cells in liver cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Objective:&lt;/b&gt; To observe the effect of basic fibroblast growth factor (bFGF) treatment on efficacy of adipose-derived mesenchymal stem cells (ADSCs) in cirrhotic rats. &lt;b&gt;Methods:&lt;/b&gt; A rat model of liver cirrhosis was established via intraperitoneal injection of carbon tetrachloride (CCl(4)) for 10 weeks. Thirty SD rats were randomly divided into 3 groups (&lt;i&gt;n&lt;/i&gt; = 10): control group served as group A, and 0.5ml of phosphate-buffered saline (PBS) was transfused into the tail vein; ADSCs single-dose transplantation group served as group B, and 1×10(6) ADSCs were transplanted into the tail vein; bFGF-treated ADSCs treatment group served as group C, and 1×10(6) bFGF-treated ADSCs were transplanted through tail vein. Liver function, pathological and cytokine changes, and the in vivo survival transformation condition of the transplanted cells were measured at one week after transplantation. F test and an independent sample t test were used. &lt;b&gt;Results:&lt;/b&gt; bFGF treatment had significantly promoted the proliferation, differentiation and overexpression of hepatocyte growth factor (HGF) in ADSCs [ADSCs single: (2 137.16 ± 261.52) pg/ml vs. ADSCs (bFGF): (4 776.23 ± 532.44) pg/ml, &lt;i&gt;P&lt;/i&gt; &lt; 0.05]. The bFGF-treated ADSCs treatment group had statistically significant differences in promoting the recovery of liver function [alanine aminotransferase (ALT): ADSCs single (190.8 ± 34.98) vs. ADSCs (bFGF): (117.8 ± 35.81) pg/ml; aspartate aminotransferase (AST): ADSCs single (295.2 ± 33.71) U/L vs. ADSCs (bFGF): (183.8 ± 41.29) U/L, &lt;i&gt;P&lt;/i&gt; ​​&lt; 0.05). There was no statistically significant difference in serum albumin levels between the control group, ADSCs single group, and ADSCs (bFGF) group. Compared with the control group, the serum albumin level of ADSCs (bFGF) group was increased significantly (&lt;i&gt;P&lt;/i&gt; &lt; 0.05), and the difference between the control group and the ADSCs single transplantation group in improving liver regeneration and reducing liver damage was statistically significant (&lt;i&gt;P&lt;/i&gt; &lt; 0.05). Masson trichrome staining showed that the percentage of the liver fibrosis area in the bFGF-treated ADSCs treatment group was 6.78% ± 0.56%, which was significantly higher than that of the control and ADSCs single dose transplantation group (7.96% ± 0.64%) (&lt;i&gt;P&lt;/i&gt; &lt; 0.05). Western blot analysis showed that the expression of HGF protein in the bFGF-treated ADSCs treatment group was significantly up-regulated, while the expression of α-smooth muscle actin was significantly down-regulated, and the difference was significant in the ADSCs single transplantation group. A double fluorescent staining method showed that the numbers of stem cells implanted in the liver tissue of the bFGF-treated ADSCs treatment group were higher than that of the ADSCs single transplantation group. In-vitro cell experiments confirmed that bFGF had significantly promoted the overexpression of HGF in ADSCs. &lt;b&gt;Conclusion:&lt;/b&gt; bFGF-treated ADSCs transplantation can significantly improve liver function and fibrosis as compared with ADSCs single-dose transplantation in cirrhotic rats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>23638052</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>In vivo tracking and comparison of the therapeutic effects of MSCs and HSCs for liver injury.</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) and hematopoietic stem cells (HSCs) have been studied for damaged liver repair; however, the conclusions drawn regarding their homing capacity to the injured liver are conflicting. Besides, the relative utility and synergistic effects of these two cell types on the injured liver remain unclear. MSCs, HSCs and the combination of both cells were obtained from the bone marrow of male mice expressing enhanced green fluorescent protein(EGFP)and injected into the female mice with or without liver fibrosis. The distribution of the stem cells, survival rates, liver function, hepatocyte regeneration, growth factors and cytokines of the recipient mice were analyzed. We found that the liver content of the EGFP-donor cells was significantly higher in the MSCs group than in the HSCs or MSCs+HSCs group. The survival rate for the MSCs group was significantly higher than that of the HSCs or MSCs+HSCs group; all surpassed the control group. After MSC-transplantation, the injured livers were maximally restored, with less collagen than the controls. The fibrotic areas had decreased to a lesser extent in the mice transplanted with HSCs or MSCs+HSCs. Compared with mice in the HSCs group, the mice that received MSCs had better improved liver function. MSCs exhibited more remarkable paracrine effects and immunomodulatory properties on hepatic stellate cells and native hepatocytes in the treatment of the liver pathology. Synergistic actions of MSCs and HSCs were most likely not observed because the stem cells in liver were detected mostly as single cells, and single MSCs are insufficient to provide a beneficial niche for HSCs. MSCs exhibited a greater homing capability for the injured liver and modulated fibrosis and inflammation more effectively than did HSCs. Synergistic effects of MSCs and HSCs were not observed in liver injury.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>19455046</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Improvement of liver function in liver cirrhosis patients after autologous mesenchymal stem cell injection: a phase I-II clinical trial.</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>End-stage liver disease is a medical problem with high morbidity and mortality. We have investigated the feasibility, safety, and efficacy of using autologous mesenchymal stem cells (MSCs) as a treatment. Eight patients (four hepatitis B, one hepatitis C, one alcoholic, and two cryptogenic) with end-stage liver disease having Model for End-Stage Liver Disease score &gt; or =10 were included. Autologous MSCs were taken from iliac crest. Approximately, 30-50 million MSCs were proliferated and injected into peripheral or the portal vein. Liver function and clinical features were evaluated at baseline and 1, 2, 4, 8, and 24 weeks after injection. Treatment was well tolerated by all patients. Liver function improved as verified by the Model for End-Stage Liver Disease score, which decreased from 17.9+/-5.6 to 10.7+/-6.3 (P&lt;0.05) and prothrombin complex from international normalized ratio 1.9+/-0.4 to 1.4+/-0.5 (P&lt;0.05). Serum creatinine decreased from 114+/-35 to 80+/-18 micromol/l (P&lt;0.05). Serum albumin changed from 30+/-5 to 33+/-5 g/l and bilirubin from 46+/-29 to 41+/-31 micromol/l. No adverse effects were noted. Our data show that MSCs injection can be used for the treatment of end-stage liver disease with satisfactory tolerability. Furthermore, this treatment may improve clinical indices of liver function in end-stage liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>19056764</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Transplantation of basic fibroblast growth factor-pretreated adipose tissue-derived stromal cells enhances regression of liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Adipose tissue-derived stromal cells (ADSC) potentially differentiate into various cell types similar to bone marrow-derived mesenchymal stromal cells (BMSC). Unlike BMSC, ADSC can be harvested easily and repeatedly. However, the advantages of ADSC for cell transplantation in liver disease remain unclear. To investigate this, we developed a novel culture system for ADSC, as well as effective methods for transplantation of ADSC into mice liver. ADSC were isolated from subcutaneous adipose tissues of male C57BL6/J mice and cultured on plastic dishes with or without basic fibroblast growth factor (bFGF). In the in vivo study, ADSC isolated from green fluorescent protein-transgenic mice were transplanted into carbon tetrachloride-injured C57BL6/J mice liver. bFGF-treated ADSC expressed several liver-specific marker genes and demonstrated liver-related functions such as albumin secretion, glycogen synthesis, urea production, and low-density lipoprotein uptake. Importantly, pretreatment of ADSC with bFGF for 1 wk enhanced the repopulation rate of ADSC in mice liver, attenuated liver fibrosis, and restored normal serum alanine aminotransferase and albumin levels. The results indicate that basic FGF facilitates transdifferentiation of ADSC into hepatic lineage cells in vitro and that transplantation of bFGF-pretreated ADSC reduced hepatic fibrosis in mice. ADSC are a potentially valuable source of cells for transplantation therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>24144538</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Percutaneous intraportal application of adipose tissue-derived mesenchymal stem cells using a balloon occlusion catheter in a porcine model of liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>To investigate the safety and effectiveness of a novel endovascular approach for therapeutic cell delivery using a balloon occlusion catheter in a large animal model of liver fibrosis. Transcatheter arterial embolization with ethiodized oil (Ethiodol) and ethanol was used to induce liver damage in 11 pigs. Mesenchymal stem cells (MSCs) were harvested from adipose tissue and engineered to express green fluorescent protein (GFP). A balloon occlusion catheter was positioned in the bilateral first-order portal vein branches 2 weeks after embolization to allow intraportal application of MSCs in six experimental animals. MSCs were allowed to dwell for 10 minutes using prolonged balloon inflation. Five control animals received a sham injection of normal saline in a similar fashion. Hepatic venous pressure gradient (HVPG) was measured immediately before necropsy. Specimens from all accessible lobes were obtained with ultrasound-guided percutaneous 18-gauge biopsy 2 hours after cell application. All animals were euthanized within 4 weeks. Fluorescent microscopy was used to assess the presence and distribution of cells. Liver injury and fibrosis were successfully induced in all animals. MSCs (6-10 × 10(7)) were successfully delivered into the portal vein in the six experimental animals. Cell application was not associated with vascular complications. HVPG showed no instances of portal hypertension. GFP-expressing MSCs were visualized in biopsy specimens and were distributed primarily within the sinusoidal spaces; however, 4 weeks after implantation, MSCs could not be identified in histologic specimens. A percutaneous endovascular approach for cell delivery using a balloon occlusion catheter proved safe for intraportal MSC application in a large animal model of liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>27938474</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Muse Cells, Nontumorigenic Pluripotent-Like Stem Cells, Have Liver Regeneration Capacity Through Specific Homing and Cell Replacement in a Mouse Model of Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Muse cells, a novel type of nontumorigenic pluripotent-like stem cells, reside in the bone marrow, skin, and adipose tissue and are collectable as cells positive for pluripotent surface marker SSEA-3. They are able to differentiate into cells representative of all three germ layers. The capacity of intravenously injected human bone marrow-derived Muse cells to repair an immunodeficient mouse model of liver fibrosis was evaluated in this study. The cells exhibited the ability to spontaneously differentiate into hepatoblast/hepatocyte lineage cells in vitro. They demonstrated a high migration capacity toward the serum and liver section of carbon tetrachloride-treated mice in vitro. In vivo, they specifically accumulated in the liver, but not in other organs except, to a lesser extent, in the lungs at 2 weeks after intravenous injection in the liver fibrosis model. After homing, Muse cells spontaneously differentiated in vivo into HepPar-1 (71.1 ± 15.2%), human albumin (54.3 ± 8.2%), and anti-trypsin (47.9 ± 4.6%)-positive cells without fusing with host hepatocytes, and expressed mature functional markers such as human CYP1A2 and human Glc-6-Pase at 8 weeks after injection. Recovery in serum, total bilirubin, and albumin and significant attenuation of fibrosis were recognized with statistical differences between the Muse cell-transplanted group and the control groups, which received the vehicle or the same number of a non-Muse cell population of MSCs (MSCs in which Muse cells were eliminated). Thus, unlike ESCs and iPSCs, Muse cells are unique in their efficient migration and integration into the damaged liver after intravenous injection, nontumorigenicity, and spontaneous differentiation into hepatocytes, rendering induction into hepatocytes prior to transplantation unnecessary. They may repair liver fibrosis by two simple steps: expansion after collection from the bone marrow and intravenous injection. A therapeutic strategy such as this is feasible and may provide significant advancements toward liver regeneration in patients with liver disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>19242797</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Deficient proliferation of bone marrow-derived mesenchymal stem cells in patients with chronic hepatitis B viral infections and cirrhosis of the liver.</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>In this study, we determined whether the proliferation of bone marrow-derived mesenchymal stem cells (MSCs) is impaired in patients with chronic hepatitis B viral infection and cirrhosis of the liver. MSCs from 15 patients with chronic hepatitis B and cirrhosis of the liver (CIR-MSCs) and 11 normal donors (ND-MSCs) were collected and characterized in vitro. CIR-MSCs displayed an intact immunophenotype. The percentage of S-phase nuclei in CIR-MSCs (4.34%), however, was significantly lower than that in ND-MSCs (P &lt; 0.001), indicating impaired proliferation of CIR-MSCs. Growth factor receptor expression (e.g., IGF1, PDGFalpha, and PDGFbeta) on the surface of CIR-MSCs decreased compared to that on ND-MSCs (P &lt; 0.03). We found no evidence that CIR-MSCs were infected with the hepatitis B virus (HBV). Deficient proliferation of CIR-MSCs may result from the decreased expression of growth factor receptors and unbalanced production of cytokines in patients with HBV infection. Our results indicate that autologous MSCs of patients with chronic hepatitis B and cirrhosis of the liver may not be suitable for therapeutic purposes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>30453717</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>[Effect of bone marrow mesenchymal stem cell transplantation on CCl₄-induced liver injury in rats and intervention effects of Yiguanjian].</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>The aim of this paper was to observe the function of bone marrow mesenchymal stem cell (BMSC) transplantation in process of liver injury induced by carbon tetrachloride (CCl₄) &lt;i&gt;in vivo&lt;/i&gt; and the intervention effect of Yiguanjian (YGJ), a compound of Chinese herbal medicine. Wistar rats were randomly divided into five groups: normal group, model group, cell transplantation (CT) group, YGJ group and cell transplantation plus Yiguanjian (CTY) group. Liver injury was induced through subcutaneous injection with CCl₄ at a dose of 3 mL·kg⁻¹ body weight for 4 weeks, twice a week. They were injected for a total of 9 times. After the first injection with CCl₄, rats in the CT group and CTY group were injected with the third-generation BMSCs at dose 1×10⁶ (suspended in 1 mL saline solution) via tail vein. Rats in the YGJ and CTY groups were also intragastrically administered with Yiguanjian once a day. Rat serum ALT and AST activities were increased significantly on the second day after injection with CCl₄, while BMSC transplantation and Yiguanjian decreased their activities. After 4 weeks of injection with CCl₄, serum ALT, AST and &lt;i&gt;γ&lt;/i&gt;-GT activities, and serum TNF-&lt;i&gt;α&lt;/i&gt; and IL-6 expressions were increased, while TBIL were decreased in model rats compared with normal rats. Meanwhile, liver cells edema, plasmatic loose, and numerous lipid droplets were observed in rats of the model group. BMSC transplantation aggravated liver injury compared with model rats, which was manifested by decreasing SOD activity, increased MDA, TG, TNF-&lt;i&gt;α&lt;/i&gt; and IL-6 levels, and aggravated necrosis level of hepatocytes, fusion of lipid droplets, and collagen deposition in liver tissue. Yiguanjian decreased liver injury induced by CCl₄ alone and CCl₄ plus BMSC transplantation. SRY gene &lt;i&gt;in situ&lt;/i&gt; hybridization method was used to detect the positive SRY expressions in heart, liver, spleen, lung and kidney, especially in liver, while Yiguangjian decreased liver SRY expression. Wnt and &lt;i&gt;β&lt;/i&gt;-catenin showed high expressions in rats of normal group, which were decreased significantly in rats of models group, while Yiguanjian increased their expressions. In conclusion, BMSC transplantation could exacerbate liver injury, while Yiguanjian could protect liver injury induced by CCl₄ and BMSC transplantation, which was related to decreasing the homing of BMSCs to liver and up-regulating Wnt/&lt;i&gt;β&lt;/i&gt;-catenin signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>19476212</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Suppression of carbon tetrachloride-induced liver fibrosis by transplantation of a clonal mesenchymal stem cell line derived from rat bone marrow.</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Transplantation of hepatocytes or bone marrow-derived cells has been shown to ameliorate liver fibrosis in animal models, but no direct comparison of relative efficiency has been made. The aim of this study was to compare the efficiency of a bone marrow-derived clonal mesenchymal stem cell line established by us (rBM25/S3) with that of its adipogenic or hepatogenic differentiation derivative for suppression of rat liver fibrosis. After induction of differentiation of rBM25/S3 cells into adipogenic or hepatogenic cells in culture, we intrasplenically transplanted the three types of cells into rats (3 x 10(7) cells/rat) before and 4 weeks after initiation of carbon tetrachloride treatment (1 ml/kg body weight twice a week for 8 weeks) to induce liver fibrosis. Undifferentiated rBM25/S3 cells were the most effective for suppression of liver fibrosis, followed by the adipogenic cells and hepatogenic cells. Expression levels of MMP-2 and MMP-9 were also highest in undifferentiated rBM25/S3 cells. These results indicate that bone marrow-derived clonal mesenchymal stem cell lines are useful for further mechanistic studies on cell-mediated suppression of liver fibrosis and that such cell lines will provide information on an appropriate cell source for transplantation therapy for cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>29074333</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Improvement of portal venous pressure in cirrhotic rat livers by systemic treatment with adipose tissue-derived mesenchymal stromal cells.</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Portal hypertension is the main cause of complications in cirrhosis caused primarily by extensive fibrosis. Both anti-fibrotic and pro-fibrotic properties of mesenchymal stromal cells (MSCs) have been described in various animal models of liver fibrosis. Therefore, the impact of MSCs on portal hypertension and fibrosis should be investigated in an animal model of liver cirrhosis. The effect of systemic treatment with adipose tissue-derived MSCs, pre-differentiated into hepatocytic cells, was investigated in a rat model of liver cirrhosis induced by chronic inhalation of carbon tetrachloride. Chronic intoxication with carbon tetrachloride increased the portal venous pressure, which was significantly attenuated by the treatment with MSCs. Consistent with the increase in portal and sinusoidal resistance in the cirrhotic liver, the splenic weight increased, which was again attenuated by the MSCs. The cells had no impact on the spontaneous improvement of liver dysfunction after cessation of treatment with carbon tetrachloride. However, fibrosis was significantly improved as assessed by image quantification of collagen stained with Sirius red. However, hydroxyproline was unchanged indicating that fibrillary collagen content was not affected. That was in line with the finding that the activation of hepatic stellate cells, mainly contributing to excess collagen production in liver cirrhosis, was not affected by the MSCs. The expression of metalloproteinases and their inhibitors did also not change. It is suggested that hepatocytic differentiated MSCs improved portal blood flow in the cirrhotic liver rather by the physical reestablishment of liver architecture than by biochemical repair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>25063290</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Effect of Rougan Huaqian granules combined with human mesenchymal stem cell transplantation on liver fibrosis in cirrhosis rats.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>To observe the effect of Rougan Huaqian granules combined with human mesenchymal stem cell (hMSC) transplantation on the liver fibrosis in carbon tetrachloride-induced cirrhosis rats. Sixty SD rats were randomly divided into five groups. The rats in control group received intraperitoneal injection of saline, while those in model control group, treatment group A, group B and group C received intraperitoneal injection of carbon tetrachloride oily solution to induce liver cirrhosis within 8 weeks. Then, the rats in the model control group, treatment group A, treatment group B, treatment group C received vein tail injection of saline, Rougan Huaqian granules, hMSC suspension and Rougan Huaqian granules combined with hMSC suspension. The treatment groups had significantly different liver function (AST levels), liver fibrosis index (laminin and HA), hepatic sinusoidal wallsα-smooth muscle actin, IV collagen and laminin protein expression and I, III collagen from the model group (P&lt;0.05). The transplanted cells showed human hepatocyte-like cells differentiation trend in the liver. The Rougan Huaqian granules combined with hMSC transplantation can alleviate liver fibrosis in cirrhosis rats.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>24115681</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Therapeutic effects of hepatocyte growth factor-overexpressing human umbilical cord blood-derived mesenchymal stem cells on liver fibrosis in rats.</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Fibrosis is a common end stage for a variety of liver diseases, including most chronic liver diseases, and results from an imbalance between collagen deposition and degradation. Mesenchymal stem cells (MSCs) have the ability to migrate into fibrotic livers and differentiate into hepatocytes. Hepatocyte growth factor (HGF) has potent anti-apoptotic and mitogenic effects on hepatocytes during liver injury and plays an essential role in the development and regeneration of the liver. In this study, human HGF-overexpressing human umbilical cord blood-derived MSCs (hHGF-HUCB-MSCs) were prepared using the pMEX Expression System, and the upregulation of hHGF expression was confirmed by RT-PCR and ELISA. HGF expressed by hHGF-HUCB-MSCs exerted a stimulatory effect on hepatocyte proliferation in vitro. hHGF-HUCB-MSCs were transplanted to investigate the therapeutic effects of these cells on carbon tetrachloride (CCL4)-induced liver fibrosis in a rat model. After 4 weeks of cell treatment once per week with 2 × 10(6) cells, biochemical analysis of the serum and histopathological analysis of the liver tissue were performed. The results of the biochemical analysis of the serum show that the hHGF-HUCB-MSC-treated group had higher levels of alanine aminotransferase, aspartate aminotransferase and alkaline phosphatase, indicating the improvement of liver function. Histopathology showed that the hHGF-HUCB-MSC-treated group had reduction in the density of collagen fibres. Thus hHGF-HUCB-MSCs can enhance liver regeneration and could be useful for the treatment of patients with liver fibrosis or cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>38429940</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1H-NMR-based metabolomics to dissect the traditional Chinese medicine promotes mesenchymal stem cell homing as intervention in liver fibrosis in mouse model of Wilson's disease.</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>We administered Bushen Huoxue Huazhuo Formula (BSHXHZF) and transplanted bone marrow mesenchymal stem cells (BMSCs) into mice with Wilson's disease (WD)-related liver fibrosis to evaluate the liver-protecting mechanism of this prescription. Mice, randomly divided into different treatment groups, showed histopathological changes and degree of hepatocyte apoptosis. For hepatic hydroxyproline (Hyp) determination, transforming growth factor-β1 (TGF-β1) and bone morphogenetic protein-7 (BMP-7) mRNA and protein were measured. Chemical profiling of the extract of BSHXHZF using The liquid chromatography-mass spectrometry (LC-MS/MS) and revealing its antifibrosis mechanism using metabolomics. TCM+BMSC group livers exhibited few inflammatory cells. TUNEL revealed abundant brown apoptotic cells in model control groups, while the TCM+BMSC groups showed a significant increase in blue negative expression of liver cells. Hyp in toxic milk (TX) mice groups was significantly lower than that in model control groups (MG). Compared with MG, TGF-β1 expression was significantly lower than all other groups, while BMP-7 expression was significantly higher. Metabolic analysis identified 20 potential biomarkers and 10 key pathways, indicating that BSHXHZF+BMSC intervention has a significant regulatory effect on metabolic disorders of these small molecule substances. BSHXHZF combined with BMSCs can inhibit liver fibrosis and hepatocyte apoptosis by improving related metabolic disorders, and achieving therapeutic effects in WD-related liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>28035356</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Effect of Yi Guan Jian decoction on differentiation of bone marrow mesenchymalstem cells into hepatocyte-like cells in dimethylnitrosamine-induced liver cirrhosis in mice.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Yi Guan Jian decoction (YGD) may induce the differentiation of bone marrow mesenchymal stem cells (BMSCs) into hepatocyte-like cells (HLCs); however, the underlying mechanisms remain to be elucidated. The present study aimed to investigate this process. To do this, a dimethylnitrosamine (DMN)-induced liver cirrhosis mouse model was established. The mice from the model group were randomly divided into three subgroups: i) Negative control, ii) hepatocyte growth factor and iii) YGD. The overall health, liver function and histological alterations were monitored. The expression of α‑smooth muscle actin (α‑SMA), C‑X‑C chemokine receptor type 4 (CXCR4), extracellular signal‑regulated kinase (ERK1/2), nuclear factor κB p65 subunit (NF‑κB p65) and β‑catenin were measured by immunohistochemistry, western blotting and reverse transcription‑quantitative polymerase chain reaction. Following administration of DMN, the overall health of the mice significantly decreased, with an increase in pathological developments and liver damage resulting in a decrease in liver function. Immunohistochemistry revealed that the expression of α‑SMA, CXCR4, ERK1/2, NF‑κB p65 and β‑catenin was upregulated. Following treatment with YGD, the overall health, liver function and pathology improved. The mRNA and protein expression levels of CXCR4 and ERK1/2 were upregulated, where as α‑SMA, NF‑κB p65 and β‑catenin levels were downregulated. The results demonstrated that YGD may induce the differentiation of BMSCs into HLCs to reverse DMN‑induced liver cirrhosis; this may be achieved via an upregulation of the SDF‑1/CXCR4 axis to activate the mitogen activated protein kinase/ERK1/2 signaling pathway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>24682874</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>FTY720, a sphingosine-1 phosphate receptor modulator, improves liver fibrosis in a mouse model by impairing the motility of bone marrow-derived mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>FTY720 is a novel immunosuppressant that modulates sphingosine 1-phosphate (S1P) receptors for the treatment of several diseases. Several hallmarks of liver fibrosis are influenced by S1P, and the interference of S1P signaling by treatment with FTY720 results in beneficial effects in various animal models of fibrosis. However, whether these treatment strategies suppress liver fibrosis progression is incompletely understood. Here, we investigated the effects and mechanisms by which FTY720 improves liver fibrosis in the carbon tetrachloride (CCl4)-induced mouse model. FTY720 treatment significantly attenuated the expression of fibrotic markers in the injured liver of both wild-type and SCID-beige mice. The migration of bone marrow-derived mesenchymal stem cells (BMSCs) to circulation, and subsequently the injured liver, was suppressed by FTY720. Furthermore, in vitro, phosphorylated-FTY720 blocked the migration of BMSCs mediated by S1P. Thus, FTY720 is an effective therapy for liver fibrosis via the suppression of BMSC migration in the CCl4-induced mouse model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>38280697</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Arctium lappa L. polysaccharides enhanced the therapeutic effects of nasal ectomesenchymal stem cells against liver fibrosis by inhibiting the Wnt/β-catenin pathway.</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>The oxidative microenvironment in fibrotic livers often diminishes the effectiveness of mesenchymal stem cells (MSCs)-based therapy. Recent research suggests that pharmacological pre-treatment could enhance the therapeutic performance of MSCs. In this study, we assessed the impact of Arctium lappa L. polysaccharides (ALP) on the biological properties of nasal ectomesenchymal stem cells (EMSCs) and investigated the augmenting effect of ALP pretreatment on EMSCs (ALP-EMSCs) for the treatment of liver fibrosis. ALP treatment demonstrated multiple biological impacts on EMSC functions regarding liver fibrosis: firstly, it maintained the stemness of the cells while boosting the EMSCs' paracrine effects; secondly, it increased the expression of anti-inflammatory and antioxidant factors; thirdly, it inhibited the activation of hepatic stellate cells (HSCs) and liver collagen build-up by modulating the Wnt/β-catenin signaling pathways. Collectively, these effects helped to halt the progression of liver fibrosis. Therefore, the use of ALP-EMSCs presents an innovative and promising approach for treating hepatic fibrosis in clinical scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>33238629</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Administration of Human MSC-Derived Extracellular Vesicles for the Treatment of Primary Sclerosing Cholangitis: Preclinical Data in MDR2 Knockout Mice.</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Primary Sclerosing Cholangitis (PSC) is a progressive liver disease for which there is no effective medical therapy. PSC belongs to the family of immune-mediated biliary disorders and it is characterized by persistent biliary inflammation and fibrosis. Here, we explored the possibility of using extracellular vesicles (EVs) derived from human, bone marrow mesenchymal stromal cells (MSCs) to target liver inflammation and reduce fibrosis in a mouse model of PSC. Five-week-old male FVB.129P2-Abcb&lt;sup&gt;4tm1Bor&lt;/sup&gt; mice were intraperitoneally injected with either 100 µL of EVs (± 9.1 × 10&lt;sup&gt;9&lt;/sup&gt; particles/mL) or PBS, once a week, for three consecutive weeks. One week after the last injection, mice were sacrificed and liver and blood collected for flow cytometry analysis and transaminase quantification. In FVB.129P2-Abcb4&lt;sup&gt;tm1Bor&lt;/sup&gt; mice, EV administration resulted in reduced serum levels of alkaline phosphatase (ALP), bile acid (BA), and alanine aminotransferase (ALT), as well as in decreased liver fibrosis. Mechanistically, we observed that EVs reduce liver accumulation of both granulocytes and T cells and dampen VCAM-1 expression. Further analysis revealed that the therapeutic effect of EVs is accompanied by the inhibition of NFkB activation in proximity of the portal triad. Our pre-clinical experiments suggest that EVs isolated from MSCs may represent an effective therapeutic strategy to treat patients suffering from PSC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>21239501</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Delta-like 1 serves as a new target and contributor to liver fibrosis down-regulated by mesenchymal stem cell transplantation.</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Chronic liver injury always progresses to fibrosis and eventually to cirrhosis, a massive health care burden worldwide. Delta-like 1 (Dlk1) is well known as an inhibitor of adipocyte differentiation. However, whether it is involved in liver fibrosis remains unclear. Here, we provide the first evidence that Dlk1 is a critical contributor to liver fibrosis through promoting activation of hepatic stellate cells (HSCs) during chronic liver injury. We found that upon liver injury, Dlk1 was dramatically induced and initially expressed in hepatocytes and then into the HSCs by a paracrine manner. It leads to the activation of HSCs, which is considered to be a pivotal event in liver fibrogenesis. Two forms (∼50 and ∼25 kDa) of the Dlk1 protein were detected by Western blot analysis. In vitro administration of Dlk1 significantly promoted HSC activation, whereas in vivo knockdown of Dlk1 dramatically inhibited HSC activation and the subsequent fibrosis. The large soluble form (∼50 kDa) of Dlk1 was shown to contribute to HSC activation. We were encouraged to find the Dlk1-promoted HSC activation and liver fibrosis can be depressed by transplantation of bone marrow-mesenchymal stem cells (BM-MSCs). Furthermore, we demonstrated that FGF2 was up-regulated in BM-MSCs under injury stimulation, and it probably participated in the inhibition of Dlk1 by BM-MSCs. Our findings provide a novel role of Dlk1 in liver fibrosis leading to a better understanding of the molecular basis in fibrosis and cirrhosis and also give insights into the cellular and molecular mechanisms of MSC biology in liver repair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>24967970</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Chronic restraint stress decreases the repair potential from mesenchymal stem cells on liver injury by inhibiting TGF-β1 generation.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Chronic psychological stress has been demonstrated to play an important role in several severe diseases, but whether it affects disease therapy or not remains unclear. Mesenchymal stem cells (MSCs) have been demonstrated to have therapeutic potentials in treating tissue injury based on their multidifferentiation potential toward various cell types. We investigated the effect of chronic restraint stress on therapeutic potential of MSCs on carbon tetrachloride (CCl4)-induced liver injury in mice. CCl4-induced mice were injected with enhanced green fluorescent protein-MSCs, which was followed by chronic restraint stress administration. Corticosterone and RU486, a glucocorticoid receptor (GR) antagonist, were employed in vivo and in vitro, too. In the present study, we illustrated that MSCs could repair liver injury by differentiating into myofibroblasts (MFs) which contribute to fibrosis, whereas stress repressed differentiation of MSCs into MFs displayed by reducing α-smooth muscle actin (α-SMA, a solid marker of MFs) expression. Whereas RU486 could maintain the liver injury reduction and liver fibrosis increases induced by MSCs in stressed mice and block the decrease of α-SMA expression induced by stress. Furthermore, chronic stress inhibited MFs differentiation from MSCs by inhibiting transforming growth factor-β1 (TGF-β1)/Smads signaling pathway which is essential for MFs differentiation. Chronic stress reduced autocrine TGF-β1 of MSCs, but not blunted activation of Smads. All these data suggested that corticosterone triggered by chronic stress impaired liver injury repair by MSCs through inhibiting TGF-β1 expression which results in reduced MFs differentiation of MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>17903050</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Phase 1 trial of autologous bone marrow mesenchymal stem cell transplantation in patients with decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>The standard treatment for decompensated liver cirrhosis is liver transplantation. However, it has several limitations. Recent animal studies suggest that bone marrow stem cell transplantation can lead to regression of liver fibrosis. The objective of this study was to determine the safety and feasibility of autologous bone marrow-mesenchymal stem cell transplantation in patients with decompensated liver cirrhosis. In this phase 1 trial, four patients with decompensated liver cirrhosis were included. Their bone marrow was aspirated, mesenchymal stem cells were cultured, and a mean 31.73 x 10(6) mesenchymal stem cells were infused through a peripheral vein. Primary outcomes were evaluating the safety and feasibility of the work. Secondary outcomes were evaluating changes in the model for end-stage liver disease score, and the quality of life of the patients. There were no side-effects in the patients during follow-up. The model for end-stage liver disease scores of patients 1, and 4 improved by four and three points, respectively by the end of follow-up. Furthermore, the quality of life of all four patients improved by the end of follow-up. Using SF-36 questionnaire, the mean physical component scale increased from 31.44 to 65.19, and the mean mental component scale increased from 36.32 to 65.55. Mesenchymal stem cell transplantation seems to be feasible and safe in the treatment of decompensated liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>26194009</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Transplantation of MSCs Overexpressing HGF into a Rat Model of Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>The aim of this study is to evaluate the effect of overexpressing human hepatocyte growth factor (HGF) for mesenchymal stem cells (MSCs) in liver fibrosis regeneration and magnetic resonance (MR) tracking of MSCs in rat liver. MSCs were transfected with ad-HGF/ad-green fluorescent protein (GFP) and labeled with superparamagnetic iron oxide (SPIO). The characteristics of SPIO-HGF/MSCs were investigated. Prussian blue staining for iron assessment was conducted in vitro and in vivo. SPIO-HGF/MSCs (group A) or SPIO-GFP/MSCs (group B) were transplanted into a rat model of liver fibrosis, and MR imaging of the rat liver was performed. The signal to noise ratio (SNR) and R2* (1/T2*) value were measured. Prussian blue staining was performed to detect the in vivo distribution of MSCs, and liver Ki67 immunohistochemistry (IHC) staining was studied. The serum levels of HGF, alanine aminotransferase (ALT) and hyaluronic acid (HA) were determined. The positive rate of HGF transfection was 93.17 % and the HGF/MSCs were labeled with SPIO successfully (97.80 ± 1.06 %). Labeling of MSCs with SPIO did not alter cell proliferation in vitro. The signal intensity of liver T2* WI images decreased on day 1 after cell transplantation and recovered to pre-transplantation level on day 15 (group A) and day 13 (group B). The SNR of group A were significantly lower than that of group B (P = 0.006), and the R2* values of group A were significantly higher than those of group B (P &lt; 0.001). The R2* value had a significantly negative correlation with SNR. There were more Prussian blue-positive cells in of group A were more than in group B in vivo. The positive rate of Ki67 was 16.11 ± 2.13 %, and the serum level of ALT/HA was decreased in group A. HGF transfection improved MSCs localization in the liver and aided liver repair. The R2* value might be a feasible index in addition to SNR to track the SPIO-MSC transplantation in the liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>24942592</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Randomized trial of autologous bone marrow mesenchymal stem cells transplantation for hepatitis B virus cirrhosis: regulation of Treg/Th17 cells.</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Liver cirrhosis is one of the major consequences of hepatitis B virus (HBV) infection, and transplantation of autologous bone marrow mesenchymal stem cells (ABMSCs) is one of promising therapies for patients with HBV-related liver cirrhosis (HBV-LC). However, the mechanism is unclear. The aim of the current study was to explore the role of Treg/Th17 cells in ABMSCs transplantation in patients with HBV-LC. In this prospective study, 56 patients were enrolled and randomly assigned to transplantation group and control group. After 24-week follow-up, 39 patients completed the study (20 cases in transplantation group and 19 cases in control group). The Model for End-Stage Liver Disease scores, liver function, changes of Treg/Th17 cells, as well as related transcription factors and serum cytokines, were determined. Although patients in both groups showed significant improvement after Entecavir treatment, ABMSC transplantation further improved patients' liver function. Moreover, there was a significant increase in Treg cells and a marked decrease in Th17 cells in the transplantation group compared with control, leading to an increased Treg/Th17 ratio. Furthermore, mRNA levels of Treg-related transcription factor (Foxp3) and Th17-related transcription factor (RORγt) were increased and decreased, respectively. In addition, serum transforming growth factor-β levels were significantly higher at early weeks of transplantation, while serum levels of interleukin-17, tumor necrosis factor-α, and interleukin-6 were significantly lower in patients in the transplantation group compared with control. ABMSCs transplantation was effective in improving liver function in patients with HBV-LC, which was mediated, at least in part, through the regulation of Treg/Th17 cell balance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>25173375</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>A mouse model of liver injury to evaluate paracrine and endocrine effects of bone marrow mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Liver fibrosis is the result of chronic liver disease, which is caused by sustaining multiple damage or injury to the liver. While the liver continues to receive injuries, it suffers from the wound healing process and this eventually leads to the derangement of the liver architecture. Recently, bone marrow-derived mesenchymal stem cells (BM-MSCs) have been suggested to have therapeutic effects in treating liver fibrosis. Here, we describe the isolation, purification, culture, and transplantation of BM-MSCs in the liver fibrosis mouse model, and the assessment of paracrine and endocrine (including androgens and/or estrogens) effects of BM-MSCs in the in vitro cell culture system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>26839564</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Comparison of the Treatment Efficiency of Bone Marrow-Derived Mesenchymal Stem Cell Transplantation via Tail and Portal Veins in CCl4-Induced Mouse Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Because of self-renewal, strong proliferation in vitro, abundant sources for isolation, and a high differentiation capacity, mesenchymal stem cells are suggested to be potentially therapeutic for liver fibrosis/cirrhosis. In this study, we evaluated the treatment effects of mouse bone marrow-derived mesenchymal stem cells (BM-MSCs) on mouse liver cirrhosis induced by carbon tetrachloride. Portal and tail vein transplantations were examined to evaluate the effects of different injection routes on the liver cirrhosis model at 21 days after transplantation. BM-MSCs transplantation reduced aspartate aminotransferase/alanine aminotransferase levels at 21 days after injection. Furthermore, BM-MSCs induced positive changes in serum bilirubin and albumin and downregulated expression of integrins (600- to 7000-fold), transforming growth factor, and procollagen-α1 compared with the control group. Interestingly, both injection routes ameliorated inflammation and liver cirrhosis scores. All mice in treatment groups had reduced inflammation scores and no cirrhosis. In conclusion, transplantation of BM-MSCs via tail or portal veins ameliorates liver cirrhosis in mice. Notably, there were no differences in treatment effects between tail and portal vein administrations. In consideration of safety, we suggest transfusion of bone marrow-derived mesenchymal stem cells via a peripheral vein as a potential method for liver fibrosis treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>28625529</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Comparative study on the effect of low intensity laser and growth factors on stem cells used in experimentally-induced liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>The therapeutic effects of human umbilical cord-derived mesenchymal stem cells (UC-MSCs) exposed to diode laser and/or hepatocyte growth factor (HGF) were compared in mice with experimental liver fibrosis induced by carbon tetra chloride (CCl&lt;sub&gt;4&lt;/sub&gt;). Animal model of liver cirrhosis was induced by intraperitoneal injection of CCl&lt;sub&gt;4&lt;/sub&gt; in a dose of 0.4ml/kg, twice a week for 6weeks. UC-MSCs were obtained from normal full term placentas and were exposed to diode laser and/or HGF. Before treatment, UC-MSCs were labelled with red fluorescent PKH26. Fifty four male mice weighing 25-35g were randomly divided into four groups control, stem cells, CCl&lt;sub&gt;4&lt;/sub&gt;, and treated groups. After the experimental period, body and liver weights were recorded, and the liver specimens were processed for histological examination using haematoxylin and eosin, Periodic Acid-Schiff (PAS), and Masson's Trichrome staining (MT). Results showed that administration of UC-MSCs stimulated by diode laser and/or HGF improved body and liver weights, reduced vascular dilatation and congestion, reduced mononuclear cellular infiltration, reduced hepatocyte vacuolation, eosinophilia, and pyknosis. Furthermore, periportal fibrosis was minimized and PAS reaction was increased. These effects were maximum when UC-MSCs were exposed to both diode laser and HGF. UC-MSCs stimulated by both diode laser and HGF proved to be an effective therapeutic option in experimental liver fibrosis induced by CCl&lt;sub&gt;4&lt;/sub&gt; in mice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>38072460</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[Toward liver fibrosis amelioration and regenerative therapy using mesenchymal stem cells, extracellular vesicles, and peptides].</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>21145826</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Intracellular reactive oxygen species are required for directional migration of resident and bone marrow-derived hepatic pro-fibrogenic cells.</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Liver fibrogenesis is sustained by myofibroblast-like cells originating from hepatic stellate cells (HSC/MFs), portal fibroblasts or bone marrow-derived cells, including mesenchymal stem cells (MSCs). Herein, we investigated the mechanistic role of intracellular generation of reactive oxygen species (ROS) and redox-sensitive signal transduction pathways in mediating chemotaxis, a critical profibrogenic response for human HSC/MFs and for MSC potentially engrafting chronically injured liver. Intracellular generation of ROS and signal transduction pathways were evaluated by integrating morphological and molecular biology techniques. Chemokinesis and chemotaxis were evaluated by wound healing assay and modified Boyden's chamber assay, respectively. Additional in vivo evidence was obtained in human specimens from HCV-related cirrhosis. Human MSCs and HSC/MFs migrate in response to a panel of polypeptide chemoattractants and extracellularly generated superoxide anion. All polypeptides induced a NADPH-oxidase-dependent intracellular rise in ROS, resulting in activation of ERK1/2 and JNK1/2. Moreover, menadione or 2,3-dimethoxy-1,4-naphthoquinone, which generate intracellular superoxide anion or hydrogen peroxide, respectively, induced ERK1/2 and JNK1/2 activation and migration. JNK1 activation was predominant for migration as shown by specific silencing. Finally, activation of ERK1/2 and JNK1/2 was found in extracts obtained from HSC/MFs during the course of an oxidative stress-mediated model of liver injury and phosphorylated JNK1/2 isoforms were detected in α-smooth muscle actin-positive myofibroblasts lining fibrotic septa in human cirrhotic livers. Intracellular generation of ROS, through activation of specific signaling pathways, is a critical event for directional migration of HSC/MFs and MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>20184502</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>No contribution of umbilical cord mesenchymal stromal cells to capillarization and venularization of hepatic sinusoids accompanied by hepatic differentiation in carbon tetrachloride-induced mouse liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>The acceleration of capillarization and venularization of hepatic sinusoids after cell therapy would not be beneficial to restoration after liver disease. The goal was to observe the effects of umbilical cord (UC)-derived mesenchymal stromal cells (MSC) on liver microcirculation and their therapeutic potential in liver fibrosis. Human UC MSC labeled with or without CM-DIL were transplanted into NOD/SCID mice with carbon tetrachloride (CCl4)-induced chronic liver fibrosis models. Because of the high autofluorescence on the injured liver sections, we used immunohistochemistry, Western blot and reverse transcriptase-polymerase chain reaction (RT-PCR), but not immunofluorescence, in order to avoid false images under a confocal fluorescence microscope. Human-specific alpha-fetoprotein and albumin mRNA and proteins were detected in CCl4-treated mouse livers receiving human UC MSC transplants. We only observed the gene expression of human-specific endothelial-like cells markers CD31 and KDR by RT-PCR, but not protein expression by immunohistochemistry, in UC MSC-transplanted mouse livers. Vascular endothelial growth factor (VEGF) expression in injured livers 4 weeks after UC MSC transplantation was higher than in normal livers. However, UC MSC injection did not increase significantly the vascular density labeled by CD31 and (vWF) in the injured livers of UC MSC-transplanted mice compared with non-transplanted mice after CCl4 treatment. In addition, liver function was partly improved after UC MSC transplantation. Human UC MSC can differentiate into hepatocyte-like cells but do not accelerate the capillarization and venularization of hepatic sinusoids, finally leading to the partial improvement of liver function in mice with CCl4-mediated chronic liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>25268050</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Corticosterone mediates the inhibitory effect of restraint stress on the migration of mesenchymal stem cell to carbon tetrachloride-induced fibrotic liver by downregulating CXCR4/7 expression.</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Recent studies have revealed that mesenchymal stem cells (MSCs) have a great potential in therapeutic applications. The low efficiency of MSC recruitment and homing to sites of diseased organ tissue, however, remains a major hurdle in their application for treatment of diseases. Stress is commonly associated with various diseases. At the present time, little information is available about the effect of stress on MSC function. Here, we employed a carbon tetrachloride (CCl4)-induced mouse liver fibrosis model to investigate whether constraint stress affects the migration of MSCs to fibrotic liver. MSC homing to the fibrotic liver was significantly inhibited in mice with restraint stress. Restraint stress induced an elevation of corticosterone level in the serum. Blocking glucocorticoid signaling with either corticosterone-synthesis inhibitor metyrapone (MET) or glucocorticoid receptor antagonist RU486 attenuated restraint stress-induced inhibition of MSCs migration. The serum concentration of stromal cell-derived factor-1 (SDF-1) increased in mice treated with CCl4. Restraint stress had no influence on expression of SDF-1 and hepatocyte growth factor (HGF) in the fibrotic liver. Culture with the serum of CCl4-treated mice or SDF-1 promoted MSC migration, which was suppressed by corticosterone. Exposure of MSCs to corticosterone decreased their expression of C-X-C chemokine receptor type 4 (CXCR4) and C-X-C chemokine receptor type 7 (CXCR7). These results demonstrate that the inhibitory effect of corticosterone on MSC migration might be mediated via decreasing the expression of CXCR4 and CXCR7 in MSCs. Interventions targeting the interaction between corticosterone and its receptor improve migration and homing of MSCs in hosts receiving transplantation of these cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>26358689</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>In vivo hepatogenic capacity and therapeutic potential of stem cells from human exfoliated deciduous teeth in liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Liver transplantation is a gold standard treatment for intractable liver diseases. Because of the shortage of donor organs, alternative therapies have been required. Due to their potential to differentiate into a variety of mature cells, stem cells are considered feasible cell sources for liver regeneration. Stem cells from human exfoliated deciduous teeth (SHED) exhibit hepatogenic capability in vitro. In this study, we investigated their in vivo capabilities of homing and hepatocyte differentiation and therapeutic efficacy for liver disorders in carbon tetrachloride (CCl4)-induced liver fibrosis model mice. We transplanted SHED into CCl4-induced liver fibrosis model mice through the spleen, and analyzed the in vivo homing and therapeutic effects by optical, biochemical, histological, immunological and molecular biological assays. We then sorted human leukocyte antigen-ABC (HLA-ABC)-positive cells from primary CCl4-damaged recipient livers, and analyzed their fusogenicity and hepatic characteristics by flow cytometric, genomic DNA, hepatocyte-specific gene assays. Furthermore, we examined the treatment effects of HLA-positive cells to a hepatic dysfunction by a secondary transplantation into CCl4-treated mice. Transplanted SHED homed to recipient livers, and expressed HLA-ABC, human hepatocyte specific antigen hepatocyte paraffin 1 and human albumin. SHED transplantation markedly recovered liver dysfunction and led to anti-fibrotic and anti-inflammatory effects in the recipient livers. SHED-derived HLA-ABC-positive cells that were sorted from the primary recipient liver tissues with CCl4 damage did not fuse with the host mouse liver cells. Sorted HLA-positive cells not only expressed human hepatocyte-specific genes including albumin, cytochrome P450 1A1, fumarylacetoacetase, tyrosine aminotransferase, uridine 5'-diphospho-glucuronosyltransferase, transferrin and transthyretin, but also secreted human albumin, urea and blood urea nitrogen. Furthermore, SHED-derived HLA-ABC-positive cells were secondary transplanted into CCl4-treated mice. The donor cells homed into secondary recipient livers, and expressed hepatocyte paraffin 1 and human albumin, as well as HLA-ABC. The secondary transplantation recovered a liver dysfunction in secondary recipients. This study indicates that transplanted SHED improve hepatic dysfunction and directly transform into hepatocytes without cell fusion in CCl4-treated mice, suggesting that SHED may provide a feasible cell source for liver regeneration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>23849977</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>A pilot study of autologous CD34-depleted bone marrow mononuclear cell transplantation via the hepatic artery in five patients with liver failure.</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Many rodent experiments and human studies on stem cell therapy have shown promising therapeutic approaches to liver diseases. We investigated the clinical outcomes of five patients with liver failure of various causes who received autologous CD34-depleted bone marrow-derived mononuclear cell (BM-MNC) transplantation, including mesenchymal stromal cells, through the hepatic artery. CD34-depleted BM-MNCs were obtained from five patients waiting for liver transplantation by bone marrow aspiration and using the CliniMACS CD34 Reagent System (Miltenyi Biotech, Bergisch Gladbach, Germany), and autologous hepatic artery infusion was performed. The causes of hepatic decompensation were hepatitis B virus (HBV), hepatitis C virus (HCV), propylthiouracil-induced toxic hepatitis and Wilson disease. Serum albumin levels improved 1 week after transplantation from 2.8 g/dL, 2.4 g/dL, 2.7 g/dL and 1.9 g/dL to 3.3 g/dL, 3.1 g/dL, 2.8 g/dL and 2.6 g/dL. Transient liver elastography data showed some change from 65 kPa, 33 kPa, 34.8 kPa and undetectable to 46.4 kPa, 19.8 kPa, 29.1 kPa and 67.8 kPa at 4 weeks after transplantation in a patient with Wilson disease, a patient with HCV, and two patients with HBV. Ascites decreased in two patients. One of the patients with HBV underwent liver transplantation 4 months after the infusion, and the hepatic progenitor markers (cytokeratin [CD]-7, CD-8, CD-9, CD-18, CD-19, c-Kit and epithelial cell adhesion molecule [EpCAM]) were highly expressed in the explanted liver. Serum albumin levels, liver stiffness, liver volume, subjective healthiness and quality of life improved in the study patients. Although these findings were observed in a small population, the results may suggest a promising future for autologous CD34-depleted BM-MNC transplantation as a bridge to liver transplantation in patients with liver failure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>20182823</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Differentiation of bone marrow-derived mesenchymal stem cells into hepatocyte-like cells on nanofibers and their transplantation into a carbon tetrachloride-induced liver fibrosis model.</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>There are limited data available on the effect of a physicochemical microenvironment on mesenchymal stem cell (MSC) differentiation and repopulation of the liver. Therefore, in this study nanofibers have been used to better differentiate and maintain the function and engraftment of differentiating MSCs both in vitro and in vivo. Mouse MSCs were differentiated into early (day 18) and late (day 36) hepatocyte-like cells (HLCs) in the presence or absence of ultraweb nanofibers (nano(+) and nano(-)) and their transplantation for recovery in mice with CCl(4) induced hepatic fibrosis was investigated. In the nano(+) group, hepatocyte markers-ALB and HNF4α- were elevated in a time-dependent manner; however, those were similar levels or slightly decreased in the nano(-) group from day 18 to 36. Ultrastructural studies of the differentiated cells revealed some similarities to hepatocytes. Urea production, secretion of albumin and α-fetoprotein, and metabolic activity of the CYP450 enzymes were significantly increased within in vitro differentiated HLCs on nanofibers at day 36. MSCs, early and late HLCs in both nano(-) and nano(+) culture conditions that were transplanted by an intravenous route caused a decrease in liver fibrosis when engrafted in the recipient liver and were able to differentiate into functional hepatocytes (ALB(+)), except for late HLCs in the nano(-) group. Late HLCs transplanted in the nano(+) group were more effective in rescuing liver failure, enhancing serum ALB, homing transplanted cells and undergoing functional engraftment than the other groups. These results showed that topographic properties of nanofibers enhance differentiation of HLCs from MSCs and maintain their function in long-term culture, which has implications for cell therapies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>30631870</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>IL-10-secreting human MSCs generated by TALEN gene editing ameliorate liver fibrosis through enhanced anti-fibrotic activity.</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) are known for their ability to repair liver damage. However, their therapeutic potential still needs to be enhanced. In the present study, we produced genome-edited MSCs that secrete interleukin 10 (IL-10) and evaluated their therapeutic potential in a liver fibrosis model. Multiple copies of the IL-10 gene were inserted into a safe harbor genomic locus in amniotic mesenchymal stem cells (AMMs) using transcription activator-like effector nucleases (TALENs). The IL-10 gene-edited AMMs (AMM/I) were characterized by reverse transcription PCR (RT-PCR), quantitative RT-PCR (qRT-PCR), and microarray. The effects of AMM/I-conditioned cell medium (CM) on the activation of hepatic stellate cells (HSC) were analyzed in vitro and in vivo therapeutic assays were performed on a mouse liver fibrosis model. The engineered AMM/I expressed high levels of IL-10. AMM/I-CM inhibited the activation of HSC (in vitro) and TNF-α expression of T cells/macrophage derived from fibrotic liver. In addition, human IL-10 was detected in the serum of the mice transplanted with AMM/I and transplantation of AMM/I significantly inhibited thioacetamide (TAA)-induced liver fibrosis and ameliorated abnormal liver function. Furthermore, a high number of human albumin-expressing AMM/I were successfully engrafted into the liver of recipient mice. Overall, genome-edited AMMs overexpressing anti-fibrotic IL-10 might be a promising alternative therapeutic option for the treatment of liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>21989829</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Phase II trial: undifferentiated versus differentiated autologous mesenchymal stem cells transplantation in Egyptian patients with HCV induced liver cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>The study was aimed to evaluate the effect of autologous transplantation of BM-derived undifferentiated and differentiated MSCs in cirrhotic patients following chronic hepatitis C virus infection. Twenty-five patients with Child C liver cirrhosis, MELD score &gt;12 were included. They were divided into 2 groups. Group I, the MSCs group (n=15), this group was subdivided into two subgroups: Ia &amp; Ib (undifferentiated and differentiated respectively). Group II (control group; n=10) involved patients with cirrhotic liver under conventional supportive treatment. Ninety ml BM was aspirated from the iliac bone for separation of MSCs. Surface expression of CD271, CD29 and CD34 were analyzed using flowcytometry. Hepatogenesis was assessed by immunohistochemical expression of OV6, AFP and albumin. Finally approximately 1 million MSCs/Kg were suspended in saline and were placed in blood bag and injected slowly intravenously over 15 min at a rate of 5 drops/min in one session. Follow up of patients at 3 and 6 months postinfusion revealed partial improvement of liver function tests with elevation of prothrombin concentration and serum albumin levels, decline of elevated bilirubin and MELD score in MSCs group. Statistical comparisons between the two subgroups (group Ia &amp; Ib) did not merit any significant difference regarding clinical and laboratory findings. Bone marrow MSCs transplantation either undifferentiated or differentiated can be used as a potential treatment for liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>21960101</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>[Clinical trials with stem cells in digestive diseases and future perspectives].</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Many techniques for isolation, expansion and handling of stem cells are being developed rapidly, and preclinical evidence has shown the possibility to use this technology for refractory diseases in the near future. Among refractory digestive diseases, Crohn's disease and liver cirrhosis may be two main diseases where stem cell therapy can be applied for anti-inflammation and regeneration of tissue. Currently, with respect to these two diseases, clinical trials using hematopoietic stem cells and mesenchymal stem cells from bone marrow or adipose tissue have shown some evidence of clinical benefits to immune modulation, suppression of inflammation and regeneration of functional cells. However, for the development of practical stem cell therapy, we need more data on underlying mechanisms, effective subpopulation of stem cells and its sources, and effective parameters for monitoring and estimation. With technical advances, the research on embryonic and induced pluripotent stem cells will also contribute to the new therapeutic strategies for digestive regenerative medicine. In the future, a variety of stem cell therapies may be therapeutic options for refractory digestive diseases, but many technical challenges remain to be solved. (Korean J Gastroenterol 2011;58:139-143).</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>24815159</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Regulation of heme oxygenase 1 expression by miR-27b with stem cell therapy for liver regeneration in rats.</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Adipose-derived mesenchymal stem cells (ASCs) have been considered to be attractive and readily available adult mesenchymal stem cells (MSCs) and are becoming increasingly popular for use in regenerating cell therapy. However, recent evidence attributed a fibrotic potential to MSCs which differentiated into myofibroblasts with highly increased α-smooth muscle actin (α-SMA) expression while transplanted into an injured/regenerating liver in mice. In this study, we studied the role of miR-27b in ASCs and their regenerative potential after partial liver resection in rats. ASCs transfected with control siRNA or miR-27b were intravenously injected into autologous rats undergoing 70% partial hepatectomy (PH). Our data showed that the regenerative capacities of ASCs with overexpressed miR-27b were significantly higher compared with control ASCs. However, the enhanced regeneration, hepatic differentiation, and suppressed liver inflammation, as well as fibrotic activity, were significantly reverted by ZnPP coadministration (heme oxygenase-1 [HO-1] inhibitor) indicating an important role of HO-1 in the regenerating and cytoprotective activities of miR-27b-transfected ASCs. We demonstrated that administration of autologous ASCs overexpressed with miR-27b enhances rapid and early liver regeneration and, importantly, preserves function after PH. The ASCs with miR-27b overexpression might offer a viable therapeutic option to facilitate rapid recovery after liver resection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>26155209</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Therapeutic potentials occurring during the early differentiation process of mesenchymal stem cells in a rats model with thioacetamide-induced liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) have the capacity to differentiate into hepatocytes, The purpose of this study is to investigate the MSCs' differentiation process and therapeutic potentials by comparing isolated MSCs with HGF-treated MSCs in rat's model with thiacetamide (TAA)-induced cirrhosis. Male Sprague-Dawley (SD) rats, weighing 100-150 g were used in this study. To induce liver fibrosis, recipient rats were taken with 0.04% thioacetamide (TAA) in the drinking water (400 mg TAA/L) for 8 weeks. The rats underlying liver cirrhosis were divided into 3 groups according to the transplanted materials, compared to normal saline as control (I) and isolated MSCs (II) HGF-treated MSCs. Severe hepatic fibrosis and hepatocyte destruction were detected in the control group. Less hepatic cirrhosis and collagen formation, more hepatocyte regeneration and glycogen storage were detected in isolated MSCs compared to HGF-treated MSCs group, Distribution of red autofluorescence is mainly localized near the sinusoids in isolated MSCs, scattered away the sinusoids in HGF-treated MSCs group. MSCs transdifferentiated into CK-19 postive Oval cells and then to albulmin-producing hepatocytes, HGF treated MSCs differentiated into hepatocyte without the intermediate oval cells phase. HGF treated MSCs became the CK18-positive, MSCs became CD 90-positive. Significant hepatocyte differentiation occurred in not HGF-treated MSCs but isolated MSCs group unexpectedly. These results suggest that the beneficial effect of MSCs on in rat's model with TAA-induced cirrhosis may occur during early differentiation course of MSCs. Mature hepatocyte itself has a little effect on the accelerated differentiation and functional capacity of hepatic lineage cell-line.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>26599535</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Peroxisome Proliferator-Activated Receptor Gamma Negatively Regulates the Differentiation of Bone Marrow-Derived Mesenchymal Stem Cells Toward Myofibroblasts in Liver Fibrogenesis.</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cells (BMSCs) have been confirmed to have capacity to differentiate toward hepatic myofibroblasts, which contribute to fibrogenesis in chronic liver diseases. Peroxisome proliferator-activated receptor gamma (PPARx03B3;), a ligand-activated transcription factor, has gained a great deal of recent attention as it is involved in fibrosis and cell differentiation. However, whether it regulates the differentiation of BMSCs toward myofibroblasts remains to be defined. Carbon tetrachloride or bile duct ligation was used to induce mouse liver fibrosis. Expressions of PPARx03B3;, α-smooth muscle actin, collagen α1 (I) and collagen α1 (III) were detected by real-time RT-PCR and Western blot or immunofluorescence assay. PPARx03B3; expression was decreased in mouse fibrotic liver. In addition, PPARx03B3; was declined during the differentiation of BMSCs toward myofibroblasts induced by transforming growth factor β1. Activation of PPARx03B3; stimulated by natural or synthetic ligands suppressed the differentiation of BMSCs. Additionally, knock down of PPARx03B3; by siRNA contributed to BMSC differentiation toward myofibroblasts. Furthermore, PPARx03B3; activation by natural ligand significantly inhibited the differentiation of BMSCs toward myofibroblasts in liver fibrogenesis and alleviated liver fibrosis. PPARx03B3; negatively regulates the differentiation of BMSCs toward myofibroblasts, which highlights a further mechanism implicated in the BMSC differentiation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>25446803</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Immunohistochemical characterization of glial fibrillary acidic protein (GFAP)-expressing cells in a rat liver cirrhosis model induced by repeated injections of thioacetamide (TAA).</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Hepatic stellate cells, the principal fibrogenic cell type in the liver, are known to express the astrocyte marker glial fibrillary acidic protein (GFAP). However, the exact role of GFAP-expressing cells in liver fibrosis remains to be elucidated. In this study, cellular properties of GFAP-expressing cells were investigated in a rat model of liver cirrhosis. Six-week-old male F344 rats were injected intraperitoneally with thioacetamide (100 mg/kg BW, twice a week) and examined at post first injection weeks 5, 10, 15, 20 and 25. Appearance of GFAP-expressing myofibroblasts peaked at week 15, associated with fibrosis progression. The majority of GFAP-expressing myofibroblasts co-expressed vimentin, desmin and alpha-smooth muscle actin. Some GFAP-positive myofibroblasts co-expressed nestin (neural stem cell marker), while a few co-expressed A3 (mesenchymal stem cell marker) and Thy-1 (immature mesenchymal cell marker). A few GFAP expressing cells underwent both mitosis and apoptosis. These results indicate that there is a dynamic participation of GFAP-expressing myofibroblasts in rat liver cirrhosis, and that they are mainly derived from hepatic stellate cells, and partly from cells in the stem cell lineage. These findings, which were shown for the first time in detail, would be useful to understand the role of GFAP-expressing myofibroblasts in the pathogenesis of chemically induced liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>21269936</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Hepatocyte differentiation of human fibroblasts from cirrhotic liver in vitro and in vivo.</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) and fibroblasts have intimate relationships, and the phenotypic homology between fibroblasts and MSCs has been recently described. The aim of this study was to investigate the hepatic differentiating potential of human fibroblasts in cirrhotic liver. The phenotypes of fibroblasts in cirrhotic liver were labeled by biological methods. After that, the differentiation potential of these fibroblasts in vitro was characterized in terms of liver-specific gene and protein expression. Finally, an animal model of hepatocyte regeneration in severe combined immunodeficient (SCID) mice was created by retrorsine injection and partial hepatectomy, and the expression of human hepatocyte proteins in SCID mouse livers was checked by immunohistochemical analysis after fibroblast administration. Surface immunophenotyping revealed that a minority of fibroblasts expressed markers of MSCs and hepatic epithelial cytokeratins as well as alpha-smooth muscle actin, but homogeneously expressed vimentin, desmin, prolyl 4-hydroxylase and fibronectin. These fibroblasts presented the characteristics of hepatocytes in vitro and differentiated directly into functional hepatocytes in the liver of hepatectomized SCID mice. This study demonstrated that fibroblasts in cirrhotic liver have the potential to differentiate into hepatocyte-like cells in vitro and in vivo. Our findings infer that hepatic differentiation of fibroblasts may serve as a new target for reversion of liver fibrosis and a cell source for tissue engineering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>24116127</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>An MRI-visible non-viral vector bearing GD2 single chain antibody for targeted gene delivery to human bone marrow mesenchymal stem cells.</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>The neural ganglioside GD2 has recently been reported to be a novel surface marker that is only expressed on human bone marrow mesenchymal stem cells within normal marrow. In this study, an MRI-visible, targeted, non-viral vector for effective gene delivery to human bone marrow mesenchymal stem cells was first synthesized by attaching a targeting ligand, the GD2 single chain antibody (scAbGD2), to the distal ends of PEG-g-PEI-SPION. The targeted vector was then used to condense plasmid DNA to form nanoparticles showing stable small size, low cytotoxicity, and good biocompatibility. Based on a reporter gene assay, the transfection efficiency of targeting complex reached the highest value at 59.6% ± 4.5% in human bone marrow mesenchymal stem cells, which was higher than those obtained using nontargeting complex and lipofectamine/pDNA (17.7% ± 2.9% and 34.9% ± 3.6%, respectively) (P&lt;0.01). Consequently, compared with the nontargeting group, more in vivo gene expression was observed in the fibrotic rat livers of the targeting group. Furthermore, the targeting capacity of scAbGD2-PEG-g-PEI-SPION was successfully verified in vitro by confocal laser scanning microscopy, Prussian blue staining, and magnetic resonance imaging. Our results indicate that scAbGD2-PEG-g-PEI-SPION is a promising MRI-visible non-viral vector for targeted gene delivery to human bone marrow mesenchymal stem cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>27878730</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Mesenchymal-Epithelial Transition in Culture of Stromal Progenitor Cells Isolated from the Liver of a Patient with Alcoholic Cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>The cells isolated from biopsy specimen of a patient with alcoholic liver cirrhosis and cultured under standard conditions for obtaining stromal cell culture clearly diverged during early passages into two morphologically and phenotypically different subtypes: epithelial and mesenchymal. Mesenchymal cells expressed CD90 and CD44 and epithelial cells expressed CD166, CD227, and hepatocyte growth factor receptor Met. Starting from passage 6, the culture underwent spontaneous morphological changes and by passages 8-10 contained only epithelium-like cells. CD90 and CD44 expression disappeared, CD166 and CD227 expression remained unchanged, and Met expression increased. A small fraction of cells expressed GATA-4, HNF3β, HNF1α, and HNF4α. After addition of inducers of hepatogeneic differentiation, the cells started producing albumin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>21391433</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>A novel therapeutic regimen for hepatic fibrosis using the combination of mesenchymal stem cells and baicalin.</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Baicalin, isolated from the root of Scutellaria baicalensis Georgi, has shown anti-inflammatory and antioxidant activities, while mesenchymal stem cells (MSCs) have the capability of self-renewal and multilineage differentiation. In the present study, we found that baicalin could promote differentiation of bone marrow-derived MSCs into hepatocytes in vitro. We then compared the therapeutic effects of five therapeutic regimens for hepatic fibrosis induced by carbon tetrachloride in vivo by analysis of serum enzymes, morphological characteristics, cytokines and cell engraftment. Transplantation of MSCs alone was able to promote partial recovery of liver function and suppression of liver inflammation, but showed little effect on reducing the fibrotic area; transplantation with baicalin-treated MSCs gave an improved therapeutic effect; MSC transplantation and baicalin administration showed a synergistic effect; transplantation with baicalin-treated MSCs in combination with baicalin administration had the best therapeutic effect for hepatic fibrosis. Therefore, we conclude that transplantation of pre-differentiated MSC together with baicalin administration may serve as an effective therapeutic regimen for severe liver diseases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>17903371</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>[Effects of bone marrow mesenchymal stem cells on the proliferation of hepatocytes and cirrhotic fat-storing cells in vitro].</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>To investigate the differentiation of bone marrow mesenchymal stem cells (BMSCs) and the effects of BMSCs on the proliferation of cirrhotic fat-storing cells (CFSC) and hepatocytes in vitro. BMSCs and hepatocytes were isolated and harvested from the bone marrow and livers of rats. A co-culture system was set up by transwell inserts in which the two chambers were separated by a semipermeable membrane. BMSCs labeled with PKH26 were cultured with hepatocytes/CFSC in the co-culture system and also in a cell-cell direct contact culture system. Anti-albumin and anti-smooth muscle alpha-actin (alpha-SMA) antibodies were tested by using fluorescence immunocytochemistry. BMSCs and hepatocytes/CFSC cultured alone served as controls. The proliferation level of hepatocytes in the co-culture system was measured. CFSC were cultured with the conditional medium of BMSCs, and their quantities were measured microscopically. Expression of albumin was observed in the hepatocytes of the two culture systems after they were cultured for 72 h but the albumin levels were higher in the cell-cell direct contact culture system (P&lt;0.01). As compared to the controls, the number of hepatocytes was larger in the co-culture system (P&lt;0.01). No expression of alpha-SMA in CFSC was observed in either culture system. The proliferation of CFSC was inhibited by the conditional medium of BMSCs. The longer the time of the co-culturing the more significant was the CFSC growth suppression (P&lt;0.01). BMSCs can be induced into hepatocytes by a local micro-environment formed by hepatocytes. BMSCs may promote proliferation of hepatocytes and inhibit proliferation of CFSC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>17952094</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Hepatic accumulation of Hedgehog-reactive progenitors increases with severity of fatty liver damage in mice.</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Progenitors regenerate fatty livers but the mechanisms involved are uncertain. The Hedgehog pathway regulates mesendodermal progenitors and modulates mesenchymal-epithelial interactions during tissue remodeling. To determine if Hedgehog signaling increases in liver progenitors during fatty liver injury, we compared expression of Hedgehog ligands and target genes across a spectrum of injury. Leptin-deficient ob/ob mice with fatty livers and their healthy lean littermates were studied before and after exposure to the hepatotoxin, ethionine. At baseline, ob/ob mice had greater liver damage than controls. Ethionine induced liver injury in both ob/ob and lean mice, with greater injury occurring in ob/ob mice. After ethionine, the ob/ob mice developed liver atrophy and fibrosis. Liver injury increased hepatic accumulation of progenitors, including ductular cells that produced and responded to Hedgehog ligands. A dose-response relationship was demonstrated between liver injury and expansion of Hedgehog-responsive progenitors. In severely damaged, atrophic livers, nuclei in mature-appearing hepatocytes accumulated the Hedgehog-regulated mesenchymal transcription factor, Gli2 and lost expression of the liver epithelial transcription factor, hepatocyte nuclear factor 6 (HNF-6). Hepatic levels of collagen mRNA and pericellular collagen fibrils increased concomitantly. Hence, fatty liver injury increases Hedgehog activity in liver progenitors, and this might promote epithelial-mesenchymal transitions that result in liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>26983390</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>[Safety and efficacy of human umbilical cord derived-mesenchymal stem cell transplantation for treating patients with HBV-related decompensated cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>To retrospectively investigate the efficacy of human umbilical cord-derived mesenchymal stem cells (UC-MSC) as clinical treatment for HBV-related decompensated liver cirrhosis (HBV-DLC)•D. Sixty patients with HBV-DLC were given standard medical treatment combined with a 3-month regimen of UC-MSC at a dose of 0.5-1.0×10(6) cells/kg/month. Another group of patients with HBV-DLC (n=120; control group) that was matched (2:1) to the case group by age, sex, diagnosis, and follow-up period was given the standard medical treatment only. We reviewed all patients' data of biochemical tests, imaging examinations, Child-Pugh scores, and adverse reactions. Comparisons of continuous data between the two groups were made by independent-sample t-test, and comparisons of categorical data were made by chi-square test. Compared with the control group, the group that received the combination UC-MSC treatment showed a significant rise in cholinesterase, globulin and alkaline phosphatase, and reduced Child-Pugh scores during the follow-up period. However, there was no significant difference between the groups of patients for levels of alanine transaminase, total bilirubin, albumin, total cholesterol, or prothrombin activity. Addition of the UC-MSC treatment to the standard therapy could help to improve liver function in patients with HBV-DLC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>24417995</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>[Injury repairing and magnetic resonance tracing of transplanted bone marrow stromal cells in rat liver with hepatic fibrosis].</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>To explore the recurring patterns of migration and distribution of transplanted bone marrow stromal cells (BMSCs) in rat model with hepatic fibrosis and the feasibility of magnetic resonance (MR) tracing. BMSCs labeled with 5-bromodeoxyuridine (Brdu) and super para-magnetic iron oxide (SPIO) were transplanted into rat model with hepatic fibrosis via portal vein. MR scan was performed at Hour 2, Day 3, Day 7 and Week 2 post-transplantation to analyze the hepatic features of MR signal intensity and pathohistology of BMSCs. Multiple hypo-intense lesions appeared in hepatic hilar region at Hour 2 and became smaller with the elapsing time. Hemosiderin and Brdu immunohistochemical stains showed that positive cells were found in portal vein of hepatic porta at Hour 2, small branches of portal vein, sinus hepaticus and around central veins of hepatic lobules at Day 3 and liver parenchyma (esp. in area of lesion) at Day 7 and Week 2. Some of transplanted BMSCs were tightly connected with liver cell to form liver cell cord. The signal intensity changes of MRI corresponded to histological findings at different timepoints. The transplanted BMSCs are gradually scattered in whole liver (esp. in lesion area) so that it may help to repair hepatic lesions. And the recurring patterns of MR signal intensity changes reflected the condition of distribution, immigration and differentiation of transplanted cells.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>25890163</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Tumor necrosis factor-inducible gene 6 promotes liver regeneration in mice with acute liver injury.</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Tumor necrosis factor-inducible gene 6 protein (TSG-6), one of the cytokines released by human mesenchymal stem/stromal cells (hMSC), has an anti-inflammatory effect and alleviates several pathological conditions; however, the hepatoprotective potential of TSG-6 remains unclear. We investigated whether TSG-6 promoted liver regeneration in acute liver failure. The immortalized hMSC (B10) constitutively over-expressing TSG-6 or empty plasmid (NC: Negative Control) were established, and either TSG-6 or NC-conditioned medium (CM) was intraperitoneally injected into mice with acute liver damage caused by CCl4. Mice were sacrificed at 3 days post-CM treatment. Higher expression and the immunosuppressive activity of TSG-6 were observed in CM from TSG-6-hMSC. The obvious histomorphological liver injury and increased level of liver enzymes were shown in CCl4-treated mice with or without NC-CM, whereas those observations were markedly ameliorated in TSG-6-CM-treated mice with CCl4. Ki67-positive hepatocytic cells were accumulated in the liver of the CCl4+TSG-6 group. RNA analysis showed the decrease in both of inflammation markers, tnfα, il-1β, cxcl1 and cxcl2, and fibrotic markers, tgf-β1, α-sma and collagen α1, in the CCl4+TSG-6 group, compared to the CCl4 or the CCl4+NC group. Protein analysis confirmed the lower expression of TGF-β1 and α-SMA in the CCl4+TSG-6 than the CCl4 or the CCl4+NC group. Immunostaining for α-SMA also revealed the accumulation of the activated hepatic stellate cells in the livers of mice in the CCl4 and CCl4+NC groups, but not in the livers of mice from the CCl4+TSG-6 group. The cultured LX2 cells, human hepatic stellate cell line, in TSG-6-CM showed the reduced expression of fibrotic markers, tgf-β1, vimentin and collagen α1, whereas the addition of the TSG-6 antibody neutralized the inhibitory effect of TSG-6 on the activation of LX2 cells. In addition, cytoplasmic lipid drops, the marker of inactivated hepatic stellate cell, were detected in TSG-6-CM-cultured LX2 cells, only. The suppressed TSG-6 activity by TSG-6 antibody attenuated the restoration process in livers of TSG-6-CM-treated mice with CCl4. These results demonstrated that TSG-6 contributed to the liver regeneration by suppressing the activation of hepatic stellate cells in CCl4-treated mice, suggesting the therapeutic potential of TSG-6 for acute liver failure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>28073411</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>[Effect of umbilical cord mesenchymal stem cell transplantation on immune function and prognosis of patients with decompensated hepatitis B cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Objective:&lt;/b&gt; To investigate the effect of human umbilical cord mesenchymal stem cells (hUCMSCs) on the immune function and prognosis of patients with decompensated hepatitis B cirrhosis. &lt;b&gt;Methods:&lt;/b&gt; A total of 65 patients with decompensated hepatitis B cirrhosis were divided into observation group and control group. The patients in the observation group were given intervention (via the proper hepatic artery or the portal vein) and intravenous infusion of 4×10&lt;sup&gt;8&lt;/sup&gt; hUCMSCs in two doses, as well as the same basic treatment as in the control group. The patients in the control group were given conventional medical treatment. ELISA as used to measure the serum levels of interleukin-6 (IL-6), tumor necrosis factor-α (TNFα), interleukin-10 (IL-10), and transforming growth factor-β (TGFβ) in the observation group before surgery and at 1 week after surgery, as well as the serum levels of IL-6, TNFα, IL-10, and TGFβ in the control group on admission and at 1 week after admission. Flow cytometry was used to measure the percentage of lymphocyte subsets in the observation group before surgery and at 1 week after surgery, as well as that in the control group on admission and at 1 week after admission. In addition, the patients' prognosis and major complications during hospitalization were observed in both groups, and the patients were followed up for 24 weeks to record the number of deaths. The t-test was used for comparison of continuous data, and the chi-square test was used for comparison of categorical data which were expressed as percentages. &lt;b&gt;Results:&lt;/b&gt; At 1 week after the transplantation of hUCMSCs, compared with the control group, the observation group had significant reductions in the serum levels of IL-6 and TNFα and significant increases in the serum levels of IL-10 and TGFβ (all &lt;i&gt;P&lt;/i&gt; &lt; 0.001), as well as significant increases in the percentages of T4 cells and Treg cells and significant reductions in the percentages of T8 cells and B cells (all &lt;i&gt;P&lt;/i&gt; &lt; 0.05). There were no significant differences in the changes in T3 cells and natural killer cells between the two groups (&lt;i&gt;P&lt;/i&gt; &gt; 0.05). Compared with the control group, the observation group had a significantly lower probability of progression to liver failure (6.45% vs 14.71%, &lt;i&gt;P&lt;/i&gt; = 0.017). &lt;b&gt;Conclusion:&lt;/b&gt; In the treatment of patients with decompensated hepatitis B cirrhosis, transplantation of UCMSCs can inhibit the proliferation of T cells and B cells and the differentiation of T8 cells, upregulate Treg cells, promote the secretion of immunosuppressive cytokines, and reduce the production of inflammatory cytokines. Therefore, it can alleviate liver inflammatory response and liver cell damage and reduce the probability of hepatic failure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>25654284</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[In vivo tracking of PKH26-labeled human umbilical cord mesenchymal stem cells after transplantation into rats with liver cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>To observe the in vivo migration of human umbilical cord mesenchymal stem cells (hUCMSCs) labeled with the PKH26 red fluorescent dye after transplantation into rats with liver cirrhosis. Frozen hUCMSCs were resuscitated and labeled with PKH26. Labeling efficiency and fluorescent maintenance time of the PKH26-1abeled cells were measured. Morphology of the labeled and unlabeled (control) cells was observed by microscopy. The cell growth curve was determined using the MTT method. The PKH26-1abeled hUCMSCs were transplanted via tail vein injection into healthy (control) rats and rats with liver cirrhosis. Migration of the PKH26-1abeled hUCMSCs observed 48 h later in frozen liver sections under a fluorescence microscope. The labeling ratio of PKH26 to hUCMSCs was 100%. Growth of the labeled cells was good. The cell morphology was not significantly different between the labeled and unlabeled cells; all cells were long and spindle-like. Cell proliferation was not impacted significantly by labeling.Fluorescence was maintained for at least 20 days, as detected by in vitro analysis. After transplantation into the rats, the PKH26-1abeled hUCMSCs were mainly distributed in the area surrounding the portal vein, the blood vessels, and the false lobule of the cirrhotic liver; a small amount ofhUCMSCs were present in the spleen and lung. PKH26 is an ideal fluorescent dye to label hUCMSCs. The PKH26 labeling technique can be used to study the migration of hUCMSCs in cirrhotic liver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>25203804</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>[Gene expression profile changes induced upon umbilical cord mesenchymal cell infusion therapy in a rat model of hepatic cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>To investigate changes in gene expression that occur upon treatment with human umbilical cord mesenchymal stem cells (UC-MSCs) for hepatic cirrhosis using a rat model system. Hepatic cirrhosis was induced in Sprague-Dawley rats by subcutaneous injection of carbon tetrachloride and oral administration of alcohol.UC-MSCs were isolated from human umbilical cord and the cells' immunophenotype and differentiation towards osteogenic and adipogenic lineages were confirmed.The UC-MSC sample or vehicle alone (phosphate buffered saline, PBS) was transplanted by intravenous injection.Histopathological staining and serological testing were used to compare the liver morphology and function among the different groups.The gene expression in the PBS group and UC-MSC group were detected by gene microarray and differences between the groups were statistically analyzed by t-test. Transplantation of the UC-MSCs improved liver function in the hepatic cirrhosis rats.Comparison of the gene expression profiles of the PBS group and the UC-MSC group showed that the latter had up-regulation of the genes related to the complement and coagulation cascades and down-regulation of the genes related to cell proliferation, cell cycle, and collagen synthesis. UC-MSC therapy might improve liver function in cirrhosis by increasing the expression of genes related to the complement and coagulation cascades and by decreasing genes involved in cell proliferation and collagen deposition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>25518471</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>[Osteoporosis correction in experiment].</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Osteoporosis is simulated in rats by chronic administration of omeprazole or serotonin for 6 months; investigated bone status in the model of liver fibrosis and the administration of serotonin against liver fibrosis. The following experimental groups of rats: with bilateral ovariectomy, with bilateral ovariectomy and administration of omeprazole, with the introduction of serotonin, with serotonin administration and bilateral ovariectomy, with model of liver fibrosis, with liver fibrosis model and administration of serotonin were used. The content of Ca, P, alkaline phosphatase, albumin, serum creatinine, and the content of Ca, P, Mg andFe in the bone was determined. It was found that the administration of mesenchymal stromal cells reduces the severity of osteoporosis. The effects of alfacalcidol on experimental osteoporosis was investigated. Introduction of alfacalcidol in all experimental groups increased the bone formation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>15850515</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>[Differentiation of bone marrow derived Thy-1+ beta2M- cells into liver cells in AA induced liver injury micro-environment].</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>To investigate the differentiation of bone marrow derived Thy-1+ beta2M- cells (BDTCs) into liver cells in allyl alcohol (AA) induced liver injury micro-environment. BDTCs of male F344 rats were isolated by two-step magnetic separation system (MACS) technique, and infused intraportally into female recipients after labeling with PKH26. Thirty recipients were divided randomly into 3 groups: (1) AA-injured liver + BDTCs infusion, (2) normal liver + BDTCs infusion and (3) AA-injured liver + NS infusion (control). Blood biochemical examination, fluorescence labeled cellular localization, Y-chromosome sry gene in-situ hybridization and immunohistochemistry were carried out to evaluate BDTCs distribution, differentiation and proliferation in recipients's livers after different intervals. Fluoromicroscopy and in situ hybridization suggested that BDTCs of donors were interspersed in pieces and cords among the necro-periportals induced by AA; immunohistochemistry indicated that those implanted cells expressed OV-6, AFP, CK19 and albumin successively, while positive cells were hardly seen in the normal liver + BDTCs infusion group. Compared with the controls, the blood biochemical restitution was more rapid in group (1), (9.8 d +/- 3.1 d vs. 13.7 d +/- 4.2 d). The injury micro-environment induced by AA facilitates BDTCs integration with hepatic cell plates and differentiation into mature liver cells. BDTCs differentiation into liver cells might accelerate endogenous liver cell regeneration and reparation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>16108363</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>[Flk1+ mesenchymal stem cells ameliorate carbon tetrachloride-induced liver fibrosis in mice].</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Fibrosis is the common end stage of most liver diseases. Unfortunately, there is no effective treatment available currently. This study was designed to evaluate the effect of Flk1+ mesenchymal stem cells (MSC) from murine bone marrow (Flk1 + MSC) on fibrosis formation induced by carbon tetrachloride (CCl4). In this study Flk1+ MSC were isolated from bone marrow of male BALB/c mice. A CCl4 induced hepatic fibrosis model was used. Flk1+ MSC were systemically infused immediately or one week after the female mice were challenged with CCl4. Fibrosis index and donor cell engraftment were assessed two or five weeks after CCl4 challenge. We found that Flk1+ MSC transplantation immediately, but not one week after exposure to CCl4, significantly reduced CCl4-induced liver damage and collagen deposition. In addition, levels of hepatic hydroxyproline and serum fibrosis markers (HA, P-III-P) in mice receiving immediate Flk1+ MSC transplantation after CCl4 challenge were significantly lower compared to those of control mice. More importantly, histological examination suggested that hepatic damage recovery was much better in these immediately Flk1+ MSC-treated mice. Immunofluorescence, PCR, and fluorescence in situ hybridization (FISH) analysis revealed that donor cells engrafted into host liver, had epithelium-like morphology and expressed albumin (ALB), although at low frequency. In conclusion Flk1+ MSC might initiate endogenous hepatic tissue regeneration, engraft into host liver in response to CCl4 injury, and ameliorate its fibrogenic effects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>38474048</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Human Amniotic MSC Response in LPS-Stimulated Ascites from Patients with Cirrhosis: FOXO1 Gene and Th17 Activation in Enhanced Antibacterial Activation.</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Spontaneous bacterial peritonitis (SBP) is a severe complication in patients with decompensated liver cirrhosis and is commonly treated with broad spectrum antibiotics. However, the rise of antibiotic resistance requires alternative therapeutic strategies. As recently shown, human amnion-derived mesenchymal stem cells (hA-MSCs) are able, in vitro, to promote bacterial clearance and modulate the immune and inflammatory response in SBP. Our results highlight the upregulation of FOXO1, CXCL5, CXCL6, CCL20, and MAPK13 in hA-MSCs as well as the promotion of bacterial clearance, prompting a shift in the immune response toward a Th17 lymphocyte phenotype after 72 h treatment. In this study, we used an in vitro SBP model and employed omics techniques (next-generation sequencing) to investigate the mechanisms by which hA-MSCs modify the crosstalk between immune cells in LPS-stimulated ascitic fluid. We also validated the data obtained via qRT-PCR, cytofluorimetric analysis, and Luminex assay. These findings provide further support to the hope of using hA-MSCs for the prevention and treatment of infective diseases, such as SBP, offering a viable alternative to antibiotic therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>23044231</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>[Prospective controlled trial of safety of human umbilical cord derived-mesenchymal stem cell transplantation in patients with decompensated liver cirrhosis].</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>To evaluate the safety of human umbilical cord derived-mesenchymal stem cell (UC-MSC) transplantation therapy in patients with decompensated liver cirrhosis. UC-MSCs were transplanted intravenously into patients with decompensated liver cirrhosis. Serum levels of glucose (GLU), total cholesterol (TC), blood urea nitrogen (BUN), alpha fetoprotein (AFP), white blood cells (WBC), and prothrombin activity (PA) were detected at different time points after UC-MSCs transplantation. Most UC-MSC transplanted patients experienced an improvement in quality of life, to varying degrees. With the exception of low-grade fever in a few patients, side effects and oncogenic events were rare (treatment group: 1/38 vs. control group: 1/16; P more than 0.05). The UC-MSCs transplantation showed no effect on GLU, TC, BUN, AFP, WBC, or PA. UC-MSCs transplantation in patients with decompensated liver cirrhosis is safe and may improve the patient's quality of life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>24267523</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Catheter-based stem cell delivery for liver repair: getting it there is half the battle.</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>23879087</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>[Recombinant adenovirus Ad-human matrix metalloproteinase 1 transfecting bone marrow mesenchymal stem cells of rats in vitro].</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>To transfect bone marrow mesenchymal stem cells (BMSCs) of rats by recombinant adenovirus Ad-human matrix metalloproteinase 1 (hMMP-1) in vitro so as to lay the experimental foundation for the treatment of liver fibrosis with a combination of BMSCs and hMMP-1 gene transplantation. BMSCs were isolated from bone marrow of 2-3 weeks old Sprague Dawley rats by whole bone marrow adherence method and identified, then transfected by recombinant adenovirus Ad-hMMP-1 carrying enhanced green fluorescent protein (EGFP) marker in vitro. The green fluorescent expression was observed by fluorescence microscope and the transfection efficiency was detected by flow cytometry to determine the optimum multiplicity of infection (MOI). BMSCs at passage 3 were divided into 3 groups: untransfected BMSCs group (group A), Ad-EGFP transfected BMSCs group (group B), and Ad-hMMP-1-EGFP transfected BMSCs group (group C); the gene and intracellular protein of hMMP-1 were detected by RT-PCR and Western blot; the ELISA assay was used to detect the supernatant protein expression, and the hMMP-1 activity was measured by fluorescent quantification kit. The green fluorescent was observed in BMSCs transfected by recombinant adenovirus at 24 hours after transfection; the fluorescence intensity was highest at 72 hours; and the optimum MOI was 200. The cells of 3 groups entered the logarithmic growth phase on the 3rd day and reached plateau phase on the 6th day by MTT assay; no significant difference was found in the cell proliferation rate among 3 groups (P &gt; 0.05). RT-PCR, Western blot, and ELISA assay showed high expressions of the hMMP-1 gene and protein in group C, but no expression in groups A and B. The hMMP-1 activity was 1.24 nmol/(mg.min) in group C, but hMMP-1 activity was not detectable in groups A and B. The exogenous hMMP-1 gene is successfully transfected into BMSCs of rats via recombinant adenovirus and can highly express, which lays the experimental foundation for the treatment of liver fibrosis with a combination of BMSCs and hMMP-1 gene transplantation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>13976647</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>A phagocytic and protein-forming mesenchymal cell in human cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>26540984</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>[DIFFERENTIATION OF HUMAN UMBILICAL CORD MESENCHYMAL STEM CELLS INTO HEPATOCYTES INDUCED BY RAT FIBROTIC LIVER TISSUE EXTRACTS].</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>To investigate the differentiation potential of human umbilical cord mesenchymal stem cells (HUCMSCs) into hepatocytes induced by rat fibrotic liver tissue extracts. Liver fibrosis was induced in the Sprague Dawley rats (weighting, 180-220 g) by repeated intraperitoneal injections of 3% thioacetamide-saline at a dose of 200 mg/kg twice a week for 4 weeks; fibrotic liver tissues were used to prepare liver homogenate supernatants. The HUCMSCs at passage 3 were cultured in DMEM/F12 with 10% fetal bovine serum (FBS) (control group) and in DMEM/F12 with 10% FBS and 50 g/L liver homogenate supernatants (experimental group) for 7 days. The morphological changes of the cells were recorded; the protein levels of cytokeratin 18 (CK18), alpha fetoprotein (AFP), and CYP3A4 were measured using Western blot. The glycogen storing ability of the cells was detected by periodic acid-schiff (PAS) staining. Furthermore, the synthesis of albumin (ALB) and blood urea nitrogen (BUN) was measured. In experimental group, after 1 day of induction, the stem cells of fusiform shape began to lose sharp edges and progressively shrunk, and then they changed into hepatocyte-like cells with round and irregular shape at 7 days. Positive expressions of AFP, CK18, and CYP3A4 were observed in the experimental group, but negative expression in the control group. The concentrations of BUN and ALB were (0.43 ± 0.07) mmol/L and (8.08 ± 0.41) µg/mL in the control group and were (2.52 ± 0.20) mmol/L and (41.48 ± 4.11) µg/mL in the experimental group, showing significant differences (t=24.160, P = 0.000; t = 19.810, P = 0.000). PAS staining results showed navy blue nucleus and lavender cytoplasm in the control group, but dark purple cell body and visible nucleus in the experimental group. HUCMSCs could differentiate into hepatocyte-like cells induced by rat fibrotic liver tissue extracts, which have hepatocyte biomarkers (AFP, CK18, and CYP3A4) and hepatocyte-specific functions of glycogen storage, urea production and ALB secretion, so they could partially replace the function of hepatocytes, that may be one of the therapeutic mechanisms of stem cell transplantation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>38527943</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Correction to: 1H-NMR-based metabolomics to dissect the traditional Chinese medicine promotes mesenchymal stem cell homing as intervention in liver fibrosis in mouse model of Wilson's disease.</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>23405406</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>[Recent advances in treating liver fibrosis with mesenchymal stem cells].</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>23522251</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>[Inhibition of liver fibrosis by IL-10 gene-modified BMSCs in a rat model].</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>To investigate the potential curative effects of bone marrow mesenchymal stem cells (BMSCs) overexpressing IL-10 for treating liver fibrosis by using a CCl4-induced rat model. BMSCs were cultured and marked by DAPI staining of the cells' nuclei. Meanwhile, 60 Wistar rats were treated with CCl4 to induce liver fibrosis and randomly divided into three groups: A: injected with DAPI-marked BMSCs transfected with pcDNA3.0-IL-10; B: injected with DAPI-marked BMSCs; C: injected with phosphate-buffered saline. Histological analysis of excised livers was conducted to observe BMSCs (by DAPI marker) and fibrosis (by Masson's stain). Western blotting was used to detect IL-10 expression in BMSCs. Effects on expression of tumor necrosis factor-alpha (TNFa) were analyzed by enzyme-linked immunosorbent assay, and on hydroxyproline (HYP) levels were analyzed by the acid hydrolysis method. Following CCl4-inducement, rat livers showed the characteristic pathological changes of fibrosis and DAPI-marked cells (BMSCs) were observed. Compared with group C (pulmonary fibrosis score: 3.15+/-0.96; HYP level: 1.89+/-1.03 mug/mg), the extent of liver fibrosis was significantly lower in group A (pulmonary fibrosis score: 1.01+/-0.35; HYP level: 0.73+/-0.29 mug/mg) and group B (pulmonary fibrosis score: 1.34+/-0.65; HYP level: 1.21+/-0.78 mug/mg). The therapeutic effects were significantly greater in group A than group B (q=-4.73, P less than 0.05). TNFa protein expression was significantly lower in group A (275.21+/-86.35) and group B (321.76+/-98.49) than in group C (476.23+/-126.43). The TNFa expression was significantly lower in group A than group B (q=-7.43, P less than 0.05). IL-10 gene-modified BMSCs are effective for treating liver fibrosis in a CCl4-induced rat model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>15650781</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>[Dynamic expression of matrix metalloproteinase-2, membrane type-matrix metalloproteinase-2 in experimental hepatic fibrosis and its reversal in rat].</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>To investigate the expression dynamics and significance of matrix metalloproteinase-2 (MMP-2) membrane type-matrix metalloproteinase-2 (MT-MMP-2) in hepatic fibrosis and its reversal counterpart. An experimental CCl4 induced hepatic fibrosis rat model was established by intraperitoneal administration of carbon tetrachloride for 2, 4, 6, 8, 10 weeks, and normal rats were used as a control group. The immunohistochemical methods and in situ hybridization were used to detect MMP-2,MT-MMP-2 mRNA and related antigens in the liver. MMP-2,MT-MMP-2 mRNA and related antigens were expressed in mesenchymal cells and parts of hepatocytes besides active pathological changes, especially in the fibrous septum and portal area. Expression of MMP-2,MT-MMP-2 mRNA and related antigens were increased in hepatic fibrosis and decreased gradually in its reversal counterpart. This study suggested that mesenchymal cells are the main cellular origins of MMPs. The levels of MMP-2 and MT-MMP-2 antigens and gene expression were closely related to hepatic fibrosis. MMP-2 and MT-MMP-2 may play important roles in hepatic fibrosis and its reversal counterpart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>24748190</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>[Therapeutic effect of BMSCs with over-expressed MMP1 on liver fibrosis].</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>To investigate the function of bone marrow mesenchymal stem cells (BMSCs) with over-expressed matrix metalloproteinase 1 (MMP1) on liver fibrosis. Fifty SD male rats were randomly divided into 4 groups: recombinant adenovirus Adhuman MMP-1(hMMP-1)-enhanced green fluorescent protein (EGFP) transfected BMSCs group (Group A, n=10), Ad-EGFP transfected BMSCs group (Group B, n=10), liver fibrosis group (Group C, n=15), and a normal group (Group D, n=15). The liver fibrosis model was formed by subcutaneous injection of the mixed liquor of carbon tetrachloride (CCL4) and vegetable oil. After 10 weeks, the model of liver fibrosis was formed. Group A and B were administered the transfected BMSCs via the tail veins, while Group C and D were administered normal saline. After 3 weeks, the rats were sacrificed. The body weight, liver weight, liver function, liver fibrosis indexes and liver pathological changes were tested. Compared with the control group, the rats administered BMSCs with over-expressed MMP1 showed a significant improvement in the body weight, liver weight and plasma albumin (ALB) (P&lt;0.05), and a significant reduction in the plasma alanine aminotransferase, total bilirubin, hyaluronic acid, laminin and procollagen III (P&lt;0.05). Hematoxylin-eosin staining confirmed that the degree of liver fibrosis was significantly ameliorated under average visual fields (P&lt;0.05). The repair ability of BMSCs on liver fibrosis can be enhanced by over-expression of hMMP-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>22152391</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>[Bone marrow mesenchymal stem cells contribute to liver fibrosis].</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>16381645</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>[Treatment of CCl4 induced chronic liver injury with bone marrow mesenchymal stem cells overexpressing hepatocyte growth factor].</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>21526984</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Hepatocyte growth factor incorporated chitosan nanoparticles augment the differentiation of stem cell into hepatocytes for the recovery of liver cirrhosis in mice.</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Short half-life and low levels of growth factors in the niche of injured microenvironment necessitates the exogenous and sustainable delivery of growth factors along with stem cells to augment the regeneration of injured tissues. Here, recombinant human hepatocyte growth factor (HGF) was incorporated into chitosan nanoparticles (CNP) by ionic gelation method and studied for its morphological and physiological characteristics. Cirrhotic mice received either hematopoietic stem cells (HSC) or mesenchymal stemcells (MSC) with or without HGF incorporated chitosan nanoparticles (HGF-CNP) and saline as control. Biochemical, histological, immunostaining and gene expression assays were carried out using serum and liver tissue samples. One way analysis of variance was used for statics application Serum levels of selected liver protein and enzymes were significantly increased in the combination of MSC and HGF-CNP (MSC+HGF-CNP) treated group. Immunopositive staining for albumin (Alb) and cytokeratin 18 (CK18), and reverse transcription-polymerase chain reaction (RT-PCR) for Alb, alpha fetoprotein (AFP), CK18, cytokeratin 19 (CK19) ascertained that MSC-HGF-CNP treatment could be an effective combination to repopulate liver parenchymal cells in the liver cirrhosis. Zymogram and western blotting for matrix metalloproteinases 2 and 9 (MMP2 and MMP9) revealed that MMP2 actively involved in the fibrolysis of cirrhotic tissue. Immunostaining for alpha smooth muscle actin (αSMA) and type I collagen showed decreased expression in the MSC+HGF-CNP treatment. These results indicated that HGF-CNP enhanced the differentiation of stem cells into hepatocytes and supported the reversal of fibrolysis of extracellular matrix (ECM). Bone marrow stem cells were isolated, characterized and transplanted in mice model. Biodegradable biopolymeric nanoparticles were prepared with the pleotrophic protein molecule and it worked well for the differentiation of stem cells, especially mesenchymal phenotypic cells. Transplantation of bone marrow MSC in combination with HGF-CNP could be an ideal approach for the treatment of liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>30461638</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Cord-derived mesenchymal stem cells therapy for liver cirrhosis in children with refractory Henoch-Schonlein purpura: A case report.</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>To explore the curative effect of human umbilical cord-derived mesenchymal stem cell (ucMSC) therapy for patients with liver cirrhosis complicated with immune thrombocytopenia and refractory Henoch-Schonlein purpura (HSP). A 12-year-old boy presented to our hospital with an 11-month history of purpura on the skin of both lower limbs accompanied by thrombocytopenia. The patient had a history of repeated swelling and painful dorsum pedis, followed by skin redness. Bone marrow slides showed megakaryocyte maturation disorder. Based on the pathology and drug abuse history, he was diagnosed with nodular cirrhosis, secondary allergic purpura, and thrombocytopenia, etiologies related to his drugs and an immune dysfunction. ucMSC transplantation was performed, the liver damaging drugs were discontinued, and the appropriate liver immunosuppressive drugs were administered. ucMSCs were injected 8 times/wk in 2 months, with a median cell count of 5.65 × 10/L, ranging from 5.48 to 5.98 × 10/L. As the patient's skin rash resolved, his platelets gradually increased to &gt;150 × 10/L and liver transaminase levels gradually decreased to a normal level. Ultrasonography of the abdomen indicated that the round nodules in the liver decreased in size and that the spleen thickness also decreased. This is a unique case of significant HSP with associated thrombocytopenia in a patient with liver cirrhosis. Long-term oral administration of excessive herbal medicine may cause liver damage. We believe that ucMSCs provide a novel approach for the treatment of liver cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>27339398</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Transplantation with autologous bone marrow-derived mesenchymal stem cells for alcoholic cirrhosis: Phase 2 trial.</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Bone marrow-derived mesenchymal stem cell (BM-MSC) transplantation has been suggested as an effective therapy for liver cirrhosis. The efficacy and safety of autologous BM-MSC transplantation in the treatment of alcoholic cirrhosis were investigated. Seventy-two patients with baseline biopsy-proven alcoholic cirrhosis who had been alcohol-abstinent for more than 6 months underwent a multicenter, randomized, open-label, phase 2 trial. Patients were randomly assigned to three groups: one control group and two autologous BM-MSC groups that underwent either one-time or two-time hepatic arterial injections of 5 × 10&lt;sup&gt;7&lt;/sup&gt; BM-MSCs 30 days after BM aspiration. A follow-up biopsy was performed 6 months after enrollment, and adverse events were monitored for 12 months. The primary endpoint was improvement in fibrosis quantification based on picrosirius red staining. The secondary endpoints included liver function tests, Child-Pugh score, and Model for End-stage Liver Disease score. Outcomes were analyzed by per-protocol analysis. In terms of fibrosis quantification (before versus after), the one-time and two-time BM-MSC groups were associated with 25% (19.5 ± 9.5% versus 14.5 ± 7.1%) and 37% (21.1 ± 8.9% versus 13.2 ± 6.7%) reductions in the proportion of collagen, respectively (P &lt; 0.001). In the intergroup comparison, two-time BM-MSC transplantation in comparison with one-time BM-MSC transplantation was not associated with improved results in fibrosis quantification (P &gt; 0.05). The Child-Pugh scores of both BM-MSC groups (one-time 7.6 ± 1.0 versus 6.3 ± 1.3 and two-time 7.8 ± 1.2 versus 6.8 ± 1.6) were also significantly improved following BM-MSC transplantation (P &lt; 0.05). The proportion of patients with adverse events did not differ among the three groups. Autologous BM-MSC transplantation safely improved histologic fibrosis and liver function in patients with alcoholic cirrhosis. (Hepatology 2016;64:2185-2197).</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>29285145</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Comparison of bone marrow-vs. adipose tissue-derived mesenchymal stem cells for attenuating liver fibrosis.</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell (MSC) therapy has emerged as a potential novel method of treating liver fibrosis. To date, bone marrow-derived MSCs (BM-MSCs) and adipose tissue-derived MSCs (AD-MSCs) have not been analyzed with respect to their ability to combat liver fibrosis. The present study aimed to compare the capabilities of BM-MSCs and AD-MSCs in the treatment of liver fibrosis. BM-MSCs and AD-MSCs were taken from male Sprague-Dawley rats and cultured. Hepatic stellate cells (HSCs) were co-cultured with either BM-MSCs or AD-MSCs, and the effects of BM-MSCs or AD-MSCs on the proliferation, activation and apoptosis of HSCs were determined. The secretion of a selected group of cytokines by BM-MSCs and AD-MSCs was measured using enzyme-linked immunosorbent assays. Using a CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis animal model, the anti-inflammatory and anti-fibrotic effects of BM-MSCs or AD-MSCs against liver fibrosis &lt;i&gt;in vivo&lt;/i&gt; were evaluated. The morphological examination and analysis of specific surface markers confirmed the successful preparation of BM-MSCs and AD-MSCs. Furthermore, the proliferation, activation and apoptosis of HSCs were significantly inhibited by BM-MSCs and AD-MSCs, with statistically greater reductions achieved by AD-MSCs compared with BM-MSCs. Direct comparison of the secretion of selected cytokines by BM-MSCs and AD-MSCs revealed that significantly higher levels of nerve growth factor and transforming growth factor-β1 were secreted in the AD-MSC culture medium, whereas levels of vascular endothelial growth factor and interleukin-10 did not differ significantly between AD-MSCs and BM-MSCs. &lt;i&gt;In vivo&lt;/i&gt; studies using a CCl&lt;sub&gt;4&lt;/sub&gt;-induced liver fibrosis model demonstrated that inflammatory activity and fibrosis staging scores were significantly lower in the MSC-treated groups compared with controls. Although AD-MSCs improved anti-inflammatory and anti-fibrotic effects compared with BM-MSCs, these differences were not significant. Thus, the current study demonstrated that BM-MSCs and AD-MSCs are similarly effective at attenuating liver fibrosis by inhibiting the activation and proliferation of HSCs, as well as promoting the apoptosis of HSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>23980370</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>[Oxymatrine could promote mesenchymal stem cell therapy in hepatic fibrosis rats: an experimental research].</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>To investigate whether oxymatrine (OM) could promote mesenchymal stem cell (MSC) therapy in CCl4-induced hepatic fibrosis (HF) in rats and to initially explore its mechanisms. Totally 50 male SD rats were randomly divided into five groups,i.e., the normal control group, the model group, the MSC therapy group, the OM therapy group, and the MSC combined OM therapy group, 10 in each group. Except the normal control group, the HF model was duplicated by CCl4 induction. After successful modeling, rats in the MSC therapy group received 5 x10(6) MSCs by intravenous injection via caudal vein, once a week. Rats in the OM therapy group received 50 mg/kg OM by intramuscular injection, three times a week. Rats in MSC combined OM therapy group received 5 x 10(6) MSCs by intravenous injection via caudal vein, once a week and 50 mg/kg OM by intramuscular injection three times a week. Equal volume of normal saline was given to those in the normal control group and the model group. All medication lasted for 8 weeks. Serum levels of ALT and AST were detected 8 weeks later. The hepatic histopathological injury and extracellular matrix deposit were assessed using HE and Masson staining. Expressions of serum interleukin-4 (IL-4) and interleukin-10 (IL-10) were detected using enzyme linked immunosorbent assay (ELISA). (1) Compared with the normal control group, serum levels of ALT and AST significantly increased in the model group (P &lt; 0.05). Compared with the model group, serum levels of ALT and AST significantly decreased in the OM therapy group, the MSC therapy group, and the MSC combined OM therapy group at the end of 8 weeks of treatment (P &lt; 0.05). But serum levels of ALT and AST were significantly lower in the MSC combined OM therapy group than in the OM therapy group and the MSC therapy group (P &lt; 0.05). (2) Compared with the model group, the hepatic injury was significantly lessened and the area of extracellular matrix deposit was significantly reduced in the OM therapy group, the MSC therapy group, and the MSC combined OM therapy group (P &lt; 0.05). Besides, they wer more significant in the MSC combined OM therapy group (P &lt; 0.05). (3) Compared with the model group, the serum IL-4 level was significantly higher in the MSC therapy group and the MSC combined MO group (P &lt; 0.05). It was higher in the MSC combined MO group (P &lt; 0.05). Although the serum IL-4 level also increased in the OM therapy group, but with no statistical difference (P &gt; 0.05). (4) The serum IL-10 level significantly increased in the OM therapy group, the MSC therapy group, and the MSC combined OM therapy group (P &lt; 0.05), and it was the highest in the MSC combined OM therapy group among the three groups (P &lt; 0.05). (5) Two-photon fluorescence imaging showed no signals of MSCs in liver with or without OM injection. OM could promote mesenchymal stem cell therapy in hepatic fibrosis rats, which might be involved in increasing serum levels of IL-4 and IL-10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>31885614</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>The Effect of Vascular Endothelial Growth Factor on Bone Marrow Mesenchymal Stem Cell Engraftment in Rat Fibrotic Liver upon Transplantation.</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>According to existing related experiments and research reports, stem cell transplantation therapy has been shown to have a positive effect on the recovery of liver fibrosis/cirrhosis, but for some reason, this therapy still cannot be widely used in clinical work. One of the reasons that cannot be ignored is the low quantity of exogenous stem cells transplanted into the liver in vivo. Thus, we investigated whether the use of the vascular endothelial growth factor (VEGF) can increase the number of stem cell transplants and improve the efficacy of stem cell transplantation therapy. Using a Sprague-Dawley rat liver fibrosis model, we transplanted into fibrosis liver allograft bone marrow mesenchymal stem cells (BMSCs) which were labelled with chlormethylbenzamido-1,1-dioctadecyl-3,3,3'3'-tetramethylin-docarbocyamine (CM-DiI) or injected VEGF adenovirus solution through the tail vein or conducted the above two operations simultaneously. The cell surface receptor profile of BMSC was examined by flow cytometry and immunofluorescence staining. Hepatic sinusoidal vascular leakage was measured with Evan's blue dye assay. Paraffin section staining, immunofluorescent staining, RT-qPCR (quantitative reverse transcription polymerase chain reaction), and Western blot were used to evaluate hepatic pathological changes and physiology function. The in vivo study indicated that, comparing with other groups of rats, the rats with combined treatment of BMSC transplantation and VEGF injection exhibited obvious reduction in liver fibrosis. Evan's blue dye assay suggests that after injecting with VEGF adenovirus solution, the rat's hepatic sinusoidal permeability would be increased. We confirmed the expression of very late antigen-4 (VLA4, integrin &lt;i&gt;α&lt;/i&gt; &lt;sub&gt;4&lt;/sub&gt; &lt;i&gt;β&lt;/i&gt; &lt;sub&gt;1&lt;/sub&gt;) on rat BMSCs and the elevated expression of vascular adhesion molecule-1 (VCAM-1) in the hepatic sinusoidal endothelial cells. In addition, the analysis of CM-DiI-labeled BMSCs showed that the BMSC+VEGF group exhibited better cell engraftment and that the engrafted cells were mainly distributed in the hepatic parenchyma. Furthermore, compared with the other situation, it is best to reconstitute the liver secretion and regeneration function of rats after combined application of VEGF and BMSC. We showed that VEGF promotes the engraftment of BMSCs in liver fibrosis, enhances liver regeneration, and improves liver function. These outcomes may be related to the increasing hepatic sinusoidal endothelium permeability and VCAM-1-increased expression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>27405780</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Antifibrotic Activity of Human Placental Amnion Membrane-Derived CD34+ Mesenchymal Stem/Progenitor Cell Transplantation in Mice With Thioacetamide-Induced Liver Injury.</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>: Liver fibrosis represents the end stage of chronic liver inflammatory diseases and is defined by the abnormal accumulation of extracellular matrix in the liver. Advanced liver fibrosis results in cirrhosis, liver failure, and portal hypertension. Liver transplantation has been the most effective treatment for these diseases, but the procedure is limited by the shortage of suitable donors. Mesenchymal stromal cells (MSCs) have shown great potential in the treatment of chronic inflammatory diseases associated with fibrosis. This study aimed to evaluate the therapeutic effect of MSC-based cell transplantation as an alternative treatment for liver fibrosis. A CD34-positive subpopulation of human placental amnion membrane-derived stem/progenitor cells (CD34&lt;sup&gt;+&lt;/sup&gt; AMSPCs) was isolated through the depletion of CD34-negative stromal fibroblasts (CD34&lt;sup&gt;-&lt;/sup&gt; AMSFCs) facilitated by CD34 fluorescence-activated cell sorting, enriched and expanded ex vivo. These cells express pluripotency markers and demonstrate multidirectional differentiation potentials. Comparative analysis was made between CD34&lt;sup&gt;+&lt;/sup&gt; AMSPCs and CD34&lt;sup&gt;-&lt;/sup&gt; AMSFCs in terms of the expressions of stemness surface markers, embryonic surface antigens, and multilineage differentiation potentials. A mouse model of liver fibrosis was established by thioacetamide (TAA) administration. When injected into the spleen of TAA-injured mice, human placental amnion membrane-derived MSCs (hAM-MSCs) can engraft into the injury site, ameliorate liver fibrosis, and restore liver function, as shown by pathological and blood biochemical analysis and downregulated gene expressions associated with liver damage. CD34&lt;sup&gt;+&lt;/sup&gt; AMSPCs represent a more primitive subset of hAM-MSCs and could be a suitable candidate with a potentially better safety profile for cell-based therapy in treatment of liver diseases associated with fibrosis. In this study, a CD34&lt;sup&gt;+&lt;/sup&gt; subpopulation of stem/progenitor cells derived from neonatal placental amnion membrane, denoted as CD34&lt;sup&gt;+&lt;/sup&gt; AMSPCs, were identified, enriched, and characterized. These cells are highly proliferative, express mesenchymal stromal cells and pluripotent stem cell markers, and demonstrate multidirectional differentiation potentials, indicating their promising application in clinical regenerative therapies. CD34&lt;sup&gt;+&lt;/sup&gt; AMSPC transplantation ameliorated liver fibrosis in mice with drug-induced liver injury. These cells represent a potential therapeutic agent for treating liver diseases associated with fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>34715410</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Greek gods and the double-edged sword of liver regeneration.</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>In the current issue of the Biomedical Journal we gain an insight into the regeneration of liver tissue and how an over-the-counter supplement, stem cells and two plant extracts counteract liver damage. Furthermore the advances against hepatitis C virus are presented, the role of long non-coding RNA elucidated as well as the potential of an adhesion G protein-coupled receptor. In another contribution, the definition and evolutionary impact of copy number variants is clarified. Also, the polymorphism of a scaffolding caspase is investigated. We furthermore learn about the relation between SARS-CoV2 mutants in dependence of geography and explore the challenges of telemedicine in a complex healthcare field. A novel approach to engineering artificial grafts is presented, the challenges of total knee arthroplasty discussed as well as a possible mean of sinus floor elevation for dental implants. At last the concept of flipped classroom is scrutinized in terms of usefulness for a hospital in Taiwan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>32775363</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapy for liver fibrosis/cirrhosis.</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Liver fibrosis represents a common outcome of most chronic liver diseases. Advanced fibrosis leads to cirrhosis for which no effective treatment is available except liver transplantation. Because of the limitations of liver transplantation, alternative therapeutic strategies are an urgent need to find. Recently, mesenchymal stem cells (MSCs) based therapy has been suggested as an attractive therapeutic option for liver fibrosis and cirrhosis, based on the promising results from preclinical and clinical studies. Although the precise mechanisms of MSC transplantation are still not fully understood, accumulating evidence has indicated that MSCs eliminate the progression of fibrosis due to their immune-modulatory properties. In this review, we summarise the properties of MSCs and their clinical application in the treatment of liver fibrosis and cirrhosis. We also discuss the mechanisms involved in MSC-dependent regulation of immune microenvironment in the context of liver fibrosis and cirrhosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>35721175</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Ferulic Acid Combined With Bone Marrow Mesenchymal Stem Cells Attenuates the Activation of Hepatic Stellate Cells and Alleviates Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Bone marrow mesenchymal stem cells (BMSCs) can effectively alleviate liver fibrosis, but the efficacy of cell therapy alone is insufficient. In recent years, a combination of traditional Chinese medicine (TCM) and cell therapy has been increasingly used to treat diseases in clinical trials. Ferulic acid (FA) is highly effective in treating liver fibrosis, and a combination of cells and drugs is being tested in clinical trials. Therefore, we combined BMSCs and Ferulic acid to treat CCl&lt;sub&gt;4&lt;/sub&gt;-induced fibrosis and determine whether this combination was more effective than single treatment. We used BMSCs and FA to treat CCl&lt;sub&gt;4&lt;/sub&gt;-induced fibrosis in rat models, observed their therapeutic effects, and investigated the specific mechanism of this combination therapy in liver fibrosis. We created a BMSC/hepatic stellate cell (HSC) coculture system and used FA to treat activated HSCs to verify the specific mechanism. Then, we used cytochalasin D and angiotensin II to investigate whether BMSCs and FA inactivate HSCs through cytoskeletal rearrangement. MiR-19b-3p was enriched in BMSCs and targeted TGF-β receptor II (TGF-βR2). We separately transfected miR-19b-3p into HSCs and BMSCs and detected hepatic stellate cell activation. We found that the expression of the profibrotic markers α-SMA and COL1-A1 was significantly decreased in the combination group of rats. α-SMA and COL1-A1 levels were also significantly decreased in the HSCs with the combination treatment. Cytoskeletal rearrangement of HSCs was inhibited in the combination group, and RhoA/ROCK pathway gene expression was decreased. Following angiotensin II treatment, COL1-A1 and α-SMA expression increased, while with cytochalasin D treatment, profibrotic gene expression decreased in HSCs. The expression of COL1-A1, α-SMA and RhoA/ROCK pathway genes was decreased in the activated HSCs treated with a miR-19b-3p mimic, indicating that miR-19b-3p inactivated HSCs by suppressing RhoA/ROCK signalling. In contrast, profibrotic gene expression was significantly decreased in the BMSCs treated with the miR-19b-3p mimic and FA or a miR-19b-3p inhibitor and FA compared with the BMSCs treated with the miR-19b-3p mimic alone. In conclusion, the combination therapy had better effects than FA or BMSCs alone. BMSC and FA treatment attenuated HSC activation and liver fibrosis by inhibiting cytoskeletal rearrangement and delivering miR-19b-3p to activated HSCs, inactivating RhoA/ROCK signalling. FA-based combination therapy showed better inhibitory effects on HSC activation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>34504910</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Secreted matrix metalloproteinase-14 is a predictor for antifibrotic effect of IC-2-engineered mesenchymal stem cell sheets on liver fibrosis in mice.</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Transplantation of IC-2-engineered bone marrow-derived mesenchymal stem cell (BM-MSC) sheets (IC-2 sheets) was previously reported to potentially reduce liver fibrosis. This study prepared IC-2-engineered cell sheets from multiple lots of BM-MSCs and examined the therapeutic effects of these cell sheets on liver fibrosis induced by carbon tetrachloride in mice. The predictive factors for antifibrotic effect on liver fibrosis were tried to identify in advance. Secreted matrix metalloproteinase (MMP)-14 was found to be a useful predictive factor to reduce liver fibrosis. Moreover, the cutoff index of MMP-14 for 30% reduction of liver fibrosis was 0.918 fg/cell, judging from univariate analysis and receiver operating curve analysis. In addition, MMP-13 activity and thioredoxin contents in IC-2 sheets were also inversely correlated with hepatic hydroxyproline contents. Finally, IC-2 was also found to promote MMP-14 secretion from BM-MSCs of elderly patients. Surprisingly, the values of secreted MMP-14 from BM-MSCs of elderly patients were much higher than those of young persons. The results of this study suggest that the IC-2 sheets would be applicable to clinical use in autologous transplantation for patients with cirrhosis regardless of the patient's age.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>27785340</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Comparison of the therapeutic effectiveness of human CD34&lt;sup&gt;+&lt;/sup&gt; and rat bone marrow mesenchymal stem cells on improvement of experimental liver fibrosis in Wistar rats.</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Human umbilical cord blood (UCB) cells and bone marrow mesenchymal stem cells (BM-MSCs) have numerous advantages as grafts for cell transplantation. We hypothesized differing impacts of human UCB cells and rat BM-MSCs on reversal of hepatic injury and revival of liver function in carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;)-induced liver fibrosis. Forty rats were divided into 4 groups; control group, CCl&lt;sub&gt;4&lt;/sub&gt; group, CCl&lt;sub&gt;4&lt;/sub&gt;/CD34&lt;sup&gt;+&lt;/sup&gt; group and CCl&lt;sub&gt;4&lt;/sub&gt;/BM-MSCs group. Blood samples were driven from rats at 4, 8 and 12 weeks to measure serum concentration of albumin and alanine aminotransferase (ALT). Quantitative expression of collagen Iα, TGF-β, α-SMA, albumin, MMP-2, MMP-9 and TNF-α were assessed by polymerase chain reaction. Histopathological examination of the liver tissue was performed. GFP labeled cells were detected in groups injected with stem cells. Regarding liver function, CD34&lt;sup&gt;+&lt;/sup&gt; were more efficient than BM-MSCs in elevating albumin (&lt;i&gt;P&lt;/i&gt;&lt;0.05) and reducing ALT (&lt;i&gt;P&lt;/i&gt;&lt;0.05) concentrations. Concerning gene expression, CD34&lt;sup&gt;+&lt;/sup&gt; were more effective than BM-MSCs in reducing gene expressions of collagen Iα (&lt;i&gt;P&lt;/i&gt;&lt;0.01), TGF-β1 (&lt;i&gt;P&lt;/i&gt;&lt;0.01) and α-SMA (&lt;i&gt;P&lt;/i&gt;&lt;0.01). Both CD34&lt;sup&gt;+&lt;/sup&gt; and BM-MSCs have the same efficacy in reducing TNF-α (&lt;i&gt;P&lt;/i&gt;&lt;0.001 and &lt;i&gt;P&lt;/i&gt;&lt;0.01, respectively). Furthermore, CD34&lt;sup&gt;+&lt;/sup&gt; were more valuable than BM-MSCs in increasing gene expression of albumin (&lt;i&gt;P&lt;/i&gt;&lt;0.05) and MMP-9 (&lt;i&gt;P&lt;/i&gt;&lt;0.01). Taken together; human UCB CD34&lt;sup&gt;+&lt;/sup&gt; stem cells were more efficient in improvement of experimental liver injury than BM-MSCs. This study highlighted an important role of human UCB CD34&lt;sup&gt;+&lt;/sup&gt; stem cells in liver fibrosis therapy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>34711695</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Human Liver Stem Cell Transplantation Alleviates Liver Fibrosis in a Rat Model of CCl&lt;sub&gt;4&lt;/sub&gt;-Induced Liver Fibrosis.</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) elicit therapeutic effects against liver fibrosis in animal models. Human liver stem cells (HLSCs) are cells isolated from human liver tissue that have mesenchymal morphology and express MSC markers. HLSCs also possess intrahepatic stem cell properties. We introduce a rat model of liver fibrosis and trans-portal transplantation of HLSC to demonstrate alleviation of liver fibrosis. Liver fibrosis was induced by intraperitoneal injection of Carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;). Sprague Dawley rats underwent simultaneous partial hepatectomy of the left hepatic lobe and HLSC transplantation via the portal vein. Gross appearance of the liver observed following CCl&lt;sub&gt;4&lt;/sub&gt; injection showed cholestasis and surface nodularity. Sirius red staining revealed deposition of collagen fibers in the extracellular matrix (ECM). Following HLSC transplantation, human albumin secreting cells were detected by immunohistochemistry in liver specimens. Quantitative measurements of fibrosis area stained by Sirius red were compared between baseline and post-HLSC transplant (1×10&lt;sup&gt;7&lt;/sup&gt; cells) following 10 weeks of CCl&lt;sub&gt;4&lt;/sub&gt; treatment liver specimens. Fibrosis area (p&lt;0.05), serum markers of liver inflammation and fibrosis (AST, ALT levels and APRI, p&lt;0.05) significantly decreased from baseline after HLSC transplantation. RNA expression in liver tissues revealed significant decrease in tissue inhibitor of matrix metalloproteinase 1 (TIMP1), TIMP2 expression and increase in hepatocyte growth factor expression following HLSC transplantation (p&lt;0.05). HLSC transplantation effectively reduced the area of liver fibrosis with increased expression of factors promoting ECM degradation. These findings suggest the potential therapeutic role of HLSCs in various liver diseases presenting with liver fibrosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>31516638</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cell therapies for liver cirrhosis: MSCs as "conducting cells" for improvement of liver fibrosis and regeneration.</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Mesenchymal stem cells (MSCs) can be cultured relatively easily and can be obtained not only from the bone marrow, but also from medical waste such as adipose tissue and umbilical cord tissue. Because of its low antigenicity, allogeneic MSC injection is safe. MSCs have been evaluated in more than 900 clinical trials in a variety of fields, with more than 50 clinical trials related to liver diseases. Experiments have suggested that MSCs function as "conducting cells" to affect various "effective cells" such as T cells, B cells, and macrophages. Recent clinical trials have focused on allogeneic MSCs. Thus, studies are needed to determine the most effective cell source, culture conditions, cell numbers, administration frequency, administration route, cost, safety, and liver disease treatments. Recently, the functions of exosomes have gained attention, and cell-free therapy may become possible as an alternative therapy for liver disease. In this review, we introduce general information, mechanism, representative clinical study data, recently started or planned clinical trials, and possibility of cell-free therapy of MSCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>21516840</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>[Biological treatment of gastrointestinal diseases].</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Biological methods are widely used in the treatment of intestinal inflammation (II). The TNFalpha inhibitor infliximab can quickly correct recurrence, provide long-term remission and reduce hormone need in many patients with hormone-resistant and hormone-dependent forms of Crohn's disease (CD) and ulcerative colitis (UC). However, almost half of II patients fail anticytokine therapy. Some clinical trials of biological medicines were stopped because of toxicity and complications. One of promising approaches to II treatment is now transplantation of mesenchymal stromal cells (MSC). The trial with participation of 85 CD and UC patients demonstrates that intravenous injection of allogenic MSC significantly prolongs duration of remission, reduces recurrence risk and is indicated for patients with hormone-resistant, hormone-dependent forms of II. Cell therapy can be also used in combined treatment of other gastrointestinal diseases, hepatic cirrhosis, in particular. A clinical trial is initiated of efficacy of transplantation of bone marrow autologous cells CD133+ for stimulation of regeneration of the liver in its extensive resection and cirrhosis. The future of this method depends on the results of controlled, randomized clinical trials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>37576406</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>The Effect of Mesenchymal Stem Cell-Derived Exosomes and miR17-5p Inhibitor on Multicellular Liver Fibrosis Microtissues.</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Although several studies have been conducted on modeling human liver disease, it is still challenging to mimic nonalcoholic fatty liver disease in vitro. Here, we aimed to develop a fibrotic liver microtissue composed of hepatocytes, hepatic stellate, and endothelial cells. In addition, the therapeutic effects of umbilical cord mesenchymal stem cell-derived exosomes (UC-MSC-EXO) and anti-miR17-5p as new antifibrotic drugs were investigated. To create an effective preclinical fibrosis model, multicellular liver microtissues (MLMs) consisting of HepG2, LX2, and HUVECs were cultured and supplemented with a mixture of palmitic acid and oleic acid for 96 hr. Then, MLMs were exposed to UC-MSC-EXO and anti-miR17-5p in different groups. The results of cell viability, reactive oxygen species (ROS) production, liver enzyme levels, inflammation, and histopathology were analyzed to assess the treatment efficacy. Furthermore, the expression of collagen I (COL I) and &lt;i&gt;α&lt;/i&gt;-smooth muscle actin (&lt;i&gt;α&lt;/i&gt;-SMA) as critical matrix components, transforming growth factor beta (TGF-&lt;i&gt;β&lt;/i&gt;), and miR-17-5p were measured. Free fatty acid supplementation causes fibrosis in MLMs. Our results demonstrated that UC-MSC-EXO and anti-miR17-5p attenuated TGF-&lt;i&gt;β&lt;/i&gt;1, interleukin-1&lt;i&gt;β&lt;/i&gt;, and interleukin-6 in all experimental groups. According to the suppression of the TGF-&lt;i&gt;β&lt;/i&gt;1 pathway, LX2 activation was inhibited, reducing extracellular matrix proteins, including COL I and &lt;i&gt;α&lt;/i&gt;-SMA. Also, miR-17-5p expression was elevated in fibrosis conditions. Furthermore, we showed that our treatments decreased alanine aminotransferase and aspartate aminotransferase, and increased albumin levels in the culture supernatant. We also found that both MSC-EXO and MSC-EXO + anti-miR17-5p treatments could reduce ROS production. Our findings indicated that anti-miR17-5p and MSC-EXO might be promising therapeutic options for treating liver fibrosis. Furthermore, EXO + anti-miR had the best effects on boosting the fibrotic markers. Therefore, we propose this novel MLM model to understand fibrosis mechanisms better and develop new drugs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>29844633</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Therapeutic potential effect of bone marrow-derived mesenchymal stem cells on chronic liver disease in murine &lt;i&gt;Schistosomiasis Mansoni&lt;/i&gt;.</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Some reports have shown that mesenchymal stem cells (MSCs) therapy could ameliorate chemically-induced hepatic fibrosis. This research assesses the therapeutic action of bone marrow mesenchymal stem cells (BM-MSCs) on chronic diseased liver in &lt;i&gt;Schistosoma mansoni&lt;/i&gt; infected mice. All infected female mice divided into three groups, one group (15 mice) treated with oral praziquantel (PZQ), second group (15 mice) received intravenous injection of BM-MSCs and third group (15 mice) treated with both MSCs + PZQ. Two control groups (15 mice each) subdivided into one infected and second healthy one. BM-MSCs were obtained from bones of both femur and tibia of male mice (30 mice), then cultured and characterized morphologically by detection of CD105 by flow cytometer. Liver tissues for all groups were examined histopathologically. Measuring of the collagen 1 gene expression was done by real-time PCR and immunohistochemical study to detect stem cells differentiation for detection of MSCs engraftments in liver tissue. MSCs treatment caused marked improvement and regression of fibrosis, and prevents deposition of collagen and reduced the expression of collagen 1 gene in infected mice on their liver tissues, especially when used with PZQ in mice treatment. It can be concluded that, MSCs is a good therapeutic method for liver fibrosis caused by &lt;i&gt;S. mansoni&lt;/i&gt; infection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>27190538</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Ex Vivo Stromal Cell-Derived Factor 1-Mediated Differentiation of Mouse Bone Marrow Mesenchymal Stem Cells into Hepatocytes Is Enhanced by Chinese Medicine Yiguanjian Drug-Containing Serum.</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Yiguanjian is administered in traditional Chinese medicine for liver diseases and has been demonstrated to reduce liver fibrosis. This study investigated the effect of Yiguanjian drug-containing serum (YGJ) with Stromal Cell-Derived Factor 1 (SDF-1) and Hepatocyte Growth Factor (HGF) on the differentiation of murine bone-marrow-derived mesenchymal cells (BM-MSCs) into hepatocytes in vitro. Adherent MSCs were isolated from murine bone marrow. Differentiation was induced by 20 ng/mL HGF, 50 ng/mL SDF-1, and 20% Yiguanjian drug-containing serum for 7 to 28 days, and mature hepatocytes' marker albumin (ALB) and cholangiocytes' marker cytokeratin-18 (CK-18) were assessed by immunocytochemistry and western blot. BM-MSCs exhibited homogeneous spindle shape growth after subculture and stained positive for CD90 and negative for CD34. After induction with HGF + normal serum or YGJ for 14 days, HGF + SDF-1 + normal serum for 7 days, or HGF + SDF-1 + YGJ for 5 days, MSCs' morphology changed gradually and begun to resemble hepatocyte-like cells. Cultures supplemented with HGF + SDF-1 + YGJ contained significantly higher proportions of ALB and CK-18 positive cells than cultures supplemented with HGF + SDF-1 + normal serum at day 7. These observations corroborated the results of western blot. In conclusion, Yiguanjian drug-containing serum could facilitate the differentiation of murine BM-MSCs into hepatocytes in vitro and has a synergistic effect with SDF-1 and HGF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>34796180</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Human Liver Stem Cell-Derived Extracellular Vesicles Target Hepatic Stellate Cells and Attenuate Their Pro-fibrotic Phenotype.</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Liver fibrosis occurs in response to chronic liver injury and is characterized by an excessive deposition of extracellular matrix. Activated hepatic stellate cells are primarily responsible for this process. A possible strategy to counteract the development of hepatic fibrosis could be the reversion of the activated phenotype of hepatic stellate cells. Extracellular vesicles (EVs) are nanosized membrane vesicles involved in intercellular communication. Our previous studies have demonstrated that EVs derived from human liver stem cells (HLSCs), a multipotent population of adult stem cells of the liver with mesenchymal-like phenotype, exert &lt;i&gt;in vivo&lt;/i&gt; anti-fibrotic activity in the liver. However, the mechanism of action of these EVs remains to be determined. We set up an &lt;i&gt;in vitro&lt;/i&gt; model of hepatic fibrosis using a human hepatic stellate cell line (LX-2) activated by transforming growth factor-beta 1 (TGF-β1). Then, we investigated the effect of EVs obtained from HLSCs and from human bone marrow-derived mesenchymal stromal cells (MSCs) on activated LX-2. The incubation of activated LX-2 with HLSC-EVs reduced the expression level of alpha-smooth muscle actin (α-SMA). Conversely, MSC-derived EVs induced an increase in the expression of pro-fibrotic markers in activated LX-2. The analysis of the RNA cargo of HLSC-EVs revealed the presence of several miRNAs involved in the regulation of fibrosis and inflammation. Predictive target analysis indicated that several microRNAs (miRNAs) contained into HLSC-EVs could possibly target pro-fibrotic transcripts. In particular, we demonstrated that HLSC-EVs shuttled miR-146a-5p and that treatment with HLSC-EVs increased miR-146a-5p expression in LX-2. In conclusion, this study demonstrates that HLSC-EVs can attenuate the activated phenotype of hepatic stellate cells and that their biological effect may be mediated by the delivery of anti-fibrotic miRNAs, such as miR-146a-5p.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pipeline/PubMed_Data.xlsx
+++ b/Pipeline/PubMed_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,408 +453,1238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25024623</t>
+          <t>23252878</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Outcomes of autologous bone marrow mononuclear cell transplantation in decompensated liver cirrhosis.</t>
+          <t>A randomized, double-blind trial of 2.5 mg and 5 mg vortioxetine (Lu AA21004) versus placebo for 8 weeks in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>To determine the long-term efficacy of autologous bone marrow mononuclear cells (BM-MNCs) transplantation in terms of improving liver function and reducing complications in patients with decompensated cirrhosis. A total of 47 inpatients with decompensated liver cirrhosis were enrolled in this trial, including 32 patients undergoing a single BM-MNCs transplantation plus routine medical treatment, and 15 patients receiving medical treatment only as controls. Forty-three of 47 patients were infected with hepatitis B virus. Bone marrow of 80-100 mL was obtained from each patient and the BM-MNCs suspension was transfused into the liver via the hepatic artery. The efficacy of BM-MNCs transplantation was monitored during a 24-mo follow-up period. Liver function parameters in the two groups were observed at 1 mo after BM-MNCs transfusion. Prealbumin level was 118.3 ± 25.3 mg/L vs 101.4 ± 28.7 mg/L (P = 0.047); albumin level was 33.5 ± 3.6 g/L vs 30.3 ± 2.2 g/L (P = 0.002); total bilirubin 36.9 ± 9.7 mmol/L vs 45.6 ± 19.9 mmol/L (P = 0.048); prothrombin time 14.4 ± 2.3 s vs 15.9 ± 2.8 s (P = 0.046); prothrombin activity 84.3% ± 14.3% vs 74.4% ± 17.8% (P = 0.046); fibrinogen 2.28 ± 0.53 g/L vs 1.89 ± 0.44 g/L (P = 0.017); and platelet count 74.5 ± 15.7 × 10(9)/L vs 63.3 ± 15.7 × 10(9)/L (P = 0.027) in the treatment group and control group, respectively. Differences were statistically significant. The efficacy of BM-MNCs transplantation lasted 3-12 mo as compared with the control group. Serious complications such as hepatic encephalopathy and spontaneous bacterial peritonitis were also significantly reduced in BM-MNCs transfused patients compared with the controls. However, these improvements disappeared 24 mo after transplantation. BM-MNCs transplantation is safe and effective in patients with decompensated cirrhosis. It also decreases the incidence of serious complications.</t>
+          <t>Vortioxetine (Lu AA21004) is an investigational antidepressant. In vitro studies indicate that vortioxetine is a 5-HT(3), 5-HT(7), and 5-HT(1D) receptor antagonist, 5-HT(1B) receptor partial agonist, 5-HT(1A) receptor agonist and inhibitor of the 5-HT transporter. This trial assessed the efficacy and tolerability of 2.5 and 5 mg vortioxetine for the treatment of MDD. Adults (N = 611) with MDD were randomized to 8 weeks of double-blind treatment with placebo, vortioxetine (2.5 or 5 mg) or active reference (duloxetine 60 mg). The primary measure was change from baseline in the 24-item Hamilton Depression Scale (HAM-D24). Secondary endpoints included responder rate, Clinical Global Impression Scale-Global Improvement scale (CGI-I), and remission rate. Participants were monitored for adverse events (AEs), and treatment-emergent sexual dysfunction using the Arizona Sexual Experiences (ASEX) scale. Both doses of vortioxetine were associated with declines in HAM-D24 total scores compared to placebo but were not statistically significant. At 8 weeks, changes from baseline were [mean (SE)]: -10.50 (0.76) placebo, -12.04 (0.74) 2.5 mg vortioxetine, and -11.08 (0.74) 5 mg vortioxetine. Secondary outcome measures in the vortioxetine groups, including responder rate, CGI-I, and remission rate, were also not significantly different from placebo. Duloxetine treatment was associated with declines in HAM-D24 total score [-13.47(0.75); p = 0.005] as well as significant improvements in secondary outcome measures versus placebo (p ≤ 0.05). The most common AEs for vortioxetine were nausea, dry mouth, and headache. Rates of sexual dysfunction (ASEX) were 51.0%, 37.5%, 46.9%, and 33.3% in the vortioxetine 2.5 mg, vortioxetine 5 mg, duloxetine, and placebo groups, respectively. In this study of adults with MDD treated for 8 weeks with vortioxetine 2.5 mg or 5 mg per day, reductions in depression symptoms were not statistically significant compared with placebo. Study limitations are discussed, including patient characteristics, MDD severity, drug dosing, and aspects of trial design. Both doses of vortioxetine were well tolerated. This trial has been registered at clinicaltrials.gov #NCT00672620.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21900788</t>
+          <t>29277417</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinical and laboratory evaluation of patients with end-stage liver cell failure injected with bone marrow-derived hepatocyte-like cells.</t>
+          <t>Reprint of: Contrasting effects of vortioxetine and paroxetine on pineal gland biochemistry in a tryptophan-depletion model of depression in female rats.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>One of the defining features of the liver is the capacity to maintain a constant size despite injury. Extrahepatic stem cells especially bone marrow-derived stem cells are thought to undertake an important role in liver repopulation. This study was carried out to evaluate the outcome of autologous bone marrow-derived hepatocytes transplantation in patients with end-stage liver cell failure due to chronic hepatitis C. Forty patients were included, divided into two groups. Group I: 20 patients receiving autologous bone marrow-derived mesenchymal stem cells stimulated to hepatic lineage. They were subdivided into two groups regarding the route of transplantation: intrasplenic (10) and intrahepatic (10). Group II: included 20 patients who received traditional supportive treatment. Patients were followed up using examination, laboratory investigations, abdominal ultrasonography, and evaluated by Child score, Model for End Stage Liver Disease score, fatigue scale, and performance status. The results showed significant improvement in group I regarding ascites, lower limb edema, and serum albumin, over the control group. Group I also showed statistically significant improvement in Child score, Model for End Stage Liver Disease score, fatigue scale, and performance status over the controls. No difference was observed between intrahepatic and intrasplenic groups. This study demonstrated the safety and short-term efficacy of autologous bone marrow-derived mesenchymal stem cell injection in liver cell failure. Further study is necessary to standardize the cell dose, determine the life span of the injected cells, and detect the appearance of long-term complications.</t>
+          <t>We studied the effects of the multi-modal antidepressant, vortioxetine and the SSRI, paroxetine on pineal melatonin and monoamine synthesis in a sub-chronic tryptophan (TRP) depletion model of depression based on a low TRP diet. Female Sprague-Dawley rats were randomised to groups a) control, b) low TRP diet, c) low TRP diet+paroxetine and d) low TRP diet+vortioxetine. Vortioxetine was administered via the diet (0.76mg/kg of food weight) and paroxetine via drinking water (10mg/kg/day) for 14days. Both drugs resulted in SERT occupancies &gt;90%. Vortioxetine significantly reversed TRP depletion-induced reductions of pineal melatonin and serotonin (5-HT) and significantly increased pineal noradrenaline NA. Paroxetine did none of these things. Other studies suggest pineal melatonin synthesis may involve N-methyl-d-aspartate (NMDA) receptors and glutamatergic modulation. Here observed changes may be mediated via vortioxetine's strong 5-HT reuptake blocking action together with possible additional effects on glutamate neurotransmission in the pineal via NMDA receptor-modulation and possibly with added impetus from increased NA output.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21608000</t>
+          <t>25075188</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Autologous bone marrow mesenchymal stem cell transplantation in liver failure patients caused by hepatitis B: short-term and long-term outcomes.</t>
+          <t>Pharmacology and clinical potential of vortioxetine in the treatment of major depressive disorder.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Our study aimed to investigate the short-term efficacy and long-term prognosis of liver failure patients caused by hepatitis B after a single transplantation with autologous marrow mesenchymal stem cells (MMSCs). A total of 527 inpatients with liver failure caused by hepatitis B were recruited and received the same medical treatments, among whom 53 patients underwent a single transplantation with autologous MMSCs. A total of 105 patients matched for age, sex, and biochemical indexes, including alanine aminotransferase (ALT), albumin, total bilirubin (TBIL), prothrombin time (PT), and Model for End-Stage Liver Disease (MELD), comprised the control group. A total of 120 mL of bone marrow was obtained from each patient and then diluted and separated. Then, the MMSC suspension was slowly transfused into the liver through the proper hepatic artery. The success rate of transplantation was 100%, without serious side effects or complications. Levels of ALB, TBIL, and PT and MELD score of patients in the transplantation group were markedly improved from 2-3 weeks after transplantation, compared with those in the control group. At 192 weeks of follow-up, there were no dramatic differences in incidence of hepatocellular carcinoma (HCC) or mortality between the two groups. Additionally, there were no significant differences in the incidence of HCC or mortality between patients with and without cirrhosis in the transplantation group. Autologous MMSC transplantation is safe for liver failure patients caused by chronic hepatitis B. Short-term efficacy was favorable, but long-term outcomes were not markedly improved. In respect to several parameters, this method is preferable for patients with liver cirrhosis and may have potential for reducing their incidence of HCC and mortality.</t>
+          <t>VORTIOXETINE IS A NEW MULTIMODAL ACTION ANTIDEPRESSANT WITH TWO TYPES OF ACTION: serotonin transporter (SERT) blockade and a strong affinity for several serotoninergic receptors. It is an antagonist of the 5-HT3 and 5-HT7 receptors, a partial agonist of 5-HT1B, and an agonist of 5-HT1A. Its combined action on SERT and four subtypes of serotoninergic receptors increases the extracellular concentration of serotonin, dopamine, and noradrenaline. Twelve clinical trials have been carried out, nine of which had positive results versus placebo. When active comparators were included in the study design, no significant differences were found except in one study in which the efficacy of vortioxetine was superior to the comparator (agomelatine) in depression resistant to selective serotonin reuptake inhibitors (SSRI)/serotonin-norepinephrine reuptake inhibitors (SNRI) treatment. Tolerability studies indicate that the drug does not cause any important problems on blood tests, vital signs, or on electrocardiography. The lack of weight gain and induction of metabolic syndrome and the lack of significant changes in the QTc are especially important. The incidence rate of sexual dysfunction is low and similar to placebo in various trials. Similarly, cognitive function remains intact with vortioxetine.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36823236</t>
+          <t>27312740</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cells in hepatic fibrosis/cirrhosis: from pathogenesis to treatment.</t>
+          <t>The Effects of Vortioxetine on Cognitive Function in Patients with Major Depressive Disorder: A Meta-Analysis of Three Randomized Controlled Trials.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hepatic fibrosis/cirrhosis is a significant health burden worldwide, resulting in liver failure or hepatocellular carcinoma (HCC) and accounting for many deaths each year. The pathogenesis of hepatic fibrosis/cirrhosis is very complex, which makes treatment challenging. Endogenous mesenchymal stromal cells (MSCs) have been shown to play pivotal roles in the pathogenesis of hepatic fibrosis. Paradoxically, exogenous MSCs have also been used in clinical trials for liver cirrhosis, and their effectiveness has been observed in most completed clinical trials. There are still many issues to be resolved to promote the use of MSCs in the clinic in the future. In this review, we will examine the controversial role of MSCs in the pathogenesis and treatment of hepatic fibrosis/cirrhosis. We also investigated the clinical trials involving MSCs in liver cirrhosis, summarized the parameters that need to be standardized, and discussed how to promote the use of MSCs from a clinical perspective.</t>
+          <t>Management of cognitive deficits in Major Depressive Disorder (MDD) remains an important unmet need. This meta-analysis evaluated the effects of vortioxetine on cognition in patients with MDD. Random effects meta-analysis was applied to three randomized, double-blind, placebo-controlled 8-week trials of vortioxetine (5-20mg/day) in MDD, and separately to two duloxetine-referenced trials. The primary outcome measure was change in Digit Symbol Substitution Test (DSST) score. Standardized effect sizes (SES) versus placebo (Cohen's d ) were used as input. Path analysis was employed to determine the extent to which changes in DSST were mediated independently of a change in Montgomery-Åsberg Depression Rating Scale (MADRS) score. Meta-analysis was applied to MADRS-adjusted and -unadjusted SES values. Changes on additional cognitive tests were evaluated (source studies only). Before adjustment for MADRS, vortioxetine separated from placebo on DSST score (SES 0.25-0.48; nominal p &lt; 0.05) in all individual trials, and statistically improved DSST performance versus placebo in meta-analyses of the three trials (SES = 0.35; p &lt; 0.0001) and two duloxetine-referenced trials (SES = 0.26; p = 0.001). After adjustment for MADRS, vortioxetine maintained DSST improvement in one individual trial ( p = 0.001) and separation from placebo was maintained in meta-analyses of all three trials (SES = 0.24; p &lt; 0.0001) and both duloxetine-referenced trials (SES 0.19; p = 0.01). Change in DSST with duloxetine failed to separate from placebo in individual trials and both meta-analyses. Change in DSST statistically favored vortioxetine versus duloxetine after MADRS adjustment (SES = 0.16; p = 0.04). Vortioxetine, but not duloxetine, significantly improved cognition, independent of depressive symptoms. Vortioxetine represents an important treatment for MDD-related cognitive dysfunction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>35841079</t>
+          <t>32677291</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cells: promising treatment for liver cirrhosis.</t>
+          <t>Editorial Perspective: Antidepressants and the depressed adolescent.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liver fibrosis is a wound-healing process that occurs in response to severe injuries and is hallmarked by the excessive accumulation of extracellular matrix or scar tissues within the liver. Liver fibrosis can be either acute or chronic and is induced by a variety of hepatotoxic causes, including lipid deposition, drugs, viruses, and autoimmune reactions. In advanced fibrosis, liver cirrhosis develops, a condition for which there is no successful therapy other than liver transplantation. Although liver transplantation is still a viable option, numerous limitations limit its application, including a lack of donor organs, immune rejection, and postoperative complications. As a result, there is an immediate need for a different kind of therapeutic approach. Recent research has shown that the administration of mesenchymal stromal cells (MSCs) is an attractive treatment modality for repairing liver injury and enhancing liver regeneration. This is accomplished through the cell migration into liver sites, immunoregulation, hepatogenic differentiation, as well as paracrine mechanisms. MSCs can also release a huge variety of molecules into the extracellular environment. These molecules, which include extracellular vesicles, lipids, free nucleic acids, and soluble proteins, exert crucial roles in repairing damaged tissue. In this review, we summarize the characteristics of MSCs, representative clinical study data, and the potential mechanisms of MSCs-based strategies for attenuating liver cirrhosis. Additionally, we examine the processes that are involved in the MSCs-dependent modulation of the immune milieu in liver cirrhosis. As a result, our findings lend credence to the concept of developing a cell therapy treatment for liver cirrhosis that is premised on MSCs. MSCs can be used as a candidate therapeutic agent to lengthen the survival duration of patients with liver cirrhosis or possibly reverse the condition in the near future.</t>
+          <t>A paper considering the role of antidepressants for adults with major depression was recently published in the Lancet, a world leading medical journal (Cipriani et al. 2018). The review was the largest ever on this topic based on 28,552 citations including 522 trials comprising 116,477 participants. The authors note that, in adults with major depression, all antidepressants were more efficacious than placebo. In head-to-head studies, the authors also note that agomelatine, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine, and vortioxetine were more effective than other antidepressants whereas fluoxetine, fluvoxamine, reboxetine, and trazodone were the least efficacious. The authors report that the standardised mean difference was 0.3 a moderate effect size for any antidepressant over placebo, this is confirmatory of past reviews noting rather similar magnitudes of effect. In clinical terms the results suggest a choice for practitioners in regard to their individual patients. For many adult depressed patients however, there is also the implication that antidepressants may not work. The old adage 'what works for whom' remains unanswered. What does seem reasonable to conclude is that we have learnt that these medications are clinically effective and the questions for research now must be who is likely to benefit and who is not, how do these medicines work, and what is the best long-term management of responders as the majority of studies have focused on acute response only.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35309311</t>
+          <t>25575488</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mesenchymal Stem Cell-Derived Extracellular Vesicles in Liver Immunity and Therapy.</t>
+          <t>A randomized, double-blind, duloxetine-referenced study comparing efficacy and tolerability of 2 fixed doses of vortioxetine in the acute treatment of adults with MDD.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cells (MSCs), as the most common cell source for stem cell therapy, play an important role in the modulation of innate and adaptive immune responses and have been widely used in clinical trials to treat autoimmune and inflammatory diseases. Recent experimental and clinical studies have shown that MSC-derived extracellular vesicles (MSC-EVs) can inhibit the activation and proliferation of a variety of proinflammatory cells, such as Th1, Th17 and M1 macrophages, reducing the secretion of proinflammatory cytokines, while promoting the proliferation of anti-inflammatory cells, such as M2 macrophages and Tregs, and increasing the secretion of anti-inflammatory cytokines, thus playing a role in immune regulation and exhibiting immunomodulatory functions. Besides MSC-EVs are more convenient and less immunogenic than MSCs. There is growing interest in the role of MSC-EVs in liver diseases owing to the intrinsic liver tropism of MSC-EVs. In this review, we focus on the immunomodulatory effects of MSC-EVs and summarize the pivotal roles of MSC-EVs as a cell-free therapy in liver diseases, including NAFLD, AIH, acute liver failure, liver fibrosis and hepatic ischemia-reperfusion injury. Moreover, we provide a concise overview of the potential use and limits of MSC-EVs in clinical application.</t>
+          <t>Vortioxetine has reduced depressive symptoms in adults with major depressive disorder (MDD) in multiple clinical trials. The aim of this study is to evaluate the efficacy, safety, and tolerability of vortioxetine 15 and 20 mg vs placebo in adults with MDD. Patients were randomized 1:1:1:1 to vortioxetine 15 mg, vortioxetine 20 mg, duloxetine 60 mg (active reference), or placebo. The primary efficacy endpoint was mean change in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8 (MMRM). Safety/tolerability assessments included physical examinations, vital signs, laboratory evaluations, electrocardiograms, adverse events (AEs), Columbia-Suicide Severity Rating Scale, Arizona Sexual Experiences Scale, and Discontinuation-Emergent Signs and Symptoms checklist. Six hundred and fourteen patients were randomized. Mean changes in MADRS scores were -12.83 (±0.834), -14.30 (±0.890), -15.57 (±0.880), and -16.90 (±0.884) for placebo, vortioxetine 15 mg (P = .224), vortioxetine 20 mg (P = .023), and duloxetine 60 mg (P &lt; .001) (P vs placebo), respectively. AEs reported by ≥5 % of vortioxetine patients included nausea, headache, diarrhea, dizziness, dry mouth, constipation, vomiting, insomnia, fatigue, and upper respiratory infection. Treatment-emergent sexual dysfunction, suicidal ideation or behavior, and discontinuation symptoms were not significantly different between vortioxetine and placebo. Vortioxetine 20 mg significantly reduced MADRS total scores after 8 weeks of treatment. Both vortioxetine doses were well tolerated. ClinicalTrials.gov identifier NCT01153009; www.clinicaltrials.gov/ .</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32071558</t>
+          <t>38239568</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cells promote liver regeneration through regulation of immune cells.</t>
+          <t>Treatment of Depression with Vortioxetine and Second Generation Antipsychotics During the Period of Remission Formation in Schizophrenia (Interim Data Analysis).</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The liver is sensitive to pathogen-induced acute or chronic liver injury, and liver transplantation (LT) is the only effective strategy for end-stage liver diseases. However, the clinical application is limited by a shortage of liver organs, immunological rejection and high cost. Mesenchymal stromal cell (MSC)-based therapy has gradually become a hot topic for promoting liver regeneration and repairing liver injury in various liver diseases, since MSCs are reported to migrate toward injured tissues, undergo hepatogenic differentiation, inhibit inflammatory factor release and enhance the proliferation of liver cells &lt;i&gt;in vivo&lt;/i&gt;. MSCs exert immunoregulatory effects through cell-cell contact and the secretion of anti-inflammatory factors to inhibit liver inflammation and promote liver regeneration. In addition, MSCs are reported to effectively inhibit the activation of cells of the innate immune system, including macrophages, natural killer (NK) cells, dendritic cells (DCs), monocytes and other immune cells, and inhibit the activation of cells of the adaptive immune system, including T lymphocytes, B lymphocytes and subsets of T cells or B cells. In the current review, we mainly focus on the potential effects and mechanisms of MSCs in inhibiting the activation of immune cells to attenuate liver injury in models or patients with acute liver failure (ALF), nonalcoholic fatty liver disease (NAFLD), and liver fibrosis and in patients or models after LT. We highlight that MSC transplantation may replace general therapies for eliminating acute or chronic liver injury in the near future.</t>
+          <t>Depression in patients with schizophrenia worsens the course of the disease by increasing the risk of suicide, by complicating the clinical picture of the disorder, and by reducing the quality of the social functioning; its treatment is difficult, since monotherapy, even when involving modern antipsychotics, does not always prove successful. While the prescription of additional antidepressants (ADs) can improve the likelihood of a better outcome, the effectiveness of such augmentation in many cases is yet to be proven. Therefore, it is still important that one weighs the effectiveness of various combinations between most of the known ADs and some second-generation antipsychotic (SGA) in the treatment of depression that occurs at different stages of schizophrenia. In previous studies, the use of vortioxetine as an adjunct to an antipsychotic yielded a reduction in negative symptoms, a clinically significant improvement in cognitive functions that differed from its antidepressant effect, and good tolerability, which affects how committed to treatment a patient remains. To study the changes that occur over time in the clinical manifestations of depression, negative and cognitive impairment, as well as the social adequacy of patients receiving a combination therapy with second-generation antipsychotics and vortioxetine, which were prescribed in real clinical practice at doses approved in the Russian Federation. We performed a comparative analysis of the changes in depression symptoms and negative symptoms, cognitive impairment, as well as function of 78 patients with severe manifestations of depression at the stage of exacerbation reduction and subsequent remission of paranoid schizophrenia. Combination treatment with SGA and vortioxetine was used in 39 patients, and 39 patients who had similar clinical manifestations received just SGA. During the observation period, the mental disorder severity and depression symptom severity were assessed 3 times (before the start of treatment, after three months, and after six months) using the Clinical Global Impression (CGI) scale and Calgary Depression Scale for Schizophrenia (CDSS), respectively; patients were also assessed using the Negative Symptoms Assessment-5 (NSA-5) scale, Perceived Deficits Questionnaire-20 items (PDQ-20) scale, and Personal and Social Performance (PSP) scale. According to the ANOVA results, by the end of the observation period, patients, regardless of their therapeutic group, showed a statistically significant decrease in the level of depression on the CDSS scale, the severity of negative symptoms on the NSA-5 scale, cognitive symptoms on the PDQ-20 scale, as well as an improvement in personality and society, judging by the increase in the total PSP scores. There were also significant differences between the compared main (SGA + vortioxetine) and control (SGA) groups in terms of the changes in the total score on the CDSS and PSP scales. An interesting aspect of the changes in the clinical scores was a noticeable improvement in the SGA + vortioxetine group after 3 months of treatment, in the absence of a similar improvement in the control group, and the achievement of approximately the same scores in both groups after 6 months. In particular, there were significant differences between the SGA + vortioxetine and SGA groups in terms of the mean CDSS (&lt;i&gt;p&lt;/i&gt; 0.001), NSA-5 (&lt;i&gt;p&lt;/i&gt;=0.003), PDQ-20 (&lt;i&gt;p&lt;/i&gt; 0.001), and PSP (&lt;i&gt;p&lt;/i&gt;=0.004) scores after 3 months. Analysis of the time before early withdrawal from the study showed that significantly more patients in the SGA + vortioxetine group completed the study program (&lt;i&gt;n&lt;/i&gt;=27, 69.23%) compared with the SGA group (&lt;i&gt;n&lt;/i&gt;=13, 33.33%) (&lt;sup&gt;2&lt;/sup&gt; =14.618, df=1, &lt;i&gt;p&lt;/i&gt; 0.001, log-rank test. The mean survival time in the SGA group was significantly (&lt;i&gt;p&lt;/i&gt; 0.001) less and amounted to 101.436 days (95% CI: 81.518121.354), and in the SGA + vortioxetine group it amounted to 161.744 days (147.981175.506). The relative risk of full study completion in the vortioxetine + SGA group compared with that in SGA was 3.618 (1.8716.994). The addition of vortioxetine to the SGA therapy accelerates the reduction of the depression symptoms that occur at the stage of psychosis regression and early remission, contributes to the accelerated reduction in negative symptoms, positively affects the subjective assessment of cognitive impairment severity, and has a significant positive effect on the level of psychosocial functioning.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28620221</t>
+          <t>29331703</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell-derived exosomes as a new therapeutic strategy for liver diseases.</t>
+          <t>The effects of vortioxetine on cognitive performance in working patients with major depressive disorder: A short-term, randomized, double-blind, exploratory study.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The administration of mesenchymal stem cells (MSCs) as a therapy for liver disease holds great promise. MSCs can differentiate into hepatocytes, reduce liver inflammation, promote hepatic regeneration and secrete protective cytokines. However, the risks of iatrogenic tumor formation, cellular rejection and infusional toxicity in MSC transplantation remain unresolved. Accumulating evidence now suggests that a novel cell-free therapy, MSC-secreted exosomes, might constitute a compelling alternative because of their advantages over the corresponding MSCs. They are smaller and less complex than their parent cells and, thus, easier to produce and store, they are devoid of viable cells, and they present no risk of tumor formation. Moreover, they are less immunogenic than their parent cells because of their lower content in membrane-bound proteins. This paper reviews the biogenesis of MSC exosomes and their physiological functions, and highlights the specific biochemical potential of MSC-derived exosomes in restoring tissue homeostasis. In addition, we summarize the recent advances in the role of exosomes in MSC therapy for various liver diseases, including liver fibrosis, acute liver injury and hepatocellular carcinoma. This paper also discusses the potential challenges and strategies in the use of exosome-based therapies for liver disease in the future.</t>
+          <t>Major Depressive Disorder (MDD) is a complex disease characterized by emotional, physical and cognitive symptoms. We explored the efficacy of vortioxetine versus placebo on outcomes of cognition, functioning and mood symptoms in working patients with depression, using paroxetine as an active reference. Gainfully employed patients (18-65 years, N = 152) with MDD were randomized 1:1:1 to 8 weeks' double-blind, parallel treatment either with vortioxetine (10mg/day) or paroxetine (20mg/day), or with placebo. The primary efficacy measure was the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the key secondary efficacy measure was the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward). At week 8, DSST and UPSA-B performance had improved relative to baseline in all treatment groups, with no statistically significant differences between treatment groups. While improvements in mood were comparable for vortioxetine and paroxetine, numerical improvements in cognitive performance (DSST) were larger with vortioxetine. Vortioxetine significantly improved overall cognitive performance and clinician-rated functioning relative to placebo. The majority of adverse events were mild or moderate, with nausea being the most common adverse event for vortioxetine. Small sample sizes implied limited statistical power. This explorative study showed no significant differences versus placebo in DSST or UPSA-B performance at week 8. However, secondary results support vortioxetine as an effective and well-tolerated antidepressant, supporting an added benefit for cognition and functioning, which could have particular therapeutic relevance for the working patient population.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>34843069</t>
+          <t>35356713</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell therapy in decompensated liver cirrhosis: a long-term follow-up analysis of the randomized controlled clinical trial.</t>
+          <t>Effectiveness of Vortioxetine in Patients With Major Depressive Disorder in Real-World Clinical Practice: Results of the RELIEVE Study.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell (MSC) infusion was reported to improve liver function in patients with decompensated liver cirrhosis (DLC); however, whether the medication can improve outcome of these patients is poorly understood. This prospective, open-labeled, randomized controlled study enrolled 219 patients with HBV-related DLC who were divided into control group (n = 111) and umbilical cord-derived MSC (UC-MSC)-treated group (n = 108), then all of them received a follow-up check from October 2010 to October 2017. The treated patients received three times of UC-MSC infusions at 4-week intervals plus conventional treatment that was only used for control group. The overall survival rate and HCC-free survival rate were calculated as primary endpoints and the liver function and adverse events associated with the medication were also evaluated. During the follow-up check period from 13 to 75th months, there was a significantly higher overall survival rate in the treated group than the control group, while the difference of the hepatocellular carcinoma event-free survival rate between the treated and control groups was not observed during the 75-month follow-up. UC-MSC treatment markedly improved liver function, as indicated by the levels of serum albumin, prothrombin activity, cholinesterase, and total bilirubin during 48 weeks of follow-up. No significant side effects or treatment-related complications were observed in the UC-MSC group. Therapy of UC-MSC is not only well tolerated, but also significantly improves long-term survival rate, as well as the liver function in patients with HBV-related DLC. UC-MSC medication, therefore, might present a novel therapeutic approach for the disease.</t>
+          <t>Randomized controlled clinical trials have shown vortioxetine to be efficacious and well tolerated for the treatment of major depressive disorder (MDD). The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study was undertaken to demonstrate the effectiveness and safety of vortioxetine for the treatment of MDD in routine clinical practice. RELIEVE was a 24-week, observational, prospective cohort study in outpatients with MDD initiating treatment with vortioxetine at their physician's discretion in routine care settings in Canada, France, Italy, and the USA (NCT03555136). The primary study outcome was patient functioning assessed by the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity [9-item Patient Health Questionnaire (PHQ-9)], cognitive symptoms [5-item Perceived Deficits Questionnaire-Depression (PDQ-D-5)], and cognitive performance [Digit Symbol Substitution Test (DSST)]. Mixed models of repeated measures were used to assess change from baseline at week 24, adjusted for relevant confounders. A total of 737 patients were eligible for inclusion in the full analysis set. Most patients (73.7%) reported at least one comorbid medical condition, 56.0% had comorbid anxiety and 24.4% had comorbid generalized anxiety disorder. Improvement in least-squares (LS) mean SDS score from baseline to week 24 was 8.7 points. LS mean PHQ-9, PDQ-D-5 and DSST scores improved by 7.4, 4.6, and 6.2 points, respectively. Adverse events were observed in 21.2% of patients [most commonly, nausea (8.2% of patients)]. These results demonstrate the effectiveness and tolerability of vortioxetine for the treatment of MDD in a large and heterogeneous patient population representative of that encountered in routine clinical practice.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>37328872</t>
+          <t>26035185</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell-derived exosomal miR-27b-3p alleviates liver fibrosis via downregulating YAP/LOXL2 pathway.</t>
+          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of vortioxetine 10 mg and 20 mg in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lysyl oxidase-like 2 (LOXL2) is an extracellular copper-dependent enzyme that plays a central role in fibrosis by catalyzing the crosslinking and deposition of collagen. Therapeutic LOXL2 inhibition has been shown to suppress liver fibrosis progression and promote its reversal. This study investigates the efficacy and underlying mechanisms of human umbilical cord-derived exosomes (MSC-ex) in LOXL2 inhibition of liver fibrosis. MSC-ex, nonselective LOX inhibitor β-aminopropionitrile (BAPN), or PBS were administered into carbon tetrachloride (CCl4)-induced fibrotic livers. Serum LOXL2 and collagen crosslinking were assessed histologically and biochemically. MSC-ex's mechanisms on LOXL2 regulation were investigated in human hepatic stellate cell line LX-2. We found that systemic administration of MSC-ex significantly reduced LOXL2 expression and collagen crosslinking, delaying the progression of CCl4-induced liver fibrosis. Mechanically, RNA-sequencing and fluorescence in situ hybridization (FISH) indicated that miR-27b-3p was enriched in MSC-ex and exosomal miR-27b-3p repressed Yes-associated protein (YAP) expression by targeting its 3' untranslated region in LX-2. LOXL2 was identified as a novel downstream target gene of YAP, and YAP bound to the LOXL2 promoter to positively regulate transcription. Additionally, the miR-27b-3p inhibitor abrogated the anti-LOXL2 abilities of MSC-ex and diminished the antifibrotic efficacy. miR-27b-3p overexpression promoted MSC-ex mediated YAP/LOXL2 inhibition. Thus, MSC-ex may suppress LOXL2 expression through exosomal miR-27b-3p mediated YAP down-regulation. The findings here may improve our understanding of MSC-ex in liver fibrosis alleviation and provide new opportunities for clinical treatment.</t>
+          <t>Vortioxetine (Lu AA21004) is an antidepressant with a mechanism of action thought to be related to a combination of 2 pharmacologic actions: direct modulation of several receptors and inhibition of the serotonin transporter. To evaluate the efficacy of vortioxetine 10 and 20 mg once daily in outpatients with major depressive disorder. This 8-week, multicenter, randomized, double-blind, placebo-controlled, parallel-group study was conducted from July 2010 to January 2012 among adults with a primary diagnosis of recurrent major depressive disorder (DSM-IV-TR). Eligible subjects were randomized in 1:1:1 ratio to 1 of 3 treatment arms: vortioxetine 10 mg, vortioxetine 20 mg, or placebo once daily for 8 weeks. Subjects who completed the 8-week trial entered a 2-week blinded discontinuation period to assess potential discontinuation symptoms. The primary endpoint was the least squares mean change in Montgomery-Asberg Depression Rating Scale (MADRS) total score from baseline. Key secondary outcomes were analyzed in the following prespecified sequential order: MADRS response (≥ 50% decrease from baseline in total score), Clinical Global Impressions-Improvement score, change from baseline in MADRS total score in subjects with baseline Hamilton Anxiety Rating Scale score ≥ 20, MADRS remission (total score ≤ 10), and change from baseline in Sheehan Disability Scale total score (all at week 8). A total of 462 subjects were randomized to placebo (n = 157), vortioxetine 10 mg (n = 155), and vortioxetine 20 mg (n = 150). Mean (SE) reductions from baseline in MADRS total score (week 8) were -10.77 (± 0.807), -12.96 (± 0.832), and -14.41 (± 0.845) for the placebo, vortioxetine 10 mg (P = .058 vs placebo), and vortioxetine 20 mg (P = .002 vs placebo) groups. MADRS response/remission was achieved in 28.4%/14.2%, 33.8%/21.4%, and 39.2%/22.3% of subjects, respectively, in the 3 groups. Only MADRS response for vortioxetine 20 mg significantly separated from placebo (P = .044). Treatment was well tolerated, with the most frequently reported adverse events consisting of nausea, headache, diarrhea, and dizziness. Vortioxetine 20 mg significantly reduced MADRS total score at 8 weeks in this study population. Overall, vortioxetine was well tolerated in this study. ClinicalTrials.gov identifier: NCT01163266.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>35858897</t>
+          <t>34025982</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell-derived exosomes protect against liver fibrosis via delivering miR-148a to target KLF6/STAT3 pathway in macrophages.</t>
+          <t>Anxiety symptoms in working patients with major depressive disorder treated with vortioxetine: associations with clinical and treatment outcomes in the AtWoRC study.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Despite emerging evidence on the therapeutic potential of mesenchymal stem cells (MSCs) for liver fibrosis, the underlying mechanisms remain unclear. At present, MSC-derived exosomes (MSC-EXOs) are widely accepted as crucial messengers for intercellular communication. This study aimed to explore the therapeutic effects of MSC-EXOs on liver fibrosis and identify the mechanisms underlying the action of MSC-EXOs. Carbon tetrachloride was used to induce a liver fibrosis model, which was intravenously administered with MSCs or MSC-EXOs to assess treatment efficacy. The resulting histopathology, fibrosis degree, inflammation and macrophage polarization were analyzed. RAW264.7 and BMDM cells were used to explore the regulatory effects of MSC-EXOs on macrophage polarization. Then, the critical miRNA mediating the therapeutic effects of MSC-EXOs was screened via RNA sequencing and validated experimentally. Furthermore, the target mRNA and downstream signaling pathways were elucidated by luciferase reporter assay, bioinformatics analysis and western blot. MSCs alleviated liver fibrosis largely depended on their secreted exosomes, which were visualized to circulate into liver after transplantation. In addition, MSC-EXOs were found to modulate macrophage phenotype to regulate inflammatory microenvironment in liver and repair the injury. Mechanically, RNA-sequencing illustrates that miR-148a, enriched in the MSC-EXOs, targets Kruppel-like factor 6 (KLF6) to suppress pro-inflammatory macrophages and promote anti-inflammatory macrophages by inhibiting the STAT3 pathway. Administration of miR-148a-enriched MSC-EXOs or miR-148a agomir shows potent ameliorative effects on liver fibrosis. These findings suggest that MSC-EXOs protect against liver fibrosis via delivering miR-148a that regulates intrahepatic macrophage functions through KLF6/STAT3 signaling and provide a potential therapeutic target for liver fibrosis.</t>
+          <t>Anxiety symptoms are common in patients with major depressive disorder (MDD) and usually confer worse treatment outcomes. The long-term, open-label AtWoRC study in working patients with MDD treated with vortioxetine demonstrated a significant correlation between severity of anxiety symptoms and impaired work productivity. This analysis was undertaken to further explore clinical characteristics and treatment outcomes in patients with different levels of severity of anxiety symptoms at baseline. &lt;i&gt;Post hoc&lt;/i&gt; analysis in 199 working patients with MDD treated with vortioxetine (10-20 mg/day), stratified by Generalized Anxiety Disorder 7-item (GAD-7) score at baseline [mild/moderate anxiety (GAD-7 ⩽14), &lt;i&gt;n&lt;/i&gt; = 83; severe anxiety (GAD-7 ⩾15), &lt;i&gt;n&lt;/i&gt; = 116]. Associations were examined between GAD-7 and other outcome assessment scores at baseline. Observed mean changes from baseline to week 52 were compared between groups. Patients with severe anxiety had significantly worse depressive and cognitive symptoms, functioning, and work productivity at baseline than those with mild/moderate anxiety, but similar cognitive performance. Statistically significant improvements from baseline were seen for all outcomes after 52 weeks of vortioxetine treatment, with no significant differences observed between the two groups after adjustment for baseline anxiety scores. Treatment with vortioxetine was associated with long-term improvement in clinical symptoms and measures of work productivity in patients with MDD in a real-world setting, irrespective of severity of anxiety symptoms at the start of treatment.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>36183106</t>
+          <t>22901346</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Huc-MSC-derived exosomes modified with the targeting peptide of aHSCs for liver fibrosis therapy.</t>
+          <t>A randomized, double-blind, placebo-controlled 8-week trial of the efficacy and tolerability of multiple doses of Lu AA21004 in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Effective therapeutics to stop or reverse liver fibrosis have not emerged, because these potential agents cannot specifically target activated hepatic stellate cells (aHSCs) or are frequently toxic to parenchymal cells. Human umbilical cord mesenchymal stem cell (Huc-MSC)-derived exosomes show promise in nanomedicine for the treatment of liver fibrosis. However, systemic injection showed that unmodified exosomes were mainly taken up by the mononuclear phagocyte system. The discovery of ligands that selectively bind to a specific target plays a crucial role in clinically relevant diagnostics and therapeutics. Herein, we aimed to identify the targeting peptide of aHSCs by screening a phage-displayed peptide library, and modify Huc-MSC-derived exosomes with the targeting peptide. In this study, we screened a phage-displayed peptide library by biopanning for peptides preferentially bound to HSC-T6 cells. The identified peptide, HSTP1, also exhibited better targeting ability to aHSCs in pathological sections of fibrotic liver tissues. Then, HSTP1 was fused with exosomal enriched membrane protein (Lamp2b) and was displayed on the surface of exosomes through genetic engineering technology. The engineered exosomes (HSTP1-Exos) could be more efficiently internalized by HSC-T6 cells and outperformed both unmodified exosomes (Blank-Exos) and Lamp2b protein overexpressed exosomes (Lamp2b + Exos) in enhancing the ability of exosomes to promote HSC-T6 reversion to a quiescent phenotype. In vivo results showed HSTP1-Exos could specifically target to the aHSC region after intravenous administration, as demonstrated by coimmunofluorescence with the typical aHSCs marker α-SMA, and enhance the therapeutic effect on liver fibrosis. These results suggest that HSTP1 is a reliable targeting peptide that can specifically bind to aHSCs and that HSTP1-modified exosomes realize the precise treatment for aHSCs in complex liver tissue. We provide a novel strategy for clinical liver fibrosis therapy.</t>
+          <t>Lu AA21004 is an investigational multimodal antidepressant. This randomized controlled trial evaluated the efficacy and tolerability of multiple doses of Lu AA21004 versus placebo in adults with major depressive disorder (MDD). Adults diagnosed with MDD (based on DSM-IV-TR criteria) with a Montgomery-Asberg Depression Rating Scale (MADRS) score ≥ 26 were randomly assigned (1:1:1:1) to receive Lu AA21004 1 mg, 5 mg, or 10 mg or placebo for 8 weeks (between August 2008 and August 2009). The primary endpoint was reduction in 24-Item Hamilton Depression Rating Scale (HDRS-24) total score after 8 weeks of treatment compared with placebo for Lu AA21004 10 mg. Additional outcomes included response and remission rates, Sheehan Disability Scale (SDS), Clinical Global Impressions-Global Improvement scale (CGI-I), MADRS total score, and HDRS-24 total score in subjects with baseline Hamilton Anxiety Rating Scale (HARS) score ≥ 20. Adverse events were assessed throughout the study. A total of 560 subjects (mean age = 46.4 years) were randomized. There was a statistically significant reduction from baseline in HDRS-24 total score at week 8 for Lu AA21004 10 mg vs placebo (P &lt; .001). There were improvements (nominal P values &lt; .05 with no adjustment for multiplicity) in HDRS-24 total score, response and remission rates, CGI-I score, MADRS total score, and HDRS-24 total score in subjects with baseline HARS score ≥ 20 at week 8 for all Lu AA21004 treatment groups vs placebo. No significant differences were seen in SDS scores between any dose of Lu AA21004 and placebo. The most common adverse events were nausea, headache, and dizziness. After 8 weeks of treatment with Lu AA21004 10 mg, there was a significant reduction in HDRS-24 total score compared with placebo in adults with MDD. Lu AA21004 was well tolerated in this study. ClinicalTrials.gov identifier: NCT00735709.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>36698192</t>
+          <t>37840562</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Exosomes derived from human adipose mesenchymal stem cells ameliorate hepatic fibrosis by inhibiting PI3K/Akt/mTOR pathway and remodeling choline metabolism.</t>
+          <t>Εfficacy and safety of vortioxetine (Lu AA21004) in the treatment of adult patients with major depressive disorder: A systematic review and a meta‑analysis of randomized controlled trials.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Liver fibrosis is a chronic liver disease with the presence of progressive wound healing response caused by liver injury. Currently, there are no approved therapies for liver fibrosis. Exosomes derived from human adipose mesenchymal stem cells (hADMSCs-Exo) have displayed a prominent therapeutic effect on liver diseases. However, few studies have evaluated therapeutic effect of hADMSCs-Exo in liver fibrosis and cirrhosis, and its precise mechanisms of action remain unclear. Herein, we investigated anti-fibrotic efficacy of hADMSCs-Exo in vitro and in vivo, and identified important metabolic changes and the detailed mechanism through transcriptomic and metabolomic profiling. We found hADMSCs-Exo could inhibit the proliferation of activated hepatic stellate cells through aggravating apoptosis and arresting G1 phase, effectively inhibiting the expression of profibrogenic proteins and epithelial-to-mesenchymal transition (EMT) in vitro. Moreover, it could significantly block collagen deposition and EMT process, improve liver function and reduce liver inflammation in liver cirrhosis mice model. The omics analysis revealed that the key mechanism of hADMSCs-Exo anti-hepatic fibrosis was the inhibition of PI3K/AKT/mTOR signaling pathway and affecting the changes of metabolites in lipid metabolism, and mainly regulating choline metabolism. CHPT1 activated by hADMSCs-Exo facilitated formation and maintenance of vesicular membranes. Thus, our study indicates that hADMSCs-Exo can attenuate hepatic stellate cell activation and suppress the progression of liver fibrosis, which holds the significant potential of hADMSCs-Exo for use as extracellular nanovesicles-based therapeutics in the treatment of liver fibrosis and possibly other intractable chronic liver diseases.</t>
+          <t>Vortioxetine is a novel drug for the treatment of major depressive disorder (MDD). It has been reported that vortioxetine exhibits positive effect on the acute stage of MDD, while it can effectively prevent the recurrence of MDD during the maintenance period. Currently, the results of systematic reviews on vortioxetine are insufficient since several efficacy measures, such as the 24-Items Hamilton Rating Scale for Depression (HADRS-24) total score and other safety factors have not been evaluated. Therefore, the present study aimed to evaluate the efficacy and safety of different doses of vortioxetine on the treatment of adult patients with MDD via assessing more efficacy and safety indicators. The clinical, double-blind, parallel and randomized controlled trials (RCTs) on the effect of vortioxetine on MDD were retrieved from PubMed\Medline, EBSCO, Embase, Cochrane Library, OVID, Web of Science and clinical trial registration websites from database inception to November 2022. A total of two investigators independently screened the included references and independently evaluated their quality. The meta-analysis was performed using Revman 5.0 software. The present systematic review was registered in PROSPERO (registration no. CRD42018106343). In the present study 11 RCTs were included, with a total of 4,908 adult patients with MDD. More specifically, 1,158 patients were included in the 5-mg vortioxetine group, 736 in the 10-mg group, 298 in the 15-mg group, 864 in the 20-mg group and 1,852 in the placebo group. All 11 studies were randomized, double-blinded and parallel control trials, and all publications were evaluated as high quality. The meta-analysis results showed that patients in the 5-, 10- and 20-mg vortioxetine groups exhibited significantly higher Montgomery-Asberg Depression Rating Scale (MADRS) response (≥50%) and remission (≤10%) rates compared with the placebo group (P&lt;0.05). The pooled analysis also revealed a statistically significant change in the total score of HADRS-24, MADRS, Sheehan Disability Scale (SDS), Clinical Global Impression Scale-Improvement (CGI-I) and HADRS-24 response rate in the 10- and 20-mg vortioxetine groups compared with the placebo group (P&lt;0.05). However, no statistically significant changes in the total score of HADRS-24, MADRS, SDS, CGI-I and HADRS-24 response rate were obtained in the 5-mg group compared with the placebo group (P&gt;0.05). Furthermore, the most common adverse events were nausea, hyperhidrosis, insomnia and vomiting, the incidence of which was increased with higher doses of vortioxetine. Overall, the results suggested that vortioxetine administration at doses of 5-20 mg was significantly effective and safe compared with placebo in the treatment of MDD. However, 5 mg vortioxetine displayed no difference in the HADRS-24, MADRS, SDS and CGI-I total scores, and HADRS-24 response rate. Furthermore, patient treatment with increasing vortioxetine doses was associated with good tolerance and high safety. Nevertheless, more multi-center, high-quality and long-term RCTs are still needed to support the aforementioned findings.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>35395830</t>
+          <t>35971416</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HucMSC-derived exosomes delivered BECN1 induces ferroptosis of hepatic stellate cells via regulating the xCT/GPX4 axis.</t>
+          <t>Effectiveness of Vortioxetine in Patients with Major Depressive Disorder in Real-World Clinical Practice in Italy: Results from the RELIEVE Study.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Activated hepatic stellate cells (HSCs) are significant in liver fibrosis. Our past investigations have shown that human umbilical cord mesenchymal stem cells (hucMSCs) and their secreted exosomes (MSC-ex) could alleviate liver fibrosis via restraining HSCs activation. However, the mechanisms underlying the efficacy were not clear. Ferroptosis is a regulatory cell death caused by excessive lipid peroxidation, and it plays a vital role in the occurrence and development of liver fibrosis. In the present study, we aimed to study the proferroptosis effect and mechanism of MSC-ex in HSCs. MSC-ex were collected and purified from human umbilical cord MSCs. Proferroptosis effect of MSC-ex was examined in HSCs line LX-2 and CCl4 induced liver fibrosis in mice. Gene knockdown or overexpression approaches were used to investigate the biofactors in MSC-ex-mediated ferroptosis regulation. Results: MSC-ex could trigger HSCs ferroptosis by promoting ferroptosis-like cell death, ROS formation, mitochondrial dysfunction, Fe&lt;sup&gt;2&lt;/sup&gt;&lt;sup&gt;+&lt;/sup&gt; release, and lipid peroxidation in human HSCs line LX-2. Glutathione peroxidase 4 (GPX4) is a crucial regulator of ferroptosis. We found that intravenous injection of MSC-ex significantly decreased glutathione peroxidase 4 (GPX4) expression in activated HSCs and collagen deposition in experimental mouse fibrotic livers. Mechanistically, MSC-ex derived BECN1 promoted HSCs ferroptosis by suppressing xCT-driven GPX4 expression. In addition, ferritinophagy and necroptosis might also play a role in MSC-ex-promoted LX-2 cell death. Knockdown of BECN1 in MSC diminished proferroptosis and anti-fibrosis effects of MSC-ex in LX-2 and fibrotic livers. MSC-ex may promote xCT/GPX4 mediated HSCs ferroptosis through the delivery of BECN1 and highlights BECN1 as a potential biofactor for alleviating liver fibrosis.</t>
+          <t>Vortioxetine has demonstrated efficacy in randomized controlled trials and is approved for the treatment of major depressive disorder (MDD); however, data are limited concerning its effectiveness when used in routine clinical care. The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study aimed to assess the effectiveness and tolerability of vortioxetine for the treatment of MDD in routine clinical practice in Canada, France, Italy, and the USA. This paper presents findings for the patient cohort in Italy. RELIEVE was a 6-month, international, observational, prospective cohort study in outpatients initiating vortioxetine treatment for MDD in routine care settings at their physician's discretion (NCT03555136). Patient functioning was assessed using the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity (9-item Patient Health Questionnaire [PHQ-9]), cognitive symptoms (5-item Perceived Deficits Questionnaire-Depression [PDQ-D-5]), and quality of life (EuroQol 5-Dimensions 5-Levels questionnaire [EQ-5D-5L]). Changes from baseline to month 6 were assessed using mixed models for repeated measures, adjusted for relevant confounders. Data are available for 231 patients enrolled in Italy (mean age, 55.5 years; 27% &gt;65 years). Overall, 69% of patients reported at least one comorbidity, 55% were overweight/obese, and 47% had current anxiety symptoms. Adjusted least-squares mean (standard error) change in SDS score from baseline to week 24 was -6.6 (0.6) points (&lt;i&gt;P&lt;/i&gt; &lt; 0.001). Respective changes in PHQ-9, PDQ-D-5, and EQ-5D-5L scores were -5.9 (0.5), -3.6 (0.4), and +0.13 (0.01) points (all &lt;i&gt;P&lt;/i&gt; &lt; 0.0001). Adverse events were reported by 29 patients (13%), most commonly nausea (n = 14, 6%). Eleven patients (5%) discontinued treatment due to adverse events. Clinically relevant and sustained improvements in overall functioning, symptoms of depression, cognitive symptoms, and health-related quality of life were observed in patients with MDD treated with vortioxetine over a period of 6 months in routine care in Italy, including a high proportion of elderly patients.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>35278227</t>
+          <t>29673132</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Portal fibroblasts with mesenchymal stem cell features form a reservoir of proliferative myofibroblasts in liver fibrosis.</t>
+          <t>The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>In liver fibrosis, myofibroblasts derive from HSCs and as yet undefined mesenchymal cells. We aimed to identify portal mesenchymal progenitors of myofibroblasts. Portal mesenchymal cells were isolated from mouse bilio-vascular tree and analyzed by single-cell RNA-sequencing. Thereby, we uncovered the landscape of portal mesenchymal cells in homeostatic mouse liver. Trajectory analysis enabled inferring a small cell population further defined by surface markers used to isolate it. This population consisted of portal fibroblasts with mesenchymal stem cell features (PMSCs), i.e., high clonogenicity and trilineage differentiation potential, that generated proliferative myofibroblasts, contrasting with nonproliferative HSC-derived myofibroblasts (-MF). Using bulk RNA-sequencing, we built oligogene signatures of the two cell populations that remained discriminant across myofibroblastic differentiation. SLIT2, a prototypical gene of PMSC/PMSC-MF signature, mediated profibrotic and angiogenic effects of these cells, which conditioned medium promoted HSC survival and endothelial cell tubulogenesis. Using PMSC/PMSC-MF 7-gene signature and slit guidance ligand 2 fluorescent in situ hybridization, we showed that PMSCs display a perivascular portal distribution in homeostatic liver and largely expand with fibrosis progression, contributing to the myofibroblast populations that form fibrotic septa, preferentially along neovessels, in murine and human liver disorders, irrespective of etiology. We also unraveled a 6-gene expression signature of HSCs/HSC-MFs that did not vary in these disorders, consistent with their low proliferation rate. PMSCs form a small reservoir of expansive myofibroblasts, which, in interaction with neovessels and HSC-MFs that mainly arise through differentiation from a preexisting pool, underlie the formation of fibrotic septa in all types of liver diseases.</t>
+          <t>Major Depressive Disorder (MDD) is a heterogeneous disease characterized by emotional, physical and cognitive symptoms. This study explored the effects of vortioxetine versus escitalopram on outcomes of cognition, functioning and mood symptoms in depressed patients with inadequate response to current antidepressant treatment. In this parallel-group, active-comparator study, adult patients (18-65 years, N = 101) with MDD, with inadequate response to current antidepressant monotherapy, were randomized 1:1 to 8 weeks' double-blind treatment with flexible doses (10-20mg/day) of either vortioxetine or escitalopram. Primary and key secondary efficacy measures were the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward method). At week 8, DSST and UPSA-B performance had improved in both treatment groups, with no statistically significant treatment differences. Numerical improvements across measures of cognition, functioning and mood symptoms generally favored vortioxetine. Most adverse events were mild or moderate, with nausea being the most common adverse event. This was an exploratory study with small sample sizes implying limited statistical power. Although this explorative study did not meet primary endpoints, the results confirm vortioxetine in doses of 10-20mg/day as an efficacious and well-tolerated antidepressant switch treatment. The overall direction of numerical effect sizes across cognition endpoints support previous findings that vortioxetine specifically benefits cognitive function in MDD.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>35099348</t>
+          <t>37415997</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell-originated exosomal circDIDO1 suppresses hepatic stellate cell activation by miR-141-3p/PTEN/AKT pathway in human liver fibrosis.</t>
+          <t>Quality of Life and Medication Adherence in Patients With Major Depressive Disorder: An Interim Analysis of a Randomized Study.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Liver fibrosis is a common pathologic stage of the development of liver failure. It has showed that exosomes loaded with therapeutic circRNAs can be manufactured in bulk by exosome secreted cells &lt;i&gt;in vitro&lt;/i&gt;, thus enabling personalized treatment. This study aimed to investigate the role of exosome-based delivery of circDIDO1 in liver fibrosis. Levels of genes and proteins were examined by qRT-PCR and Western blot. Cell proliferation, apoptosis, and cell cycle were analyzed by using cell counting kit-8 (CCK-8) assay, EdU assay, and flow cytometry, respectively. The binding between circDIDO1 and miR-141-3p was confirmed by dual-luciferase reporter, RNA pull-down and RIP assays. Exosomes were isolated by ultracentrifugation, and qualified by transmission electron microscopy (TEM), nanoparticle tracking analysis (NTA) and Western blot. CircDIDO1 overexpression or miR-141-3p inhibition suppressed the proliferation, reduced pro-fibrotic markers, and induced apoptosis as well as cell cycle arrest in hepatic stellate cells (HSCs) by blocking PTEN/AKT pathway. Mechanistically, circDIDO1 acted as an endogenous sponge for miR-141-3p, further rescue experiments showed that circDIDO1 suppressed HSC activation by targeting miR-141-3p. Extracellular circDIDO1 could be incorporated into exosomes isolated from mesenchymal stem cells (MSCs), and transmitted to HSCs to restrain HSC activation. Clinically, low levels of serum circDIDO1 in exosome were correlated with liver failure, and serum exosomal circDIDO1 had a well diagnostic value for liver fibrosis in liver failure patients. Transfer of circDIDO1 mediated by MSC-isolated exosomes suppressed HSC activation through the miR-141-3p/PTEN/AKT pathway, gaining a new insight into the prevention of liver fibrosis in liver failure patients.</t>
+          <t>Quality of life and medication adherence worsen in untreated depressed individuals. Studies examining how vilazodone, escitalopram, and vortioxetine affect these factors are few and far between. Our study's objectives were to determine the change in SF-36 at 12 weeks and the association between treatment outcome and medication adherence. This is an interim analysis of a randomized, open-label, three-arm ongoing study. The participants were evaluated at baseline, four, eight, and 12 weeks after being randomly assigned to take either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is registered with CTRI, 2022/07/043808. Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median scores of physical components of SF-36 for the three groups were 35.5, 35.0, and 35.0 at baseline (p=0.76) and 51.0, 49.5, and 53.0 (p&lt;0.001) at 12 weeks respectively. Their corresponding median SF-36 scores for mental components were 43.0, 43.0, and 44.0 at baseline (p=0.34) and 66.0, 63.5, and 70.0 (p&lt;0.001) at 12 weeks. The post hoc analysis yielded a significant difference (p&lt;0.001) regarding SF-36 scores. MMAS-8 scores among the participants were similar (p=0.22) at 12 weeks. Higher medication adherence was associated with lesser depressive symptoms (r= -0.46, p=0.001). As per this interim analysis, vortioxetine substantially impacted the SF-36 scores, juxtaposed with vilazodone and escitalopram. The participants' clinical improvements were reflected by their adherence levels. These effects need to be probed further.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>36685534</t>
+          <t>27725683</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Immunomodulatory role of mesenchymal stem cell therapy in liver fibrosis.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Liver fibrosis is a fibrogenic and inflammatory process that results from hepatocyte injury and is characterized by hepatic architectural distortion and resultant loss of liver function. There is no effective treatment for advanced fibrosis other than liver transplantation, but it is limited by expensive costs, immune rejection, and postoperative complications. With the development of regenerative medicine in recent years, mesenchymal stem cell (MSCs) transplantation has become the most promising treatment for liver fibrosis. The underlying mechanisms of MSC anti-fibrotic effects include hepatocyte differentiation, paracrine, and immunomodulation, with immunomodulation playing a central role. This review discusses the immune cells involved in liver fibrosis, the immunomodulatory properties of MSCs, and the immunomodulation mechanisms of MSC-based strategies to attenuate liver fibrosis. Meanwhile, we discuss the current challenges and future directions as well.</t>
-        </is>
-      </c>
+          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>37918086</t>
+          <t>22209361</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Human umbilical cord mesenchymal stem cells inhibit liver fibrosis via the microRNA-148a-5p/SLIT3 axis.</t>
+          <t>A randomised, double-blind, placebo controlled, duloxetine-referenced, fixed-dose study of three dosages of Lu AA21004 in acute treatment of major depressive disorder (MDD).</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Human umbilical cord-derived mesenchymal stem cells (hUC-MSCs) have garnered considerable attention as prospective modalities of treatment for liver fibrosis (LF). The inhibition of hepatic stellate cell (HSC) activation underlies the anti-fibrotic effects of hUC-MSCs. However, the precise mechanism by which hUC-MSCs impede HSC activation remains unclarified. We aimed to elucidate the intrinsic mechanisms underlying the therapeutic effects of hUC-MSCs in LF patients. Mice with liver cirrhosis induced by carbon tetrachloride (CCl&lt;sub&gt;4&lt;/sub&gt;) were used as experimental models and administered hUC-MSCs via tail-vein injection. The alterations in inflammation and fibrosis were evaluated through histopathological examinations. RNA sequencing (RNA-seq) and bioinformatics analysis were then conducted to investigate the therapeutic mechanism of hUC-MSCs. Finally, an in-vitro experiment involving the co-cultivation of hUC-MSCs or hUC-MSC-derived exosomes (MSC-Exos) with LX2 cells was performed to validate the potential mechanism underlying the hepatoprotective effects of hUC-MSCs in LF patients. hUC-MSC therapy significantly improved liver function and alleviated LF in CCl&lt;sub&gt;4&lt;/sub&gt;-induced mice. High-throughput RNA-Seq analysis identified 1142 differentially expressed genes that were potentially involved in mediating the therapeutic effects of hUC-MSCs. These genes play an important role in regulating the extracellular matrix. miRNA expression data (GSE151098) indicated that the miR-148a-5p level was downregulated in LF samples, but restored following hUC-MSC treatment. miR-148a-5p was delivered to LX2 cells by hUC-MSCs via the exosome pathway, and the upregulated expression of miR-148a-5p significantly suppressed the expression of the activated phenotype of LX2 cells. SLIT3 was identified within the pool of potential target genes regulated by miR-148a-5p. Furthermore, hUC-MSC administration upregulated the expression of miR-148a-5p, which played a crucial role in suppressing the expression of SLIT3, thereby palliating fibrosis. hUC-MSCs inhibit the activation of HSCs through the miR-148a-5p/SLIT3 pathway and are thus capable of alleviating LF.</t>
+          <t>The efficacy, safety, and tolerability of Lu AA21004 versus placebo, using duloxetine as active reference, in patients with DSM-IV-TR diagnosed major depressive disorder (MDD) were evaluated in this 8-week, multi-site study. Patients (n=766) had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and were randomly assigned (1:1:1:1:1) to 2.5, 5 or 10 mg Lu AA21004, placebo, or 60 mg duloxetine. The 5mg and 10mg doses of Lu AA21004 were tested separately versus placebo at p≤0.025 in a pre-specified order. In the pre-defined primary efficacy analysis [mean change from baseline in MADRS total score at Week 8, full analysis set, ANCOVA, last observation carried forward (LOCF)], the differences to placebo (n=145) of -1.7 (Lu AA21004 5 mg, n=155) and -1.5 points (Lu AA21004 10 mg, n=151) were not statistically significant; nor were those for Lu AA21004 2.5 mg (-1.4 points, n=155) or duloxetine (-2.0 points, n=149). Using mixed model, repeated measures (MMRM) analyses of the primary endpoint and most secondary endpoints were supportive of likely efficacy for Lu AA21004 5 mg and 10 mg and duloxetine. Treatment-emergent adverse events led to the withdrawal of 72 patients: 8% (placebo), 12% (duloxetine), and 6%, 11% and 9% in the Lu AA21004 groups (2.5 mg, 5 mg and 10 mg, respectively). The most common adverse events were nausea, headache, dizziness, and dry mouth. No clinically relevant changes were seen in vital signs, weight, ECG, or laboratory results. In summary, none of the active treatment groups, including duloxetine, separated from placebo in the primary analysis in this 'failed' study. Findings on secondary outcome measures, using MMRM instead of LOCF, were supportive of likely efficacy for Lu AA21004 5mg and 10mg and duloxetine. Lu AA21004 (2.5, 5 and 10 mg) was well tolerated.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>29425678</t>
+          <t>24787143</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cell therapy for liver diseases.</t>
+          <t>A randomized, double-blind, placebo-controlled study of vortioxetine on cognitive function in depressed adults.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The therapeutic potential of mesenchymal stromal cells (MSCs) in the treatment of liver fibrosis is predominantly based on their immunosuppressive properties, and their ability to secrete various trophic factors. This potential has been investigated in clinical and preclinical studies. Although the therapeutic mechanisms of MSC transplantation are still not fully characterised, accumulating evidence has revealed that various trophic factors secreted by MSCs play key therapeutic roles in regeneration by alleviating inflammation, apoptosis, and fibrosis as well as stimulating angiogenesis and tissue regeneration in damaged liver. In this review, we summarise the safety, efficacy, potential transplantation routes and therapeutic effects of MSCs in patients with liver fibrosis. We also discuss some of the key strategies to enhance the functionality of MSCs, which include sorting and/or priming with factors such as cytokines, as well as genetic engineering.</t>
+          <t>The efficacy of vortioxetine 10 and 20 mg/d vs. placebo on cognitive function and depression in adults with recurrent moderate-to-severe major depressive disorder (MDD) was evaluated. Patients (18-65 yr, N = 602) were randomized (1:1:1) to vortioxetine 10 or 20 mg/d or placebo for 8 wk in a double-blind multi-national study. Cognitive function was assessed with objective neuropsychological tests of executive function, processing speed, attention and learning and memory, and a subjective cognitive measure. The primary outcome measure was change from baseline to week 8 in a composite z-score comprising the Digit Symbol Substitution Test (DSST) and Rey Auditory Verbal Learning Test (RAVLT) scores. Depressive symptoms were assessed using the Montgomery-Åsberg Depression Rating Scale (MADRS). In the pre-defined primary efficacy analysis, both doses of vortioxetine were significantly better than placebo, with mean treatment differences vs. placebo of 0.36 (vortioxetine 10 mg, p &lt; 0.0001) and 0.33 (vortioxetine 20 mg, p &lt; 0.0001) on the composite cognition score. Significant improvement vs. placebo was observed for vortioxetine on most of the secondary objectives and subjective patient-reported cognitive measures. The differences to placebo in the MADRS total score at week 8 were -4.7 (10 mg: p &lt; 0.0001) and -6.7 (20 mg: p &lt; 0.0001). Path and subgroup analyses indicate that the beneficial effect of vortioxetine on cognition is largely a direct treatment effect. No safety concern emerged with vortioxetine. Vortioxetine significantly improved objective and subjective measures of cognitive function in adults with recurrent MDD and these effects were largely independent of its effect on improving depressive symptoms.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>35896695</t>
+          <t>24257717</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cells in fibrotic diseases-the two sides of the same coin.</t>
+          <t>Efficacy and safety of vortioxetine (Lu AA21004), 15 and 20 mg/day: a randomized, double-blind, placebo-controlled, duloxetine-referenced study in the acute treatment of adult patients with major depressive disorder.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fibrosis is caused by extensive deposition of extracellular matrix (ECM) components, which play a crucial role in injury repair. Fibrosis attributes to ~45% of all deaths worldwide. The molecular pathology of different fibrotic diseases varies, and a number of bioactive factors are involved in the pathogenic process. Mesenchymal stem cells (MSCs) are a type of multipotent stem cells that have promising therapeutic effects in the treatment of different diseases. Current updates of fibrotic pathogenesis reveal that residential MSCs may differentiate into myofibroblasts which lead to the fibrosis development. However, preclinical and clinical trials with autologous or allogeneic MSCs infusion demonstrate that MSCs can relieve the fibrotic diseases by modulating inflammation, regenerating damaged tissues, remodeling the ECMs, and modulating the death of stressed cells after implantation. A variety of animal models were developed to study the mechanisms behind different fibrotic tissues and test the preclinical efficacy of MSC therapy in these diseases. Furthermore, MSCs have been used for treating liver cirrhosis and pulmonary fibrosis patients in several clinical trials, leading to satisfactory clinical efficacy without severe adverse events. This review discusses the two opposite roles of residential MSCs and external MSCs in fibrotic diseases, and summarizes the current perspective of therapeutic mechanism of MSCs in fibrosis, through both laboratory study and clinical trials.</t>
+          <t>This study assessed the efficacy, tolerability and safety of vortioxetine versus placebo in adults with recurrent major depressive disorder. This double-blind, randomized, placebo-controlled study included 608 patients [Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 26 and Clinical Global Impression - Severity score ≥ 4]. Patients were randomly assigned (1 : 1 : 1 : 1) to vortioxetine 15 mg/day, vortioxetine 20 mg/day, duloxetine 60 mg/day or placebo. The primary efficacy endpoint was change from baseline in MADRS total score at week 8 (mixed model for repeated measurements). Key secondary endpoints were: MADRS responders; Clinical Global Impression - Improvement scale score; MADRS total score in patients with baseline Hamilton Anxiety Rating Scale ≥ 20; remission (MADRS ≤ 10); and Sheehan Disability Scale total score at week 8. On the primary efficacy endpoint, both vortioxetine doses were statistically significantly superior to placebo, with a mean difference to placebo (n = 158) of -5.5 (vortioxetine 15 mg, P &lt; 0.0001, n = 149) and -7.1 MADRS points (vortioxetine 20 mg, P &lt; 0.0001, n = 151). Duloxetine (n = 146) separated from placebo, thus validating the study. In all key secondary analyses, both vortioxetine doses were statistically significantly superior to placebo. Vortioxetine treatment was well tolerated; common adverse events (incidence ≥ 5%) were nausea, headache, diarrhea, dry mouth and dizziness. No clinically relevant changes were seen in clinical safety laboratory values, weight, ECG or vital signs parameters. Vortioxetine was efficacious and well tolerated in the treatment of patients with major depressive disorder.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29104502</t>
+          <t>28858412</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mesenchymal Stem Cell-Dependent Modulation of Liver Diseases.</t>
+          <t>Randomized, double-blind, placebo-controlled 8-week trial of the efficacy, safety, and tolerability of 5, 10, and 20 mg/day vortioxetine in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Acute liver failure and cirrhosis display sequential and overlapping severe pathogenic processes that include inflammation, hepatocyte necrosis, and fibrosis, carrying a high mortality rate. Mesenchymal stem cells (MSCs) are a heterogeneous subset of stromal stem cells with immunonodulatory characteristics. MSCs are considered to act through multiple mechanisms to coordinate a dynamic, integrated response to liver inflammation and fibrosis, which prevents the progressive distortion of hepatic architecture. Accordingly, MSCs as well as their products have been investigated as a novel therapeutic approach for the treatment of inflammatory and fibrotic liver diseases. In this review, we highlight the current findings on the MSC-based modulation of liver inflammation and fibrosis, and the possible use of MSCs in the therapy of immune-mediated liver pathology. We briefly describe the cellular and molecular mechanisms involved in MSC-dependent modulation of cytokine production, phenotype and function of liver infiltrated inflammatory cells and compare effects of engrafted MSCs versus MSC-generated conditioned medium (MSC-CM) in the therapy of acute liver injury. In order to elucidate therapeutic potential of MSCs and their products in modulation of chronic liver inflammation and fibrosis, we present the current findings regarding pathogenic role of immune cells in liver fibrosis and describe mechanisms involved in MSC-dependent modulation of chronic liver inflammation with the brief overview of on-going and already published clinical trials that used MSCs for the treatment of immune mediated chronic liver diseases. The accumulating evidence shows that MSCs had a significant beneficial effect in the treatment of immune-mediated liver diseases.</t>
+          <t>This study assessed the efficacy and safety of vortioxetine in adults with major depressive disorder. In this double-blind, placebo-controlled study, 600 patients with major depressive disorder were randomly assigned (1:1:1:1) to receive vortioxetine 5, 10, or 20 mg, or placebo once daily for 8 weeks. The primary end-point was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8, evaluated by the last-observation-carried-forward method. Secondary end-points included response (≥ 50% decrease in the MADRS total score from baseline) and remission (MADRS total score ≤ 10), Clinical Global Impression Scale-Improvement, and change from baseline in Sheehan Disability Scale. Adverse events were summarized. Vortioxetine failed to show significant differences from placebo in the primary end-point. Nominally significant improvements over placebo were observed for vortioxetine doses of 10 and 20 mg when the primary end-point was evaluated using the mixed model for repeated measures as the secondary analysis, and 10 mg in secondary measures of response and patient functioning. Vortioxetine was well tolerated. Nausea, constipation, dry mouth, dizziness, and insomnia each occurred at a &gt;twofold higher rate than placebo. Discontinuation symptom scores were comparable between all groups after 1 and 2 weeks following withdrawal of the study drug. While vortioxetine failed to meet significance versus placebo in the primary efficacy analysis, there was evidence of efficacy for the 10- and 20-mg doses in secondary analyses. Vortioxetine was safe and well tolerated. Additional studies appear warranted.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>35505419</t>
+          <t>35466102</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell homing to improve therapeutic efficacy in liver disease.</t>
+          <t>Vortioxetine Treatment for Depression in Alzheimer's Disease: A Randomized, Double-blind, Placebo-controlled Study.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mesenchymal stem cell (MSC) transplantation, as an alternative strategy to orthotopic liver transplantation, has been evaluated for treating end-stage liver disease. Although the therapeutic mechanism of MSC transplantation remains unclear, accumulating evidence has demonstrated that MSCs can regenerate tissues and self-renew to repair the liver through differentiation into hepatocyte-like cells, immune regulation, and anti-fibrotic mechanisms. Multiple clinical trials have confirmed that MSC transplantation restores liver function and alleviates liver damage. A sufficient number of MSCs must be home to the target tissues after administration for successful application. However, inefficient homing of MSCs after systemic administration is a major limitation in MSC therapy. Here, we review the mechanisms and clinical application status of MSCs in the treatment of liver disease and comprehensively summarize the molecular mechanisms of MSC homing, and various strategies for promoting MSC homing to improve the treatment of liver disease.</t>
+          <t>Vortioxetine, a new antidepressant, has been demonstrated to have effects on depression and cognitive function. This study aimed to investigate the anti-depressive efficacy of vortioxetine through a well-designed double- blind, placebo-controlled study in Alzheimer's disease (AD) patients, and to confirm the presence of secondary benefits, including the improvement of cognitive function and activities of daily living (ADL). The present study included 100 AD patients with depression who were assigned randomly to 12 weeks of daily treatment with either vortioxetine or placebo. The primary efficacy measure was the change in the Cornell Scale for Depression in Dementia score from baseline to 12 weeks. Several secondary efficacy measures were evaluated, including the Korean version of the Short form of Geriatric Depression Scale and several cognitive function domains. The safety and tolerability of vortioxetine were also assessed. We performed modified intention-to-treat analysis using mixed modeling (the Mixed Models for Repeated Measures). There was no statistically significant difference between the two groups in terms of depressive symptoms, cognitive functions, and ADL. Further, the percentage of adverse events and drug discontinuation between the vortioxetine and placebo groups was similar. Our results suggest that vortioxetine might not be effective in reducing depressive symptoms or cognitive impairment in AD patients with depression. However, general drug tolerance and patient safety were similar to those of placebo. Thus, additional studies are needed to replicate the effectiveness and tolerability of vortioxetine in AD patients with depression.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37539053</t>
+          <t>32670103</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Immune microenvironment changes of liver cirrhosis: emerging role of mesenchymal stromal cells.</t>
+          <t>The THINC-it Tool for Cognitive Assessment and Measurement in Major Depressive Disorder: Sensitivity to Change.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cirrhosis is a progressive and diffuse liver disease characterized by liver tissue fibrosis and impaired liver function. This condition is brought about by several factors, including chronic hepatitis, hepatic steatosis, alcohol abuse, and other immunological injuries. The pathogenesis of liver cirrhosis is a complex process that involves the interaction of various immune cells and cytokines, which work together to create the hepatic homeostasis imbalance in the liver. Some studies have indicated that alterations in the immune microenvironment of liver cirrhosis are closely linked to the development and prognosis of the disease. The noteworthy function of mesenchymal stem cells and their paracrine secretion lies in their ability to promote the production of cytokines, which in turn enhance the self-repairing capabilities of tissues. The objective of this review is to provide a summary of the alterations in liver homeostasis and to discuss intercellular communication within the organ. Recent research on MSCs is yielding a blueprint for cell typing and biomarker immunoregulation. Hopefully, as MSCs researches continue to progress, novel therapeutic approaches will emerge to address cirrhosis.</t>
+          <t>Herein, we sought to determine the sensitivity to change in cognitive function, as measured by the THINC-it tool, in a sample of adults with major depressive disorder (MDD) receiving standardized antidepressant therapy. Adults meeting the DSM-5 criteria for MDD with at least moderate depressive symptom severity [&lt;i&gt;i.e.&lt;/i&gt;, Montgomery Åsberg Depression Rating Scale (MADRS) total score ≥ 20] were treated with open-label vortioxetine (10-20 mg/day, flexibly-dosed) for 8 weeks. The previously validated THINC-it tool was the primary dependent measure. The THINC-it tool was validated against the paper and pencil version of the Digit Symbol Substitution Test (DSST) and the Trails Making Test B (TMTB). After 8 weeks of treatment, adults with MDD exhibited improvement in cognitive function relative to healthy controls (&lt;i&gt;e.g.&lt;/i&gt;, processing speed) (p = 0.031). A subdomain measure of working memory (&lt;i&gt;i.e.&lt;/i&gt;, symbol check; SC) exhibited significant improvement at Weeks 2 and 8 in latency (p = 0.032), SC accuracy (p = 0.046), and objective z-score (p = 0.001) independent of depressive symptoms. A linear regression analysis determined that the THINC-it tool measures of processing speed, as well as executive function were significantly associated with changes observed on the pencil and paper version the Digit Symbol Substitution Test (DSST) (p = 0.002) and in Trails Making Test B (TMTB) (p = 0.003), respectively. The THINC-it tool demonstrates sensitivity to change in adults with MDD and is highly correlated with improvements on pencil and paper versions of DSST and TMTB. ClinicalTrials.gov, identifier NCT03053362.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>34882906</t>
+          <t>36135826</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The role of mesenchymal stem cells in liver injury.</t>
+          <t>Cutting the First Turf to Heal Post-SSRI Sexual Dysfunction: A Male Retrospective Cohort Study.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Recently, mesenchymal stem cell (MSC) therapy has been suggested as an effective alternative approach for the treatment of hepatic diseases. MSCs have potential therapeutic value, because they have high self-renewal ability, are capable of multipotent differentiation, and have low immunogenicity. Furthermore, MSCs have the potential to differentiate into hepatocytes, and the therapeutic value exists in their immune-modulatory properties and secretion of trophic factors, such as growth factors and cytokines. Moreover, MSCs can suppress inflammatory responses, reduce hepatocyte apoptosis, increase hepatocyte regeneration, regress liver fibrosis, and enhance liver functionality.</t>
+          <t>Post-SSRI sexual dysfunction (PSSD) is a set of heterogeneous sexual problems, which may arise during the administration of selective serotonin reuptake inhibitors (SSRIs) and persist after their discontinuation. PSSD is a rare clinical entity, and it is commonly associated with non-sexual concerns, including emotional and cognitive problems and poor quality of life. To date, however, no effective treatment is available. The aim of this study was to retrospectively evaluate the potential efficacy of the different treatments used in clinical practice in improving male PSSD. Of the 30 patients referred to our neurobehavioral outpatient clinic from January 2020 to December 2021, 13 Caucasian male patients (mean age 29.53 ± 4.57 years), previously treated with SSRIs, were included in the study. Patients with major depressive disorder and/or psychotic symptoms were excluded a priori to avoid overlapping symptomatology, and potentially reduce the misdiagnosis rate. To treat PSSD, we decided to use drugs positively affecting the brain dopamine/serotonin ratio, such as bupropion and vortioxetine, as well as other compounds. This latter drug is known not to cause or reverse iatrogenic SD. Most patients, after treatment with vortioxetine and/or nutraceuticals, reported a significant improvement in all International Index of Erectile Function-(IIEF-5) domains (p &lt; 0.05) from baseline (T0) to 12-month follow-up (T1). Moreover, the only patient treated with pelvic muscle vibration reached very positive results. Although our data come from a retrospective open-label study with a small sample size, drugs positively modulating the central nervous system serotonin/dopamine ratio, such as vortioxetine, could be used to potentially improve PSSD. Large-sample prospective cohort studies and randomized clinical trials are needed to investigate the real prevalence of this clinical entity and confirm such a promising approach to a potentially debilitating illness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>36198241</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Corrigendum to 'No evidence for clinical efficacy of adjunctive celecoxib with vortioxetine in the treatment of depression: A 6-week double-blind placebo controlled randomized trial' [European Neuropsychopharmacology 53 (2021) 34-46].</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>37842359</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Comparison of Hamilton Depression Rating Scale and Montgomery-Åsberg Depression Rating Scale: Baked Straight From a Randomized Study.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The symptoms of major depressive disorder (MDD) are nowadays being assessed with the Hamilton and Montgomery-Åsberg Depression Rating Scales. However, there are few studies on the comparison of these two scales. Our study aimed to determine the correlation between the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scores at baseline through 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed with HDRS and MADRS at baseline, four, eight, and 12 weeks after receiving oral tablets of either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is prospectively registered with the Clinical Trial Registry, India (CTRI/2022/07/043808). Of 71 recruited individuals, 49 (69%) completed the 12-week visit. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), and at 12 weeks, they reduced to 19.5, 19.5, and 18.0 (p=0.18). At baseline, the group-wise median MADRS scores were 36, 36, and 36 (p=0.79); at 12 weeks, they were 24, 24, and 23 (p=0.03). The Pearson correlation revealed that the association between the changes in scores from baseline was strongest for escitalopram (r=0.70, p=0.002) followed by vortioxetine (r=0.59, p=0.01) and vilazodone (r=0.59, p=0.02). The Bland-Altman analysis showed that the mean difference between the scores was 5.11 (95% CI: 3.08-7.14). According to this interim study, HDRS and MADRS scores declined after 12 weeks of therapy. Both scores had strong positive correlation, and the difference between the scores reduced with time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>39654656</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A Randomized Controlled Study of Efficacy and Cognitive Function Improvement of Vortioxetine and Escitalopram in Patients with Depression in Chinese Han Nationality.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>To assess the efficacy and safety of Vortioxetine and Escitalopram in improving cognition in patients with major depressive disorder (MDD). At baseline, 131 MDD patients and 70 healthy controls completed the Hamilton Depression Scale (HAMD-17), Hamilton Anxiety Scale (HAMA), Snaith-Hamilton Pleasure Scale (SHAPS) and MATRICS Consensus Cognitive Battery (MCCB). Patients with MDD were randomly divided into Vortioxetine (n = 62) and Escitalopram (n = 69) groups with an 8-week follow-up research. ANOVA for repeated measurement was utilized to compare the efficacy of Vortioxetine and Escitalopram. The total scores of HAMD-17, HAMA and SHAPS scales had statistical difference between MDD cases and healthy controls (P &lt; 0.001) at baseline. After 8 weeks of treatment, the scale scores of the HAMD-17, HAMA and SHAPS had lowered in both groups, with no statistical difference between two groups (P &gt; 0.05). At baseline, MDD patients had defects in Speed of Processing, Attention Vigilance, Verbal Learning, Visual Learning, Reasoning and Problem Solving, and Social Cognition, compared with healthy controls. After 8 weeks of treatment with Vortioxetine or Escitalopram, the patients had improved in the aspects of cognitive functions above except Social Cognition. Numerical improvements of MCCB scale were found in the two groups, P &gt; 0.05. Most adverse events were mild or moderate, with nausea being the most common adverse event. Both Vortioxetine and Escitalopram can improve the mental status and cognitive functions in MDD patients, with mild or moderate adverse events. www.chictr.org.cn, identifier: ChiCTR1900024858.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>37970263</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Interface between Depression and Alzheimer's Disease. A Comprehensive Approach.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Depression and Alzheimer's disease (AD) are frequent interacting diseases in the elderly with a negative impact on the quality of life of patients and caregivers. Late-life depression may be regarded either as an early symptom of AD or a risk factor for AD, depending on the context. This review was focused on the latest developments in the fields of the neurobiological basis and treatment of depression in AD. We found that some plausible hypotheses are emerging to correlate with depression in AD, such as neuroinflammation and dysimmune regulation. It seems that depression is not related to amyloid deposition, but this issue is not completely resolved. The response to antidepressants is controversial according to the evidence from 10 small double-blind randomized placebo-controlled clinical trials with antidepressants in AD patients with depression: four with sertraline, one with three arms (sertraline, mirtazapine, placebo), one with fluoxetine, one with imipramine, one with clomipramine, one with escitalopram, and one with vortioxetine. The total number of treated patients completing the trials was 638. The main criterion of a positive response was a reduction in the scores of clinical scales for depression of at least 50%. The weighted OR (odds ratio) was calculated with the method of Mantel-Haenszel: 1.29; 95% CI: 0.77-2.16. No significant differences were found compared with placebo. Antidepressants did not have a meaningful negative influence on cognition, which was measured with the mini-mental state examination (MMSE) in 18 clinical trials. Alternatives other than drugs are also discussed. Although there have been important advances in this field, pathophysiology and treatment deserve further research.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33292580</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A comparison of eating disorder symptomatology, psychological distress and psychosocial function between early, typical and later onset anorexia nervosa.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Epidemiological studies suggest that the incidence of anorexia nervosa (AN) is increasing in younger populations, with some evidence that clinical differences occur according to age of onset (AOO), which may impact prognostic outcomes. The current study sought to compare eating disorder (ED) symptomatology, psychological distress and psychosocial function between early onset (EO), typical onset (TO) and later onset (LO) AN in a large sample of treatment-seeking patients with a diagnosis of AN. Participants included 249 individuals with a diagnosis of AN who were assessed at an outpatient ED service. The sample was divided into three groups based on AOO; those with an AOO ≤14 years (N = 58) were termed 'EO-AN', those with an AOO between 15 and 18 years (N = 113) were termed 'TO-AN' and those with an AOO of &gt; 18 years (N = 78) were termed 'LO-AN'. Comparisons were made between AOO groups on assessments of ED symptomatology, psychological distress and psychosocial function. EO-AN patients reported a significantly longer illness duration than both TO-AN and LO-AN groups. After controlling for effect of illness duration, the EO-AN group demonstrated significantly higher ED symptomatology and dysmorphic concern compared to the LO-AN group. The EO-AN group demonstrated significantly decreased cognitive flexibility compared to both the TO-AN and LO-AN groups. These findings suggest that clinical differences do occur according to AOO in AN whereby EO-AN may represent a more severe form of illness that is not attributable to increased illness duration. Treatment strategies which specifically address patients with EO-AN may improve long term health outcomes and recovery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>36700320</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety of Escitalopram, Desvenlafaxine, and Vortioxetine in the Acute Treatment of Anxious Depression: A Randomized Rater-blinded 6-week Clinical Trial.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Anxious depression is associated with greater chronicity, higher severity of symptoms, more severe functional impairment, and poor response to drug treatment. However, evidence for first-choice antidepressants in patients with anxious depression is limited. This study aimed to compare the efficacy and safety of escitalopram, desvenlafaxine, and vortioxetine in the acute treatment of anxious depression. Patients (n = 124) with major depressive disorder and high levels of anxiety were randomly assigned to an escitalopram treatment group (n = 42), desvenlafaxine treatment group (n = 40), or vortioxetine treatment group (n = 42) in a 6-week randomized rater-blinded head-to-head comparative trial. Changes in overall depressive and anxiety symptoms were assessed using the 17-item Hamilton Depression Rating Scale (HAMD) and Hamilton Anxiety Rating Scale (HAMA), respectively. Patients demonstrated similar baseline-to-endpoint improvement in scores and similar response and remission rates for HAMD and HAMA. Analysis of the individual HAMD items revealed that desvenlafaxine significantly reduced anxiety somatic scores (&lt;i&gt;p&lt;/i&gt; = 0.013) and hypochondriasis scores (&lt;i&gt;p&lt;/i&gt; = 0.014) compared to escitalopram. With respect to the individual HAMA items, desvenlafaxine treatment showed significantly lower scores for respiratory symptoms (&lt;i&gt;p&lt;/i&gt; = 0.013) than escitalopram treatment and cardiovascular symptoms (&lt;i&gt;p&lt;/i&gt; = 0.005) than vortioxetine treatment. The treatments were well tolerated, with no significant differences. Our results indicated no significant differences in the efficacy and tolerability of escitalopram, desvenlafaxine, and vortioxetine in this subtype of patients with anxious depression during the acute phase of treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25893002</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Depression and cerebrovascular disease: could vortioxetine represent a valid treatment option?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Depression and cerebrovascular atherosclerosis often occur in comorbidity showing neuropsychological impairment and poor response to antidepressant treatment. Objective is to evaluate if new antidepressant vortioxetine may be a potential treatment option. Mechanism of Action : Vortioxetine has 5-HT3, 5-HT7 and 5-HT1D antagonists, 5-HT1B partial agonist and a 5-HT1A agonist and serotonin transporter inhibitor property. Efficacy and safety in Major Depressive Disorders and in cognitive impairment : The majority of trials (one of them in older people) showed efficacy for vortioxetine against placebo and no differences against other active treatments. The Adverse Effects ranged from 15.8% more to 10.8% less than placebo. In the elderly, only nausea was found higher than placebo. Effects on arterial blood pressure and cardiac parameters including the ECG-QT segment were similar to placebo. Elderly depressive patients on vortioxetine showed improvement versus placebo and other active comparators in Auditory Verbal Learning Test and Digit Symbol Substitution Test scores. The inclusion criteria admitted cases with middle cerebrovascular disease. Conclusion : The mechanism of action, the efficacy on depression and safety profile and early data on cognitive impairment make Vortioxetine a strong candidate for use in depression associated with cerebrovascular disease. This information must be supported by future randomized controlled trials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>35799757</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Clinical efficacy of Vortioxetine and escitalopram in the treatment of depression.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>This study was aimed to investigate the efficacy and safety of vortioxetine hydrobromide in the treatment of major depressive disorder (MDD). One hundred and eighty patients with the newly diagnosed depression in our hospital between August 2018 and August 2019 were selected and randomly divided into an observation group and a control group, 90 each group. The control group was treated with escitalopram, and the observation group was treated with voltaxetine. The efficacy and adverse reactions were evaluated by the Hamilton Depression scale-17 (HAMD-17), Sheehan Disability Scale (SDS), Perceived Deficits Questionnaire-Depression (PDQ-D), and treatment emergent symptom scale (TESS) before treatment and at the end of the 8th and 24th week after treatment. At the end of the 8th and 24th week after treatment, the HAMD-17 scores of the two groups were lower than those before treatment (P&lt;0.05); at the end of the 8th and 24th week after treatment, the PDQ-D and SDS scores of the two groups were lower than those before treatment (P&lt;0.05), and the above scores of the observation group were lower than those of the control group (P&lt;0.05). There was no significant difference in the incidence of adverse reactions between the two groups (P&gt;0.05). Voltaxetine can improve cognitive function and clinical symptoms of patients with severe depression and has high safety, which is worth clinical attention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>27013879</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder: a meta-analysis of randomized controlled trials.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Vortioxetine is an investigational multimodal antidepressant. We conducted this meta-analysis to assess the efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder (MDD). Randomized controlled trials (RCTs) published in PubMed, Web of Science, Embase, and ClinicalTrials.gov were systematically reviewed to assess the treatment effects and safety profiles of patients with MDD who were treated with 10 mg vortioxetine. The outcome measures included response rate, remission rate, changes from baseline in Montgomery-Asberg Depression Rating Scale (MADRS), Hamilton Rating Scale for Depression (24-items) (HAM-D24), Clinical Global Impression-Severity (CGI-S), and Clinical Global Impression-Improvement (CGI-I) scores. Results were expressed with risk ratio or weighted mean difference with 95% confidence intervals. Pooled results were calculated using a fixed-effects model or a random-effects model according to the heterogeneity among included trials. Six RCTs with a total of 1,801 patients met the inclusion criteria and were included in this meta-analysis. The 10 mg vortioxetine dose significantly increased the response rate and remission rate in the treatment of MDD compared with placebo. Moreover, there was a statistically significant reduction from baseline in the MADRS, HAM-D24, CGI-S, and CGI-I scores with 10 mg vortioxetine vs placebo. The incidence of treatment-emergent adverse events such as nausea, vomiting, constipation, and hyperhidrosis was higher in the 10 mg vortioxetine group than in the placebo group. Vortioxetine 10 mg can significantly increase the response rate and remission rate, and reduce the MADRS, HAM-D24, CGI-S, and CGI-I scores in patients with MDD with an acceptable risk of treatment-emergent adverse events. Further well-conducted, large-scale trials are needed to validate these findings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37641760</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Metabolic Effects of Antidepressants: Results of a Randomized Study's Interim Analysis.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Individuals with major depressive disorder exhibit a dysregulated metabolic profile. There are few studies on how vilazodone, escitalopram, and vortioxetine alter metabolic parameters. Our study aimed to determine the change in plasma glucose, HbA&lt;sub&gt;1c&lt;/sub&gt;, serum cholesterol, triglyceride, and creatinine at 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed at baseline, 4, 8, and 12 weeks after receiving oral tablets of either vilazodone (20-40mg/d), escitalopram (10-20mg/d), or vortioxetine (5-20mg/d). This study is CTRI-registered (2022/07/043808). Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median Hamilton Depression Rating Scale (HDRS) scores of the participants in vilazodone, escitalopram, and vortioxetine groups were 30.0, 29.5, and 29.0 at baseline (p=0.76) and 19.5, 19.5, and 18.0 (p=0.18) at 12 weeks, respectively. The median fasting blood sugar (FBS) values were 98.5, 105.5, and 98.0 at baseline (p=0.07) and 94.0, 99.5, and 96.0 (p=0.19) at 12 weeks, for vilazodone, escitalopram, and vortioxetine groups, respectively. The post hoc analysis did not yield statistically significant differences regarding any parameters. According to this interim study, the HDRS scores declined after 12 weeks of therapy. The subjects' metabolic parameters did not significantly change. It is essential to perform further investigation regarding these impacts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>33654400</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Efficacy of Vortioxetine on Anhedonia: Results from a Pooled Analysis of Short-Term Studies in Patients with Major Depressive Disorder.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Anhedonia is a core symptom of major depressive disorder (MDD), which has important functional consequences for the patient. This post hoc analysis investigated the relationship between anhedonia and functioning in patients with MDD treated with vortioxetine. We conducted a pooled analysis of all 11 short-term, double-blind, randomized, placebo-controlled studies of vortioxetine (fixed dose, 5-20 mg/day) in patients with MDD which included Montgomery-Åsberg Depression Rating Scale (MADRS) and Sheehan Disability Scale (SDS) assessments. A short-term, randomized, active-controlled trial of flexible-dose treatment with vortioxetine (10-20 mg/day) versus agomelatine (25-50 mg/day) was also analyzed. Mean changes from baseline to study endpoint in MADRS total, MADRS anhedonia subscale, SDS total, and SDS social-functioning scores were analyzed by a mixed model for repeated measures. The relationship between treatment effects on anhedonia and functioning was investigated using path analysis. A total of 4988 patients with MDD were included in the placebo-controlled studies and 495 in the active-comparator study. Significant dose-dependent improvements in overall depressive symptoms, anhedonia, and measures of functioning were seen in vortioxetine-treated patients compared with those who received placebo or agomelatine. Results of the path analysis for the placebo-controlled studies suggested that the effect on functioning was mostly driven by the effect of treatment on MADRS anhedonia factors. Vortioxetine showed significant short-term efficacy against anhedonia in this large population of patients with MDD. In the placebo-controlled studies, improvements in functioning associated with vortioxetine appeared to be mostly driven by the effect of treatment on MADRS anhedonia factors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>27143896</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>The efficacy and safety of multiple doses of vortioxetine for generalized anxiety disorder: a meta-analysis.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Vortioxetine is a novel antidepressant approved for the treatment of major depressive disorder by the US Food and Drug Administration in September 2013. This meta-analysis assessed the efficacy and safety of different doses of vortioxetine for generalized anxiety disorder of adults. PubMed, Cochrane Library, PsycINFO, and Clinical Trials databases were searched from 2000 through 2015. The abstracts of the annual meetings of the American Psychiatric Association and previous reviews were searched to identify additional studies. The search was limited to individual randomized controlled trials (RCTs), and there was no language restriction. Four RCTs met the selection criteria. These studies included 1,843 adult patients. Results were expressed as odds ratios (ORs) and 95% confidence intervals (CIs). The data were pooled with a random-effects or fixed-effects model. The results showed that multiple doses (2.5, 5, and 10 mg/d) of vortioxetine did not significantly improve the generalized anxiety disorder symptoms compared to placebo (OR=1.16, 95% CI=0.84-1.60, Z=0.89, P=0.38; OR=1.41, 95% CI=0.82-2.41, Z=1.25, P=0.21; OR=1.05, 95% CI=0.76-1.46, Z=0.32, P=0.75, respectively). We measured the efficacy of 2.5 mg/d vortioxetine compared to 10 mg/d, and no significant differences were observed. The common adverse effects included nausea and headache. With increased dose, nausea was found to be more frequent in the vortioxetine (5 and 10 mg/d) group (OR=2.99, 95% CI=1.31-6.84, Z=2.60, P=0.009; OR=2.80, 95% CI=1.85-4.25, Z=4.85, P&lt;0.00001, respectively), but no significant differences were observed for headache. The results showed no significant improvement in the treatment of generalized anxiety disorder for vortioxetine compared to placebo, and nausea was more frequent with higher doses. So the current evidences do not support using vortioxetine for the treatment of generalized anxiety disorder. Few RCTs were included in our meta-analysis, and more studies are needed to verify our results in the future.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>35500900</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>This study aimed to compare the efficacy and safety of escitalopram, vortioxetine, and desvenlafaxine for acute treatment of major depressive disorder (MDD) with cognitive complaint (CC). A total of 129 patients with MDD who also complained of CC were randomized evenly to either escitalopram, vortioxetine, or desvenlafaxine group and underwent a multi-center, six-week, rater-blinded, and head-to-head comparative trial. Differences in depressive symptoms following treatment were measured using the Hamilton Depression Rating Scale (HAMD) and the Montgomery-Åsberg Depression Rating Scale (MADRS). Subjective cognitive function and the presence of adverse events were assessed. The three antidepressant treatment groups did not show significant differences in the improvement of depressive symptoms as measured by HAMD and MADRS. Desvenlafaxine treatment was associated with a superior treatment response rate in depressive symptoms compared to vortioxetine or escitalopram treatment. However, no significant differences were found in the remission rate of depressive symptoms. The three antidepressant treatment groups did not show significant differences in the improvement of CC. Adverse profiles of each treatment group were tolerable, with no significant differences. In acute antidepressant treatment for MDD with CC, escitalopram, vortioxetine, and desvenlafaxine presented similar efficacy in relief of depressive symptoms; however, desvenlafaxine was associated with a superior treatment. Further studies are needed to confirm these results by investigating the therapeutic efficacy and safety profile of long-term antidepressant treatment of MDD with CC (Clinical Trial Registry, http://cris.nih.go.kr/cris/en/: KCT0002173).</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>25650503</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Comparison of vortioxetine versus venlafaxine XR in adults in Asia with major depressive disorder: a randomized, double-blind study.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>This randomized, double-blind 8 week study compared the efficacy and tolerability of fixed-dose treatment with vortioxetine (10 mg/day) and venlafaxine extended release (XR) (150 mg/day) in major depressive disorder (MDD) patients. Patients aged 18-65 years with a primary diagnosis of recurrent MDD, a Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and a Clinical Global Impression-Severity (CGI-S) score ≥4 were randomized (1:1) to treatment with either vortioxetine or venlafaxine XR. The primary endpoint was change from baseline to Week 8 in MADRS total score (analysis of covariance [ANCOVA], full-analysis set [FAS], last observation carried forward [LOCF]), using a non-inferiority margin of +2.5 points. Pre-specified secondary endpoints included MADRS response and remission rates, anxiety symptoms (HAM-A), CGI, overall functioning (SDS), and health-related quality of life (Q-LES-Q). This study (SOLUTION) has the www.ClinicalTrials.gov identifier: NCT01571453. On the primary efficacy endpoint at Week 8, non-inferiority was established with a difference of -1.2 MADRS points in favor of vortioxetine (95% CI: -3.0 to 0.6). The MADRS total score decreased (improved) from 32.3 ± 4.6 at baseline to 13.6 ± 9.6 (vortioxetine: n = 209) and from 32.3 ± 4.5 to 14.8 ± 10.4 (venlafaxine XR: n = 215) (FAS, LOCF). At Week 8, the HAM-A and SDS total scores, CGI and Q-LES-Q scores, and response and remission rates demonstrated similar improvement for vortioxetine and venlafaxine XR, with remission rates (MADRS ≤10) of 43.1% (vortioxetine) versus 41.4% (venlafaxine XR) (LOCF). Fewer vortioxetine than venlafaxine XR patients withdrew for any reason (18.0% versus 27.4%) or for adverse events (6.6% versus 13.7%). The most frequent adverse events (≥5%) for both treatments were nausea, dizziness, headache, and dry mouth. In addition, accidental overdose, decreased appetite, constipation and insomnia were reported by (≥5%) of patients treated with venlafaxine XR. The inclusion and exclusion criteria may limit the generalizability of the study. Since patients with a history of lack of response to venlafaxine XR were excluded from this study, there is a selection bias in favor of venlafaxine XR. Vortioxetine was at least as efficacious as venlafaxine XR and was safe and better tolerated than venlafaxine XR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22963932</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A randomized, double-blind, placebo-controlled 6-wk trial of the efficacy and tolerability of 5 mg vortioxetine in adults with major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Vortioxetine (Lu AA21004) is a multi-modal antidepressant in clinical development for the treatment of major depressive disorder (MDD). The current study evaluated the efficacy and tolerability of 5 mg vortioxetine compared to placebo after 6 wk of treatment in adults with MDD in an out-patient setting. Adults aged 18-75 yr, with a diagnosis of MDD and a baseline Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥30, were randomized to receive either 5 mg vortioxetine or placebo over 6 wk, followed by a 2-wk medication-free discontinuation period. The primary efficacy measure was change from baseline in Hamilton Rating Scale for Depression (HAMD)-24 total score at week 6 compared to placebo. Additional measures included response and remission rates, Clinical Global Impression Scale - Improvement scores, HAMD-24 total score in subjects with baseline Hamilton Anxiety Scale (HAMA) &gt;19 and MADRS-S total score. Adverse events (AEs) were assessed throughout the study. A total of 600 adults were randomized. There were no significant differences in efficacy measures between subjects in the 5 mg vortioxetine and placebo groups at week 6. HAMD-24 total score in subjects with baseline HAMA &gt;19 in the 5 mg vortioxetine group was improved at weeks 3-6 compared to the placebo group (nominal p value &lt;0.05). The most common AEs for the vortioxetine and placebo groups were nausea (19.1 and 9.4%), headache (17.1 and 15.1%) and diarrhoea (11.4 and 7.0%), respectively. In this study of adults with MDD, 5 mg vortioxetine did not differ significantly from placebo in reducing depression symptoms after 6 wk of treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>34955641</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Early Improvement with Vortioxetine Predicts Response and Remission: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Several weeks of treatment with an antidepressive agent may be required before efficacy is demonstrated in patients with major depressive disorder. This study investigated the predictive value of early partial improvement with vortioxetine for treatment response and remission. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. The key outcomes were the predictive value of early partial improvement (reduction in MADRS total score of ≥20% from baseline to week 2) with vortioxetine for MADRS response (≥50% decrease in score from baseline) and remission (decrease in score to ≤10) at week 8. Relevant data were available for 478 patients; 62/158 patients receiving placebo, 71/162 receiving vortioxetine 10 mg, and 66/158 receiving vortioxetine 20 mg were early improvers. Early improvers receiving vortioxetine (10 mg or 20 mg) were more likely than non-early improvers to achieve a week 8 response (71.2-73.2% vs 29.7-38.0%) or remission (50.7-51.5% vs 17.4-18.7%). Positive predictive values for response and remission with vortioxetine were ~70% and ~50%, respectively; negative predictive values were ~70% and ~80%, respectively. Improvement with vortioxetine may be predicted by early partial improvement in MADRS score. Some patients may benefit from longer-term treatment even without early improvement, another finding that may aid clinical decision-making. ClinicalTrials.gov registration for primary study: NCT02389816.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>32420649</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Comparison of vortioxetine and sertraline for treatment of major depressive disorder in elderly patients: A double-blind randomized trial.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Major depressive disorder (MDD) is a complex disease and one of the leading contributors to disease burden throughout the world. In the current study, we explored the efficacy and tolerability of vortioxetine versus sertraline on symptoms of depression in elderly patients with MDD. Sixty patients diagnosed with MDD (based on DSM-5) and Hamilton Depression Rating Scale (HAM-D) score ≥ 19 were entered into a randomized double-blind study and were randomized to receive either vortioxetine (15 mg daily) or sertraline (75 mg daily) for six weeks. Patients were assessed using the HAM-D scale at baseline and weeks 3 and 6. Changes in HAM-D score, response rates, remission rate and time to response or remission were also compared between the two study groups. Fifty patients completed the trial after six weeks. General linear model repeated measures demonstrated no difference in trend of the two treatment groups (P = .897). There was no significantly different improvement in the HDRS scores from baseline to weeks 3 and 6, as well. Differences in response rate, remission rate, time to response and time to remission periods were not statistically significant. Finally, there was not any significantly difference between the two study groups in the frequency of adverse events. This study showed no significant differences in the efficacy and safety of vortioxetine in comparison with sertraline in order for it to be used safely for treatment of major depressive disorder in elderly patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>33628415</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Focus on Depression in Parkinson's Disease: A Delphi Consensus of Experts in Psychiatry, Neurology, and Geriatrics.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Major and minor forms of depression are significant contributors to Parkinson's disease morbidity and caregiver burden, affecting up to 50% of these patients. Nonetheless, symptoms of depression are still underrecognized and undertreated in this context due to scarcity of evidence and, consequently, consistent clinical guideline recommendations. Here, we carried out a prospective, multicentre, 2-round modified Delphi survey with 49 questions about the aetiopathological mechanisms of depression in Parkinson's disease (10), clinical features and connections with motor and nonmotor symptoms (10), diagnostic criteria (5), and therapeutic options (24). Items were assessed by a panel of 37 experts (neurologists, psychiatrists, and a geriatrist), and consensus was achieved in 81.6% of them. Depressive symptoms, enhanced by multiple patient circumstances, were considered Parkinson's disease risk factors but not clinical indicators of motor symptom and disease progression. These patients should be systematically screened for depression while ruling out both anhedonia and apathy symptoms as they are not necessarily linked to it. Clinical scales (mainly the Geriatric Depression Scale GDS-15) can help establishing the diagnosis of depression, the symptoms of which will require treatment regardless of severity. Efficacious and well-tolerated pharmacological options for Parkinson's comorbid depression were selective serotonin reuptake inhibitors (especially sertraline), dual-action serotonin and norepinephrine reuptake inhibitors (venlafaxine, desvenlafaxine, and duloxetine), multimodal (vortioxetine, bupropion, mirtazapine, and tianeptine), and anti-Parkinsonian dopamine agonists (pramipexole, ropinirole, and rotigotine). Tricyclic antidepressants and combining type B monoamine oxidase inhibitors with serotonergic drugs have serious side effects in these patients and therefore should not be prescribed. Electroconvulsive therapy was indicated for severe and drug-refractory cases. Cognitive behavioural therapy was recommended in cases of mild depression. Results presented here are useful diagnostic and patient management guidance for other physicians and important considerations to improve future drug trial design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>26316764</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Profile of vortioxetine in the treatment of major depressive disorder: an overview of the primary and secondary literature.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>This article reviews the pharmacological profile and available efficacy and tolerability/safety data for vortioxetine, one of the most recent antidepressant drugs to be approved in the USA for the treatment of major depressive disorder (MDD) in adults. The efficacy of vortioxetine for treating MDD in adults is supported by eight positive short-term (6- to 12-weeks) randomized, placebo-controlled trials, and one positive randomized, double-blind, 52-week relapse prevention trial. Based on pooled data from short-term randomized trials and from longer-term studies, vortioxetine appears to be well tolerated and to have a low incidence of adverse effects on sexual functioning. Vortioxetine also appears to be effective for treating symptoms of MDD in the elderly based on the results of one randomized trial for which recruitment was focused on this specific population. Nevertheless, effectiveness studies that directly compare the clinical effects of vortioxetine with other established antidepressant drugs are lacking, and there is no evidence as yet that vortioxetine is more clinically effective than other types of antidepressants. Some preliminary suggestions concerning the place of vortioxetine among the broad range of pharmacological treatments for adults with MDD are provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>36683990</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Effectiveness of vortioxetine for major depressive disorder in real-world clinical practice: US cohort results from the global RELIEVE study.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Effective treatment of major depressive disorder (MDD) involves addressing both depressive and functional symptoms, increasing patients' overall sense of well-being and quality of life (QoL). RELIEVE was an international observational, prospective study in patients ≥18 years with a current diagnosis of a major depressive episode (MDE) initiating vortioxetine in routine clinical practice; outcomes for the cohort of participants from the United States are presented here. Functioning was assessed at weeks 12 and 24 versus baseline using the Sheehan Disability Scale (SDS). Secondary effectiveness analyses assessed changes from baseline to weeks 12 and 24 in functioning, depression severity, cognitive symptoms, sexual function, and QoL. 244 participants had an average of 8.2 previous MDEs; mean duration of their current MDE at baseline was 93.5 weeks. Vortioxetine was used as second- or later-line treatment for 80.5% of participants. Least-squares mean (SE) SDS total score significantly decreased from baseline by 7.19 (0.52) points at week 12 and 8.19 (0.56) points at week 24 (&lt;i&gt;p&lt;/i&gt; &lt; 0.0001 for both). Significant improvements were also reflected across SDS subscores, depression severity, cognitive function, sexual function, and QoL. Healthcare resource utilization and productivity parameters also improved. Adverse events were observed in 21.8% of patients, with nausea being the most common (7.3%). This real-world study demonstrated improvements in functioning, depressive symptoms, and cognitive function in patients with MDD treated with vortioxetine in routine clinical practice in the cohort of patients enrolled in the United States. Outcomes were consistent with the efficacy and safety profile of vortioxetine in randomized controlled trials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>34992372</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Therapeutic Potential of Vortioxetine for Anxious Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Antidepressants, including selective serotonin reuptake inhibitors, often elicit a poor response in patients with major depressive disorder (MDD) with significant anxiety symptoms. This study investigated the effects of the multimodal antidepressant vortioxetine in patients with MDD and associated anxiety. This was a post hoc analysis of data from an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. Changes from baseline to week 8 in MADRS total score and Hamilton Depression Rating Scale (HAM-D) anxiety/somatization factor score were assessed in patients with anxious depression (HAM-D anxiety/somatization factor score ≥7) and without anxious depression. Data were available for 489 patients. In patients with anxious depression, the least-squares (LS) mean difference (95% confidence interval [CI]) versus placebo in change in MADRS total score was -3.44 (-6.10, -0.77) for vortioxetine 10 mg and -4.51 (-7.15, -1.87) for vortioxetine 20 mg. In patients with non-anxious depression, the LS mean difference (95% CI) versus placebo was -1.81 (-4.71, 1.09) and -1.05 (-4.00, 1.90) for vortioxetine 10 mg and 20 mg, respectively. Changes from baseline in HAM-D anxiety/somatization factor score were greater in patients treated with vortioxetine 10 mg or 20 mg than in those treated with placebo. Vortioxetine may be effective for patients with anxiety symptoms in MDD. Further research is warranted to investigate these effects in a real-world clinical setting. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22572889</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A randomized, double-blind, placebo-controlled, duloxetine-referenced, fixed-dose study comparing the efficacy and safety of Lu AA21004 in elderly patients with major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The efficacy and tolerability of Lu AA21004 at 5 mg/day, a novel multimodal antidepressant, were assessed in elderly patients with recurrent major depressive disorder. Patients were randomly assigned (1:1:1) to Lu AA21004 5 mg/day, duloxetine 60 mg/day (reference) or to placebo in an 8-week double-blind study. The primary efficacy measure was the 24-item Hamilton Depression Scale (HAM-D(24)) total score (analysis of covariance, last observation carried forward). Patients (mean age 70.6 years) had a mean baseline HAM-D(24) score of 29.0. Lu AA21004 showed significantly (P = 0.0011) greater improvement on the primary efficacy endpoint compared with placebo at week 8 (3.3 points). Duloxetine also showed superiority to placebo at week 8, thereby validating the study. HAM-D(24) response (53.2 vs. 35.2%) and HAM-D(17) remission (29.2 vs. 19.3%) rates at endpoint were higher for Lu AA21004 than for placebo. Lu AA21004 showed superiority to placebo in cognition tests of speed of processing, verbal learning and memory. The withdrawal rate due to adverse events was 5.8% (Lu AA21004), 9.9% (duloxetine) and 2.8% (placebo). Whereas nausea was the only adverse event with a significantly higher incidence on treatment with Lu AA21004 (21.8%) compared with placebo (8.3%), the incidence of nausea, constipation, dry mouth, hyperhidrosis and somnolence was higher for duloxetine. In conclusion, Lu AA21004 was efficacious and well tolerated in the treatment of elderly patients with recurrent major depressive disorder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>25087600</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A randomised, double-blind study in adults with major depressive disorder with an inadequate response to a single course of selective serotonin reuptake inhibitor or serotonin-noradrenaline reuptake inhibitor treatment switched to vortioxetine or agomelatine.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>This randomised, double-blind, 12-week study compared efficacy and tolerability of flexible-dose treatment with vortioxetine(10-20 mg/day) versus agomelatine (25-50 mg/day) in major depressive disorder patients with inadequate response to selective serotonin reuptake inhibitor (SSRI)/serotonin-noradrenaline reuptake inhibitor (SNRI) monotherapy. Patients were switched directly from SSRI/SNRI to vortioxetine or agomelatine. Primary endpoint was change from baseline to week 8 in the Montgomery-Åsberg Depression Rating Scale (MADRS) total score analysed by mixed model for repeated measurements, using a noninferiority test followed by a superiority test. Secondary endpoints included response and remission rates, anxiety symptoms(Hamilton Anxiety Rating Scale), Clinical Global Impression, overall functioning (Sheehan Disability Scale), health-related quality of life(EuroQol 5 Dimensions), productivity (work limitation questionnaire) and family functioning (Depression and Family Functioning Scale). Primary endpoint noninferiority was established and vortioxetine (n = 252) was superior to agomelatine (n = 241) by 2.2 MADRS points (p&lt;0.01). Vortioxetine was also significantly superior in response and remission rates at weeks 8 and 12; MADRS, Hamilton Anxiety Rating Scale, Clinical Global Impression, Sheehan Disability Scale and EuroQol 5 Dimensions scores at week 4 onwards; work limitation questionnaire at week 8 and Depression and Family Functioning Scale at weeks 8 and 12. Fewer patients withdrew because of adverse events with vortioxetine (5.9% vs 9.5%). Adverse events (incidence ≥5%) were nausea, headache, dizziness and somnolence. Vortioxetine was noninferior and significantly superior to agomelatine in major depressive disorder patients with previous inadequate response to a single course of SSRI/SNRI monotherapy. Vortioxetine was safe and well tolerated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>37736222</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Effect of vortioxetine versus venlafaxine on cognitive functions in adults with major depressive disorder: A randomized-controlled trial.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Vortioxetine and venlafaxine are antidepressants which have shown established efficacy to treat major depressive disorder (MDD). There are no studies that compared them for their efficacy in cognitive symptoms of depression. The study aimed to compare the effect of vortioxetine and venlafaxine on the change in cognitive scores in adults with MDD. The present study was an open-label, active-controlled parallel design randomized clinical trial. After randomization, baseline clinical evaluations by Montgomery-Asberg Depression Rating Scale (MADRS) and Social and Occupational Functioning Assessment Scale (SOFAS) were done and coding (subset of WAIS-IV), WCST, TMT, Stroop test, PGI memory were used to assess cognition in 100 unmedicated MDD patients. They were reassessed after eight weeks of monotherapy with vortioxetine or venlafaxine. Primary cognitive measure (coding score) was found to be significantly higher (Mean Difference = 0.680; 95% CI:.202 to 1.158; &lt;i&gt;P&lt;/i&gt; = 0.006) in vortioxetine in comparison with venlafaxine. Stroop test scores (word score, color score, color-word score) were also found to be significantly higher with vortioxetine. In other cognitive measures (WCST scores: total trials, total errors score, total perseverative responses score, total perseverative errors scores; TMT-A and B scores), a significant decrease in scores with vortioxetine in comparison with venlafaxine were observed. A significant decrease in MADRS and increase in SOFAS scores were observed with vortioxetine in comparison with venlafaxine. Both the drugs alleviated the symptoms of depression but vortioxetine was better tolerated. Our study findings suggest that improvement in cognitive scores is significantly higher with vortioxetine than venlafaxine over the eight weeks of monotherapy. CTRI/2020/07/026819 (Registered with Clinical Trials Registry- India).</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>37213947</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>An Interim Analysis of a Randomized, Open-Label Study of Vilazodone, Escitalopram, or Vortioxetine for Major Depressive Disorder.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The troubling issues of conventional antidepressants are inadequate disease remission and potential adverse effects. There is a dearth of research findings comparing vilazodone, escitalopram, and vortioxetine. The objective of this analysis is to determinechanges in the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scoresand the incidence of adverse events at 12 weeks. This is an exploratory interim analysis of a randomized, three-arm, open-label ongoing study. The participants were randomly assigned in a 1:1:1 ratio to receive either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). Efficacy and safety assessments were done at baseline, four weeks, eight weeks, and 12 weeks. Forty-nine(69%) of the 71 enrolled participants (mean age 43.9±12.2 years; 37 men (52%)) completed the 12-week follow-up. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), respectively, and at 12 weeks, they amounted to 19.5, 19.5, and 18.0 (p=0.18), respectively. At baseline, group-wise median MADRS scores were 36, 36, and 36, respectively (p=0.79); at 12 weeks, they were 24, 24, and 23, respectively (p=0.03). In the post-hoc analysis, the inter-group comparison of the change in HDRS (p = 0.02) and MADRS (p = 0.06) scores from baseline did not reach statistical significance. No participants experienced serious adverse events. In this initial assessment of a continuing study, vortioxetine exhibited a clinically (not statistically) significant drop in HDRS and MADRS scores, compared to vilazodone and escitalopram. The antidepressant effects need to be investigated further.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>36065389</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Effectiveness and Safety of Vortioxetine for Major Depressive Disorder in Real-World Clinical Practice: Results from the Single-Arm RELIEVE China Study.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Major depressive disorder (MDD) affects &gt;163 million people worldwide and is a leading cause of disability in China. Functional impairment occurs alongside cognitive symptoms, anxiety, and depression, reducing quality of life and productivity in patients with MDD. The multimodal antidepressant vortioxetine has demonstrated efficacy in relieving depressive and functional symptoms of MDD in randomized controlled trials (RCTs). The RELIEVE China study aimed to investigate the real-world effectiveness of vortioxetine in China. This was an observational, prospective cohort study in patients with MDD initiating treatment with vortioxetine at physician's discretion in China. Participants were followed up for 24 weeks and assessed at 3 time points: baseline, week 8, and week 24. The primary objective was to assess the change from baseline to weeks 8 and 24 in functional impairment as measured by Sheehan Disability Scale (SDS) total score. Additional assessments included SDS subdomains, measures of depression severity, anxiety, and cognition. The safety and tolerability of vortioxetine were also examined. In total, 859 patients were included in the analysis. A consistent and significant improvement in functional impairment was observed during the study, with baseline mean SDS total score (16.7 points) decreasing by 5.42 (SE, 0.22) and 8.71 (SE, 0.226) points at week 8 and week 24, respectively (&lt;i&gt;P&lt;/i&gt;&lt;0.0001). Improvements in other functioning, cognitive, and anxiety assessments were also observed (all &lt;i&gt;P&lt;/i&gt;&lt;0.0001). A total of 74.7% of patients had responded, and 63.9% had reached remission at week 24. The tolerability profile of vortioxetine in this real-world population was consistent with the established tolerability profile for this drug. This study demonstrated the short- and long-term effectiveness and tolerability of vortioxetine for patients with MDD in a real-world setting in China. These findings are consistent with the efficacy and safety profile observed during RCTs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>34269645</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Statement of Retraction: Efficacy and safety of vortioxetine for the treatment of major depressive disorder: a randomised double-blind placebo-controlled study.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>26035186</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of 2 doses of vortioxetine in adults with major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>This 8-week, randomized, double-blind, placebo-controlled study, conducted August 2010-May 2012 in the United States, evaluated the safety and efficacy of vortioxetine 10 mg and 15 mg in patients with major depressive disorder (MDD). The mechanism of action of vortioxetine is thought to be related to direct modulation of serotonin (5-HT) receptor activity and inhibition of the serotonin transporter. Adults aged 18-75 years with MDD (DSM-IV-TR) and Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥ 26 were randomized (1:1:1) to receive vortioxetine 10 mg or 15 mg or placebo once daily, with the primary efficacy end point being change from baseline at week 8 in MADRS analyzed by mixed model for repeated measures. Adverse events were recorded during the study, suicidal ideation and behavior were assessed using the Columbia-Suicide Severity Rating Scale (C-SSRS), and sexual dysfunction was assessed using the Arizona Sexual Experience (ASEX) scale. Of the 1,111 subjects screened, 469 subjects were randomized: 160 to placebo, 157 to vortioxetine 10 mg, and 152 to vortioxetine 15 mg. Differences from placebo in the primary efficacy end point were not statistically significant for vortioxetine 10 mg or vortioxetine 15 mg. Nausea, headache, dry mouth, constipation, diarrhea, vomiting, dizziness, and flatulence were reported in ≥ 5% of subjects receiving vortioxetine. Discontinuation due to adverse events occurred in 7 subjects (4.4%) in the placebo group, 8 (5.2%) in the vortioxetine 10 mg group, and 12 (7.9%) in the vortioxetine 15 mg group. ASEX total scores were similar across groups. There were no clinically significant trends within or between treatment groups on the C-SSRS, laboratory values, electrocardiogram, or vital sign parameters. In this study, vortioxetine did not differ significantly from placebo on MADRS total score after 8 weeks of treatment in MDD subjects. ClinicalTrials.gov identifier: NCT01179516.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>35221687</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Therapeutic Potential of Vortioxetine for Anhedonia-Like Symptoms in Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Anhedonia in major depressive disorder may be resistant to first-line antidepressants. We examined the effect of vortioxetine, a multimodal antidepressant, on anhedonia-like symptoms in Japanese patients with major depressive disorder. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) total score of at least 26. The primary outcome was the mean change from baseline to week 8 in anhedonia-like symptoms as measured by MADRS anhedonia factor score, composed of: Q1, apparent sadness; Q2, reported sadness; Q6, concentration; Q7, lassitude; and Q8, inability to feel. Mean change in MADRS total score and anhedonia factor score were compared among treatment groups, with data categorized by median baseline anhedonia factor score (0-17 or ≥18). Data were available for 489 patients. The least-squares mean difference in MADRS anhedonia factor score change from baseline to week 8 versus placebo was -1.34 for vortioxetine 10 mg (&lt;i&gt;P&lt;/i&gt; = 0.0300) and -1.77 for vortioxetine 20 mg (&lt;i&gt;P&lt;/i&gt; = 0.0044). The least-squares mean difference between vortioxetine and placebo in MADRS total score change from baseline to week 8 was -3.11 (10 mg dose) and -3.37 (20 mg dose) for patients with a higher baseline anhedonia factor score (≥18), and -2.08 (10 mg) and -2.61 (20 mg) for patients with a lower baseline score (0-17). This post hoc analysis suggests that vortioxetine may have therapeutic potential in patients with anhedonia-like symptoms of major depressive disorder. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>25687662</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>This multicenter, randomized, double-blind, placebo-controlled, active-referenced (duloxetine 60 mg), parallel-group study evaluated the short-term efficacy and safety of vortioxetine (10-20 mg) on cognitive function in adults (aged 18-65 years) diagnosed with major depressive disorder (MDD) who self-reported cognitive dysfunction. Efficacy was evaluated using ANCOVA for the change from baseline to week 8 in the digit symbol substitution test (DSST)-number of correct symbols as the prespecified primary end point. The patient-reported perceived deficits questionnaire (PDQ) and physician-assessed clinical global impression (CGI) were analyzed in a prespecified hierarchical testing sequence as key secondary end points. Additional predefined end points included the objective performance-based University of San Diego performance-based skills assessment (UPSA) (ANCOVA) to measure functionality, MADRS (MMRM) to assess efficacy in depression, and a prespecified multiple regression analysis (path analysis) to calculate direct vs indirect effects of vortioxetine on cognitive function. Safety and tolerability were assessed at all visits. Vortioxetine was statistically superior to placebo on the DSST (P &lt; 0.05), PDQ (P &lt; 0.01), CGI-I (P &lt; 0.001), MADRS (P &lt; 0.05), and UPSA (P &lt; 0.001). Path analysis indicated that vortioxetine's cognitive benefit was primarily a direct treatment effect rather than due to alleviation of depressive symptoms. Duloxetine was not significantly different from placebo on the DSST or UPSA, but was superior to placebo on the PDQ, CGI-I, and MADRS. Common adverse events (incidence ⩾ 5%) for vortioxetine were nausea, headache, and diarrhea. In this study of MDD adults who self-reported cognitive dysfunction, vortioxetine significantly improved cognitive function, depression, and functionality and was generally well tolerated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>29807616</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Corrigendum to ``The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram'' [Journal of Affective Disorders, 227 (2018) 803-809].</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>37424427</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Potential Effect of Vortioxetine on Restless Leg Syndrome.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Restless legs syndrome (RLS) is a chronic progressive movement disorder characterized by abnormal sensations, especially at rest and at night, as the need and urge to move the lower extremity. It has been reported that RLS severity and frequency increase in patients with anxiety and depression. It has been reported that serotonin-noradrenaline reuptake inhibitors such as venlafaxine and selective serotonin reuptake inhibitors such as citalopram, fluoxetine, paroxetine, and sertraline can cause RLS symptoms. No adverse effects of vortioxetine on RLS have been reported in the literature. In this case series, we report the effect of vortioxetine in patients with RLS with symptoms of depression and anxiety. In this case series, the effect of adding vortioxetine to treatment on RLS symptoms is reported in 7 patients (5 female). After the use of vortioxetine, 5 of 7 patients' symptoms regressed without the need to start a separate drug for primary movement disorder. In conclusion, we believe that studies should be conducted to investigate the efficacy of vortioxetine in the treatment of RLS. Therefore, randomized controlled studies are needed to determine the effect and safety of vortioxetine on RLS symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>37115460</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Evidence-Based Pharmacotherapy of Anxiety Symptoms in Patients with Major Depressive Disorder: Focus on Agomelatine.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Patients with depression require thorough clinical assessment, which should include symptom profile, severity and staging, personality factors, antecedent and concurrent psychiatric comorbidity, physical comorbidity, neurocognitive function, exposure to stressors in early life (e.g. trauma) or recently (e.g. bereavement), and protective factors. The presence of anxiety symptoms in a depressed patient is associated with more severe depression, increased suicidality and worse outcomes compared with non-anxious depression. A network meta-analysis of antidepressant treatments found that agomelatine, citalopram, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine and vortioxetine were all significantly more effective than other antidepressants for the treatment of depression, and that agomelatine, citalopram, escitalopram, fluoxetine, sertraline and vortioxetine were better tolerated than other antidepressants. Agomelatine has been shown to have two major effects-relieving depressive symptoms, and supporting symptomatic and functional recovery-and these benefits have been demonstrated in patients with depression as well as in patients with generalised anxiety disorder, including those with more severe symptoms. Agomelatine has also been shown to be efficacious and well tolerated in patients with depression plus concomitant anxiety symptoms. A pooled analysis of data from six agomelatine studies of depression (three placebo-controlled and three with active comparators-fluoxetine, sertraline and venlafaxine) found that agomelatine was significantly more effective than placebo at relieving the anxiety subscore on the Hamilton Depression Rating Scale, and that the difference between agomelatine and placebo was even more marked in the subgroup of patients with severe anxiety symptoms at baseline. Irrespective of the pharmacotherapy used in patients with depression, the likelihoods of response and remission are increased when pharmacotherapy is combined with psychotherapy, with this approach being more effective than either pharmacotherapy or psychotherapy alone. Persistence with treatment is important, and clinicians should therefore encourage patients to keep trying to obtain relief.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>31725942</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Randomized, double-blind, placebo-controlled study to assess the efficacy and safety of vortioxetine in Japanese patients with major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The burden of major depressive disorder (MDD) in Japan is high. This study aimed to evaluate the efficacy and safety of the multimodal antidepressant vortioxetine in Japanese patients with MDD. Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score ≥ 26 were randomized to vortioxetine 10 or 20 mg or placebo in a phase-3, double-blind, 8-week study. The primary end-point was change in MADRS total score from baseline. Secondary end-points included MADRS response and remission rates, change in Hamilton Rating Scale for Depression-17 item (HAM-D17) score, and other measures of depressive symptoms, including Clinical Global Impression of Severity (CGI-S), Clinical Global Impression of Improvement (CGI-I), and Sheehan Disability Scale (SDS). Cognitive function was assessed using Digit Symbol Substitution Test (DSST) score and Perceived Deficits Questionnaire-5 item (PDQ-5) score. Vortioxetine 10 mg (n = 165) and 20 mg (n = 163) reduced MADRS total score by 2.66 and 3.07 points versus placebo (n = 161) after 8 weeks (P &lt; 0.01 for each dose), respectively. MADRS response and remission rates were also significantly greater with vortioxetine than with placebo (P &lt; 0.05 for both doses). Vortioxetine 10 and 20 mg significantly improved HAM-D17 score, CGI-I score, and SDS total score after 8 weeks. PDQ-5 score was significantly improved in subjects administered vortioxetine, while DSST scores showed no significant difference. Vortioxetine was generally well tolerated. Vortioxetine at both the 10- and 20-mg/day doses demonstrated robust antidepressant efficacy in Japanese patients with MDD, and was well tolerated over the 8-week treatment period.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>32765787</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Effects of Vortioxetine on depression model rats and expression of BDNF and Trk B in hippocampus.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Effects of Vortioxetine on the expression of brain-derived neurotrophic factor (BDNF) and tyrosine kinase B (Trk B) in hippocampus of depressive rats were investigated. Forty-five SD rats were randomly divided into three groups: model control, Vortioxetine and normal control group, with 15 rats in each group. The changes of body mass were recorded within 5 weeks, and the open field test, sugar water preference test and Morris water maze test were performed to evaluate the behavior and mental status of the rats. The expression of BDNF and Trk B in rat hippocampus was detected by enzyme-linked immuno sorbent assay. Compared with the model control group, the body mass, horizontal and vertical movement, sugar and water preference rate of the vortioxetine group in the 5th week were significantly higher than those of the model control group (P&lt;0.05), and significantly lower than those of the normal control group (P&lt;0.05). The escape latency of the Vortioxetine group within 4 days was significantly lower than that of model control group (P&lt;0.05), but higher than that of normal control group (P&lt;0.05). The target quadrant residence time of the Vortioxetine group was significantly lower than that of the model control group (P&lt;0.05), but higher than that of the normal control group (P&lt;0.05). Expression of BDNF and Trk B in the Vortioxetine group was significantly higher than that in the model control group (P&lt;0.05), but lower than that of the normal control group (P&lt;0.05). Collectively, Vortioxetine can effectively alleviate the symptoms of autonomous and exploratory behavior, and reduce the decrease of learning and memory in depressive rats. Vortioxetine can increase the expression of BDNF and Trk B in depressive rats and alleviate their depressive behavior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>35753689</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>33583460</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Comparative efficacy of pharmacological treatments on measures of self-rated functional outcomes using the Sheehan Disability Scale in patients with major depressive disorder: a systematic review and network meta-analysis.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>More than 50% patients with major depressive disorder (MDD) have severe functional impairment. The restoration of patient functioning is a critical therapeutic goal among patients with MDD. We conducted a systematic review and network meta-analysis to evaluate the efficacy of pharmacological treatments on self-rated functional outcomes using the Sheehan Disability Scale in adults with MDD in randomized clinical trials. PubMed, EMBASE, PsycINFO, Cochrane Library, and ClinicalTrials.gov were searched from inception to December 10, 2019. Summary statistics are reported as weighted mean differences with 95% confidence intervals. Interventions were ranked using the surface under the cumulative ranking probabilities. We included 42 randomized controlled trials (RCTs) (n = 18 998) evaluating the efficacy of 13 different pharmacological treatments on functional outcomes, as measured by the Sheehan Disability Scale (SDS). Duloxetine was the most effective pharmacological agent on functional outcomes, followed by (ranked by efficacy): paroxetine, levomilnacipran, venlafaxine, quetiapine, desvenlafaxine, agomelatine, escitalopram, amitriptyline, bupropion, sertraline, vortioxetine, and fluoxetine. Serotonin and norepinephrine reuptake inhibitors were more effective than other drug classes. Additionally, the comparison-adjusted funnel plot suggested the publication bias between small and large studies was relatively low. Our results indicate that there may be differences across antidepressant agents and classes with respect to self-reported functional outcomes. Validation and replication of these findings in large-scale RCTs are warranted. Our research results will be clinically useful for guiding psychiatrists in treating patients with MDD and functional impairment. PROSPERO registration number CRD42018116663.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>31930057</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Vortioxetine versus sertraline in metabolic control, distress and depression in Mexican patients with type 2 diabetes.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Depression in patients with type 2 diabetes (T2D) is often undiagnosed and remains untreated, leading to poor therapy adherence and ill health-related outcomes. We evaluated the effect of vortioxetine versus sertraline in the treatment of depression, distress and metabolic control in subjects with T2D and depression. Participants were selected from the Clinic for Diabetes, diagnosed with depression when the score was ≥14 in the Hamilton Depression Rating Scale, and verified by a psychiatrist in agreement with the DSM-5 instrument (Diagnostic and Statistical Manual of Mental Disorders, fifth edition). The criteria for recruitment also included glycosylated hemoglobin ≥7.5%, 18 to 60 years of age, and written informed consent. Pharmacological treatment for depression was assigned randomly: vortioxetine (10 mg/day) or sertraline (75 mg/day) for 8 weeks. Biochemical parameters, anthropometric measures and depression symptoms were evaluated after antidepressant treatment. This was a randomized singled-blind study. Subjects that met the inclusion criteria were 50, of which only 21 patients with T2D and depression finished the treatment. Vortioxetine and sertraline showed partial remission of depression. Vortioxetine showed a major effect size in glycosylated hemoglobin and a moderate effect size on weight loss, fasting plasma glucose (FPG), cholesterol and triacylglycerol levels. On the other hand, patients treated with sertraline presented a slight increase in body weight, body mass index (BMI), and in all biochemical markers. Vortioxetine may ameliorate depressive symptoms and metabolic control in patients with T2D and depression. Trial registration number: NCT03978286.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>29160598</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Randomized, 8-week, double-blind, placebo-controlled trial of vortioxetine in Japanese adults with major depressive disorder, followed by a 52-week open-label extension trial.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Safety and efficacy of vortioxetine (5-20 mg/day) in Japanese patients with major depressive disorder were evaluated in two phase 3 studies consisting of a short-term, 8-week, placebo-controlled, double-blind study followed by a long-term, 52-week, open-label extension study. The primary end-point of the short-term study was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8. The primary objective of the extension study was vortioxetine's long-term safety; efficacy end-points included change in MADRS total score, Clinical Global Impression Scale (CGI)-Severity (S) score from the long-term study baseline, and CGI-Improvement (CGI-I) score over 52 weeks. Of the 366 randomized patients, 338 completed the short-term study, and 119 patients continued into the extension study. Primary (analysis of covariance) and secondary (mixed model for repeated measurements) analyses in the short-term study showed numerically greater, but not statistically significant, decreases in change in MADRS total score from baseline between the vortioxetine and placebo groups at week 8. In the long-term study, 86.6% of patients reported at least one treatment-emergent adverse event, with the most common being nasopharyngitis (40.3%) and nausea (21%). MADRS total score and CGI-I and CGI-S scores improved with continued vortioxetine treatment from baseline of the open-label study to week 52. Vortioxetine failed to meet significance versus placebo in the primary efficacy analysis at week 8 in the short-term study. The extension trial indicated continued improvement of depressive symptoms from baseline of this study throughout the 52-week treatment period. Vortioxetine treatment was safe and well tolerated in both studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>37227402</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Head-To-Head Comparison of Vortioxetine Versus Desvenlafaxine in Patients With Major Depressive Disorder With Partial Response to SSRI Therapy: Results of the VIVRE Study.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Objective:&lt;/i&gt;&lt;/b&gt; To compare the efficacy of vortioxetine and the serotonin-norepinephrine reuptake inhibitor (SNRI) desvenlafaxine in patients with major depressive disorder (MDD) experiencing partial response to initial treatment with a selective serotonin reuptake inhibitor (SSRI). &lt;b&gt;&lt;i&gt;Methods:&lt;/i&gt;&lt;/b&gt; This randomized, double-blind, active-controlled, parallel-group, 8-week study of vortioxetine (10 or 20 mg/d; n = 309) versus desvenlafaxine (50 mg/d: n = 293) was conducted from June 2020 to February 2022 in adults with a &lt;i&gt;DSM-5&lt;/i&gt; diagnosis of MDD who experienced partial response to SSRI monotherapy. The primary endpoint was mean change from baseline to week 8 in Montgomery-Åsberg Depression Rating Scale (MADRS) total score. Differences between groups were analyzed using mixed models for repeated measures. &lt;b&gt;&lt;i&gt;Results:&lt;/i&gt;&lt;/b&gt; Non-inferiority of vortioxetine versus desvenlafaxine was established in terms of mean change from baseline to week 8 in MADRS total score; however, a numeric advantage was observed in favor of vortioxetine (difference, -0.47 MADRS points [95% CI, -1.61 to 0.67]; &lt;i&gt;P&lt;/i&gt; = .420). At week 8, significantly more vortioxetine-treated than desvenlafaxine-treated patients had achieved symptomatic and functional remission (ie, Clinical Global Impressions-Severity of Illness scale [CGI-S] score ≤ 2) (32.5% vs 24.8%, respectively; odds ratio = 1.48 [95% CI, 1.03 to 2.15]; &lt;i&gt;P&lt;/i&gt; = .034). Vortioxetine-treated patients also experienced significantly greater improvements in daily and social functioning assessed by the Functioning Assessment Short Test (&lt;i&gt;P = &lt;/i&gt;.009 and .045 vs desvenlafaxine, respectively) and reported significantly greater satisfaction with their medication assessed by the Quality of Life Enjoyment and Satisfaction Questionnaire (&lt;i&gt;P&lt;/i&gt; = .044). Treatment-emergent adverse events (TEAEs) were reported in 46.1% and 39.6% of patients in the vortioxetine and desvenlafaxine groups, respectively; these were mostly mild or moderate in intensity (&gt; 98% of all TEAEs in each group). &lt;b&gt;&lt;i&gt;Conclusions:&lt;/i&gt;&lt;/b&gt; Compared with the SNRI desvenlafaxine, vortioxetine was associated with significantly higher rates of CGI-S remission, better daily and social functioning, and greater treatment satisfaction in patients with MDD and partial response to SSRIs. These findings support the use of vortioxetine before SNRIs in the treatment algorithm in patients with MDD. &lt;b&gt;&lt;i&gt;Trial Registration:&lt;/i&gt;&lt;/b&gt; ClinicalTrials.gov Identifier: NCT04448431.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>27231256</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Which Cognitive Domains are Improved by Treatment with Vortioxetine?</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>These post hoc analyses evaluated vortioxetine efficacy on cognitive dysfunction in depression. Data were from a double-blind, randomized, fixed-dose, placebo-controlled, 8-week depression study in adults aged 18-65 years (n = 602) with DSM-IV-defined major depressive disorder (MDD). Subjects were randomized (1:1:1) to vortioxetine 10mg/day or 20mg/day or placebo. Cognitive function was assessed at baseline, Week 1 (10mg/day only) and Week 8 using Digit Symbol Substitution Test (DSST) number of correct symbols, Rey Auditory Verbal Learning Test, Trail Making Test, Stroop test, Simple Reaction Time, and Choice Reaction Time tests. The cognition variables were standardized and used for constructing composite Z-scores for the cognitive domains of executive function, attention/speed of processing, and memory. At Week 1, vortioxetine 10mg/day separated from placebo for attention/speed of processing (standardized composite Z-score = 0.21; p = 0.0238) and DSST number of correct symbols (standardized effect size = 0.18; p = 0.0458) and for executive function (standardized composite Z-score = 0.20; p = 0.0274). At Week 8, vortioxetine 10mg/day and 20mg/day separated from placebo for executive function and attention/speed of processing, with standardized composite Z-scores ranging from 0.35 to 0.49 (all p &lt; 0.01). Standardized composite Z-scores for memory were 0.31 ( p = 0.0036, 10mg/day) and 0.22 ( p = 0.0349, 20mg/day). Standardized effect sizes for DSST were 0.51 ( p &lt; 0.0001, 10mg/day) and 0.52 ( p &lt; 0.0001, 20mg/day). Results are limited by the post hoc nature of the analyses and the absence of an active reference in the original study. Vortioxetine (10 and 20mg/day) had a multi-domain beneficial effect on cognitive performance, as evidenced by improvements in measures of executive function, attention/speed of processing, and memory. The effect on the DSST may be due to improvements in several cognitive skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>34025474</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Gut Microbiota Changes in Patients With Major Depressive Disorder Treated With Vortioxetine.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vortioxetine hydrobromide is a common clinical medication for major depressive disorder (MDD). However, it remains unclear whether vortioxetine hydrobromide acts by affecting the structure and composition of gut microbiota. Here, we analyzed fecal samples from 28 healthy controls (HCs) and 26 patients with MDD before treatment with vortioxetine hydrobromide, at 4 weeks after treatment, and at 8 weeks after treatment. High-throughput pyrosequencing showed that, according to the Chao1 and Shannon indices, fecal bacterial α-diversity was higher in the patients with MDD than in the HCs (&lt;i&gt;p&lt;/i&gt; &lt; 0.05), but no significant differences were observed after vortioxetine hydrobromide treatment (&lt;i&gt;p&lt;/i&gt; &gt; 0.05). PCoA results revealed that the gut microbiota composition was significantly different between the MDD groups and HCs. Proteobacteria and Actinobacteria were strongly increased, whereas Firmicutes were significantly reduced in the MDD group compared with the HCs. After treatment with vortioxetine hydrobromide, Firmicutes were significantly increased, and the proportion of Bacteroidetes decreased. Most notably, &lt;i&gt;Lachnospira, Roseburia&lt;/i&gt;, and &lt;i&gt;Faecalibacterium&lt;/i&gt; were negatively correlated with the severity of depressive symptoms. Taken together, our data indicate changes in the fecal microbiota composition in MDD patients compared with HCs, and vortioxetine hydrobromide may treat MDD through regulation of the gut microflora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>38420046</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Effect of Vortioxetine in Comparison to Fluoxetine on Metabolic Parameters in Patients With Depressive Disorder: A Randomized Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Background Major depressive disorder (MDD) is a debilitating mood disorder that increases the risk of metabolic syndrome (MS), emphasizing the need for mental and physical health treatments. Although many studies have linked atypical antipsychotics to metabolic disturbances, there is limited evidence linking selective serotonin reuptake inhibitor use to MS. This study aimed to assess the risk of MS among patients with MDD who were administered vortioxetine and fluoxetine. Methodology This was a prospective, open-label, randomized controlled trial conducted in the psychiatry department. Using computer-generated random numbers, the physician assigned fluoxetine 20 mg or vortioxetine 10 mg and recorded MS parameters at baseline and each visit (4, 8, 12, 16, 20, and 24 weeks). This study was registered with CTRI (CTRI/2021/07/034892). Results A total of 122 participants were allocated randomly to the following two groups: group A (n = 60) and group B (n = 62). An independent-sample t-test showed a significant improvement in fasting plasma glucose (FPG) at week eight (p = 0.005), triglycerides (TGs) at week 16 (p = 0.005), high-density lipoprotein (HDL) at week 20 (p = 0.005), and waist circumference at week 24 (p = 0.005) in group A compared to group B. However, systolic blood pressure (SBP) and diastolic blood pressure (DBP) were not significantly associated with either group (p = 0.126 and p = 0.793, respectively). Overall depression remission (Hamilton Depression Rating Scale (HAM-D)) and medication adherence rating scale scores were similar between groups (p = 0.337 and 0.325, respectively). Furthermore, most adverse drug reactions were possibly associated with the study drugs. Conclusions In comparison to group B, group A showed significant improvements in FPG, HDL, and waist circumference more effectively; however, both groups led to higher TG levels, with non-significant numerical improvements observed in SBP and DBP in both groups. In addition, both treatment groups reduced the HAM-D score and had a similar MDD remission rate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>29238196</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>The role of new antidepressants in clinical practice in Canada: a brief review of vortioxetine, levomilnacipran ER, and vilazodone.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Although many branded and generic antidepressants are approved for the treatment of major depressive disorder (MDD) in Canada, efficacy and tolerability differ among patients, and new treatment options are needed. Symptom types (eg, fatigue, energy/motivation, cognition, and functioning), medication type, treatment duration, and the need for maintenance therapy are factors that may influence treatment effectiveness. Three antidepressants, vortioxetine, levomilnacipran extended-release (ER), and vilazodone have recently become available in Canada. The aim of this review is to contextualize differences in their mechanistic and clinical profiles, thereby providing practitioners with knowledge to support treatment decisions. In trials versus placebo, each drug improved depressive symptoms in adult patients with MDD. The antidepressant effect of vortioxetine may be related to enhanced serotonergic activity via reuptake inhibition and agonism and/or antagonism of various serotonin receptors. Vortioxetine may also improve cognitive functioning in MDD, and has proven efficacious in relapse prevention. Nausea was the most commonly reported adverse event (AE); rates of sexual dysfunction were low and abrupt discontinuation was well tolerated. Levomilnacipran ER, a serotonin norepinephrine reuptake inhibitor, demonstrated greater improvement versus placebo in functional impairment as well as depressive symptoms; in post hoc analyses, improvement in symptoms of motivation and energy were observed. Nausea was the most commonly reported AE; gradual discontinuation is recommended to avoid discontinuation syndrome. Vilazodone is a serotonin reuptake inhibitor and partial serotonergic 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonist. In addition to improvement in depressive symptoms, evidence suggests that vilazodone may be particularly well suited for depressed patients with high anxiety levels. Diarrhea, nausea, and headache were the most common AEs; low rates of sexual dysfunction were reported. The 2016 Canadian Network for Mood and Anxiety Treatments guidelines for MDD includes vortioxetine as a first-line treatment; levomilnacipran ER and vilazodone are considered as second-line treatments due to lack of relapse prevention data at the time of approval.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>29123483</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Impact of Vortioxetine on Synaptic Integration in Prefrontal-Subcortical Circuits: Comparisons with Escitalopram.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Prefrontal-subcortical circuits support executive functions which often become dysfunctional in psychiatric disorders. Vortioxetine is a multimodal antidepressant that is currently used in the clinic to treat major depressive disorder. Mechanisms of action of vortioxetine include serotonin (5-HT) transporter blockade, 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonism, 5-HT&lt;sub&gt;1B&lt;/sub&gt; receptor partial agonism, and 5-HT&lt;sub&gt;1D&lt;/sub&gt;, 5-HT&lt;sub&gt;3&lt;/sub&gt;, and 5-HT&lt;sub&gt;7&lt;/sub&gt; receptor antagonism. Vortioxetine facilitates 5-HT transmission in the medial prefrontal cortex (mPFC), however, the impact of this compound on related prefrontal-subcortical circuits is less clear. Thus, the current study examined the impact of systemic vortioxetine administration (0.8 mg/kg, i.v.) on spontaneous spiking and spikes evoked by electrical stimulation of the mPFC in the anterior cingulate cortex (ACC), medial shell of the nucleus accumbens (msNAc), and lateral septal nucleus (LSN) in urethane-anesthetized rats. We also examined whether vortioxetine modulated afferent drive in the msNAc from hippocampal fimbria (HF) inputs. Similar studies were performed using the selective 5-HT reuptake inhibitor [selective serotonin reuptake inhibitors (SSRI)] escitalopram (1.6 mg/kg, i.v.) to enable comparisons between the multimodal actions of vortioxetine and SSRI-mediated effects. No significant differences in spontaneous activity were observed in the ACC, msNAc, and LSN across treatment groups. No significant impact of treatment on mPFC-evoked responses was observed in the ACC. In contrast, vortioxetine decreased mPFC-evoked activity recorded in the msNAc as compared to parallel studies in control and escitalopram treated groups. Thus, vortioxetine may reduce mPFC-msNAc afferent drive via a mechanism that, in addition to an SSRI-like effect, requires 5-HT receptor modulation. Recordings in the LSN revealed a significant increase in mPFC-evoked activity following escitalopram administration as compared to control and vortioxetine treated groups, indicating that complex modulation of 5-HT receptors by vortioxetine may offset SSRI-like effects in this region. Lastly, neurons in the msNAc were more responsive to stimulation of the HF following both vortioxetine and escitalopram administration, indicating that elevation of 5-HT tone and 5-HT receptor modulation may facilitate excitatory hippocampal synaptic drive in this region. The above findings point to complex 5-HT receptor-dependent effects of vortioxetine which may contribute to its unique impact on the function of prefrontal-subcortical circuits and the development of novel strategies for treating mood disorders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>36561896</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Treatment-Resistant Bipolar Depression: Therapeutic Trends, Challenges and Future Directions.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Bipolar disorder (BD) is a chronic mental illness impacting 1-2% of the population worldwide and causing high rates of functional impairment. Patients with BD spend most of their time in depressive episodes and up to one-third of patients do not respond to adequate doses of medications. Although no consensus exists for definition of treatment-resistant bipolar depression (TRBD), failure of symptoms improvement despite an adequate trial of two therapeutic agents is a common theme of TRBD. In this paper, we review the evidence base of therapeutic interventions, challenges, and potential future directions for TRBD. We conducted a literature search for randomized controlled trials on PubMed for the treatment of TRBD and ongoing trials for the treatment of TRBD/bipolar depression on clinicaltrials.gov. Several therapeutic agents have been investigated for TRBD. Adjunctive pramipexole and modafinil have data supporting short-term efficacy in TRBD, along with limited data for racemic intravenous ketamine. Celecoxib augmentation of escitalopram and treatment with metformin in patients with insulin resistance showed promising results. Right unilateral electroconvulsive therapy displayed statistically significant response rate and improvement, but not remission compared to pharmacotherapy. Trials for transcranial magnetic stimulation (TMS) have failed to show a significant difference from sham treatment in TRBD. Pharmacological treatments with novel mechanisms of actions like brexpiprazole and vortioxetine are being investigated following successes in unipolar depression. Modified TMS protocols such as accelerated TMS are under investigation. Innovative approaches like psychedelic-assisted psychotherapy, interleukin-2, fecal microbiota transplantation and multipotent stromal cells are being studied. Evidence on current treatment modalities for TRBD is limited with low efficacy. More research is needed for successful treatment of TRBD. Effective therapies and innovative approaches to treatment are being investigated and could show promise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>35815048</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Systematic Review and Meta-Analysis of Vortioxetine for the Treatment of Major Depressive Disorder in Adults.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>We aimed to compare the efficacy, acceptability, and tolerability of vortioxetine in the treatment of Major Depressive Disorder (MDD) in adults. We searched PubMed, Embase, Web of Science, Cochrane Central Register of Controlled Clinical Trials (CENTRAL), and www.ClinicalTrials.gov for randomized controlled trials that examined vortioxetine vs. placebo or other antidepressants for the treatment of MDD from database inception to August 30, 2021, using keywords Vortioxetine, Brintellix, Trintellix, LuAA21004, major depressive disorder, mood disorder, affective disorder, and MDD. We identified 789 publications after removing duplicates. After screening, 20 eligible randomized controlled trials were identified, of which 19 were included in the final meta-analysis. We included adults (aged 18 years and older) with a primary diagnosis of MDD. Two review authors independently selected the studies and extracted data. We extracted data on study characteristics, participant characteristics, intervention details and outcome measures in terms of efficacy, acceptability, and tolerability. Analyses were performed using random-effects models, and outcomes were pooled as risk ratios (RRs) and standardized mean differences (SMDs). In total, 20 studies (8,547 participants) met the inclusion criteria. Vortioxetine outperformed the placebo in efficacy outcomes, including response (RR 1.35, 95% CI 1.23-1.48; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), remission (RR 1.33, 95% CI 1.17-1.52; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), and cognitive function (SMD 0.34, 95% CI 0.16-0.52; &lt;i&gt;P&lt;/i&gt; = 0.0003). Compared with the serotonin noradrenaline reuptake inhibitors (SNRIs), vortioxetine had better tolerability (RR 0.90, 95% CI 0.86-0.94; &lt;i&gt;P&lt;/i&gt; &lt; 0.001) but no significant difference in response (RR 0.91, 95%CI 0.82-1.00; &lt;i&gt;P&lt;/i&gt; = 0.06) or remission (RR: 0.99, 95% CI 0.81-1.20, &lt;i&gt;P&lt;/i&gt; = 0.88). Vortioxetine had no difference in response (RR 1.08, 95% CI 0.88-1.32; &lt;i&gt;P&lt;/i&gt; = 0.46), remission (RR 1.00, 95% CI 0.41-2.44; &lt;i&gt;P&lt;/i&gt; = 1.00) comparing with selective serotonin reuptake inhibitors (SSRIs). Vortioxetine is more advantageous over placebo in treating MDD among adults, but no significant difference compared to SNRIs and SSRIs in general. https://www.crd.york.ac.uk/PROSPERO/display_record.php?ID=CRD42021278355, identifier: CRD42021278355.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>35698594</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>The Incidence and Costs of Adverse Events Associated with Antidepressants: Results from a Systematic Review, Network Meta-Analysis and Multi-Country Economic Model.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>There is variation in the safety profile of antidepressants. Rates of adverse events along with the costs of treating them can be an important factor influencing the choice of depression treatment. This study sought to estimate the comparative safety of commonly prescribed antidepressants, and how the costs of treating these varied across European countries. A systematic literature review was conducted (in Medline, Embase, PsycINFO and CENTRAL) to identify placebo-controlled trials reporting rates of at least one type of sexual dysfunction, weight change, insomnia, anxiety, and anhedonia. Eight antidepressants were considered: duloxetine, escitalopram, fluoxetine, paroxetine, sertraline, trazodone, venlafaxine, and vortioxetine. This evidence was synthesised via Bayesian random effects network meta-analyses to provide comparative estimates of safety. A systematic search identified country-specific costs of managing depression and adverse events of antidepressants. Evidence on costs and safety was combined in an economic model to provide country-specific costs for Bulgaria, the Czech Republic, Greece, Hungary, Italy, Romania, Slovakia, Portugal, and Poland. Trazodone had the lowest rates of both insomnia (odds ratio 0.66, 95% credible interval 0.31 to 1.38) and anxiety (0.13, &lt;0.01 to 1.80). All antidepressants were associated with increased rates of sexual dysfunction relative to placebo. Weight change was largest for fluoxetine (kg change -1.01, -1.40 to -0.60) and sertraline (-1.00, -1.36 to -0.65), although heterogeneity was extreme for this outcome. No evidence was identified for anhedonia. Total costs were lowest for trazodone in all nine of the countries evaluated. This was primarily due to reduced rates of treatment discontinuation. Trazodone generally had the best safety profile of the antidepressants evaluated. This led to healthcare costs being lowest for trazodone in all nine European countries, emphasising the importance of considering rates of adverse events when choosing a pharmacological treatment to treat symptoms of depression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>21767441</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A double-blind, randomized, placebo-controlled, active reference study of Lu AA21004 in patients with major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The efficacy, safety, and tolerability of Lu AA21004 vs. placebo using venlafaxine XR as active reference in patients with DSM-IV-TR major depressive disorder (MDD) were evaluated. Lu AA21004 is a novel antidepressant that is a 5-HT3 and 5-HT7 receptor antagonist, 5-HT1A receptor agonist, 5-HT1B receptor partial agonist and inhibitor of the 5-HT transporter in recombinant cell lines. In this 6-wk, multi-site study, 429 patients were randomly assigned (1:1:1:1) to 5 or 10 mg Lu AA21004, placebo or 225 mg venlafaxine XR. All patients had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 30. The primary efficacy analysis was based on the MADRS total score adjusting for multiplicity using a hierarchical testing procedure starting with the highest dose vs. placebo. Lu AA21004 was statistically significantly superior to placebo (n=105) in mean change from baseline in MADRS total score at week 6 (p&lt;0.0001, last observation carried forward), with a mean treatment difference vs. placebo of 5.9 (5 mg, n=108), and 5.7 (10 mg, n=100) points. Venlafaxine XR (n=112) was also significantly superior to placebo at week 6 (p&lt;0.0001). In total, 30 patients withdrew due to adverse events (AEs)--placebo: four (4%); 5 mg Lu AA21004: three (3%); 10 mg Lu AA21004: seven (7%); and venlafaxine: 16 (14%). The most common AEs were nausea, headache, hyperhidrosis, and dry mouth. No clinically relevant changes over time were seen in the clinical laboratory results, vital signs, weight, or ECG parameters. In this study, treatment with 5 mg and 10 mg Lu AA21004 for 6 wk was efficacious and well tolerated in patients with MDD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>29760763</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>An open-label, flexible dose adaptive study evaluating the efficacy of vortioxetine in subjects with panic disorder.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Despite the current treatments available for panic disorder (PD), as many as one-third of patients have persistent and treatment-resistant panic attacks. Vortioxetine is an approved medicine for major depressive disorder and has been shown to have anxiolytic properties. The purpose of this study was to evaluate its efficacy and safety in an adult population with a diagnosis of PD. The study design was open label with flexible dose strategies (5, 10, or 20 mg) with a treatment period of 10 weeks. 27 male and female subjects aged between 18 and 60 years, who met DSM-IV criteria for PD with or without agoraphobia, or who had a Panic Disorder Severity Scale (PDSS) score &gt; 8 at baseline were enrolled. Statistical significance was established by the Student's &lt;i&gt;T&lt;/i&gt; test. A statistically significant decrease in the occurrence of panic attacks was measured with the PDSS with vortioxetine. In addition, a moderate improvement in the quality of life and no significant side effects were observed using the Quality-of-Life Scale and Monitoring of Side Effects Scale, respectively. These results provide some support for the use of vortioxetine in the management of panic disorder.&lt;i&gt;Trial registration&lt;/i&gt; ClinicalTrials.gov ID#: NCT02395510. Registered March 23, 2015, https://clinicaltrials.gov/ct2/show/NCT02395510.</t>
         </is>
       </c>
     </row>

--- a/Pipeline/PubMed_Data.xlsx
+++ b/Pipeline/PubMed_Data.xlsx
@@ -453,1238 +453,1238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23252878</t>
+          <t>29160598</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A randomized, double-blind trial of 2.5 mg and 5 mg vortioxetine (Lu AA21004) versus placebo for 8 weeks in adults with major depressive disorder.</t>
+          <t>Randomized, 8-week, double-blind, placebo-controlled trial of vortioxetine in Japanese adults with major depressive disorder, followed by a 52-week open-label extension trial.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is an investigational antidepressant. In vitro studies indicate that vortioxetine is a 5-HT(3), 5-HT(7), and 5-HT(1D) receptor antagonist, 5-HT(1B) receptor partial agonist, 5-HT(1A) receptor agonist and inhibitor of the 5-HT transporter. This trial assessed the efficacy and tolerability of 2.5 and 5 mg vortioxetine for the treatment of MDD. Adults (N = 611) with MDD were randomized to 8 weeks of double-blind treatment with placebo, vortioxetine (2.5 or 5 mg) or active reference (duloxetine 60 mg). The primary measure was change from baseline in the 24-item Hamilton Depression Scale (HAM-D24). Secondary endpoints included responder rate, Clinical Global Impression Scale-Global Improvement scale (CGI-I), and remission rate. Participants were monitored for adverse events (AEs), and treatment-emergent sexual dysfunction using the Arizona Sexual Experiences (ASEX) scale. Both doses of vortioxetine were associated with declines in HAM-D24 total scores compared to placebo but were not statistically significant. At 8 weeks, changes from baseline were [mean (SE)]: -10.50 (0.76) placebo, -12.04 (0.74) 2.5 mg vortioxetine, and -11.08 (0.74) 5 mg vortioxetine. Secondary outcome measures in the vortioxetine groups, including responder rate, CGI-I, and remission rate, were also not significantly different from placebo. Duloxetine treatment was associated with declines in HAM-D24 total score [-13.47(0.75); p = 0.005] as well as significant improvements in secondary outcome measures versus placebo (p ≤ 0.05). The most common AEs for vortioxetine were nausea, dry mouth, and headache. Rates of sexual dysfunction (ASEX) were 51.0%, 37.5%, 46.9%, and 33.3% in the vortioxetine 2.5 mg, vortioxetine 5 mg, duloxetine, and placebo groups, respectively. In this study of adults with MDD treated for 8 weeks with vortioxetine 2.5 mg or 5 mg per day, reductions in depression symptoms were not statistically significant compared with placebo. Study limitations are discussed, including patient characteristics, MDD severity, drug dosing, and aspects of trial design. Both doses of vortioxetine were well tolerated. This trial has been registered at clinicaltrials.gov #NCT00672620.</t>
+          <t>Safety and efficacy of vortioxetine (5-20 mg/day) in Japanese patients with major depressive disorder were evaluated in two phase 3 studies consisting of a short-term, 8-week, placebo-controlled, double-blind study followed by a long-term, 52-week, open-label extension study. The primary end-point of the short-term study was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8. The primary objective of the extension study was vortioxetine's long-term safety; efficacy end-points included change in MADRS total score, Clinical Global Impression Scale (CGI)-Severity (S) score from the long-term study baseline, and CGI-Improvement (CGI-I) score over 52 weeks. Of the 366 randomized patients, 338 completed the short-term study, and 119 patients continued into the extension study. Primary (analysis of covariance) and secondary (mixed model for repeated measurements) analyses in the short-term study showed numerically greater, but not statistically significant, decreases in change in MADRS total score from baseline between the vortioxetine and placebo groups at week 8. In the long-term study, 86.6% of patients reported at least one treatment-emergent adverse event, with the most common being nasopharyngitis (40.3%) and nausea (21%). MADRS total score and CGI-I and CGI-S scores improved with continued vortioxetine treatment from baseline of the open-label study to week 52. Vortioxetine failed to meet significance versus placebo in the primary efficacy analysis at week 8 in the short-term study. The extension trial indicated continued improvement of depressive symptoms from baseline of this study throughout the 52-week treatment period. Vortioxetine treatment was safe and well tolerated in both studies.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29277417</t>
+          <t>35799757</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reprint of: Contrasting effects of vortioxetine and paroxetine on pineal gland biochemistry in a tryptophan-depletion model of depression in female rats.</t>
+          <t>Clinical efficacy of Vortioxetine and escitalopram in the treatment of depression.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>We studied the effects of the multi-modal antidepressant, vortioxetine and the SSRI, paroxetine on pineal melatonin and monoamine synthesis in a sub-chronic tryptophan (TRP) depletion model of depression based on a low TRP diet. Female Sprague-Dawley rats were randomised to groups a) control, b) low TRP diet, c) low TRP diet+paroxetine and d) low TRP diet+vortioxetine. Vortioxetine was administered via the diet (0.76mg/kg of food weight) and paroxetine via drinking water (10mg/kg/day) for 14days. Both drugs resulted in SERT occupancies &gt;90%. Vortioxetine significantly reversed TRP depletion-induced reductions of pineal melatonin and serotonin (5-HT) and significantly increased pineal noradrenaline NA. Paroxetine did none of these things. Other studies suggest pineal melatonin synthesis may involve N-methyl-d-aspartate (NMDA) receptors and glutamatergic modulation. Here observed changes may be mediated via vortioxetine's strong 5-HT reuptake blocking action together with possible additional effects on glutamate neurotransmission in the pineal via NMDA receptor-modulation and possibly with added impetus from increased NA output.</t>
+          <t>This study was aimed to investigate the efficacy and safety of vortioxetine hydrobromide in the treatment of major depressive disorder (MDD). One hundred and eighty patients with the newly diagnosed depression in our hospital between August 2018 and August 2019 were selected and randomly divided into an observation group and a control group, 90 each group. The control group was treated with escitalopram, and the observation group was treated with voltaxetine. The efficacy and adverse reactions were evaluated by the Hamilton Depression scale-17 (HAMD-17), Sheehan Disability Scale (SDS), Perceived Deficits Questionnaire-Depression (PDQ-D), and treatment emergent symptom scale (TESS) before treatment and at the end of the 8th and 24th week after treatment. At the end of the 8th and 24th week after treatment, the HAMD-17 scores of the two groups were lower than those before treatment (P&lt;0.05); at the end of the 8th and 24th week after treatment, the PDQ-D and SDS scores of the two groups were lower than those before treatment (P&lt;0.05), and the above scores of the observation group were lower than those of the control group (P&lt;0.05). There was no significant difference in the incidence of adverse reactions between the two groups (P&gt;0.05). Voltaxetine can improve cognitive function and clinical symptoms of patients with severe depression and has high safety, which is worth clinical attention.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25075188</t>
+          <t>39654656</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pharmacology and clinical potential of vortioxetine in the treatment of major depressive disorder.</t>
+          <t>A Randomized Controlled Study of Efficacy and Cognitive Function Improvement of Vortioxetine and Escitalopram in Patients with Depression in Chinese Han Nationality.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VORTIOXETINE IS A NEW MULTIMODAL ACTION ANTIDEPRESSANT WITH TWO TYPES OF ACTION: serotonin transporter (SERT) blockade and a strong affinity for several serotoninergic receptors. It is an antagonist of the 5-HT3 and 5-HT7 receptors, a partial agonist of 5-HT1B, and an agonist of 5-HT1A. Its combined action on SERT and four subtypes of serotoninergic receptors increases the extracellular concentration of serotonin, dopamine, and noradrenaline. Twelve clinical trials have been carried out, nine of which had positive results versus placebo. When active comparators were included in the study design, no significant differences were found except in one study in which the efficacy of vortioxetine was superior to the comparator (agomelatine) in depression resistant to selective serotonin reuptake inhibitors (SSRI)/serotonin-norepinephrine reuptake inhibitors (SNRI) treatment. Tolerability studies indicate that the drug does not cause any important problems on blood tests, vital signs, or on electrocardiography. The lack of weight gain and induction of metabolic syndrome and the lack of significant changes in the QTc are especially important. The incidence rate of sexual dysfunction is low and similar to placebo in various trials. Similarly, cognitive function remains intact with vortioxetine.</t>
+          <t>To assess the efficacy and safety of Vortioxetine and Escitalopram in improving cognition in patients with major depressive disorder (MDD). At baseline, 131 MDD patients and 70 healthy controls completed the Hamilton Depression Scale (HAMD-17), Hamilton Anxiety Scale (HAMA), Snaith-Hamilton Pleasure Scale (SHAPS) and MATRICS Consensus Cognitive Battery (MCCB). Patients with MDD were randomly divided into Vortioxetine (n = 62) and Escitalopram (n = 69) groups with an 8-week follow-up research. ANOVA for repeated measurement was utilized to compare the efficacy of Vortioxetine and Escitalopram. The total scores of HAMD-17, HAMA and SHAPS scales had statistical difference between MDD cases and healthy controls (P &lt; 0.001) at baseline. After 8 weeks of treatment, the scale scores of the HAMD-17, HAMA and SHAPS had lowered in both groups, with no statistical difference between two groups (P &gt; 0.05). At baseline, MDD patients had defects in Speed of Processing, Attention Vigilance, Verbal Learning, Visual Learning, Reasoning and Problem Solving, and Social Cognition, compared with healthy controls. After 8 weeks of treatment with Vortioxetine or Escitalopram, the patients had improved in the aspects of cognitive functions above except Social Cognition. Numerical improvements of MCCB scale were found in the two groups, P &gt; 0.05. Most adverse events were mild or moderate, with nausea being the most common adverse event. Both Vortioxetine and Escitalopram can improve the mental status and cognitive functions in MDD patients, with mild or moderate adverse events. www.chictr.org.cn, identifier: ChiCTR1900024858.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27312740</t>
+          <t>37227402</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Effects of Vortioxetine on Cognitive Function in Patients with Major Depressive Disorder: A Meta-Analysis of Three Randomized Controlled Trials.</t>
+          <t>Head-To-Head Comparison of Vortioxetine Versus Desvenlafaxine in Patients With Major Depressive Disorder With Partial Response to SSRI Therapy: Results of the VIVRE Study.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Management of cognitive deficits in Major Depressive Disorder (MDD) remains an important unmet need. This meta-analysis evaluated the effects of vortioxetine on cognition in patients with MDD. Random effects meta-analysis was applied to three randomized, double-blind, placebo-controlled 8-week trials of vortioxetine (5-20mg/day) in MDD, and separately to two duloxetine-referenced trials. The primary outcome measure was change in Digit Symbol Substitution Test (DSST) score. Standardized effect sizes (SES) versus placebo (Cohen's d ) were used as input. Path analysis was employed to determine the extent to which changes in DSST were mediated independently of a change in Montgomery-Åsberg Depression Rating Scale (MADRS) score. Meta-analysis was applied to MADRS-adjusted and -unadjusted SES values. Changes on additional cognitive tests were evaluated (source studies only). Before adjustment for MADRS, vortioxetine separated from placebo on DSST score (SES 0.25-0.48; nominal p &lt; 0.05) in all individual trials, and statistically improved DSST performance versus placebo in meta-analyses of the three trials (SES = 0.35; p &lt; 0.0001) and two duloxetine-referenced trials (SES = 0.26; p = 0.001). After adjustment for MADRS, vortioxetine maintained DSST improvement in one individual trial ( p = 0.001) and separation from placebo was maintained in meta-analyses of all three trials (SES = 0.24; p &lt; 0.0001) and both duloxetine-referenced trials (SES 0.19; p = 0.01). Change in DSST with duloxetine failed to separate from placebo in individual trials and both meta-analyses. Change in DSST statistically favored vortioxetine versus duloxetine after MADRS adjustment (SES = 0.16; p = 0.04). Vortioxetine, but not duloxetine, significantly improved cognition, independent of depressive symptoms. Vortioxetine represents an important treatment for MDD-related cognitive dysfunction.</t>
+          <t>&lt;b&gt;&lt;i&gt;Objective:&lt;/i&gt;&lt;/b&gt; To compare the efficacy of vortioxetine and the serotonin-norepinephrine reuptake inhibitor (SNRI) desvenlafaxine in patients with major depressive disorder (MDD) experiencing partial response to initial treatment with a selective serotonin reuptake inhibitor (SSRI). &lt;b&gt;&lt;i&gt;Methods:&lt;/i&gt;&lt;/b&gt; This randomized, double-blind, active-controlled, parallel-group, 8-week study of vortioxetine (10 or 20 mg/d; n = 309) versus desvenlafaxine (50 mg/d: n = 293) was conducted from June 2020 to February 2022 in adults with a &lt;i&gt;DSM-5&lt;/i&gt; diagnosis of MDD who experienced partial response to SSRI monotherapy. The primary endpoint was mean change from baseline to week 8 in Montgomery-Åsberg Depression Rating Scale (MADRS) total score. Differences between groups were analyzed using mixed models for repeated measures. &lt;b&gt;&lt;i&gt;Results:&lt;/i&gt;&lt;/b&gt; Non-inferiority of vortioxetine versus desvenlafaxine was established in terms of mean change from baseline to week 8 in MADRS total score; however, a numeric advantage was observed in favor of vortioxetine (difference, -0.47 MADRS points [95% CI, -1.61 to 0.67]; &lt;i&gt;P&lt;/i&gt; = .420). At week 8, significantly more vortioxetine-treated than desvenlafaxine-treated patients had achieved symptomatic and functional remission (ie, Clinical Global Impressions-Severity of Illness scale [CGI-S] score ≤ 2) (32.5% vs 24.8%, respectively; odds ratio = 1.48 [95% CI, 1.03 to 2.15]; &lt;i&gt;P&lt;/i&gt; = .034). Vortioxetine-treated patients also experienced significantly greater improvements in daily and social functioning assessed by the Functioning Assessment Short Test (&lt;i&gt;P = &lt;/i&gt;.009 and .045 vs desvenlafaxine, respectively) and reported significantly greater satisfaction with their medication assessed by the Quality of Life Enjoyment and Satisfaction Questionnaire (&lt;i&gt;P&lt;/i&gt; = .044). Treatment-emergent adverse events (TEAEs) were reported in 46.1% and 39.6% of patients in the vortioxetine and desvenlafaxine groups, respectively; these were mostly mild or moderate in intensity (&gt; 98% of all TEAEs in each group). &lt;b&gt;&lt;i&gt;Conclusions:&lt;/i&gt;&lt;/b&gt; Compared with the SNRI desvenlafaxine, vortioxetine was associated with significantly higher rates of CGI-S remission, better daily and social functioning, and greater treatment satisfaction in patients with MDD and partial response to SSRIs. These findings support the use of vortioxetine before SNRIs in the treatment algorithm in patients with MDD. &lt;b&gt;&lt;i&gt;Trial Registration:&lt;/i&gt;&lt;/b&gt; ClinicalTrials.gov Identifier: NCT04448431.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>32677291</t>
+          <t>27013879</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Editorial Perspective: Antidepressants and the depressed adolescent.</t>
+          <t>The efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder: a meta-analysis of randomized controlled trials.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A paper considering the role of antidepressants for adults with major depression was recently published in the Lancet, a world leading medical journal (Cipriani et al. 2018). The review was the largest ever on this topic based on 28,552 citations including 522 trials comprising 116,477 participants. The authors note that, in adults with major depression, all antidepressants were more efficacious than placebo. In head-to-head studies, the authors also note that agomelatine, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine, and vortioxetine were more effective than other antidepressants whereas fluoxetine, fluvoxamine, reboxetine, and trazodone were the least efficacious. The authors report that the standardised mean difference was 0.3 a moderate effect size for any antidepressant over placebo, this is confirmatory of past reviews noting rather similar magnitudes of effect. In clinical terms the results suggest a choice for practitioners in regard to their individual patients. For many adult depressed patients however, there is also the implication that antidepressants may not work. The old adage 'what works for whom' remains unanswered. What does seem reasonable to conclude is that we have learnt that these medications are clinically effective and the questions for research now must be who is likely to benefit and who is not, how do these medicines work, and what is the best long-term management of responders as the majority of studies have focused on acute response only.</t>
+          <t>Vortioxetine is an investigational multimodal antidepressant. We conducted this meta-analysis to assess the efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder (MDD). Randomized controlled trials (RCTs) published in PubMed, Web of Science, Embase, and ClinicalTrials.gov were systematically reviewed to assess the treatment effects and safety profiles of patients with MDD who were treated with 10 mg vortioxetine. The outcome measures included response rate, remission rate, changes from baseline in Montgomery-Asberg Depression Rating Scale (MADRS), Hamilton Rating Scale for Depression (24-items) (HAM-D24), Clinical Global Impression-Severity (CGI-S), and Clinical Global Impression-Improvement (CGI-I) scores. Results were expressed with risk ratio or weighted mean difference with 95% confidence intervals. Pooled results were calculated using a fixed-effects model or a random-effects model according to the heterogeneity among included trials. Six RCTs with a total of 1,801 patients met the inclusion criteria and were included in this meta-analysis. The 10 mg vortioxetine dose significantly increased the response rate and remission rate in the treatment of MDD compared with placebo. Moreover, there was a statistically significant reduction from baseline in the MADRS, HAM-D24, CGI-S, and CGI-I scores with 10 mg vortioxetine vs placebo. The incidence of treatment-emergent adverse events such as nausea, vomiting, constipation, and hyperhidrosis was higher in the 10 mg vortioxetine group than in the placebo group. Vortioxetine 10 mg can significantly increase the response rate and remission rate, and reduce the MADRS, HAM-D24, CGI-S, and CGI-I scores in patients with MDD with an acceptable risk of treatment-emergent adverse events. Further well-conducted, large-scale trials are needed to validate these findings.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25575488</t>
+          <t>33628415</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, duloxetine-referenced study comparing efficacy and tolerability of 2 fixed doses of vortioxetine in the acute treatment of adults with MDD.</t>
+          <t>Focus on Depression in Parkinson's Disease: A Delphi Consensus of Experts in Psychiatry, Neurology, and Geriatrics.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vortioxetine has reduced depressive symptoms in adults with major depressive disorder (MDD) in multiple clinical trials. The aim of this study is to evaluate the efficacy, safety, and tolerability of vortioxetine 15 and 20 mg vs placebo in adults with MDD. Patients were randomized 1:1:1:1 to vortioxetine 15 mg, vortioxetine 20 mg, duloxetine 60 mg (active reference), or placebo. The primary efficacy endpoint was mean change in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8 (MMRM). Safety/tolerability assessments included physical examinations, vital signs, laboratory evaluations, electrocardiograms, adverse events (AEs), Columbia-Suicide Severity Rating Scale, Arizona Sexual Experiences Scale, and Discontinuation-Emergent Signs and Symptoms checklist. Six hundred and fourteen patients were randomized. Mean changes in MADRS scores were -12.83 (±0.834), -14.30 (±0.890), -15.57 (±0.880), and -16.90 (±0.884) for placebo, vortioxetine 15 mg (P = .224), vortioxetine 20 mg (P = .023), and duloxetine 60 mg (P &lt; .001) (P vs placebo), respectively. AEs reported by ≥5 % of vortioxetine patients included nausea, headache, diarrhea, dizziness, dry mouth, constipation, vomiting, insomnia, fatigue, and upper respiratory infection. Treatment-emergent sexual dysfunction, suicidal ideation or behavior, and discontinuation symptoms were not significantly different between vortioxetine and placebo. Vortioxetine 20 mg significantly reduced MADRS total scores after 8 weeks of treatment. Both vortioxetine doses were well tolerated. ClinicalTrials.gov identifier NCT01153009; www.clinicaltrials.gov/ .</t>
+          <t>Major and minor forms of depression are significant contributors to Parkinson's disease morbidity and caregiver burden, affecting up to 50% of these patients. Nonetheless, symptoms of depression are still underrecognized and undertreated in this context due to scarcity of evidence and, consequently, consistent clinical guideline recommendations. Here, we carried out a prospective, multicentre, 2-round modified Delphi survey with 49 questions about the aetiopathological mechanisms of depression in Parkinson's disease (10), clinical features and connections with motor and nonmotor symptoms (10), diagnostic criteria (5), and therapeutic options (24). Items were assessed by a panel of 37 experts (neurologists, psychiatrists, and a geriatrist), and consensus was achieved in 81.6% of them. Depressive symptoms, enhanced by multiple patient circumstances, were considered Parkinson's disease risk factors but not clinical indicators of motor symptom and disease progression. These patients should be systematically screened for depression while ruling out both anhedonia and apathy symptoms as they are not necessarily linked to it. Clinical scales (mainly the Geriatric Depression Scale GDS-15) can help establishing the diagnosis of depression, the symptoms of which will require treatment regardless of severity. Efficacious and well-tolerated pharmacological options for Parkinson's comorbid depression were selective serotonin reuptake inhibitors (especially sertraline), dual-action serotonin and norepinephrine reuptake inhibitors (venlafaxine, desvenlafaxine, and duloxetine), multimodal (vortioxetine, bupropion, mirtazapine, and tianeptine), and anti-Parkinsonian dopamine agonists (pramipexole, ropinirole, and rotigotine). Tricyclic antidepressants and combining type B monoamine oxidase inhibitors with serotonergic drugs have serious side effects in these patients and therefore should not be prescribed. Electroconvulsive therapy was indicated for severe and drug-refractory cases. Cognitive behavioural therapy was recommended in cases of mild depression. Results presented here are useful diagnostic and patient management guidance for other physicians and important considerations to improve future drug trial design.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>38239568</t>
+          <t>36198241</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Treatment of Depression with Vortioxetine and Second Generation Antipsychotics During the Period of Remission Formation in Schizophrenia (Interim Data Analysis).</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Depression in patients with schizophrenia worsens the course of the disease by increasing the risk of suicide, by complicating the clinical picture of the disorder, and by reducing the quality of the social functioning; its treatment is difficult, since monotherapy, even when involving modern antipsychotics, does not always prove successful. While the prescription of additional antidepressants (ADs) can improve the likelihood of a better outcome, the effectiveness of such augmentation in many cases is yet to be proven. Therefore, it is still important that one weighs the effectiveness of various combinations between most of the known ADs and some second-generation antipsychotic (SGA) in the treatment of depression that occurs at different stages of schizophrenia. In previous studies, the use of vortioxetine as an adjunct to an antipsychotic yielded a reduction in negative symptoms, a clinically significant improvement in cognitive functions that differed from its antidepressant effect, and good tolerability, which affects how committed to treatment a patient remains. To study the changes that occur over time in the clinical manifestations of depression, negative and cognitive impairment, as well as the social adequacy of patients receiving a combination therapy with second-generation antipsychotics and vortioxetine, which were prescribed in real clinical practice at doses approved in the Russian Federation. We performed a comparative analysis of the changes in depression symptoms and negative symptoms, cognitive impairment, as well as function of 78 patients with severe manifestations of depression at the stage of exacerbation reduction and subsequent remission of paranoid schizophrenia. Combination treatment with SGA and vortioxetine was used in 39 patients, and 39 patients who had similar clinical manifestations received just SGA. During the observation period, the mental disorder severity and depression symptom severity were assessed 3 times (before the start of treatment, after three months, and after six months) using the Clinical Global Impression (CGI) scale and Calgary Depression Scale for Schizophrenia (CDSS), respectively; patients were also assessed using the Negative Symptoms Assessment-5 (NSA-5) scale, Perceived Deficits Questionnaire-20 items (PDQ-20) scale, and Personal and Social Performance (PSP) scale. According to the ANOVA results, by the end of the observation period, patients, regardless of their therapeutic group, showed a statistically significant decrease in the level of depression on the CDSS scale, the severity of negative symptoms on the NSA-5 scale, cognitive symptoms on the PDQ-20 scale, as well as an improvement in personality and society, judging by the increase in the total PSP scores. There were also significant differences between the compared main (SGA + vortioxetine) and control (SGA) groups in terms of the changes in the total score on the CDSS and PSP scales. An interesting aspect of the changes in the clinical scores was a noticeable improvement in the SGA + vortioxetine group after 3 months of treatment, in the absence of a similar improvement in the control group, and the achievement of approximately the same scores in both groups after 6 months. In particular, there were significant differences between the SGA + vortioxetine and SGA groups in terms of the mean CDSS (&lt;i&gt;p&lt;/i&gt; 0.001), NSA-5 (&lt;i&gt;p&lt;/i&gt;=0.003), PDQ-20 (&lt;i&gt;p&lt;/i&gt; 0.001), and PSP (&lt;i&gt;p&lt;/i&gt;=0.004) scores after 3 months. Analysis of the time before early withdrawal from the study showed that significantly more patients in the SGA + vortioxetine group completed the study program (&lt;i&gt;n&lt;/i&gt;=27, 69.23%) compared with the SGA group (&lt;i&gt;n&lt;/i&gt;=13, 33.33%) (&lt;sup&gt;2&lt;/sup&gt; =14.618, df=1, &lt;i&gt;p&lt;/i&gt; 0.001, log-rank test. The mean survival time in the SGA group was significantly (&lt;i&gt;p&lt;/i&gt; 0.001) less and amounted to 101.436 days (95% CI: 81.518121.354), and in the SGA + vortioxetine group it amounted to 161.744 days (147.981175.506). The relative risk of full study completion in the vortioxetine + SGA group compared with that in SGA was 3.618 (1.8716.994). The addition of vortioxetine to the SGA therapy accelerates the reduction of the depression symptoms that occur at the stage of psychosis regression and early remission, contributes to the accelerated reduction in negative symptoms, positively affects the subjective assessment of cognitive impairment severity, and has a significant positive effect on the level of psychosocial functioning.</t>
-        </is>
-      </c>
+          <t>Corrigendum to 'No evidence for clinical efficacy of adjunctive celecoxib with vortioxetine in the treatment of depression: A 6-week double-blind placebo controlled randomized trial' [European Neuropsychopharmacology 53 (2021) 34-46].</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>29331703</t>
+          <t>22901346</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The effects of vortioxetine on cognitive performance in working patients with major depressive disorder: A short-term, randomized, double-blind, exploratory study.</t>
+          <t>A randomized, double-blind, placebo-controlled 8-week trial of the efficacy and tolerability of multiple doses of Lu AA21004 in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Major Depressive Disorder (MDD) is a complex disease characterized by emotional, physical and cognitive symptoms. We explored the efficacy of vortioxetine versus placebo on outcomes of cognition, functioning and mood symptoms in working patients with depression, using paroxetine as an active reference. Gainfully employed patients (18-65 years, N = 152) with MDD were randomized 1:1:1 to 8 weeks' double-blind, parallel treatment either with vortioxetine (10mg/day) or paroxetine (20mg/day), or with placebo. The primary efficacy measure was the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the key secondary efficacy measure was the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward). At week 8, DSST and UPSA-B performance had improved relative to baseline in all treatment groups, with no statistically significant differences between treatment groups. While improvements in mood were comparable for vortioxetine and paroxetine, numerical improvements in cognitive performance (DSST) were larger with vortioxetine. Vortioxetine significantly improved overall cognitive performance and clinician-rated functioning relative to placebo. The majority of adverse events were mild or moderate, with nausea being the most common adverse event for vortioxetine. Small sample sizes implied limited statistical power. This explorative study showed no significant differences versus placebo in DSST or UPSA-B performance at week 8. However, secondary results support vortioxetine as an effective and well-tolerated antidepressant, supporting an added benefit for cognition and functioning, which could have particular therapeutic relevance for the working patient population.</t>
+          <t>Lu AA21004 is an investigational multimodal antidepressant. This randomized controlled trial evaluated the efficacy and tolerability of multiple doses of Lu AA21004 versus placebo in adults with major depressive disorder (MDD). Adults diagnosed with MDD (based on DSM-IV-TR criteria) with a Montgomery-Asberg Depression Rating Scale (MADRS) score ≥ 26 were randomly assigned (1:1:1:1) to receive Lu AA21004 1 mg, 5 mg, or 10 mg or placebo for 8 weeks (between August 2008 and August 2009). The primary endpoint was reduction in 24-Item Hamilton Depression Rating Scale (HDRS-24) total score after 8 weeks of treatment compared with placebo for Lu AA21004 10 mg. Additional outcomes included response and remission rates, Sheehan Disability Scale (SDS), Clinical Global Impressions-Global Improvement scale (CGI-I), MADRS total score, and HDRS-24 total score in subjects with baseline Hamilton Anxiety Rating Scale (HARS) score ≥ 20. Adverse events were assessed throughout the study. A total of 560 subjects (mean age = 46.4 years) were randomized. There was a statistically significant reduction from baseline in HDRS-24 total score at week 8 for Lu AA21004 10 mg vs placebo (P &lt; .001). There were improvements (nominal P values &lt; .05 with no adjustment for multiplicity) in HDRS-24 total score, response and remission rates, CGI-I score, MADRS total score, and HDRS-24 total score in subjects with baseline HARS score ≥ 20 at week 8 for all Lu AA21004 treatment groups vs placebo. No significant differences were seen in SDS scores between any dose of Lu AA21004 and placebo. The most common adverse events were nausea, headache, and dizziness. After 8 weeks of treatment with Lu AA21004 10 mg, there was a significant reduction in HDRS-24 total score compared with placebo in adults with MDD. Lu AA21004 was well tolerated in this study. ClinicalTrials.gov identifier: NCT00735709.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>35356713</t>
+          <t>37842359</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Effectiveness of Vortioxetine in Patients With Major Depressive Disorder in Real-World Clinical Practice: Results of the RELIEVE Study.</t>
+          <t>Comparison of Hamilton Depression Rating Scale and Montgomery-Åsberg Depression Rating Scale: Baked Straight From a Randomized Study.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Randomized controlled clinical trials have shown vortioxetine to be efficacious and well tolerated for the treatment of major depressive disorder (MDD). The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study was undertaken to demonstrate the effectiveness and safety of vortioxetine for the treatment of MDD in routine clinical practice. RELIEVE was a 24-week, observational, prospective cohort study in outpatients with MDD initiating treatment with vortioxetine at their physician's discretion in routine care settings in Canada, France, Italy, and the USA (NCT03555136). The primary study outcome was patient functioning assessed by the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity [9-item Patient Health Questionnaire (PHQ-9)], cognitive symptoms [5-item Perceived Deficits Questionnaire-Depression (PDQ-D-5)], and cognitive performance [Digit Symbol Substitution Test (DSST)]. Mixed models of repeated measures were used to assess change from baseline at week 24, adjusted for relevant confounders. A total of 737 patients were eligible for inclusion in the full analysis set. Most patients (73.7%) reported at least one comorbid medical condition, 56.0% had comorbid anxiety and 24.4% had comorbid generalized anxiety disorder. Improvement in least-squares (LS) mean SDS score from baseline to week 24 was 8.7 points. LS mean PHQ-9, PDQ-D-5 and DSST scores improved by 7.4, 4.6, and 6.2 points, respectively. Adverse events were observed in 21.2% of patients [most commonly, nausea (8.2% of patients)]. These results demonstrate the effectiveness and tolerability of vortioxetine for the treatment of MDD in a large and heterogeneous patient population representative of that encountered in routine clinical practice.</t>
+          <t>The symptoms of major depressive disorder (MDD) are nowadays being assessed with the Hamilton and Montgomery-Åsberg Depression Rating Scales. However, there are few studies on the comparison of these two scales. Our study aimed to determine the correlation between the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scores at baseline through 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed with HDRS and MADRS at baseline, four, eight, and 12 weeks after receiving oral tablets of either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is prospectively registered with the Clinical Trial Registry, India (CTRI/2022/07/043808). Of 71 recruited individuals, 49 (69%) completed the 12-week visit. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), and at 12 weeks, they reduced to 19.5, 19.5, and 18.0 (p=0.18). At baseline, the group-wise median MADRS scores were 36, 36, and 36 (p=0.79); at 12 weeks, they were 24, 24, and 23 (p=0.03). The Pearson correlation revealed that the association between the changes in scores from baseline was strongest for escitalopram (r=0.70, p=0.002) followed by vortioxetine (r=0.59, p=0.01) and vilazodone (r=0.59, p=0.02). The Bland-Altman analysis showed that the mean difference between the scores was 5.11 (95% CI: 3.08-7.14). According to this interim study, HDRS and MADRS scores declined after 12 weeks of therapy. Both scores had strong positive correlation, and the difference between the scores reduced with time.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26035185</t>
+          <t>32670103</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of vortioxetine 10 mg and 20 mg in adults with major depressive disorder.</t>
+          <t>The THINC-it Tool for Cognitive Assessment and Measurement in Major Depressive Disorder: Sensitivity to Change.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is an antidepressant with a mechanism of action thought to be related to a combination of 2 pharmacologic actions: direct modulation of several receptors and inhibition of the serotonin transporter. To evaluate the efficacy of vortioxetine 10 and 20 mg once daily in outpatients with major depressive disorder. This 8-week, multicenter, randomized, double-blind, placebo-controlled, parallel-group study was conducted from July 2010 to January 2012 among adults with a primary diagnosis of recurrent major depressive disorder (DSM-IV-TR). Eligible subjects were randomized in 1:1:1 ratio to 1 of 3 treatment arms: vortioxetine 10 mg, vortioxetine 20 mg, or placebo once daily for 8 weeks. Subjects who completed the 8-week trial entered a 2-week blinded discontinuation period to assess potential discontinuation symptoms. The primary endpoint was the least squares mean change in Montgomery-Asberg Depression Rating Scale (MADRS) total score from baseline. Key secondary outcomes were analyzed in the following prespecified sequential order: MADRS response (≥ 50% decrease from baseline in total score), Clinical Global Impressions-Improvement score, change from baseline in MADRS total score in subjects with baseline Hamilton Anxiety Rating Scale score ≥ 20, MADRS remission (total score ≤ 10), and change from baseline in Sheehan Disability Scale total score (all at week 8). A total of 462 subjects were randomized to placebo (n = 157), vortioxetine 10 mg (n = 155), and vortioxetine 20 mg (n = 150). Mean (SE) reductions from baseline in MADRS total score (week 8) were -10.77 (± 0.807), -12.96 (± 0.832), and -14.41 (± 0.845) for the placebo, vortioxetine 10 mg (P = .058 vs placebo), and vortioxetine 20 mg (P = .002 vs placebo) groups. MADRS response/remission was achieved in 28.4%/14.2%, 33.8%/21.4%, and 39.2%/22.3% of subjects, respectively, in the 3 groups. Only MADRS response for vortioxetine 20 mg significantly separated from placebo (P = .044). Treatment was well tolerated, with the most frequently reported adverse events consisting of nausea, headache, diarrhea, and dizziness. Vortioxetine 20 mg significantly reduced MADRS total score at 8 weeks in this study population. Overall, vortioxetine was well tolerated in this study. ClinicalTrials.gov identifier: NCT01163266.</t>
+          <t>Herein, we sought to determine the sensitivity to change in cognitive function, as measured by the THINC-it tool, in a sample of adults with major depressive disorder (MDD) receiving standardized antidepressant therapy. Adults meeting the DSM-5 criteria for MDD with at least moderate depressive symptom severity [&lt;i&gt;i.e.&lt;/i&gt;, Montgomery Åsberg Depression Rating Scale (MADRS) total score ≥ 20] were treated with open-label vortioxetine (10-20 mg/day, flexibly-dosed) for 8 weeks. The previously validated THINC-it tool was the primary dependent measure. The THINC-it tool was validated against the paper and pencil version of the Digit Symbol Substitution Test (DSST) and the Trails Making Test B (TMTB). After 8 weeks of treatment, adults with MDD exhibited improvement in cognitive function relative to healthy controls (&lt;i&gt;e.g.&lt;/i&gt;, processing speed) (p = 0.031). A subdomain measure of working memory (&lt;i&gt;i.e.&lt;/i&gt;, symbol check; SC) exhibited significant improvement at Weeks 2 and 8 in latency (p = 0.032), SC accuracy (p = 0.046), and objective z-score (p = 0.001) independent of depressive symptoms. A linear regression analysis determined that the THINC-it tool measures of processing speed, as well as executive function were significantly associated with changes observed on the pencil and paper version the Digit Symbol Substitution Test (DSST) (p = 0.002) and in Trails Making Test B (TMTB) (p = 0.003), respectively. The THINC-it tool demonstrates sensitivity to change in adults with MDD and is highly correlated with improvements on pencil and paper versions of DSST and TMTB. ClinicalTrials.gov, identifier NCT03053362.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>34025982</t>
+          <t>22572889</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Anxiety symptoms in working patients with major depressive disorder treated with vortioxetine: associations with clinical and treatment outcomes in the AtWoRC study.</t>
+          <t>A randomized, double-blind, placebo-controlled, duloxetine-referenced, fixed-dose study comparing the efficacy and safety of Lu AA21004 in elderly patients with major depressive disorder.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Anxiety symptoms are common in patients with major depressive disorder (MDD) and usually confer worse treatment outcomes. The long-term, open-label AtWoRC study in working patients with MDD treated with vortioxetine demonstrated a significant correlation between severity of anxiety symptoms and impaired work productivity. This analysis was undertaken to further explore clinical characteristics and treatment outcomes in patients with different levels of severity of anxiety symptoms at baseline. &lt;i&gt;Post hoc&lt;/i&gt; analysis in 199 working patients with MDD treated with vortioxetine (10-20 mg/day), stratified by Generalized Anxiety Disorder 7-item (GAD-7) score at baseline [mild/moderate anxiety (GAD-7 ⩽14), &lt;i&gt;n&lt;/i&gt; = 83; severe anxiety (GAD-7 ⩾15), &lt;i&gt;n&lt;/i&gt; = 116]. Associations were examined between GAD-7 and other outcome assessment scores at baseline. Observed mean changes from baseline to week 52 were compared between groups. Patients with severe anxiety had significantly worse depressive and cognitive symptoms, functioning, and work productivity at baseline than those with mild/moderate anxiety, but similar cognitive performance. Statistically significant improvements from baseline were seen for all outcomes after 52 weeks of vortioxetine treatment, with no significant differences observed between the two groups after adjustment for baseline anxiety scores. Treatment with vortioxetine was associated with long-term improvement in clinical symptoms and measures of work productivity in patients with MDD in a real-world setting, irrespective of severity of anxiety symptoms at the start of treatment.</t>
+          <t>The efficacy and tolerability of Lu AA21004 at 5 mg/day, a novel multimodal antidepressant, were assessed in elderly patients with recurrent major depressive disorder. Patients were randomly assigned (1:1:1) to Lu AA21004 5 mg/day, duloxetine 60 mg/day (reference) or to placebo in an 8-week double-blind study. The primary efficacy measure was the 24-item Hamilton Depression Scale (HAM-D(24)) total score (analysis of covariance, last observation carried forward). Patients (mean age 70.6 years) had a mean baseline HAM-D(24) score of 29.0. Lu AA21004 showed significantly (P = 0.0011) greater improvement on the primary efficacy endpoint compared with placebo at week 8 (3.3 points). Duloxetine also showed superiority to placebo at week 8, thereby validating the study. HAM-D(24) response (53.2 vs. 35.2%) and HAM-D(17) remission (29.2 vs. 19.3%) rates at endpoint were higher for Lu AA21004 than for placebo. Lu AA21004 showed superiority to placebo in cognition tests of speed of processing, verbal learning and memory. The withdrawal rate due to adverse events was 5.8% (Lu AA21004), 9.9% (duloxetine) and 2.8% (placebo). Whereas nausea was the only adverse event with a significantly higher incidence on treatment with Lu AA21004 (21.8%) compared with placebo (8.3%), the incidence of nausea, constipation, dry mouth, hyperhidrosis and somnolence was higher for duloxetine. In conclusion, Lu AA21004 was efficacious and well tolerated in the treatment of elderly patients with recurrent major depressive disorder.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22901346</t>
+          <t>29807616</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled 8-week trial of the efficacy and tolerability of multiple doses of Lu AA21004 in adults with major depressive disorder.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Lu AA21004 is an investigational multimodal antidepressant. This randomized controlled trial evaluated the efficacy and tolerability of multiple doses of Lu AA21004 versus placebo in adults with major depressive disorder (MDD). Adults diagnosed with MDD (based on DSM-IV-TR criteria) with a Montgomery-Asberg Depression Rating Scale (MADRS) score ≥ 26 were randomly assigned (1:1:1:1) to receive Lu AA21004 1 mg, 5 mg, or 10 mg or placebo for 8 weeks (between August 2008 and August 2009). The primary endpoint was reduction in 24-Item Hamilton Depression Rating Scale (HDRS-24) total score after 8 weeks of treatment compared with placebo for Lu AA21004 10 mg. Additional outcomes included response and remission rates, Sheehan Disability Scale (SDS), Clinical Global Impressions-Global Improvement scale (CGI-I), MADRS total score, and HDRS-24 total score in subjects with baseline Hamilton Anxiety Rating Scale (HARS) score ≥ 20. Adverse events were assessed throughout the study. A total of 560 subjects (mean age = 46.4 years) were randomized. There was a statistically significant reduction from baseline in HDRS-24 total score at week 8 for Lu AA21004 10 mg vs placebo (P &lt; .001). There were improvements (nominal P values &lt; .05 with no adjustment for multiplicity) in HDRS-24 total score, response and remission rates, CGI-I score, MADRS total score, and HDRS-24 total score in subjects with baseline HARS score ≥ 20 at week 8 for all Lu AA21004 treatment groups vs placebo. No significant differences were seen in SDS scores between any dose of Lu AA21004 and placebo. The most common adverse events were nausea, headache, and dizziness. After 8 weeks of treatment with Lu AA21004 10 mg, there was a significant reduction in HDRS-24 total score compared with placebo in adults with MDD. Lu AA21004 was well tolerated in this study. ClinicalTrials.gov identifier: NCT00735709.</t>
-        </is>
-      </c>
+          <t>Corrigendum to ``The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram'' [Journal of Affective Disorders, 227 (2018) 803-809].</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>37840562</t>
+          <t>29238196</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Εfficacy and safety of vortioxetine (Lu AA21004) in the treatment of adult patients with major depressive disorder: A systematic review and a meta‑analysis of randomized controlled trials.</t>
+          <t>The role of new antidepressants in clinical practice in Canada: a brief review of vortioxetine, levomilnacipran ER, and vilazodone.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vortioxetine is a novel drug for the treatment of major depressive disorder (MDD). It has been reported that vortioxetine exhibits positive effect on the acute stage of MDD, while it can effectively prevent the recurrence of MDD during the maintenance period. Currently, the results of systematic reviews on vortioxetine are insufficient since several efficacy measures, such as the 24-Items Hamilton Rating Scale for Depression (HADRS-24) total score and other safety factors have not been evaluated. Therefore, the present study aimed to evaluate the efficacy and safety of different doses of vortioxetine on the treatment of adult patients with MDD via assessing more efficacy and safety indicators. The clinical, double-blind, parallel and randomized controlled trials (RCTs) on the effect of vortioxetine on MDD were retrieved from PubMed\Medline, EBSCO, Embase, Cochrane Library, OVID, Web of Science and clinical trial registration websites from database inception to November 2022. A total of two investigators independently screened the included references and independently evaluated their quality. The meta-analysis was performed using Revman 5.0 software. The present systematic review was registered in PROSPERO (registration no. CRD42018106343). In the present study 11 RCTs were included, with a total of 4,908 adult patients with MDD. More specifically, 1,158 patients were included in the 5-mg vortioxetine group, 736 in the 10-mg group, 298 in the 15-mg group, 864 in the 20-mg group and 1,852 in the placebo group. All 11 studies were randomized, double-blinded and parallel control trials, and all publications were evaluated as high quality. The meta-analysis results showed that patients in the 5-, 10- and 20-mg vortioxetine groups exhibited significantly higher Montgomery-Asberg Depression Rating Scale (MADRS) response (≥50%) and remission (≤10%) rates compared with the placebo group (P&lt;0.05). The pooled analysis also revealed a statistically significant change in the total score of HADRS-24, MADRS, Sheehan Disability Scale (SDS), Clinical Global Impression Scale-Improvement (CGI-I) and HADRS-24 response rate in the 10- and 20-mg vortioxetine groups compared with the placebo group (P&lt;0.05). However, no statistically significant changes in the total score of HADRS-24, MADRS, SDS, CGI-I and HADRS-24 response rate were obtained in the 5-mg group compared with the placebo group (P&gt;0.05). Furthermore, the most common adverse events were nausea, hyperhidrosis, insomnia and vomiting, the incidence of which was increased with higher doses of vortioxetine. Overall, the results suggested that vortioxetine administration at doses of 5-20 mg was significantly effective and safe compared with placebo in the treatment of MDD. However, 5 mg vortioxetine displayed no difference in the HADRS-24, MADRS, SDS and CGI-I total scores, and HADRS-24 response rate. Furthermore, patient treatment with increasing vortioxetine doses was associated with good tolerance and high safety. Nevertheless, more multi-center, high-quality and long-term RCTs are still needed to support the aforementioned findings.</t>
+          <t>Although many branded and generic antidepressants are approved for the treatment of major depressive disorder (MDD) in Canada, efficacy and tolerability differ among patients, and new treatment options are needed. Symptom types (eg, fatigue, energy/motivation, cognition, and functioning), medication type, treatment duration, and the need for maintenance therapy are factors that may influence treatment effectiveness. Three antidepressants, vortioxetine, levomilnacipran extended-release (ER), and vilazodone have recently become available in Canada. The aim of this review is to contextualize differences in their mechanistic and clinical profiles, thereby providing practitioners with knowledge to support treatment decisions. In trials versus placebo, each drug improved depressive symptoms in adult patients with MDD. The antidepressant effect of vortioxetine may be related to enhanced serotonergic activity via reuptake inhibition and agonism and/or antagonism of various serotonin receptors. Vortioxetine may also improve cognitive functioning in MDD, and has proven efficacious in relapse prevention. Nausea was the most commonly reported adverse event (AE); rates of sexual dysfunction were low and abrupt discontinuation was well tolerated. Levomilnacipran ER, a serotonin norepinephrine reuptake inhibitor, demonstrated greater improvement versus placebo in functional impairment as well as depressive symptoms; in post hoc analyses, improvement in symptoms of motivation and energy were observed. Nausea was the most commonly reported AE; gradual discontinuation is recommended to avoid discontinuation syndrome. Vilazodone is a serotonin reuptake inhibitor and partial serotonergic 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonist. In addition to improvement in depressive symptoms, evidence suggests that vilazodone may be particularly well suited for depressed patients with high anxiety levels. Diarrhea, nausea, and headache were the most common AEs; low rates of sexual dysfunction were reported. The 2016 Canadian Network for Mood and Anxiety Treatments guidelines for MDD includes vortioxetine as a first-line treatment; levomilnacipran ER and vilazodone are considered as second-line treatments due to lack of relapse prevention data at the time of approval.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>35971416</t>
+          <t>35221687</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Effectiveness of Vortioxetine in Patients with Major Depressive Disorder in Real-World Clinical Practice in Italy: Results from the RELIEVE Study.</t>
+          <t>Therapeutic Potential of Vortioxetine for Anhedonia-Like Symptoms in Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vortioxetine has demonstrated efficacy in randomized controlled trials and is approved for the treatment of major depressive disorder (MDD); however, data are limited concerning its effectiveness when used in routine clinical care. The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study aimed to assess the effectiveness and tolerability of vortioxetine for the treatment of MDD in routine clinical practice in Canada, France, Italy, and the USA. This paper presents findings for the patient cohort in Italy. RELIEVE was a 6-month, international, observational, prospective cohort study in outpatients initiating vortioxetine treatment for MDD in routine care settings at their physician's discretion (NCT03555136). Patient functioning was assessed using the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity (9-item Patient Health Questionnaire [PHQ-9]), cognitive symptoms (5-item Perceived Deficits Questionnaire-Depression [PDQ-D-5]), and quality of life (EuroQol 5-Dimensions 5-Levels questionnaire [EQ-5D-5L]). Changes from baseline to month 6 were assessed using mixed models for repeated measures, adjusted for relevant confounders. Data are available for 231 patients enrolled in Italy (mean age, 55.5 years; 27% &gt;65 years). Overall, 69% of patients reported at least one comorbidity, 55% were overweight/obese, and 47% had current anxiety symptoms. Adjusted least-squares mean (standard error) change in SDS score from baseline to week 24 was -6.6 (0.6) points (&lt;i&gt;P&lt;/i&gt; &lt; 0.001). Respective changes in PHQ-9, PDQ-D-5, and EQ-5D-5L scores were -5.9 (0.5), -3.6 (0.4), and +0.13 (0.01) points (all &lt;i&gt;P&lt;/i&gt; &lt; 0.0001). Adverse events were reported by 29 patients (13%), most commonly nausea (n = 14, 6%). Eleven patients (5%) discontinued treatment due to adverse events. Clinically relevant and sustained improvements in overall functioning, symptoms of depression, cognitive symptoms, and health-related quality of life were observed in patients with MDD treated with vortioxetine over a period of 6 months in routine care in Italy, including a high proportion of elderly patients.</t>
+          <t>Anhedonia in major depressive disorder may be resistant to first-line antidepressants. We examined the effect of vortioxetine, a multimodal antidepressant, on anhedonia-like symptoms in Japanese patients with major depressive disorder. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) total score of at least 26. The primary outcome was the mean change from baseline to week 8 in anhedonia-like symptoms as measured by MADRS anhedonia factor score, composed of: Q1, apparent sadness; Q2, reported sadness; Q6, concentration; Q7, lassitude; and Q8, inability to feel. Mean change in MADRS total score and anhedonia factor score were compared among treatment groups, with data categorized by median baseline anhedonia factor score (0-17 or ≥18). Data were available for 489 patients. The least-squares mean difference in MADRS anhedonia factor score change from baseline to week 8 versus placebo was -1.34 for vortioxetine 10 mg (&lt;i&gt;P&lt;/i&gt; = 0.0300) and -1.77 for vortioxetine 20 mg (&lt;i&gt;P&lt;/i&gt; = 0.0044). The least-squares mean difference between vortioxetine and placebo in MADRS total score change from baseline to week 8 was -3.11 (10 mg dose) and -3.37 (20 mg dose) for patients with a higher baseline anhedonia factor score (≥18), and -2.08 (10 mg) and -2.61 (20 mg) for patients with a lower baseline score (0-17). This post hoc analysis suggests that vortioxetine may have therapeutic potential in patients with anhedonia-like symptoms of major depressive disorder. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>29673132</t>
+          <t>35753689</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Major Depressive Disorder (MDD) is a heterogeneous disease characterized by emotional, physical and cognitive symptoms. This study explored the effects of vortioxetine versus escitalopram on outcomes of cognition, functioning and mood symptoms in depressed patients with inadequate response to current antidepressant treatment. In this parallel-group, active-comparator study, adult patients (18-65 years, N = 101) with MDD, with inadequate response to current antidepressant monotherapy, were randomized 1:1 to 8 weeks' double-blind treatment with flexible doses (10-20mg/day) of either vortioxetine or escitalopram. Primary and key secondary efficacy measures were the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward method). At week 8, DSST and UPSA-B performance had improved in both treatment groups, with no statistically significant treatment differences. Numerical improvements across measures of cognition, functioning and mood symptoms generally favored vortioxetine. Most adverse events were mild or moderate, with nausea being the most common adverse event. This was an exploratory study with small sample sizes implying limited statistical power. Although this explorative study did not meet primary endpoints, the results confirm vortioxetine in doses of 10-20mg/day as an efficacious and well-tolerated antidepressant switch treatment. The overall direction of numerical effect sizes across cognition endpoints support previous findings that vortioxetine specifically benefits cognitive function in MDD.</t>
-        </is>
-      </c>
+          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>37415997</t>
+          <t>37213947</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quality of Life and Medication Adherence in Patients With Major Depressive Disorder: An Interim Analysis of a Randomized Study.</t>
+          <t>An Interim Analysis of a Randomized, Open-Label Study of Vilazodone, Escitalopram, or Vortioxetine for Major Depressive Disorder.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quality of life and medication adherence worsen in untreated depressed individuals. Studies examining how vilazodone, escitalopram, and vortioxetine affect these factors are few and far between. Our study's objectives were to determine the change in SF-36 at 12 weeks and the association between treatment outcome and medication adherence. This is an interim analysis of a randomized, open-label, three-arm ongoing study. The participants were evaluated at baseline, four, eight, and 12 weeks after being randomly assigned to take either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is registered with CTRI, 2022/07/043808. Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median scores of physical components of SF-36 for the three groups were 35.5, 35.0, and 35.0 at baseline (p=0.76) and 51.0, 49.5, and 53.0 (p&lt;0.001) at 12 weeks respectively. Their corresponding median SF-36 scores for mental components were 43.0, 43.0, and 44.0 at baseline (p=0.34) and 66.0, 63.5, and 70.0 (p&lt;0.001) at 12 weeks. The post hoc analysis yielded a significant difference (p&lt;0.001) regarding SF-36 scores. MMAS-8 scores among the participants were similar (p=0.22) at 12 weeks. Higher medication adherence was associated with lesser depressive symptoms (r= -0.46, p=0.001). As per this interim analysis, vortioxetine substantially impacted the SF-36 scores, juxtaposed with vilazodone and escitalopram. The participants' clinical improvements were reflected by their adherence levels. These effects need to be probed further.</t>
+          <t>The troubling issues of conventional antidepressants are inadequate disease remission and potential adverse effects. There is a dearth of research findings comparing vilazodone, escitalopram, and vortioxetine. The objective of this analysis is to determinechanges in the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scoresand the incidence of adverse events at 12 weeks. This is an exploratory interim analysis of a randomized, three-arm, open-label ongoing study. The participants were randomly assigned in a 1:1:1 ratio to receive either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). Efficacy and safety assessments were done at baseline, four weeks, eight weeks, and 12 weeks. Forty-nine(69%) of the 71 enrolled participants (mean age 43.9±12.2 years; 37 men (52%)) completed the 12-week follow-up. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), respectively, and at 12 weeks, they amounted to 19.5, 19.5, and 18.0 (p=0.18), respectively. At baseline, group-wise median MADRS scores were 36, 36, and 36, respectively (p=0.79); at 12 weeks, they were 24, 24, and 23, respectively (p=0.03). In the post-hoc analysis, the inter-group comparison of the change in HDRS (p = 0.02) and MADRS (p = 0.06) scores from baseline did not reach statistical significance. No participants experienced serious adverse events. In this initial assessment of a continuing study, vortioxetine exhibited a clinically (not statistically) significant drop in HDRS and MADRS scores, compared to vilazodone and escitalopram. The antidepressant effects need to be investigated further.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27725683</t>
+          <t>25650503</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Comparison of vortioxetine versus venlafaxine XR in adults in Asia with major depressive disorder: a randomized, double-blind study.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>This randomized, double-blind 8 week study compared the efficacy and tolerability of fixed-dose treatment with vortioxetine (10 mg/day) and venlafaxine extended release (XR) (150 mg/day) in major depressive disorder (MDD) patients. Patients aged 18-65 years with a primary diagnosis of recurrent MDD, a Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and a Clinical Global Impression-Severity (CGI-S) score ≥4 were randomized (1:1) to treatment with either vortioxetine or venlafaxine XR. The primary endpoint was change from baseline to Week 8 in MADRS total score (analysis of covariance [ANCOVA], full-analysis set [FAS], last observation carried forward [LOCF]), using a non-inferiority margin of +2.5 points. Pre-specified secondary endpoints included MADRS response and remission rates, anxiety symptoms (HAM-A), CGI, overall functioning (SDS), and health-related quality of life (Q-LES-Q). This study (SOLUTION) has the www.ClinicalTrials.gov identifier: NCT01571453. On the primary efficacy endpoint at Week 8, non-inferiority was established with a difference of -1.2 MADRS points in favor of vortioxetine (95% CI: -3.0 to 0.6). The MADRS total score decreased (improved) from 32.3 ± 4.6 at baseline to 13.6 ± 9.6 (vortioxetine: n = 209) and from 32.3 ± 4.5 to 14.8 ± 10.4 (venlafaxine XR: n = 215) (FAS, LOCF). At Week 8, the HAM-A and SDS total scores, CGI and Q-LES-Q scores, and response and remission rates demonstrated similar improvement for vortioxetine and venlafaxine XR, with remission rates (MADRS ≤10) of 43.1% (vortioxetine) versus 41.4% (venlafaxine XR) (LOCF). Fewer vortioxetine than venlafaxine XR patients withdrew for any reason (18.0% versus 27.4%) or for adverse events (6.6% versus 13.7%). The most frequent adverse events (≥5%) for both treatments were nausea, dizziness, headache, and dry mouth. In addition, accidental overdose, decreased appetite, constipation and insomnia were reported by (≥5%) of patients treated with venlafaxine XR. The inclusion and exclusion criteria may limit the generalizability of the study. Since patients with a history of lack of response to venlafaxine XR were excluded from this study, there is a selection bias in favor of venlafaxine XR. Vortioxetine was at least as efficacious as venlafaxine XR and was safe and better tolerated than venlafaxine XR.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22209361</t>
+          <t>33292580</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A randomised, double-blind, placebo controlled, duloxetine-referenced, fixed-dose study of three dosages of Lu AA21004 in acute treatment of major depressive disorder (MDD).</t>
+          <t>A comparison of eating disorder symptomatology, psychological distress and psychosocial function between early, typical and later onset anorexia nervosa.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The efficacy, safety, and tolerability of Lu AA21004 versus placebo, using duloxetine as active reference, in patients with DSM-IV-TR diagnosed major depressive disorder (MDD) were evaluated in this 8-week, multi-site study. Patients (n=766) had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and were randomly assigned (1:1:1:1:1) to 2.5, 5 or 10 mg Lu AA21004, placebo, or 60 mg duloxetine. The 5mg and 10mg doses of Lu AA21004 were tested separately versus placebo at p≤0.025 in a pre-specified order. In the pre-defined primary efficacy analysis [mean change from baseline in MADRS total score at Week 8, full analysis set, ANCOVA, last observation carried forward (LOCF)], the differences to placebo (n=145) of -1.7 (Lu AA21004 5 mg, n=155) and -1.5 points (Lu AA21004 10 mg, n=151) were not statistically significant; nor were those for Lu AA21004 2.5 mg (-1.4 points, n=155) or duloxetine (-2.0 points, n=149). Using mixed model, repeated measures (MMRM) analyses of the primary endpoint and most secondary endpoints were supportive of likely efficacy for Lu AA21004 5 mg and 10 mg and duloxetine. Treatment-emergent adverse events led to the withdrawal of 72 patients: 8% (placebo), 12% (duloxetine), and 6%, 11% and 9% in the Lu AA21004 groups (2.5 mg, 5 mg and 10 mg, respectively). The most common adverse events were nausea, headache, dizziness, and dry mouth. No clinically relevant changes were seen in vital signs, weight, ECG, or laboratory results. In summary, none of the active treatment groups, including duloxetine, separated from placebo in the primary analysis in this 'failed' study. Findings on secondary outcome measures, using MMRM instead of LOCF, were supportive of likely efficacy for Lu AA21004 5mg and 10mg and duloxetine. Lu AA21004 (2.5, 5 and 10 mg) was well tolerated.</t>
+          <t>Epidemiological studies suggest that the incidence of anorexia nervosa (AN) is increasing in younger populations, with some evidence that clinical differences occur according to age of onset (AOO), which may impact prognostic outcomes. The current study sought to compare eating disorder (ED) symptomatology, psychological distress and psychosocial function between early onset (EO), typical onset (TO) and later onset (LO) AN in a large sample of treatment-seeking patients with a diagnosis of AN. Participants included 249 individuals with a diagnosis of AN who were assessed at an outpatient ED service. The sample was divided into three groups based on AOO; those with an AOO ≤14 years (N = 58) were termed 'EO-AN', those with an AOO between 15 and 18 years (N = 113) were termed 'TO-AN' and those with an AOO of &gt; 18 years (N = 78) were termed 'LO-AN'. Comparisons were made between AOO groups on assessments of ED symptomatology, psychological distress and psychosocial function. EO-AN patients reported a significantly longer illness duration than both TO-AN and LO-AN groups. After controlling for effect of illness duration, the EO-AN group demonstrated significantly higher ED symptomatology and dysmorphic concern compared to the LO-AN group. The EO-AN group demonstrated significantly decreased cognitive flexibility compared to both the TO-AN and LO-AN groups. These findings suggest that clinical differences do occur according to AOO in AN whereby EO-AN may represent a more severe form of illness that is not attributable to increased illness duration. Treatment strategies which specifically address patients with EO-AN may improve long term health outcomes and recovery.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24787143</t>
+          <t>27231256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of vortioxetine on cognitive function in depressed adults.</t>
+          <t>Which Cognitive Domains are Improved by Treatment with Vortioxetine?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The efficacy of vortioxetine 10 and 20 mg/d vs. placebo on cognitive function and depression in adults with recurrent moderate-to-severe major depressive disorder (MDD) was evaluated. Patients (18-65 yr, N = 602) were randomized (1:1:1) to vortioxetine 10 or 20 mg/d or placebo for 8 wk in a double-blind multi-national study. Cognitive function was assessed with objective neuropsychological tests of executive function, processing speed, attention and learning and memory, and a subjective cognitive measure. The primary outcome measure was change from baseline to week 8 in a composite z-score comprising the Digit Symbol Substitution Test (DSST) and Rey Auditory Verbal Learning Test (RAVLT) scores. Depressive symptoms were assessed using the Montgomery-Åsberg Depression Rating Scale (MADRS). In the pre-defined primary efficacy analysis, both doses of vortioxetine were significantly better than placebo, with mean treatment differences vs. placebo of 0.36 (vortioxetine 10 mg, p &lt; 0.0001) and 0.33 (vortioxetine 20 mg, p &lt; 0.0001) on the composite cognition score. Significant improvement vs. placebo was observed for vortioxetine on most of the secondary objectives and subjective patient-reported cognitive measures. The differences to placebo in the MADRS total score at week 8 were -4.7 (10 mg: p &lt; 0.0001) and -6.7 (20 mg: p &lt; 0.0001). Path and subgroup analyses indicate that the beneficial effect of vortioxetine on cognition is largely a direct treatment effect. No safety concern emerged with vortioxetine. Vortioxetine significantly improved objective and subjective measures of cognitive function in adults with recurrent MDD and these effects were largely independent of its effect on improving depressive symptoms.</t>
+          <t>These post hoc analyses evaluated vortioxetine efficacy on cognitive dysfunction in depression. Data were from a double-blind, randomized, fixed-dose, placebo-controlled, 8-week depression study in adults aged 18-65 years (n = 602) with DSM-IV-defined major depressive disorder (MDD). Subjects were randomized (1:1:1) to vortioxetine 10mg/day or 20mg/day or placebo. Cognitive function was assessed at baseline, Week 1 (10mg/day only) and Week 8 using Digit Symbol Substitution Test (DSST) number of correct symbols, Rey Auditory Verbal Learning Test, Trail Making Test, Stroop test, Simple Reaction Time, and Choice Reaction Time tests. The cognition variables were standardized and used for constructing composite Z-scores for the cognitive domains of executive function, attention/speed of processing, and memory. At Week 1, vortioxetine 10mg/day separated from placebo for attention/speed of processing (standardized composite Z-score = 0.21; p = 0.0238) and DSST number of correct symbols (standardized effect size = 0.18; p = 0.0458) and for executive function (standardized composite Z-score = 0.20; p = 0.0274). At Week 8, vortioxetine 10mg/day and 20mg/day separated from placebo for executive function and attention/speed of processing, with standardized composite Z-scores ranging from 0.35 to 0.49 (all p &lt; 0.01). Standardized composite Z-scores for memory were 0.31 ( p = 0.0036, 10mg/day) and 0.22 ( p = 0.0349, 20mg/day). Standardized effect sizes for DSST were 0.51 ( p &lt; 0.0001, 10mg/day) and 0.52 ( p &lt; 0.0001, 20mg/day). Results are limited by the post hoc nature of the analyses and the absence of an active reference in the original study. Vortioxetine (10 and 20mg/day) had a multi-domain beneficial effect on cognitive performance, as evidenced by improvements in measures of executive function, attention/speed of processing, and memory. The effect on the DSST may be due to improvements in several cognitive skills.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>24257717</t>
+          <t>37970263</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Efficacy and safety of vortioxetine (Lu AA21004), 15 and 20 mg/day: a randomized, double-blind, placebo-controlled, duloxetine-referenced study in the acute treatment of adult patients with major depressive disorder.</t>
+          <t>The Interface between Depression and Alzheimer's Disease. A Comprehensive Approach.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>This study assessed the efficacy, tolerability and safety of vortioxetine versus placebo in adults with recurrent major depressive disorder. This double-blind, randomized, placebo-controlled study included 608 patients [Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 26 and Clinical Global Impression - Severity score ≥ 4]. Patients were randomly assigned (1 : 1 : 1 : 1) to vortioxetine 15 mg/day, vortioxetine 20 mg/day, duloxetine 60 mg/day or placebo. The primary efficacy endpoint was change from baseline in MADRS total score at week 8 (mixed model for repeated measurements). Key secondary endpoints were: MADRS responders; Clinical Global Impression - Improvement scale score; MADRS total score in patients with baseline Hamilton Anxiety Rating Scale ≥ 20; remission (MADRS ≤ 10); and Sheehan Disability Scale total score at week 8. On the primary efficacy endpoint, both vortioxetine doses were statistically significantly superior to placebo, with a mean difference to placebo (n = 158) of -5.5 (vortioxetine 15 mg, P &lt; 0.0001, n = 149) and -7.1 MADRS points (vortioxetine 20 mg, P &lt; 0.0001, n = 151). Duloxetine (n = 146) separated from placebo, thus validating the study. In all key secondary analyses, both vortioxetine doses were statistically significantly superior to placebo. Vortioxetine treatment was well tolerated; common adverse events (incidence ≥ 5%) were nausea, headache, diarrhea, dry mouth and dizziness. No clinically relevant changes were seen in clinical safety laboratory values, weight, ECG or vital signs parameters. Vortioxetine was efficacious and well tolerated in the treatment of patients with major depressive disorder.</t>
+          <t>Depression and Alzheimer's disease (AD) are frequent interacting diseases in the elderly with a negative impact on the quality of life of patients and caregivers. Late-life depression may be regarded either as an early symptom of AD or a risk factor for AD, depending on the context. This review was focused on the latest developments in the fields of the neurobiological basis and treatment of depression in AD. We found that some plausible hypotheses are emerging to correlate with depression in AD, such as neuroinflammation and dysimmune regulation. It seems that depression is not related to amyloid deposition, but this issue is not completely resolved. The response to antidepressants is controversial according to the evidence from 10 small double-blind randomized placebo-controlled clinical trials with antidepressants in AD patients with depression: four with sertraline, one with three arms (sertraline, mirtazapine, placebo), one with fluoxetine, one with imipramine, one with clomipramine, one with escitalopram, and one with vortioxetine. The total number of treated patients completing the trials was 638. The main criterion of a positive response was a reduction in the scores of clinical scales for depression of at least 50%. The weighted OR (odds ratio) was calculated with the method of Mantel-Haenszel: 1.29; 95% CI: 0.77-2.16. No significant differences were found compared with placebo. Antidepressants did not have a meaningful negative influence on cognition, which was measured with the mini-mental state examination (MMSE) in 18 clinical trials. Alternatives other than drugs are also discussed. Although there have been important advances in this field, pathophysiology and treatment deserve further research.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28858412</t>
+          <t>22209361</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Randomized, double-blind, placebo-controlled 8-week trial of the efficacy, safety, and tolerability of 5, 10, and 20 mg/day vortioxetine in adults with major depressive disorder.</t>
+          <t>A randomised, double-blind, placebo controlled, duloxetine-referenced, fixed-dose study of three dosages of Lu AA21004 in acute treatment of major depressive disorder (MDD).</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>This study assessed the efficacy and safety of vortioxetine in adults with major depressive disorder. In this double-blind, placebo-controlled study, 600 patients with major depressive disorder were randomly assigned (1:1:1:1) to receive vortioxetine 5, 10, or 20 mg, or placebo once daily for 8 weeks. The primary end-point was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8, evaluated by the last-observation-carried-forward method. Secondary end-points included response (≥ 50% decrease in the MADRS total score from baseline) and remission (MADRS total score ≤ 10), Clinical Global Impression Scale-Improvement, and change from baseline in Sheehan Disability Scale. Adverse events were summarized. Vortioxetine failed to show significant differences from placebo in the primary end-point. Nominally significant improvements over placebo were observed for vortioxetine doses of 10 and 20 mg when the primary end-point was evaluated using the mixed model for repeated measures as the secondary analysis, and 10 mg in secondary measures of response and patient functioning. Vortioxetine was well tolerated. Nausea, constipation, dry mouth, dizziness, and insomnia each occurred at a &gt;twofold higher rate than placebo. Discontinuation symptom scores were comparable between all groups after 1 and 2 weeks following withdrawal of the study drug. While vortioxetine failed to meet significance versus placebo in the primary efficacy analysis, there was evidence of efficacy for the 10- and 20-mg doses in secondary analyses. Vortioxetine was safe and well tolerated. Additional studies appear warranted.</t>
+          <t>The efficacy, safety, and tolerability of Lu AA21004 versus placebo, using duloxetine as active reference, in patients with DSM-IV-TR diagnosed major depressive disorder (MDD) were evaluated in this 8-week, multi-site study. Patients (n=766) had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and were randomly assigned (1:1:1:1:1) to 2.5, 5 or 10 mg Lu AA21004, placebo, or 60 mg duloxetine. The 5mg and 10mg doses of Lu AA21004 were tested separately versus placebo at p≤0.025 in a pre-specified order. In the pre-defined primary efficacy analysis [mean change from baseline in MADRS total score at Week 8, full analysis set, ANCOVA, last observation carried forward (LOCF)], the differences to placebo (n=145) of -1.7 (Lu AA21004 5 mg, n=155) and -1.5 points (Lu AA21004 10 mg, n=151) were not statistically significant; nor were those for Lu AA21004 2.5 mg (-1.4 points, n=155) or duloxetine (-2.0 points, n=149). Using mixed model, repeated measures (MMRM) analyses of the primary endpoint and most secondary endpoints were supportive of likely efficacy for Lu AA21004 5 mg and 10 mg and duloxetine. Treatment-emergent adverse events led to the withdrawal of 72 patients: 8% (placebo), 12% (duloxetine), and 6%, 11% and 9% in the Lu AA21004 groups (2.5 mg, 5 mg and 10 mg, respectively). The most common adverse events were nausea, headache, dizziness, and dry mouth. No clinically relevant changes were seen in vital signs, weight, ECG, or laboratory results. In summary, none of the active treatment groups, including duloxetine, separated from placebo in the primary analysis in this 'failed' study. Findings on secondary outcome measures, using MMRM instead of LOCF, were supportive of likely efficacy for Lu AA21004 5mg and 10mg and duloxetine. Lu AA21004 (2.5, 5 and 10 mg) was well tolerated.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>35466102</t>
+          <t>37736222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vortioxetine Treatment for Depression in Alzheimer's Disease: A Randomized, Double-blind, Placebo-controlled Study.</t>
+          <t>Effect of vortioxetine versus venlafaxine on cognitive functions in adults with major depressive disorder: A randomized-controlled trial.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vortioxetine, a new antidepressant, has been demonstrated to have effects on depression and cognitive function. This study aimed to investigate the anti-depressive efficacy of vortioxetine through a well-designed double- blind, placebo-controlled study in Alzheimer's disease (AD) patients, and to confirm the presence of secondary benefits, including the improvement of cognitive function and activities of daily living (ADL). The present study included 100 AD patients with depression who were assigned randomly to 12 weeks of daily treatment with either vortioxetine or placebo. The primary efficacy measure was the change in the Cornell Scale for Depression in Dementia score from baseline to 12 weeks. Several secondary efficacy measures were evaluated, including the Korean version of the Short form of Geriatric Depression Scale and several cognitive function domains. The safety and tolerability of vortioxetine were also assessed. We performed modified intention-to-treat analysis using mixed modeling (the Mixed Models for Repeated Measures). There was no statistically significant difference between the two groups in terms of depressive symptoms, cognitive functions, and ADL. Further, the percentage of adverse events and drug discontinuation between the vortioxetine and placebo groups was similar. Our results suggest that vortioxetine might not be effective in reducing depressive symptoms or cognitive impairment in AD patients with depression. However, general drug tolerance and patient safety were similar to those of placebo. Thus, additional studies are needed to replicate the effectiveness and tolerability of vortioxetine in AD patients with depression.</t>
+          <t>Vortioxetine and venlafaxine are antidepressants which have shown established efficacy to treat major depressive disorder (MDD). There are no studies that compared them for their efficacy in cognitive symptoms of depression. The study aimed to compare the effect of vortioxetine and venlafaxine on the change in cognitive scores in adults with MDD. The present study was an open-label, active-controlled parallel design randomized clinical trial. After randomization, baseline clinical evaluations by Montgomery-Asberg Depression Rating Scale (MADRS) and Social and Occupational Functioning Assessment Scale (SOFAS) were done and coding (subset of WAIS-IV), WCST, TMT, Stroop test, PGI memory were used to assess cognition in 100 unmedicated MDD patients. They were reassessed after eight weeks of monotherapy with vortioxetine or venlafaxine. Primary cognitive measure (coding score) was found to be significantly higher (Mean Difference = 0.680; 95% CI:.202 to 1.158; &lt;i&gt;P&lt;/i&gt; = 0.006) in vortioxetine in comparison with venlafaxine. Stroop test scores (word score, color score, color-word score) were also found to be significantly higher with vortioxetine. In other cognitive measures (WCST scores: total trials, total errors score, total perseverative responses score, total perseverative errors scores; TMT-A and B scores), a significant decrease in scores with vortioxetine in comparison with venlafaxine were observed. A significant decrease in MADRS and increase in SOFAS scores were observed with vortioxetine in comparison with venlafaxine. Both the drugs alleviated the symptoms of depression but vortioxetine was better tolerated. Our study findings suggest that improvement in cognitive scores is significantly higher with vortioxetine than venlafaxine over the eight weeks of monotherapy. CTRI/2020/07/026819 (Registered with Clinical Trials Registry- India).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32670103</t>
+          <t>37641760</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The THINC-it Tool for Cognitive Assessment and Measurement in Major Depressive Disorder: Sensitivity to Change.</t>
+          <t>Metabolic Effects of Antidepressants: Results of a Randomized Study's Interim Analysis.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Herein, we sought to determine the sensitivity to change in cognitive function, as measured by the THINC-it tool, in a sample of adults with major depressive disorder (MDD) receiving standardized antidepressant therapy. Adults meeting the DSM-5 criteria for MDD with at least moderate depressive symptom severity [&lt;i&gt;i.e.&lt;/i&gt;, Montgomery Åsberg Depression Rating Scale (MADRS) total score ≥ 20] were treated with open-label vortioxetine (10-20 mg/day, flexibly-dosed) for 8 weeks. The previously validated THINC-it tool was the primary dependent measure. The THINC-it tool was validated against the paper and pencil version of the Digit Symbol Substitution Test (DSST) and the Trails Making Test B (TMTB). After 8 weeks of treatment, adults with MDD exhibited improvement in cognitive function relative to healthy controls (&lt;i&gt;e.g.&lt;/i&gt;, processing speed) (p = 0.031). A subdomain measure of working memory (&lt;i&gt;i.e.&lt;/i&gt;, symbol check; SC) exhibited significant improvement at Weeks 2 and 8 in latency (p = 0.032), SC accuracy (p = 0.046), and objective z-score (p = 0.001) independent of depressive symptoms. A linear regression analysis determined that the THINC-it tool measures of processing speed, as well as executive function were significantly associated with changes observed on the pencil and paper version the Digit Symbol Substitution Test (DSST) (p = 0.002) and in Trails Making Test B (TMTB) (p = 0.003), respectively. The THINC-it tool demonstrates sensitivity to change in adults with MDD and is highly correlated with improvements on pencil and paper versions of DSST and TMTB. ClinicalTrials.gov, identifier NCT03053362.</t>
+          <t>Individuals with major depressive disorder exhibit a dysregulated metabolic profile. There are few studies on how vilazodone, escitalopram, and vortioxetine alter metabolic parameters. Our study aimed to determine the change in plasma glucose, HbA&lt;sub&gt;1c&lt;/sub&gt;, serum cholesterol, triglyceride, and creatinine at 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed at baseline, 4, 8, and 12 weeks after receiving oral tablets of either vilazodone (20-40mg/d), escitalopram (10-20mg/d), or vortioxetine (5-20mg/d). This study is CTRI-registered (2022/07/043808). Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median Hamilton Depression Rating Scale (HDRS) scores of the participants in vilazodone, escitalopram, and vortioxetine groups were 30.0, 29.5, and 29.0 at baseline (p=0.76) and 19.5, 19.5, and 18.0 (p=0.18) at 12 weeks, respectively. The median fasting blood sugar (FBS) values were 98.5, 105.5, and 98.0 at baseline (p=0.07) and 94.0, 99.5, and 96.0 (p=0.19) at 12 weeks, for vilazodone, escitalopram, and vortioxetine groups, respectively. The post hoc analysis did not yield statistically significant differences regarding any parameters. According to this interim study, the HDRS scores declined after 12 weeks of therapy. The subjects' metabolic parameters did not significantly change. It is essential to perform further investigation regarding these impacts.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>36135826</t>
+          <t>25893002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cutting the First Turf to Heal Post-SSRI Sexual Dysfunction: A Male Retrospective Cohort Study.</t>
+          <t>Depression and cerebrovascular disease: could vortioxetine represent a valid treatment option?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Post-SSRI sexual dysfunction (PSSD) is a set of heterogeneous sexual problems, which may arise during the administration of selective serotonin reuptake inhibitors (SSRIs) and persist after their discontinuation. PSSD is a rare clinical entity, and it is commonly associated with non-sexual concerns, including emotional and cognitive problems and poor quality of life. To date, however, no effective treatment is available. The aim of this study was to retrospectively evaluate the potential efficacy of the different treatments used in clinical practice in improving male PSSD. Of the 30 patients referred to our neurobehavioral outpatient clinic from January 2020 to December 2021, 13 Caucasian male patients (mean age 29.53 ± 4.57 years), previously treated with SSRIs, were included in the study. Patients with major depressive disorder and/or psychotic symptoms were excluded a priori to avoid overlapping symptomatology, and potentially reduce the misdiagnosis rate. To treat PSSD, we decided to use drugs positively affecting the brain dopamine/serotonin ratio, such as bupropion and vortioxetine, as well as other compounds. This latter drug is known not to cause or reverse iatrogenic SD. Most patients, after treatment with vortioxetine and/or nutraceuticals, reported a significant improvement in all International Index of Erectile Function-(IIEF-5) domains (p &lt; 0.05) from baseline (T0) to 12-month follow-up (T1). Moreover, the only patient treated with pelvic muscle vibration reached very positive results. Although our data come from a retrospective open-label study with a small sample size, drugs positively modulating the central nervous system serotonin/dopamine ratio, such as vortioxetine, could be used to potentially improve PSSD. Large-sample prospective cohort studies and randomized clinical trials are needed to investigate the real prevalence of this clinical entity and confirm such a promising approach to a potentially debilitating illness.</t>
+          <t>Depression and cerebrovascular atherosclerosis often occur in comorbidity showing neuropsychological impairment and poor response to antidepressant treatment. Objective is to evaluate if new antidepressant vortioxetine may be a potential treatment option. Mechanism of Action : Vortioxetine has 5-HT3, 5-HT7 and 5-HT1D antagonists, 5-HT1B partial agonist and a 5-HT1A agonist and serotonin transporter inhibitor property. Efficacy and safety in Major Depressive Disorders and in cognitive impairment : The majority of trials (one of them in older people) showed efficacy for vortioxetine against placebo and no differences against other active treatments. The Adverse Effects ranged from 15.8% more to 10.8% less than placebo. In the elderly, only nausea was found higher than placebo. Effects on arterial blood pressure and cardiac parameters including the ECG-QT segment were similar to placebo. Elderly depressive patients on vortioxetine showed improvement versus placebo and other active comparators in Auditory Verbal Learning Test and Digit Symbol Substitution Test scores. The inclusion criteria admitted cases with middle cerebrovascular disease. Conclusion : The mechanism of action, the efficacy on depression and safety profile and early data on cognitive impairment make Vortioxetine a strong candidate for use in depression associated with cerebrovascular disease. This information must be supported by future randomized controlled trials.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>36198241</t>
+          <t>29123483</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Corrigendum to 'No evidence for clinical efficacy of adjunctive celecoxib with vortioxetine in the treatment of depression: A 6-week double-blind placebo controlled randomized trial' [European Neuropsychopharmacology 53 (2021) 34-46].</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Impact of Vortioxetine on Synaptic Integration in Prefrontal-Subcortical Circuits: Comparisons with Escitalopram.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Prefrontal-subcortical circuits support executive functions which often become dysfunctional in psychiatric disorders. Vortioxetine is a multimodal antidepressant that is currently used in the clinic to treat major depressive disorder. Mechanisms of action of vortioxetine include serotonin (5-HT) transporter blockade, 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonism, 5-HT&lt;sub&gt;1B&lt;/sub&gt; receptor partial agonism, and 5-HT&lt;sub&gt;1D&lt;/sub&gt;, 5-HT&lt;sub&gt;3&lt;/sub&gt;, and 5-HT&lt;sub&gt;7&lt;/sub&gt; receptor antagonism. Vortioxetine facilitates 5-HT transmission in the medial prefrontal cortex (mPFC), however, the impact of this compound on related prefrontal-subcortical circuits is less clear. Thus, the current study examined the impact of systemic vortioxetine administration (0.8 mg/kg, i.v.) on spontaneous spiking and spikes evoked by electrical stimulation of the mPFC in the anterior cingulate cortex (ACC), medial shell of the nucleus accumbens (msNAc), and lateral septal nucleus (LSN) in urethane-anesthetized rats. We also examined whether vortioxetine modulated afferent drive in the msNAc from hippocampal fimbria (HF) inputs. Similar studies were performed using the selective 5-HT reuptake inhibitor [selective serotonin reuptake inhibitors (SSRI)] escitalopram (1.6 mg/kg, i.v.) to enable comparisons between the multimodal actions of vortioxetine and SSRI-mediated effects. No significant differences in spontaneous activity were observed in the ACC, msNAc, and LSN across treatment groups. No significant impact of treatment on mPFC-evoked responses was observed in the ACC. In contrast, vortioxetine decreased mPFC-evoked activity recorded in the msNAc as compared to parallel studies in control and escitalopram treated groups. Thus, vortioxetine may reduce mPFC-msNAc afferent drive via a mechanism that, in addition to an SSRI-like effect, requires 5-HT receptor modulation. Recordings in the LSN revealed a significant increase in mPFC-evoked activity following escitalopram administration as compared to control and vortioxetine treated groups, indicating that complex modulation of 5-HT receptors by vortioxetine may offset SSRI-like effects in this region. Lastly, neurons in the msNAc were more responsive to stimulation of the HF following both vortioxetine and escitalopram administration, indicating that elevation of 5-HT tone and 5-HT receptor modulation may facilitate excitatory hippocampal synaptic drive in this region. The above findings point to complex 5-HT receptor-dependent effects of vortioxetine which may contribute to its unique impact on the function of prefrontal-subcortical circuits and the development of novel strategies for treating mood disorders.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>37842359</t>
+          <t>35815048</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Comparison of Hamilton Depression Rating Scale and Montgomery-Åsberg Depression Rating Scale: Baked Straight From a Randomized Study.</t>
+          <t>Systematic Review and Meta-Analysis of Vortioxetine for the Treatment of Major Depressive Disorder in Adults.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The symptoms of major depressive disorder (MDD) are nowadays being assessed with the Hamilton and Montgomery-Åsberg Depression Rating Scales. However, there are few studies on the comparison of these two scales. Our study aimed to determine the correlation between the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scores at baseline through 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed with HDRS and MADRS at baseline, four, eight, and 12 weeks after receiving oral tablets of either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is prospectively registered with the Clinical Trial Registry, India (CTRI/2022/07/043808). Of 71 recruited individuals, 49 (69%) completed the 12-week visit. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), and at 12 weeks, they reduced to 19.5, 19.5, and 18.0 (p=0.18). At baseline, the group-wise median MADRS scores were 36, 36, and 36 (p=0.79); at 12 weeks, they were 24, 24, and 23 (p=0.03). The Pearson correlation revealed that the association between the changes in scores from baseline was strongest for escitalopram (r=0.70, p=0.002) followed by vortioxetine (r=0.59, p=0.01) and vilazodone (r=0.59, p=0.02). The Bland-Altman analysis showed that the mean difference between the scores was 5.11 (95% CI: 3.08-7.14). According to this interim study, HDRS and MADRS scores declined after 12 weeks of therapy. Both scores had strong positive correlation, and the difference between the scores reduced with time.</t>
+          <t>We aimed to compare the efficacy, acceptability, and tolerability of vortioxetine in the treatment of Major Depressive Disorder (MDD) in adults. We searched PubMed, Embase, Web of Science, Cochrane Central Register of Controlled Clinical Trials (CENTRAL), and www.ClinicalTrials.gov for randomized controlled trials that examined vortioxetine vs. placebo or other antidepressants for the treatment of MDD from database inception to August 30, 2021, using keywords Vortioxetine, Brintellix, Trintellix, LuAA21004, major depressive disorder, mood disorder, affective disorder, and MDD. We identified 789 publications after removing duplicates. After screening, 20 eligible randomized controlled trials were identified, of which 19 were included in the final meta-analysis. We included adults (aged 18 years and older) with a primary diagnosis of MDD. Two review authors independently selected the studies and extracted data. We extracted data on study characteristics, participant characteristics, intervention details and outcome measures in terms of efficacy, acceptability, and tolerability. Analyses were performed using random-effects models, and outcomes were pooled as risk ratios (RRs) and standardized mean differences (SMDs). In total, 20 studies (8,547 participants) met the inclusion criteria. Vortioxetine outperformed the placebo in efficacy outcomes, including response (RR 1.35, 95% CI 1.23-1.48; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), remission (RR 1.33, 95% CI 1.17-1.52; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), and cognitive function (SMD 0.34, 95% CI 0.16-0.52; &lt;i&gt;P&lt;/i&gt; = 0.0003). Compared with the serotonin noradrenaline reuptake inhibitors (SNRIs), vortioxetine had better tolerability (RR 0.90, 95% CI 0.86-0.94; &lt;i&gt;P&lt;/i&gt; &lt; 0.001) but no significant difference in response (RR 0.91, 95%CI 0.82-1.00; &lt;i&gt;P&lt;/i&gt; = 0.06) or remission (RR: 0.99, 95% CI 0.81-1.20, &lt;i&gt;P&lt;/i&gt; = 0.88). Vortioxetine had no difference in response (RR 1.08, 95% CI 0.88-1.32; &lt;i&gt;P&lt;/i&gt; = 0.46), remission (RR 1.00, 95% CI 0.41-2.44; &lt;i&gt;P&lt;/i&gt; = 1.00) comparing with selective serotonin reuptake inhibitors (SSRIs). Vortioxetine is more advantageous over placebo in treating MDD among adults, but no significant difference compared to SNRIs and SSRIs in general. https://www.crd.york.ac.uk/PROSPERO/display_record.php?ID=CRD42021278355, identifier: CRD42021278355.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>39654656</t>
+          <t>33654400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A Randomized Controlled Study of Efficacy and Cognitive Function Improvement of Vortioxetine and Escitalopram in Patients with Depression in Chinese Han Nationality.</t>
+          <t>Efficacy of Vortioxetine on Anhedonia: Results from a Pooled Analysis of Short-Term Studies in Patients with Major Depressive Disorder.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>To assess the efficacy and safety of Vortioxetine and Escitalopram in improving cognition in patients with major depressive disorder (MDD). At baseline, 131 MDD patients and 70 healthy controls completed the Hamilton Depression Scale (HAMD-17), Hamilton Anxiety Scale (HAMA), Snaith-Hamilton Pleasure Scale (SHAPS) and MATRICS Consensus Cognitive Battery (MCCB). Patients with MDD were randomly divided into Vortioxetine (n = 62) and Escitalopram (n = 69) groups with an 8-week follow-up research. ANOVA for repeated measurement was utilized to compare the efficacy of Vortioxetine and Escitalopram. The total scores of HAMD-17, HAMA and SHAPS scales had statistical difference between MDD cases and healthy controls (P &lt; 0.001) at baseline. After 8 weeks of treatment, the scale scores of the HAMD-17, HAMA and SHAPS had lowered in both groups, with no statistical difference between two groups (P &gt; 0.05). At baseline, MDD patients had defects in Speed of Processing, Attention Vigilance, Verbal Learning, Visual Learning, Reasoning and Problem Solving, and Social Cognition, compared with healthy controls. After 8 weeks of treatment with Vortioxetine or Escitalopram, the patients had improved in the aspects of cognitive functions above except Social Cognition. Numerical improvements of MCCB scale were found in the two groups, P &gt; 0.05. Most adverse events were mild or moderate, with nausea being the most common adverse event. Both Vortioxetine and Escitalopram can improve the mental status and cognitive functions in MDD patients, with mild or moderate adverse events. www.chictr.org.cn, identifier: ChiCTR1900024858.</t>
+          <t>Anhedonia is a core symptom of major depressive disorder (MDD), which has important functional consequences for the patient. This post hoc analysis investigated the relationship between anhedonia and functioning in patients with MDD treated with vortioxetine. We conducted a pooled analysis of all 11 short-term, double-blind, randomized, placebo-controlled studies of vortioxetine (fixed dose, 5-20 mg/day) in patients with MDD which included Montgomery-Åsberg Depression Rating Scale (MADRS) and Sheehan Disability Scale (SDS) assessments. A short-term, randomized, active-controlled trial of flexible-dose treatment with vortioxetine (10-20 mg/day) versus agomelatine (25-50 mg/day) was also analyzed. Mean changes from baseline to study endpoint in MADRS total, MADRS anhedonia subscale, SDS total, and SDS social-functioning scores were analyzed by a mixed model for repeated measures. The relationship between treatment effects on anhedonia and functioning was investigated using path analysis. A total of 4988 patients with MDD were included in the placebo-controlled studies and 495 in the active-comparator study. Significant dose-dependent improvements in overall depressive symptoms, anhedonia, and measures of functioning were seen in vortioxetine-treated patients compared with those who received placebo or agomelatine. Results of the path analysis for the placebo-controlled studies suggested that the effect on functioning was mostly driven by the effect of treatment on MADRS anhedonia factors. Vortioxetine showed significant short-term efficacy against anhedonia in this large population of patients with MDD. In the placebo-controlled studies, improvements in functioning associated with vortioxetine appeared to be mostly driven by the effect of treatment on MADRS anhedonia factors.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37970263</t>
+          <t>36065389</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Interface between Depression and Alzheimer's Disease. A Comprehensive Approach.</t>
+          <t>Effectiveness and Safety of Vortioxetine for Major Depressive Disorder in Real-World Clinical Practice: Results from the Single-Arm RELIEVE China Study.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Depression and Alzheimer's disease (AD) are frequent interacting diseases in the elderly with a negative impact on the quality of life of patients and caregivers. Late-life depression may be regarded either as an early symptom of AD or a risk factor for AD, depending on the context. This review was focused on the latest developments in the fields of the neurobiological basis and treatment of depression in AD. We found that some plausible hypotheses are emerging to correlate with depression in AD, such as neuroinflammation and dysimmune regulation. It seems that depression is not related to amyloid deposition, but this issue is not completely resolved. The response to antidepressants is controversial according to the evidence from 10 small double-blind randomized placebo-controlled clinical trials with antidepressants in AD patients with depression: four with sertraline, one with three arms (sertraline, mirtazapine, placebo), one with fluoxetine, one with imipramine, one with clomipramine, one with escitalopram, and one with vortioxetine. The total number of treated patients completing the trials was 638. The main criterion of a positive response was a reduction in the scores of clinical scales for depression of at least 50%. The weighted OR (odds ratio) was calculated with the method of Mantel-Haenszel: 1.29; 95% CI: 0.77-2.16. No significant differences were found compared with placebo. Antidepressants did not have a meaningful negative influence on cognition, which was measured with the mini-mental state examination (MMSE) in 18 clinical trials. Alternatives other than drugs are also discussed. Although there have been important advances in this field, pathophysiology and treatment deserve further research.</t>
+          <t>Major depressive disorder (MDD) affects &gt;163 million people worldwide and is a leading cause of disability in China. Functional impairment occurs alongside cognitive symptoms, anxiety, and depression, reducing quality of life and productivity in patients with MDD. The multimodal antidepressant vortioxetine has demonstrated efficacy in relieving depressive and functional symptoms of MDD in randomized controlled trials (RCTs). The RELIEVE China study aimed to investigate the real-world effectiveness of vortioxetine in China. This was an observational, prospective cohort study in patients with MDD initiating treatment with vortioxetine at physician's discretion in China. Participants were followed up for 24 weeks and assessed at 3 time points: baseline, week 8, and week 24. The primary objective was to assess the change from baseline to weeks 8 and 24 in functional impairment as measured by Sheehan Disability Scale (SDS) total score. Additional assessments included SDS subdomains, measures of depression severity, anxiety, and cognition. The safety and tolerability of vortioxetine were also examined. In total, 859 patients were included in the analysis. A consistent and significant improvement in functional impairment was observed during the study, with baseline mean SDS total score (16.7 points) decreasing by 5.42 (SE, 0.22) and 8.71 (SE, 0.226) points at week 8 and week 24, respectively (&lt;i&gt;P&lt;/i&gt;&lt;0.0001). Improvements in other functioning, cognitive, and anxiety assessments were also observed (all &lt;i&gt;P&lt;/i&gt;&lt;0.0001). A total of 74.7% of patients had responded, and 63.9% had reached remission at week 24. The tolerability profile of vortioxetine in this real-world population was consistent with the established tolerability profile for this drug. This study demonstrated the short- and long-term effectiveness and tolerability of vortioxetine for patients with MDD in a real-world setting in China. These findings are consistent with the efficacy and safety profile observed during RCTs.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>33292580</t>
+          <t>37424427</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A comparison of eating disorder symptomatology, psychological distress and psychosocial function between early, typical and later onset anorexia nervosa.</t>
+          <t>Potential Effect of Vortioxetine on Restless Leg Syndrome.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Epidemiological studies suggest that the incidence of anorexia nervosa (AN) is increasing in younger populations, with some evidence that clinical differences occur according to age of onset (AOO), which may impact prognostic outcomes. The current study sought to compare eating disorder (ED) symptomatology, psychological distress and psychosocial function between early onset (EO), typical onset (TO) and later onset (LO) AN in a large sample of treatment-seeking patients with a diagnosis of AN. Participants included 249 individuals with a diagnosis of AN who were assessed at an outpatient ED service. The sample was divided into three groups based on AOO; those with an AOO ≤14 years (N = 58) were termed 'EO-AN', those with an AOO between 15 and 18 years (N = 113) were termed 'TO-AN' and those with an AOO of &gt; 18 years (N = 78) were termed 'LO-AN'. Comparisons were made between AOO groups on assessments of ED symptomatology, psychological distress and psychosocial function. EO-AN patients reported a significantly longer illness duration than both TO-AN and LO-AN groups. After controlling for effect of illness duration, the EO-AN group demonstrated significantly higher ED symptomatology and dysmorphic concern compared to the LO-AN group. The EO-AN group demonstrated significantly decreased cognitive flexibility compared to both the TO-AN and LO-AN groups. These findings suggest that clinical differences do occur according to AOO in AN whereby EO-AN may represent a more severe form of illness that is not attributable to increased illness duration. Treatment strategies which specifically address patients with EO-AN may improve long term health outcomes and recovery.</t>
+          <t>Restless legs syndrome (RLS) is a chronic progressive movement disorder characterized by abnormal sensations, especially at rest and at night, as the need and urge to move the lower extremity. It has been reported that RLS severity and frequency increase in patients with anxiety and depression. It has been reported that serotonin-noradrenaline reuptake inhibitors such as venlafaxine and selective serotonin reuptake inhibitors such as citalopram, fluoxetine, paroxetine, and sertraline can cause RLS symptoms. No adverse effects of vortioxetine on RLS have been reported in the literature. In this case series, we report the effect of vortioxetine in patients with RLS with symptoms of depression and anxiety. In this case series, the effect of adding vortioxetine to treatment on RLS symptoms is reported in 7 patients (5 female). After the use of vortioxetine, 5 of 7 patients' symptoms regressed without the need to start a separate drug for primary movement disorder. In conclusion, we believe that studies should be conducted to investigate the efficacy of vortioxetine in the treatment of RLS. Therefore, randomized controlled studies are needed to determine the effect and safety of vortioxetine on RLS symptoms.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36700320</t>
+          <t>31930057</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Escitalopram, Desvenlafaxine, and Vortioxetine in the Acute Treatment of Anxious Depression: A Randomized Rater-blinded 6-week Clinical Trial.</t>
+          <t>Vortioxetine versus sertraline in metabolic control, distress and depression in Mexican patients with type 2 diabetes.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Anxious depression is associated with greater chronicity, higher severity of symptoms, more severe functional impairment, and poor response to drug treatment. However, evidence for first-choice antidepressants in patients with anxious depression is limited. This study aimed to compare the efficacy and safety of escitalopram, desvenlafaxine, and vortioxetine in the acute treatment of anxious depression. Patients (n = 124) with major depressive disorder and high levels of anxiety were randomly assigned to an escitalopram treatment group (n = 42), desvenlafaxine treatment group (n = 40), or vortioxetine treatment group (n = 42) in a 6-week randomized rater-blinded head-to-head comparative trial. Changes in overall depressive and anxiety symptoms were assessed using the 17-item Hamilton Depression Rating Scale (HAMD) and Hamilton Anxiety Rating Scale (HAMA), respectively. Patients demonstrated similar baseline-to-endpoint improvement in scores and similar response and remission rates for HAMD and HAMA. Analysis of the individual HAMD items revealed that desvenlafaxine significantly reduced anxiety somatic scores (&lt;i&gt;p&lt;/i&gt; = 0.013) and hypochondriasis scores (&lt;i&gt;p&lt;/i&gt; = 0.014) compared to escitalopram. With respect to the individual HAMA items, desvenlafaxine treatment showed significantly lower scores for respiratory symptoms (&lt;i&gt;p&lt;/i&gt; = 0.013) than escitalopram treatment and cardiovascular symptoms (&lt;i&gt;p&lt;/i&gt; = 0.005) than vortioxetine treatment. The treatments were well tolerated, with no significant differences. Our results indicated no significant differences in the efficacy and tolerability of escitalopram, desvenlafaxine, and vortioxetine in this subtype of patients with anxious depression during the acute phase of treatment.</t>
+          <t>Depression in patients with type 2 diabetes (T2D) is often undiagnosed and remains untreated, leading to poor therapy adherence and ill health-related outcomes. We evaluated the effect of vortioxetine versus sertraline in the treatment of depression, distress and metabolic control in subjects with T2D and depression. Participants were selected from the Clinic for Diabetes, diagnosed with depression when the score was ≥14 in the Hamilton Depression Rating Scale, and verified by a psychiatrist in agreement with the DSM-5 instrument (Diagnostic and Statistical Manual of Mental Disorders, fifth edition). The criteria for recruitment also included glycosylated hemoglobin ≥7.5%, 18 to 60 years of age, and written informed consent. Pharmacological treatment for depression was assigned randomly: vortioxetine (10 mg/day) or sertraline (75 mg/day) for 8 weeks. Biochemical parameters, anthropometric measures and depression symptoms were evaluated after antidepressant treatment. This was a randomized singled-blind study. Subjects that met the inclusion criteria were 50, of which only 21 patients with T2D and depression finished the treatment. Vortioxetine and sertraline showed partial remission of depression. Vortioxetine showed a major effect size in glycosylated hemoglobin and a moderate effect size on weight loss, fasting plasma glucose (FPG), cholesterol and triacylglycerol levels. On the other hand, patients treated with sertraline presented a slight increase in body weight, body mass index (BMI), and in all biochemical markers. Vortioxetine may ameliorate depressive symptoms and metabolic control in patients with T2D and depression. Trial registration number: NCT03978286.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25893002</t>
+          <t>34955641</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Depression and cerebrovascular disease: could vortioxetine represent a valid treatment option?</t>
+          <t>Early Improvement with Vortioxetine Predicts Response and Remission: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Depression and cerebrovascular atherosclerosis often occur in comorbidity showing neuropsychological impairment and poor response to antidepressant treatment. Objective is to evaluate if new antidepressant vortioxetine may be a potential treatment option. Mechanism of Action : Vortioxetine has 5-HT3, 5-HT7 and 5-HT1D antagonists, 5-HT1B partial agonist and a 5-HT1A agonist and serotonin transporter inhibitor property. Efficacy and safety in Major Depressive Disorders and in cognitive impairment : The majority of trials (one of them in older people) showed efficacy for vortioxetine against placebo and no differences against other active treatments. The Adverse Effects ranged from 15.8% more to 10.8% less than placebo. In the elderly, only nausea was found higher than placebo. Effects on arterial blood pressure and cardiac parameters including the ECG-QT segment were similar to placebo. Elderly depressive patients on vortioxetine showed improvement versus placebo and other active comparators in Auditory Verbal Learning Test and Digit Symbol Substitution Test scores. The inclusion criteria admitted cases with middle cerebrovascular disease. Conclusion : The mechanism of action, the efficacy on depression and safety profile and early data on cognitive impairment make Vortioxetine a strong candidate for use in depression associated with cerebrovascular disease. This information must be supported by future randomized controlled trials.</t>
+          <t>Several weeks of treatment with an antidepressive agent may be required before efficacy is demonstrated in patients with major depressive disorder. This study investigated the predictive value of early partial improvement with vortioxetine for treatment response and remission. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. The key outcomes were the predictive value of early partial improvement (reduction in MADRS total score of ≥20% from baseline to week 2) with vortioxetine for MADRS response (≥50% decrease in score from baseline) and remission (decrease in score to ≤10) at week 8. Relevant data were available for 478 patients; 62/158 patients receiving placebo, 71/162 receiving vortioxetine 10 mg, and 66/158 receiving vortioxetine 20 mg were early improvers. Early improvers receiving vortioxetine (10 mg or 20 mg) were more likely than non-early improvers to achieve a week 8 response (71.2-73.2% vs 29.7-38.0%) or remission (50.7-51.5% vs 17.4-18.7%). Positive predictive values for response and remission with vortioxetine were ~70% and ~50%, respectively; negative predictive values were ~70% and ~80%, respectively. Improvement with vortioxetine may be predicted by early partial improvement in MADRS score. Some patients may benefit from longer-term treatment even without early improvement, another finding that may aid clinical decision-making. ClinicalTrials.gov registration for primary study: NCT02389816.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35799757</t>
+          <t>26316764</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Clinical efficacy of Vortioxetine and escitalopram in the treatment of depression.</t>
+          <t>Profile of vortioxetine in the treatment of major depressive disorder: an overview of the primary and secondary literature.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>This study was aimed to investigate the efficacy and safety of vortioxetine hydrobromide in the treatment of major depressive disorder (MDD). One hundred and eighty patients with the newly diagnosed depression in our hospital between August 2018 and August 2019 were selected and randomly divided into an observation group and a control group, 90 each group. The control group was treated with escitalopram, and the observation group was treated with voltaxetine. The efficacy and adverse reactions were evaluated by the Hamilton Depression scale-17 (HAMD-17), Sheehan Disability Scale (SDS), Perceived Deficits Questionnaire-Depression (PDQ-D), and treatment emergent symptom scale (TESS) before treatment and at the end of the 8th and 24th week after treatment. At the end of the 8th and 24th week after treatment, the HAMD-17 scores of the two groups were lower than those before treatment (P&lt;0.05); at the end of the 8th and 24th week after treatment, the PDQ-D and SDS scores of the two groups were lower than those before treatment (P&lt;0.05), and the above scores of the observation group were lower than those of the control group (P&lt;0.05). There was no significant difference in the incidence of adverse reactions between the two groups (P&gt;0.05). Voltaxetine can improve cognitive function and clinical symptoms of patients with severe depression and has high safety, which is worth clinical attention.</t>
+          <t>This article reviews the pharmacological profile and available efficacy and tolerability/safety data for vortioxetine, one of the most recent antidepressant drugs to be approved in the USA for the treatment of major depressive disorder (MDD) in adults. The efficacy of vortioxetine for treating MDD in adults is supported by eight positive short-term (6- to 12-weeks) randomized, placebo-controlled trials, and one positive randomized, double-blind, 52-week relapse prevention trial. Based on pooled data from short-term randomized trials and from longer-term studies, vortioxetine appears to be well tolerated and to have a low incidence of adverse effects on sexual functioning. Vortioxetine also appears to be effective for treating symptoms of MDD in the elderly based on the results of one randomized trial for which recruitment was focused on this specific population. Nevertheless, effectiveness studies that directly compare the clinical effects of vortioxetine with other established antidepressant drugs are lacking, and there is no evidence as yet that vortioxetine is more clinically effective than other types of antidepressants. Some preliminary suggestions concerning the place of vortioxetine among the broad range of pharmacological treatments for adults with MDD are provided.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>27013879</t>
+          <t>38420046</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder: a meta-analysis of randomized controlled trials.</t>
+          <t>Effect of Vortioxetine in Comparison to Fluoxetine on Metabolic Parameters in Patients With Depressive Disorder: A Randomized Controlled Trial.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vortioxetine is an investigational multimodal antidepressant. We conducted this meta-analysis to assess the efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder (MDD). Randomized controlled trials (RCTs) published in PubMed, Web of Science, Embase, and ClinicalTrials.gov were systematically reviewed to assess the treatment effects and safety profiles of patients with MDD who were treated with 10 mg vortioxetine. The outcome measures included response rate, remission rate, changes from baseline in Montgomery-Asberg Depression Rating Scale (MADRS), Hamilton Rating Scale for Depression (24-items) (HAM-D24), Clinical Global Impression-Severity (CGI-S), and Clinical Global Impression-Improvement (CGI-I) scores. Results were expressed with risk ratio or weighted mean difference with 95% confidence intervals. Pooled results were calculated using a fixed-effects model or a random-effects model according to the heterogeneity among included trials. Six RCTs with a total of 1,801 patients met the inclusion criteria and were included in this meta-analysis. The 10 mg vortioxetine dose significantly increased the response rate and remission rate in the treatment of MDD compared with placebo. Moreover, there was a statistically significant reduction from baseline in the MADRS, HAM-D24, CGI-S, and CGI-I scores with 10 mg vortioxetine vs placebo. The incidence of treatment-emergent adverse events such as nausea, vomiting, constipation, and hyperhidrosis was higher in the 10 mg vortioxetine group than in the placebo group. Vortioxetine 10 mg can significantly increase the response rate and remission rate, and reduce the MADRS, HAM-D24, CGI-S, and CGI-I scores in patients with MDD with an acceptable risk of treatment-emergent adverse events. Further well-conducted, large-scale trials are needed to validate these findings.</t>
+          <t>Background Major depressive disorder (MDD) is a debilitating mood disorder that increases the risk of metabolic syndrome (MS), emphasizing the need for mental and physical health treatments. Although many studies have linked atypical antipsychotics to metabolic disturbances, there is limited evidence linking selective serotonin reuptake inhibitor use to MS. This study aimed to assess the risk of MS among patients with MDD who were administered vortioxetine and fluoxetine. Methodology This was a prospective, open-label, randomized controlled trial conducted in the psychiatry department. Using computer-generated random numbers, the physician assigned fluoxetine 20 mg or vortioxetine 10 mg and recorded MS parameters at baseline and each visit (4, 8, 12, 16, 20, and 24 weeks). This study was registered with CTRI (CTRI/2021/07/034892). Results A total of 122 participants were allocated randomly to the following two groups: group A (n = 60) and group B (n = 62). An independent-sample t-test showed a significant improvement in fasting plasma glucose (FPG) at week eight (p = 0.005), triglycerides (TGs) at week 16 (p = 0.005), high-density lipoprotein (HDL) at week 20 (p = 0.005), and waist circumference at week 24 (p = 0.005) in group A compared to group B. However, systolic blood pressure (SBP) and diastolic blood pressure (DBP) were not significantly associated with either group (p = 0.126 and p = 0.793, respectively). Overall depression remission (Hamilton Depression Rating Scale (HAM-D)) and medication adherence rating scale scores were similar between groups (p = 0.337 and 0.325, respectively). Furthermore, most adverse drug reactions were possibly associated with the study drugs. Conclusions In comparison to group B, group A showed significant improvements in FPG, HDL, and waist circumference more effectively; however, both groups led to higher TG levels, with non-significant numerical improvements observed in SBP and DBP in both groups. In addition, both treatment groups reduced the HAM-D score and had a similar MDD remission rate.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37641760</t>
+          <t>29760763</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Metabolic Effects of Antidepressants: Results of a Randomized Study's Interim Analysis.</t>
+          <t>An open-label, flexible dose adaptive study evaluating the efficacy of vortioxetine in subjects with panic disorder.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Individuals with major depressive disorder exhibit a dysregulated metabolic profile. There are few studies on how vilazodone, escitalopram, and vortioxetine alter metabolic parameters. Our study aimed to determine the change in plasma glucose, HbA&lt;sub&gt;1c&lt;/sub&gt;, serum cholesterol, triglyceride, and creatinine at 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed at baseline, 4, 8, and 12 weeks after receiving oral tablets of either vilazodone (20-40mg/d), escitalopram (10-20mg/d), or vortioxetine (5-20mg/d). This study is CTRI-registered (2022/07/043808). Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median Hamilton Depression Rating Scale (HDRS) scores of the participants in vilazodone, escitalopram, and vortioxetine groups were 30.0, 29.5, and 29.0 at baseline (p=0.76) and 19.5, 19.5, and 18.0 (p=0.18) at 12 weeks, respectively. The median fasting blood sugar (FBS) values were 98.5, 105.5, and 98.0 at baseline (p=0.07) and 94.0, 99.5, and 96.0 (p=0.19) at 12 weeks, for vilazodone, escitalopram, and vortioxetine groups, respectively. The post hoc analysis did not yield statistically significant differences regarding any parameters. According to this interim study, the HDRS scores declined after 12 weeks of therapy. The subjects' metabolic parameters did not significantly change. It is essential to perform further investigation regarding these impacts.</t>
+          <t>Despite the current treatments available for panic disorder (PD), as many as one-third of patients have persistent and treatment-resistant panic attacks. Vortioxetine is an approved medicine for major depressive disorder and has been shown to have anxiolytic properties. The purpose of this study was to evaluate its efficacy and safety in an adult population with a diagnosis of PD. The study design was open label with flexible dose strategies (5, 10, or 20 mg) with a treatment period of 10 weeks. 27 male and female subjects aged between 18 and 60 years, who met DSM-IV criteria for PD with or without agoraphobia, or who had a Panic Disorder Severity Scale (PDSS) score &gt; 8 at baseline were enrolled. Statistical significance was established by the Student's &lt;i&gt;T&lt;/i&gt; test. A statistically significant decrease in the occurrence of panic attacks was measured with the PDSS with vortioxetine. In addition, a moderate improvement in the quality of life and no significant side effects were observed using the Quality-of-Life Scale and Monitoring of Side Effects Scale, respectively. These results provide some support for the use of vortioxetine in the management of panic disorder.&lt;i&gt;Trial registration&lt;/i&gt; ClinicalTrials.gov ID#: NCT02395510. Registered March 23, 2015, https://clinicaltrials.gov/ct2/show/NCT02395510.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33654400</t>
+          <t>26035186</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Efficacy of Vortioxetine on Anhedonia: Results from a Pooled Analysis of Short-Term Studies in Patients with Major Depressive Disorder.</t>
+          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of 2 doses of vortioxetine in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Anhedonia is a core symptom of major depressive disorder (MDD), which has important functional consequences for the patient. This post hoc analysis investigated the relationship between anhedonia and functioning in patients with MDD treated with vortioxetine. We conducted a pooled analysis of all 11 short-term, double-blind, randomized, placebo-controlled studies of vortioxetine (fixed dose, 5-20 mg/day) in patients with MDD which included Montgomery-Åsberg Depression Rating Scale (MADRS) and Sheehan Disability Scale (SDS) assessments. A short-term, randomized, active-controlled trial of flexible-dose treatment with vortioxetine (10-20 mg/day) versus agomelatine (25-50 mg/day) was also analyzed. Mean changes from baseline to study endpoint in MADRS total, MADRS anhedonia subscale, SDS total, and SDS social-functioning scores were analyzed by a mixed model for repeated measures. The relationship between treatment effects on anhedonia and functioning was investigated using path analysis. A total of 4988 patients with MDD were included in the placebo-controlled studies and 495 in the active-comparator study. Significant dose-dependent improvements in overall depressive symptoms, anhedonia, and measures of functioning were seen in vortioxetine-treated patients compared with those who received placebo or agomelatine. Results of the path analysis for the placebo-controlled studies suggested that the effect on functioning was mostly driven by the effect of treatment on MADRS anhedonia factors. Vortioxetine showed significant short-term efficacy against anhedonia in this large population of patients with MDD. In the placebo-controlled studies, improvements in functioning associated with vortioxetine appeared to be mostly driven by the effect of treatment on MADRS anhedonia factors.</t>
+          <t>This 8-week, randomized, double-blind, placebo-controlled study, conducted August 2010-May 2012 in the United States, evaluated the safety and efficacy of vortioxetine 10 mg and 15 mg in patients with major depressive disorder (MDD). The mechanism of action of vortioxetine is thought to be related to direct modulation of serotonin (5-HT) receptor activity and inhibition of the serotonin transporter. Adults aged 18-75 years with MDD (DSM-IV-TR) and Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥ 26 were randomized (1:1:1) to receive vortioxetine 10 mg or 15 mg or placebo once daily, with the primary efficacy end point being change from baseline at week 8 in MADRS analyzed by mixed model for repeated measures. Adverse events were recorded during the study, suicidal ideation and behavior were assessed using the Columbia-Suicide Severity Rating Scale (C-SSRS), and sexual dysfunction was assessed using the Arizona Sexual Experience (ASEX) scale. Of the 1,111 subjects screened, 469 subjects were randomized: 160 to placebo, 157 to vortioxetine 10 mg, and 152 to vortioxetine 15 mg. Differences from placebo in the primary efficacy end point were not statistically significant for vortioxetine 10 mg or vortioxetine 15 mg. Nausea, headache, dry mouth, constipation, diarrhea, vomiting, dizziness, and flatulence were reported in ≥ 5% of subjects receiving vortioxetine. Discontinuation due to adverse events occurred in 7 subjects (4.4%) in the placebo group, 8 (5.2%) in the vortioxetine 10 mg group, and 12 (7.9%) in the vortioxetine 15 mg group. ASEX total scores were similar across groups. There were no clinically significant trends within or between treatment groups on the C-SSRS, laboratory values, electrocardiogram, or vital sign parameters. In this study, vortioxetine did not differ significantly from placebo on MADRS total score after 8 weeks of treatment in MDD subjects. ClinicalTrials.gov identifier: NCT01179516.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>27143896</t>
+          <t>25075188</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The efficacy and safety of multiple doses of vortioxetine for generalized anxiety disorder: a meta-analysis.</t>
+          <t>Pharmacology and clinical potential of vortioxetine in the treatment of major depressive disorder.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vortioxetine is a novel antidepressant approved for the treatment of major depressive disorder by the US Food and Drug Administration in September 2013. This meta-analysis assessed the efficacy and safety of different doses of vortioxetine for generalized anxiety disorder of adults. PubMed, Cochrane Library, PsycINFO, and Clinical Trials databases were searched from 2000 through 2015. The abstracts of the annual meetings of the American Psychiatric Association and previous reviews were searched to identify additional studies. The search was limited to individual randomized controlled trials (RCTs), and there was no language restriction. Four RCTs met the selection criteria. These studies included 1,843 adult patients. Results were expressed as odds ratios (ORs) and 95% confidence intervals (CIs). The data were pooled with a random-effects or fixed-effects model. The results showed that multiple doses (2.5, 5, and 10 mg/d) of vortioxetine did not significantly improve the generalized anxiety disorder symptoms compared to placebo (OR=1.16, 95% CI=0.84-1.60, Z=0.89, P=0.38; OR=1.41, 95% CI=0.82-2.41, Z=1.25, P=0.21; OR=1.05, 95% CI=0.76-1.46, Z=0.32, P=0.75, respectively). We measured the efficacy of 2.5 mg/d vortioxetine compared to 10 mg/d, and no significant differences were observed. The common adverse effects included nausea and headache. With increased dose, nausea was found to be more frequent in the vortioxetine (5 and 10 mg/d) group (OR=2.99, 95% CI=1.31-6.84, Z=2.60, P=0.009; OR=2.80, 95% CI=1.85-4.25, Z=4.85, P&lt;0.00001, respectively), but no significant differences were observed for headache. The results showed no significant improvement in the treatment of generalized anxiety disorder for vortioxetine compared to placebo, and nausea was more frequent with higher doses. So the current evidences do not support using vortioxetine for the treatment of generalized anxiety disorder. Few RCTs were included in our meta-analysis, and more studies are needed to verify our results in the future.</t>
+          <t>VORTIOXETINE IS A NEW MULTIMODAL ACTION ANTIDEPRESSANT WITH TWO TYPES OF ACTION: serotonin transporter (SERT) blockade and a strong affinity for several serotoninergic receptors. It is an antagonist of the 5-HT3 and 5-HT7 receptors, a partial agonist of 5-HT1B, and an agonist of 5-HT1A. Its combined action on SERT and four subtypes of serotoninergic receptors increases the extracellular concentration of serotonin, dopamine, and noradrenaline. Twelve clinical trials have been carried out, nine of which had positive results versus placebo. When active comparators were included in the study design, no significant differences were found except in one study in which the efficacy of vortioxetine was superior to the comparator (agomelatine) in depression resistant to selective serotonin reuptake inhibitors (SSRI)/serotonin-norepinephrine reuptake inhibitors (SNRI) treatment. Tolerability studies indicate that the drug does not cause any important problems on blood tests, vital signs, or on electrocardiography. The lack of weight gain and induction of metabolic syndrome and the lack of significant changes in the QTc are especially important. The incidence rate of sexual dysfunction is low and similar to placebo in various trials. Similarly, cognitive function remains intact with vortioxetine.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35500900</t>
+          <t>27143896</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
+          <t>The efficacy and safety of multiple doses of vortioxetine for generalized anxiety disorder: a meta-analysis.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>This study aimed to compare the efficacy and safety of escitalopram, vortioxetine, and desvenlafaxine for acute treatment of major depressive disorder (MDD) with cognitive complaint (CC). A total of 129 patients with MDD who also complained of CC were randomized evenly to either escitalopram, vortioxetine, or desvenlafaxine group and underwent a multi-center, six-week, rater-blinded, and head-to-head comparative trial. Differences in depressive symptoms following treatment were measured using the Hamilton Depression Rating Scale (HAMD) and the Montgomery-Åsberg Depression Rating Scale (MADRS). Subjective cognitive function and the presence of adverse events were assessed. The three antidepressant treatment groups did not show significant differences in the improvement of depressive symptoms as measured by HAMD and MADRS. Desvenlafaxine treatment was associated with a superior treatment response rate in depressive symptoms compared to vortioxetine or escitalopram treatment. However, no significant differences were found in the remission rate of depressive symptoms. The three antidepressant treatment groups did not show significant differences in the improvement of CC. Adverse profiles of each treatment group were tolerable, with no significant differences. In acute antidepressant treatment for MDD with CC, escitalopram, vortioxetine, and desvenlafaxine presented similar efficacy in relief of depressive symptoms; however, desvenlafaxine was associated with a superior treatment. Further studies are needed to confirm these results by investigating the therapeutic efficacy and safety profile of long-term antidepressant treatment of MDD with CC (Clinical Trial Registry, http://cris.nih.go.kr/cris/en/: KCT0002173).</t>
+          <t>Vortioxetine is a novel antidepressant approved for the treatment of major depressive disorder by the US Food and Drug Administration in September 2013. This meta-analysis assessed the efficacy and safety of different doses of vortioxetine for generalized anxiety disorder of adults. PubMed, Cochrane Library, PsycINFO, and Clinical Trials databases were searched from 2000 through 2015. The abstracts of the annual meetings of the American Psychiatric Association and previous reviews were searched to identify additional studies. The search was limited to individual randomized controlled trials (RCTs), and there was no language restriction. Four RCTs met the selection criteria. These studies included 1,843 adult patients. Results were expressed as odds ratios (ORs) and 95% confidence intervals (CIs). The data were pooled with a random-effects or fixed-effects model. The results showed that multiple doses (2.5, 5, and 10 mg/d) of vortioxetine did not significantly improve the generalized anxiety disorder symptoms compared to placebo (OR=1.16, 95% CI=0.84-1.60, Z=0.89, P=0.38; OR=1.41, 95% CI=0.82-2.41, Z=1.25, P=0.21; OR=1.05, 95% CI=0.76-1.46, Z=0.32, P=0.75, respectively). We measured the efficacy of 2.5 mg/d vortioxetine compared to 10 mg/d, and no significant differences were observed. The common adverse effects included nausea and headache. With increased dose, nausea was found to be more frequent in the vortioxetine (5 and 10 mg/d) group (OR=2.99, 95% CI=1.31-6.84, Z=2.60, P=0.009; OR=2.80, 95% CI=1.85-4.25, Z=4.85, P&lt;0.00001, respectively), but no significant differences were observed for headache. The results showed no significant improvement in the treatment of generalized anxiety disorder for vortioxetine compared to placebo, and nausea was more frequent with higher doses. So the current evidences do not support using vortioxetine for the treatment of generalized anxiety disorder. Few RCTs were included in our meta-analysis, and more studies are needed to verify our results in the future.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>25650503</t>
+          <t>35500900</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comparison of vortioxetine versus venlafaxine XR in adults in Asia with major depressive disorder: a randomized, double-blind study.</t>
+          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>This randomized, double-blind 8 week study compared the efficacy and tolerability of fixed-dose treatment with vortioxetine (10 mg/day) and venlafaxine extended release (XR) (150 mg/day) in major depressive disorder (MDD) patients. Patients aged 18-65 years with a primary diagnosis of recurrent MDD, a Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and a Clinical Global Impression-Severity (CGI-S) score ≥4 were randomized (1:1) to treatment with either vortioxetine or venlafaxine XR. The primary endpoint was change from baseline to Week 8 in MADRS total score (analysis of covariance [ANCOVA], full-analysis set [FAS], last observation carried forward [LOCF]), using a non-inferiority margin of +2.5 points. Pre-specified secondary endpoints included MADRS response and remission rates, anxiety symptoms (HAM-A), CGI, overall functioning (SDS), and health-related quality of life (Q-LES-Q). This study (SOLUTION) has the www.ClinicalTrials.gov identifier: NCT01571453. On the primary efficacy endpoint at Week 8, non-inferiority was established with a difference of -1.2 MADRS points in favor of vortioxetine (95% CI: -3.0 to 0.6). The MADRS total score decreased (improved) from 32.3 ± 4.6 at baseline to 13.6 ± 9.6 (vortioxetine: n = 209) and from 32.3 ± 4.5 to 14.8 ± 10.4 (venlafaxine XR: n = 215) (FAS, LOCF). At Week 8, the HAM-A and SDS total scores, CGI and Q-LES-Q scores, and response and remission rates demonstrated similar improvement for vortioxetine and venlafaxine XR, with remission rates (MADRS ≤10) of 43.1% (vortioxetine) versus 41.4% (venlafaxine XR) (LOCF). Fewer vortioxetine than venlafaxine XR patients withdrew for any reason (18.0% versus 27.4%) or for adverse events (6.6% versus 13.7%). The most frequent adverse events (≥5%) for both treatments were nausea, dizziness, headache, and dry mouth. In addition, accidental overdose, decreased appetite, constipation and insomnia were reported by (≥5%) of patients treated with venlafaxine XR. The inclusion and exclusion criteria may limit the generalizability of the study. Since patients with a history of lack of response to venlafaxine XR were excluded from this study, there is a selection bias in favor of venlafaxine XR. Vortioxetine was at least as efficacious as venlafaxine XR and was safe and better tolerated than venlafaxine XR.</t>
+          <t>This study aimed to compare the efficacy and safety of escitalopram, vortioxetine, and desvenlafaxine for acute treatment of major depressive disorder (MDD) with cognitive complaint (CC). A total of 129 patients with MDD who also complained of CC were randomized evenly to either escitalopram, vortioxetine, or desvenlafaxine group and underwent a multi-center, six-week, rater-blinded, and head-to-head comparative trial. Differences in depressive symptoms following treatment were measured using the Hamilton Depression Rating Scale (HAMD) and the Montgomery-Åsberg Depression Rating Scale (MADRS). Subjective cognitive function and the presence of adverse events were assessed. The three antidepressant treatment groups did not show significant differences in the improvement of depressive symptoms as measured by HAMD and MADRS. Desvenlafaxine treatment was associated with a superior treatment response rate in depressive symptoms compared to vortioxetine or escitalopram treatment. However, no significant differences were found in the remission rate of depressive symptoms. The three antidepressant treatment groups did not show significant differences in the improvement of CC. Adverse profiles of each treatment group were tolerable, with no significant differences. In acute antidepressant treatment for MDD with CC, escitalopram, vortioxetine, and desvenlafaxine presented similar efficacy in relief of depressive symptoms; however, desvenlafaxine was associated with a superior treatment. Further studies are needed to confirm these results by investigating the therapeutic efficacy and safety profile of long-term antidepressant treatment of MDD with CC (Clinical Trial Registry, http://cris.nih.go.kr/cris/en/: KCT0002173).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22963932</t>
+          <t>36561896</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled 6-wk trial of the efficacy and tolerability of 5 mg vortioxetine in adults with major depressive disorder.</t>
+          <t>Treatment-Resistant Bipolar Depression: Therapeutic Trends, Challenges and Future Directions.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is a multi-modal antidepressant in clinical development for the treatment of major depressive disorder (MDD). The current study evaluated the efficacy and tolerability of 5 mg vortioxetine compared to placebo after 6 wk of treatment in adults with MDD in an out-patient setting. Adults aged 18-75 yr, with a diagnosis of MDD and a baseline Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥30, were randomized to receive either 5 mg vortioxetine or placebo over 6 wk, followed by a 2-wk medication-free discontinuation period. The primary efficacy measure was change from baseline in Hamilton Rating Scale for Depression (HAMD)-24 total score at week 6 compared to placebo. Additional measures included response and remission rates, Clinical Global Impression Scale - Improvement scores, HAMD-24 total score in subjects with baseline Hamilton Anxiety Scale (HAMA) &gt;19 and MADRS-S total score. Adverse events (AEs) were assessed throughout the study. A total of 600 adults were randomized. There were no significant differences in efficacy measures between subjects in the 5 mg vortioxetine and placebo groups at week 6. HAMD-24 total score in subjects with baseline HAMA &gt;19 in the 5 mg vortioxetine group was improved at weeks 3-6 compared to the placebo group (nominal p value &lt;0.05). The most common AEs for the vortioxetine and placebo groups were nausea (19.1 and 9.4%), headache (17.1 and 15.1%) and diarrhoea (11.4 and 7.0%), respectively. In this study of adults with MDD, 5 mg vortioxetine did not differ significantly from placebo in reducing depression symptoms after 6 wk of treatment.</t>
+          <t>Bipolar disorder (BD) is a chronic mental illness impacting 1-2% of the population worldwide and causing high rates of functional impairment. Patients with BD spend most of their time in depressive episodes and up to one-third of patients do not respond to adequate doses of medications. Although no consensus exists for definition of treatment-resistant bipolar depression (TRBD), failure of symptoms improvement despite an adequate trial of two therapeutic agents is a common theme of TRBD. In this paper, we review the evidence base of therapeutic interventions, challenges, and potential future directions for TRBD. We conducted a literature search for randomized controlled trials on PubMed for the treatment of TRBD and ongoing trials for the treatment of TRBD/bipolar depression on clinicaltrials.gov. Several therapeutic agents have been investigated for TRBD. Adjunctive pramipexole and modafinil have data supporting short-term efficacy in TRBD, along with limited data for racemic intravenous ketamine. Celecoxib augmentation of escitalopram and treatment with metformin in patients with insulin resistance showed promising results. Right unilateral electroconvulsive therapy displayed statistically significant response rate and improvement, but not remission compared to pharmacotherapy. Trials for transcranial magnetic stimulation (TMS) have failed to show a significant difference from sham treatment in TRBD. Pharmacological treatments with novel mechanisms of actions like brexpiprazole and vortioxetine are being investigated following successes in unipolar depression. Modified TMS protocols such as accelerated TMS are under investigation. Innovative approaches like psychedelic-assisted psychotherapy, interleukin-2, fecal microbiota transplantation and multipotent stromal cells are being studied. Evidence on current treatment modalities for TRBD is limited with low efficacy. More research is needed for successful treatment of TRBD. Effective therapies and innovative approaches to treatment are being investigated and could show promise.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>34955641</t>
+          <t>34025474</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Early Improvement with Vortioxetine Predicts Response and Remission: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>Gut Microbiota Changes in Patients With Major Depressive Disorder Treated With Vortioxetine.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Several weeks of treatment with an antidepressive agent may be required before efficacy is demonstrated in patients with major depressive disorder. This study investigated the predictive value of early partial improvement with vortioxetine for treatment response and remission. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. The key outcomes were the predictive value of early partial improvement (reduction in MADRS total score of ≥20% from baseline to week 2) with vortioxetine for MADRS response (≥50% decrease in score from baseline) and remission (decrease in score to ≤10) at week 8. Relevant data were available for 478 patients; 62/158 patients receiving placebo, 71/162 receiving vortioxetine 10 mg, and 66/158 receiving vortioxetine 20 mg were early improvers. Early improvers receiving vortioxetine (10 mg or 20 mg) were more likely than non-early improvers to achieve a week 8 response (71.2-73.2% vs 29.7-38.0%) or remission (50.7-51.5% vs 17.4-18.7%). Positive predictive values for response and remission with vortioxetine were ~70% and ~50%, respectively; negative predictive values were ~70% and ~80%, respectively. Improvement with vortioxetine may be predicted by early partial improvement in MADRS score. Some patients may benefit from longer-term treatment even without early improvement, another finding that may aid clinical decision-making. ClinicalTrials.gov registration for primary study: NCT02389816.</t>
+          <t>Vortioxetine hydrobromide is a common clinical medication for major depressive disorder (MDD). However, it remains unclear whether vortioxetine hydrobromide acts by affecting the structure and composition of gut microbiota. Here, we analyzed fecal samples from 28 healthy controls (HCs) and 26 patients with MDD before treatment with vortioxetine hydrobromide, at 4 weeks after treatment, and at 8 weeks after treatment. High-throughput pyrosequencing showed that, according to the Chao1 and Shannon indices, fecal bacterial α-diversity was higher in the patients with MDD than in the HCs (&lt;i&gt;p&lt;/i&gt; &lt; 0.05), but no significant differences were observed after vortioxetine hydrobromide treatment (&lt;i&gt;p&lt;/i&gt; &gt; 0.05). PCoA results revealed that the gut microbiota composition was significantly different between the MDD groups and HCs. Proteobacteria and Actinobacteria were strongly increased, whereas Firmicutes were significantly reduced in the MDD group compared with the HCs. After treatment with vortioxetine hydrobromide, Firmicutes were significantly increased, and the proportion of Bacteroidetes decreased. Most notably, &lt;i&gt;Lachnospira, Roseburia&lt;/i&gt;, and &lt;i&gt;Faecalibacterium&lt;/i&gt; were negatively correlated with the severity of depressive symptoms. Taken together, our data indicate changes in the fecal microbiota composition in MDD patients compared with HCs, and vortioxetine hydrobromide may treat MDD through regulation of the gut microflora.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32420649</t>
+          <t>24787143</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comparison of vortioxetine and sertraline for treatment of major depressive disorder in elderly patients: A double-blind randomized trial.</t>
+          <t>A randomized, double-blind, placebo-controlled study of vortioxetine on cognitive function in depressed adults.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Major depressive disorder (MDD) is a complex disease and one of the leading contributors to disease burden throughout the world. In the current study, we explored the efficacy and tolerability of vortioxetine versus sertraline on symptoms of depression in elderly patients with MDD. Sixty patients diagnosed with MDD (based on DSM-5) and Hamilton Depression Rating Scale (HAM-D) score ≥ 19 were entered into a randomized double-blind study and were randomized to receive either vortioxetine (15 mg daily) or sertraline (75 mg daily) for six weeks. Patients were assessed using the HAM-D scale at baseline and weeks 3 and 6. Changes in HAM-D score, response rates, remission rate and time to response or remission were also compared between the two study groups. Fifty patients completed the trial after six weeks. General linear model repeated measures demonstrated no difference in trend of the two treatment groups (P = .897). There was no significantly different improvement in the HDRS scores from baseline to weeks 3 and 6, as well. Differences in response rate, remission rate, time to response and time to remission periods were not statistically significant. Finally, there was not any significantly difference between the two study groups in the frequency of adverse events. This study showed no significant differences in the efficacy and safety of vortioxetine in comparison with sertraline in order for it to be used safely for treatment of major depressive disorder in elderly patients.</t>
+          <t>The efficacy of vortioxetine 10 and 20 mg/d vs. placebo on cognitive function and depression in adults with recurrent moderate-to-severe major depressive disorder (MDD) was evaluated. Patients (18-65 yr, N = 602) were randomized (1:1:1) to vortioxetine 10 or 20 mg/d or placebo for 8 wk in a double-blind multi-national study. Cognitive function was assessed with objective neuropsychological tests of executive function, processing speed, attention and learning and memory, and a subjective cognitive measure. The primary outcome measure was change from baseline to week 8 in a composite z-score comprising the Digit Symbol Substitution Test (DSST) and Rey Auditory Verbal Learning Test (RAVLT) scores. Depressive symptoms were assessed using the Montgomery-Åsberg Depression Rating Scale (MADRS). In the pre-defined primary efficacy analysis, both doses of vortioxetine were significantly better than placebo, with mean treatment differences vs. placebo of 0.36 (vortioxetine 10 mg, p &lt; 0.0001) and 0.33 (vortioxetine 20 mg, p &lt; 0.0001) on the composite cognition score. Significant improvement vs. placebo was observed for vortioxetine on most of the secondary objectives and subjective patient-reported cognitive measures. The differences to placebo in the MADRS total score at week 8 were -4.7 (10 mg: p &lt; 0.0001) and -6.7 (20 mg: p &lt; 0.0001). Path and subgroup analyses indicate that the beneficial effect of vortioxetine on cognition is largely a direct treatment effect. No safety concern emerged with vortioxetine. Vortioxetine significantly improved objective and subjective measures of cognitive function in adults with recurrent MDD and these effects were largely independent of its effect on improving depressive symptoms.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>33628415</t>
+          <t>24257717</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Focus on Depression in Parkinson's Disease: A Delphi Consensus of Experts in Psychiatry, Neurology, and Geriatrics.</t>
+          <t>Efficacy and safety of vortioxetine (Lu AA21004), 15 and 20 mg/day: a randomized, double-blind, placebo-controlled, duloxetine-referenced study in the acute treatment of adult patients with major depressive disorder.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Major and minor forms of depression are significant contributors to Parkinson's disease morbidity and caregiver burden, affecting up to 50% of these patients. Nonetheless, symptoms of depression are still underrecognized and undertreated in this context due to scarcity of evidence and, consequently, consistent clinical guideline recommendations. Here, we carried out a prospective, multicentre, 2-round modified Delphi survey with 49 questions about the aetiopathological mechanisms of depression in Parkinson's disease (10), clinical features and connections with motor and nonmotor symptoms (10), diagnostic criteria (5), and therapeutic options (24). Items were assessed by a panel of 37 experts (neurologists, psychiatrists, and a geriatrist), and consensus was achieved in 81.6% of them. Depressive symptoms, enhanced by multiple patient circumstances, were considered Parkinson's disease risk factors but not clinical indicators of motor symptom and disease progression. These patients should be systematically screened for depression while ruling out both anhedonia and apathy symptoms as they are not necessarily linked to it. Clinical scales (mainly the Geriatric Depression Scale GDS-15) can help establishing the diagnosis of depression, the symptoms of which will require treatment regardless of severity. Efficacious and well-tolerated pharmacological options for Parkinson's comorbid depression were selective serotonin reuptake inhibitors (especially sertraline), dual-action serotonin and norepinephrine reuptake inhibitors (venlafaxine, desvenlafaxine, and duloxetine), multimodal (vortioxetine, bupropion, mirtazapine, and tianeptine), and anti-Parkinsonian dopamine agonists (pramipexole, ropinirole, and rotigotine). Tricyclic antidepressants and combining type B monoamine oxidase inhibitors with serotonergic drugs have serious side effects in these patients and therefore should not be prescribed. Electroconvulsive therapy was indicated for severe and drug-refractory cases. Cognitive behavioural therapy was recommended in cases of mild depression. Results presented here are useful diagnostic and patient management guidance for other physicians and important considerations to improve future drug trial design.</t>
+          <t>This study assessed the efficacy, tolerability and safety of vortioxetine versus placebo in adults with recurrent major depressive disorder. This double-blind, randomized, placebo-controlled study included 608 patients [Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 26 and Clinical Global Impression - Severity score ≥ 4]. Patients were randomly assigned (1 : 1 : 1 : 1) to vortioxetine 15 mg/day, vortioxetine 20 mg/day, duloxetine 60 mg/day or placebo. The primary efficacy endpoint was change from baseline in MADRS total score at week 8 (mixed model for repeated measurements). Key secondary endpoints were: MADRS responders; Clinical Global Impression - Improvement scale score; MADRS total score in patients with baseline Hamilton Anxiety Rating Scale ≥ 20; remission (MADRS ≤ 10); and Sheehan Disability Scale total score at week 8. On the primary efficacy endpoint, both vortioxetine doses were statistically significantly superior to placebo, with a mean difference to placebo (n = 158) of -5.5 (vortioxetine 15 mg, P &lt; 0.0001, n = 149) and -7.1 MADRS points (vortioxetine 20 mg, P &lt; 0.0001, n = 151). Duloxetine (n = 146) separated from placebo, thus validating the study. In all key secondary analyses, both vortioxetine doses were statistically significantly superior to placebo. Vortioxetine treatment was well tolerated; common adverse events (incidence ≥ 5%) were nausea, headache, diarrhea, dry mouth and dizziness. No clinically relevant changes were seen in clinical safety laboratory values, weight, ECG or vital signs parameters. Vortioxetine was efficacious and well tolerated in the treatment of patients with major depressive disorder.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>26316764</t>
+          <t>29331703</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Profile of vortioxetine in the treatment of major depressive disorder: an overview of the primary and secondary literature.</t>
+          <t>The effects of vortioxetine on cognitive performance in working patients with major depressive disorder: A short-term, randomized, double-blind, exploratory study.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>This article reviews the pharmacological profile and available efficacy and tolerability/safety data for vortioxetine, one of the most recent antidepressant drugs to be approved in the USA for the treatment of major depressive disorder (MDD) in adults. The efficacy of vortioxetine for treating MDD in adults is supported by eight positive short-term (6- to 12-weeks) randomized, placebo-controlled trials, and one positive randomized, double-blind, 52-week relapse prevention trial. Based on pooled data from short-term randomized trials and from longer-term studies, vortioxetine appears to be well tolerated and to have a low incidence of adverse effects on sexual functioning. Vortioxetine also appears to be effective for treating symptoms of MDD in the elderly based on the results of one randomized trial for which recruitment was focused on this specific population. Nevertheless, effectiveness studies that directly compare the clinical effects of vortioxetine with other established antidepressant drugs are lacking, and there is no evidence as yet that vortioxetine is more clinically effective than other types of antidepressants. Some preliminary suggestions concerning the place of vortioxetine among the broad range of pharmacological treatments for adults with MDD are provided.</t>
+          <t>Major Depressive Disorder (MDD) is a complex disease characterized by emotional, physical and cognitive symptoms. We explored the efficacy of vortioxetine versus placebo on outcomes of cognition, functioning and mood symptoms in working patients with depression, using paroxetine as an active reference. Gainfully employed patients (18-65 years, N = 152) with MDD were randomized 1:1:1 to 8 weeks' double-blind, parallel treatment either with vortioxetine (10mg/day) or paroxetine (20mg/day), or with placebo. The primary efficacy measure was the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the key secondary efficacy measure was the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward). At week 8, DSST and UPSA-B performance had improved relative to baseline in all treatment groups, with no statistically significant differences between treatment groups. While improvements in mood were comparable for vortioxetine and paroxetine, numerical improvements in cognitive performance (DSST) were larger with vortioxetine. Vortioxetine significantly improved overall cognitive performance and clinician-rated functioning relative to placebo. The majority of adverse events were mild or moderate, with nausea being the most common adverse event for vortioxetine. Small sample sizes implied limited statistical power. This explorative study showed no significant differences versus placebo in DSST or UPSA-B performance at week 8. However, secondary results support vortioxetine as an effective and well-tolerated antidepressant, supporting an added benefit for cognition and functioning, which could have particular therapeutic relevance for the working patient population.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>36683990</t>
+          <t>34992372</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Effectiveness of vortioxetine for major depressive disorder in real-world clinical practice: US cohort results from the global RELIEVE study.</t>
+          <t>Therapeutic Potential of Vortioxetine for Anxious Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Effective treatment of major depressive disorder (MDD) involves addressing both depressive and functional symptoms, increasing patients' overall sense of well-being and quality of life (QoL). RELIEVE was an international observational, prospective study in patients ≥18 years with a current diagnosis of a major depressive episode (MDE) initiating vortioxetine in routine clinical practice; outcomes for the cohort of participants from the United States are presented here. Functioning was assessed at weeks 12 and 24 versus baseline using the Sheehan Disability Scale (SDS). Secondary effectiveness analyses assessed changes from baseline to weeks 12 and 24 in functioning, depression severity, cognitive symptoms, sexual function, and QoL. 244 participants had an average of 8.2 previous MDEs; mean duration of their current MDE at baseline was 93.5 weeks. Vortioxetine was used as second- or later-line treatment for 80.5% of participants. Least-squares mean (SE) SDS total score significantly decreased from baseline by 7.19 (0.52) points at week 12 and 8.19 (0.56) points at week 24 (&lt;i&gt;p&lt;/i&gt; &lt; 0.0001 for both). Significant improvements were also reflected across SDS subscores, depression severity, cognitive function, sexual function, and QoL. Healthcare resource utilization and productivity parameters also improved. Adverse events were observed in 21.8% of patients, with nausea being the most common (7.3%). This real-world study demonstrated improvements in functioning, depressive symptoms, and cognitive function in patients with MDD treated with vortioxetine in routine clinical practice in the cohort of patients enrolled in the United States. Outcomes were consistent with the efficacy and safety profile of vortioxetine in randomized controlled trials.</t>
+          <t>Antidepressants, including selective serotonin reuptake inhibitors, often elicit a poor response in patients with major depressive disorder (MDD) with significant anxiety symptoms. This study investigated the effects of the multimodal antidepressant vortioxetine in patients with MDD and associated anxiety. This was a post hoc analysis of data from an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. Changes from baseline to week 8 in MADRS total score and Hamilton Depression Rating Scale (HAM-D) anxiety/somatization factor score were assessed in patients with anxious depression (HAM-D anxiety/somatization factor score ≥7) and without anxious depression. Data were available for 489 patients. In patients with anxious depression, the least-squares (LS) mean difference (95% confidence interval [CI]) versus placebo in change in MADRS total score was -3.44 (-6.10, -0.77) for vortioxetine 10 mg and -4.51 (-7.15, -1.87) for vortioxetine 20 mg. In patients with non-anxious depression, the LS mean difference (95% CI) versus placebo was -1.81 (-4.71, 1.09) and -1.05 (-4.00, 1.90) for vortioxetine 10 mg and 20 mg, respectively. Changes from baseline in HAM-D anxiety/somatization factor score were greater in patients treated with vortioxetine 10 mg or 20 mg than in those treated with placebo. Vortioxetine may be effective for patients with anxiety symptoms in MDD. Further research is warranted to investigate these effects in a real-world clinical setting. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>34992372</t>
+          <t>36700320</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Therapeutic Potential of Vortioxetine for Anxious Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>Efficacy and Safety of Escitalopram, Desvenlafaxine, and Vortioxetine in the Acute Treatment of Anxious Depression: A Randomized Rater-blinded 6-week Clinical Trial.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Antidepressants, including selective serotonin reuptake inhibitors, often elicit a poor response in patients with major depressive disorder (MDD) with significant anxiety symptoms. This study investigated the effects of the multimodal antidepressant vortioxetine in patients with MDD and associated anxiety. This was a post hoc analysis of data from an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. Changes from baseline to week 8 in MADRS total score and Hamilton Depression Rating Scale (HAM-D) anxiety/somatization factor score were assessed in patients with anxious depression (HAM-D anxiety/somatization factor score ≥7) and without anxious depression. Data were available for 489 patients. In patients with anxious depression, the least-squares (LS) mean difference (95% confidence interval [CI]) versus placebo in change in MADRS total score was -3.44 (-6.10, -0.77) for vortioxetine 10 mg and -4.51 (-7.15, -1.87) for vortioxetine 20 mg. In patients with non-anxious depression, the LS mean difference (95% CI) versus placebo was -1.81 (-4.71, 1.09) and -1.05 (-4.00, 1.90) for vortioxetine 10 mg and 20 mg, respectively. Changes from baseline in HAM-D anxiety/somatization factor score were greater in patients treated with vortioxetine 10 mg or 20 mg than in those treated with placebo. Vortioxetine may be effective for patients with anxiety symptoms in MDD. Further research is warranted to investigate these effects in a real-world clinical setting. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+          <t>Anxious depression is associated with greater chronicity, higher severity of symptoms, more severe functional impairment, and poor response to drug treatment. However, evidence for first-choice antidepressants in patients with anxious depression is limited. This study aimed to compare the efficacy and safety of escitalopram, desvenlafaxine, and vortioxetine in the acute treatment of anxious depression. Patients (n = 124) with major depressive disorder and high levels of anxiety were randomly assigned to an escitalopram treatment group (n = 42), desvenlafaxine treatment group (n = 40), or vortioxetine treatment group (n = 42) in a 6-week randomized rater-blinded head-to-head comparative trial. Changes in overall depressive and anxiety symptoms were assessed using the 17-item Hamilton Depression Rating Scale (HAMD) and Hamilton Anxiety Rating Scale (HAMA), respectively. Patients demonstrated similar baseline-to-endpoint improvement in scores and similar response and remission rates for HAMD and HAMA. Analysis of the individual HAMD items revealed that desvenlafaxine significantly reduced anxiety somatic scores (&lt;i&gt;p&lt;/i&gt; = 0.013) and hypochondriasis scores (&lt;i&gt;p&lt;/i&gt; = 0.014) compared to escitalopram. With respect to the individual HAMA items, desvenlafaxine treatment showed significantly lower scores for respiratory symptoms (&lt;i&gt;p&lt;/i&gt; = 0.013) than escitalopram treatment and cardiovascular symptoms (&lt;i&gt;p&lt;/i&gt; = 0.005) than vortioxetine treatment. The treatments were well tolerated, with no significant differences. Our results indicated no significant differences in the efficacy and tolerability of escitalopram, desvenlafaxine, and vortioxetine in this subtype of patients with anxious depression during the acute phase of treatment.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22572889</t>
+          <t>32677291</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled, duloxetine-referenced, fixed-dose study comparing the efficacy and safety of Lu AA21004 in elderly patients with major depressive disorder.</t>
+          <t>Editorial Perspective: Antidepressants and the depressed adolescent.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The efficacy and tolerability of Lu AA21004 at 5 mg/day, a novel multimodal antidepressant, were assessed in elderly patients with recurrent major depressive disorder. Patients were randomly assigned (1:1:1) to Lu AA21004 5 mg/day, duloxetine 60 mg/day (reference) or to placebo in an 8-week double-blind study. The primary efficacy measure was the 24-item Hamilton Depression Scale (HAM-D(24)) total score (analysis of covariance, last observation carried forward). Patients (mean age 70.6 years) had a mean baseline HAM-D(24) score of 29.0. Lu AA21004 showed significantly (P = 0.0011) greater improvement on the primary efficacy endpoint compared with placebo at week 8 (3.3 points). Duloxetine also showed superiority to placebo at week 8, thereby validating the study. HAM-D(24) response (53.2 vs. 35.2%) and HAM-D(17) remission (29.2 vs. 19.3%) rates at endpoint were higher for Lu AA21004 than for placebo. Lu AA21004 showed superiority to placebo in cognition tests of speed of processing, verbal learning and memory. The withdrawal rate due to adverse events was 5.8% (Lu AA21004), 9.9% (duloxetine) and 2.8% (placebo). Whereas nausea was the only adverse event with a significantly higher incidence on treatment with Lu AA21004 (21.8%) compared with placebo (8.3%), the incidence of nausea, constipation, dry mouth, hyperhidrosis and somnolence was higher for duloxetine. In conclusion, Lu AA21004 was efficacious and well tolerated in the treatment of elderly patients with recurrent major depressive disorder.</t>
+          <t>A paper considering the role of antidepressants for adults with major depression was recently published in the Lancet, a world leading medical journal (Cipriani et al. 2018). The review was the largest ever on this topic based on 28,552 citations including 522 trials comprising 116,477 participants. The authors note that, in adults with major depression, all antidepressants were more efficacious than placebo. In head-to-head studies, the authors also note that agomelatine, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine, and vortioxetine were more effective than other antidepressants whereas fluoxetine, fluvoxamine, reboxetine, and trazodone were the least efficacious. The authors report that the standardised mean difference was 0.3 a moderate effect size for any antidepressant over placebo, this is confirmatory of past reviews noting rather similar magnitudes of effect. In clinical terms the results suggest a choice for practitioners in regard to their individual patients. For many adult depressed patients however, there is also the implication that antidepressants may not work. The old adage 'what works for whom' remains unanswered. What does seem reasonable to conclude is that we have learnt that these medications are clinically effective and the questions for research now must be who is likely to benefit and who is not, how do these medicines work, and what is the best long-term management of responders as the majority of studies have focused on acute response only.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>25087600</t>
+          <t>27725683</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A randomised, double-blind study in adults with major depressive disorder with an inadequate response to a single course of selective serotonin reuptake inhibitor or serotonin-noradrenaline reuptake inhibitor treatment switched to vortioxetine or agomelatine.</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>This randomised, double-blind, 12-week study compared efficacy and tolerability of flexible-dose treatment with vortioxetine(10-20 mg/day) versus agomelatine (25-50 mg/day) in major depressive disorder patients with inadequate response to selective serotonin reuptake inhibitor (SSRI)/serotonin-noradrenaline reuptake inhibitor (SNRI) monotherapy. Patients were switched directly from SSRI/SNRI to vortioxetine or agomelatine. Primary endpoint was change from baseline to week 8 in the Montgomery-Åsberg Depression Rating Scale (MADRS) total score analysed by mixed model for repeated measurements, using a noninferiority test followed by a superiority test. Secondary endpoints included response and remission rates, anxiety symptoms(Hamilton Anxiety Rating Scale), Clinical Global Impression, overall functioning (Sheehan Disability Scale), health-related quality of life(EuroQol 5 Dimensions), productivity (work limitation questionnaire) and family functioning (Depression and Family Functioning Scale). Primary endpoint noninferiority was established and vortioxetine (n = 252) was superior to agomelatine (n = 241) by 2.2 MADRS points (p&lt;0.01). Vortioxetine was also significantly superior in response and remission rates at weeks 8 and 12; MADRS, Hamilton Anxiety Rating Scale, Clinical Global Impression, Sheehan Disability Scale and EuroQol 5 Dimensions scores at week 4 onwards; work limitation questionnaire at week 8 and Depression and Family Functioning Scale at weeks 8 and 12. Fewer patients withdrew because of adverse events with vortioxetine (5.9% vs 9.5%). Adverse events (incidence ≥5%) were nausea, headache, dizziness and somnolence. Vortioxetine was noninferior and significantly superior to agomelatine in major depressive disorder patients with previous inadequate response to a single course of SSRI/SNRI monotherapy. Vortioxetine was safe and well tolerated.</t>
-        </is>
-      </c>
+          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>37736222</t>
+          <t>32420649</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Effect of vortioxetine versus venlafaxine on cognitive functions in adults with major depressive disorder: A randomized-controlled trial.</t>
+          <t>Comparison of vortioxetine and sertraline for treatment of major depressive disorder in elderly patients: A double-blind randomized trial.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vortioxetine and venlafaxine are antidepressants which have shown established efficacy to treat major depressive disorder (MDD). There are no studies that compared them for their efficacy in cognitive symptoms of depression. The study aimed to compare the effect of vortioxetine and venlafaxine on the change in cognitive scores in adults with MDD. The present study was an open-label, active-controlled parallel design randomized clinical trial. After randomization, baseline clinical evaluations by Montgomery-Asberg Depression Rating Scale (MADRS) and Social and Occupational Functioning Assessment Scale (SOFAS) were done and coding (subset of WAIS-IV), WCST, TMT, Stroop test, PGI memory were used to assess cognition in 100 unmedicated MDD patients. They were reassessed after eight weeks of monotherapy with vortioxetine or venlafaxine. Primary cognitive measure (coding score) was found to be significantly higher (Mean Difference = 0.680; 95% CI:.202 to 1.158; &lt;i&gt;P&lt;/i&gt; = 0.006) in vortioxetine in comparison with venlafaxine. Stroop test scores (word score, color score, color-word score) were also found to be significantly higher with vortioxetine. In other cognitive measures (WCST scores: total trials, total errors score, total perseverative responses score, total perseverative errors scores; TMT-A and B scores), a significant decrease in scores with vortioxetine in comparison with venlafaxine were observed. A significant decrease in MADRS and increase in SOFAS scores were observed with vortioxetine in comparison with venlafaxine. Both the drugs alleviated the symptoms of depression but vortioxetine was better tolerated. Our study findings suggest that improvement in cognitive scores is significantly higher with vortioxetine than venlafaxine over the eight weeks of monotherapy. CTRI/2020/07/026819 (Registered with Clinical Trials Registry- India).</t>
+          <t>Major depressive disorder (MDD) is a complex disease and one of the leading contributors to disease burden throughout the world. In the current study, we explored the efficacy and tolerability of vortioxetine versus sertraline on symptoms of depression in elderly patients with MDD. Sixty patients diagnosed with MDD (based on DSM-5) and Hamilton Depression Rating Scale (HAM-D) score ≥ 19 were entered into a randomized double-blind study and were randomized to receive either vortioxetine (15 mg daily) or sertraline (75 mg daily) for six weeks. Patients were assessed using the HAM-D scale at baseline and weeks 3 and 6. Changes in HAM-D score, response rates, remission rate and time to response or remission were also compared between the two study groups. Fifty patients completed the trial after six weeks. General linear model repeated measures demonstrated no difference in trend of the two treatment groups (P = .897). There was no significantly different improvement in the HDRS scores from baseline to weeks 3 and 6, as well. Differences in response rate, remission rate, time to response and time to remission periods were not statistically significant. Finally, there was not any significantly difference between the two study groups in the frequency of adverse events. This study showed no significant differences in the efficacy and safety of vortioxetine in comparison with sertraline in order for it to be used safely for treatment of major depressive disorder in elderly patients.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>37213947</t>
+          <t>25575488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>An Interim Analysis of a Randomized, Open-Label Study of Vilazodone, Escitalopram, or Vortioxetine for Major Depressive Disorder.</t>
+          <t>A randomized, double-blind, duloxetine-referenced study comparing efficacy and tolerability of 2 fixed doses of vortioxetine in the acute treatment of adults with MDD.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The troubling issues of conventional antidepressants are inadequate disease remission and potential adverse effects. There is a dearth of research findings comparing vilazodone, escitalopram, and vortioxetine. The objective of this analysis is to determinechanges in the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scoresand the incidence of adverse events at 12 weeks. This is an exploratory interim analysis of a randomized, three-arm, open-label ongoing study. The participants were randomly assigned in a 1:1:1 ratio to receive either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). Efficacy and safety assessments were done at baseline, four weeks, eight weeks, and 12 weeks. Forty-nine(69%) of the 71 enrolled participants (mean age 43.9±12.2 years; 37 men (52%)) completed the 12-week follow-up. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), respectively, and at 12 weeks, they amounted to 19.5, 19.5, and 18.0 (p=0.18), respectively. At baseline, group-wise median MADRS scores were 36, 36, and 36, respectively (p=0.79); at 12 weeks, they were 24, 24, and 23, respectively (p=0.03). In the post-hoc analysis, the inter-group comparison of the change in HDRS (p = 0.02) and MADRS (p = 0.06) scores from baseline did not reach statistical significance. No participants experienced serious adverse events. In this initial assessment of a continuing study, vortioxetine exhibited a clinically (not statistically) significant drop in HDRS and MADRS scores, compared to vilazodone and escitalopram. The antidepressant effects need to be investigated further.</t>
+          <t>Vortioxetine has reduced depressive symptoms in adults with major depressive disorder (MDD) in multiple clinical trials. The aim of this study is to evaluate the efficacy, safety, and tolerability of vortioxetine 15 and 20 mg vs placebo in adults with MDD. Patients were randomized 1:1:1:1 to vortioxetine 15 mg, vortioxetine 20 mg, duloxetine 60 mg (active reference), or placebo. The primary efficacy endpoint was mean change in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8 (MMRM). Safety/tolerability assessments included physical examinations, vital signs, laboratory evaluations, electrocardiograms, adverse events (AEs), Columbia-Suicide Severity Rating Scale, Arizona Sexual Experiences Scale, and Discontinuation-Emergent Signs and Symptoms checklist. Six hundred and fourteen patients were randomized. Mean changes in MADRS scores were -12.83 (±0.834), -14.30 (±0.890), -15.57 (±0.880), and -16.90 (±0.884) for placebo, vortioxetine 15 mg (P = .224), vortioxetine 20 mg (P = .023), and duloxetine 60 mg (P &lt; .001) (P vs placebo), respectively. AEs reported by ≥5 % of vortioxetine patients included nausea, headache, diarrhea, dizziness, dry mouth, constipation, vomiting, insomnia, fatigue, and upper respiratory infection. Treatment-emergent sexual dysfunction, suicidal ideation or behavior, and discontinuation symptoms were not significantly different between vortioxetine and placebo. Vortioxetine 20 mg significantly reduced MADRS total scores after 8 weeks of treatment. Both vortioxetine doses were well tolerated. ClinicalTrials.gov identifier NCT01153009; www.clinicaltrials.gov/ .</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>36065389</t>
+          <t>35466102</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Effectiveness and Safety of Vortioxetine for Major Depressive Disorder in Real-World Clinical Practice: Results from the Single-Arm RELIEVE China Study.</t>
+          <t>Vortioxetine Treatment for Depression in Alzheimer's Disease: A Randomized, Double-blind, Placebo-controlled Study.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Major depressive disorder (MDD) affects &gt;163 million people worldwide and is a leading cause of disability in China. Functional impairment occurs alongside cognitive symptoms, anxiety, and depression, reducing quality of life and productivity in patients with MDD. The multimodal antidepressant vortioxetine has demonstrated efficacy in relieving depressive and functional symptoms of MDD in randomized controlled trials (RCTs). The RELIEVE China study aimed to investigate the real-world effectiveness of vortioxetine in China. This was an observational, prospective cohort study in patients with MDD initiating treatment with vortioxetine at physician's discretion in China. Participants were followed up for 24 weeks and assessed at 3 time points: baseline, week 8, and week 24. The primary objective was to assess the change from baseline to weeks 8 and 24 in functional impairment as measured by Sheehan Disability Scale (SDS) total score. Additional assessments included SDS subdomains, measures of depression severity, anxiety, and cognition. The safety and tolerability of vortioxetine were also examined. In total, 859 patients were included in the analysis. A consistent and significant improvement in functional impairment was observed during the study, with baseline mean SDS total score (16.7 points) decreasing by 5.42 (SE, 0.22) and 8.71 (SE, 0.226) points at week 8 and week 24, respectively (&lt;i&gt;P&lt;/i&gt;&lt;0.0001). Improvements in other functioning, cognitive, and anxiety assessments were also observed (all &lt;i&gt;P&lt;/i&gt;&lt;0.0001). A total of 74.7% of patients had responded, and 63.9% had reached remission at week 24. The tolerability profile of vortioxetine in this real-world population was consistent with the established tolerability profile for this drug. This study demonstrated the short- and long-term effectiveness and tolerability of vortioxetine for patients with MDD in a real-world setting in China. These findings are consistent with the efficacy and safety profile observed during RCTs.</t>
+          <t>Vortioxetine, a new antidepressant, has been demonstrated to have effects on depression and cognitive function. This study aimed to investigate the anti-depressive efficacy of vortioxetine through a well-designed double- blind, placebo-controlled study in Alzheimer's disease (AD) patients, and to confirm the presence of secondary benefits, including the improvement of cognitive function and activities of daily living (ADL). The present study included 100 AD patients with depression who were assigned randomly to 12 weeks of daily treatment with either vortioxetine or placebo. The primary efficacy measure was the change in the Cornell Scale for Depression in Dementia score from baseline to 12 weeks. Several secondary efficacy measures were evaluated, including the Korean version of the Short form of Geriatric Depression Scale and several cognitive function domains. The safety and tolerability of vortioxetine were also assessed. We performed modified intention-to-treat analysis using mixed modeling (the Mixed Models for Repeated Measures). There was no statistically significant difference between the two groups in terms of depressive symptoms, cognitive functions, and ADL. Further, the percentage of adverse events and drug discontinuation between the vortioxetine and placebo groups was similar. Our results suggest that vortioxetine might not be effective in reducing depressive symptoms or cognitive impairment in AD patients with depression. However, general drug tolerance and patient safety were similar to those of placebo. Thus, additional studies are needed to replicate the effectiveness and tolerability of vortioxetine in AD patients with depression.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>34269645</t>
+          <t>35356713</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Statement of Retraction: Efficacy and safety of vortioxetine for the treatment of major depressive disorder: a randomised double-blind placebo-controlled study.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Effectiveness of Vortioxetine in Patients With Major Depressive Disorder in Real-World Clinical Practice: Results of the RELIEVE Study.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Randomized controlled clinical trials have shown vortioxetine to be efficacious and well tolerated for the treatment of major depressive disorder (MDD). The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study was undertaken to demonstrate the effectiveness and safety of vortioxetine for the treatment of MDD in routine clinical practice. RELIEVE was a 24-week, observational, prospective cohort study in outpatients with MDD initiating treatment with vortioxetine at their physician's discretion in routine care settings in Canada, France, Italy, and the USA (NCT03555136). The primary study outcome was patient functioning assessed by the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity [9-item Patient Health Questionnaire (PHQ-9)], cognitive symptoms [5-item Perceived Deficits Questionnaire-Depression (PDQ-D-5)], and cognitive performance [Digit Symbol Substitution Test (DSST)]. Mixed models of repeated measures were used to assess change from baseline at week 24, adjusted for relevant confounders. A total of 737 patients were eligible for inclusion in the full analysis set. Most patients (73.7%) reported at least one comorbid medical condition, 56.0% had comorbid anxiety and 24.4% had comorbid generalized anxiety disorder. Improvement in least-squares (LS) mean SDS score from baseline to week 24 was 8.7 points. LS mean PHQ-9, PDQ-D-5 and DSST scores improved by 7.4, 4.6, and 6.2 points, respectively. Adverse events were observed in 21.2% of patients [most commonly, nausea (8.2% of patients)]. These results demonstrate the effectiveness and tolerability of vortioxetine for the treatment of MDD in a large and heterogeneous patient population representative of that encountered in routine clinical practice.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>26035186</t>
+          <t>31725942</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of 2 doses of vortioxetine in adults with major depressive disorder.</t>
+          <t>Randomized, double-blind, placebo-controlled study to assess the efficacy and safety of vortioxetine in Japanese patients with major depressive disorder.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>This 8-week, randomized, double-blind, placebo-controlled study, conducted August 2010-May 2012 in the United States, evaluated the safety and efficacy of vortioxetine 10 mg and 15 mg in patients with major depressive disorder (MDD). The mechanism of action of vortioxetine is thought to be related to direct modulation of serotonin (5-HT) receptor activity and inhibition of the serotonin transporter. Adults aged 18-75 years with MDD (DSM-IV-TR) and Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥ 26 were randomized (1:1:1) to receive vortioxetine 10 mg or 15 mg or placebo once daily, with the primary efficacy end point being change from baseline at week 8 in MADRS analyzed by mixed model for repeated measures. Adverse events were recorded during the study, suicidal ideation and behavior were assessed using the Columbia-Suicide Severity Rating Scale (C-SSRS), and sexual dysfunction was assessed using the Arizona Sexual Experience (ASEX) scale. Of the 1,111 subjects screened, 469 subjects were randomized: 160 to placebo, 157 to vortioxetine 10 mg, and 152 to vortioxetine 15 mg. Differences from placebo in the primary efficacy end point were not statistically significant for vortioxetine 10 mg or vortioxetine 15 mg. Nausea, headache, dry mouth, constipation, diarrhea, vomiting, dizziness, and flatulence were reported in ≥ 5% of subjects receiving vortioxetine. Discontinuation due to adverse events occurred in 7 subjects (4.4%) in the placebo group, 8 (5.2%) in the vortioxetine 10 mg group, and 12 (7.9%) in the vortioxetine 15 mg group. ASEX total scores were similar across groups. There were no clinically significant trends within or between treatment groups on the C-SSRS, laboratory values, electrocardiogram, or vital sign parameters. In this study, vortioxetine did not differ significantly from placebo on MADRS total score after 8 weeks of treatment in MDD subjects. ClinicalTrials.gov identifier: NCT01179516.</t>
+          <t>The burden of major depressive disorder (MDD) in Japan is high. This study aimed to evaluate the efficacy and safety of the multimodal antidepressant vortioxetine in Japanese patients with MDD. Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score ≥ 26 were randomized to vortioxetine 10 or 20 mg or placebo in a phase-3, double-blind, 8-week study. The primary end-point was change in MADRS total score from baseline. Secondary end-points included MADRS response and remission rates, change in Hamilton Rating Scale for Depression-17 item (HAM-D17) score, and other measures of depressive symptoms, including Clinical Global Impression of Severity (CGI-S), Clinical Global Impression of Improvement (CGI-I), and Sheehan Disability Scale (SDS). Cognitive function was assessed using Digit Symbol Substitution Test (DSST) score and Perceived Deficits Questionnaire-5 item (PDQ-5) score. Vortioxetine 10 mg (n = 165) and 20 mg (n = 163) reduced MADRS total score by 2.66 and 3.07 points versus placebo (n = 161) after 8 weeks (P &lt; 0.01 for each dose), respectively. MADRS response and remission rates were also significantly greater with vortioxetine than with placebo (P &lt; 0.05 for both doses). Vortioxetine 10 and 20 mg significantly improved HAM-D17 score, CGI-I score, and SDS total score after 8 weeks. PDQ-5 score was significantly improved in subjects administered vortioxetine, while DSST scores showed no significant difference. Vortioxetine was generally well tolerated. Vortioxetine at both the 10- and 20-mg/day doses demonstrated robust antidepressant efficacy in Japanese patients with MDD, and was well tolerated over the 8-week treatment period.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35221687</t>
+          <t>25687662</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Therapeutic Potential of Vortioxetine for Anhedonia-Like Symptoms in Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anhedonia in major depressive disorder may be resistant to first-line antidepressants. We examined the effect of vortioxetine, a multimodal antidepressant, on anhedonia-like symptoms in Japanese patients with major depressive disorder. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) total score of at least 26. The primary outcome was the mean change from baseline to week 8 in anhedonia-like symptoms as measured by MADRS anhedonia factor score, composed of: Q1, apparent sadness; Q2, reported sadness; Q6, concentration; Q7, lassitude; and Q8, inability to feel. Mean change in MADRS total score and anhedonia factor score were compared among treatment groups, with data categorized by median baseline anhedonia factor score (0-17 or ≥18). Data were available for 489 patients. The least-squares mean difference in MADRS anhedonia factor score change from baseline to week 8 versus placebo was -1.34 for vortioxetine 10 mg (&lt;i&gt;P&lt;/i&gt; = 0.0300) and -1.77 for vortioxetine 20 mg (&lt;i&gt;P&lt;/i&gt; = 0.0044). The least-squares mean difference between vortioxetine and placebo in MADRS total score change from baseline to week 8 was -3.11 (10 mg dose) and -3.37 (20 mg dose) for patients with a higher baseline anhedonia factor score (≥18), and -2.08 (10 mg) and -2.61 (20 mg) for patients with a lower baseline score (0-17). This post hoc analysis suggests that vortioxetine may have therapeutic potential in patients with anhedonia-like symptoms of major depressive disorder. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+          <t>This multicenter, randomized, double-blind, placebo-controlled, active-referenced (duloxetine 60 mg), parallel-group study evaluated the short-term efficacy and safety of vortioxetine (10-20 mg) on cognitive function in adults (aged 18-65 years) diagnosed with major depressive disorder (MDD) who self-reported cognitive dysfunction. Efficacy was evaluated using ANCOVA for the change from baseline to week 8 in the digit symbol substitution test (DSST)-number of correct symbols as the prespecified primary end point. The patient-reported perceived deficits questionnaire (PDQ) and physician-assessed clinical global impression (CGI) were analyzed in a prespecified hierarchical testing sequence as key secondary end points. Additional predefined end points included the objective performance-based University of San Diego performance-based skills assessment (UPSA) (ANCOVA) to measure functionality, MADRS (MMRM) to assess efficacy in depression, and a prespecified multiple regression analysis (path analysis) to calculate direct vs indirect effects of vortioxetine on cognitive function. Safety and tolerability were assessed at all visits. Vortioxetine was statistically superior to placebo on the DSST (P &lt; 0.05), PDQ (P &lt; 0.01), CGI-I (P &lt; 0.001), MADRS (P &lt; 0.05), and UPSA (P &lt; 0.001). Path analysis indicated that vortioxetine's cognitive benefit was primarily a direct treatment effect rather than due to alleviation of depressive symptoms. Duloxetine was not significantly different from placebo on the DSST or UPSA, but was superior to placebo on the PDQ, CGI-I, and MADRS. Common adverse events (incidence ⩾ 5%) for vortioxetine were nausea, headache, and diarrhea. In this study of MDD adults who self-reported cognitive dysfunction, vortioxetine significantly improved cognitive function, depression, and functionality and was generally well tolerated.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25687662</t>
+          <t>23252878</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
+          <t>A randomized, double-blind trial of 2.5 mg and 5 mg vortioxetine (Lu AA21004) versus placebo for 8 weeks in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>This multicenter, randomized, double-blind, placebo-controlled, active-referenced (duloxetine 60 mg), parallel-group study evaluated the short-term efficacy and safety of vortioxetine (10-20 mg) on cognitive function in adults (aged 18-65 years) diagnosed with major depressive disorder (MDD) who self-reported cognitive dysfunction. Efficacy was evaluated using ANCOVA for the change from baseline to week 8 in the digit symbol substitution test (DSST)-number of correct symbols as the prespecified primary end point. The patient-reported perceived deficits questionnaire (PDQ) and physician-assessed clinical global impression (CGI) were analyzed in a prespecified hierarchical testing sequence as key secondary end points. Additional predefined end points included the objective performance-based University of San Diego performance-based skills assessment (UPSA) (ANCOVA) to measure functionality, MADRS (MMRM) to assess efficacy in depression, and a prespecified multiple regression analysis (path analysis) to calculate direct vs indirect effects of vortioxetine on cognitive function. Safety and tolerability were assessed at all visits. Vortioxetine was statistically superior to placebo on the DSST (P &lt; 0.05), PDQ (P &lt; 0.01), CGI-I (P &lt; 0.001), MADRS (P &lt; 0.05), and UPSA (P &lt; 0.001). Path analysis indicated that vortioxetine's cognitive benefit was primarily a direct treatment effect rather than due to alleviation of depressive symptoms. Duloxetine was not significantly different from placebo on the DSST or UPSA, but was superior to placebo on the PDQ, CGI-I, and MADRS. Common adverse events (incidence ⩾ 5%) for vortioxetine were nausea, headache, and diarrhea. In this study of MDD adults who self-reported cognitive dysfunction, vortioxetine significantly improved cognitive function, depression, and functionality and was generally well tolerated.</t>
+          <t>Vortioxetine (Lu AA21004) is an investigational antidepressant. In vitro studies indicate that vortioxetine is a 5-HT(3), 5-HT(7), and 5-HT(1D) receptor antagonist, 5-HT(1B) receptor partial agonist, 5-HT(1A) receptor agonist and inhibitor of the 5-HT transporter. This trial assessed the efficacy and tolerability of 2.5 and 5 mg vortioxetine for the treatment of MDD. Adults (N = 611) with MDD were randomized to 8 weeks of double-blind treatment with placebo, vortioxetine (2.5 or 5 mg) or active reference (duloxetine 60 mg). The primary measure was change from baseline in the 24-item Hamilton Depression Scale (HAM-D24). Secondary endpoints included responder rate, Clinical Global Impression Scale-Global Improvement scale (CGI-I), and remission rate. Participants were monitored for adverse events (AEs), and treatment-emergent sexual dysfunction using the Arizona Sexual Experiences (ASEX) scale. Both doses of vortioxetine were associated with declines in HAM-D24 total scores compared to placebo but were not statistically significant. At 8 weeks, changes from baseline were [mean (SE)]: -10.50 (0.76) placebo, -12.04 (0.74) 2.5 mg vortioxetine, and -11.08 (0.74) 5 mg vortioxetine. Secondary outcome measures in the vortioxetine groups, including responder rate, CGI-I, and remission rate, were also not significantly different from placebo. Duloxetine treatment was associated with declines in HAM-D24 total score [-13.47(0.75); p = 0.005] as well as significant improvements in secondary outcome measures versus placebo (p ≤ 0.05). The most common AEs for vortioxetine were nausea, dry mouth, and headache. Rates of sexual dysfunction (ASEX) were 51.0%, 37.5%, 46.9%, and 33.3% in the vortioxetine 2.5 mg, vortioxetine 5 mg, duloxetine, and placebo groups, respectively. In this study of adults with MDD treated for 8 weeks with vortioxetine 2.5 mg or 5 mg per day, reductions in depression symptoms were not statistically significant compared with placebo. Study limitations are discussed, including patient characteristics, MDD severity, drug dosing, and aspects of trial design. Both doses of vortioxetine were well tolerated. This trial has been registered at clinicaltrials.gov #NCT00672620.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>29807616</t>
+          <t>37415997</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Corrigendum to ``The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram'' [Journal of Affective Disorders, 227 (2018) 803-809].</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Quality of Life and Medication Adherence in Patients With Major Depressive Disorder: An Interim Analysis of a Randomized Study.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Quality of life and medication adherence worsen in untreated depressed individuals. Studies examining how vilazodone, escitalopram, and vortioxetine affect these factors are few and far between. Our study's objectives were to determine the change in SF-36 at 12 weeks and the association between treatment outcome and medication adherence. This is an interim analysis of a randomized, open-label, three-arm ongoing study. The participants were evaluated at baseline, four, eight, and 12 weeks after being randomly assigned to take either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is registered with CTRI, 2022/07/043808. Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median scores of physical components of SF-36 for the three groups were 35.5, 35.0, and 35.0 at baseline (p=0.76) and 51.0, 49.5, and 53.0 (p&lt;0.001) at 12 weeks respectively. Their corresponding median SF-36 scores for mental components were 43.0, 43.0, and 44.0 at baseline (p=0.34) and 66.0, 63.5, and 70.0 (p&lt;0.001) at 12 weeks. The post hoc analysis yielded a significant difference (p&lt;0.001) regarding SF-36 scores. MMAS-8 scores among the participants were similar (p=0.22) at 12 weeks. Higher medication adherence was associated with lesser depressive symptoms (r= -0.46, p=0.001). As per this interim analysis, vortioxetine substantially impacted the SF-36 scores, juxtaposed with vilazodone and escitalopram. The participants' clinical improvements were reflected by their adherence levels. These effects need to be probed further.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37424427</t>
+          <t>37840562</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Potential Effect of Vortioxetine on Restless Leg Syndrome.</t>
+          <t>Εfficacy and safety of vortioxetine (Lu AA21004) in the treatment of adult patients with major depressive disorder: A systematic review and a meta‑analysis of randomized controlled trials.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Restless legs syndrome (RLS) is a chronic progressive movement disorder characterized by abnormal sensations, especially at rest and at night, as the need and urge to move the lower extremity. It has been reported that RLS severity and frequency increase in patients with anxiety and depression. It has been reported that serotonin-noradrenaline reuptake inhibitors such as venlafaxine and selective serotonin reuptake inhibitors such as citalopram, fluoxetine, paroxetine, and sertraline can cause RLS symptoms. No adverse effects of vortioxetine on RLS have been reported in the literature. In this case series, we report the effect of vortioxetine in patients with RLS with symptoms of depression and anxiety. In this case series, the effect of adding vortioxetine to treatment on RLS symptoms is reported in 7 patients (5 female). After the use of vortioxetine, 5 of 7 patients' symptoms regressed without the need to start a separate drug for primary movement disorder. In conclusion, we believe that studies should be conducted to investigate the efficacy of vortioxetine in the treatment of RLS. Therefore, randomized controlled studies are needed to determine the effect and safety of vortioxetine on RLS symptoms.</t>
+          <t>Vortioxetine is a novel drug for the treatment of major depressive disorder (MDD). It has been reported that vortioxetine exhibits positive effect on the acute stage of MDD, while it can effectively prevent the recurrence of MDD during the maintenance period. Currently, the results of systematic reviews on vortioxetine are insufficient since several efficacy measures, such as the 24-Items Hamilton Rating Scale for Depression (HADRS-24) total score and other safety factors have not been evaluated. Therefore, the present study aimed to evaluate the efficacy and safety of different doses of vortioxetine on the treatment of adult patients with MDD via assessing more efficacy and safety indicators. The clinical, double-blind, parallel and randomized controlled trials (RCTs) on the effect of vortioxetine on MDD were retrieved from PubMed\Medline, EBSCO, Embase, Cochrane Library, OVID, Web of Science and clinical trial registration websites from database inception to November 2022. A total of two investigators independently screened the included references and independently evaluated their quality. The meta-analysis was performed using Revman 5.0 software. The present systematic review was registered in PROSPERO (registration no. CRD42018106343). In the present study 11 RCTs were included, with a total of 4,908 adult patients with MDD. More specifically, 1,158 patients were included in the 5-mg vortioxetine group, 736 in the 10-mg group, 298 in the 15-mg group, 864 in the 20-mg group and 1,852 in the placebo group. All 11 studies were randomized, double-blinded and parallel control trials, and all publications were evaluated as high quality. The meta-analysis results showed that patients in the 5-, 10- and 20-mg vortioxetine groups exhibited significantly higher Montgomery-Asberg Depression Rating Scale (MADRS) response (≥50%) and remission (≤10%) rates compared with the placebo group (P&lt;0.05). The pooled analysis also revealed a statistically significant change in the total score of HADRS-24, MADRS, Sheehan Disability Scale (SDS), Clinical Global Impression Scale-Improvement (CGI-I) and HADRS-24 response rate in the 10- and 20-mg vortioxetine groups compared with the placebo group (P&lt;0.05). However, no statistically significant changes in the total score of HADRS-24, MADRS, SDS, CGI-I and HADRS-24 response rate were obtained in the 5-mg group compared with the placebo group (P&gt;0.05). Furthermore, the most common adverse events were nausea, hyperhidrosis, insomnia and vomiting, the incidence of which was increased with higher doses of vortioxetine. Overall, the results suggested that vortioxetine administration at doses of 5-20 mg was significantly effective and safe compared with placebo in the treatment of MDD. However, 5 mg vortioxetine displayed no difference in the HADRS-24, MADRS, SDS and CGI-I total scores, and HADRS-24 response rate. Furthermore, patient treatment with increasing vortioxetine doses was associated with good tolerance and high safety. Nevertheless, more multi-center, high-quality and long-term RCTs are still needed to support the aforementioned findings.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>37115460</t>
+          <t>32765787</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Evidence-Based Pharmacotherapy of Anxiety Symptoms in Patients with Major Depressive Disorder: Focus on Agomelatine.</t>
+          <t>Effects of Vortioxetine on depression model rats and expression of BDNF and Trk B in hippocampus.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Patients with depression require thorough clinical assessment, which should include symptom profile, severity and staging, personality factors, antecedent and concurrent psychiatric comorbidity, physical comorbidity, neurocognitive function, exposure to stressors in early life (e.g. trauma) or recently (e.g. bereavement), and protective factors. The presence of anxiety symptoms in a depressed patient is associated with more severe depression, increased suicidality and worse outcomes compared with non-anxious depression. A network meta-analysis of antidepressant treatments found that agomelatine, citalopram, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine and vortioxetine were all significantly more effective than other antidepressants for the treatment of depression, and that agomelatine, citalopram, escitalopram, fluoxetine, sertraline and vortioxetine were better tolerated than other antidepressants. Agomelatine has been shown to have two major effects-relieving depressive symptoms, and supporting symptomatic and functional recovery-and these benefits have been demonstrated in patients with depression as well as in patients with generalised anxiety disorder, including those with more severe symptoms. Agomelatine has also been shown to be efficacious and well tolerated in patients with depression plus concomitant anxiety symptoms. A pooled analysis of data from six agomelatine studies of depression (three placebo-controlled and three with active comparators-fluoxetine, sertraline and venlafaxine) found that agomelatine was significantly more effective than placebo at relieving the anxiety subscore on the Hamilton Depression Rating Scale, and that the difference between agomelatine and placebo was even more marked in the subgroup of patients with severe anxiety symptoms at baseline. Irrespective of the pharmacotherapy used in patients with depression, the likelihoods of response and remission are increased when pharmacotherapy is combined with psychotherapy, with this approach being more effective than either pharmacotherapy or psychotherapy alone. Persistence with treatment is important, and clinicians should therefore encourage patients to keep trying to obtain relief.</t>
+          <t>Effects of Vortioxetine on the expression of brain-derived neurotrophic factor (BDNF) and tyrosine kinase B (Trk B) in hippocampus of depressive rats were investigated. Forty-five SD rats were randomly divided into three groups: model control, Vortioxetine and normal control group, with 15 rats in each group. The changes of body mass were recorded within 5 weeks, and the open field test, sugar water preference test and Morris water maze test were performed to evaluate the behavior and mental status of the rats. The expression of BDNF and Trk B in rat hippocampus was detected by enzyme-linked immuno sorbent assay. Compared with the model control group, the body mass, horizontal and vertical movement, sugar and water preference rate of the vortioxetine group in the 5th week were significantly higher than those of the model control group (P&lt;0.05), and significantly lower than those of the normal control group (P&lt;0.05). The escape latency of the Vortioxetine group within 4 days was significantly lower than that of model control group (P&lt;0.05), but higher than that of normal control group (P&lt;0.05). The target quadrant residence time of the Vortioxetine group was significantly lower than that of the model control group (P&lt;0.05), but higher than that of the normal control group (P&lt;0.05). Expression of BDNF and Trk B in the Vortioxetine group was significantly higher than that in the model control group (P&lt;0.05), but lower than that of the normal control group (P&lt;0.05). Collectively, Vortioxetine can effectively alleviate the symptoms of autonomous and exploratory behavior, and reduce the decrease of learning and memory in depressive rats. Vortioxetine can increase the expression of BDNF and Trk B in depressive rats and alleviate their depressive behavior.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>31725942</t>
+          <t>36135826</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Randomized, double-blind, placebo-controlled study to assess the efficacy and safety of vortioxetine in Japanese patients with major depressive disorder.</t>
+          <t>Cutting the First Turf to Heal Post-SSRI Sexual Dysfunction: A Male Retrospective Cohort Study.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The burden of major depressive disorder (MDD) in Japan is high. This study aimed to evaluate the efficacy and safety of the multimodal antidepressant vortioxetine in Japanese patients with MDD. Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score ≥ 26 were randomized to vortioxetine 10 or 20 mg or placebo in a phase-3, double-blind, 8-week study. The primary end-point was change in MADRS total score from baseline. Secondary end-points included MADRS response and remission rates, change in Hamilton Rating Scale for Depression-17 item (HAM-D17) score, and other measures of depressive symptoms, including Clinical Global Impression of Severity (CGI-S), Clinical Global Impression of Improvement (CGI-I), and Sheehan Disability Scale (SDS). Cognitive function was assessed using Digit Symbol Substitution Test (DSST) score and Perceived Deficits Questionnaire-5 item (PDQ-5) score. Vortioxetine 10 mg (n = 165) and 20 mg (n = 163) reduced MADRS total score by 2.66 and 3.07 points versus placebo (n = 161) after 8 weeks (P &lt; 0.01 for each dose), respectively. MADRS response and remission rates were also significantly greater with vortioxetine than with placebo (P &lt; 0.05 for both doses). Vortioxetine 10 and 20 mg significantly improved HAM-D17 score, CGI-I score, and SDS total score after 8 weeks. PDQ-5 score was significantly improved in subjects administered vortioxetine, while DSST scores showed no significant difference. Vortioxetine was generally well tolerated. Vortioxetine at both the 10- and 20-mg/day doses demonstrated robust antidepressant efficacy in Japanese patients with MDD, and was well tolerated over the 8-week treatment period.</t>
+          <t>Post-SSRI sexual dysfunction (PSSD) is a set of heterogeneous sexual problems, which may arise during the administration of selective serotonin reuptake inhibitors (SSRIs) and persist after their discontinuation. PSSD is a rare clinical entity, and it is commonly associated with non-sexual concerns, including emotional and cognitive problems and poor quality of life. To date, however, no effective treatment is available. The aim of this study was to retrospectively evaluate the potential efficacy of the different treatments used in clinical practice in improving male PSSD. Of the 30 patients referred to our neurobehavioral outpatient clinic from January 2020 to December 2021, 13 Caucasian male patients (mean age 29.53 ± 4.57 years), previously treated with SSRIs, were included in the study. Patients with major depressive disorder and/or psychotic symptoms were excluded a priori to avoid overlapping symptomatology, and potentially reduce the misdiagnosis rate. To treat PSSD, we decided to use drugs positively affecting the brain dopamine/serotonin ratio, such as bupropion and vortioxetine, as well as other compounds. This latter drug is known not to cause or reverse iatrogenic SD. Most patients, after treatment with vortioxetine and/or nutraceuticals, reported a significant improvement in all International Index of Erectile Function-(IIEF-5) domains (p &lt; 0.05) from baseline (T0) to 12-month follow-up (T1). Moreover, the only patient treated with pelvic muscle vibration reached very positive results. Although our data come from a retrospective open-label study with a small sample size, drugs positively modulating the central nervous system serotonin/dopamine ratio, such as vortioxetine, could be used to potentially improve PSSD. Large-sample prospective cohort studies and randomized clinical trials are needed to investigate the real prevalence of this clinical entity and confirm such a promising approach to a potentially debilitating illness.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32765787</t>
+          <t>29673132</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Effects of Vortioxetine on depression model rats and expression of BDNF and Trk B in hippocampus.</t>
+          <t>The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Effects of Vortioxetine on the expression of brain-derived neurotrophic factor (BDNF) and tyrosine kinase B (Trk B) in hippocampus of depressive rats were investigated. Forty-five SD rats were randomly divided into three groups: model control, Vortioxetine and normal control group, with 15 rats in each group. The changes of body mass were recorded within 5 weeks, and the open field test, sugar water preference test and Morris water maze test were performed to evaluate the behavior and mental status of the rats. The expression of BDNF and Trk B in rat hippocampus was detected by enzyme-linked immuno sorbent assay. Compared with the model control group, the body mass, horizontal and vertical movement, sugar and water preference rate of the vortioxetine group in the 5th week were significantly higher than those of the model control group (P&lt;0.05), and significantly lower than those of the normal control group (P&lt;0.05). The escape latency of the Vortioxetine group within 4 days was significantly lower than that of model control group (P&lt;0.05), but higher than that of normal control group (P&lt;0.05). The target quadrant residence time of the Vortioxetine group was significantly lower than that of the model control group (P&lt;0.05), but higher than that of the normal control group (P&lt;0.05). Expression of BDNF and Trk B in the Vortioxetine group was significantly higher than that in the model control group (P&lt;0.05), but lower than that of the normal control group (P&lt;0.05). Collectively, Vortioxetine can effectively alleviate the symptoms of autonomous and exploratory behavior, and reduce the decrease of learning and memory in depressive rats. Vortioxetine can increase the expression of BDNF and Trk B in depressive rats and alleviate their depressive behavior.</t>
+          <t>Major Depressive Disorder (MDD) is a heterogeneous disease characterized by emotional, physical and cognitive symptoms. This study explored the effects of vortioxetine versus escitalopram on outcomes of cognition, functioning and mood symptoms in depressed patients with inadequate response to current antidepressant treatment. In this parallel-group, active-comparator study, adult patients (18-65 years, N = 101) with MDD, with inadequate response to current antidepressant monotherapy, were randomized 1:1 to 8 weeks' double-blind treatment with flexible doses (10-20mg/day) of either vortioxetine or escitalopram. Primary and key secondary efficacy measures were the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward method). At week 8, DSST and UPSA-B performance had improved in both treatment groups, with no statistically significant treatment differences. Numerical improvements across measures of cognition, functioning and mood symptoms generally favored vortioxetine. Most adverse events were mild or moderate, with nausea being the most common adverse event. This was an exploratory study with small sample sizes implying limited statistical power. Although this explorative study did not meet primary endpoints, the results confirm vortioxetine in doses of 10-20mg/day as an efficacious and well-tolerated antidepressant switch treatment. The overall direction of numerical effect sizes across cognition endpoints support previous findings that vortioxetine specifically benefits cognitive function in MDD.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>35753689</t>
+          <t>34025982</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Anxiety symptoms in working patients with major depressive disorder treated with vortioxetine: associations with clinical and treatment outcomes in the AtWoRC study.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Anxiety symptoms are common in patients with major depressive disorder (MDD) and usually confer worse treatment outcomes. The long-term, open-label AtWoRC study in working patients with MDD treated with vortioxetine demonstrated a significant correlation between severity of anxiety symptoms and impaired work productivity. This analysis was undertaken to further explore clinical characteristics and treatment outcomes in patients with different levels of severity of anxiety symptoms at baseline. &lt;i&gt;Post hoc&lt;/i&gt; analysis in 199 working patients with MDD treated with vortioxetine (10-20 mg/day), stratified by Generalized Anxiety Disorder 7-item (GAD-7) score at baseline [mild/moderate anxiety (GAD-7 ⩽14), &lt;i&gt;n&lt;/i&gt; = 83; severe anxiety (GAD-7 ⩾15), &lt;i&gt;n&lt;/i&gt; = 116]. Associations were examined between GAD-7 and other outcome assessment scores at baseline. Observed mean changes from baseline to week 52 were compared between groups. Patients with severe anxiety had significantly worse depressive and cognitive symptoms, functioning, and work productivity at baseline than those with mild/moderate anxiety, but similar cognitive performance. Statistically significant improvements from baseline were seen for all outcomes after 52 weeks of vortioxetine treatment, with no significant differences observed between the two groups after adjustment for baseline anxiety scores. Treatment with vortioxetine was associated with long-term improvement in clinical symptoms and measures of work productivity in patients with MDD in a real-world setting, irrespective of severity of anxiety symptoms at the start of treatment.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>33583460</t>
+          <t>22963932</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Comparative efficacy of pharmacological treatments on measures of self-rated functional outcomes using the Sheehan Disability Scale in patients with major depressive disorder: a systematic review and network meta-analysis.</t>
+          <t>A randomized, double-blind, placebo-controlled 6-wk trial of the efficacy and tolerability of 5 mg vortioxetine in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>More than 50% patients with major depressive disorder (MDD) have severe functional impairment. The restoration of patient functioning is a critical therapeutic goal among patients with MDD. We conducted a systematic review and network meta-analysis to evaluate the efficacy of pharmacological treatments on self-rated functional outcomes using the Sheehan Disability Scale in adults with MDD in randomized clinical trials. PubMed, EMBASE, PsycINFO, Cochrane Library, and ClinicalTrials.gov were searched from inception to December 10, 2019. Summary statistics are reported as weighted mean differences with 95% confidence intervals. Interventions were ranked using the surface under the cumulative ranking probabilities. We included 42 randomized controlled trials (RCTs) (n = 18 998) evaluating the efficacy of 13 different pharmacological treatments on functional outcomes, as measured by the Sheehan Disability Scale (SDS). Duloxetine was the most effective pharmacological agent on functional outcomes, followed by (ranked by efficacy): paroxetine, levomilnacipran, venlafaxine, quetiapine, desvenlafaxine, agomelatine, escitalopram, amitriptyline, bupropion, sertraline, vortioxetine, and fluoxetine. Serotonin and norepinephrine reuptake inhibitors were more effective than other drug classes. Additionally, the comparison-adjusted funnel plot suggested the publication bias between small and large studies was relatively low. Our results indicate that there may be differences across antidepressant agents and classes with respect to self-reported functional outcomes. Validation and replication of these findings in large-scale RCTs are warranted. Our research results will be clinically useful for guiding psychiatrists in treating patients with MDD and functional impairment. PROSPERO registration number CRD42018116663.</t>
+          <t>Vortioxetine (Lu AA21004) is a multi-modal antidepressant in clinical development for the treatment of major depressive disorder (MDD). The current study evaluated the efficacy and tolerability of 5 mg vortioxetine compared to placebo after 6 wk of treatment in adults with MDD in an out-patient setting. Adults aged 18-75 yr, with a diagnosis of MDD and a baseline Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥30, were randomized to receive either 5 mg vortioxetine or placebo over 6 wk, followed by a 2-wk medication-free discontinuation period. The primary efficacy measure was change from baseline in Hamilton Rating Scale for Depression (HAMD)-24 total score at week 6 compared to placebo. Additional measures included response and remission rates, Clinical Global Impression Scale - Improvement scores, HAMD-24 total score in subjects with baseline Hamilton Anxiety Scale (HAMA) &gt;19 and MADRS-S total score. Adverse events (AEs) were assessed throughout the study. A total of 600 adults were randomized. There were no significant differences in efficacy measures between subjects in the 5 mg vortioxetine and placebo groups at week 6. HAMD-24 total score in subjects with baseline HAMA &gt;19 in the 5 mg vortioxetine group was improved at weeks 3-6 compared to the placebo group (nominal p value &lt;0.05). The most common AEs for the vortioxetine and placebo groups were nausea (19.1 and 9.4%), headache (17.1 and 15.1%) and diarrhoea (11.4 and 7.0%), respectively. In this study of adults with MDD, 5 mg vortioxetine did not differ significantly from placebo in reducing depression symptoms after 6 wk of treatment.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>31930057</t>
+          <t>28858412</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Vortioxetine versus sertraline in metabolic control, distress and depression in Mexican patients with type 2 diabetes.</t>
+          <t>Randomized, double-blind, placebo-controlled 8-week trial of the efficacy, safety, and tolerability of 5, 10, and 20 mg/day vortioxetine in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Depression in patients with type 2 diabetes (T2D) is often undiagnosed and remains untreated, leading to poor therapy adherence and ill health-related outcomes. We evaluated the effect of vortioxetine versus sertraline in the treatment of depression, distress and metabolic control in subjects with T2D and depression. Participants were selected from the Clinic for Diabetes, diagnosed with depression when the score was ≥14 in the Hamilton Depression Rating Scale, and verified by a psychiatrist in agreement with the DSM-5 instrument (Diagnostic and Statistical Manual of Mental Disorders, fifth edition). The criteria for recruitment also included glycosylated hemoglobin ≥7.5%, 18 to 60 years of age, and written informed consent. Pharmacological treatment for depression was assigned randomly: vortioxetine (10 mg/day) or sertraline (75 mg/day) for 8 weeks. Biochemical parameters, anthropometric measures and depression symptoms were evaluated after antidepressant treatment. This was a randomized singled-blind study. Subjects that met the inclusion criteria were 50, of which only 21 patients with T2D and depression finished the treatment. Vortioxetine and sertraline showed partial remission of depression. Vortioxetine showed a major effect size in glycosylated hemoglobin and a moderate effect size on weight loss, fasting plasma glucose (FPG), cholesterol and triacylglycerol levels. On the other hand, patients treated with sertraline presented a slight increase in body weight, body mass index (BMI), and in all biochemical markers. Vortioxetine may ameliorate depressive symptoms and metabolic control in patients with T2D and depression. Trial registration number: NCT03978286.</t>
+          <t>This study assessed the efficacy and safety of vortioxetine in adults with major depressive disorder. In this double-blind, placebo-controlled study, 600 patients with major depressive disorder were randomly assigned (1:1:1:1) to receive vortioxetine 5, 10, or 20 mg, or placebo once daily for 8 weeks. The primary end-point was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8, evaluated by the last-observation-carried-forward method. Secondary end-points included response (≥ 50% decrease in the MADRS total score from baseline) and remission (MADRS total score ≤ 10), Clinical Global Impression Scale-Improvement, and change from baseline in Sheehan Disability Scale. Adverse events were summarized. Vortioxetine failed to show significant differences from placebo in the primary end-point. Nominally significant improvements over placebo were observed for vortioxetine doses of 10 and 20 mg when the primary end-point was evaluated using the mixed model for repeated measures as the secondary analysis, and 10 mg in secondary measures of response and patient functioning. Vortioxetine was well tolerated. Nausea, constipation, dry mouth, dizziness, and insomnia each occurred at a &gt;twofold higher rate than placebo. Discontinuation symptom scores were comparable between all groups after 1 and 2 weeks following withdrawal of the study drug. While vortioxetine failed to meet significance versus placebo in the primary efficacy analysis, there was evidence of efficacy for the 10- and 20-mg doses in secondary analyses. Vortioxetine was safe and well tolerated. Additional studies appear warranted.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>29160598</t>
+          <t>35698594</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Randomized, 8-week, double-blind, placebo-controlled trial of vortioxetine in Japanese adults with major depressive disorder, followed by a 52-week open-label extension trial.</t>
+          <t>The Incidence and Costs of Adverse Events Associated with Antidepressants: Results from a Systematic Review, Network Meta-Analysis and Multi-Country Economic Model.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Safety and efficacy of vortioxetine (5-20 mg/day) in Japanese patients with major depressive disorder were evaluated in two phase 3 studies consisting of a short-term, 8-week, placebo-controlled, double-blind study followed by a long-term, 52-week, open-label extension study. The primary end-point of the short-term study was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8. The primary objective of the extension study was vortioxetine's long-term safety; efficacy end-points included change in MADRS total score, Clinical Global Impression Scale (CGI)-Severity (S) score from the long-term study baseline, and CGI-Improvement (CGI-I) score over 52 weeks. Of the 366 randomized patients, 338 completed the short-term study, and 119 patients continued into the extension study. Primary (analysis of covariance) and secondary (mixed model for repeated measurements) analyses in the short-term study showed numerically greater, but not statistically significant, decreases in change in MADRS total score from baseline between the vortioxetine and placebo groups at week 8. In the long-term study, 86.6% of patients reported at least one treatment-emergent adverse event, with the most common being nasopharyngitis (40.3%) and nausea (21%). MADRS total score and CGI-I and CGI-S scores improved with continued vortioxetine treatment from baseline of the open-label study to week 52. Vortioxetine failed to meet significance versus placebo in the primary efficacy analysis at week 8 in the short-term study. The extension trial indicated continued improvement of depressive symptoms from baseline of this study throughout the 52-week treatment period. Vortioxetine treatment was safe and well tolerated in both studies.</t>
+          <t>There is variation in the safety profile of antidepressants. Rates of adverse events along with the costs of treating them can be an important factor influencing the choice of depression treatment. This study sought to estimate the comparative safety of commonly prescribed antidepressants, and how the costs of treating these varied across European countries. A systematic literature review was conducted (in Medline, Embase, PsycINFO and CENTRAL) to identify placebo-controlled trials reporting rates of at least one type of sexual dysfunction, weight change, insomnia, anxiety, and anhedonia. Eight antidepressants were considered: duloxetine, escitalopram, fluoxetine, paroxetine, sertraline, trazodone, venlafaxine, and vortioxetine. This evidence was synthesised via Bayesian random effects network meta-analyses to provide comparative estimates of safety. A systematic search identified country-specific costs of managing depression and adverse events of antidepressants. Evidence on costs and safety was combined in an economic model to provide country-specific costs for Bulgaria, the Czech Republic, Greece, Hungary, Italy, Romania, Slovakia, Portugal, and Poland. Trazodone had the lowest rates of both insomnia (odds ratio 0.66, 95% credible interval 0.31 to 1.38) and anxiety (0.13, &lt;0.01 to 1.80). All antidepressants were associated with increased rates of sexual dysfunction relative to placebo. Weight change was largest for fluoxetine (kg change -1.01, -1.40 to -0.60) and sertraline (-1.00, -1.36 to -0.65), although heterogeneity was extreme for this outcome. No evidence was identified for anhedonia. Total costs were lowest for trazodone in all nine of the countries evaluated. This was primarily due to reduced rates of treatment discontinuation. Trazodone generally had the best safety profile of the antidepressants evaluated. This led to healthcare costs being lowest for trazodone in all nine European countries, emphasising the importance of considering rates of adverse events when choosing a pharmacological treatment to treat symptoms of depression.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>37227402</t>
+          <t>29277417</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Head-To-Head Comparison of Vortioxetine Versus Desvenlafaxine in Patients With Major Depressive Disorder With Partial Response to SSRI Therapy: Results of the VIVRE Study.</t>
+          <t>Reprint of: Contrasting effects of vortioxetine and paroxetine on pineal gland biochemistry in a tryptophan-depletion model of depression in female rats.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Objective:&lt;/i&gt;&lt;/b&gt; To compare the efficacy of vortioxetine and the serotonin-norepinephrine reuptake inhibitor (SNRI) desvenlafaxine in patients with major depressive disorder (MDD) experiencing partial response to initial treatment with a selective serotonin reuptake inhibitor (SSRI). &lt;b&gt;&lt;i&gt;Methods:&lt;/i&gt;&lt;/b&gt; This randomized, double-blind, active-controlled, parallel-group, 8-week study of vortioxetine (10 or 20 mg/d; n = 309) versus desvenlafaxine (50 mg/d: n = 293) was conducted from June 2020 to February 2022 in adults with a &lt;i&gt;DSM-5&lt;/i&gt; diagnosis of MDD who experienced partial response to SSRI monotherapy. The primary endpoint was mean change from baseline to week 8 in Montgomery-Åsberg Depression Rating Scale (MADRS) total score. Differences between groups were analyzed using mixed models for repeated measures. &lt;b&gt;&lt;i&gt;Results:&lt;/i&gt;&lt;/b&gt; Non-inferiority of vortioxetine versus desvenlafaxine was established in terms of mean change from baseline to week 8 in MADRS total score; however, a numeric advantage was observed in favor of vortioxetine (difference, -0.47 MADRS points [95% CI, -1.61 to 0.67]; &lt;i&gt;P&lt;/i&gt; = .420). At week 8, significantly more vortioxetine-treated than desvenlafaxine-treated patients had achieved symptomatic and functional remission (ie, Clinical Global Impressions-Severity of Illness scale [CGI-S] score ≤ 2) (32.5% vs 24.8%, respectively; odds ratio = 1.48 [95% CI, 1.03 to 2.15]; &lt;i&gt;P&lt;/i&gt; = .034). Vortioxetine-treated patients also experienced significantly greater improvements in daily and social functioning assessed by the Functioning Assessment Short Test (&lt;i&gt;P = &lt;/i&gt;.009 and .045 vs desvenlafaxine, respectively) and reported significantly greater satisfaction with their medication assessed by the Quality of Life Enjoyment and Satisfaction Questionnaire (&lt;i&gt;P&lt;/i&gt; = .044). Treatment-emergent adverse events (TEAEs) were reported in 46.1% and 39.6% of patients in the vortioxetine and desvenlafaxine groups, respectively; these were mostly mild or moderate in intensity (&gt; 98% of all TEAEs in each group). &lt;b&gt;&lt;i&gt;Conclusions:&lt;/i&gt;&lt;/b&gt; Compared with the SNRI desvenlafaxine, vortioxetine was associated with significantly higher rates of CGI-S remission, better daily and social functioning, and greater treatment satisfaction in patients with MDD and partial response to SSRIs. These findings support the use of vortioxetine before SNRIs in the treatment algorithm in patients with MDD. &lt;b&gt;&lt;i&gt;Trial Registration:&lt;/i&gt;&lt;/b&gt; ClinicalTrials.gov Identifier: NCT04448431.</t>
+          <t>We studied the effects of the multi-modal antidepressant, vortioxetine and the SSRI, paroxetine on pineal melatonin and monoamine synthesis in a sub-chronic tryptophan (TRP) depletion model of depression based on a low TRP diet. Female Sprague-Dawley rats were randomised to groups a) control, b) low TRP diet, c) low TRP diet+paroxetine and d) low TRP diet+vortioxetine. Vortioxetine was administered via the diet (0.76mg/kg of food weight) and paroxetine via drinking water (10mg/kg/day) for 14days. Both drugs resulted in SERT occupancies &gt;90%. Vortioxetine significantly reversed TRP depletion-induced reductions of pineal melatonin and serotonin (5-HT) and significantly increased pineal noradrenaline NA. Paroxetine did none of these things. Other studies suggest pineal melatonin synthesis may involve N-methyl-d-aspartate (NMDA) receptors and glutamatergic modulation. Here observed changes may be mediated via vortioxetine's strong 5-HT reuptake blocking action together with possible additional effects on glutamate neurotransmission in the pineal via NMDA receptor-modulation and possibly with added impetus from increased NA output.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>27231256</t>
+          <t>38239568</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Which Cognitive Domains are Improved by Treatment with Vortioxetine?</t>
+          <t>Treatment of Depression with Vortioxetine and Second Generation Antipsychotics During the Period of Remission Formation in Schizophrenia (Interim Data Analysis).</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>These post hoc analyses evaluated vortioxetine efficacy on cognitive dysfunction in depression. Data were from a double-blind, randomized, fixed-dose, placebo-controlled, 8-week depression study in adults aged 18-65 years (n = 602) with DSM-IV-defined major depressive disorder (MDD). Subjects were randomized (1:1:1) to vortioxetine 10mg/day or 20mg/day or placebo. Cognitive function was assessed at baseline, Week 1 (10mg/day only) and Week 8 using Digit Symbol Substitution Test (DSST) number of correct symbols, Rey Auditory Verbal Learning Test, Trail Making Test, Stroop test, Simple Reaction Time, and Choice Reaction Time tests. The cognition variables were standardized and used for constructing composite Z-scores for the cognitive domains of executive function, attention/speed of processing, and memory. At Week 1, vortioxetine 10mg/day separated from placebo for attention/speed of processing (standardized composite Z-score = 0.21; p = 0.0238) and DSST number of correct symbols (standardized effect size = 0.18; p = 0.0458) and for executive function (standardized composite Z-score = 0.20; p = 0.0274). At Week 8, vortioxetine 10mg/day and 20mg/day separated from placebo for executive function and attention/speed of processing, with standardized composite Z-scores ranging from 0.35 to 0.49 (all p &lt; 0.01). Standardized composite Z-scores for memory were 0.31 ( p = 0.0036, 10mg/day) and 0.22 ( p = 0.0349, 20mg/day). Standardized effect sizes for DSST were 0.51 ( p &lt; 0.0001, 10mg/day) and 0.52 ( p &lt; 0.0001, 20mg/day). Results are limited by the post hoc nature of the analyses and the absence of an active reference in the original study. Vortioxetine (10 and 20mg/day) had a multi-domain beneficial effect on cognitive performance, as evidenced by improvements in measures of executive function, attention/speed of processing, and memory. The effect on the DSST may be due to improvements in several cognitive skills.</t>
+          <t>Depression in patients with schizophrenia worsens the course of the disease by increasing the risk of suicide, by complicating the clinical picture of the disorder, and by reducing the quality of the social functioning; its treatment is difficult, since monotherapy, even when involving modern antipsychotics, does not always prove successful. While the prescription of additional antidepressants (ADs) can improve the likelihood of a better outcome, the effectiveness of such augmentation in many cases is yet to be proven. Therefore, it is still important that one weighs the effectiveness of various combinations between most of the known ADs and some second-generation antipsychotic (SGA) in the treatment of depression that occurs at different stages of schizophrenia. In previous studies, the use of vortioxetine as an adjunct to an antipsychotic yielded a reduction in negative symptoms, a clinically significant improvement in cognitive functions that differed from its antidepressant effect, and good tolerability, which affects how committed to treatment a patient remains. To study the changes that occur over time in the clinical manifestations of depression, negative and cognitive impairment, as well as the social adequacy of patients receiving a combination therapy with second-generation antipsychotics and vortioxetine, which were prescribed in real clinical practice at doses approved in the Russian Federation. We performed a comparative analysis of the changes in depression symptoms and negative symptoms, cognitive impairment, as well as function of 78 patients with severe manifestations of depression at the stage of exacerbation reduction and subsequent remission of paranoid schizophrenia. Combination treatment with SGA and vortioxetine was used in 39 patients, and 39 patients who had similar clinical manifestations received just SGA. During the observation period, the mental disorder severity and depression symptom severity were assessed 3 times (before the start of treatment, after three months, and after six months) using the Clinical Global Impression (CGI) scale and Calgary Depression Scale for Schizophrenia (CDSS), respectively; patients were also assessed using the Negative Symptoms Assessment-5 (NSA-5) scale, Perceived Deficits Questionnaire-20 items (PDQ-20) scale, and Personal and Social Performance (PSP) scale. According to the ANOVA results, by the end of the observation period, patients, regardless of their therapeutic group, showed a statistically significant decrease in the level of depression on the CDSS scale, the severity of negative symptoms on the NSA-5 scale, cognitive symptoms on the PDQ-20 scale, as well as an improvement in personality and society, judging by the increase in the total PSP scores. There were also significant differences between the compared main (SGA + vortioxetine) and control (SGA) groups in terms of the changes in the total score on the CDSS and PSP scales. An interesting aspect of the changes in the clinical scores was a noticeable improvement in the SGA + vortioxetine group after 3 months of treatment, in the absence of a similar improvement in the control group, and the achievement of approximately the same scores in both groups after 6 months. In particular, there were significant differences between the SGA + vortioxetine and SGA groups in terms of the mean CDSS (&lt;i&gt;p&lt;/i&gt; 0.001), NSA-5 (&lt;i&gt;p&lt;/i&gt;=0.003), PDQ-20 (&lt;i&gt;p&lt;/i&gt; 0.001), and PSP (&lt;i&gt;p&lt;/i&gt;=0.004) scores after 3 months. Analysis of the time before early withdrawal from the study showed that significantly more patients in the SGA + vortioxetine group completed the study program (&lt;i&gt;n&lt;/i&gt;=27, 69.23%) compared with the SGA group (&lt;i&gt;n&lt;/i&gt;=13, 33.33%) (&lt;sup&gt;2&lt;/sup&gt; =14.618, df=1, &lt;i&gt;p&lt;/i&gt; 0.001, log-rank test. The mean survival time in the SGA group was significantly (&lt;i&gt;p&lt;/i&gt; 0.001) less and amounted to 101.436 days (95% CI: 81.518121.354), and in the SGA + vortioxetine group it amounted to 161.744 days (147.981175.506). The relative risk of full study completion in the vortioxetine + SGA group compared with that in SGA was 3.618 (1.8716.994). The addition of vortioxetine to the SGA therapy accelerates the reduction of the depression symptoms that occur at the stage of psychosis regression and early remission, contributes to the accelerated reduction in negative symptoms, positively affects the subjective assessment of cognitive impairment severity, and has a significant positive effect on the level of psychosocial functioning.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34025474</t>
+          <t>34269645</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gut Microbiota Changes in Patients With Major Depressive Disorder Treated With Vortioxetine.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Vortioxetine hydrobromide is a common clinical medication for major depressive disorder (MDD). However, it remains unclear whether vortioxetine hydrobromide acts by affecting the structure and composition of gut microbiota. Here, we analyzed fecal samples from 28 healthy controls (HCs) and 26 patients with MDD before treatment with vortioxetine hydrobromide, at 4 weeks after treatment, and at 8 weeks after treatment. High-throughput pyrosequencing showed that, according to the Chao1 and Shannon indices, fecal bacterial α-diversity was higher in the patients with MDD than in the HCs (&lt;i&gt;p&lt;/i&gt; &lt; 0.05), but no significant differences were observed after vortioxetine hydrobromide treatment (&lt;i&gt;p&lt;/i&gt; &gt; 0.05). PCoA results revealed that the gut microbiota composition was significantly different between the MDD groups and HCs. Proteobacteria and Actinobacteria were strongly increased, whereas Firmicutes were significantly reduced in the MDD group compared with the HCs. After treatment with vortioxetine hydrobromide, Firmicutes were significantly increased, and the proportion of Bacteroidetes decreased. Most notably, &lt;i&gt;Lachnospira, Roseburia&lt;/i&gt;, and &lt;i&gt;Faecalibacterium&lt;/i&gt; were negatively correlated with the severity of depressive symptoms. Taken together, our data indicate changes in the fecal microbiota composition in MDD patients compared with HCs, and vortioxetine hydrobromide may treat MDD through regulation of the gut microflora.</t>
-        </is>
-      </c>
+          <t>Statement of Retraction: Efficacy and safety of vortioxetine for the treatment of major depressive disorder: a randomised double-blind placebo-controlled study.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>38420046</t>
+          <t>21767441</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Effect of Vortioxetine in Comparison to Fluoxetine on Metabolic Parameters in Patients With Depressive Disorder: A Randomized Controlled Trial.</t>
+          <t>A double-blind, randomized, placebo-controlled, active reference study of Lu AA21004 in patients with major depressive disorder.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Background Major depressive disorder (MDD) is a debilitating mood disorder that increases the risk of metabolic syndrome (MS), emphasizing the need for mental and physical health treatments. Although many studies have linked atypical antipsychotics to metabolic disturbances, there is limited evidence linking selective serotonin reuptake inhibitor use to MS. This study aimed to assess the risk of MS among patients with MDD who were administered vortioxetine and fluoxetine. Methodology This was a prospective, open-label, randomized controlled trial conducted in the psychiatry department. Using computer-generated random numbers, the physician assigned fluoxetine 20 mg or vortioxetine 10 mg and recorded MS parameters at baseline and each visit (4, 8, 12, 16, 20, and 24 weeks). This study was registered with CTRI (CTRI/2021/07/034892). Results A total of 122 participants were allocated randomly to the following two groups: group A (n = 60) and group B (n = 62). An independent-sample t-test showed a significant improvement in fasting plasma glucose (FPG) at week eight (p = 0.005), triglycerides (TGs) at week 16 (p = 0.005), high-density lipoprotein (HDL) at week 20 (p = 0.005), and waist circumference at week 24 (p = 0.005) in group A compared to group B. However, systolic blood pressure (SBP) and diastolic blood pressure (DBP) were not significantly associated with either group (p = 0.126 and p = 0.793, respectively). Overall depression remission (Hamilton Depression Rating Scale (HAM-D)) and medication adherence rating scale scores were similar between groups (p = 0.337 and 0.325, respectively). Furthermore, most adverse drug reactions were possibly associated with the study drugs. Conclusions In comparison to group B, group A showed significant improvements in FPG, HDL, and waist circumference more effectively; however, both groups led to higher TG levels, with non-significant numerical improvements observed in SBP and DBP in both groups. In addition, both treatment groups reduced the HAM-D score and had a similar MDD remission rate.</t>
+          <t>The efficacy, safety, and tolerability of Lu AA21004 vs. placebo using venlafaxine XR as active reference in patients with DSM-IV-TR major depressive disorder (MDD) were evaluated. Lu AA21004 is a novel antidepressant that is a 5-HT3 and 5-HT7 receptor antagonist, 5-HT1A receptor agonist, 5-HT1B receptor partial agonist and inhibitor of the 5-HT transporter in recombinant cell lines. In this 6-wk, multi-site study, 429 patients were randomly assigned (1:1:1:1) to 5 or 10 mg Lu AA21004, placebo or 225 mg venlafaxine XR. All patients had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 30. The primary efficacy analysis was based on the MADRS total score adjusting for multiplicity using a hierarchical testing procedure starting with the highest dose vs. placebo. Lu AA21004 was statistically significantly superior to placebo (n=105) in mean change from baseline in MADRS total score at week 6 (p&lt;0.0001, last observation carried forward), with a mean treatment difference vs. placebo of 5.9 (5 mg, n=108), and 5.7 (10 mg, n=100) points. Venlafaxine XR (n=112) was also significantly superior to placebo at week 6 (p&lt;0.0001). In total, 30 patients withdrew due to adverse events (AEs)--placebo: four (4%); 5 mg Lu AA21004: three (3%); 10 mg Lu AA21004: seven (7%); and venlafaxine: 16 (14%). The most common AEs were nausea, headache, hyperhidrosis, and dry mouth. No clinically relevant changes over time were seen in the clinical laboratory results, vital signs, weight, or ECG parameters. In this study, treatment with 5 mg and 10 mg Lu AA21004 for 6 wk was efficacious and well tolerated in patients with MDD.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>29238196</t>
+          <t>36683990</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The role of new antidepressants in clinical practice in Canada: a brief review of vortioxetine, levomilnacipran ER, and vilazodone.</t>
+          <t>Effectiveness of vortioxetine for major depressive disorder in real-world clinical practice: US cohort results from the global RELIEVE study.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Although many branded and generic antidepressants are approved for the treatment of major depressive disorder (MDD) in Canada, efficacy and tolerability differ among patients, and new treatment options are needed. Symptom types (eg, fatigue, energy/motivation, cognition, and functioning), medication type, treatment duration, and the need for maintenance therapy are factors that may influence treatment effectiveness. Three antidepressants, vortioxetine, levomilnacipran extended-release (ER), and vilazodone have recently become available in Canada. The aim of this review is to contextualize differences in their mechanistic and clinical profiles, thereby providing practitioners with knowledge to support treatment decisions. In trials versus placebo, each drug improved depressive symptoms in adult patients with MDD. The antidepressant effect of vortioxetine may be related to enhanced serotonergic activity via reuptake inhibition and agonism and/or antagonism of various serotonin receptors. Vortioxetine may also improve cognitive functioning in MDD, and has proven efficacious in relapse prevention. Nausea was the most commonly reported adverse event (AE); rates of sexual dysfunction were low and abrupt discontinuation was well tolerated. Levomilnacipran ER, a serotonin norepinephrine reuptake inhibitor, demonstrated greater improvement versus placebo in functional impairment as well as depressive symptoms; in post hoc analyses, improvement in symptoms of motivation and energy were observed. Nausea was the most commonly reported AE; gradual discontinuation is recommended to avoid discontinuation syndrome. Vilazodone is a serotonin reuptake inhibitor and partial serotonergic 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonist. In addition to improvement in depressive symptoms, evidence suggests that vilazodone may be particularly well suited for depressed patients with high anxiety levels. Diarrhea, nausea, and headache were the most common AEs; low rates of sexual dysfunction were reported. The 2016 Canadian Network for Mood and Anxiety Treatments guidelines for MDD includes vortioxetine as a first-line treatment; levomilnacipran ER and vilazodone are considered as second-line treatments due to lack of relapse prevention data at the time of approval.</t>
+          <t>Effective treatment of major depressive disorder (MDD) involves addressing both depressive and functional symptoms, increasing patients' overall sense of well-being and quality of life (QoL). RELIEVE was an international observational, prospective study in patients ≥18 years with a current diagnosis of a major depressive episode (MDE) initiating vortioxetine in routine clinical practice; outcomes for the cohort of participants from the United States are presented here. Functioning was assessed at weeks 12 and 24 versus baseline using the Sheehan Disability Scale (SDS). Secondary effectiveness analyses assessed changes from baseline to weeks 12 and 24 in functioning, depression severity, cognitive symptoms, sexual function, and QoL. 244 participants had an average of 8.2 previous MDEs; mean duration of their current MDE at baseline was 93.5 weeks. Vortioxetine was used as second- or later-line treatment for 80.5% of participants. Least-squares mean (SE) SDS total score significantly decreased from baseline by 7.19 (0.52) points at week 12 and 8.19 (0.56) points at week 24 (&lt;i&gt;p&lt;/i&gt; &lt; 0.0001 for both). Significant improvements were also reflected across SDS subscores, depression severity, cognitive function, sexual function, and QoL. Healthcare resource utilization and productivity parameters also improved. Adverse events were observed in 21.8% of patients, with nausea being the most common (7.3%). This real-world study demonstrated improvements in functioning, depressive symptoms, and cognitive function in patients with MDD treated with vortioxetine in routine clinical practice in the cohort of patients enrolled in the United States. Outcomes were consistent with the efficacy and safety profile of vortioxetine in randomized controlled trials.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>29123483</t>
+          <t>25087600</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Impact of Vortioxetine on Synaptic Integration in Prefrontal-Subcortical Circuits: Comparisons with Escitalopram.</t>
+          <t>A randomised, double-blind study in adults with major depressive disorder with an inadequate response to a single course of selective serotonin reuptake inhibitor or serotonin-noradrenaline reuptake inhibitor treatment switched to vortioxetine or agomelatine.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Prefrontal-subcortical circuits support executive functions which often become dysfunctional in psychiatric disorders. Vortioxetine is a multimodal antidepressant that is currently used in the clinic to treat major depressive disorder. Mechanisms of action of vortioxetine include serotonin (5-HT) transporter blockade, 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonism, 5-HT&lt;sub&gt;1B&lt;/sub&gt; receptor partial agonism, and 5-HT&lt;sub&gt;1D&lt;/sub&gt;, 5-HT&lt;sub&gt;3&lt;/sub&gt;, and 5-HT&lt;sub&gt;7&lt;/sub&gt; receptor antagonism. Vortioxetine facilitates 5-HT transmission in the medial prefrontal cortex (mPFC), however, the impact of this compound on related prefrontal-subcortical circuits is less clear. Thus, the current study examined the impact of systemic vortioxetine administration (0.8 mg/kg, i.v.) on spontaneous spiking and spikes evoked by electrical stimulation of the mPFC in the anterior cingulate cortex (ACC), medial shell of the nucleus accumbens (msNAc), and lateral septal nucleus (LSN) in urethane-anesthetized rats. We also examined whether vortioxetine modulated afferent drive in the msNAc from hippocampal fimbria (HF) inputs. Similar studies were performed using the selective 5-HT reuptake inhibitor [selective serotonin reuptake inhibitors (SSRI)] escitalopram (1.6 mg/kg, i.v.) to enable comparisons between the multimodal actions of vortioxetine and SSRI-mediated effects. No significant differences in spontaneous activity were observed in the ACC, msNAc, and LSN across treatment groups. No significant impact of treatment on mPFC-evoked responses was observed in the ACC. In contrast, vortioxetine decreased mPFC-evoked activity recorded in the msNAc as compared to parallel studies in control and escitalopram treated groups. Thus, vortioxetine may reduce mPFC-msNAc afferent drive via a mechanism that, in addition to an SSRI-like effect, requires 5-HT receptor modulation. Recordings in the LSN revealed a significant increase in mPFC-evoked activity following escitalopram administration as compared to control and vortioxetine treated groups, indicating that complex modulation of 5-HT receptors by vortioxetine may offset SSRI-like effects in this region. Lastly, neurons in the msNAc were more responsive to stimulation of the HF following both vortioxetine and escitalopram administration, indicating that elevation of 5-HT tone and 5-HT receptor modulation may facilitate excitatory hippocampal synaptic drive in this region. The above findings point to complex 5-HT receptor-dependent effects of vortioxetine which may contribute to its unique impact on the function of prefrontal-subcortical circuits and the development of novel strategies for treating mood disorders.</t>
+          <t>This randomised, double-blind, 12-week study compared efficacy and tolerability of flexible-dose treatment with vortioxetine(10-20 mg/day) versus agomelatine (25-50 mg/day) in major depressive disorder patients with inadequate response to selective serotonin reuptake inhibitor (SSRI)/serotonin-noradrenaline reuptake inhibitor (SNRI) monotherapy. Patients were switched directly from SSRI/SNRI to vortioxetine or agomelatine. Primary endpoint was change from baseline to week 8 in the Montgomery-Åsberg Depression Rating Scale (MADRS) total score analysed by mixed model for repeated measurements, using a noninferiority test followed by a superiority test. Secondary endpoints included response and remission rates, anxiety symptoms(Hamilton Anxiety Rating Scale), Clinical Global Impression, overall functioning (Sheehan Disability Scale), health-related quality of life(EuroQol 5 Dimensions), productivity (work limitation questionnaire) and family functioning (Depression and Family Functioning Scale). Primary endpoint noninferiority was established and vortioxetine (n = 252) was superior to agomelatine (n = 241) by 2.2 MADRS points (p&lt;0.01). Vortioxetine was also significantly superior in response and remission rates at weeks 8 and 12; MADRS, Hamilton Anxiety Rating Scale, Clinical Global Impression, Sheehan Disability Scale and EuroQol 5 Dimensions scores at week 4 onwards; work limitation questionnaire at week 8 and Depression and Family Functioning Scale at weeks 8 and 12. Fewer patients withdrew because of adverse events with vortioxetine (5.9% vs 9.5%). Adverse events (incidence ≥5%) were nausea, headache, dizziness and somnolence. Vortioxetine was noninferior and significantly superior to agomelatine in major depressive disorder patients with previous inadequate response to a single course of SSRI/SNRI monotherapy. Vortioxetine was safe and well tolerated.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>36561896</t>
+          <t>27312740</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Treatment-Resistant Bipolar Depression: Therapeutic Trends, Challenges and Future Directions.</t>
+          <t>The Effects of Vortioxetine on Cognitive Function in Patients with Major Depressive Disorder: A Meta-Analysis of Three Randomized Controlled Trials.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bipolar disorder (BD) is a chronic mental illness impacting 1-2% of the population worldwide and causing high rates of functional impairment. Patients with BD spend most of their time in depressive episodes and up to one-third of patients do not respond to adequate doses of medications. Although no consensus exists for definition of treatment-resistant bipolar depression (TRBD), failure of symptoms improvement despite an adequate trial of two therapeutic agents is a common theme of TRBD. In this paper, we review the evidence base of therapeutic interventions, challenges, and potential future directions for TRBD. We conducted a literature search for randomized controlled trials on PubMed for the treatment of TRBD and ongoing trials for the treatment of TRBD/bipolar depression on clinicaltrials.gov. Several therapeutic agents have been investigated for TRBD. Adjunctive pramipexole and modafinil have data supporting short-term efficacy in TRBD, along with limited data for racemic intravenous ketamine. Celecoxib augmentation of escitalopram and treatment with metformin in patients with insulin resistance showed promising results. Right unilateral electroconvulsive therapy displayed statistically significant response rate and improvement, but not remission compared to pharmacotherapy. Trials for transcranial magnetic stimulation (TMS) have failed to show a significant difference from sham treatment in TRBD. Pharmacological treatments with novel mechanisms of actions like brexpiprazole and vortioxetine are being investigated following successes in unipolar depression. Modified TMS protocols such as accelerated TMS are under investigation. Innovative approaches like psychedelic-assisted psychotherapy, interleukin-2, fecal microbiota transplantation and multipotent stromal cells are being studied. Evidence on current treatment modalities for TRBD is limited with low efficacy. More research is needed for successful treatment of TRBD. Effective therapies and innovative approaches to treatment are being investigated and could show promise.</t>
+          <t>Management of cognitive deficits in Major Depressive Disorder (MDD) remains an important unmet need. This meta-analysis evaluated the effects of vortioxetine on cognition in patients with MDD. Random effects meta-analysis was applied to three randomized, double-blind, placebo-controlled 8-week trials of vortioxetine (5-20mg/day) in MDD, and separately to two duloxetine-referenced trials. The primary outcome measure was change in Digit Symbol Substitution Test (DSST) score. Standardized effect sizes (SES) versus placebo (Cohen's d ) were used as input. Path analysis was employed to determine the extent to which changes in DSST were mediated independently of a change in Montgomery-Åsberg Depression Rating Scale (MADRS) score. Meta-analysis was applied to MADRS-adjusted and -unadjusted SES values. Changes on additional cognitive tests were evaluated (source studies only). Before adjustment for MADRS, vortioxetine separated from placebo on DSST score (SES 0.25-0.48; nominal p &lt; 0.05) in all individual trials, and statistically improved DSST performance versus placebo in meta-analyses of the three trials (SES = 0.35; p &lt; 0.0001) and two duloxetine-referenced trials (SES = 0.26; p = 0.001). After adjustment for MADRS, vortioxetine maintained DSST improvement in one individual trial ( p = 0.001) and separation from placebo was maintained in meta-analyses of all three trials (SES = 0.24; p &lt; 0.0001) and both duloxetine-referenced trials (SES 0.19; p = 0.01). Change in DSST with duloxetine failed to separate from placebo in individual trials and both meta-analyses. Change in DSST statistically favored vortioxetine versus duloxetine after MADRS adjustment (SES = 0.16; p = 0.04). Vortioxetine, but not duloxetine, significantly improved cognition, independent of depressive symptoms. Vortioxetine represents an important treatment for MDD-related cognitive dysfunction.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>35815048</t>
+          <t>26035185</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Systematic Review and Meta-Analysis of Vortioxetine for the Treatment of Major Depressive Disorder in Adults.</t>
+          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of vortioxetine 10 mg and 20 mg in adults with major depressive disorder.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>We aimed to compare the efficacy, acceptability, and tolerability of vortioxetine in the treatment of Major Depressive Disorder (MDD) in adults. We searched PubMed, Embase, Web of Science, Cochrane Central Register of Controlled Clinical Trials (CENTRAL), and www.ClinicalTrials.gov for randomized controlled trials that examined vortioxetine vs. placebo or other antidepressants for the treatment of MDD from database inception to August 30, 2021, using keywords Vortioxetine, Brintellix, Trintellix, LuAA21004, major depressive disorder, mood disorder, affective disorder, and MDD. We identified 789 publications after removing duplicates. After screening, 20 eligible randomized controlled trials were identified, of which 19 were included in the final meta-analysis. We included adults (aged 18 years and older) with a primary diagnosis of MDD. Two review authors independently selected the studies and extracted data. We extracted data on study characteristics, participant characteristics, intervention details and outcome measures in terms of efficacy, acceptability, and tolerability. Analyses were performed using random-effects models, and outcomes were pooled as risk ratios (RRs) and standardized mean differences (SMDs). In total, 20 studies (8,547 participants) met the inclusion criteria. Vortioxetine outperformed the placebo in efficacy outcomes, including response (RR 1.35, 95% CI 1.23-1.48; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), remission (RR 1.33, 95% CI 1.17-1.52; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), and cognitive function (SMD 0.34, 95% CI 0.16-0.52; &lt;i&gt;P&lt;/i&gt; = 0.0003). Compared with the serotonin noradrenaline reuptake inhibitors (SNRIs), vortioxetine had better tolerability (RR 0.90, 95% CI 0.86-0.94; &lt;i&gt;P&lt;/i&gt; &lt; 0.001) but no significant difference in response (RR 0.91, 95%CI 0.82-1.00; &lt;i&gt;P&lt;/i&gt; = 0.06) or remission (RR: 0.99, 95% CI 0.81-1.20, &lt;i&gt;P&lt;/i&gt; = 0.88). Vortioxetine had no difference in response (RR 1.08, 95% CI 0.88-1.32; &lt;i&gt;P&lt;/i&gt; = 0.46), remission (RR 1.00, 95% CI 0.41-2.44; &lt;i&gt;P&lt;/i&gt; = 1.00) comparing with selective serotonin reuptake inhibitors (SSRIs). Vortioxetine is more advantageous over placebo in treating MDD among adults, but no significant difference compared to SNRIs and SSRIs in general. https://www.crd.york.ac.uk/PROSPERO/display_record.php?ID=CRD42021278355, identifier: CRD42021278355.</t>
+          <t>Vortioxetine (Lu AA21004) is an antidepressant with a mechanism of action thought to be related to a combination of 2 pharmacologic actions: direct modulation of several receptors and inhibition of the serotonin transporter. To evaluate the efficacy of vortioxetine 10 and 20 mg once daily in outpatients with major depressive disorder. This 8-week, multicenter, randomized, double-blind, placebo-controlled, parallel-group study was conducted from July 2010 to January 2012 among adults with a primary diagnosis of recurrent major depressive disorder (DSM-IV-TR). Eligible subjects were randomized in 1:1:1 ratio to 1 of 3 treatment arms: vortioxetine 10 mg, vortioxetine 20 mg, or placebo once daily for 8 weeks. Subjects who completed the 8-week trial entered a 2-week blinded discontinuation period to assess potential discontinuation symptoms. The primary endpoint was the least squares mean change in Montgomery-Asberg Depression Rating Scale (MADRS) total score from baseline. Key secondary outcomes were analyzed in the following prespecified sequential order: MADRS response (≥ 50% decrease from baseline in total score), Clinical Global Impressions-Improvement score, change from baseline in MADRS total score in subjects with baseline Hamilton Anxiety Rating Scale score ≥ 20, MADRS remission (total score ≤ 10), and change from baseline in Sheehan Disability Scale total score (all at week 8). A total of 462 subjects were randomized to placebo (n = 157), vortioxetine 10 mg (n = 155), and vortioxetine 20 mg (n = 150). Mean (SE) reductions from baseline in MADRS total score (week 8) were -10.77 (± 0.807), -12.96 (± 0.832), and -14.41 (± 0.845) for the placebo, vortioxetine 10 mg (P = .058 vs placebo), and vortioxetine 20 mg (P = .002 vs placebo) groups. MADRS response/remission was achieved in 28.4%/14.2%, 33.8%/21.4%, and 39.2%/22.3% of subjects, respectively, in the 3 groups. Only MADRS response for vortioxetine 20 mg significantly separated from placebo (P = .044). Treatment was well tolerated, with the most frequently reported adverse events consisting of nausea, headache, diarrhea, and dizziness. Vortioxetine 20 mg significantly reduced MADRS total score at 8 weeks in this study population. Overall, vortioxetine was well tolerated in this study. ClinicalTrials.gov identifier: NCT01163266.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>35698594</t>
+          <t>37115460</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The Incidence and Costs of Adverse Events Associated with Antidepressants: Results from a Systematic Review, Network Meta-Analysis and Multi-Country Economic Model.</t>
+          <t>Evidence-Based Pharmacotherapy of Anxiety Symptoms in Patients with Major Depressive Disorder: Focus on Agomelatine.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>There is variation in the safety profile of antidepressants. Rates of adverse events along with the costs of treating them can be an important factor influencing the choice of depression treatment. This study sought to estimate the comparative safety of commonly prescribed antidepressants, and how the costs of treating these varied across European countries. A systematic literature review was conducted (in Medline, Embase, PsycINFO and CENTRAL) to identify placebo-controlled trials reporting rates of at least one type of sexual dysfunction, weight change, insomnia, anxiety, and anhedonia. Eight antidepressants were considered: duloxetine, escitalopram, fluoxetine, paroxetine, sertraline, trazodone, venlafaxine, and vortioxetine. This evidence was synthesised via Bayesian random effects network meta-analyses to provide comparative estimates of safety. A systematic search identified country-specific costs of managing depression and adverse events of antidepressants. Evidence on costs and safety was combined in an economic model to provide country-specific costs for Bulgaria, the Czech Republic, Greece, Hungary, Italy, Romania, Slovakia, Portugal, and Poland. Trazodone had the lowest rates of both insomnia (odds ratio 0.66, 95% credible interval 0.31 to 1.38) and anxiety (0.13, &lt;0.01 to 1.80). All antidepressants were associated with increased rates of sexual dysfunction relative to placebo. Weight change was largest for fluoxetine (kg change -1.01, -1.40 to -0.60) and sertraline (-1.00, -1.36 to -0.65), although heterogeneity was extreme for this outcome. No evidence was identified for anhedonia. Total costs were lowest for trazodone in all nine of the countries evaluated. This was primarily due to reduced rates of treatment discontinuation. Trazodone generally had the best safety profile of the antidepressants evaluated. This led to healthcare costs being lowest for trazodone in all nine European countries, emphasising the importance of considering rates of adverse events when choosing a pharmacological treatment to treat symptoms of depression.</t>
+          <t>Patients with depression require thorough clinical assessment, which should include symptom profile, severity and staging, personality factors, antecedent and concurrent psychiatric comorbidity, physical comorbidity, neurocognitive function, exposure to stressors in early life (e.g. trauma) or recently (e.g. bereavement), and protective factors. The presence of anxiety symptoms in a depressed patient is associated with more severe depression, increased suicidality and worse outcomes compared with non-anxious depression. A network meta-analysis of antidepressant treatments found that agomelatine, citalopram, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine and vortioxetine were all significantly more effective than other antidepressants for the treatment of depression, and that agomelatine, citalopram, escitalopram, fluoxetine, sertraline and vortioxetine were better tolerated than other antidepressants. Agomelatine has been shown to have two major effects-relieving depressive symptoms, and supporting symptomatic and functional recovery-and these benefits have been demonstrated in patients with depression as well as in patients with generalised anxiety disorder, including those with more severe symptoms. Agomelatine has also been shown to be efficacious and well tolerated in patients with depression plus concomitant anxiety symptoms. A pooled analysis of data from six agomelatine studies of depression (three placebo-controlled and three with active comparators-fluoxetine, sertraline and venlafaxine) found that agomelatine was significantly more effective than placebo at relieving the anxiety subscore on the Hamilton Depression Rating Scale, and that the difference between agomelatine and placebo was even more marked in the subgroup of patients with severe anxiety symptoms at baseline. Irrespective of the pharmacotherapy used in patients with depression, the likelihoods of response and remission are increased when pharmacotherapy is combined with psychotherapy, with this approach being more effective than either pharmacotherapy or psychotherapy alone. Persistence with treatment is important, and clinicians should therefore encourage patients to keep trying to obtain relief.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>21767441</t>
+          <t>35971416</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A double-blind, randomized, placebo-controlled, active reference study of Lu AA21004 in patients with major depressive disorder.</t>
+          <t>Effectiveness of Vortioxetine in Patients with Major Depressive Disorder in Real-World Clinical Practice in Italy: Results from the RELIEVE Study.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The efficacy, safety, and tolerability of Lu AA21004 vs. placebo using venlafaxine XR as active reference in patients with DSM-IV-TR major depressive disorder (MDD) were evaluated. Lu AA21004 is a novel antidepressant that is a 5-HT3 and 5-HT7 receptor antagonist, 5-HT1A receptor agonist, 5-HT1B receptor partial agonist and inhibitor of the 5-HT transporter in recombinant cell lines. In this 6-wk, multi-site study, 429 patients were randomly assigned (1:1:1:1) to 5 or 10 mg Lu AA21004, placebo or 225 mg venlafaxine XR. All patients had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 30. The primary efficacy analysis was based on the MADRS total score adjusting for multiplicity using a hierarchical testing procedure starting with the highest dose vs. placebo. Lu AA21004 was statistically significantly superior to placebo (n=105) in mean change from baseline in MADRS total score at week 6 (p&lt;0.0001, last observation carried forward), with a mean treatment difference vs. placebo of 5.9 (5 mg, n=108), and 5.7 (10 mg, n=100) points. Venlafaxine XR (n=112) was also significantly superior to placebo at week 6 (p&lt;0.0001). In total, 30 patients withdrew due to adverse events (AEs)--placebo: four (4%); 5 mg Lu AA21004: three (3%); 10 mg Lu AA21004: seven (7%); and venlafaxine: 16 (14%). The most common AEs were nausea, headache, hyperhidrosis, and dry mouth. No clinically relevant changes over time were seen in the clinical laboratory results, vital signs, weight, or ECG parameters. In this study, treatment with 5 mg and 10 mg Lu AA21004 for 6 wk was efficacious and well tolerated in patients with MDD.</t>
+          <t>Vortioxetine has demonstrated efficacy in randomized controlled trials and is approved for the treatment of major depressive disorder (MDD); however, data are limited concerning its effectiveness when used in routine clinical care. The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study aimed to assess the effectiveness and tolerability of vortioxetine for the treatment of MDD in routine clinical practice in Canada, France, Italy, and the USA. This paper presents findings for the patient cohort in Italy. RELIEVE was a 6-month, international, observational, prospective cohort study in outpatients initiating vortioxetine treatment for MDD in routine care settings at their physician's discretion (NCT03555136). Patient functioning was assessed using the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity (9-item Patient Health Questionnaire [PHQ-9]), cognitive symptoms (5-item Perceived Deficits Questionnaire-Depression [PDQ-D-5]), and quality of life (EuroQol 5-Dimensions 5-Levels questionnaire [EQ-5D-5L]). Changes from baseline to month 6 were assessed using mixed models for repeated measures, adjusted for relevant confounders. Data are available for 231 patients enrolled in Italy (mean age, 55.5 years; 27% &gt;65 years). Overall, 69% of patients reported at least one comorbidity, 55% were overweight/obese, and 47% had current anxiety symptoms. Adjusted least-squares mean (standard error) change in SDS score from baseline to week 24 was -6.6 (0.6) points (&lt;i&gt;P&lt;/i&gt; &lt; 0.001). Respective changes in PHQ-9, PDQ-D-5, and EQ-5D-5L scores were -5.9 (0.5), -3.6 (0.4), and +0.13 (0.01) points (all &lt;i&gt;P&lt;/i&gt; &lt; 0.0001). Adverse events were reported by 29 patients (13%), most commonly nausea (n = 14, 6%). Eleven patients (5%) discontinued treatment due to adverse events. Clinically relevant and sustained improvements in overall functioning, symptoms of depression, cognitive symptoms, and health-related quality of life were observed in patients with MDD treated with vortioxetine over a period of 6 months in routine care in Italy, including a high proportion of elderly patients.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>29760763</t>
+          <t>33583460</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>An open-label, flexible dose adaptive study evaluating the efficacy of vortioxetine in subjects with panic disorder.</t>
+          <t>Comparative efficacy of pharmacological treatments on measures of self-rated functional outcomes using the Sheehan Disability Scale in patients with major depressive disorder: a systematic review and network meta-analysis.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Despite the current treatments available for panic disorder (PD), as many as one-third of patients have persistent and treatment-resistant panic attacks. Vortioxetine is an approved medicine for major depressive disorder and has been shown to have anxiolytic properties. The purpose of this study was to evaluate its efficacy and safety in an adult population with a diagnosis of PD. The study design was open label with flexible dose strategies (5, 10, or 20 mg) with a treatment period of 10 weeks. 27 male and female subjects aged between 18 and 60 years, who met DSM-IV criteria for PD with or without agoraphobia, or who had a Panic Disorder Severity Scale (PDSS) score &gt; 8 at baseline were enrolled. Statistical significance was established by the Student's &lt;i&gt;T&lt;/i&gt; test. A statistically significant decrease in the occurrence of panic attacks was measured with the PDSS with vortioxetine. In addition, a moderate improvement in the quality of life and no significant side effects were observed using the Quality-of-Life Scale and Monitoring of Side Effects Scale, respectively. These results provide some support for the use of vortioxetine in the management of panic disorder.&lt;i&gt;Trial registration&lt;/i&gt; ClinicalTrials.gov ID#: NCT02395510. Registered March 23, 2015, https://clinicaltrials.gov/ct2/show/NCT02395510.</t>
+          <t>More than 50% patients with major depressive disorder (MDD) have severe functional impairment. The restoration of patient functioning is a critical therapeutic goal among patients with MDD. We conducted a systematic review and network meta-analysis to evaluate the efficacy of pharmacological treatments on self-rated functional outcomes using the Sheehan Disability Scale in adults with MDD in randomized clinical trials. PubMed, EMBASE, PsycINFO, Cochrane Library, and ClinicalTrials.gov were searched from inception to December 10, 2019. Summary statistics are reported as weighted mean differences with 95% confidence intervals. Interventions were ranked using the surface under the cumulative ranking probabilities. We included 42 randomized controlled trials (RCTs) (n = 18 998) evaluating the efficacy of 13 different pharmacological treatments on functional outcomes, as measured by the Sheehan Disability Scale (SDS). Duloxetine was the most effective pharmacological agent on functional outcomes, followed by (ranked by efficacy): paroxetine, levomilnacipran, venlafaxine, quetiapine, desvenlafaxine, agomelatine, escitalopram, amitriptyline, bupropion, sertraline, vortioxetine, and fluoxetine. Serotonin and norepinephrine reuptake inhibitors were more effective than other drug classes. Additionally, the comparison-adjusted funnel plot suggested the publication bias between small and large studies was relatively low. Our results indicate that there may be differences across antidepressant agents and classes with respect to self-reported functional outcomes. Validation and replication of these findings in large-scale RCTs are warranted. Our research results will be clinically useful for guiding psychiatrists in treating patients with MDD and functional impairment. PROSPERO registration number CRD42018116663.</t>
         </is>
       </c>
     </row>

--- a/Pipeline/PubMed_Data.xlsx
+++ b/Pipeline/PubMed_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1238 +453,5764 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29160598</t>
+          <t>25895493</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Randomized, 8-week, double-blind, placebo-controlled trial of vortioxetine in Japanese adults with major depressive disorder, followed by a 52-week open-label extension trial.</t>
+          <t>One palatal implant for skeletal anchorage--frequency and range of indications.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Safety and efficacy of vortioxetine (5-20 mg/day) in Japanese patients with major depressive disorder were evaluated in two phase 3 studies consisting of a short-term, 8-week, placebo-controlled, double-blind study followed by a long-term, 52-week, open-label extension study. The primary end-point of the short-term study was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8. The primary objective of the extension study was vortioxetine's long-term safety; efficacy end-points included change in MADRS total score, Clinical Global Impression Scale (CGI)-Severity (S) score from the long-term study baseline, and CGI-Improvement (CGI-I) score over 52 weeks. Of the 366 randomized patients, 338 completed the short-term study, and 119 patients continued into the extension study. Primary (analysis of covariance) and secondary (mixed model for repeated measurements) analyses in the short-term study showed numerically greater, but not statistically significant, decreases in change in MADRS total score from baseline between the vortioxetine and placebo groups at week 8. In the long-term study, 86.6% of patients reported at least one treatment-emergent adverse event, with the most common being nasopharyngitis (40.3%) and nausea (21%). MADRS total score and CGI-I and CGI-S scores improved with continued vortioxetine treatment from baseline of the open-label study to week 52. Vortioxetine failed to meet significance versus placebo in the primary efficacy analysis at week 8 in the short-term study. The extension trial indicated continued improvement of depressive symptoms from baseline of this study throughout the 52-week treatment period. Vortioxetine treatment was safe and well tolerated in both studies.</t>
+          <t>Aim of this investigation was to analyze the frequency and range of indications of orthodontic treatments using one palatal implant for skeletal anchorage, in a time frame of four years. A sample was comprised by viewing retrospectively the patient collective of a specialized university clinic who started orthodontic treatment in the time frame 01/09-12/12. Inclusion criterion was the first application of a superstructure within the investigated period after successful insertion of a palatal implant (Ortho-System®, Straumann, Basel, Switzerland). Frequency and range of indications of the conducted skeletally anchored tooth movement were determined by analyzing the individual patient documentation such as medical records, radiographs and casts. From a total of 1350 patients who started orthodontic treatment in this period met 56 (=4.2%) the inclusion criterion. In 85.7% of this sample was sagittal orthodontic tooth movement conducted, most frequently mesialization of ≥1 tooth (44.6%). Vertical tooth movement was in 57.1% of the sample performed, mostly extrusion of ≥1 tooth (34%). In 33.9% of the sample was ≥1 displaced tooth orthodontically relocated. One or two upper incisors were in 16.1% of the sample permanently replaced by the superstructure, all but one even after orthodontic treatment. In 66.1% of all cases were multi-functional anchorage challenges performed. 4.2 % of all treated patients within the investigated period required orthodontic treatment with skeletal anchorage (palatal implant), mainly for performing sagittal tooth movement (mesialization). The palatal implant was primarily used for multi-functional anchorage purposes, including skeletally anchored treatment in the mandible.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>35799757</t>
+          <t>28962732</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinical efficacy of Vortioxetine and escitalopram in the treatment of depression.</t>
+          <t>Insertion torque and Periotest values are important factors predicting outcome after orthodontic miniscrew placement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>This study was aimed to investigate the efficacy and safety of vortioxetine hydrobromide in the treatment of major depressive disorder (MDD). One hundred and eighty patients with the newly diagnosed depression in our hospital between August 2018 and August 2019 were selected and randomly divided into an observation group and a control group, 90 each group. The control group was treated with escitalopram, and the observation group was treated with voltaxetine. The efficacy and adverse reactions were evaluated by the Hamilton Depression scale-17 (HAMD-17), Sheehan Disability Scale (SDS), Perceived Deficits Questionnaire-Depression (PDQ-D), and treatment emergent symptom scale (TESS) before treatment and at the end of the 8th and 24th week after treatment. At the end of the 8th and 24th week after treatment, the HAMD-17 scores of the two groups were lower than those before treatment (P&lt;0.05); at the end of the 8th and 24th week after treatment, the PDQ-D and SDS scores of the two groups were lower than those before treatment (P&lt;0.05), and the above scores of the observation group were lower than those of the control group (P&lt;0.05). There was no significant difference in the incidence of adverse reactions between the two groups (P&gt;0.05). Voltaxetine can improve cognitive function and clinical symptoms of patients with severe depression and has high safety, which is worth clinical attention.</t>
+          <t>Approximately 14% of orthodontic anchor screws (miniscrews) become dislodged regardless of the accuracy of placement. It is therefore important to investigate the factors causing dislodgement. We evaluated the stability of miniscrews after placement to identify factors influencing outcome in orthodontic treatment using miniscrews. We investigated 120 miniscrews (Dual-top Auto Screw III; Jeil Medical, Seoul, Korea) (diameter, 1.4 mm; length, 6 mm) placed on the buccal or lingual side between the maxillary second premolar and the first molar in women. Patient age and rate and time of screw dislodgement were examined. Insertion torque values and Periotest (Tokyo Dental Industrial, Tokyo, Japan) measurements indicating horizontal and vertical mobility of the inserted screws were compared between groups with and without dislodgement (failure and success groups, respectively). Mean insertion torque values were 10.7 ± 1.9 N·cm and 8.5 ± 2.1 N·cm in the failure and success groups, respectively. Cortical bone thickness measurements (success group, 1.34 ± 0.35 mm; failure group, 0.99 ± 0.09 mm) were significantly higher, whereas Periotest values at placement (success group, horizontal, 4.9 ± 1.4; vertical, 4.7 ± 1.3; failure group, horizontal, 7.0 ± 0.8; vertical, 7.1 ± 0.9) were significantly lower in the success group than in the failure group. The Periotest value, together with insertion torque and cortical bone thickness, could serve as an index of initial stability for predicting the outcome of miniscrew placement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>39654656</t>
+          <t>26515913</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Randomized Controlled Study of Efficacy and Cognitive Function Improvement of Vortioxetine and Escitalopram in Patients with Depression in Chinese Han Nationality.</t>
+          <t>Osteoprotegerin and zoledronate bone effects during orthodontic tooth movement.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>To assess the efficacy and safety of Vortioxetine and Escitalopram in improving cognition in patients with major depressive disorder (MDD). At baseline, 131 MDD patients and 70 healthy controls completed the Hamilton Depression Scale (HAMD-17), Hamilton Anxiety Scale (HAMA), Snaith-Hamilton Pleasure Scale (SHAPS) and MATRICS Consensus Cognitive Battery (MCCB). Patients with MDD were randomly divided into Vortioxetine (n = 62) and Escitalopram (n = 69) groups with an 8-week follow-up research. ANOVA for repeated measurement was utilized to compare the efficacy of Vortioxetine and Escitalopram. The total scores of HAMD-17, HAMA and SHAPS scales had statistical difference between MDD cases and healthy controls (P &lt; 0.001) at baseline. After 8 weeks of treatment, the scale scores of the HAMD-17, HAMA and SHAPS had lowered in both groups, with no statistical difference between two groups (P &gt; 0.05). At baseline, MDD patients had defects in Speed of Processing, Attention Vigilance, Verbal Learning, Visual Learning, Reasoning and Problem Solving, and Social Cognition, compared with healthy controls. After 8 weeks of treatment with Vortioxetine or Escitalopram, the patients had improved in the aspects of cognitive functions above except Social Cognition. Numerical improvements of MCCB scale were found in the two groups, P &gt; 0.05. Most adverse events were mild or moderate, with nausea being the most common adverse event. Both Vortioxetine and Escitalopram can improve the mental status and cognitive functions in MDD patients, with mild or moderate adverse events. www.chictr.org.cn, identifier: ChiCTR1900024858.</t>
+          <t>To assess the effects of local delivery of recombinant fusion protein osteoprotegerin (OPG-Fc) and bisphosphonate zoledronate on bone and periodontal ligament in a rat tooth movement model. Maxillary first molars of 36 male Sprague-Dawley rats were displaced mesially using a calibrated spring connected to an anterior mini-screw. Two different drugs were used: a single dose of Zoledronate (16 μg) and a twice-weekly dose of OPG-Fc (5.0 mg/kg) were injected. Tooth movement was measured on scanned plaster casts. Structural and immunohistochemical analysis of the orthodontic-induced changes in bone included receptor activator of nuclear factor ĸ (RANK), Runx, type 1 collagen, matrix metalloproteinases (MMPs) 2 and 9, tissue inhibitors of metalloproteinases (TIMPs) 1 and 2, and vimentin. Both groups showed a reduction in mesial molar displacement. Animals receiving OPG-Fc demonstrated only 52%, 31%, and 21% of the total mesial molar displacement compared to control rats at 7, 14, and 21 days, respectively (*p &lt; 0.001). For rats receiving zoledronate tooth displacement decreased significantly with 52%, 46% and 30%, respectively (*p &lt; 0.001). At 14 and 21 days, OPG-Fc group showed significantly less molar displacement than the zoledronate group (*p &lt; 0.001). RANK, Runx, vimentin, MMP-9 and tissues-inhibitor metalloproteinase 1 immunoreactivity were reduced in zoledronate treated animals and even more in OPG treated animals. Local delivery of OPG-Fc or zoledronate inhibits bone resorption and therefore tooth movement. OPG-Fc was more effective than zoledronate in blocking the action of osteoclasts.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>37227402</t>
+          <t>35735647</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Head-To-Head Comparison of Vortioxetine Versus Desvenlafaxine in Patients With Major Depressive Disorder With Partial Response to SSRI Therapy: Results of the VIVRE Study.</t>
+          <t>Accuracy of Mini-Implant Placement Using a Computer-Aided Designed Surgical Guide, with Information of Intraoral Scan and the Use of a Cone-Beam CT.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;&lt;i&gt;Objective:&lt;/i&gt;&lt;/b&gt; To compare the efficacy of vortioxetine and the serotonin-norepinephrine reuptake inhibitor (SNRI) desvenlafaxine in patients with major depressive disorder (MDD) experiencing partial response to initial treatment with a selective serotonin reuptake inhibitor (SSRI). &lt;b&gt;&lt;i&gt;Methods:&lt;/i&gt;&lt;/b&gt; This randomized, double-blind, active-controlled, parallel-group, 8-week study of vortioxetine (10 or 20 mg/d; n = 309) versus desvenlafaxine (50 mg/d: n = 293) was conducted from June 2020 to February 2022 in adults with a &lt;i&gt;DSM-5&lt;/i&gt; diagnosis of MDD who experienced partial response to SSRI monotherapy. The primary endpoint was mean change from baseline to week 8 in Montgomery-Åsberg Depression Rating Scale (MADRS) total score. Differences between groups were analyzed using mixed models for repeated measures. &lt;b&gt;&lt;i&gt;Results:&lt;/i&gt;&lt;/b&gt; Non-inferiority of vortioxetine versus desvenlafaxine was established in terms of mean change from baseline to week 8 in MADRS total score; however, a numeric advantage was observed in favor of vortioxetine (difference, -0.47 MADRS points [95% CI, -1.61 to 0.67]; &lt;i&gt;P&lt;/i&gt; = .420). At week 8, significantly more vortioxetine-treated than desvenlafaxine-treated patients had achieved symptomatic and functional remission (ie, Clinical Global Impressions-Severity of Illness scale [CGI-S] score ≤ 2) (32.5% vs 24.8%, respectively; odds ratio = 1.48 [95% CI, 1.03 to 2.15]; &lt;i&gt;P&lt;/i&gt; = .034). Vortioxetine-treated patients also experienced significantly greater improvements in daily and social functioning assessed by the Functioning Assessment Short Test (&lt;i&gt;P = &lt;/i&gt;.009 and .045 vs desvenlafaxine, respectively) and reported significantly greater satisfaction with their medication assessed by the Quality of Life Enjoyment and Satisfaction Questionnaire (&lt;i&gt;P&lt;/i&gt; = .044). Treatment-emergent adverse events (TEAEs) were reported in 46.1% and 39.6% of patients in the vortioxetine and desvenlafaxine groups, respectively; these were mostly mild or moderate in intensity (&gt; 98% of all TEAEs in each group). &lt;b&gt;&lt;i&gt;Conclusions:&lt;/i&gt;&lt;/b&gt; Compared with the SNRI desvenlafaxine, vortioxetine was associated with significantly higher rates of CGI-S remission, better daily and social functioning, and greater treatment satisfaction in patients with MDD and partial response to SSRIs. These findings support the use of vortioxetine before SNRIs in the treatment algorithm in patients with MDD. &lt;b&gt;&lt;i&gt;Trial Registration:&lt;/i&gt;&lt;/b&gt; ClinicalTrials.gov Identifier: NCT04448431.</t>
+          <t>The purpose of the study was to investigate the accuracy of mini-implant placement with the use of a computer designed surgical guide derived by intraoral scanning alongside Cone-Beam Computed Tomography (CBCT) or the use of a 2D radiograph. Thirty-five mini-implants (Aarhus&lt;sup&gt;®&lt;/sup&gt; System: &lt;i&gt;n&lt;/i&gt; = 20, Ø: 1.5 mm and AbsoAnchor&lt;sup&gt;®&lt;/sup&gt;: &lt;i&gt;n&lt;/i&gt; = 15, Ø: 1.3-1.4 mm) were placed in the maxilla and mandible of 15 orthodontic patients for anchorage purposes in cases where a CBCT was needed due to impacted teeth or for safety reasons. All were placed with the help of a computer designed surgical guide. One implant became loose and was excluded from the study. For 18 mini-implants (study group), CBCT and intraoral scanning were used for guide design, while for 16 (control group) only intraoral scanning and panoramic imaging information were used. Mini-implant position was recorded by angular and linear measurements on digital models created by combining Digital Imaging and Communications in Medicine (DICOM) and stereolithography (.stl) files. Accuracy in positioning was determined by comparing corresponding measurements for virtual and real positioned mini-implants on digital models before and after operation. The results were statistically analyzed with t-tests and the Mann-Whitney test. No significant statistical differences were found for pre- and post-operational angular measurements in the study group, while significant statistical differences occurred on the same measurements for the control group (coronal angle 13.6° pre-op and 22.7° post-op, &lt;i&gt;p&lt;/i&gt;-value = 0.002, axial angle 13.4° pre-op and 15.9° post-op, &lt;i&gt;p&lt;/i&gt;-value = 0.034). Linear measurements pre- and post-operational for either group presented no significant statistical differences. A 3D designed and manufactured surgical guide with information concerning CBCT and intraoral scanning ensures accuracy on mini-implant placement while design of the guide without the use of a CBCT is less accurate, especially on inclination of the implant.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27013879</t>
+          <t>32632653</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder: a meta-analysis of randomized controlled trials.</t>
+          <t>Suitability of virtual plaster models superimposed with the lateral cephalogram for guided paramedian orthodontic mini-implant placement with regard to the bone support.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vortioxetine is an investigational multimodal antidepressant. We conducted this meta-analysis to assess the efficacy and safety of 10 mg vortioxetine in the treatment of major depressive disorder (MDD). Randomized controlled trials (RCTs) published in PubMed, Web of Science, Embase, and ClinicalTrials.gov were systematically reviewed to assess the treatment effects and safety profiles of patients with MDD who were treated with 10 mg vortioxetine. The outcome measures included response rate, remission rate, changes from baseline in Montgomery-Asberg Depression Rating Scale (MADRS), Hamilton Rating Scale for Depression (24-items) (HAM-D24), Clinical Global Impression-Severity (CGI-S), and Clinical Global Impression-Improvement (CGI-I) scores. Results were expressed with risk ratio or weighted mean difference with 95% confidence intervals. Pooled results were calculated using a fixed-effects model or a random-effects model according to the heterogeneity among included trials. Six RCTs with a total of 1,801 patients met the inclusion criteria and were included in this meta-analysis. The 10 mg vortioxetine dose significantly increased the response rate and remission rate in the treatment of MDD compared with placebo. Moreover, there was a statistically significant reduction from baseline in the MADRS, HAM-D24, CGI-S, and CGI-I scores with 10 mg vortioxetine vs placebo. The incidence of treatment-emergent adverse events such as nausea, vomiting, constipation, and hyperhidrosis was higher in the 10 mg vortioxetine group than in the placebo group. Vortioxetine 10 mg can significantly increase the response rate and remission rate, and reduce the MADRS, HAM-D24, CGI-S, and CGI-I scores in patients with MDD with an acceptable risk of treatment-emergent adverse events. Further well-conducted, large-scale trials are needed to validate these findings.</t>
+          <t>The purpose of this study was twofold: first, to evaluate the precision of guided orthodontic mini-implant (OMI) placement planned on virtual superimposition of plaster models and lateral cephalograms with regard to the bone support and, second, to investigate the effects of silicone guide extension. A total of 40 OMIs were placed in the paramedian area of the anterior palates of 20 cadaver heads. Digitalized models and the corresponding lateral cephalograms were superimposed for planning the OMI positions, and tooth-supported (TS) and soft-tissue-supported (STS) templates were manufactured. Thereafter, postoperative cone beam computed tomography (CBCT) was performed, and the straight (A) and right-angle distance (B) from the implant tip to the nasal floor, the distance from the implant shoulder to the hard palate (C) and the angle (α) between the implant and palate plane with the preoperative (T0) and postoperative (T1) positions were measured. The postoperative distances A, B, and C were less than the planned implant positions. However, significant difference between T0 and T1 was only noted in terms of distance A using the TS templates (T0: 4.7 ± 2.3 mm, T1: 3.0 ± 2.3 mm; p = 0.008) and distance B using the STS template (T0: 3.1 ± 3.5 mm, T1: 2.3 ± 3.2 mm; p = 0.041). There were no significant differences in all average deviations (∆ Ceph/CBCT) between the two templates. Guided OMI placement planned by virtual superimposition of digitized models and the corresponding lateral cephalogram is fundamentally feasible. However, the position closer to the nasal floor needs critical assessment for correct implantation. The silicone template expansion seems to have only a minor effect on transfer accuracy.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33628415</t>
+          <t>22768754</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Focus on Depression in Parkinson's Disease: A Delphi Consensus of Experts in Psychiatry, Neurology, and Geriatrics.</t>
+          <t>[Confusing anchorage].</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Major and minor forms of depression are significant contributors to Parkinson's disease morbidity and caregiver burden, affecting up to 50% of these patients. Nonetheless, symptoms of depression are still underrecognized and undertreated in this context due to scarcity of evidence and, consequently, consistent clinical guideline recommendations. Here, we carried out a prospective, multicentre, 2-round modified Delphi survey with 49 questions about the aetiopathological mechanisms of depression in Parkinson's disease (10), clinical features and connections with motor and nonmotor symptoms (10), diagnostic criteria (5), and therapeutic options (24). Items were assessed by a panel of 37 experts (neurologists, psychiatrists, and a geriatrist), and consensus was achieved in 81.6% of them. Depressive symptoms, enhanced by multiple patient circumstances, were considered Parkinson's disease risk factors but not clinical indicators of motor symptom and disease progression. These patients should be systematically screened for depression while ruling out both anhedonia and apathy symptoms as they are not necessarily linked to it. Clinical scales (mainly the Geriatric Depression Scale GDS-15) can help establishing the diagnosis of depression, the symptoms of which will require treatment regardless of severity. Efficacious and well-tolerated pharmacological options for Parkinson's comorbid depression were selective serotonin reuptake inhibitors (especially sertraline), dual-action serotonin and norepinephrine reuptake inhibitors (venlafaxine, desvenlafaxine, and duloxetine), multimodal (vortioxetine, bupropion, mirtazapine, and tianeptine), and anti-Parkinsonian dopamine agonists (pramipexole, ropinirole, and rotigotine). Tricyclic antidepressants and combining type B monoamine oxidase inhibitors with serotonergic drugs have serious side effects in these patients and therefore should not be prescribed. Electroconvulsive therapy was indicated for severe and drug-refractory cases. Cognitive behavioural therapy was recommended in cases of mild depression. Results presented here are useful diagnostic and patient management guidance for other physicians and important considerations to improve future drug trial design.</t>
+          <t>Just like other subjects in medicine, orthodontics also uses some vague concepts to describe what are difficult to measure quantitatively. Anchorage control is one of them. With the development of evidence-based medicine, orthodontists pay more and more attention to the accuracy of the clinical evidence. The empirical description of anchorage control is showing inadequacy in modern orthodontics. This essay, based on author's recent series of studies on anchorage control, points out the inaccuracy of maximum anchorage concept, commonly neglected points in quantitative measurement of anchorage loss and the solutions. It also discusses the limitation of maximum anchorage control.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>36198241</t>
+          <t>17448391</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Corrigendum to 'No evidence for clinical efficacy of adjunctive celecoxib with vortioxetine in the treatment of depression: A 6-week double-blind placebo controlled randomized trial' [European Neuropsychopharmacology 53 (2021) 34-46].</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Surgical positioning of orthodontic mini-implants with guides fabricated on models replicated with cone-beam computed tomography.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>This article illustrates a new surgical guide system that uses cone-beam computed tomography (CBCT) images to replicate dental models; surgical guides for the proper positioning of orthodontic mini-implants were fabricated on the replicas, and the guides were used for precise placement. The indications, efficacy, and possible complications of this method are discussed. Patients who were planning to have orthodontic mini-implant treatment were recruited for this study. A CBCT system (PSR 9000N, Asahi Roentgen, Kyoto, Japan) was used to acquire virtual slices of the posterior maxilla that were 0.1 to 0.15 mm thick. Color 3-dimensional rapid prototyping was used to differentiate teeth, alveolus, and maxillary sinus wall. A surgical guide for the mini-implant was fabricated on the replica model. Proper positioning for mini-implants on the posterior maxilla was determined by viewing the CBCT images. The surgical guide was placed on the clinical site, and it allowed precise pilot drilling and accurate placement of the mini-implant. CBCT imaging allows remarkably lower radiation doses and thinner acquisition slices compared with medical computed tomography. Virtually reproduced replica models enable precise planning for mini-implant positions in anatomically complex sites.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22901346</t>
+          <t>9393459</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled 8-week trial of the efficacy and tolerability of multiple doses of Lu AA21004 in adults with major depressive disorder.</t>
+          <t>Distraction osteogenesis for lengthening of the hard palate: Part I. A possible new treatment concept for velopharyngeal incompetence. Experimental study in dogs.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lu AA21004 is an investigational multimodal antidepressant. This randomized controlled trial evaluated the efficacy and tolerability of multiple doses of Lu AA21004 versus placebo in adults with major depressive disorder (MDD). Adults diagnosed with MDD (based on DSM-IV-TR criteria) with a Montgomery-Asberg Depression Rating Scale (MADRS) score ≥ 26 were randomly assigned (1:1:1:1) to receive Lu AA21004 1 mg, 5 mg, or 10 mg or placebo for 8 weeks (between August 2008 and August 2009). The primary endpoint was reduction in 24-Item Hamilton Depression Rating Scale (HDRS-24) total score after 8 weeks of treatment compared with placebo for Lu AA21004 10 mg. Additional outcomes included response and remission rates, Sheehan Disability Scale (SDS), Clinical Global Impressions-Global Improvement scale (CGI-I), MADRS total score, and HDRS-24 total score in subjects with baseline Hamilton Anxiety Rating Scale (HARS) score ≥ 20. Adverse events were assessed throughout the study. A total of 560 subjects (mean age = 46.4 years) were randomized. There was a statistically significant reduction from baseline in HDRS-24 total score at week 8 for Lu AA21004 10 mg vs placebo (P &lt; .001). There were improvements (nominal P values &lt; .05 with no adjustment for multiplicity) in HDRS-24 total score, response and remission rates, CGI-I score, MADRS total score, and HDRS-24 total score in subjects with baseline HARS score ≥ 20 at week 8 for all Lu AA21004 treatment groups vs placebo. No significant differences were seen in SDS scores between any dose of Lu AA21004 and placebo. The most common adverse events were nausea, headache, and dizziness. After 8 weeks of treatment with Lu AA21004 10 mg, there was a significant reduction in HDRS-24 total score compared with placebo in adults with MDD. Lu AA21004 was well tolerated in this study. ClinicalTrials.gov identifier: NCT00735709.</t>
+          <t>Many procedures have been described to correct velopharyngeal incompetence. Significant complications can occur, and the results may not be satisfactory. If the short soft palate has satisfactory muscle function and if it could be moved toward the posterior pharyngeal wall by distraction osteogenesis of the hard palate, an entirely new concept of treatment for velopharyngeal incompetence would be available. The object of the present study was to explore the possibility of osteogenesis occurring in the hard palate in dogs after gradual distraction (callus distraction). Six adult, mix-bred dogs were anesthetized, and the palatal mucosa was elevated. A midpalatal transverse osteotomy and two lateral osteotomies were performed. Tantalum bone markers for cephalometric analysis were placed, and an individually fabricated, orthodontic-like distraction device with an expansion screw in the sagittal direction was inserted. The device was stabilized on the premolars and fixed to the palatal bone with titanium miniscrews. Gradual distraction began after a latency period of 10 to 18 days. The rate of the distraction varied from 0.25 to 0.75 mm per day. The device was left in place for 6 to 8 weeks after expansion to allow for bony consolidation. Assessment was by direct examination, cephalograms, computed tomography, and histology with bone labeling. Impressions of the jaws were taken preoperatively and after device removal to examine plaster cast changes in the dental occlusion. Cephalometric and computed tomographic scan analysis demonstrated a distraction of up to 8 mm. All gaps were filled with de novo osteogenesis. Comparison of the plaster casts revealed no change in the occlusion. At 1 month after distraction, the computed tomographic scan showed the first signs of ossification of the experimental gap from the anterior and posterior bone ends. After 4.5 months ossification was almost complete with a small translucent zone in the middle of the experimental gap. After 7 months ossification was complete.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>37842359</t>
+          <t>23311659</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comparison of Hamilton Depression Rating Scale and Montgomery-Åsberg Depression Rating Scale: Baked Straight From a Randomized Study.</t>
+          <t>Orthodontic miniscrew failure rate and root proximity, insertion angle, bone contact length, and bone density.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The symptoms of major depressive disorder (MDD) are nowadays being assessed with the Hamilton and Montgomery-Åsberg Depression Rating Scales. However, there are few studies on the comparison of these two scales. Our study aimed to determine the correlation between the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scores at baseline through 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed with HDRS and MADRS at baseline, four, eight, and 12 weeks after receiving oral tablets of either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is prospectively registered with the Clinical Trial Registry, India (CTRI/2022/07/043808). Of 71 recruited individuals, 49 (69%) completed the 12-week visit. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), and at 12 weeks, they reduced to 19.5, 19.5, and 18.0 (p=0.18). At baseline, the group-wise median MADRS scores were 36, 36, and 36 (p=0.79); at 12 weeks, they were 24, 24, and 23 (p=0.03). The Pearson correlation revealed that the association between the changes in scores from baseline was strongest for escitalopram (r=0.70, p=0.002) followed by vortioxetine (r=0.59, p=0.01) and vilazodone (r=0.59, p=0.02). The Bland-Altman analysis showed that the mean difference between the scores was 5.11 (95% CI: 3.08-7.14). According to this interim study, HDRS and MADRS scores declined after 12 weeks of therapy. Both scores had strong positive correlation, and the difference between the scores reduced with time.</t>
+          <t>To test the hypothesis that there is no significant correlation between miniscrew failure rate and root proximity, insertion angle, bone contact length, and bone density. This study included 107 patients in whom 190 miniscrews had been placed from April 2008 to October 2009 in Tohoku University Hospital (Sendai, Japan). Cone beam computed tomography scans (CBCT) and periapical radiographs were taken before and after miniscrew placement. Differences in root proximity, screw insertion angle, bone contact length, and bone density were statistically compared; comparisons were also made between the CBCT images and periapical radiographs. A significantly higher success rate was observed in the maxilla than in the mandible. The distance between the miniscrew and the root surface was significantly smaller in the failure group. There were no significant differences in the insertion angle, bone contact length, or bone density between the success group and the failure group. The concordance rate between the periapical dental radiographs and CBCT images was 46.5%. While bone contact length, miniscrew angle, and bone density did not exert major effects on miniscrew failure, root proximity was the factor that most affected miniscrew failure, especially for miniscrews placed in the mandible. CBCT was superior to periapical dental X-rays for evaluating the proximity of miniscrews to the root. Correction of the X-ray attenuation coefficient value was necessary for measuring bone density using CBCT.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>32670103</t>
+          <t>36680384</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The THINC-it Tool for Cognitive Assessment and Measurement in Major Depressive Disorder: Sensitivity to Change.</t>
+          <t>Artificial intelligence-assisted determination of available sites for palatal orthodontic mini implants based on palatal thickness through CBCT.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Herein, we sought to determine the sensitivity to change in cognitive function, as measured by the THINC-it tool, in a sample of adults with major depressive disorder (MDD) receiving standardized antidepressant therapy. Adults meeting the DSM-5 criteria for MDD with at least moderate depressive symptom severity [&lt;i&gt;i.e.&lt;/i&gt;, Montgomery Åsberg Depression Rating Scale (MADRS) total score ≥ 20] were treated with open-label vortioxetine (10-20 mg/day, flexibly-dosed) for 8 weeks. The previously validated THINC-it tool was the primary dependent measure. The THINC-it tool was validated against the paper and pencil version of the Digit Symbol Substitution Test (DSST) and the Trails Making Test B (TMTB). After 8 weeks of treatment, adults with MDD exhibited improvement in cognitive function relative to healthy controls (&lt;i&gt;e.g.&lt;/i&gt;, processing speed) (p = 0.031). A subdomain measure of working memory (&lt;i&gt;i.e.&lt;/i&gt;, symbol check; SC) exhibited significant improvement at Weeks 2 and 8 in latency (p = 0.032), SC accuracy (p = 0.046), and objective z-score (p = 0.001) independent of depressive symptoms. A linear regression analysis determined that the THINC-it tool measures of processing speed, as well as executive function were significantly associated with changes observed on the pencil and paper version the Digit Symbol Substitution Test (DSST) (p = 0.002) and in Trails Making Test B (TMTB) (p = 0.003), respectively. The THINC-it tool demonstrates sensitivity to change in adults with MDD and is highly correlated with improvements on pencil and paper versions of DSST and TMTB. ClinicalTrials.gov, identifier NCT03053362.</t>
+          <t>To develop an artificial intelligence (AI) system for automatic palate segmentation through CBCT, and to determine the personalized available sites for palatal mini implants by measuring palatal bone and soft tissue thickness according to the AI-predicted results. Eight thousand four hundred target slices (from 70 CBCT scans) from orthodontic patients were collected, labelled by well-trained orthodontists and randomly divided into two groups: a training set and a test set. After the deep learning process, we evaluated the performance of our deep learning model with the mean Dice similarity coefficient (DSC), average symmetric surface distance (ASSD), sensitivity (SEN), positive predictive value (PPV) and mean thickness percentage error (MTPE). The pixel traversal method was proposed to measure the thickness of palatal bone and soft tissue, and to predict available sites for palatal orthodontic mini implants. Then, an example of available sites for palatal mini implants from the test set was mapped. The average DSC, ASSD, SEN, PPV and MTPE for the segmented palatal bone tissue were 0.831%, 1.122%, 0.876%, 0.815% and 6.70%, while that for the palatal soft tissue were 0.741%, 1.091%, 0.861%, 0.695% and 12.2%, respectively. Besides, an example of available sites for palatal mini implants was mapped according to predefined criteria. Our AI system showed high accuracy for palatal segmentation and thickness measurement, which is helpful for the determination of available sites and the design of a surgical guide for palatal orthodontic mini implants.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22572889</t>
+          <t>23726340</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled, duloxetine-referenced, fixed-dose study comparing the efficacy and safety of Lu AA21004 in elderly patients with major depressive disorder.</t>
+          <t>Accuracy of miniscrew surgical guides assessed from cone-beam computed tomography and digital models.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The efficacy and tolerability of Lu AA21004 at 5 mg/day, a novel multimodal antidepressant, were assessed in elderly patients with recurrent major depressive disorder. Patients were randomly assigned (1:1:1) to Lu AA21004 5 mg/day, duloxetine 60 mg/day (reference) or to placebo in an 8-week double-blind study. The primary efficacy measure was the 24-item Hamilton Depression Scale (HAM-D(24)) total score (analysis of covariance, last observation carried forward). Patients (mean age 70.6 years) had a mean baseline HAM-D(24) score of 29.0. Lu AA21004 showed significantly (P = 0.0011) greater improvement on the primary efficacy endpoint compared with placebo at week 8 (3.3 points). Duloxetine also showed superiority to placebo at week 8, thereby validating the study. HAM-D(24) response (53.2 vs. 35.2%) and HAM-D(17) remission (29.2 vs. 19.3%) rates at endpoint were higher for Lu AA21004 than for placebo. Lu AA21004 showed superiority to placebo in cognition tests of speed of processing, verbal learning and memory. The withdrawal rate due to adverse events was 5.8% (Lu AA21004), 9.9% (duloxetine) and 2.8% (placebo). Whereas nausea was the only adverse event with a significantly higher incidence on treatment with Lu AA21004 (21.8%) compared with placebo (8.3%), the incidence of nausea, constipation, dry mouth, hyperhidrosis and somnolence was higher for duloxetine. In conclusion, Lu AA21004 was efficacious and well tolerated in the treatment of elderly patients with recurrent major depressive disorder.</t>
+          <t>Several methods are available to enhance the precision of miniscrew placement. The use of surgical guides based on cone-beam computed tomography is indicated especially in patients with risky or difficult anatomic situations. The purpose of this study was to evaluate the accuracy of miniscrew placement by using surgical guides developed with computer-aided design and manufacturing techniques. Miniscrews were placed in cadaver maxillae using stereolithographic computer-aided design and manufacturing techniques with assistance from surgical guides (surgical guide group, n = 25) or periapical x-rays (control group, n = 20). Insertion sites were selected using a 3-dimensional surgical planning program by fusing maxillary digital model images and cone-beam computed tomography images. Deviations between actual and planned placements were measured as 3-dimensional angular deviations and distance (coronal and apical) deviations. In the surgical guide group, the angular deviation was a median of 3.14° (range, 1.02°-10.9°), and the mesiodistal deviations in the coronal and apical areas were medians of 0.29 mm (range, 0.03-0.73 mm) and 0.21 mm (range, 0.03-0.97 mm), respectively. The deviations differed significantly between operators in the control group, but not in the surgical guide group. In the surgical guide group, there was no root damage from miniscrew placement, and 84% of the miniscrews were placed without contacting adjacent anatomic structures. In the control group, 50% of the miniscrews were placed between the roots (P &lt;0.05). Surgical guide accuracy was improved when digital model imaging was used. Miniscrews were placed more accurately when using surgical guides than when using a direct method.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>29807616</t>
+          <t>35575069</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Corrigendum to ``The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram'' [Journal of Affective Disorders, 227 (2018) 803-809].</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Effect of mini-implant facilitated micro-osteoperforations on the alignment of mandibular anterior crowding: A randomised controlled clinical trial.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>To assess the effects of mini-implant assisted micro-osteoperforations (MI-MOPs) in the alignment of mandibular anterior teeth, and to explore the intervention's associated pain perception (PP) and root resorption (RR) in adults treated by fixed appliance. Multicentre, two-arm and single-blinded randomised clinical trial. College of Dentistry, University of Baghdad. Adolescents (mean age = 18.97 years) undergoing non-extraction orthodontic therapy for the management of mandibular anterior crowding. A total of 33 participants (mean age = 18.97 years) undergoing non-extraction orthodontic therapy for the management of moderate mandibular anterior crowding were allocated to the experimental (MI-MOPs, n = 17) or control groups (non-MI-MOPs, n = 16). A series of lower study models were obtained at week 4 (T1), week 8 (T2) and week 12 (T3) in the MI-MOPs group and continued to week 16 (T4) and week 20 (T5) in the non-MI-MOPs group, with all models analysed digitally. Periapical radiographs (PA) were taken before commencing treatment (T0) and T3. Participants were asked to complete a 10-point visual analogue scale (VAS) daily during the first week of treatment. At T0, the mean Little irregularity index (LII) was 5.1 mm (95% confidence interval [CI] = 4.95-5.23) with no statistically significant difference between groups (&lt;i&gt;P&lt;/i&gt; = 0.766). At T1, T2 and T3, t-test showed statistically significant differences in the LII (&lt;i&gt;P&lt;/i&gt; &lt; 0.05) in favour of the MI-MOPs group; mean differences (MD) were -1.16mm (95% CI = -1.36 to -0.96), -1.77 mm (95% CI = -1.93 to -1.59) and -1.58 mm (95% CI = -1.67 to -1.48), respectively. Mean treatment time from baseline to final alignment was 10.41 weeks (95% CI = 9.92-10.89) in the MI-MOPs group and 16.62 weeks (95% CI = 16.11-17.13) in the non-MI-MOPs groups, which was statistically significant (MD -6.21 mm, 95% CI = -6.88 to -5.53, &lt;i&gt;P&lt;/i&gt; &lt; 0.05). Conversely, Mann-Whitney &lt;i&gt;U&lt;/i&gt;-test and Wilcoxon signed-rank test showed no significant differences in terms of PP and RR between the groups (&lt;i&gt;P&lt;/i&gt; &gt; 0.05). The participants in the MI-MOPs group experienced a higher degree of RR (&lt;i&gt;P&lt;/i&gt; &lt; 0.05) secondary to intervention. No other significant adverse events were reported during the trial. This trial found that combining MI-MOPs with non-extraction-based fixed orthodontic therapy in adults mildly shortens the duration of the alignment phase. RR should be monitored throughout the treatment when using MI-MOPs (ClinicalTrials.gov NCT04778241).</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29238196</t>
+          <t>19146019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The role of new antidepressants in clinical practice in Canada: a brief review of vortioxetine, levomilnacipran ER, and vilazodone.</t>
+          <t>Clinical application of a stereolithographic surgical guide for simple positioning of orthodontic mini-implants.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Although many branded and generic antidepressants are approved for the treatment of major depressive disorder (MDD) in Canada, efficacy and tolerability differ among patients, and new treatment options are needed. Symptom types (eg, fatigue, energy/motivation, cognition, and functioning), medication type, treatment duration, and the need for maintenance therapy are factors that may influence treatment effectiveness. Three antidepressants, vortioxetine, levomilnacipran extended-release (ER), and vilazodone have recently become available in Canada. The aim of this review is to contextualize differences in their mechanistic and clinical profiles, thereby providing practitioners with knowledge to support treatment decisions. In trials versus placebo, each drug improved depressive symptoms in adult patients with MDD. The antidepressant effect of vortioxetine may be related to enhanced serotonergic activity via reuptake inhibition and agonism and/or antagonism of various serotonin receptors. Vortioxetine may also improve cognitive functioning in MDD, and has proven efficacious in relapse prevention. Nausea was the most commonly reported adverse event (AE); rates of sexual dysfunction were low and abrupt discontinuation was well tolerated. Levomilnacipran ER, a serotonin norepinephrine reuptake inhibitor, demonstrated greater improvement versus placebo in functional impairment as well as depressive symptoms; in post hoc analyses, improvement in symptoms of motivation and energy were observed. Nausea was the most commonly reported AE; gradual discontinuation is recommended to avoid discontinuation syndrome. Vilazodone is a serotonin reuptake inhibitor and partial serotonergic 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonist. In addition to improvement in depressive symptoms, evidence suggests that vilazodone may be particularly well suited for depressed patients with high anxiety levels. Diarrhea, nausea, and headache were the most common AEs; low rates of sexual dysfunction were reported. The 2016 Canadian Network for Mood and Anxiety Treatments guidelines for MDD includes vortioxetine as a first-line treatment; levomilnacipran ER and vilazodone are considered as second-line treatments due to lack of relapse prevention data at the time of approval.</t>
+          <t>To describe a clinical application of a new surgical guide system that uses cone-beam computed tomography (CBCT) images, an implant-positioning program (SimPlant), and stereolithography to make a surgical guide for accurate placement of orthodontic mini-implants. A patient who was planning to have orthodontic mini-implant treatment on the posterior maxilla was recruited to assess the feasibility of using CBCT images in an implant-positioning guide program (SimPlant 9.02, Materilise, Leuven, Belgium). Acquisition slices for the posterior maxilla were 0.15 mm in panoramic mode of PSR 9000N model (Asahi Roentgen, Kyoto, Japan). The surgical guide for the mini-implant was fabricated from the transported CBCT data. The completed surgical guide was easily placed intra-orally and permitted simple and rapid placement of the mini-implant. The site of the implant placement was accurate, while the vector varied slightly from the planned vector. A postplacement CBCT demonstrated accurate placement of the mini-implant on the left and a minor discrepancy between the simulated mini-implant position and clinical position on the right. Improvements in the CBCT resolution and laser-scanning technology are likely to eliminate any discrepancies.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>35221687</t>
+          <t>30701219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Therapeutic Potential of Vortioxetine for Anhedonia-Like Symptoms in Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>Evaluation of Dentoalveolar and Dentofacial Effects of a Mini-Screw-Anchored Pendulum Appliance in Maxillary Molar Distalization.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Anhedonia in major depressive disorder may be resistant to first-line antidepressants. We examined the effect of vortioxetine, a multimodal antidepressant, on anhedonia-like symptoms in Japanese patients with major depressive disorder. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) total score of at least 26. The primary outcome was the mean change from baseline to week 8 in anhedonia-like symptoms as measured by MADRS anhedonia factor score, composed of: Q1, apparent sadness; Q2, reported sadness; Q6, concentration; Q7, lassitude; and Q8, inability to feel. Mean change in MADRS total score and anhedonia factor score were compared among treatment groups, with data categorized by median baseline anhedonia factor score (0-17 or ≥18). Data were available for 489 patients. The least-squares mean difference in MADRS anhedonia factor score change from baseline to week 8 versus placebo was -1.34 for vortioxetine 10 mg (&lt;i&gt;P&lt;/i&gt; = 0.0300) and -1.77 for vortioxetine 20 mg (&lt;i&gt;P&lt;/i&gt; = 0.0044). The least-squares mean difference between vortioxetine and placebo in MADRS total score change from baseline to week 8 was -3.11 (10 mg dose) and -3.37 (20 mg dose) for patients with a higher baseline anhedonia factor score (≥18), and -2.08 (10 mg) and -2.61 (20 mg) for patients with a lower baseline score (0-17). This post hoc analysis suggests that vortioxetine may have therapeutic potential in patients with anhedonia-like symptoms of major depressive disorder. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+          <t>The aim of this study was to evaluate the dentoalveolar and dentofacial effects of a mini-screw-anchored pendulum appliance in maxillary molar distalization. Twenty patients with the Angle Class II molar relationship (mean age 14.05±2.4 years) were treated with a mini-screw-anchored pendulum appliance for molar distalization. A mini-screw 1.9 mm in diameter and 9 mm in length was used to support the pendulum appliance. The springs of the pendulum appliance were activated at 90° and exerted 250-300 gr force per side. Lateral cephalometric radiographs and dental cast models were obtained from all the patients before and after maxillary molar distalization. A 0.6° increase in the SNA and SNB angles, and a 0.3° decrease in the SN/GoGn angle were found to be statistically significant. In the maxillary first molars, 4.2-mm significant distalization, 0.6-mm significant intrusion, and 8.9° significant distal tipping were observed. The spontaneous distal drift of the maxillary second premolars was found to be statistically significant. In the maxillary first premolar and incisor positions, significant mesialization was observed; however, the changes in the angles of these teeth were found to be insignificant. A mini-screw-anchored pendulum appliance is an effective method for maxillary molar distalization that controls the undesired anchorage loss observed in conventional methods.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>35753689</t>
+          <t>32255178</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>PASS versus MBT™ for evaluation of anchorage control in three-dimensional measurements: a randomized controlled trial.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Growth and development might lead to anchorage loss during orthodontic treatment, such as the mesial drift of molars, the compensation characteristics of upper molars following mandibular growth, or the angulation of molars before treatment. Different anchorage reinforcement devices have been developed to prevent mechanical anchorage loss, but the anchorage loss resulting from physiological factors should also be taken into account. To explore the efficacy of a new strategy to control physiologic anchorage compared with that of the conventional straight-wire appliance. Randomized controlled trial (RCT). Participants of Han ethnicity were randomized into the physiologic anchorage spee-wire system (PASS) group or McLaughlin-Bennett-Trevisi (MBT™) straight-wire group by minimization random allocation. The eligibility criteria were patients with a Class I or II molar relationship, permanent dentition (11-35 years old), fixed appliances involving the extraction of at least two upper first premolars, and medium or maximum anchorage requirements. Pre-treatment and post-treatment dental casts were scanned into digital casts and measured using a blinded method. Mesial displacements of the upper first molars were considered as the primary outcome for evaluating anchorage control. Measurements were taken for subgroups based on age. Data from 60 participants were analysed. The baseline characteristics were not significantly different between groups. Mesial displacement of the upper first molar (in mm) was 2.96 ± 1.52 in the PASS group and 2.70 ± 1.66 in the MBT group (P = 0.521). The variation in incisor torque was -6.94 ± 6.35 degree in the PASS group and -11.76 ± 7.65 degree in the MBT group (P = 0. 010). The incisor retraction (in mm) was 4.24 ± 1.99 and 5.67 ± 2.27 in the PASS and MBT groups, respectively (P = 0.012). Adverse effects were not documented in any patient. The study was a single-centre study. Compared with the MBT group, the PASS group without additional anchorage devices could attain well anchorage control by considering the dentoalveolar compensation of anchor teeth. This RCT was registered at the Chinese Clinical Trial Registry (Chictr.org.cn) ChiCTR-TRC-13003260.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>37213947</t>
+          <t>18486791</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>An Interim Analysis of a Randomized, Open-Label Study of Vilazodone, Escitalopram, or Vortioxetine for Major Depressive Disorder.</t>
+          <t>Accuracy of miniscrew implant placement with a 3-dimensional surgical guide.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The troubling issues of conventional antidepressants are inadequate disease remission and potential adverse effects. There is a dearth of research findings comparing vilazodone, escitalopram, and vortioxetine. The objective of this analysis is to determinechanges in the Hamilton Depression Rating Scale (HDRS) and Montgomery-Åsberg Depression Rating Scale (MADRS) scoresand the incidence of adverse events at 12 weeks. This is an exploratory interim analysis of a randomized, three-arm, open-label ongoing study. The participants were randomly assigned in a 1:1:1 ratio to receive either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). Efficacy and safety assessments were done at baseline, four weeks, eight weeks, and 12 weeks. Forty-nine(69%) of the 71 enrolled participants (mean age 43.9±12.2 years; 37 men (52%)) completed the 12-week follow-up. At baseline, the three groups' median HDRS scores were 30.0, 29.5, and 29.0 (p=0.76), respectively, and at 12 weeks, they amounted to 19.5, 19.5, and 18.0 (p=0.18), respectively. At baseline, group-wise median MADRS scores were 36, 36, and 36, respectively (p=0.79); at 12 weeks, they were 24, 24, and 23, respectively (p=0.03). In the post-hoc analysis, the inter-group comparison of the change in HDRS (p = 0.02) and MADRS (p = 0.06) scores from baseline did not reach statistical significance. No participants experienced serious adverse events. In this initial assessment of a continuing study, vortioxetine exhibited a clinically (not statistically) significant drop in HDRS and MADRS scores, compared to vilazodone and escitalopram. The antidepressant effects need to be investigated further.</t>
+          <t>Deviation in the trajectory during drilling or tapping of miniscrew implants increases the risks of root injury. The purposes of this study were to assess the accuracy of miniscrew placement into the dentoalveolar bone, aided by a 3-dimensional (3D) surgical guide, and to compare the results with those from conventional procedures. A total of 220 miniscrews implanted, aided by a 3D surgical guide (n = 180), a conventional wire guide (n = 20), or no surgical guide (n = 20), were retrospectively examined in relation to the accuracy of placement. Coordinates, distances, and angles of the superimposed images of the planned and the correspondent implants were assessed and analyzed by 1-way analysis of variance. The results demonstrate that using the 3D surgical guide produced a significantly smaller variation between the planned and actual implant positions at the miniscrew head and tail (0.6 +/- 0.5 mm [mean +/- standard deviation] and 2.0 +/- 0.4 mm) compared with the wire guide (1.0 +/- 0.4 mm and 5.3 +/- 1.1 mm) and no guide (3.6 +/- 1.7 mm and 10.5 +/- 3.5 mm). The accuracy of placement was significantly improved with the 3D surgical guide (1.8 +/- 0.9 degrees) compared with the wire guide (16.9 +/- 2.6 degrees) and no guide (21.2 +/- 2.9 degrees). The 3D surgical guide provides a precise method for miniscrew placement into the dentoalveolar bone. The accurate insertion of miniscrews using the 3D surgical guide allows orthodontists to precisely transfer the radiographic information from preoperative planning to the surgical site, thus minimizing the risks of root injury.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25650503</t>
+          <t>20381754</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Comparison of vortioxetine versus venlafaxine XR in adults in Asia with major depressive disorder: a randomized, double-blind study.</t>
+          <t>Four curious cases of cone-beam computed tomography.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>This randomized, double-blind 8 week study compared the efficacy and tolerability of fixed-dose treatment with vortioxetine (10 mg/day) and venlafaxine extended release (XR) (150 mg/day) in major depressive disorder (MDD) patients. Patients aged 18-65 years with a primary diagnosis of recurrent MDD, a Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and a Clinical Global Impression-Severity (CGI-S) score ≥4 were randomized (1:1) to treatment with either vortioxetine or venlafaxine XR. The primary endpoint was change from baseline to Week 8 in MADRS total score (analysis of covariance [ANCOVA], full-analysis set [FAS], last observation carried forward [LOCF]), using a non-inferiority margin of +2.5 points. Pre-specified secondary endpoints included MADRS response and remission rates, anxiety symptoms (HAM-A), CGI, overall functioning (SDS), and health-related quality of life (Q-LES-Q). This study (SOLUTION) has the www.ClinicalTrials.gov identifier: NCT01571453. On the primary efficacy endpoint at Week 8, non-inferiority was established with a difference of -1.2 MADRS points in favor of vortioxetine (95% CI: -3.0 to 0.6). The MADRS total score decreased (improved) from 32.3 ± 4.6 at baseline to 13.6 ± 9.6 (vortioxetine: n = 209) and from 32.3 ± 4.5 to 14.8 ± 10.4 (venlafaxine XR: n = 215) (FAS, LOCF). At Week 8, the HAM-A and SDS total scores, CGI and Q-LES-Q scores, and response and remission rates demonstrated similar improvement for vortioxetine and venlafaxine XR, with remission rates (MADRS ≤10) of 43.1% (vortioxetine) versus 41.4% (venlafaxine XR) (LOCF). Fewer vortioxetine than venlafaxine XR patients withdrew for any reason (18.0% versus 27.4%) or for adverse events (6.6% versus 13.7%). The most frequent adverse events (≥5%) for both treatments were nausea, dizziness, headache, and dry mouth. In addition, accidental overdose, decreased appetite, constipation and insomnia were reported by (≥5%) of patients treated with venlafaxine XR. The inclusion and exclusion criteria may limit the generalizability of the study. Since patients with a history of lack of response to venlafaxine XR were excluded from this study, there is a selection bias in favor of venlafaxine XR. Vortioxetine was at least as efficacious as venlafaxine XR and was safe and better tolerated than venlafaxine XR.</t>
+          <t>Cone-beam computed tomography (CBCT) has become popular, and its many inherent advantages are indisputable. Nevertheless, CBCT is prescribed cautiously because the radiation dosage is higher than that of conventional radiography. When and to what extent should CBCT be prescribed for orthodontic patients? The purpose of this article is to present 4 curious cases in which a considerable discrepancy was found between the conventional panoramic radiograph and the CBCT view. Is it time to spare patients an unnecessary conventional panoramic radiograph and shift to CBCT for all patients?</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>33292580</t>
+          <t>23199101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A comparison of eating disorder symptomatology, psychological distress and psychosocial function between early, typical and later onset anorexia nervosa.</t>
+          <t>A comparison of second premolar extraction and mini-implant total arch distalization with interproximal stripping.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Epidemiological studies suggest that the incidence of anorexia nervosa (AN) is increasing in younger populations, with some evidence that clinical differences occur according to age of onset (AOO), which may impact prognostic outcomes. The current study sought to compare eating disorder (ED) symptomatology, psychological distress and psychosocial function between early onset (EO), typical onset (TO) and later onset (LO) AN in a large sample of treatment-seeking patients with a diagnosis of AN. Participants included 249 individuals with a diagnosis of AN who were assessed at an outpatient ED service. The sample was divided into three groups based on AOO; those with an AOO ≤14 years (N = 58) were termed 'EO-AN', those with an AOO between 15 and 18 years (N = 113) were termed 'TO-AN' and those with an AOO of &gt; 18 years (N = 78) were termed 'LO-AN'. Comparisons were made between AOO groups on assessments of ED symptomatology, psychological distress and psychosocial function. EO-AN patients reported a significantly longer illness duration than both TO-AN and LO-AN groups. After controlling for effect of illness duration, the EO-AN group demonstrated significantly higher ED symptomatology and dysmorphic concern compared to the LO-AN group. The EO-AN group demonstrated significantly decreased cognitive flexibility compared to both the TO-AN and LO-AN groups. These findings suggest that clinical differences do occur according to AOO in AN whereby EO-AN may represent a more severe form of illness that is not attributable to increased illness duration. Treatment strategies which specifically address patients with EO-AN may improve long term health outcomes and recovery.</t>
+          <t>The effect of total arch distalization using orthodontic mini-implants (OMIs) combined with interproximal stripping (IPS) and second premolar extraction was investigated in Class I malocclusion patients. A total of 66 consecutively treated Class I malocclusion (Class I molar relationship; 0 mm &lt; overbite and overjet &lt; 4.5 mm) patients ranging in age from 17 to 44 years who received single-phase treatment were included in this study. Pre- and posttreatment lateral cephalograms and dental casts were measured and compared statistically. In the distalization with IPS group, 3.6 mm and 3.8 mm of crowding in the upper and lower arches, respectively, were resolved, and 3.8 mm and 3.2 mm of upper and lower incisor retraction, respectively, were achieved simultaneously by the treatment. As a result of the second premolar extraction treatment, 3.9 mm and 3.6 mm of crowding in the upper and lower arches, respectively, were resolved, and 3.3 mm and 3.2 mm of incisor retraction, respectively, were achieved during treatment. There was no statistically significant difference in the amount of crowding and incisor retraction between the two groups. Total arch distalization using an OMI with IPS did not yield a significantly different treatment result compared to second premolar extraction treatment.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>27231256</t>
+          <t>25406652</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Which Cognitive Domains are Improved by Treatment with Vortioxetine?</t>
+          <t>Evaluation of orthodontic mini-implant placement: a CBCT study.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>These post hoc analyses evaluated vortioxetine efficacy on cognitive dysfunction in depression. Data were from a double-blind, randomized, fixed-dose, placebo-controlled, 8-week depression study in adults aged 18-65 years (n = 602) with DSM-IV-defined major depressive disorder (MDD). Subjects were randomized (1:1:1) to vortioxetine 10mg/day or 20mg/day or placebo. Cognitive function was assessed at baseline, Week 1 (10mg/day only) and Week 8 using Digit Symbol Substitution Test (DSST) number of correct symbols, Rey Auditory Verbal Learning Test, Trail Making Test, Stroop test, Simple Reaction Time, and Choice Reaction Time tests. The cognition variables were standardized and used for constructing composite Z-scores for the cognitive domains of executive function, attention/speed of processing, and memory. At Week 1, vortioxetine 10mg/day separated from placebo for attention/speed of processing (standardized composite Z-score = 0.21; p = 0.0238) and DSST number of correct symbols (standardized effect size = 0.18; p = 0.0458) and for executive function (standardized composite Z-score = 0.20; p = 0.0274). At Week 8, vortioxetine 10mg/day and 20mg/day separated from placebo for executive function and attention/speed of processing, with standardized composite Z-scores ranging from 0.35 to 0.49 (all p &lt; 0.01). Standardized composite Z-scores for memory were 0.31 ( p = 0.0036, 10mg/day) and 0.22 ( p = 0.0349, 20mg/day). Standardized effect sizes for DSST were 0.51 ( p &lt; 0.0001, 10mg/day) and 0.52 ( p &lt; 0.0001, 20mg/day). Results are limited by the post hoc nature of the analyses and the absence of an active reference in the original study. Vortioxetine (10 and 20mg/day) had a multi-domain beneficial effect on cognitive performance, as evidenced by improvements in measures of executive function, attention/speed of processing, and memory. The effect on the DSST may be due to improvements in several cognitive skills.</t>
+          <t>Optimal positioning of orthodontic mini-implants is essential for a successful treatment with skeletal anchorage. This study aims to compare the accuracy of two-dimensional radiographs with a cone beam computed tomography (CBCT) for mini-implant placement. An ideal site for mini-implant placement at the buccal interradicular space between the second premolar and the first molar was determined for 40 sites (in 13 patients aged 14 to 28 years) by using CBCT data. The mini-implant placement procedure was then divided into two groups. In CBCT group, mini-implants were placed at the sites determined from CBCT data. In RVG group, mini-implants were placed with the help of two-dimensional digital radiographs and a custom made guide. Postplacement CBCT scans were obtained to determine the accuracy of the mini-implant placement. The results were statistically analyzed with a Mann-Whitney test. A statistically significant difference (p value=0.02) was observed between the two groups for deviation from an ideal height of placement of the mini-implants. Deviations in mesiodistal positioning and angular deviation showed a statistically non-significant difference. Three out of twenty mini-implants in the RVG group showed root contact in the mandibular arch that may be attributed to the narrower interradicular space and reduced accessibility in the mandibular posterior region. Although CBCT provides an accurate three-dimensional visualization of the interradicular space, the two-dimensional intraoral radiograph of the interradicular area provides sufficient information for mini-implant placement. Considering the amount of radiation exposure and cost with the two techniques, it is recommended to use two-dimensional radiographs with a surgical guide for a routine mini-implant placement.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>37970263</t>
+          <t>22976711</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Interface between Depression and Alzheimer's Disease. A Comprehensive Approach.</t>
+          <t>A simple customized surgical guide for orthodontic miniplates with tube.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Depression and Alzheimer's disease (AD) are frequent interacting diseases in the elderly with a negative impact on the quality of life of patients and caregivers. Late-life depression may be regarded either as an early symptom of AD or a risk factor for AD, depending on the context. This review was focused on the latest developments in the fields of the neurobiological basis and treatment of depression in AD. We found that some plausible hypotheses are emerging to correlate with depression in AD, such as neuroinflammation and dysimmune regulation. It seems that depression is not related to amyloid deposition, but this issue is not completely resolved. The response to antidepressants is controversial according to the evidence from 10 small double-blind randomized placebo-controlled clinical trials with antidepressants in AD patients with depression: four with sertraline, one with three arms (sertraline, mirtazapine, placebo), one with fluoxetine, one with imipramine, one with clomipramine, one with escitalopram, and one with vortioxetine. The total number of treated patients completing the trials was 638. The main criterion of a positive response was a reduction in the scores of clinical scales for depression of at least 50%. The weighted OR (odds ratio) was calculated with the method of Mantel-Haenszel: 1.29; 95% CI: 0.77-2.16. No significant differences were found compared with placebo. Antidepressants did not have a meaningful negative influence on cognition, which was measured with the mini-mental state examination (MMSE) in 18 clinical trials. Alternatives other than drugs are also discussed. Although there have been important advances in this field, pathophysiology and treatment deserve further research.</t>
+          <t>This article reports the use of a customized surgical guide for simple and precise C-tube plate placement with minimized incision. Patients who were planning to have orthodontic miniplate treatment because of narrow interradicular space were recruited for this study. A combined silicone and stainless steel wire surgical guide for the C-tube was fabricated on the cast model. The taller wire of the positioning guide is used to accurately start the incision. The incision guide-wire position is verified by placing the miniplate on the coronal horizontal wire to confirm that the incision will coordinate with the screw holes. Because the miniplate is firmly held in place, there is no risk of the miniplate anchoring screws (diameter, 1.5 mm; length, 4 mm) sliding on the bone surface during placement with a manual hand driver. The surgical guide was placed on the clinical site, and it allowed precise placement of the miniplate with minimum incision and preventing from slippage or path-of-insertion angulation errors that might interfere with accurate placement. Customized surgical guide enables precise planning for miniplate positions in anatomically complex sites.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22209361</t>
+          <t>12592995</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A randomised, double-blind, placebo controlled, duloxetine-referenced, fixed-dose study of three dosages of Lu AA21004 in acute treatment of major depressive disorder (MDD).</t>
+          <t>Treatment and posttreatment dentoalveolar changes following intrusion of mandibular molars with application of a skeletal anchorage system (SAS) for open bite correction.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The efficacy, safety, and tolerability of Lu AA21004 versus placebo, using duloxetine as active reference, in patients with DSM-IV-TR diagnosed major depressive disorder (MDD) were evaluated in this 8-week, multi-site study. Patients (n=766) had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥26 and were randomly assigned (1:1:1:1:1) to 2.5, 5 or 10 mg Lu AA21004, placebo, or 60 mg duloxetine. The 5mg and 10mg doses of Lu AA21004 were tested separately versus placebo at p≤0.025 in a pre-specified order. In the pre-defined primary efficacy analysis [mean change from baseline in MADRS total score at Week 8, full analysis set, ANCOVA, last observation carried forward (LOCF)], the differences to placebo (n=145) of -1.7 (Lu AA21004 5 mg, n=155) and -1.5 points (Lu AA21004 10 mg, n=151) were not statistically significant; nor were those for Lu AA21004 2.5 mg (-1.4 points, n=155) or duloxetine (-2.0 points, n=149). Using mixed model, repeated measures (MMRM) analyses of the primary endpoint and most secondary endpoints were supportive of likely efficacy for Lu AA21004 5 mg and 10 mg and duloxetine. Treatment-emergent adverse events led to the withdrawal of 72 patients: 8% (placebo), 12% (duloxetine), and 6%, 11% and 9% in the Lu AA21004 groups (2.5 mg, 5 mg and 10 mg, respectively). The most common adverse events were nausea, headache, dizziness, and dry mouth. No clinically relevant changes were seen in vital signs, weight, ECG, or laboratory results. In summary, none of the active treatment groups, including duloxetine, separated from placebo in the primary analysis in this 'failed' study. Findings on secondary outcome measures, using MMRM instead of LOCF, were supportive of likely efficacy for Lu AA21004 5mg and 10mg and duloxetine. Lu AA21004 (2.5, 5 and 10 mg) was well tolerated.</t>
+          <t>The skeletal anchorage system (SAS) consists of titanium anchor plates and monocortical screws that are temporarily implanted in either the maxilla or the mandible as absolute orthodontic anchorage. With SAS, anterior open bite can be improved by the counterclockwise rotation of the mandible, accompanied by the intrusion of molars. The present study was designed to evaluate treatment and posttreatment dentoalveolar changes following the intrusion of mandibular molars. Nine adult open bite patients (7 women and 2 men) successfully treated with SAS were included in the following study. The amount of intrusion, relapse, and dentoalveolar changes were measured on cephalometric radiographs, panoramic radiographs, and dental casts. The results of this study were as follows: (1) the average amount of intrusion of the mandibular first and second molars was 1.7 mm and 2.8 mm, respectively; (2) the average relapse rates were 27.2% at the first molars and 30.3% at the second molars; (3) there were no significant changes in crestal bone heights, clinical crown length, or root length; and (4) counterclockwise rotation of the mandible and decrease of anterior facial height were observed during treatment. Thus, it was concluded that SAS would be a valid modality to intrude mandibular molars for correction of open bite.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>37736222</t>
+          <t>22900592</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Effect of vortioxetine versus venlafaxine on cognitive functions in adults with major depressive disorder: A randomized-controlled trial.</t>
+          <t>Treatment time, outcome, and anchorage loss comparisons of self-ligating and conventional brackets.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vortioxetine and venlafaxine are antidepressants which have shown established efficacy to treat major depressive disorder (MDD). There are no studies that compared them for their efficacy in cognitive symptoms of depression. The study aimed to compare the effect of vortioxetine and venlafaxine on the change in cognitive scores in adults with MDD. The present study was an open-label, active-controlled parallel design randomized clinical trial. After randomization, baseline clinical evaluations by Montgomery-Asberg Depression Rating Scale (MADRS) and Social and Occupational Functioning Assessment Scale (SOFAS) were done and coding (subset of WAIS-IV), WCST, TMT, Stroop test, PGI memory were used to assess cognition in 100 unmedicated MDD patients. They were reassessed after eight weeks of monotherapy with vortioxetine or venlafaxine. Primary cognitive measure (coding score) was found to be significantly higher (Mean Difference = 0.680; 95% CI:.202 to 1.158; &lt;i&gt;P&lt;/i&gt; = 0.006) in vortioxetine in comparison with venlafaxine. Stroop test scores (word score, color score, color-word score) were also found to be significantly higher with vortioxetine. In other cognitive measures (WCST scores: total trials, total errors score, total perseverative responses score, total perseverative errors scores; TMT-A and B scores), a significant decrease in scores with vortioxetine in comparison with venlafaxine were observed. A significant decrease in MADRS and increase in SOFAS scores were observed with vortioxetine in comparison with venlafaxine. Both the drugs alleviated the symptoms of depression but vortioxetine was better tolerated. Our study findings suggest that improvement in cognitive scores is significantly higher with vortioxetine than venlafaxine over the eight weeks of monotherapy. CTRI/2020/07/026819 (Registered with Clinical Trials Registry- India).</t>
+          <t>To compare the treatment time, outcome, and anchorage loss among orthodontic patients treated by self-ligating brackets (SLBs) and conventional brackets (CBs). A retrospective cohort study compared 34 patients (SLB group) treated by SmartClip brackets (3M Unitek, Monrovia, Calif) to 35 patients (CB group) treated by conventional preadjusted Victory series brackets (3M Unitek) and ligated by stainless steel wire ligatures. Pretreatment (T1) and posttreatment (T2) lateral cephalograms were traced and analyzed using Pancherz sagittal-occlusion analysis to obtain skeletal and dental changes in the maxilla and the mandible. The dental cast models were assessed by the Peer Assessment Rating (PAR) Index for the treatment outcomes. The mean treatment time for SLBs (19.19 months) did not show a statistically significant difference from 21.25 months of CBs; the treatment time and pretreatment PAR scores were strongly correlated. There was no difference in anchorage loss between the SLB and CB groups. There were significant dental and skeletal changes among adolescent orthodontic patients regardless of the bracket used. The lingual inclination of the mandibular incisors in the CB group was 3.62° more than in the SLB group (P &lt; .01). The treatment time and anchorage loss are not influenced by the type of bracket used. There are significant dental and skeletal changes among adolescent orthodontic patients regardless of the bracket used. There is significantly greater lingual inclination of mandibular incisors in the CB group than in the SLB group.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37641760</t>
+          <t>27275618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Metabolic Effects of Antidepressants: Results of a Randomized Study's Interim Analysis.</t>
+          <t>Peri-implant evaluation of osseointegrated implants subjected to orthodontic forces: results after three years of functional loading.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Individuals with major depressive disorder exhibit a dysregulated metabolic profile. There are few studies on how vilazodone, escitalopram, and vortioxetine alter metabolic parameters. Our study aimed to determine the change in plasma glucose, HbA&lt;sub&gt;1c&lt;/sub&gt;, serum cholesterol, triglyceride, and creatinine at 12 weeks. An ongoing randomized, open-label, three-arm study's interim analysis is portrayed here. The participants were assessed at baseline, 4, 8, and 12 weeks after receiving oral tablets of either vilazodone (20-40mg/d), escitalopram (10-20mg/d), or vortioxetine (5-20mg/d). This study is CTRI-registered (2022/07/043808). Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median Hamilton Depression Rating Scale (HDRS) scores of the participants in vilazodone, escitalopram, and vortioxetine groups were 30.0, 29.5, and 29.0 at baseline (p=0.76) and 19.5, 19.5, and 18.0 (p=0.18) at 12 weeks, respectively. The median fasting blood sugar (FBS) values were 98.5, 105.5, and 98.0 at baseline (p=0.07) and 94.0, 99.5, and 96.0 (p=0.19) at 12 weeks, for vilazodone, escitalopram, and vortioxetine groups, respectively. The post hoc analysis did not yield statistically significant differences regarding any parameters. According to this interim study, the HDRS scores declined after 12 weeks of therapy. The subjects' metabolic parameters did not significantly change. It is essential to perform further investigation regarding these impacts.</t>
+          <t>The objective of this study was to clinically and radiographically assess the peri-implant conditions of implants used as orthodontic anchorage. Two groups were studied: 1) a test group in which osseointegrated implants were used as orthodontic anchorage, with the application of 200-cN force; and 2) a control group in which implants were not subjected to orthodontic force, but supported a screw-retained prosthesis. Clinical evaluations were performed three, six and nine months after prosthesis installation and 1- and 3-year follow-up examinations. Intraoral periapical radiographs were obtained 30 days after surgical implant placement, at the time of prosthesis installation, and one, two and three years thereafter. The results were compared by Kruskal-Wallis test. There was no statistically significant difference in clinical probing depth (p = 0.1078) or mesial and distal crestal bone resorption (p = 0.1832) during the study period. After three years of follow-up, the mean probing depth was 2.21 mm for the control group and 2.39 mm for the test group. The implants of the control group showed a mean distance between the bone crest and implant shoulder of 2.39 mm, whereas the implants used as orthodontic anchorage showed a mean distance of 2.58 mm at the distal site. Results suggest that the use of stable intraoral orthodontic anchorage did not compromise the health of peri-implant tissues or the longevity of the implant.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25893002</t>
+          <t>30826037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Depression and cerebrovascular disease: could vortioxetine represent a valid treatment option?</t>
+          <t>Anchorage loss assessment of the indirect anchor tooth during adjunctive orthodontic treatment.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Depression and cerebrovascular atherosclerosis often occur in comorbidity showing neuropsychological impairment and poor response to antidepressant treatment. Objective is to evaluate if new antidepressant vortioxetine may be a potential treatment option. Mechanism of Action : Vortioxetine has 5-HT3, 5-HT7 and 5-HT1D antagonists, 5-HT1B partial agonist and a 5-HT1A agonist and serotonin transporter inhibitor property. Efficacy and safety in Major Depressive Disorders and in cognitive impairment : The majority of trials (one of them in older people) showed efficacy for vortioxetine against placebo and no differences against other active treatments. The Adverse Effects ranged from 15.8% more to 10.8% less than placebo. In the elderly, only nausea was found higher than placebo. Effects on arterial blood pressure and cardiac parameters including the ECG-QT segment were similar to placebo. Elderly depressive patients on vortioxetine showed improvement versus placebo and other active comparators in Auditory Verbal Learning Test and Digit Symbol Substitution Test scores. The inclusion criteria admitted cases with middle cerebrovascular disease. Conclusion : The mechanism of action, the efficacy on depression and safety profile and early data on cognitive impairment make Vortioxetine a strong candidate for use in depression associated with cerebrovascular disease. This information must be supported by future randomized controlled trials.</t>
+          <t>This study quantitatively assessed movement of anchor teeth connected to a miniscrew (indirect anchor tooth) and investigated factors affecting movement during adjunctive orthodontic treatment. Dental plaster models of 28 patients whose treatment included an indirect anchor tooth on one side were collected before and after treatment. The casts were digitally scanned, and 2 groups were constituted: the indirect anchor teeth (experimental group; n = 52) and the untreated teeth (control group; the first and second premolars opposing the indirect anchor tooth to which no orthodontic force was applied; n = 55). Pretreatment and posttreatment models were superimposed and the amount and direction of indirect anchor tooth movement were evaluated with the use of a univariate linear mixed model. Possible factors affecting movement of the indirect anchor tooth and its significance were also evaluated with the use of a multiple linear mixed model. The indirect anchor tooth moved 0.91 ± 0.50 mm and did not exhibit significant differences in the transverse, vertical, or sagittal directions. The location of the indirect anchor tooth affected movement and the tooth moved significantly more in the mandible than in the maxilla. The indirect anchor tooth can move during adjunctive orthodontic treatment and thus requires careful monitoring for occlusal changes.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>29123483</t>
+          <t>37959247</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Impact of Vortioxetine on Synaptic Integration in Prefrontal-Subcortical Circuits: Comparisons with Escitalopram.</t>
+          <t>Accuracy of Palatal Orthodontic Mini-Implants Placed Using Fully Digital Planned Insertion Guides: A Cadaver Study.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Prefrontal-subcortical circuits support executive functions which often become dysfunctional in psychiatric disorders. Vortioxetine is a multimodal antidepressant that is currently used in the clinic to treat major depressive disorder. Mechanisms of action of vortioxetine include serotonin (5-HT) transporter blockade, 5-HT&lt;sub&gt;1A&lt;/sub&gt; receptor agonism, 5-HT&lt;sub&gt;1B&lt;/sub&gt; receptor partial agonism, and 5-HT&lt;sub&gt;1D&lt;/sub&gt;, 5-HT&lt;sub&gt;3&lt;/sub&gt;, and 5-HT&lt;sub&gt;7&lt;/sub&gt; receptor antagonism. Vortioxetine facilitates 5-HT transmission in the medial prefrontal cortex (mPFC), however, the impact of this compound on related prefrontal-subcortical circuits is less clear. Thus, the current study examined the impact of systemic vortioxetine administration (0.8 mg/kg, i.v.) on spontaneous spiking and spikes evoked by electrical stimulation of the mPFC in the anterior cingulate cortex (ACC), medial shell of the nucleus accumbens (msNAc), and lateral septal nucleus (LSN) in urethane-anesthetized rats. We also examined whether vortioxetine modulated afferent drive in the msNAc from hippocampal fimbria (HF) inputs. Similar studies were performed using the selective 5-HT reuptake inhibitor [selective serotonin reuptake inhibitors (SSRI)] escitalopram (1.6 mg/kg, i.v.) to enable comparisons between the multimodal actions of vortioxetine and SSRI-mediated effects. No significant differences in spontaneous activity were observed in the ACC, msNAc, and LSN across treatment groups. No significant impact of treatment on mPFC-evoked responses was observed in the ACC. In contrast, vortioxetine decreased mPFC-evoked activity recorded in the msNAc as compared to parallel studies in control and escitalopram treated groups. Thus, vortioxetine may reduce mPFC-msNAc afferent drive via a mechanism that, in addition to an SSRI-like effect, requires 5-HT receptor modulation. Recordings in the LSN revealed a significant increase in mPFC-evoked activity following escitalopram administration as compared to control and vortioxetine treated groups, indicating that complex modulation of 5-HT receptors by vortioxetine may offset SSRI-like effects in this region. Lastly, neurons in the msNAc were more responsive to stimulation of the HF following both vortioxetine and escitalopram administration, indicating that elevation of 5-HT tone and 5-HT receptor modulation may facilitate excitatory hippocampal synaptic drive in this region. The above findings point to complex 5-HT receptor-dependent effects of vortioxetine which may contribute to its unique impact on the function of prefrontal-subcortical circuits and the development of novel strategies for treating mood disorders.</t>
+          <t>Digital workflows have become integral in orthodontic diagnosis and therapy, reducing risk factors and chair time with one-visit protocols. This study assessed the transfer accuracy of fully digital planned insertion guides for orthodontic mini-implants (OMIs) compared with freehanded insertion. Cone-beam computed tomography (CBCT) datasets and intraoral surface scans of 32 cadaver maxillae were used to place 64 miniscrews in the anterior palate. Three groups were formed, two using printed insertion guides (A and B) and one with freehand insertion (C). Group A used commercially available customized surgical templates and Group B in-house planned and fabricated insertion guides. Postoperative CBCT datasets were superimposed with the planning model, and accuracy measurements were performed using orthodontic software. Statistical differences were found for transverse angular deviations (4.81° in A vs. 12.66° in B and 5.02° in C, &lt;i&gt;p&lt;/i&gt; = 0.003) and sagittal angular deviations (2.26° in A vs. 2.20° in B and 5.34° in C, &lt;i&gt;p&lt;/i&gt; = 0.007). However, accurate insertion depth was not achieved in either guide group; Group A insertion was too shallow (-0.17 mm), whereas Group B insertion was deeper (+0.65 mm) than planned. Outsourcing the planning and fabrication of computer-aided design and computer-aided manufacturing insertion guides may be beneficial for certain indications; particularly, in this study, commercial templates demonstrated superior accuracy than our in-house-fabricated insertion guides.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35815048</t>
+          <t>33203553</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Systematic Review and Meta-Analysis of Vortioxetine for the Treatment of Major Depressive Disorder in Adults.</t>
+          <t>Orthodontic treatment of open bite involved in diffuse hypercementosis: A case report.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>We aimed to compare the efficacy, acceptability, and tolerability of vortioxetine in the treatment of Major Depressive Disorder (MDD) in adults. We searched PubMed, Embase, Web of Science, Cochrane Central Register of Controlled Clinical Trials (CENTRAL), and www.ClinicalTrials.gov for randomized controlled trials that examined vortioxetine vs. placebo or other antidepressants for the treatment of MDD from database inception to August 30, 2021, using keywords Vortioxetine, Brintellix, Trintellix, LuAA21004, major depressive disorder, mood disorder, affective disorder, and MDD. We identified 789 publications after removing duplicates. After screening, 20 eligible randomized controlled trials were identified, of which 19 were included in the final meta-analysis. We included adults (aged 18 years and older) with a primary diagnosis of MDD. Two review authors independently selected the studies and extracted data. We extracted data on study characteristics, participant characteristics, intervention details and outcome measures in terms of efficacy, acceptability, and tolerability. Analyses were performed using random-effects models, and outcomes were pooled as risk ratios (RRs) and standardized mean differences (SMDs). In total, 20 studies (8,547 participants) met the inclusion criteria. Vortioxetine outperformed the placebo in efficacy outcomes, including response (RR 1.35, 95% CI 1.23-1.48; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), remission (RR 1.33, 95% CI 1.17-1.52; &lt;i&gt;P&lt;/i&gt; &lt; 0.001), and cognitive function (SMD 0.34, 95% CI 0.16-0.52; &lt;i&gt;P&lt;/i&gt; = 0.0003). Compared with the serotonin noradrenaline reuptake inhibitors (SNRIs), vortioxetine had better tolerability (RR 0.90, 95% CI 0.86-0.94; &lt;i&gt;P&lt;/i&gt; &lt; 0.001) but no significant difference in response (RR 0.91, 95%CI 0.82-1.00; &lt;i&gt;P&lt;/i&gt; = 0.06) or remission (RR: 0.99, 95% CI 0.81-1.20, &lt;i&gt;P&lt;/i&gt; = 0.88). Vortioxetine had no difference in response (RR 1.08, 95% CI 0.88-1.32; &lt;i&gt;P&lt;/i&gt; = 0.46), remission (RR 1.00, 95% CI 0.41-2.44; &lt;i&gt;P&lt;/i&gt; = 1.00) comparing with selective serotonin reuptake inhibitors (SSRIs). Vortioxetine is more advantageous over placebo in treating MDD among adults, but no significant difference compared to SNRIs and SSRIs in general. https://www.crd.york.ac.uk/PROSPERO/display_record.php?ID=CRD42021278355, identifier: CRD42021278355.</t>
+          <t>Open bite is considered one of the most complicated malocclusions in orthodontic treatment. In this study, the authors successfully treated total open bite involved in hypercementosis using orthodontic miniscrews. A woman aged 25 years 8 months had total open bite. Her occlusal contact at the maximum intercuspation was present at the right second molars. A panoramic radiograph showed diffuse hypercementosis. The titanium miniscrews were interradicullay implanted between the first and second molars, and intrusion force was applied for 14 months. After active treatment, the patient's maxillary first molars showed about 1.6-millimeters of intrusion, resulting in counterclockwise mandibular rotation. Her acceptable occlusion was maintained after 1.0-year retention. Miniscrews might be useful tool to improve malocclusion involved in diffuse hypercementosis though they are considered to be difficult to move and brought on ankylosis.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>33654400</t>
+          <t>15938898</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Efficacy of Vortioxetine on Anhedonia: Results from a Pooled Analysis of Short-Term Studies in Patients with Major Depressive Disorder.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Anhedonia is a core symptom of major depressive disorder (MDD), which has important functional consequences for the patient. This post hoc analysis investigated the relationship between anhedonia and functioning in patients with MDD treated with vortioxetine. We conducted a pooled analysis of all 11 short-term, double-blind, randomized, placebo-controlled studies of vortioxetine (fixed dose, 5-20 mg/day) in patients with MDD which included Montgomery-Åsberg Depression Rating Scale (MADRS) and Sheehan Disability Scale (SDS) assessments. A short-term, randomized, active-controlled trial of flexible-dose treatment with vortioxetine (10-20 mg/day) versus agomelatine (25-50 mg/day) was also analyzed. Mean changes from baseline to study endpoint in MADRS total, MADRS anhedonia subscale, SDS total, and SDS social-functioning scores were analyzed by a mixed model for repeated measures. The relationship between treatment effects on anhedonia and functioning was investigated using path analysis. A total of 4988 patients with MDD were included in the placebo-controlled studies and 495 in the active-comparator study. Significant dose-dependent improvements in overall depressive symptoms, anhedonia, and measures of functioning were seen in vortioxetine-treated patients compared with those who received placebo or agomelatine. Results of the path analysis for the placebo-controlled studies suggested that the effect on functioning was mostly driven by the effect of treatment on MADRS anhedonia factors. Vortioxetine showed significant short-term efficacy against anhedonia in this large population of patients with MDD. In the placebo-controlled studies, improvements in functioning associated with vortioxetine appeared to be mostly driven by the effect of treatment on MADRS anhedonia factors.</t>
-        </is>
-      </c>
+          <t>[Fabrication and clinical use of surgical template for placement of orthodontic micro-implants in interradicular space].</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>36065389</t>
+          <t>24442553</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Effectiveness and Safety of Vortioxetine for Major Depressive Disorder in Real-World Clinical Practice: Results from the Single-Arm RELIEVE China Study.</t>
+          <t>Upper molar distalization with skeletally anchored TopJet appliance.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Major depressive disorder (MDD) affects &gt;163 million people worldwide and is a leading cause of disability in China. Functional impairment occurs alongside cognitive symptoms, anxiety, and depression, reducing quality of life and productivity in patients with MDD. The multimodal antidepressant vortioxetine has demonstrated efficacy in relieving depressive and functional symptoms of MDD in randomized controlled trials (RCTs). The RELIEVE China study aimed to investigate the real-world effectiveness of vortioxetine in China. This was an observational, prospective cohort study in patients with MDD initiating treatment with vortioxetine at physician's discretion in China. Participants were followed up for 24 weeks and assessed at 3 time points: baseline, week 8, and week 24. The primary objective was to assess the change from baseline to weeks 8 and 24 in functional impairment as measured by Sheehan Disability Scale (SDS) total score. Additional assessments included SDS subdomains, measures of depression severity, anxiety, and cognition. The safety and tolerability of vortioxetine were also examined. In total, 859 patients were included in the analysis. A consistent and significant improvement in functional impairment was observed during the study, with baseline mean SDS total score (16.7 points) decreasing by 5.42 (SE, 0.22) and 8.71 (SE, 0.226) points at week 8 and week 24, respectively (&lt;i&gt;P&lt;/i&gt;&lt;0.0001). Improvements in other functioning, cognitive, and anxiety assessments were also observed (all &lt;i&gt;P&lt;/i&gt;&lt;0.0001). A total of 74.7% of patients had responded, and 63.9% had reached remission at week 24. The tolerability profile of vortioxetine in this real-world population was consistent with the established tolerability profile for this drug. This study demonstrated the short- and long-term effectiveness and tolerability of vortioxetine for patients with MDD in a real-world setting in China. These findings are consistent with the efficacy and safety profile observed during RCTs.</t>
+          <t>To retrospectively investigate clinical outcomes with the TopJet appliance. Measurements were taken on dental casts reflecting situations in 15 patients aged 10-48 years before and after orthodontic treatment with a TopJet appliance. Each measurement was taken with a digital caliper and repeated 2 weeks later. Recorded parameters included the amounts of distalization achieved, durations of active treatment to calculate rates of tooth movement, as well as rotational and transversal changes involved in the distalization of upper first molars. Student's t-test was used to compare mean values (α=0.05), explorative analysis to distinguish between unilateral and bilateral use of TopJet appliances, and Pearsons's correlation coefficient to determine intraobserver variability. Over a mean treatment duration of 5.9 months, the upper first molars were distalized by 4.0 ± 2.2 mm, including a mean tooth movement rate of 0.8 ± 0.6 mm per month. The rotational changes involved in the movements (-1.4 ± 6.7°) were not statistically significant. Transversal changes were 0.9 ± 1.2 mm at the level of the mesiobuccal cusps, 1.1 ± 1.1 mm at the central fossae, and 0.9 ± 0.9 mm at the distobuccal cusps. All measurements, other than those for rotation (r=0.7), were highly reproducible. Bilateral use of the appliance resulted in greater distalization than unilateral use, the mean difference being 1.4 mm. Bilateral use was more likely to involve inward rotation (+2.0°) on the mesial aspect of the first molars, whereas unilateral use resulted in mild outward rotation (-0.5°). Our results indicate that upper molars can be distalized effectively and efficiently with TopJet appliances. Any degrees of rotation and transversal changes that the first molars undergo during this process do not seem to play a major role.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>37424427</t>
+          <t>26672700</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Potential Effect of Vortioxetine on Restless Leg Syndrome.</t>
+          <t>Biology of biomechanics: Finite element analysis of a statically determinate system to rotate the occlusal plane for correction of a skeletal Class III open-bite malocclusion.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Restless legs syndrome (RLS) is a chronic progressive movement disorder characterized by abnormal sensations, especially at rest and at night, as the need and urge to move the lower extremity. It has been reported that RLS severity and frequency increase in patients with anxiety and depression. It has been reported that serotonin-noradrenaline reuptake inhibitors such as venlafaxine and selective serotonin reuptake inhibitors such as citalopram, fluoxetine, paroxetine, and sertraline can cause RLS symptoms. No adverse effects of vortioxetine on RLS have been reported in the literature. In this case series, we report the effect of vortioxetine in patients with RLS with symptoms of depression and anxiety. In this case series, the effect of adding vortioxetine to treatment on RLS symptoms is reported in 7 patients (5 female). After the use of vortioxetine, 5 of 7 patients' symptoms regressed without the need to start a separate drug for primary movement disorder. In conclusion, we believe that studies should be conducted to investigate the efficacy of vortioxetine in the treatment of RLS. Therefore, randomized controlled studies are needed to determine the effect and safety of vortioxetine on RLS symptoms.</t>
+          <t>In the absence of adequate animal or in-vitro models, the biomechanics of human malocclusion must be studied indirectly. Finite element analysis (FEA) is emerging as a clinical technology to assist in diagnosis, treatment planning, and retrospective analysis. The hypothesis tested is that instantaneous FEA can retrospectively simulate long-term mandibular arch retraction and occlusal plane rotation for the correction of a skeletal Class III malocclusion. Seventeen published case reports were selected of patients treated with statically determinate mechanics using posterior mandible or infrazygomatic crest bone screw anchorage to retract the mandibular arch. Two-dimensional measurements were made for incisor and molar movements, mandibular arch rotation, and retraction relative to the maxillary arch. A patient with cone-beam computed tomography imaging was selected for a retrospective FEA. The mean age for the sample was 23.3 ± 3.3 years; there were 7 men and 10 women. Mean incisor movements were 3.35 ± 1.55 mm of retraction and 2.18 ± 2.51 mm of extrusion. Corresponding molar movements were retractions of 4.85 ± 1.78 mm and intrusions of 0.85 ± 2.22 mm. Retraction of the mandibular arch relative to the maxillary arch was 4.88 ± 1.41 mm. Mean posterior rotation of the mandibular arch was -5.76° ± 4.77° (counterclockwise). The mean treatment time (n = 16) was 36.2 ± 15.3 months. Bone screws in the posterior mandibular region were more efficient for intruding molars and decreasing the vertical dimension of the occlusion to close an open bite. The full-cusp, skeletal Class III patient selected for FEA was treated to an American Board of Orthodontics Cast-Radiograph Evaluation score of 24 points in about 36 months by en-masse retraction and posterior rotation of the mandibular arch: the bilateral load on the mandibular segment was about 200 cN. The mandibular arch was retracted by about 5 mm, posterior rotation was about 16.5°, and molar intrusion was about 3 mm. There was a 4° decrease in the mandibular plane angle to close the skeletal open bite. Retrospective sequential iterations (FEA animation) simulated the clinical response, as documented with longitudinal cephalometrics. The level of periodontal ligament stress was relatively uniform (&lt;5 kPa) for all teeth in the mandibular arch segment. En-masse retraction of the mandibular arch is efficient for conservatively treating a skeletal Class III malocclusion. Posterior mandibular anchorage causes intrusion of the molars to close the vertical dimension of the occlusion and the mandibular plane angle. Instantaneous FEA as modeled here could be used to reasonably predict the clinical results of an applied load.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31930057</t>
+          <t>20413451</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vortioxetine versus sertraline in metabolic control, distress and depression in Mexican patients with type 2 diabetes.</t>
+          <t>Accurate pre-surgical determination for self-drilling miniscrew implant placement using surgical guides and cone-beam computed tomography.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Depression in patients with type 2 diabetes (T2D) is often undiagnosed and remains untreated, leading to poor therapy adherence and ill health-related outcomes. We evaluated the effect of vortioxetine versus sertraline in the treatment of depression, distress and metabolic control in subjects with T2D and depression. Participants were selected from the Clinic for Diabetes, diagnosed with depression when the score was ≥14 in the Hamilton Depression Rating Scale, and verified by a psychiatrist in agreement with the DSM-5 instrument (Diagnostic and Statistical Manual of Mental Disorders, fifth edition). The criteria for recruitment also included glycosylated hemoglobin ≥7.5%, 18 to 60 years of age, and written informed consent. Pharmacological treatment for depression was assigned randomly: vortioxetine (10 mg/day) or sertraline (75 mg/day) for 8 weeks. Biochemical parameters, anthropometric measures and depression symptoms were evaluated after antidepressant treatment. This was a randomized singled-blind study. Subjects that met the inclusion criteria were 50, of which only 21 patients with T2D and depression finished the treatment. Vortioxetine and sertraline showed partial remission of depression. Vortioxetine showed a major effect size in glycosylated hemoglobin and a moderate effect size on weight loss, fasting plasma glucose (FPG), cholesterol and triacylglycerol levels. On the other hand, patients treated with sertraline presented a slight increase in body weight, body mass index (BMI), and in all biochemical markers. Vortioxetine may ameliorate depressive symptoms and metabolic control in patients with T2D and depression. Trial registration number: NCT03978286.</t>
+          <t>Miniscrew implants have proven to be effective in providing absolute orthodontic anchorage. However, as self-drilling miniscrew implants have become more popular, a problem has emerged, i.e. root contact, which can lead to perforation and other root injuries. To avoid possible root damage, a surgical guide was fabricated and cone-beam computed tomography (CBCT) was used to incorporate guide tubes drilled in accordance with the planned direction of the implants. Eighteen patients (5 males and 13 females; mean age 23.8 years; minimum 10.7, maximum 45.5) were included in the study. Forty-four self-drilling miniscrew implants (diameter 1.6, and length 8 mm) were placed in interradicular bone using a surgical guide procedure, the majority in the maxillary molar area. To determine the success rates, statistical analysis was undertaken using Fisher's exact probability test. CBCT images of post-surgical self-drilling miniscrew implant placement showed no root contact (0/44). However, based on CBCT evaluation, it was necessary to change the location or angle of 52.3 per cent (23/44) of the guide tubes prior to surgery in order to obtain optimal placement. If orthodontic force could be applied to the screw until completion of orthodontic treatment, screw anchorage was recorded as successful. The total success rate of all miniscrews was 90.9 per cent (40/44). Orthodontic self-drilling miniscrew implants must be inserted carefully, particularly in the case of blind placement, since even guide tubes made on casts frequently require repositioning to avoid the roots of the teeth. The use of surgical guides, fabricated using CBCT images, appears to be a promising technique for placement of orthodontic self-drilling miniscrew implants adjacent to the dental roots and maxillary sinuses.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>34955641</t>
+          <t>23073811</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Early Improvement with Vortioxetine Predicts Response and Remission: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>Apical root resorption in maxillary incisors when employing micro-implant and J-hook headgear anchorage: a 4-month radiographic study.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Several weeks of treatment with an antidepressive agent may be required before efficacy is demonstrated in patients with major depressive disorder. This study investigated the predictive value of early partial improvement with vortioxetine for treatment response and remission. This was a post hoc analysis of an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent major depressive disorder and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. The key outcomes were the predictive value of early partial improvement (reduction in MADRS total score of ≥20% from baseline to week 2) with vortioxetine for MADRS response (≥50% decrease in score from baseline) and remission (decrease in score to ≤10) at week 8. Relevant data were available for 478 patients; 62/158 patients receiving placebo, 71/162 receiving vortioxetine 10 mg, and 66/158 receiving vortioxetine 20 mg were early improvers. Early improvers receiving vortioxetine (10 mg or 20 mg) were more likely than non-early improvers to achieve a week 8 response (71.2-73.2% vs 29.7-38.0%) or remission (50.7-51.5% vs 17.4-18.7%). Positive predictive values for response and remission with vortioxetine were ~70% and ~50%, respectively; negative predictive values were ~70% and ~80%, respectively. Improvement with vortioxetine may be predicted by early partial improvement in MADRS score. Some patients may benefit from longer-term treatment even without early improvement, another finding that may aid clinical decision-making. ClinicalTrials.gov registration for primary study: NCT02389816.</t>
+          <t>This study evaluated, over a 4-month study period, the amount of apical root resorption occurring in maxillary central incisors following their retraction when employing either micro-implant or J-hook headgear anchorage. The prospective randomised clinical trial was conducted in Orthodontic Clinic, College of Stomatology, China from 2008-2009. Subjects are patients requiring fixed appliances on waiting list (n=20). In female Han Chinese patients aged from 16-26 years, standardized periapical radiographs from 10 randomly assigned patients with maxillary protrusions comprising the micro-implant group, and from 10 similar patients comprising the J-hook headgear group, were assessed for maxillary central incisor apical root resorption. Measurements before and after orthodontic therapy were also obtained from lateral cephalometric radiographs to calculate incisor horizontal retraction and vertical intrusion distances. Estimated retraction force vectors were calculated in horizontal and vertical directions for both treatment groups. Data analysis employed t-tests and the Pearson correlation test, with α=0.05 for statistical significance. The results showed that when compared with the J-hook group, significantly more apical root resorption shortening of the maxillary central incisors was observed in the micro-implant group (1.27 mm difference, 95% CI=0.70-1.84, P&lt;0.001), which was associated with a significantly larger retraction distance (P=0.004) and a smaller vertical force component (P&lt;0.0001). We are led to conclude that continuous activation of the nickel-titanium coil springs used in the micro-implant group resulted in significantly more apical root resorption shortening and maxillary central incisor retraction than when intermittent J-hook retraction was employed. The employment of continuous duration orthodontic forces presents a risk for increased apical root resorption that requires careful radiographic monitoring.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>26316764</t>
+          <t>33289804</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Profile of vortioxetine in the treatment of major depressive disorder: an overview of the primary and secondary literature.</t>
+          <t>Class II subdivision with skeletal transverse maxillary deficit treated by single-sitting bone-borne appliance.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>This article reviews the pharmacological profile and available efficacy and tolerability/safety data for vortioxetine, one of the most recent antidepressant drugs to be approved in the USA for the treatment of major depressive disorder (MDD) in adults. The efficacy of vortioxetine for treating MDD in adults is supported by eight positive short-term (6- to 12-weeks) randomized, placebo-controlled trials, and one positive randomized, double-blind, 52-week relapse prevention trial. Based on pooled data from short-term randomized trials and from longer-term studies, vortioxetine appears to be well tolerated and to have a low incidence of adverse effects on sexual functioning. Vortioxetine also appears to be effective for treating symptoms of MDD in the elderly based on the results of one randomized trial for which recruitment was focused on this specific population. Nevertheless, effectiveness studies that directly compare the clinical effects of vortioxetine with other established antidepressant drugs are lacking, and there is no evidence as yet that vortioxetine is more clinically effective than other types of antidepressants. Some preliminary suggestions concerning the place of vortioxetine among the broad range of pharmacological treatments for adults with MDD are provided.</t>
+          <t>This case report describes orthodontic treatment including both skeletal maxillary expansion and unilateral distalization by means of a single bone-borne appliance followed by clear aligner therapy in a young adult patient. A surgical guide was digitally designed and three-dimensionally printed to facilitate the placement of four miniscrews in the palatal vault. The miniscrews were fitted and the bone-borne appliance was delivered in a single clinical appointment. The postexpansion photographic records and models demonstrate the opening of the palatal median suture, the pure skeletal expansion, and the resolution of the left crossbite after 40 activations. Specifically, left molar Class I was obtained in about 5 months without any loss of anterior anchorage, and the subsequent aligner phase achieved all of the objectives established in the treatment plan. This case report shows clearly how careful digital planning of miniscrew insertion and the delivery of a pure bone-borne appliance in a single sitting enabled good clinical outcomes to be achieved in an acceptable timeframe, without side effects, even in a young adult patient.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38420046</t>
+          <t>20869273</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Effect of Vortioxetine in Comparison to Fluoxetine on Metabolic Parameters in Patients With Depressive Disorder: A Randomized Controlled Trial.</t>
+          <t>Two-dimensional radiographic and clinical references of the tooth crown for orthodontic mini-implant insertion: a guide-free technique.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Background Major depressive disorder (MDD) is a debilitating mood disorder that increases the risk of metabolic syndrome (MS), emphasizing the need for mental and physical health treatments. Although many studies have linked atypical antipsychotics to metabolic disturbances, there is limited evidence linking selective serotonin reuptake inhibitor use to MS. This study aimed to assess the risk of MS among patients with MDD who were administered vortioxetine and fluoxetine. Methodology This was a prospective, open-label, randomized controlled trial conducted in the psychiatry department. Using computer-generated random numbers, the physician assigned fluoxetine 20 mg or vortioxetine 10 mg and recorded MS parameters at baseline and each visit (4, 8, 12, 16, 20, and 24 weeks). This study was registered with CTRI (CTRI/2021/07/034892). Results A total of 122 participants were allocated randomly to the following two groups: group A (n = 60) and group B (n = 62). An independent-sample t-test showed a significant improvement in fasting plasma glucose (FPG) at week eight (p = 0.005), triglycerides (TGs) at week 16 (p = 0.005), high-density lipoprotein (HDL) at week 20 (p = 0.005), and waist circumference at week 24 (p = 0.005) in group A compared to group B. However, systolic blood pressure (SBP) and diastolic blood pressure (DBP) were not significantly associated with either group (p = 0.126 and p = 0.793, respectively). Overall depression remission (Hamilton Depression Rating Scale (HAM-D)) and medication adherence rating scale scores were similar between groups (p = 0.337 and 0.325, respectively). Furthermore, most adverse drug reactions were possibly associated with the study drugs. Conclusions In comparison to group B, group A showed significant improvements in FPG, HDL, and waist circumference more effectively; however, both groups led to higher TG levels, with non-significant numerical improvements observed in SBP and DBP in both groups. In addition, both treatment groups reduced the HAM-D score and had a similar MDD remission rate.</t>
+          <t>This study evaluated the reliability of tooth-crown radiographic references to aid in orthodontic mini-implant insertion and showed an insertion technique based on these references. The sample consisted of 213 interradicular septa evaluated in 53 bitewing radiographs. The proximal contour of adjacent tooth crowns was used to define septum width and its midpoint was linked to the interdental contact point to determine septum midline (SML). The distances from SML to mesial and distal teeth were measured and compared to evaluate SML centralization degree in 2 different septum heights. The mesial and distal distances were not statistically different in the midpoint of the septum height, but they were different at the apical septum height. The tooth-crown radiographic references determine a high centralization degree of the SML on which an insertion site could be defined. The greater SML centralization degree was observed at the coronal septum area.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>29760763</t>
+          <t>36850161</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>An open-label, flexible dose adaptive study evaluating the efficacy of vortioxetine in subjects with panic disorder.</t>
+          <t>FEM Analysis of Individualized Polymeric 3D Printed Guide for Orthodontic Mini-Implant Insertion as Temporary Crown Support in the Anterior Maxillary Area.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Despite the current treatments available for panic disorder (PD), as many as one-third of patients have persistent and treatment-resistant panic attacks. Vortioxetine is an approved medicine for major depressive disorder and has been shown to have anxiolytic properties. The purpose of this study was to evaluate its efficacy and safety in an adult population with a diagnosis of PD. The study design was open label with flexible dose strategies (5, 10, or 20 mg) with a treatment period of 10 weeks. 27 male and female subjects aged between 18 and 60 years, who met DSM-IV criteria for PD with or without agoraphobia, or who had a Panic Disorder Severity Scale (PDSS) score &gt; 8 at baseline were enrolled. Statistical significance was established by the Student's &lt;i&gt;T&lt;/i&gt; test. A statistically significant decrease in the occurrence of panic attacks was measured with the PDSS with vortioxetine. In addition, a moderate improvement in the quality of life and no significant side effects were observed using the Quality-of-Life Scale and Monitoring of Side Effects Scale, respectively. These results provide some support for the use of vortioxetine in the management of panic disorder.&lt;i&gt;Trial registration&lt;/i&gt; ClinicalTrials.gov ID#: NCT02395510. Registered March 23, 2015, https://clinicaltrials.gov/ct2/show/NCT02395510.</t>
+          <t>Either due to trauma, extraction or congenital factors, the absence of teeth has aesthetic, functional, financial and psychological consequences. The aim of the current study is to assess an individualized polymeric 3D printed digitally planned surgical guide designed to achieve precision and predictability in non-standard mini-implant orthodontic cases. Twenty-seven patient records with missing anterior teeth were selected from the database of a private clinic in Timisoara, Romania. Based on the analysis of the cases included in the research, a surgical guide for the insertion of mini-implants as provisional crown support was designed. An FEM simulation was performed using the Abaqus numerical analysis software. Finite element simulation revealed the maximum displacements and stresses that occur in the surgical guide. Mini-implant supported provisional crowns can be a simple and low-cost method to increase patient self-esteem and compliance with the orthodontic treatment. Computer aided mechanical simulation is a useful tool in analyzing different polymeric surgical guide designs before being used in clinical situations in order to avoid failure.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>26035186</t>
+          <t>17561052</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of 2 doses of vortioxetine in adults with major depressive disorder.</t>
+          <t>Sagittal and vertical load-deflection and permanent deformation of transpalatal arches connected with palatal implants: an in-vitro study.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>This 8-week, randomized, double-blind, placebo-controlled study, conducted August 2010-May 2012 in the United States, evaluated the safety and efficacy of vortioxetine 10 mg and 15 mg in patients with major depressive disorder (MDD). The mechanism of action of vortioxetine is thought to be related to direct modulation of serotonin (5-HT) receptor activity and inhibition of the serotonin transporter. Adults aged 18-75 years with MDD (DSM-IV-TR) and Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥ 26 were randomized (1:1:1) to receive vortioxetine 10 mg or 15 mg or placebo once daily, with the primary efficacy end point being change from baseline at week 8 in MADRS analyzed by mixed model for repeated measures. Adverse events were recorded during the study, suicidal ideation and behavior were assessed using the Columbia-Suicide Severity Rating Scale (C-SSRS), and sexual dysfunction was assessed using the Arizona Sexual Experience (ASEX) scale. Of the 1,111 subjects screened, 469 subjects were randomized: 160 to placebo, 157 to vortioxetine 10 mg, and 152 to vortioxetine 15 mg. Differences from placebo in the primary efficacy end point were not statistically significant for vortioxetine 10 mg or vortioxetine 15 mg. Nausea, headache, dry mouth, constipation, diarrhea, vomiting, dizziness, and flatulence were reported in ≥ 5% of subjects receiving vortioxetine. Discontinuation due to adverse events occurred in 7 subjects (4.4%) in the placebo group, 8 (5.2%) in the vortioxetine 10 mg group, and 12 (7.9%) in the vortioxetine 15 mg group. ASEX total scores were similar across groups. There were no clinically significant trends within or between treatment groups on the C-SSRS, laboratory values, electrocardiogram, or vital sign parameters. In this study, vortioxetine did not differ significantly from placebo on MADRS total score after 8 weeks of treatment in MDD subjects. ClinicalTrials.gov identifier: NCT01179516.</t>
+          <t>The purposes of this laboratory investigation were to (1) measure the sagittal and vertical deflection of loaded transpalatal arches (TPAs) connected to a palatal implant, (2) measure the extent of permanent deformation of the connecting TPA in the sagittal and vertical directions, (3) test various wire dimensions in terms of deflection behavior, and (4) evaluate soldering vs laser welding vs adhesive bonding of TPAs in terms of load deflection behavior. Stainless steel wires of 6 dimensions were tested: 0.8 x 0.8, 0.9, 1, 1.1, 1.2, and 1.2 x 1.2 mm. For each dimension, 10 specimens were soldered to the palatal implant abutment, 10 were laser welded, and 10 were adhesively bonded to the implant abutment (total, 180 specimens). The measuring device applied increments of force of 50 cN, from 0 to 500 cN. Then the specimens were unloaded. The values were statistically described and analyzed with ANOVA and Wilcoxon rank sum tests. Absolute orthodontic anchorage without deformation of TPAs was not observed with the wire dimensions tested. To prevent loss of anchorage greater than 370 mum (sagittal deflection of 1.2 x 1.2 mm adhesively bonded TPA at 500 cN force level), wires thicker than 1.2 x 1.2 mm or cast anchorage elements must be considered for clinical practice. However, larger cross sections might cause more patient discomfort, and laboratory procedures increase costs.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25075188</t>
+          <t>20685519</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pharmacology and clinical potential of vortioxetine in the treatment of major depressive disorder.</t>
+          <t>Accuracy of surgical positioning of orthodontic miniscrews with a computer-aided design and manufacturing template.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VORTIOXETINE IS A NEW MULTIMODAL ACTION ANTIDEPRESSANT WITH TWO TYPES OF ACTION: serotonin transporter (SERT) blockade and a strong affinity for several serotoninergic receptors. It is an antagonist of the 5-HT3 and 5-HT7 receptors, a partial agonist of 5-HT1B, and an agonist of 5-HT1A. Its combined action on SERT and four subtypes of serotoninergic receptors increases the extracellular concentration of serotonin, dopamine, and noradrenaline. Twelve clinical trials have been carried out, nine of which had positive results versus placebo. When active comparators were included in the study design, no significant differences were found except in one study in which the efficacy of vortioxetine was superior to the comparator (agomelatine) in depression resistant to selective serotonin reuptake inhibitors (SSRI)/serotonin-norepinephrine reuptake inhibitors (SNRI) treatment. Tolerability studies indicate that the drug does not cause any important problems on blood tests, vital signs, or on electrocardiography. The lack of weight gain and induction of metabolic syndrome and the lack of significant changes in the QTc are especially important. The incidence rate of sexual dysfunction is low and similar to placebo in various trials. Similarly, cognitive function remains intact with vortioxetine.</t>
+          <t>Our objective was to enable accurate miniscrew placement after preoperative simulation. We developed a new template for miniscrew placement and evaluated its accuracy. Eleven patients who had bimaxillary protrusion were scanned with computed tomography. The 3-dimensional computed tomography data were used to produce, with stereolithography apparatus, a template for accurate miniscrew placement. The interradicular space available for miniscrew placement was calculated in the 3-dimensional images. Postoperative computed tomography images were matched with preoperative images to calculate the deviations between the planned and actual placements. The distance for placement of a miniscrew between 2 roots was 4.12 mm (SD, 0.25 mm; range, 3.7-4.5 mm). The placed miniscrews showed an average angular deviation of 1.2 degrees (SD, 0.43 degrees ; range, 0.6 degrees -2.41 degrees ) compared with the plan, whereas the mean linear distomesial deviation was 0.42 mm (SD, 0.13 mm; range, 0.15-0.6 mm) at the tip. The proposed template has high accuracy and will be especially useful for patients who require precise miniscrew placement.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27143896</t>
+          <t>36508850</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The efficacy and safety of multiple doses of vortioxetine for generalized anxiety disorder: a meta-analysis.</t>
+          <t>Rate of upper incisor retraction in Class II division 1 patients managed with palatal versus buccal miniscrew supported segmental orthodontics: Randomized parallel clinical trial.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vortioxetine is a novel antidepressant approved for the treatment of major depressive disorder by the US Food and Drug Administration in September 2013. This meta-analysis assessed the efficacy and safety of different doses of vortioxetine for generalized anxiety disorder of adults. PubMed, Cochrane Library, PsycINFO, and Clinical Trials databases were searched from 2000 through 2015. The abstracts of the annual meetings of the American Psychiatric Association and previous reviews were searched to identify additional studies. The search was limited to individual randomized controlled trials (RCTs), and there was no language restriction. Four RCTs met the selection criteria. These studies included 1,843 adult patients. Results were expressed as odds ratios (ORs) and 95% confidence intervals (CIs). The data were pooled with a random-effects or fixed-effects model. The results showed that multiple doses (2.5, 5, and 10 mg/d) of vortioxetine did not significantly improve the generalized anxiety disorder symptoms compared to placebo (OR=1.16, 95% CI=0.84-1.60, Z=0.89, P=0.38; OR=1.41, 95% CI=0.82-2.41, Z=1.25, P=0.21; OR=1.05, 95% CI=0.76-1.46, Z=0.32, P=0.75, respectively). We measured the efficacy of 2.5 mg/d vortioxetine compared to 10 mg/d, and no significant differences were observed. The common adverse effects included nausea and headache. With increased dose, nausea was found to be more frequent in the vortioxetine (5 and 10 mg/d) group (OR=2.99, 95% CI=1.31-6.84, Z=2.60, P=0.009; OR=2.80, 95% CI=1.85-4.25, Z=4.85, P&lt;0.00001, respectively), but no significant differences were observed for headache. The results showed no significant improvement in the treatment of generalized anxiety disorder for vortioxetine compared to placebo, and nausea was more frequent with higher doses. So the current evidences do not support using vortioxetine for the treatment of generalized anxiety disorder. Few RCTs were included in our meta-analysis, and more studies are needed to verify our results in the future.</t>
+          <t>This study was conducted to compare maxillary incisor retraction rates using buccal orthodontics with segmented arch approach supported by a buccal or palatal mini-screw in non-growing Class II Division 1 patients during a 3-month period. All patients between September 2018 and December 2021 with following criteria were included: non-growing class II division 1 protrusion, indication for premolar extraction, no or little crowding, normal overbite, no previous orthodontic treatment, no systematic disease, good oral hygiene, no periodontal problems or oral habits. Mini-implant was inserted buccally or palatally between upper second premolar and first molar bilaterally. Incisor retraction was manipulated by a 200-gram force through a nickel-titanium closed-coil spring extended from the mini-implant to the segmental design. Study casts were made before retraction and after every 4 weeks (T0: baseline, T1: 4 weeks, T2, 8 weeks, T3: 12 weeks). A repeated measures ANOVA was performed for total comparison of data (mm of retraction) on 3D casts. A pairwise t test with Bonferroni correction was used for comparison between two experimental periods for the same group. An independent samples t-test was also used for comparison between two groups for the same experimental period. Of 30 patients meeting the eligibility criteria, only 28 were included with mean age 16±2.5 years. Repeated measures ANOVA revealed significant differences in incisor retraction between the time intervals for both buccal and palatal groups (P=0.001). In addition, the paired-sample t test indicated a significant difference between each time interval for both the buccal and palatal groups (P=0.001), except between T3 and T2 for the palatal group (P=0.09). The independent sample t-test revealed significant differences between the buccal and palatal groups at T1 (Mean: 0.55 [0.355-0.748],=0.001) and T2 (Mean: 1.4 [0.91-1.88], P=0.001); whereas no significant difference was found at T3 (Mean: 1.15 [0.67-1.63], P=0.945). Anterior retraction using a segmental palatal model with mini-screws was effective regardless of the buccal or palatal situation of the minivis. Retraction of incisors with palatal miniscrews was significantly faster in the first two months.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35500900</t>
+          <t>36774459</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acute Efficacy and Safety of Escitalopram Versus Desvenlafaxine and Vortioxetine in the Treatment of Depression With Cognitive Complaint: A Rater-Blinded Randomized Comparative Study.</t>
+          <t>Effect of the computer-aided static navigation technique on the accuracy of bicortical mini-implants placement site for maxillary skeletal expansion appliances: an in vitro study.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>This study aimed to compare the efficacy and safety of escitalopram, vortioxetine, and desvenlafaxine for acute treatment of major depressive disorder (MDD) with cognitive complaint (CC). A total of 129 patients with MDD who also complained of CC were randomized evenly to either escitalopram, vortioxetine, or desvenlafaxine group and underwent a multi-center, six-week, rater-blinded, and head-to-head comparative trial. Differences in depressive symptoms following treatment were measured using the Hamilton Depression Rating Scale (HAMD) and the Montgomery-Åsberg Depression Rating Scale (MADRS). Subjective cognitive function and the presence of adverse events were assessed. The three antidepressant treatment groups did not show significant differences in the improvement of depressive symptoms as measured by HAMD and MADRS. Desvenlafaxine treatment was associated with a superior treatment response rate in depressive symptoms compared to vortioxetine or escitalopram treatment. However, no significant differences were found in the remission rate of depressive symptoms. The three antidepressant treatment groups did not show significant differences in the improvement of CC. Adverse profiles of each treatment group were tolerable, with no significant differences. In acute antidepressant treatment for MDD with CC, escitalopram, vortioxetine, and desvenlafaxine presented similar efficacy in relief of depressive symptoms; however, desvenlafaxine was associated with a superior treatment. Further studies are needed to confirm these results by investigating the therapeutic efficacy and safety profile of long-term antidepressant treatment of MDD with CC (Clinical Trial Registry, http://cris.nih.go.kr/cris/en/: KCT0002173).</t>
+          <t>The objective of the present study was to evaluate and compare the effect of the computer-aided static navigation technique on the accuracy of the maxillary skeletal expansion (MSE) appliances. Forty orthodontic self-drilling mini-implants were placed in ten anatomically based standardized polyurethane models of a completely edentulous upper maxilla, manufactured using a 3D impression procedure. The four orthodontic self-drilling mini-implants for anchoring the MSE appliance were digitally planned on 3D planning software, based on preoperative cone-beam computed tomography (CBCT) scan and a 3D extraoral surface scan. Afterwards, the surgical templates were virtually planned and manufactured using stereolithography. Subsequently, the orthodontic self-drilling mini-implants were placed an postoperative CBCT scans were performed. Finally, coronal entry-point, apical end-point and angular deviations were calculated using a t-test for independent samples or a non-parametric Signed Rank test. Statistically significant differences were not shown at coronal entry-point (p = 0.13), apical end-point (p = 0.41) and angular deviations (p = 0.27) between the planned and performed orthodontic self-drilling mini-implants. Computer-aided static navigation technique enables accurate orthodontic mini-implant placement for the MSE appliances.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>36561896</t>
+          <t>34187487</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Treatment-Resistant Bipolar Depression: Therapeutic Trends, Challenges and Future Directions.</t>
+          <t>Class II correction by maxillary en masse distalization using a completely customized lingual appliance and a novel mini-screw anchorage concept - preliminary results.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bipolar disorder (BD) is a chronic mental illness impacting 1-2% of the population worldwide and causing high rates of functional impairment. Patients with BD spend most of their time in depressive episodes and up to one-third of patients do not respond to adequate doses of medications. Although no consensus exists for definition of treatment-resistant bipolar depression (TRBD), failure of symptoms improvement despite an adequate trial of two therapeutic agents is a common theme of TRBD. In this paper, we review the evidence base of therapeutic interventions, challenges, and potential future directions for TRBD. We conducted a literature search for randomized controlled trials on PubMed for the treatment of TRBD and ongoing trials for the treatment of TRBD/bipolar depression on clinicaltrials.gov. Several therapeutic agents have been investigated for TRBD. Adjunctive pramipexole and modafinil have data supporting short-term efficacy in TRBD, along with limited data for racemic intravenous ketamine. Celecoxib augmentation of escitalopram and treatment with metformin in patients with insulin resistance showed promising results. Right unilateral electroconvulsive therapy displayed statistically significant response rate and improvement, but not remission compared to pharmacotherapy. Trials for transcranial magnetic stimulation (TMS) have failed to show a significant difference from sham treatment in TRBD. Pharmacological treatments with novel mechanisms of actions like brexpiprazole and vortioxetine are being investigated following successes in unipolar depression. Modified TMS protocols such as accelerated TMS are under investigation. Innovative approaches like psychedelic-assisted psychotherapy, interleukin-2, fecal microbiota transplantation and multipotent stromal cells are being studied. Evidence on current treatment modalities for TRBD is limited with low efficacy. More research is needed for successful treatment of TRBD. Effective therapies and innovative approaches to treatment are being investigated and could show promise.</t>
+          <t>The aim of the study was to evaluate the efficacy of a novel en masse distalization method in the maxillary arch in combination with a completely customized lingual appliance (CCLA; WIN, DW Lingual Systems, Germany). Therefore, we tested the null-hypothesis of a significant deviation from an Angle-Class I canine relationship and a normal overjet defined by an individual target set-up after dentoalveolar compensation in Angle Class II subjects. This retrospective study included 23 patients, (m/f 3/20, mean age 29.6 years (min/max, 13.6/50.9 years)), with inclusion criteria of an Angle Class II occlusion of more than half a cusp prior to en masse distalization and treatment completed consecutively with a CCLA in combination with a mini-screw (MS) anchorage for uni- or bilateral maxillary distalization (12 bilateral situations, totalling 35). Plaster casts taken prior to (T0) and following CCLA treatment (T3) were compared with the treatment plan / set-up (TxP, with a Class I canine relationship and a normal overjet as the treatment objective). MSs were placed following levelling and aligning (T1) and removed at the end of en masse distalization at T2. Statistical analysis was carried out using Schuirmann's TOST [two one-sided tests] equivalence test, based on a one-sample t-test with α = 0.025 on each side (total α = 0.05). Ninety-seven percent of planned correction of the canine relationship was achieved (mean 3.6 of 3.7 mm) and also 97 % of the planned overjet correction (mean 3.1 of 3.2 mm), with a statistically significant equivalence (p &lt; 0.0001) for canine relationship and overjet between the individual treatment plan (set-up) and the final outcome. Adverse effects were limited to the loss of n = 2 of 35 mini-screws. However, in each instance, the treatment was completed, as scheduled, without replacing them. Accordingly, the null-hypothesis was rejected. The technique presented allows for a predictable correction of an Angle-Class II malocclusion via dentoalveolar compensation with maxillary en masse distalization.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>34025474</t>
+          <t>18332756</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gut Microbiota Changes in Patients With Major Depressive Disorder Treated With Vortioxetine.</t>
+          <t>Minor tooth movements using microimplant anchorage: case reports.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Vortioxetine hydrobromide is a common clinical medication for major depressive disorder (MDD). However, it remains unclear whether vortioxetine hydrobromide acts by affecting the structure and composition of gut microbiota. Here, we analyzed fecal samples from 28 healthy controls (HCs) and 26 patients with MDD before treatment with vortioxetine hydrobromide, at 4 weeks after treatment, and at 8 weeks after treatment. High-throughput pyrosequencing showed that, according to the Chao1 and Shannon indices, fecal bacterial α-diversity was higher in the patients with MDD than in the HCs (&lt;i&gt;p&lt;/i&gt; &lt; 0.05), but no significant differences were observed after vortioxetine hydrobromide treatment (&lt;i&gt;p&lt;/i&gt; &gt; 0.05). PCoA results revealed that the gut microbiota composition was significantly different between the MDD groups and HCs. Proteobacteria and Actinobacteria were strongly increased, whereas Firmicutes were significantly reduced in the MDD group compared with the HCs. After treatment with vortioxetine hydrobromide, Firmicutes were significantly increased, and the proportion of Bacteroidetes decreased. Most notably, &lt;i&gt;Lachnospira, Roseburia&lt;/i&gt;, and &lt;i&gt;Faecalibacterium&lt;/i&gt; were negatively correlated with the severity of depressive symptoms. Taken together, our data indicate changes in the fecal microbiota composition in MDD patients compared with HCs, and vortioxetine hydrobromide may treat MDD through regulation of the gut microflora.</t>
+          <t>For the treatment of extruded or tipped molars, various conventional techniques have been used. But those methods may lead to undesirable movement of the anchorage units and lengthen treatment time because of limited tooth-borne anchorage potential. Introduction of microimplants as orthodontic anchorage has expanded treatment possibilities because of their advantages. Some advantages are a less complex surgical procedure, decrease in cost, immediate loading, and their ability to be placed in any area of the alveolar bone. This article will illustrate clinical experiences in patients who were treated with the intrusion of overerupted molars, the up-righting of tilted molars, and other clinical applications for minor tooth movements. Anchorage control was achieved with the surgical insertion of titanium microimplants for immediate loading in the alveolar bone. When needed, minimal fixed appliances were used and orthodontic treatment was completed without any other complications.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24787143</t>
+          <t>21484546</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of vortioxetine on cognitive function in depressed adults.</t>
+          <t>Orthodontic space closure after first molar extraction without skeletal anchorage.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>The efficacy of vortioxetine 10 and 20 mg/d vs. placebo on cognitive function and depression in adults with recurrent moderate-to-severe major depressive disorder (MDD) was evaluated. Patients (18-65 yr, N = 602) were randomized (1:1:1) to vortioxetine 10 or 20 mg/d or placebo for 8 wk in a double-blind multi-national study. Cognitive function was assessed with objective neuropsychological tests of executive function, processing speed, attention and learning and memory, and a subjective cognitive measure. The primary outcome measure was change from baseline to week 8 in a composite z-score comprising the Digit Symbol Substitution Test (DSST) and Rey Auditory Verbal Learning Test (RAVLT) scores. Depressive symptoms were assessed using the Montgomery-Åsberg Depression Rating Scale (MADRS). In the pre-defined primary efficacy analysis, both doses of vortioxetine were significantly better than placebo, with mean treatment differences vs. placebo of 0.36 (vortioxetine 10 mg, p &lt; 0.0001) and 0.33 (vortioxetine 20 mg, p &lt; 0.0001) on the composite cognition score. Significant improvement vs. placebo was observed for vortioxetine on most of the secondary objectives and subjective patient-reported cognitive measures. The differences to placebo in the MADRS total score at week 8 were -4.7 (10 mg: p &lt; 0.0001) and -6.7 (20 mg: p &lt; 0.0001). Path and subgroup analyses indicate that the beneficial effect of vortioxetine on cognition is largely a direct treatment effect. No safety concern emerged with vortioxetine. Vortioxetine significantly improved objective and subjective measures of cognitive function in adults with recurrent MDD and these effects were largely independent of its effect on improving depressive symptoms.</t>
+          <t>The aim of the study was an analysis of effects and side-effects during mesialization of second molars after extraction of the first permanent molars using the anterior dentition/premolars (PM) as an anchorage unit. A total of 35 patients were examined retrospectively who had undergone unilateral or bilateral first permanent molar extraction in the upper or lower arch due to carious lesions. Space closure was carried out in all cases through mesialization of the second molar using an elastic chain fixed to an edgewise stainless steel archwire and tying the anterior dentition/PM together with a continuous laceback ligature. Tooth movement was assessed from lateral cephalograms, orthopantomograms (OPGs) and images of the patient's study casts taken before and after the end of therapy. Space closure after first molar extractions by mesialization of the second molars without skeletal anchorage was largely achieved by bodily forward movement of the teeth, including a small tipping component or tooth-uprighting component when molars were already mesially inclined. Unilateral and bilateral mesialization of the second molars led to retrusion in the maxilla and mandible [(∆incl.=-3.6° (max., bil.), ∆incl.=-4.2° (mand., bil.)] and to translational retraction [(∆s=-2.3 mm (max., bil.), ∆s=-1.6 mm (mand., bil.)] of the incisors. Examination of the soft tissues revealed an increased posterior displacement of the upper and lower lips to the esthetic line [(∆s=-2.8 mm (max. bil.), ∆s=-2.2 mm (mand., bil.)]. In cases of unilateral mesialization less than 50% of the patients had a slight midline deviation in the mandible towards the extraction side. Side effects during mesialization of the second molars without skeletal anchorage in the anterior dentition/PM were observed primarily affecting the incisors integrated into the anterior anchorage unit. These side-effects resulted in posterior displacement of the soft tissues, including a change in profile. This must be taken into consideration when taking this therapeutic approach.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24257717</t>
+          <t>20072753</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Efficacy and safety of vortioxetine (Lu AA21004), 15 and 20 mg/day: a randomized, double-blind, placebo-controlled, duloxetine-referenced study in the acute treatment of adult patients with major depressive disorder.</t>
+          <t>Treatment of a periodontally compromised patient with mini-implant anchorage.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>This study assessed the efficacy, tolerability and safety of vortioxetine versus placebo in adults with recurrent major depressive disorder. This double-blind, randomized, placebo-controlled study included 608 patients [Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 26 and Clinical Global Impression - Severity score ≥ 4]. Patients were randomly assigned (1 : 1 : 1 : 1) to vortioxetine 15 mg/day, vortioxetine 20 mg/day, duloxetine 60 mg/day or placebo. The primary efficacy endpoint was change from baseline in MADRS total score at week 8 (mixed model for repeated measurements). Key secondary endpoints were: MADRS responders; Clinical Global Impression - Improvement scale score; MADRS total score in patients with baseline Hamilton Anxiety Rating Scale ≥ 20; remission (MADRS ≤ 10); and Sheehan Disability Scale total score at week 8. On the primary efficacy endpoint, both vortioxetine doses were statistically significantly superior to placebo, with a mean difference to placebo (n = 158) of -5.5 (vortioxetine 15 mg, P &lt; 0.0001, n = 149) and -7.1 MADRS points (vortioxetine 20 mg, P &lt; 0.0001, n = 151). Duloxetine (n = 146) separated from placebo, thus validating the study. In all key secondary analyses, both vortioxetine doses were statistically significantly superior to placebo. Vortioxetine treatment was well tolerated; common adverse events (incidence ≥ 5%) were nausea, headache, diarrhea, dry mouth and dizziness. No clinically relevant changes were seen in clinical safety laboratory values, weight, ECG or vital signs parameters. Vortioxetine was efficacious and well tolerated in the treatment of patients with major depressive disorder.</t>
+          <t>Advanced periodontal disease and its sequelae are characterized by severe attachment loss, tooth mobility, and migration. This pathology often leads to compromised function and esthetics. A multidisciplinary approach combining orthodontic, periodontic, and restorative treatment is necessary to provide complete rehabilitation both in terms of function and esthetics with a satisfactory long-term prognosis. A simple and effective treatment of an adult patient with periodontally migrated teeth using mini-implants in the maxilla and mandible is described. Mini-implant placement was aided by a 3D surgical guide, which made the procedure exceedingly safe. Gradual intrusion of the maxillary and mandibular anterior teeth was achieved with a relatively simple orthodontic force system. A significant profile improvement was observed during the 18 months of treatment due to the retraction and intrusion of the incisors in both arches. This intrusion was accomplished without any sign of apical root resorption. The mandibular incisors were uprighted 6.5 degrees, and their maxillary counterparts were uprighted 13.4 degrees. The 2-year follow-up examination revealed a stable result with an increase in periodontal attachment as well as esthetics and function. A combined orthodontic, periodontic, and restorative treatment approach with adequate patient motivation can lead to improved masticatory function, esthetics, and periodontal conditions.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29331703</t>
+          <t>38303815</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The effects of vortioxetine on cognitive performance in working patients with major depressive disorder: A short-term, randomized, double-blind, exploratory study.</t>
+          <t>Effects of an augmented reality aided system on the placement precision of orthodontic miniscrews: A pilot study.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Major Depressive Disorder (MDD) is a complex disease characterized by emotional, physical and cognitive symptoms. We explored the efficacy of vortioxetine versus placebo on outcomes of cognition, functioning and mood symptoms in working patients with depression, using paroxetine as an active reference. Gainfully employed patients (18-65 years, N = 152) with MDD were randomized 1:1:1 to 8 weeks' double-blind, parallel treatment either with vortioxetine (10mg/day) or paroxetine (20mg/day), or with placebo. The primary efficacy measure was the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the key secondary efficacy measure was the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward). At week 8, DSST and UPSA-B performance had improved relative to baseline in all treatment groups, with no statistically significant differences between treatment groups. While improvements in mood were comparable for vortioxetine and paroxetine, numerical improvements in cognitive performance (DSST) were larger with vortioxetine. Vortioxetine significantly improved overall cognitive performance and clinician-rated functioning relative to placebo. The majority of adverse events were mild or moderate, with nausea being the most common adverse event for vortioxetine. Small sample sizes implied limited statistical power. This explorative study showed no significant differences versus placebo in DSST or UPSA-B performance at week 8. However, secondary results support vortioxetine as an effective and well-tolerated antidepressant, supporting an added benefit for cognition and functioning, which could have particular therapeutic relevance for the working patient population.</t>
+          <t>Augmented reality (AR) is gaining popularity in medical applications, which may aid clinicians in achieving improved clinical outcomes. The purpose of this study was to determine the positional and angle errors of orthodontic miniscrew placement by using a self-developed AR aided system. Cone beam computed tomography (CBCT) and patient printed models were used in in vitro experiments. The participants were divided into a control group and an AR group, in which traditional orthodontic methods and the AR-aided system were used respectively. After the information obtained from the CBCT images and navigation system was combined on the display device, the AR-aided system indicated the planned miniscrew position to guide the clinicians during the placement of miniscrews. Both methods were compared by a senior and a junior dentist, and the position and angle of miniscrew placement were statistically analyzed using Wilcoxon's signed-rank and Mann-Whitney U tests. When the AR-aided system was used, the accuracy of miniscrew placement in the mesiodistal position considerably increased (83%) when the procedure was performed by a senior clinician. In addition, the accuracy of miniscrew placement in the mesiodistal position and the angle of miniscrew placement considerably increased by approximately 67% and 72%, respectively, when the procedure was performed by a junior clinician. The position error of miniscrew placement was smaller for the junior clinician when the AR-aided system was used than for the senior clinician. The AR-aided system improved the accuracy of miniscrew placement regardless of the clinician's level of experience.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34992372</t>
+          <t>30673806</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Therapeutic Potential of Vortioxetine for Anxious Depression: A Post Hoc Analysis of Data from a Clinical Trial Conducted in Japan.</t>
+          <t>Scanning electron microscopy analysis of aligner fitting on anchorage attachments.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Antidepressants, including selective serotonin reuptake inhibitors, often elicit a poor response in patients with major depressive disorder (MDD) with significant anxiety symptoms. This study investigated the effects of the multimodal antidepressant vortioxetine in patients with MDD and associated anxiety. This was a post hoc analysis of data from an 8-week, randomized, double-blind, placebo-controlled, Phase 3 study of vortioxetine (10 mg or 20 mg) in Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score of at least 26. Changes from baseline to week 8 in MADRS total score and Hamilton Depression Rating Scale (HAM-D) anxiety/somatization factor score were assessed in patients with anxious depression (HAM-D anxiety/somatization factor score ≥7) and without anxious depression. Data were available for 489 patients. In patients with anxious depression, the least-squares (LS) mean difference (95% confidence interval [CI]) versus placebo in change in MADRS total score was -3.44 (-6.10, -0.77) for vortioxetine 10 mg and -4.51 (-7.15, -1.87) for vortioxetine 20 mg. In patients with non-anxious depression, the LS mean difference (95% CI) versus placebo was -1.81 (-4.71, 1.09) and -1.05 (-4.00, 1.90) for vortioxetine 10 mg and 20 mg, respectively. Changes from baseline in HAM-D anxiety/somatization factor score were greater in patients treated with vortioxetine 10 mg or 20 mg than in those treated with placebo. Vortioxetine may be effective for patients with anxiety symptoms in MDD. Further research is warranted to investigate these effects in a real-world clinical setting. ClinicalTrials.gov identifier for primary study: NCT02389816.</t>
+          <t>The aims of the study were (1) to evaluate the fitting of three different aligners (Invisalign [Align Technology, Santa Clara, CA, USA], CA Clear Aligner [Scheu-Dental, Iserlohn, Germany] and F22 [Sweden&amp;Martina, Due Carrare, Italy]) on anchorage attachments using scanning electron microscopy (SEM), and (2) to analyze the influence of 2 different types of resin used to build attachments on aligner fitting. Using STL files of a patient, six resin casts were obtained and rectangular attachments were bonded on them. Conventional bulk-fill resin was used to build upper attachments while a flowable resin was used to build the lower ones. Passive aligners were adapted on each cast and then sectioned buccolingually. Microphotographs of the obtained sections were performed using a SEM and then micrometric measurements of aligner fitting on anchorage attachments were recorded. Analyzing the overall fitting of upper arch aligners, Invisalign provided a significantly better fitting with respect to F22 (P = 0.009); differences were not significant when comparing Invisalign with CA Clear Aligner, and CA Clear Aligner with F22. Analyzing the overall fitting of lower arch aligners, F22 provided a significantly better fitting with respect to CA Clear Aligner (P = 0.008) and Invisalign (P = 0.011). The analysis showed a significantly better fitting on upper attachments, built using conventional bulk-fill resin (P = 0.034). Invisalign, CA Clear Aligner and F22 have comparable performance in terms of fitting on anchorage attachments. Conventional bulk-fill resin provides the best fitting on anchorage attachments.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>36700320</t>
+          <t>37152501</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Escitalopram, Desvenlafaxine, and Vortioxetine in the Acute Treatment of Anxious Depression: A Randomized Rater-blinded 6-week Clinical Trial.</t>
+          <t>Is the computed tomography exam important for planning mini-implant installation?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Anxious depression is associated with greater chronicity, higher severity of symptoms, more severe functional impairment, and poor response to drug treatment. However, evidence for first-choice antidepressants in patients with anxious depression is limited. This study aimed to compare the efficacy and safety of escitalopram, desvenlafaxine, and vortioxetine in the acute treatment of anxious depression. Patients (n = 124) with major depressive disorder and high levels of anxiety were randomly assigned to an escitalopram treatment group (n = 42), desvenlafaxine treatment group (n = 40), or vortioxetine treatment group (n = 42) in a 6-week randomized rater-blinded head-to-head comparative trial. Changes in overall depressive and anxiety symptoms were assessed using the 17-item Hamilton Depression Rating Scale (HAMD) and Hamilton Anxiety Rating Scale (HAMA), respectively. Patients demonstrated similar baseline-to-endpoint improvement in scores and similar response and remission rates for HAMD and HAMA. Analysis of the individual HAMD items revealed that desvenlafaxine significantly reduced anxiety somatic scores (&lt;i&gt;p&lt;/i&gt; = 0.013) and hypochondriasis scores (&lt;i&gt;p&lt;/i&gt; = 0.014) compared to escitalopram. With respect to the individual HAMA items, desvenlafaxine treatment showed significantly lower scores for respiratory symptoms (&lt;i&gt;p&lt;/i&gt; = 0.013) than escitalopram treatment and cardiovascular symptoms (&lt;i&gt;p&lt;/i&gt; = 0.005) than vortioxetine treatment. The treatments were well tolerated, with no significant differences. Our results indicated no significant differences in the efficacy and tolerability of escitalopram, desvenlafaxine, and vortioxetine in this subtype of patients with anxious depression during the acute phase of treatment.</t>
+          <t>Mini-implants are devices used to provide absolute and temporary anchorage for tooth movement. Objectives: The present study was carried out to compare the use of periapical radiographs and computed tomography (CT) for planning mini-implants performed by orthodontists. Five radiographs and five CT scans of premolars and molars regions. These were analyzed by ten Orthodontists. Initially (T1), the evaluators indicated the preferred location for the insertion of a mini-implant, as well as the diameter and length of the device, using only a periapical radiograph. After 30 days (T2), the same evaluation was performed. Sixty days later (T3), the orthodontists reassessed the radiographs in association with the CT scans. Finally, after 90 days (T4), the evaluation was performed with the same exams. The comparison of the chosen diameter and length of the mini-implants was performed using the Student's t-test. The evaluation of the chosen insertion sites was analyzed by the Wilcoxon test. For both tests, the level of significance was 5%. The kappa concordance test was also performed for the intra- and inter-examiner evaluations. The results of the study showed substantial or perfect intra-examiner and reasonable to perfect inter-examiner agreement. Considering the length and diameter of the mini-implants, no statistical difference was found between the groups. Regarding the insertion site, more than 20% of the treatment plans were changed when the CT scan was associated. The results showed that the association of a CT scan with radiography frequently leads the professional to change the insertion point for the installation of mini-implants. &lt;b&gt;Key words:&lt;/b&gt;Orthodontic anchorage procedures. Mini Dental Implants. Bone Screws. Cone-beam computed tomography. Periapical radiography.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32677291</t>
+          <t>18193965</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Editorial Perspective: Antidepressants and the depressed adolescent.</t>
+          <t>Skeletal Class lll severe openbite treatment using implant anchorage.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A paper considering the role of antidepressants for adults with major depression was recently published in the Lancet, a world leading medical journal (Cipriani et al. 2018). The review was the largest ever on this topic based on 28,552 citations including 522 trials comprising 116,477 participants. The authors note that, in adults with major depression, all antidepressants were more efficacious than placebo. In head-to-head studies, the authors also note that agomelatine, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine, and vortioxetine were more effective than other antidepressants whereas fluoxetine, fluvoxamine, reboxetine, and trazodone were the least efficacious. The authors report that the standardised mean difference was 0.3 a moderate effect size for any antidepressant over placebo, this is confirmatory of past reviews noting rather similar magnitudes of effect. In clinical terms the results suggest a choice for practitioners in regard to their individual patients. For many adult depressed patients however, there is also the implication that antidepressants may not work. The old adage 'what works for whom' remains unanswered. What does seem reasonable to conclude is that we have learnt that these medications are clinically effective and the questions for research now must be who is likely to benefit and who is not, how do these medicines work, and what is the best long-term management of responders as the majority of studies have focused on acute response only.</t>
+          <t>A female patient with a skeletal Class III severe anterior openbite was treated using miniplates as the anchorage. The patient was 15 years and 10 months of age when she reported to our university hospital with a chief complaint of anterior openbite and reversed occlusion. The patient had an anterior openbite with an overjet of -3.0 mm and overbite of -5.0 mm and a Class III molar relationship. The cephalometric analysis showed a skeletal Class III relationship (ANB 0 degrees ). After the extraction of the bilateral mandibular third molars, miniplates were placed in the mandibular external oblique line. The mandibular dentition was retracted using elastic chain and miniplates. After treatment, an Angle Class I molar relationship was achieved and overjet and overbite had become 2.0 mm and 1.5 mm. A good facial appearance and occlusal relationship were obtained. The total active orthodontic treatment period was 23 months. Wrap-around type retainers were placed on both jaws and a lingual bonded retainer was also attached in the mandibular incisors. After 1 year of retention, the occlusion was stable, and a good facial profile was also retained. The mandibular deviation to the left was improved and the strain in the circumoral musculature during lip closure disappeared. An appropriate interincisal relationship was achieved by the uprighting of mandibular dentition without changing the vertical intermaxillary relationship. A panoramic radiograph showed no marked root resorption. Our results suggest that implant anchorage is useful for correction of skeletal Class III severe anterior openbite cases.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27725683</t>
+          <t>29295335</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Three Dimensional Virtual Planning Through Cone Beam Computed Tomography for Surgical Guidance Production.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>This paper describes a methodology through digital planning and computed tomography for the purpose of making surgical guides for insertion of skeletal anchorage devices in dentistry. Mini-orthodontic screws for anchorage are inserted virtually in the region of interest located between the teeth of the second premolar and first molar bilaterally. DICOM images were converted to STL format and overlaid by scanning the upper plaster model in order to plan the surgical guide virtually.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>32420649</t>
+          <t>31516664</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Comparison of vortioxetine and sertraline for treatment of major depressive disorder in elderly patients: A double-blind randomized trial.</t>
+          <t>Miniscrew-supported distal jet versus conventional distal jet appliance: A pilot study.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Major depressive disorder (MDD) is a complex disease and one of the leading contributors to disease burden throughout the world. In the current study, we explored the efficacy and tolerability of vortioxetine versus sertraline on symptoms of depression in elderly patients with MDD. Sixty patients diagnosed with MDD (based on DSM-5) and Hamilton Depression Rating Scale (HAM-D) score ≥ 19 were entered into a randomized double-blind study and were randomized to receive either vortioxetine (15 mg daily) or sertraline (75 mg daily) for six weeks. Patients were assessed using the HAM-D scale at baseline and weeks 3 and 6. Changes in HAM-D score, response rates, remission rate and time to response or remission were also compared between the two study groups. Fifty patients completed the trial after six weeks. General linear model repeated measures demonstrated no difference in trend of the two treatment groups (P = .897). There was no significantly different improvement in the HDRS scores from baseline to weeks 3 and 6, as well. Differences in response rate, remission rate, time to response and time to remission periods were not statistically significant. Finally, there was not any significantly difference between the two study groups in the frequency of adverse events. This study showed no significant differences in the efficacy and safety of vortioxetine in comparison with sertraline in order for it to be used safely for treatment of major depressive disorder in elderly patients.</t>
+          <t>Maxillary molar distalization is the most frequently used nonextraction treatment in the correction of Class II malocclusion. The use of traditional intra-oral devices shows unreliable results. Nowadays the use of miniscrew-supported appliances helps prevent anchorage loss. The aim of this pilot study is to compare the amount of upper first molar distalization and the dentoalveolar side effects using traditional distal jet appliance and miniscrew-supported distal jet appliance. 20 patients were randomly assigned to receive a treatment with miniscrew-supported distal jet appliance (Group A) or with traditional distal jet appliance (Group B). To ensure a safe and minimally invasive miniscrew insertion a surgical guide was used. Digital models and lateral cephalograms were obtained and analyzed before orthodontic treatment and at 6-month follow-up. Intergroup differences were determined using T- test. The significance was set at &lt;i&gt;p&lt;/i&gt; ≤0.05. The intra-operator reliability was evaluated using a 2 sample T-test. The difference was not statistically significant (&lt;i&gt;P&lt;/i&gt; ≤0.05 ), demonstrating an intra-operator reliability. In Group A, a greater maxillary first molar distalization was recorded (&lt;i&gt;P&lt;/i&gt;=0.002). Considering the dentoalveolar side effects, in Group A, a spontaneous distalization of the first premolars and a retroclination of central incisors were determined. In Group B, the first premolars tipped mesially with a proclination of the maxillary central incisors. Miniscrew-supported distal jet appliance achieved a greater first molar distalization at 6-month follow-up and did not cause dento-alveolar side effects, such as the mesial drift of the premolars and the incisors. &lt;b&gt;Key words:&lt;/b&gt;Molar distalization, distal jet appliance, skeletal anchorage, miniscrew, 3D printed surgical guide.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>25575488</t>
+          <t>18984395</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, duloxetine-referenced study comparing efficacy and tolerability of 2 fixed doses of vortioxetine in the acute treatment of adults with MDD.</t>
+          <t>Three-dimensional dental model analysis of treatment outcomes for protrusive maxillary dentition: comparison of headgear, miniscrew, and miniplate skeletal anchorage.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Vortioxetine has reduced depressive symptoms in adults with major depressive disorder (MDD) in multiple clinical trials. The aim of this study is to evaluate the efficacy, safety, and tolerability of vortioxetine 15 and 20 mg vs placebo in adults with MDD. Patients were randomized 1:1:1:1 to vortioxetine 15 mg, vortioxetine 20 mg, duloxetine 60 mg (active reference), or placebo. The primary efficacy endpoint was mean change in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8 (MMRM). Safety/tolerability assessments included physical examinations, vital signs, laboratory evaluations, electrocardiograms, adverse events (AEs), Columbia-Suicide Severity Rating Scale, Arizona Sexual Experiences Scale, and Discontinuation-Emergent Signs and Symptoms checklist. Six hundred and fourteen patients were randomized. Mean changes in MADRS scores were -12.83 (±0.834), -14.30 (±0.890), -15.57 (±0.880), and -16.90 (±0.884) for placebo, vortioxetine 15 mg (P = .224), vortioxetine 20 mg (P = .023), and duloxetine 60 mg (P &lt; .001) (P vs placebo), respectively. AEs reported by ≥5 % of vortioxetine patients included nausea, headache, diarrhea, dizziness, dry mouth, constipation, vomiting, insomnia, fatigue, and upper respiratory infection. Treatment-emergent sexual dysfunction, suicidal ideation or behavior, and discontinuation symptoms were not significantly different between vortioxetine and placebo. Vortioxetine 20 mg significantly reduced MADRS total scores after 8 weeks of treatment. Both vortioxetine doses were well tolerated. ClinicalTrials.gov identifier NCT01153009; www.clinicaltrials.gov/ .</t>
+          <t>The aim of this retrospective study on dental models was to compare the orthodontic outcomes of maxillary dentoalveolar protrusion treated with headgear, miniscrews, or miniplates for maximum anchorage. The 40 subjects were diagnosed as having either Angle Class II malocclusion or Class I bimaxillary dentoalveolar protrusion. All patients were treated to retract the maxillary dentoalveolar process by using the extraction space of the bilateral maxillary first premolars. They were divided into 3 groups according to the type of anchorage used. Group 1 (n = 16) received traditional anchorage preparation with a transpalatal arch and headgear, group 2 (n = 15) received miniscrews, and group 3 (n = 9) received miniplates for skeletal anchorage. To investigate the movement of the maxillary teeth during dentoalveolar retraction, we used a 3-dimensional (3D) digitizer to assess the positional changes of the maxillary teeth relative to the stable palatal rugose structures on the serial dental models. The 3D coordinates representing pretreatment and posttreatment maxillary dental casts were superimposed to determine the movement of individual teeth from the positional changes of 18 landmarks of the central incisor, canine, second premolar, and first molar. Three-dimensional analysis of the maxillary dental models in the buccopalatal, anteroposterior, and vertical directions showed significant differences in tooth movements between the headgear and the mini-implant (miniscrew or miniplate) groups. Both skeletal anchorage groups had greater incisor retraction (6.9 mm for the miniscrew, 7.3 mm for the miniplate) than did the headgear group (5.5 mm). Mesialization of occlusal centroid of the maxillary molar in the skeletal anchorage groups was less than that in the headgear group (1.3 mm for the miniscrew, 1.4 mm for the miniplate, 2.5 mm for the headgear). Tooth movements in the anteroposterior and buccopalatal directions did not reach a statistically significant difference between the miniscrew and miniplate groups, but the maxillary posterior teeth of the subjects receiving miniplates showed greater intrusion than those receiving miniscrews anchorage. This 3D analysis of serial dental models demonstrated that, compared with headgear, skeletal anchorage achieved better results in the treatment of maxillary dentoalveolar protrusion. Significant intrusion of the maxillary posterior teeth was noted in the miniplate group but not in the miniscrew and headgear groups. Greater retraction of the maxillary anterior teeth, less anchorage loss of the maxillary posterior teeth, and the possibility of maxillary molar intrusion all facilitated correction of the Class II malocclusion, especially for patients with a hyperdivergent face.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>35466102</t>
+          <t>22695020</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vortioxetine Treatment for Depression in Alzheimer's Disease: A Randomized, Double-blind, Placebo-controlled Study.</t>
+          <t>The validity of marker registration for an optimal integration method in mandibular navigation surgery.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vortioxetine, a new antidepressant, has been demonstrated to have effects on depression and cognitive function. This study aimed to investigate the anti-depressive efficacy of vortioxetine through a well-designed double- blind, placebo-controlled study in Alzheimer's disease (AD) patients, and to confirm the presence of secondary benefits, including the improvement of cognitive function and activities of daily living (ADL). The present study included 100 AD patients with depression who were assigned randomly to 12 weeks of daily treatment with either vortioxetine or placebo. The primary efficacy measure was the change in the Cornell Scale for Depression in Dementia score from baseline to 12 weeks. Several secondary efficacy measures were evaluated, including the Korean version of the Short form of Geriatric Depression Scale and several cognitive function domains. The safety and tolerability of vortioxetine were also assessed. We performed modified intention-to-treat analysis using mixed modeling (the Mixed Models for Repeated Measures). There was no statistically significant difference between the two groups in terms of depressive symptoms, cognitive functions, and ADL. Further, the percentage of adverse events and drug discontinuation between the vortioxetine and placebo groups was similar. Our results suggest that vortioxetine might not be effective in reducing depressive symptoms or cognitive impairment in AD patients with depression. However, general drug tolerance and patient safety were similar to those of placebo. Thus, additional studies are needed to replicate the effectiveness and tolerability of vortioxetine in AD patients with depression.</t>
+          <t>The aim of this study was to verify the accuracy of 2 registration methods (marker-based registration and marker-free registration) during mandibular navigation surgery. Two point-to-point registration methods (marker-based registration and marker-free registration) were tested using software and navigation equipment: 1) 3 implanted orthodontic screws and 2) 3 anatomic points on the cusp tips of the teeth (central incisor and first molars bilaterally). For the navigation equipment, the 3-point matching method of screw references was more accurate for all anatomic areas except the coronoid process and second premolar alveolar area. The registration error was largest for the condyle area. Errors were larger than 2.0 mm in the condyle, condyle neck, sigmoid notch, coronoid process, posterior border, lingula, and angle areas. In the oblique ridge, mental foramen, and dentoalveolar areas, the registration error using screws was smaller than 1.5 mm. For the software, tooth cusp references were more accurate for anatomic areas such as the mental foramen and dentoalveolar areas, but not the molar area. In all cases, the registration error was smaller than 1.0 mm, and that for the first molar was similar between the tooth tip overlap and the screw overlap. Registration using screws generally was more accurate than registration using tooth cusps for mandibular navigation surgery. However, tooth tip references can be used for registration in dentoalveolar surgery.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>35356713</t>
+          <t>22437686</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Effectiveness of Vortioxetine in Patients With Major Depressive Disorder in Real-World Clinical Practice: Results of the RELIEVE Study.</t>
+          <t>Reliability and accuracy of a radiographic analysis method for posterior maxillary mini-implant location.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Randomized controlled clinical trials have shown vortioxetine to be efficacious and well tolerated for the treatment of major depressive disorder (MDD). The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study was undertaken to demonstrate the effectiveness and safety of vortioxetine for the treatment of MDD in routine clinical practice. RELIEVE was a 24-week, observational, prospective cohort study in outpatients with MDD initiating treatment with vortioxetine at their physician's discretion in routine care settings in Canada, France, Italy, and the USA (NCT03555136). The primary study outcome was patient functioning assessed by the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity [9-item Patient Health Questionnaire (PHQ-9)], cognitive symptoms [5-item Perceived Deficits Questionnaire-Depression (PDQ-D-5)], and cognitive performance [Digit Symbol Substitution Test (DSST)]. Mixed models of repeated measures were used to assess change from baseline at week 24, adjusted for relevant confounders. A total of 737 patients were eligible for inclusion in the full analysis set. Most patients (73.7%) reported at least one comorbid medical condition, 56.0% had comorbid anxiety and 24.4% had comorbid generalized anxiety disorder. Improvement in least-squares (LS) mean SDS score from baseline to week 24 was 8.7 points. LS mean PHQ-9, PDQ-D-5 and DSST scores improved by 7.4, 4.6, and 6.2 points, respectively. Adverse events were observed in 21.2% of patients [most commonly, nausea (8.2% of patients)]. These results demonstrate the effectiveness and tolerability of vortioxetine for the treatment of MDD in a large and heterogeneous patient population representative of that encountered in routine clinical practice.</t>
+          <t>The purpose of this study was to evaluate the reliability and accuracy of a radiographic analysis method for the location of mini-implants inserted in the posterior region of the maxilla. Two self-drilling mini-implants were installed between the second premolar and the first molar on the right side and left side in three dry skulls. Three operators performed three occlusal radiographs, using an occlusal x-ray film holder, at three different times in each of the three skulls. The interclass correlation coefficient showed a significantly high, positive correlation (p&lt;0.05), indicating an excellent reliability between operators. The analysis of variance showed no significant differences in time and among the operators. Based of these findings, it may be concluded that this methodology can be used by several operators in longitudinal clinical studies on orthodontic mini-implants at the anterior-posterior and lateral-medial locations or longitudinal displacement.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>31725942</t>
+          <t>32613434</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Randomized, double-blind, placebo-controlled study to assess the efficacy and safety of vortioxetine in Japanese patients with major depressive disorder.</t>
+          <t>Accuracy of fully guided orthodontic mini-implant placement evaluated by cone-beam computed tomography: a study involving human cadaver heads.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>The burden of major depressive disorder (MDD) in Japan is high. This study aimed to evaluate the efficacy and safety of the multimodal antidepressant vortioxetine in Japanese patients with MDD. Japanese patients aged 20-75 years with recurrent MDD and a Montgomery-Åsberg Depression Rating Scale (MADRS) score ≥ 26 were randomized to vortioxetine 10 or 20 mg or placebo in a phase-3, double-blind, 8-week study. The primary end-point was change in MADRS total score from baseline. Secondary end-points included MADRS response and remission rates, change in Hamilton Rating Scale for Depression-17 item (HAM-D17) score, and other measures of depressive symptoms, including Clinical Global Impression of Severity (CGI-S), Clinical Global Impression of Improvement (CGI-I), and Sheehan Disability Scale (SDS). Cognitive function was assessed using Digit Symbol Substitution Test (DSST) score and Perceived Deficits Questionnaire-5 item (PDQ-5) score. Vortioxetine 10 mg (n = 165) and 20 mg (n = 163) reduced MADRS total score by 2.66 and 3.07 points versus placebo (n = 161) after 8 weeks (P &lt; 0.01 for each dose), respectively. MADRS response and remission rates were also significantly greater with vortioxetine than with placebo (P &lt; 0.05 for both doses). Vortioxetine 10 and 20 mg significantly improved HAM-D17 score, CGI-I score, and SDS total score after 8 weeks. PDQ-5 score was significantly improved in subjects administered vortioxetine, while DSST scores showed no significant difference. Vortioxetine was generally well tolerated. Vortioxetine at both the 10- and 20-mg/day doses demonstrated robust antidepressant efficacy in Japanese patients with MDD, and was well tolerated over the 8-week treatment period.</t>
+          <t>The aim of this study was to evaluate the accuracy of fully guided orthodontic mini-implant (OMI) placements supported by tooth- (TBGs) or gingiva-borne silicone guides (GBGs) based on virtually superimposed lateral cephalograms on virtual plaster models. Lateral cephalograms and corresponding plaster models were virtually superimposed for the planning of OMI positions; fully guided TBGs and GBGs were fabricated (each, n = 10). A total of 40 OMIs were inserted in a paramedian position into the palate of 20 human cadavers. Postoperative cone-beam computer tomographies (CBCTs) were carried out, and an accuracy evaluation was performed by comparing preoperative planning models and postoperative CBCTs. Deviations of the axis, tip, centre of the shoulder and vertical position of each of the implants were evaluated. Furthermore, the transfer accuracy measured by postoperative CBCT scans were compared with the accuracy determined using an intraoral scanner. A significant deviation between TBGs (2.81° SD 2.69) and GBGs (6.22° SD 4.26) regarding implant angulation was evaluated (p = 0.005). Implant tip and implant shoulder deviations revealed no statistical differences between the guides. Accuracy values of oral scans regarding vertical deviations were significantly more inaccurate when compared with CBCTs (p &lt; 0.001). The accuracy of an OMI position can be significantly increased by using a guide extension over the teeth. Vertical implant positions presented the lowest deviations. Postoperative oral scans and CBCTs represent diverging accuracy measurements when compared with virtual planning. Users must keep in mind that despite virtual planning deviations, inaccuracies of a few millimetres may occur.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>25687662</t>
+          <t>34631175</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A Randomized, Placebo-Controlled, Active-Reference, Double-Blind, Flexible-Dose Study of the Efficacy of Vortioxetine on Cognitive Function in Major Depressive Disorder.</t>
+          <t>A Simplified Digital Approach to the Treatment of a Postpuberty Patient with a Class III Malocclusion and Bilateral Crossbite.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>This multicenter, randomized, double-blind, placebo-controlled, active-referenced (duloxetine 60 mg), parallel-group study evaluated the short-term efficacy and safety of vortioxetine (10-20 mg) on cognitive function in adults (aged 18-65 years) diagnosed with major depressive disorder (MDD) who self-reported cognitive dysfunction. Efficacy was evaluated using ANCOVA for the change from baseline to week 8 in the digit symbol substitution test (DSST)-number of correct symbols as the prespecified primary end point. The patient-reported perceived deficits questionnaire (PDQ) and physician-assessed clinical global impression (CGI) were analyzed in a prespecified hierarchical testing sequence as key secondary end points. Additional predefined end points included the objective performance-based University of San Diego performance-based skills assessment (UPSA) (ANCOVA) to measure functionality, MADRS (MMRM) to assess efficacy in depression, and a prespecified multiple regression analysis (path analysis) to calculate direct vs indirect effects of vortioxetine on cognitive function. Safety and tolerability were assessed at all visits. Vortioxetine was statistically superior to placebo on the DSST (P &lt; 0.05), PDQ (P &lt; 0.01), CGI-I (P &lt; 0.001), MADRS (P &lt; 0.05), and UPSA (P &lt; 0.001). Path analysis indicated that vortioxetine's cognitive benefit was primarily a direct treatment effect rather than due to alleviation of depressive symptoms. Duloxetine was not significantly different from placebo on the DSST or UPSA, but was superior to placebo on the PDQ, CGI-I, and MADRS. Common adverse events (incidence ⩾ 5%) for vortioxetine were nausea, headache, and diarrhea. In this study of MDD adults who self-reported cognitive dysfunction, vortioxetine significantly improved cognitive function, depression, and functionality and was generally well tolerated.</t>
+          <t>Monolateral and bilateral crossbites are amongst the most frequent forms of malocclusion in the world population. The lack of early correction of this type of malocclusion leads to the partial or total ossification of the sutures which then require surgical treatment in adult patients. In recent years, devices on minipalatal screws have noticeably increased the time window in which it is possible to correct these types of alterations. In this case report, we show how it is possible to correct a third-class skeletal malocclusion associated with a posterior bilateral crossbite in a young woman using a rapid expander on miniscrews and fixed orthodontic device to finalise the process. The procedure for the insertion of the palatal screws was aided by the use of a digitally printed surgical guide, and the appliance was applied in the same sitting thanks to the use of a digital flow software and a systematic easy driver. The CBCT scans show how the orthopaedic expansion of the upper maxilla was obtained without any important alterations that damaged the permanent teeth. This case report wishes to demonstrate how easy and predictable it can be to resolve cases of this type with optimal aesthetic and functional results even when body growth has ended.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>23252878</t>
+          <t>36285989</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A randomized, double-blind trial of 2.5 mg and 5 mg vortioxetine (Lu AA21004) versus placebo for 8 weeks in adults with major depressive disorder.</t>
+          <t>Comparing Distal-Jet with Dental Anchorage to Distal-Jet with Skeletal Anchorage: A Prospective Parallel Cohort Study.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is an investigational antidepressant. In vitro studies indicate that vortioxetine is a 5-HT(3), 5-HT(7), and 5-HT(1D) receptor antagonist, 5-HT(1B) receptor partial agonist, 5-HT(1A) receptor agonist and inhibitor of the 5-HT transporter. This trial assessed the efficacy and tolerability of 2.5 and 5 mg vortioxetine for the treatment of MDD. Adults (N = 611) with MDD were randomized to 8 weeks of double-blind treatment with placebo, vortioxetine (2.5 or 5 mg) or active reference (duloxetine 60 mg). The primary measure was change from baseline in the 24-item Hamilton Depression Scale (HAM-D24). Secondary endpoints included responder rate, Clinical Global Impression Scale-Global Improvement scale (CGI-I), and remission rate. Participants were monitored for adverse events (AEs), and treatment-emergent sexual dysfunction using the Arizona Sexual Experiences (ASEX) scale. Both doses of vortioxetine were associated with declines in HAM-D24 total scores compared to placebo but were not statistically significant. At 8 weeks, changes from baseline were [mean (SE)]: -10.50 (0.76) placebo, -12.04 (0.74) 2.5 mg vortioxetine, and -11.08 (0.74) 5 mg vortioxetine. Secondary outcome measures in the vortioxetine groups, including responder rate, CGI-I, and remission rate, were also not significantly different from placebo. Duloxetine treatment was associated with declines in HAM-D24 total score [-13.47(0.75); p = 0.005] as well as significant improvements in secondary outcome measures versus placebo (p ≤ 0.05). The most common AEs for vortioxetine were nausea, dry mouth, and headache. Rates of sexual dysfunction (ASEX) were 51.0%, 37.5%, 46.9%, and 33.3% in the vortioxetine 2.5 mg, vortioxetine 5 mg, duloxetine, and placebo groups, respectively. In this study of adults with MDD treated for 8 weeks with vortioxetine 2.5 mg or 5 mg per day, reductions in depression symptoms were not statistically significant compared with placebo. Study limitations are discussed, including patient characteristics, MDD severity, drug dosing, and aspects of trial design. Both doses of vortioxetine were well tolerated. This trial has been registered at clinicaltrials.gov #NCT00672620.</t>
+          <t>The use of traditional intra-oral devices in maxillary molar distalization is not without undesirable consequences. The aim of the present study was to compare the miniscrew-supported distal-jet appliance to a traditional distal-jet appliance by evaluating the amount of upper first molar distalization and the dentoalveolar side effects. Data of 600 subjects visited at the orthodontic unit of Sapienza University of Rom were analyzed. Only 46 patients met the inclusion criteria and were selected and treated. Subjects were assigned randomly to receive treatment either with miniscrew-supported distal-jet appliance (Group A) or with a traditional distal-jet appliance (Group B). In Group A, miniscrews were inserted using a computer-guided surgical guide. The amount of upper first molar distalization and the dentoalveolar side effects were assessed both on the digital casts and on the lateral cephalometric radiograph at the end of the distalization phase. A descriptive statistical analysis that included the mean values and the standard deviation was conducted to evaluate the molar distalization and the dentoalveolar effects in two groups. Intergroup differences were determined using the Student's &lt;i&gt;t&lt;/i&gt;-test. The significance was set at &lt;i&gt;p&lt;/i&gt; ≤ 0.05. In Group A, greater maxillary first molar distalization and a spontaneous distalization of the first premolars and a palatal inclination of central incisors were observed. By contrast, in Group B, the first premolars tipped mesially and a proclination of the maxillary central incisors was observed. In both groups, the transverse widths of the dental arch increased while a greater tendency of first premolar extrusion and of maxillary first molar rotation was observed in Group B. The skeletal anchorage device achieved greater first molar distalization and did not cause dento-alveolar side effects.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>37415997</t>
+          <t>36018346</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quality of Life and Medication Adherence in Patients With Major Depressive Disorder: An Interim Analysis of a Randomized Study.</t>
+          <t>Effect of micro-osteoperforations (MOPs) on the rate of en masse orthodontic tooth retraction : A randomized controlled trial.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Quality of life and medication adherence worsen in untreated depressed individuals. Studies examining how vilazodone, escitalopram, and vortioxetine affect these factors are few and far between. Our study's objectives were to determine the change in SF-36 at 12 weeks and the association between treatment outcome and medication adherence. This is an interim analysis of a randomized, open-label, three-arm ongoing study. The participants were evaluated at baseline, four, eight, and 12 weeks after being randomly assigned to take either vilazodone (20-40 mg/d), escitalopram (10-20 mg/d), or vortioxetine (5-20 mg/d). This study is registered with CTRI, 2022/07/043808. Of 71 recruited participants, 49 (69%) completed the 12-week visit. The median scores of physical components of SF-36 for the three groups were 35.5, 35.0, and 35.0 at baseline (p=0.76) and 51.0, 49.5, and 53.0 (p&lt;0.001) at 12 weeks respectively. Their corresponding median SF-36 scores for mental components were 43.0, 43.0, and 44.0 at baseline (p=0.34) and 66.0, 63.5, and 70.0 (p&lt;0.001) at 12 weeks. The post hoc analysis yielded a significant difference (p&lt;0.001) regarding SF-36 scores. MMAS-8 scores among the participants were similar (p=0.22) at 12 weeks. Higher medication adherence was associated with lesser depressive symptoms (r= -0.46, p=0.001). As per this interim analysis, vortioxetine substantially impacted the SF-36 scores, juxtaposed with vilazodone and escitalopram. The participants' clinical improvements were reflected by their adherence levels. These effects need to be probed further.</t>
+          <t>To evaluate the effect of micro-osteoperforations (MOPs) on the rate of orthodontic tooth movement (OTM) during en masse anterior retraction. Twenty patients were randomly allocated into experimental and control group of 10 each. In the control group, en masse retraction was performed with sliding mechanics with a coil spring. In the experimental group after alignment and levelling, MOPs were performed mesially and distally to all six anterior teeth in the interdental cortical region on the labial aspect of both arches. MOPs were performed at the beginning of space closure (T&lt;sub&gt;0&lt;/sub&gt;) and 1 month after beginning of space closure (T&lt;sub&gt;1&lt;/sub&gt;). En masse retraction was performed with sliding mechanics with a coil spring. Measurements were recorded on digital models made from scanned plaster casts at the beginning of space closure (T&lt;sub&gt;0&lt;/sub&gt;) and monthly at each follow-up visit for the next 4 months (T&lt;sub&gt;1&lt;/sub&gt;, T&lt;sub&gt;2&lt;/sub&gt;, T&lt;sub&gt;3&lt;/sub&gt;, T&lt;sub&gt;4&lt;/sub&gt;). The monthly rate of OTM, the overall rate of OTM, and the difference between OTM in the MOP period (T&lt;sub&gt;0&lt;/sub&gt;-T&lt;sub&gt;2&lt;/sub&gt;) and post-MOP (T&lt;sub&gt;2&lt;/sub&gt;-T&lt;sub&gt;4&lt;/sub&gt;) period in the experimental and control group were evaluated. A visual analogue scale (VAS) was used to evaluate patients' pain experience. The overall rate of OTM was significantly greater in the experimental group for both arches in the MOP period (T&lt;sub&gt;0&lt;/sub&gt;-T&lt;sub&gt;2&lt;/sub&gt;) and also in the post-MOP period (T&lt;sub&gt;2&lt;/sub&gt;-T&lt;sub&gt;4&lt;/sub&gt;) as compared to the control group. Within the experimental group, the rate of OTM in the MOP period was significantly greater than in the post-MOP period, which in turn was greater than that of the control group. The patients reported only mild discomfort for 24 h after performing the MOPs, which then gradually decreased. The use of MOPs is effective in increasing the rate of en masse tooth retraction in both the maxillary and the mandibular arch. The rate of tooth movement was greater even in the post-MOP period as compared to the control group.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37840562</t>
+          <t>18456138</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Εfficacy and safety of vortioxetine (Lu AA21004) in the treatment of adult patients with major depressive disorder: A systematic review and a meta‑analysis of randomized controlled trials.</t>
+          <t>Comparison of the intrusion effects on the maxillary incisors between implant anchorage and J-hook headgear.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Vortioxetine is a novel drug for the treatment of major depressive disorder (MDD). It has been reported that vortioxetine exhibits positive effect on the acute stage of MDD, while it can effectively prevent the recurrence of MDD during the maintenance period. Currently, the results of systematic reviews on vortioxetine are insufficient since several efficacy measures, such as the 24-Items Hamilton Rating Scale for Depression (HADRS-24) total score and other safety factors have not been evaluated. Therefore, the present study aimed to evaluate the efficacy and safety of different doses of vortioxetine on the treatment of adult patients with MDD via assessing more efficacy and safety indicators. The clinical, double-blind, parallel and randomized controlled trials (RCTs) on the effect of vortioxetine on MDD were retrieved from PubMed\Medline, EBSCO, Embase, Cochrane Library, OVID, Web of Science and clinical trial registration websites from database inception to November 2022. A total of two investigators independently screened the included references and independently evaluated their quality. The meta-analysis was performed using Revman 5.0 software. The present systematic review was registered in PROSPERO (registration no. CRD42018106343). In the present study 11 RCTs were included, with a total of 4,908 adult patients with MDD. More specifically, 1,158 patients were included in the 5-mg vortioxetine group, 736 in the 10-mg group, 298 in the 15-mg group, 864 in the 20-mg group and 1,852 in the placebo group. All 11 studies were randomized, double-blinded and parallel control trials, and all publications were evaluated as high quality. The meta-analysis results showed that patients in the 5-, 10- and 20-mg vortioxetine groups exhibited significantly higher Montgomery-Asberg Depression Rating Scale (MADRS) response (≥50%) and remission (≤10%) rates compared with the placebo group (P&lt;0.05). The pooled analysis also revealed a statistically significant change in the total score of HADRS-24, MADRS, Sheehan Disability Scale (SDS), Clinical Global Impression Scale-Improvement (CGI-I) and HADRS-24 response rate in the 10- and 20-mg vortioxetine groups compared with the placebo group (P&lt;0.05). However, no statistically significant changes in the total score of HADRS-24, MADRS, SDS, CGI-I and HADRS-24 response rate were obtained in the 5-mg group compared with the placebo group (P&gt;0.05). Furthermore, the most common adverse events were nausea, hyperhidrosis, insomnia and vomiting, the incidence of which was increased with higher doses of vortioxetine. Overall, the results suggested that vortioxetine administration at doses of 5-20 mg was significantly effective and safe compared with placebo in the treatment of MDD. However, 5 mg vortioxetine displayed no difference in the HADRS-24, MADRS, SDS and CGI-I total scores, and HADRS-24 response rate. Furthermore, patient treatment with increasing vortioxetine doses was associated with good tolerance and high safety. Nevertheless, more multi-center, high-quality and long-term RCTs are still needed to support the aforementioned findings.</t>
+          <t>Recently, miniscrews have been used to provide anchorage during orthodontic treatment, especially for incisor intrusion. Miniscrews during incisor intrusion are commonly used in implant orthodontics. Traditionally, effective incisor intrusion has been accomplished with J-hook headgear. In this study, we compared the effect of incisor intrusion, force vector, and amount of root resorption between implant orthodontics and J-hook headgear. Lateral cephalometric radiographs from 8 patients in the implant group and 10 patients in the J-hook headgear group were analyzed for incisor retraction. The estimated force vector was analyzed in the horizontal and vertical directions in both groups. Root resorption was also measured on periapical radiographs. In the implant group, significant reductions in overjet, overbite, maxillary incisor to palatal plane, and maxillary incisor to upper lip were observed after intrusion of the incisors. In the J-hook headgear group, significant reductions in overjet, overbite, maxillary incisor to upper lip, and maxillary incisor to SN plane were observed after intrusion of the incisors. There were significantly greater reductions in overbite, maxillary incisor to palatal plane, and maxillary incisor to upper lip in the implant group than in the J-hook headgear group. Estimated force analysis resulted in significantly more force in the vertical direction and less in the horizontal direction in the implant group. Furthermore, significantly less root resorption was observed in the implant group compared with the J-hook headgear group. The maxillary incisors were effectively intruded by using miniscrews as orthodontic anchorage without patient cooperation. The amount of root resorption was not affected by activating the ligature wire from the miniscrew during incisor intrusion.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>32765787</t>
+          <t>35739518</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Effects of Vortioxetine on depression model rats and expression of BDNF and Trk B in hippocampus.</t>
+          <t>Accuracy of two orthodontic mini-implant templates in the infrazygomatic crest zone: a prospective cohort study.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Effects of Vortioxetine on the expression of brain-derived neurotrophic factor (BDNF) and tyrosine kinase B (Trk B) in hippocampus of depressive rats were investigated. Forty-five SD rats were randomly divided into three groups: model control, Vortioxetine and normal control group, with 15 rats in each group. The changes of body mass were recorded within 5 weeks, and the open field test, sugar water preference test and Morris water maze test were performed to evaluate the behavior and mental status of the rats. The expression of BDNF and Trk B in rat hippocampus was detected by enzyme-linked immuno sorbent assay. Compared with the model control group, the body mass, horizontal and vertical movement, sugar and water preference rate of the vortioxetine group in the 5th week were significantly higher than those of the model control group (P&lt;0.05), and significantly lower than those of the normal control group (P&lt;0.05). The escape latency of the Vortioxetine group within 4 days was significantly lower than that of model control group (P&lt;0.05), but higher than that of normal control group (P&lt;0.05). The target quadrant residence time of the Vortioxetine group was significantly lower than that of the model control group (P&lt;0.05), but higher than that of the normal control group (P&lt;0.05). Expression of BDNF and Trk B in the Vortioxetine group was significantly higher than that in the model control group (P&lt;0.05), but lower than that of the normal control group (P&lt;0.05). Collectively, Vortioxetine can effectively alleviate the symptoms of autonomous and exploratory behavior, and reduce the decrease of learning and memory in depressive rats. Vortioxetine can increase the expression of BDNF and Trk B in depressive rats and alleviate their depressive behavior.</t>
+          <t>In the clinic, most computer-aided design and manufacturing orthodontic mini-implant guides are suitable for the position between the tooth roots, and few templates are designed and used for the infrazygomatic crest zone. In this study, we took into account the structure of the infrazygomatic crest and 3D printing technology, developed two kinds of templates, and evaluated their clinical effects. Seventeen patients who accepted 30 mini-implant insertions in the infrazygomatic crest were selected. According to different implantation methods, three groups were divided. In Groups A and B, the mini-implants were positioned with an A-type or B-type template designed by EXOCAD software. In Group C, the mini-implants were inserted by an experienced orthodontist without any guides. We simulate the bucco-palatal, mesio-distal, and vertical head positions in the Segma implant guide software and measure the deviation from the virtual design position of the mini-implant. The linear deviation of the mini-implant tip and cap and the angular deviation of the long axis of the mini-implant in the bucco-palatal direction, mesio-distal direction, and vertical direction were also measured. The results were statistically analysed by SPSS software. The deviations of Group A and Group C's miniscrew cap in the bucco-palatal direction, Group A and Group B, Group A and Group C's miniscrew tip in the mesio-distal direction, and Group B and Group C's miniscrew tip and cap in the vertical direction were statistically significant (P &lt; 0.05). There was a significant difference in the deviations of Group A and Group C's miniscrew tip and cap in the vertical direction (P &lt; 0.01). In the vertical direction, the accuracy of implantation with the template is higher than that of the traditional method without the template to avoid piercing the maxillary sinus mucosa in the infrazygomatic crest zone.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>36135826</t>
+          <t>21055978</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cutting the First Turf to Heal Post-SSRI Sexual Dysfunction: A Male Retrospective Cohort Study.</t>
+          <t>Maxillary segmental distraction in children with unilateral clefts of lip, palate, and alveolus.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Post-SSRI sexual dysfunction (PSSD) is a set of heterogeneous sexual problems, which may arise during the administration of selective serotonin reuptake inhibitors (SSRIs) and persist after their discontinuation. PSSD is a rare clinical entity, and it is commonly associated with non-sexual concerns, including emotional and cognitive problems and poor quality of life. To date, however, no effective treatment is available. The aim of this study was to retrospectively evaluate the potential efficacy of the different treatments used in clinical practice in improving male PSSD. Of the 30 patients referred to our neurobehavioral outpatient clinic from January 2020 to December 2021, 13 Caucasian male patients (mean age 29.53 ± 4.57 years), previously treated with SSRIs, were included in the study. Patients with major depressive disorder and/or psychotic symptoms were excluded a priori to avoid overlapping symptomatology, and potentially reduce the misdiagnosis rate. To treat PSSD, we decided to use drugs positively affecting the brain dopamine/serotonin ratio, such as bupropion and vortioxetine, as well as other compounds. This latter drug is known not to cause or reverse iatrogenic SD. Most patients, after treatment with vortioxetine and/or nutraceuticals, reported a significant improvement in all International Index of Erectile Function-(IIEF-5) domains (p &lt; 0.05) from baseline (T0) to 12-month follow-up (T1). Moreover, the only patient treated with pelvic muscle vibration reached very positive results. Although our data come from a retrospective open-label study with a small sample size, drugs positively modulating the central nervous system serotonin/dopamine ratio, such as vortioxetine, could be used to potentially improve PSSD. Large-sample prospective cohort studies and randomized clinical trials are needed to investigate the real prevalence of this clinical entity and confirm such a promising approach to a potentially debilitating illness.</t>
+          <t>Alveolar clefts are commonly closed by a bone grafting procedure. In cases of wide clefts the deficiency of soft tissue in the cleft area may lead to wound dehiscence and loss of the bony graft. Segmental maxillary bony transfer has been mentioned to be useful in such cases. Standard distraction devices allow unidirectional movement of the transported segment. Ideally the distraction should strictly follow the dental arch. The aim of this study was to analyze distraction devices that were adapted to the individual clinical situation of the patients. The goal was to achieve a distraction strictly parallel to the dental arch. Six children with unilateral clefts of lip, palate, and alveolus between 12 and 13 years of age were included in the study. The width of the cleft was between 7 and 19 mm. Dental cast models were used to manufacture individual distraction devices that should allow a segmental bony transport strictly parallel to the dental arch. Segmental osteotomy was performed under general anesthesia. Distraction was started 5 days after surgery. All distracters were tooth fixed but supported by palatal inserted orthodontic miniscrews. In all patients, a closure of the alveolar cleft was achieved. Two patients required additional bone grafting after the distraction procedure. The distraction was strictly parallel to the dental arch in all cases. In 1 case a slight cranial displacement of the transported maxillary segment could be noticed, leading to minor modifications of the following distractors. Distraction osteogenesis is a proper method to close wide alveolar clefts. Linear segmental transport is required in the posterior part of the dental arch, whereas in the frontal part the bony transport should run strictly parallel to the dental arch. An exact guided segmental transport may reduce the postoperative orthodontic complexity.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>29673132</t>
+          <t>20209181</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The effects of vortioxetine on cognitive dysfunction in patients with inadequate response to current antidepressants in major depressive disorder: A short-term, randomized, double-blind, exploratory study versus escitalopram.</t>
+          <t>Crown angulation and inclination of Northern Thais with good occlusion.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Major Depressive Disorder (MDD) is a heterogeneous disease characterized by emotional, physical and cognitive symptoms. This study explored the effects of vortioxetine versus escitalopram on outcomes of cognition, functioning and mood symptoms in depressed patients with inadequate response to current antidepressant treatment. In this parallel-group, active-comparator study, adult patients (18-65 years, N = 101) with MDD, with inadequate response to current antidepressant monotherapy, were randomized 1:1 to 8 weeks' double-blind treatment with flexible doses (10-20mg/day) of either vortioxetine or escitalopram. Primary and key secondary efficacy measures were the Digit Symbol Substitution Test (DSST), analyzed using a mixed model for repeated measurements, and the University of San Diego Performance-based Skills Assessment - Brief (UPSA-B), analyzed using analysis of covariance (last observation carried forward method). At week 8, DSST and UPSA-B performance had improved in both treatment groups, with no statistically significant treatment differences. Numerical improvements across measures of cognition, functioning and mood symptoms generally favored vortioxetine. Most adverse events were mild or moderate, with nausea being the most common adverse event. This was an exploratory study with small sample sizes implying limited statistical power. Although this explorative study did not meet primary endpoints, the results confirm vortioxetine in doses of 10-20mg/day as an efficacious and well-tolerated antidepressant switch treatment. The overall direction of numerical effect sizes across cognition endpoints support previous findings that vortioxetine specifically benefits cognitive function in MDD.</t>
+          <t>When patients of differing ethnicities are treated with one bracket system, negative consequences for the occlusion can result. This study investigated the crown angulation and inclination on study casts of 60 Northern Thais (30 males and 30 females) with a good occlusion. In all study casts, each tooth (except the third molars) was evaluated with the orthodontic Torque Angulation Device (TAD) twice on the right side; this was also performed twice on the left side. The mean of the two evaluations was used for the statistical analysis. The means of the males and females were compared with the independent Student t test. The results were that the crown angulation of the mandibular first and second molars was significantly higher in females (P&lt;.01) and that the crown inclination of all teeth did not differ between the two sexes.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>34025982</t>
+          <t>34575238</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Anxiety symptoms in working patients with major depressive disorder treated with vortioxetine: associations with clinical and treatment outcomes in the AtWoRC study.</t>
+          <t>Influence of the Computer-Aided Static Navigation Technique on the Accuracy of the Orthodontic Micro-Screws Placement: An In Vitro Study.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Anxiety symptoms are common in patients with major depressive disorder (MDD) and usually confer worse treatment outcomes. The long-term, open-label AtWoRC study in working patients with MDD treated with vortioxetine demonstrated a significant correlation between severity of anxiety symptoms and impaired work productivity. This analysis was undertaken to further explore clinical characteristics and treatment outcomes in patients with different levels of severity of anxiety symptoms at baseline. &lt;i&gt;Post hoc&lt;/i&gt; analysis in 199 working patients with MDD treated with vortioxetine (10-20 mg/day), stratified by Generalized Anxiety Disorder 7-item (GAD-7) score at baseline [mild/moderate anxiety (GAD-7 ⩽14), &lt;i&gt;n&lt;/i&gt; = 83; severe anxiety (GAD-7 ⩾15), &lt;i&gt;n&lt;/i&gt; = 116]. Associations were examined between GAD-7 and other outcome assessment scores at baseline. Observed mean changes from baseline to week 52 were compared between groups. Patients with severe anxiety had significantly worse depressive and cognitive symptoms, functioning, and work productivity at baseline than those with mild/moderate anxiety, but similar cognitive performance. Statistically significant improvements from baseline were seen for all outcomes after 52 weeks of vortioxetine treatment, with no significant differences observed between the two groups after adjustment for baseline anxiety scores. Treatment with vortioxetine was associated with long-term improvement in clinical symptoms and measures of work productivity in patients with MDD in a real-world setting, irrespective of severity of anxiety symptoms at the start of treatment.</t>
+          <t>To analyze the influence of the computer-aided static navigation technique on the accuracy of placement of orthodontic micro-screws. One hundred and thirty-eight orthodontic micro-screws were randomly assigned to the following study groups: Group A. orthodontic micro-screw placement using a computer-aided static navigation technique (&lt;i&gt;n&lt;/i&gt; = 69); B. orthodontic micro-screw placement using the conventional freehand technique (&lt;i&gt;n&lt;/i&gt; = 69). In addition, the accuracy in the canine-premolar, premolar and molar sectors was analyzed in each study group. Cone-beam computed tomography and intraoral scans were taken both prior and subsequent to orthodontic micro-screw placement. The images were then uploaded using a 3D implant planning software, where the deviation and horizontal angles were analyzed using a multivariate linear model. These measurements were taken at the coronal entry point and apical endpoint between the planned orthodontic micro-screws. In addition, any complications resulting from micro-screw placement, such as spot perforations, were also analyzed in all dental sectors. The statistical analysis showed significant differences between the two study groups with regard to the coronal entry-point, apical end-point (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) and angular deviations (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) between the computer-aided static navigation technique and freehand technique study groups. Moreover, statistically significant differences were showed between the different dental sectors (&lt;i&gt;p&lt;/i&gt; &lt; 0.001). Additionally, twelve root perforations were observed at the conventional free hand technique study group while there were no root perforations in the computer-aided static navigation technique study group. The results showed that the computer-aided static navigation technique enables a more accurate orthodontic micro-screw placement with less intraoperative complications when compared with the conventional freehand technique.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22963932</t>
+          <t>25728102</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled 6-wk trial of the efficacy and tolerability of 5 mg vortioxetine in adults with major depressive disorder.</t>
+          <t>Effect of prostaglandin E1 versus corticotomy on orthodontic tooth movement: an in vivo study.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is a multi-modal antidepressant in clinical development for the treatment of major depressive disorder (MDD). The current study evaluated the efficacy and tolerability of 5 mg vortioxetine compared to placebo after 6 wk of treatment in adults with MDD in an out-patient setting. Adults aged 18-75 yr, with a diagnosis of MDD and a baseline Montgomery-Asberg Depression Rating Scale (MADRS) total score ≥30, were randomized to receive either 5 mg vortioxetine or placebo over 6 wk, followed by a 2-wk medication-free discontinuation period. The primary efficacy measure was change from baseline in Hamilton Rating Scale for Depression (HAMD)-24 total score at week 6 compared to placebo. Additional measures included response and remission rates, Clinical Global Impression Scale - Improvement scores, HAMD-24 total score in subjects with baseline Hamilton Anxiety Scale (HAMA) &gt;19 and MADRS-S total score. Adverse events (AEs) were assessed throughout the study. A total of 600 adults were randomized. There were no significant differences in efficacy measures between subjects in the 5 mg vortioxetine and placebo groups at week 6. HAMD-24 total score in subjects with baseline HAMA &gt;19 in the 5 mg vortioxetine group was improved at weeks 3-6 compared to the placebo group (nominal p value &lt;0.05). The most common AEs for the vortioxetine and placebo groups were nausea (19.1 and 9.4%), headache (17.1 and 15.1%) and diarrhoea (11.4 and 7.0%), respectively. In this study of adults with MDD, 5 mg vortioxetine did not differ significantly from placebo in reducing depression symptoms after 6 wk of treatment.</t>
+          <t>The aim of the present study is to compare the effect of corticotomy versus prostaglandin E1 injection in human subjects on rate of tooth movement, anchorage loss and their effect on crest bone height and root length. Clinical interventional study. Split mouth design was used. Study was done on 32 regular orthodontic patients. A volume of 100 mcg of prostaglandin E1 was injected on the right side once in 2 weeks and on the left side corticotomy was performed, and canine retraction was started on both sides simultaneously. The rate of space closure and anchorage loss was assessed with casts. The root length and crestal bone height changes were assed with IOPAs. The comparison of rate of tooth movement, anchorage loss, crestal bone height and root length changes between the sides were statistically analyzed using paired t-test. The average rate of space closure on right side was 0.36 mm/week with a standard deviation of 0.05 mm/week and on the left side average rate of space closure was 0.40 mm/week with a standard deviation of 0.04 mm/week. The difference between the rate of closure between the right side and left where found to be statistically significant (P=0.003). The anchorage loss, the crestal bone height changes and root length changes were not statistically significant. The rate of tooth movement was significantly more with corticotomies when compared with given dose of prostaglandin injection.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>28858412</t>
+          <t>26154156</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Randomized, double-blind, placebo-controlled 8-week trial of the efficacy, safety, and tolerability of 5, 10, and 20 mg/day vortioxetine in adults with major depressive disorder.</t>
+          <t>Anchorage onto deciduous teeth: effectiveness of early rapid maxillary expansion in increasing dental arch dimension and improving anterior crowding.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>This study assessed the efficacy and safety of vortioxetine in adults with major depressive disorder. In this double-blind, placebo-controlled study, 600 patients with major depressive disorder were randomly assigned (1:1:1:1) to receive vortioxetine 5, 10, or 20 mg, or placebo once daily for 8 weeks. The primary end-point was change from baseline in Montgomery-Åsberg Depression Rating Scale (MADRS) total score at week 8, evaluated by the last-observation-carried-forward method. Secondary end-points included response (≥ 50% decrease in the MADRS total score from baseline) and remission (MADRS total score ≤ 10), Clinical Global Impression Scale-Improvement, and change from baseline in Sheehan Disability Scale. Adverse events were summarized. Vortioxetine failed to show significant differences from placebo in the primary end-point. Nominally significant improvements over placebo were observed for vortioxetine doses of 10 and 20 mg when the primary end-point was evaluated using the mixed model for repeated measures as the secondary analysis, and 10 mg in secondary measures of response and patient functioning. Vortioxetine was well tolerated. Nausea, constipation, dry mouth, dizziness, and insomnia each occurred at a &gt;twofold higher rate than placebo. Discontinuation symptom scores were comparable between all groups after 1 and 2 weeks following withdrawal of the study drug. While vortioxetine failed to meet significance versus placebo in the primary efficacy analysis, there was evidence of efficacy for the 10- and 20-mg doses in secondary analyses. Vortioxetine was safe and well tolerated. Additional studies appear warranted.</t>
+          <t>Anchorage onto permanent dentition is a common procedure in rapid maxillary expansion. However, replacing first permanent molars with the second deciduous molars seems to be an option to reduce some negative side effects during orthodontic treatment. The purpose of this study was to evaluate the dental effect of rapid maxillary expansion with anchorage exclusively onto deciduous teeth performed in the first period of transition. Twenty patients with a lateral cross-bite treated exclusively by a Haas expander in early mixed dentition were retrospectively analyzed before treatment, at appliance removal, and at 21 months out of retention. The sagittal and transverse dimensions, together with the inter-canine arch and irregularity index, were digitally measured on scanned images of dental casts. The patients were compared with three balanced control groups (in total, 60 individuals) matched for gender. Two control groups had the same canine dental class as the treated group at T1, were in the inter-transitional period, and either had or lacked a lateral cross-bite. The last control group was comprised of adolescents in permanent dentition with a dental class I. The statistical analysis was performed by means of repeated-measures ANOVA for paired data and one-way ANOVA, the Kruskal-Wallis test, and the Mann-Whitney test for independent measures (α-level p &lt; 0.05). At the end of follow-up (inter-transitional period of dentition), the dental arch dimensions of treated patients were similar to those of adolescents with a dental class I and significantly wider than those of patients with a lateral cross-bite. Also, the anterior irregularity index was lower among patients who had undergone expansion treatments than in all untreated study participants. The Haas expander anchored to the deciduous teeth is effective in increasing the dental arch width in patients with a lateral cross-bite. The dimensions of the dental arch were modified earlier toward the values of the permanent dentition.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35698594</t>
+          <t>24139292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The Incidence and Costs of Adverse Events Associated with Antidepressants: Results from a Systematic Review, Network Meta-Analysis and Multi-Country Economic Model.</t>
+          <t>Surgery first in orthognathic surgery: what have we learned? A comprehensive workflow based on 45 consecutive cases.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>There is variation in the safety profile of antidepressants. Rates of adverse events along with the costs of treating them can be an important factor influencing the choice of depression treatment. This study sought to estimate the comparative safety of commonly prescribed antidepressants, and how the costs of treating these varied across European countries. A systematic literature review was conducted (in Medline, Embase, PsycINFO and CENTRAL) to identify placebo-controlled trials reporting rates of at least one type of sexual dysfunction, weight change, insomnia, anxiety, and anhedonia. Eight antidepressants were considered: duloxetine, escitalopram, fluoxetine, paroxetine, sertraline, trazodone, venlafaxine, and vortioxetine. This evidence was synthesised via Bayesian random effects network meta-analyses to provide comparative estimates of safety. A systematic search identified country-specific costs of managing depression and adverse events of antidepressants. Evidence on costs and safety was combined in an economic model to provide country-specific costs for Bulgaria, the Czech Republic, Greece, Hungary, Italy, Romania, Slovakia, Portugal, and Poland. Trazodone had the lowest rates of both insomnia (odds ratio 0.66, 95% credible interval 0.31 to 1.38) and anxiety (0.13, &lt;0.01 to 1.80). All antidepressants were associated with increased rates of sexual dysfunction relative to placebo. Weight change was largest for fluoxetine (kg change -1.01, -1.40 to -0.60) and sertraline (-1.00, -1.36 to -0.65), although heterogeneity was extreme for this outcome. No evidence was identified for anhedonia. Total costs were lowest for trazodone in all nine of the countries evaluated. This was primarily due to reduced rates of treatment discontinuation. Trazodone generally had the best safety profile of the antidepressants evaluated. This led to healthcare costs being lowest for trazodone in all nine European countries, emphasising the importance of considering rates of adverse events when choosing a pharmacological treatment to treat symptoms of depression.</t>
+          <t>In some patients, "surgery first" (SF) may represent a reasonable approach for the expedited correction of a maxillofacial deformity. Based on the prospective evaluation of a large sample, this article provides a specific orthodontic and surgical protocol, discusses the benefits and limitations of this approach, and updates its indications. Forty-five patients were managed with an SF approach. Selected cases presented symmetrical skeletal malocclusions with no need for extractions or surgically assisted rapid palatal expansion. Periodontal or temporomandibular joint problems and management by an orthodontist without experience in orthognathic surgery were considered exclusion criteria. Virtual treatment planning included a 3-dimensional orthodontic setup. Standard orthognathic osteotomies were followed by buccal interdental corticotomies to amplify the regional acceleratory phenomenon. Miniscrews were placed for postoperative skeletal stabilization. Orthodontic treatment began 2 weeks after surgery. Archwires were changed every 2 to 3 weeks. At 12-month follow-up, patient satisfaction and orthodontist satisfaction were evaluated on a visual analog scale of 1 to 10. Descriptive statistics were computed for all study variables. The studied sample consisted of 27 women and 18 men (mean age, 23.5 yr). The main motivation for treatment was the wish to improve facial esthetics. Bimaxillary surgery was the most common procedure. Mean duration of orthodontic treatment was 37.8 weeks, with an average of 22 orthodontic appointments. Mean patient and orthodontist satisfaction scores were 9.4 (range, 8 to 10) and 9.7 (range, 8 to 10), respectively. The SF approach significantly shortens total treatment time and is very favorably valued by patients and orthodontists. Nevertheless, careful patient selection, precise treatment planning, and fluent bidirectional feedback between the surgeon and the orthodontist are mandatory.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>29277417</t>
+          <t>18005824</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reprint of: Contrasting effects of vortioxetine and paroxetine on pineal gland biochemistry in a tryptophan-depletion model of depression in female rats.</t>
+          <t>Segmental intrusion with mini-screw implant anchorage: a radiographic evaluation.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>We studied the effects of the multi-modal antidepressant, vortioxetine and the SSRI, paroxetine on pineal melatonin and monoamine synthesis in a sub-chronic tryptophan (TRP) depletion model of depression based on a low TRP diet. Female Sprague-Dawley rats were randomised to groups a) control, b) low TRP diet, c) low TRP diet+paroxetine and d) low TRP diet+vortioxetine. Vortioxetine was administered via the diet (0.76mg/kg of food weight) and paroxetine via drinking water (10mg/kg/day) for 14days. Both drugs resulted in SERT occupancies &gt;90%. Vortioxetine significantly reversed TRP depletion-induced reductions of pineal melatonin and serotonin (5-HT) and significantly increased pineal noradrenaline NA. Paroxetine did none of these things. Other studies suggest pineal melatonin synthesis may involve N-methyl-d-aspartate (NMDA) receptors and glutamatergic modulation. Here observed changes may be mediated via vortioxetine's strong 5-HT reuptake blocking action together with possible additional effects on glutamate neurotransmission in the pineal via NMDA receptor-modulation and possibly with added impetus from increased NA output.</t>
+          <t>The orthodontist's ability to intrude and control supraeruption of multiple teeth is fundamental for effective and efficient treatment outcomes. To better understand segmental intrusion with fixed anchorage, we evaluated the effects of various forces on the amount of intrusion, root resorption, and mini-screw implant (MSI) stability. The sample included 8 mature beagle dogs, 20 to 24 months old. Intrusive forces were applied for 98 days by using a cast Vitallium appliance (Vitallium; Dentsply, York, Pa) incorporating the maxillary first, second, and third premolars as segments on each side. To accurately control the forces applied, 2 MSIs, 1 anterior and 1 posterior, were placed at the level of the first and third premolars of each segment. The sample was randomly divided into 2 groups; group 1 (n = 4) was assigned to have constant intrusive forces of 50 g anteriorly and 100 g posteriorly; the forces for group 2 (n = 4) were opposite those of group 1. Standardized periapical radiographs were taken at 14-day intervals to evaluate segmental intrusion and root resorption. Multilevel statistical procedures were used to model the treatment changes. All MSIs remained stable throughout the experiment. Small but significant (P &lt;.05) amounts of root resorption (0.6 mm or less) occurred at the apices. Statistically significant (P &lt;.05) amounts of intrusion were obtained for the segments of group 1 (2.0 mm anterior, 1.5 mm posterior). Only the anterior aspect of the segment of group 2 was intruded significantly (0.9 mm). Segmental intrusion can be achieved successfully and reliably with immediately loaded MSIs and relatively light forces (150 g). Force distribution plays an important role in determining how the segments were intruded.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>38239568</t>
+          <t>27021460</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Treatment of Depression with Vortioxetine and Second Generation Antipsychotics During the Period of Remission Formation in Schizophrenia (Interim Data Analysis).</t>
+          <t>Diagnosis and conservative treatment of skeletal Class III malocclusion with anterior crossbite and asymmetric maxillary crowding.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Depression in patients with schizophrenia worsens the course of the disease by increasing the risk of suicide, by complicating the clinical picture of the disorder, and by reducing the quality of the social functioning; its treatment is difficult, since monotherapy, even when involving modern antipsychotics, does not always prove successful. While the prescription of additional antidepressants (ADs) can improve the likelihood of a better outcome, the effectiveness of such augmentation in many cases is yet to be proven. Therefore, it is still important that one weighs the effectiveness of various combinations between most of the known ADs and some second-generation antipsychotic (SGA) in the treatment of depression that occurs at different stages of schizophrenia. In previous studies, the use of vortioxetine as an adjunct to an antipsychotic yielded a reduction in negative symptoms, a clinically significant improvement in cognitive functions that differed from its antidepressant effect, and good tolerability, which affects how committed to treatment a patient remains. To study the changes that occur over time in the clinical manifestations of depression, negative and cognitive impairment, as well as the social adequacy of patients receiving a combination therapy with second-generation antipsychotics and vortioxetine, which were prescribed in real clinical practice at doses approved in the Russian Federation. We performed a comparative analysis of the changes in depression symptoms and negative symptoms, cognitive impairment, as well as function of 78 patients with severe manifestations of depression at the stage of exacerbation reduction and subsequent remission of paranoid schizophrenia. Combination treatment with SGA and vortioxetine was used in 39 patients, and 39 patients who had similar clinical manifestations received just SGA. During the observation period, the mental disorder severity and depression symptom severity were assessed 3 times (before the start of treatment, after three months, and after six months) using the Clinical Global Impression (CGI) scale and Calgary Depression Scale for Schizophrenia (CDSS), respectively; patients were also assessed using the Negative Symptoms Assessment-5 (NSA-5) scale, Perceived Deficits Questionnaire-20 items (PDQ-20) scale, and Personal and Social Performance (PSP) scale. According to the ANOVA results, by the end of the observation period, patients, regardless of their therapeutic group, showed a statistically significant decrease in the level of depression on the CDSS scale, the severity of negative symptoms on the NSA-5 scale, cognitive symptoms on the PDQ-20 scale, as well as an improvement in personality and society, judging by the increase in the total PSP scores. There were also significant differences between the compared main (SGA + vortioxetine) and control (SGA) groups in terms of the changes in the total score on the CDSS and PSP scales. An interesting aspect of the changes in the clinical scores was a noticeable improvement in the SGA + vortioxetine group after 3 months of treatment, in the absence of a similar improvement in the control group, and the achievement of approximately the same scores in both groups after 6 months. In particular, there were significant differences between the SGA + vortioxetine and SGA groups in terms of the mean CDSS (&lt;i&gt;p&lt;/i&gt; 0.001), NSA-5 (&lt;i&gt;p&lt;/i&gt;=0.003), PDQ-20 (&lt;i&gt;p&lt;/i&gt; 0.001), and PSP (&lt;i&gt;p&lt;/i&gt;=0.004) scores after 3 months. Analysis of the time before early withdrawal from the study showed that significantly more patients in the SGA + vortioxetine group completed the study program (&lt;i&gt;n&lt;/i&gt;=27, 69.23%) compared with the SGA group (&lt;i&gt;n&lt;/i&gt;=13, 33.33%) (&lt;sup&gt;2&lt;/sup&gt; =14.618, df=1, &lt;i&gt;p&lt;/i&gt; 0.001, log-rank test. The mean survival time in the SGA group was significantly (&lt;i&gt;p&lt;/i&gt; 0.001) less and amounted to 101.436 days (95% CI: 81.518121.354), and in the SGA + vortioxetine group it amounted to 161.744 days (147.981175.506). The relative risk of full study completion in the vortioxetine + SGA group compared with that in SGA was 3.618 (1.8716.994). The addition of vortioxetine to the SGA therapy accelerates the reduction of the depression symptoms that occur at the stage of psychosis regression and early remission, contributes to the accelerated reduction in negative symptoms, positively affects the subjective assessment of cognitive impairment severity, and has a significant positive effect on the level of psychosocial functioning.</t>
+          <t>A man, aged 28 years 9 months, came for an orthodontic consultation for a skeletal Class III malocclusion (ANB angle, -3°) with a modest asymmetric Class II and Class III molar relationship, complicated by an anterior crossbite, a deepbite, and 12 mm of asymmetric maxillary crowding. Despite the severity of the malocclusion (Discrepancy Index, 37), the patient desired noninvasive camouflage treatment. The 3-Ring diagnosis showed that treatment without extractions or orthognathic surgery was a viable approach. Arch length analysis indicated that differential interproximal enamel reduction could resolve the crowding and midline discrepancy, but a miniscrew in the infrazygomatic crest was needed to retract the right buccal segment. The patient accepted the complex, staged treatment plan with the understanding that it would require about 3.5 years. Fixed appliance treatment with passive self-ligating brackets, early light short elastics, bite turbos, interproximal enamel reduction, and infrazygomatic crest retraction opened the vertical dimension of the occlusion, improved the ANB angle by 2°, and achieved excellent alignment, as evidenced by a Cast Radiograph Evaluation score of 28 and a Pink and White dental esthetic score of 3.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34269645</t>
+          <t>21981748</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Statement of Retraction: Efficacy and safety of vortioxetine for the treatment of major depressive disorder: a randomised double-blind placebo-controlled study.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Full-mouth rehabilitation of a patient with severely worn dentition and uneven occlusal plane: a clinical report.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Severe tooth wear is frequently multifactorial and variable. Successful management is a subject of interest in dentistry. A critical aspect is to determine the occlusal vertical dimension (OVD) and a systematic approach that can lead to a predictable and favorable treatment prognosis. Management of patients with worn dentition is complex and difficult. Accurate clinical and radiographic examinations, a diagnostic wax-up, and determining OVD are crucial. Using mini-implants as orthodontic anchorage may facilitate orthodontic movement of teeth to improve their position, which is necessary for favorable prosthetic treatment. A 46-year-old man was referred for restoration of his worn and missing teeth. After diagnostic work-up, provisional removable prostheses were fabricated for both jaws, evaluated clinically, and adjusted according to esthetic, phonetic, and vertical dimension criteria. Clinical crown lengthening and free gingival graft procedures were performed in appropriate areas. Drifting of the left posterior mandibular teeth was corrected using mini-implants as orthodontic anchorage. Two conventional implants were inserted in the right mandibular edentulous area. After endodontic therapy of worn teeth, custom-cast gold dowels and cores were fabricated, and provisional removable prostheses were replaced with fixed provisional restorations. Metal-ceramic restorations were fabricated, and a removable partial denture with attachments was fabricated for maxillary edentulous areas. An occlusal splint was used to protect the restorations. Full-mouth rehabilitation of the patient with severely worn dentition and an uneven occlusal plane was found to be successful after 3 years of follow-up. This result can encourage clinicians to seek accurate diagnosis and treatment planning to treat such patients.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21767441</t>
+          <t>34344059</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A double-blind, randomized, placebo-controlled, active reference study of Lu AA21004 in patients with major depressive disorder.</t>
+          <t>Accuracy of direct insertion of TADs in the anterior palate with respect to a 3D-assisted digital insertion virtual planning.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The efficacy, safety, and tolerability of Lu AA21004 vs. placebo using venlafaxine XR as active reference in patients with DSM-IV-TR major depressive disorder (MDD) were evaluated. Lu AA21004 is a novel antidepressant that is a 5-HT3 and 5-HT7 receptor antagonist, 5-HT1A receptor agonist, 5-HT1B receptor partial agonist and inhibitor of the 5-HT transporter in recombinant cell lines. In this 6-wk, multi-site study, 429 patients were randomly assigned (1:1:1:1) to 5 or 10 mg Lu AA21004, placebo or 225 mg venlafaxine XR. All patients had a baseline Montgomery-Åsberg Depression Rating Scale (MADRS) total score ≥ 30. The primary efficacy analysis was based on the MADRS total score adjusting for multiplicity using a hierarchical testing procedure starting with the highest dose vs. placebo. Lu AA21004 was statistically significantly superior to placebo (n=105) in mean change from baseline in MADRS total score at week 6 (p&lt;0.0001, last observation carried forward), with a mean treatment difference vs. placebo of 5.9 (5 mg, n=108), and 5.7 (10 mg, n=100) points. Venlafaxine XR (n=112) was also significantly superior to placebo at week 6 (p&lt;0.0001). In total, 30 patients withdrew due to adverse events (AEs)--placebo: four (4%); 5 mg Lu AA21004: three (3%); 10 mg Lu AA21004: seven (7%); and venlafaxine: 16 (14%). The most common AEs were nausea, headache, hyperhidrosis, and dry mouth. No clinically relevant changes over time were seen in the clinical laboratory results, vital signs, weight, or ECG parameters. In this study, treatment with 5 mg and 10 mg Lu AA21004 for 6 wk was efficacious and well tolerated in patients with MDD.</t>
+          <t>Direct and 3D-assisted methods are an available alternative when inserting temporary anchorage devices (TADs) in the anterior palate for orthodontic anchorage. This study aimed to evaluate the differences between a planned insertion versus a direct method on digital models. Seventy TADs were inserted by the direct insertion method in 35 patients who needed palatal TADs for orthodontic anchorage. For each patient, placement was independently planned by the superimposition of lateral cephalograms and corresponding plaster models. After mini-implant placement, impressions were taken with scanbodies. For the measurement of both linear and angle deviations, virtual planning models and postoperative oral scans were compared using 3D software for automatic surface registration and calculations. Comparing TADs positioned by the direct method and the digitally planned method, a mean linear distance was found of 2.54 ± 1.51 mm in the occlusal view and 2.41 ± 1.33 mm in the sagittal view. No significant difference has been found between TADs positioned in the right and left palatal sides. A mean distance of 7.65 ± 2.16 mm was found between the tip of the digitally planned TAD and the central incisors root apex. Both direct and 3D-assisted TAD insertion methods are safe and accurate in the anterior palate. However, the use of insertion guides facilitates TAD insertion, allowing less-experienced clinicians to use palatal implants.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>36683990</t>
+          <t>34803028</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Effectiveness of vortioxetine for major depressive disorder in real-world clinical practice: US cohort results from the global RELIEVE study.</t>
+          <t>Effects of self-ligating brackets and other factors influencing orthodontic treatment outcomes: A prospective cohort study.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Effective treatment of major depressive disorder (MDD) involves addressing both depressive and functional symptoms, increasing patients' overall sense of well-being and quality of life (QoL). RELIEVE was an international observational, prospective study in patients ≥18 years with a current diagnosis of a major depressive episode (MDE) initiating vortioxetine in routine clinical practice; outcomes for the cohort of participants from the United States are presented here. Functioning was assessed at weeks 12 and 24 versus baseline using the Sheehan Disability Scale (SDS). Secondary effectiveness analyses assessed changes from baseline to weeks 12 and 24 in functioning, depression severity, cognitive symptoms, sexual function, and QoL. 244 participants had an average of 8.2 previous MDEs; mean duration of their current MDE at baseline was 93.5 weeks. Vortioxetine was used as second- or later-line treatment for 80.5% of participants. Least-squares mean (SE) SDS total score significantly decreased from baseline by 7.19 (0.52) points at week 12 and 8.19 (0.56) points at week 24 (&lt;i&gt;p&lt;/i&gt; &lt; 0.0001 for both). Significant improvements were also reflected across SDS subscores, depression severity, cognitive function, sexual function, and QoL. Healthcare resource utilization and productivity parameters also improved. Adverse events were observed in 21.8% of patients, with nausea being the most common (7.3%). This real-world study demonstrated improvements in functioning, depressive symptoms, and cognitive function in patients with MDD treated with vortioxetine in routine clinical practice in the cohort of patients enrolled in the United States. Outcomes were consistent with the efficacy and safety profile of vortioxetine in randomized controlled trials.</t>
+          <t>The purpose of this study was to evaluate the effects of self-ligating brackets (SBs) and other factors that influence orthodontic treatment outcomes. This two-armed cohort study included consecutively treated patients in a private practice. The patients were asked to choose between SBs and conventional brackets (CBs); if any patient did not have a preference, he or she was randomly allocated to the CB or SB group. All patients were treated using an identical archwire sequence. Evaluated parameters were as follows: treatment duration, number of bracket failures, poor oral hygiene, poor elastic wear, extraction, use of orthodontic mini-implants (OMI), OMI failure, American Board of Orthodontics (ABO) Discrepancy Index (DI), arch length discrepancy, and ABO Cast-Radiograph Evaluation (CRE) score. Stepwise regression analysis was performed to generate the equation for prediction of the CRE. The final sample comprised 134 patients with an average age of 22.73 years. The average DI, CRE, and treatment duration were 21.81, 14.25, and 28.63 months, respectively. Analysis of covariance showed a significant difference in CRE between the CB and SB groups after adjusting for the effects of confounding variables. Stepwise regression analysis using four variables, namely extraction, SB use, poor elastic wear, and additional appliance use, could explain only 25.2% of the variance in the CRE. Although the CRE was significantly better for CBs than for SBs, the clinical significance of this result seems to be limited. Extraction, SB use, poor elastic wear, and additional appliance use may have significant effects on treatment outcomes.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>25087600</t>
+          <t>19413387</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A randomised, double-blind study in adults with major depressive disorder with an inadequate response to a single course of selective serotonin reuptake inhibitor or serotonin-noradrenaline reuptake inhibitor treatment switched to vortioxetine or agomelatine.</t>
+          <t>A novel method for the assessment of three-dimensional tooth movement during orthodontic treatment.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>This randomised, double-blind, 12-week study compared efficacy and tolerability of flexible-dose treatment with vortioxetine(10-20 mg/day) versus agomelatine (25-50 mg/day) in major depressive disorder patients with inadequate response to selective serotonin reuptake inhibitor (SSRI)/serotonin-noradrenaline reuptake inhibitor (SNRI) monotherapy. Patients were switched directly from SSRI/SNRI to vortioxetine or agomelatine. Primary endpoint was change from baseline to week 8 in the Montgomery-Åsberg Depression Rating Scale (MADRS) total score analysed by mixed model for repeated measurements, using a noninferiority test followed by a superiority test. Secondary endpoints included response and remission rates, anxiety symptoms(Hamilton Anxiety Rating Scale), Clinical Global Impression, overall functioning (Sheehan Disability Scale), health-related quality of life(EuroQol 5 Dimensions), productivity (work limitation questionnaire) and family functioning (Depression and Family Functioning Scale). Primary endpoint noninferiority was established and vortioxetine (n = 252) was superior to agomelatine (n = 241) by 2.2 MADRS points (p&lt;0.01). Vortioxetine was also significantly superior in response and remission rates at weeks 8 and 12; MADRS, Hamilton Anxiety Rating Scale, Clinical Global Impression, Sheehan Disability Scale and EuroQol 5 Dimensions scores at week 4 onwards; work limitation questionnaire at week 8 and Depression and Family Functioning Scale at weeks 8 and 12. Fewer patients withdrew because of adverse events with vortioxetine (5.9% vs 9.5%). Adverse events (incidence ≥5%) were nausea, headache, dizziness and somnolence. Vortioxetine was noninferior and significantly superior to agomelatine in major depressive disorder patients with previous inadequate response to a single course of SSRI/SNRI monotherapy. Vortioxetine was safe and well tolerated.</t>
+          <t>To (1) evaluate the stability of palatal rugae as landmarks for superimposition of dental casts and (2) establish a three-dimensional superimposition method of maxillary dental casts for analyzing orthodontic tooth movement. The sample consisted of dental casts obtained from 10 patients treated with extraction of bilateral maxillary first premolars and placement of three palatal miniscrews as anchorage for retraction of the anterior teeth. Dental casts were measured by means of laser surface scanning system, and three-dimensional images were reconstructed. Serial dental casts were superimposed on the three miniscrews as registration landmarks (miniscrew-superimposition method), and the displacement of each palatal ruga point during the closure of extraction spaces was measured. Displacement of the central incisors was measured by the miniscrew-superimposition method and the proposed superimposition technique (ruga-palate-superimposition method). Correlation analysis and paired t-tests were performed to determine whether a significant difference existed between the measurements of the two superimposition methods. The medial points of the third palatal rugae and the shape of the palatal vault were stable throughout the treatment. The displacement of the central incisors measured using the ruga-palate-superimposition method showed no significant difference with that measured using the miniscrew-superimposition method. The maxillary dental casts can be reliably superimposed on the medial points of the third palatal rugae and the palatal vault as reference landmarks.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>27312740</t>
+          <t>26124025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Effects of Vortioxetine on Cognitive Function in Patients with Major Depressive Disorder: A Meta-Analysis of Three Randomized Controlled Trials.</t>
+          <t>Evolution of Class III treatment in orthodontics.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Management of cognitive deficits in Major Depressive Disorder (MDD) remains an important unmet need. This meta-analysis evaluated the effects of vortioxetine on cognition in patients with MDD. Random effects meta-analysis was applied to three randomized, double-blind, placebo-controlled 8-week trials of vortioxetine (5-20mg/day) in MDD, and separately to two duloxetine-referenced trials. The primary outcome measure was change in Digit Symbol Substitution Test (DSST) score. Standardized effect sizes (SES) versus placebo (Cohen's d ) were used as input. Path analysis was employed to determine the extent to which changes in DSST were mediated independently of a change in Montgomery-Åsberg Depression Rating Scale (MADRS) score. Meta-analysis was applied to MADRS-adjusted and -unadjusted SES values. Changes on additional cognitive tests were evaluated (source studies only). Before adjustment for MADRS, vortioxetine separated from placebo on DSST score (SES 0.25-0.48; nominal p &lt; 0.05) in all individual trials, and statistically improved DSST performance versus placebo in meta-analyses of the three trials (SES = 0.35; p &lt; 0.0001) and two duloxetine-referenced trials (SES = 0.26; p = 0.001). After adjustment for MADRS, vortioxetine maintained DSST improvement in one individual trial ( p = 0.001) and separation from placebo was maintained in meta-analyses of all three trials (SES = 0.24; p &lt; 0.0001) and both duloxetine-referenced trials (SES 0.19; p = 0.01). Change in DSST with duloxetine failed to separate from placebo in individual trials and both meta-analyses. Change in DSST statistically favored vortioxetine versus duloxetine after MADRS adjustment (SES = 0.16; p = 0.04). Vortioxetine, but not duloxetine, significantly improved cognition, independent of depressive symptoms. Vortioxetine represents an important treatment for MDD-related cognitive dysfunction.</t>
+          <t>Angle, Tweed, and Moyers classified Class III malocclusions into 3 types: pseudo, dentoalveolar, and skeletal. Clinicians have been trying to identify the best timing to intercept a Class III malocclusion that develops as early as the deciduous dentition. With microimplants as skeletal anchorage, orthopedic growth modification became more effective, and it also increased the scope of camouflage orthodontic treatment for patients who were not eligible for orthognathic surgery. However, orthodontic treatment combined with orthognathic surgery remains the only option for patients with a severe skeletal Class III malocclusion or a craniofacial anomaly. Distraction osteogenesis can now be performed intraorally at an earlier age. The surgery-first approach can minimize the length of time that the malocclusion needs to worsen before orthognathic surgery. Finally, the use of computed tomography scans for 3-dimensional diagnosis and treatment planning together with advances in imaging technology can improve the accuracy of surgical movements and the esthetic outcomes for these patients.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>26035185</t>
+          <t>18380968</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A randomized, double-blind, placebo-controlled study of the efficacy and safety of vortioxetine 10 mg and 20 mg in adults with major depressive disorder.</t>
+          <t>[Treatment of maxillary protrusion in adult with self-tapping micro-screw implants].</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Vortioxetine (Lu AA21004) is an antidepressant with a mechanism of action thought to be related to a combination of 2 pharmacologic actions: direct modulation of several receptors and inhibition of the serotonin transporter. To evaluate the efficacy of vortioxetine 10 and 20 mg once daily in outpatients with major depressive disorder. This 8-week, multicenter, randomized, double-blind, placebo-controlled, parallel-group study was conducted from July 2010 to January 2012 among adults with a primary diagnosis of recurrent major depressive disorder (DSM-IV-TR). Eligible subjects were randomized in 1:1:1 ratio to 1 of 3 treatment arms: vortioxetine 10 mg, vortioxetine 20 mg, or placebo once daily for 8 weeks. Subjects who completed the 8-week trial entered a 2-week blinded discontinuation period to assess potential discontinuation symptoms. The primary endpoint was the least squares mean change in Montgomery-Asberg Depression Rating Scale (MADRS) total score from baseline. Key secondary outcomes were analyzed in the following prespecified sequential order: MADRS response (≥ 50% decrease from baseline in total score), Clinical Global Impressions-Improvement score, change from baseline in MADRS total score in subjects with baseline Hamilton Anxiety Rating Scale score ≥ 20, MADRS remission (total score ≤ 10), and change from baseline in Sheehan Disability Scale total score (all at week 8). A total of 462 subjects were randomized to placebo (n = 157), vortioxetine 10 mg (n = 155), and vortioxetine 20 mg (n = 150). Mean (SE) reductions from baseline in MADRS total score (week 8) were -10.77 (± 0.807), -12.96 (± 0.832), and -14.41 (± 0.845) for the placebo, vortioxetine 10 mg (P = .058 vs placebo), and vortioxetine 20 mg (P = .002 vs placebo) groups. MADRS response/remission was achieved in 28.4%/14.2%, 33.8%/21.4%, and 39.2%/22.3% of subjects, respectively, in the 3 groups. Only MADRS response for vortioxetine 20 mg significantly separated from placebo (P = .044). Treatment was well tolerated, with the most frequently reported adverse events consisting of nausea, headache, diarrhea, and dizziness. Vortioxetine 20 mg significantly reduced MADRS total score at 8 weeks in this study population. Overall, vortioxetine was well tolerated in this study. ClinicalTrials.gov identifier: NCT01163266.</t>
+          <t>To investigate the position change of upper molars and incisors in order to evaluate the stability of posterior anchorage with the application of micro-screw implant. Eight adult patients with severe maxillary protrusion were included. Upper first premolars were extracted and upper posterior anchorage was reinforced with micro-screw implant in all patients. Cephalometric and cast analyses were carried out to record the position change of molar and micro-screw. During treatment the micro-screw implants kept stable in sagittal and vertical plane. Neither the mesial-distal movement nor the tipping of the upper molars during the treatment was statistically significant (P &gt; 0.05). The edge of upper incisors was retracted by 6.86 mm and the tipping was reduced by 18.03 degrees . The center of resistance was intruded by 3.28 mm on average. Significant change was observed (P &lt; 0.01). Micro-screw implant could provide good anchorage control in the orthodontic treatment.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37115460</t>
+          <t>16620616</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Evidence-Based Pharmacotherapy of Anxiety Symptoms in Patients with Major Depressive Disorder: Focus on Agomelatine.</t>
+          <t>[Stability of upper molars with the application of implant anchorage].</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Patients with depression require thorough clinical assessment, which should include symptom profile, severity and staging, personality factors, antecedent and concurrent psychiatric comorbidity, physical comorbidity, neurocognitive function, exposure to stressors in early life (e.g. trauma) or recently (e.g. bereavement), and protective factors. The presence of anxiety symptoms in a depressed patient is associated with more severe depression, increased suicidality and worse outcomes compared with non-anxious depression. A network meta-analysis of antidepressant treatments found that agomelatine, citalopram, amitriptyline, escitalopram, mirtazapine, paroxetine, venlafaxine and vortioxetine were all significantly more effective than other antidepressants for the treatment of depression, and that agomelatine, citalopram, escitalopram, fluoxetine, sertraline and vortioxetine were better tolerated than other antidepressants. Agomelatine has been shown to have two major effects-relieving depressive symptoms, and supporting symptomatic and functional recovery-and these benefits have been demonstrated in patients with depression as well as in patients with generalised anxiety disorder, including those with more severe symptoms. Agomelatine has also been shown to be efficacious and well tolerated in patients with depression plus concomitant anxiety symptoms. A pooled analysis of data from six agomelatine studies of depression (three placebo-controlled and three with active comparators-fluoxetine, sertraline and venlafaxine) found that agomelatine was significantly more effective than placebo at relieving the anxiety subscore on the Hamilton Depression Rating Scale, and that the difference between agomelatine and placebo was even more marked in the subgroup of patients with severe anxiety symptoms at baseline. Irrespective of the pharmacotherapy used in patients with depression, the likelihoods of response and remission are increased when pharmacotherapy is combined with psychotherapy, with this approach being more effective than either pharmacotherapy or psychotherapy alone. Persistence with treatment is important, and clinicians should therefore encourage patients to keep trying to obtain relief.</t>
+          <t>To investigate the stability of upper molars with the application of micro-screw implant anchorage during orthodontic treatment. Fifteen adult patients with severe maxillary protrusion were included. Upper first premolars were extracted and upper posterior anchorage was reinforced with micro-screw implant in all patients. The average treatment period to close the extraction space was 10.5 months. Cephalometric and cast analysis were carried out. During the treatment, the micro-screw implants kept stable in sagittal plane; neither the mesial-distal movement nor the rotation or tipping of the upper molars during the treatment was of statistic significance (P &gt; 0.05); the edge of upper incisors was retracted by 6.99 mm on average, and no significant vertical change was observed (P &gt; 0.05). Micro-screw implant could provide good anchorage control in the orthodontic treatment.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>35971416</t>
+          <t>29653870</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Effectiveness of Vortioxetine in Patients with Major Depressive Disorder in Real-World Clinical Practice in Italy: Results from the RELIEVE Study.</t>
+          <t>Palatal orthodontic miniscrew insertion using a CAD-CAM surgical guide: description of a technique.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vortioxetine has demonstrated efficacy in randomized controlled trials and is approved for the treatment of major depressive disorder (MDD); however, data are limited concerning its effectiveness when used in routine clinical care. The Real-Life Effectiveness of Vortioxetine in Depression (RELIEVE) study aimed to assess the effectiveness and tolerability of vortioxetine for the treatment of MDD in routine clinical practice in Canada, France, Italy, and the USA. This paper presents findings for the patient cohort in Italy. RELIEVE was a 6-month, international, observational, prospective cohort study in outpatients initiating vortioxetine treatment for MDD in routine care settings at their physician's discretion (NCT03555136). Patient functioning was assessed using the Sheehan Disability Scale (SDS). Secondary outcomes included depression severity (9-item Patient Health Questionnaire [PHQ-9]), cognitive symptoms (5-item Perceived Deficits Questionnaire-Depression [PDQ-D-5]), and quality of life (EuroQol 5-Dimensions 5-Levels questionnaire [EQ-5D-5L]). Changes from baseline to month 6 were assessed using mixed models for repeated measures, adjusted for relevant confounders. Data are available for 231 patients enrolled in Italy (mean age, 55.5 years; 27% &gt;65 years). Overall, 69% of patients reported at least one comorbidity, 55% were overweight/obese, and 47% had current anxiety symptoms. Adjusted least-squares mean (standard error) change in SDS score from baseline to week 24 was -6.6 (0.6) points (&lt;i&gt;P&lt;/i&gt; &lt; 0.001). Respective changes in PHQ-9, PDQ-D-5, and EQ-5D-5L scores were -5.9 (0.5), -3.6 (0.4), and +0.13 (0.01) points (all &lt;i&gt;P&lt;/i&gt; &lt; 0.0001). Adverse events were reported by 29 patients (13%), most commonly nausea (n = 14, 6%). Eleven patients (5%) discontinued treatment due to adverse events. Clinically relevant and sustained improvements in overall functioning, symptoms of depression, cognitive symptoms, and health-related quality of life were observed in patients with MDD treated with vortioxetine over a period of 6 months in routine care in Italy, including a high proportion of elderly patients.</t>
+          <t>The aim of this report was to describe a new computer-guided technique for a controlled site preparation and palatal orthodontic miniscrew insertion using a dedicated software. A surgical guide was designed after planning the appropriate insertion sites on three-dimensional images created by the fusion of cone-beam computed tomography (CBCT) and digital dental model images. Pre- and postoperative CBCT images were compared and the angular, coronal, and apical deviations between the planned and the placed miniscrews were calculated. The mean coronal and apical deviations were 1.38mm (range: 3.48-0.15mm; standard deviation (SD): 0.65) and 1.73mm (range: 5.41-0.10mm; SD: 1.03), respectively, while the mean angular deviation was 4.60° (range: 15.23-0.54°; SD: 2.54). The present surgical guide allows a controlled and accurate palatal miniscrew placement in three dimensions.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>33583460</t>
+          <t>26593168</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Comparative efficacy of pharmacological treatments on measures of self-rated functional outcomes using the Sheehan Disability Scale in patients with major depressive disorder: a systematic review and network meta-analysis.</t>
+          <t>Evaluation of mini-implant sites in the posterior maxilla using traditional radiographs and cone-beam computed tomography.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>More than 50% patients with major depressive disorder (MDD) have severe functional impairment. The restoration of patient functioning is a critical therapeutic goal among patients with MDD. We conducted a systematic review and network meta-analysis to evaluate the efficacy of pharmacological treatments on self-rated functional outcomes using the Sheehan Disability Scale in adults with MDD in randomized clinical trials. PubMed, EMBASE, PsycINFO, Cochrane Library, and ClinicalTrials.gov were searched from inception to December 10, 2019. Summary statistics are reported as weighted mean differences with 95% confidence intervals. Interventions were ranked using the surface under the cumulative ranking probabilities. We included 42 randomized controlled trials (RCTs) (n = 18 998) evaluating the efficacy of 13 different pharmacological treatments on functional outcomes, as measured by the Sheehan Disability Scale (SDS). Duloxetine was the most effective pharmacological agent on functional outcomes, followed by (ranked by efficacy): paroxetine, levomilnacipran, venlafaxine, quetiapine, desvenlafaxine, agomelatine, escitalopram, amitriptyline, bupropion, sertraline, vortioxetine, and fluoxetine. Serotonin and norepinephrine reuptake inhibitors were more effective than other drug classes. Additionally, the comparison-adjusted funnel plot suggested the publication bias between small and large studies was relatively low. Our results indicate that there may be differences across antidepressant agents and classes with respect to self-reported functional outcomes. Validation and replication of these findings in large-scale RCTs are warranted. Our research results will be clinically useful for guiding psychiatrists in treating patients with MDD and functional impairment. PROSPERO registration number CRD42018116663.</t>
+          <t>To evaluate the accuracy of using routine 2-dimensional (2D) radiographs (panoramic and periapical) when evaluating the position of orthodontic temporary anchorage devices (mini-implants) in the maxilla, and to compare the results to 3-dimensional cone-beam computed tomography (CBCT). This cross-sectional study was conducted at King Abdulaziz University, Faculty of Dentistry, Jeddah, Kingdom of Saudi Arabia from February 2014 to January 2015. Panoramic and periapical radiographs were used to examine the position of mini-implants in relation to the adjacent roots. Rating of mini-implants position was performed by 82 dentists from different specialties, using 2D images according to the following criteria: 1) away from the root; 2) mini-implant tip appears touching the lamina dura; and 3) mini-implant overlays the lamina dura. The results were compared with CBCT findings. There was no difference between dentists from different specialties when rating the position of the mini-implants (Cronbach's alpha=0.956). The accuracy of the periapical images was 45.1%, while the panoramic images 33.6%. However, both panoramic and periapical radiographs were significantly inaccurate when assessing the mini-implant position when compared with the CBCT findings (p=0.0001). Three-dimensional CBCT technology allows better visualization of mini-implant placement. The use of CBCT when assessing the position of mini-implants is recommended.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>22156184</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Orthodontic treatment of a transposed gigantic canine --a case report.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cuspid gigantism or radicomegaly is a rare occurrence often associated with a hereditary, X-linked condition, called oculo-cardio-facio-dental (OFCD)syndrome. This syndrome is also characterized by atrial septal defects and/or ventricular septal defects, congenital cataracts and unusual facial characteristics.Confirmation of this syndrome is often provided by dentists or orthodontists when they diagnose an extremely large canine root length from the panoramic radiograph. The following case report shows a multidisciplinary approach to the dental treatment of a patient with OFCD syndrome and a canine-first premolar transposition. The orthodontic approach required a mini-plate to achieve significant mesial movement of a gigantic maxillary canine that erupted in close contact with the first molar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>33293029</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Spontaneous repair of iatrogenic root perforation by an orthodontic miniscrew: A case report.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Orthodontic miniscrews have become popular tools for providing temporary anchorage during orthodontic treatment. Although they are easy to insert, damage to the periodontal ligament or dental root during insertion is an unfavorable iatrogenic complication. Root perforation during miniscrew insertion in human teeth has been reported in a few articles. In this article, the authors describe the spontaneous repair of an iatrogenic root perforation in a mandibular first molar that occurred during insertion of an orthodontic miniscrew in a young girl undergoing orthodontic treatment. A 15-year-old girl with malocclusion was undergoing orthodontic treatment when the mesial root of her mandibular right first molar was damaged by an orthodontic miniscrew. The miniscrew and corresponding bracket were immediately removed to avoid any unnecessary forces on the tooth. Because the pulp remained vital without any additional damage and infection for 6 months, orthodontic treatment was resumed and completed in 9 months without any pulp damage or unfavorable symptoms. Serial periapical radiographs and cone-beam computed tomographic images showed that the injured area was surrounded by reparative tissue without any apical lesion. The findings of this case suggest that immediate removal of unnecessary forces provides an environment for spontaneous repair in cases of iatrogenic root perforation by orthodontic miniscrews, even when the damage involves the pulp. If force stimulation is avoided for a certain period, which was 6 months in this case, it may be possible to complete the orthodontic treatment without unfavorable symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>18672131</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A method to transfer planned implant locations to a preorthodontic cast.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A technique is presented to transfer the orthodontic implant position from the diagnostic tooth arrangement onto the original cast. Plastic cast bases combined with a customized position plate are used to fabricate duplicates of the original dental casts. The position plate is customized with a transparent ruled grid trimmed and attached on its upper surface to allow easy transfer of the proposed implant position from the diagnostic arrangement to the original cast.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>28280726</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Developing Customized Dental Miniscrew Surgical Template from Thermoplastic Polymer Material Using Image Superimposition, CAD System, and 3D Printing.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>This study integrates cone-beam computed tomography (CBCT)/laser scan image superposition, computer-aided design (CAD), and 3D printing (3DP) to develop a technology for producing customized dental (orthodontic) miniscrew surgical templates using polymer material. Maxillary bone solid models with the bone and teeth reconstructed using CBCT images and teeth and mucosa outer profile acquired using laser scanning were superimposed to allow miniscrew visual insertion planning and permit surgical template fabrication. The customized surgical template CAD model was fabricated offset based on the teeth/mucosa/bracket contour profiles in the superimposition model and exported to duplicate the plastic template using the 3DP technique and polymer material. An anterior retraction and intrusion clinical test for the maxillary canines/incisors showed that two miniscrews were placed safely and did not produce inflammation or other discomfort symptoms one week after surgery. The fitness between the mucosa and template indicated that the average gap sizes were found smaller than 0.5 mm and confirmed that the surgical template presented good holding power and well-fitting adaption. This study addressed integrating CBCT and laser scan image superposition; CAD and 3DP techniques can be applied to fabricate an accurate customized surgical template for dental orthodontic miniscrews.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>36984116</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Comparison of Two Chosen 3D Printing Resins Designed for Orthodontic Use: An In Vitro Study.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>(1) Background: In recent years, 3D printing has become a highly popular tool for manufacturing in various fields such as aviation, automobiles, plastics, and even medicine, including dentistry. Three-dimensional printing allows dentists to create high-precision models of teeth and jaw structure, and enables them to develop customized tools for patients' treatment. The range of resins used in dentistry is quite large, and this branch is developing rapidly; hence, studies comparing different resins are required. The present study aimed to compare the mechanical properties of two chosen resins used in dentistry. (2) Materials and methods: Ten specimens each of two types of 3D-printable resins (BioMed Amber and IBT, developed by Formlabs) were prepared. The samples were printed on a Formlabs Form 2 3D printer according to ISO standards. Samples for the compression test were rectangular in shape (10 ± 0.2 mm × 10 ± 0.2 mm × 4 ± 0.2 mm), while the samples used for the tensile test were dumbbell shaped (75 mm long, with 10 mm end width and 2 mm thickness). Tensile and compression tests of both materials were performed in accordance with the appropriate ISO standards. (3) Results: The BioMed Amber resin was more resistant to compression and tensile forces, thus implying that the resin could withstand higher stress during stretching, pulling, or pushing. The IBT resin was less resistant to such loads, and failure of this material occurred at lower forces than those for Biomed Amber. An ANOVA test confirmed that the observed differences were statistically significant (&lt;i&gt;p&lt;/i&gt; &lt; 0.001). (4) Conclusions: Based on the properties of both materials, the IBT resin could be better used as a tray for placing orthodontic brackets through an indirect bonding technique, while the BioMed Amber resin would be more useful as a surgical guide for placing dental implants and mini-implants. Further potential fields of application of the resins should be investigated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>34270881</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Artificial intelligence in orthodontics: Where are we now? A scoping review.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>This scoping review aims to determine the applications of Artificial Intelligence (AI) that are extensively employed in the field of Orthodontics, to evaluate its benefits, and to discuss its potential implications in this speciality. Recent decades have witnessed enormous changes in our profession. The arrival of new and more aesthetic options in orthodontic treatment, the transition to a fully digital workflow, the emergence of temporary anchorage devices and new imaging methods all provide both patients and professionals with a new focus in orthodontic care. This review was performed following the Preferred Reporting Items for Systematic reviews and Meta-Analyses extension for Scoping Reviews (PRISMA-ScR) guidelines. The electronic literature search was performed through MEDLINE/PubMed, Scopus, Web of Science, Cochrane and IEEE Xplore databases with a 11-year time restriction: January 2010 till March 2021. No additional manual searches were performed. The electronic literature search initially returned 311 records, and 115 after removing duplicate references. Finally, the application of the inclusion criteria resulted in 17 eligible publications in the qualitative synthesis review. The analysed studies demonstrated that Convolution Neural Networks can be used for the automatic detection of anatomical reference points on radiological images. In the growth and development research area, the Cervical Vertebral Maturation stage can be determined using an Artificial Neural Network model and obtain the same results as expert human observers. AI technology can also improve the diagnostic accuracy for orthodontic treatments, thereby helping the orthodontist work more accurately and efficiently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16955616</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Radiographic and surgical template for placement of orthodontic microimplants in interradicular areas: a technical note.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>In recent years, microimplants have gained popularity in orthodontics. Microimplants are primarily placed in complex sites where critical anatomic structures, such as roots of teeth, may be damaged, so precise surgical planning is required prior to placement. The goal of this report was to introduce a newly developed technique for the placement of microimplants in interradicular areas and evaluate its accuracy. The planned placement site is radiographed using a radiographic template and film holder fabricated by the investigators. The resultant radiograph is clipped and attached to the radiographic template to make a surgical template to guide the placement of the microimplant. Forty-one patients, 15 men and 26 women ranging in age from 21 to 29 years, were enrolled in this study. On 1 side of the arch, this novel technique was used for implant placement, and on the other side, an established method reported by Maino and associates (i.e., the control technique) was used. A total of 116 microimplants 2 mm wide and 9 mm long were placed interradicularly in 41 patients. Twelve of 58 microimplants were placed unsuccessfully in the control group, versus 2 of 58 in the test group. Statistical analysis showed that there was a significant difference between the 2 techniques in terms of success rate (P &lt; .05). Presurgical diagnosis of bone quantity and transfer of the information to the surgical sites are vital in microimplant placement. Radiographic templates modified for surgical purposes have the advantage of transferring radiographic information directly to the surgical site. This study, although limited in some respects, demonstrated that microimplant placement can be improved using the newly developed technique described.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>26293288</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Recombinant osteoprotegerin effects during orthodontic movement in a rat model.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Anchorage is one of the most challenging sides in orthodontics. The use of biological modulators that inhibit osteoclasts could be a solution to address these problems and provide new adjunctive approaches. The aim of this study was to assess the effectiveness of recombinant osteoprotegerin fusion protein (OPG-Fc) in orthodontic anchorage. Two groups of male Sprague-Dawley rats were utilized. The animals in the experimental group received twice-weekly injections with high dose of OPG-Fc (5.0mg/kg) in mesial and distal mucosa of the first molars, and those in the control group received no drugs. Right first maxillary molars were mesialized using a calibrated nickel-titanium spring connected to an anterior mini-screw. Tooth movement was measured by two blinded observers using scanned and magnified stone casts. Receptor activator of nuclear factor κB (RANK), run-related transcription factor 2 (Runx2), type I collagen, vimentin, matrix metalloproteinases 2 and 9, S100 protein and the putative mechanoproteins acid-sensing ion channel (ASIC2) and transient receptor potential vainilloid 4 (TRPV4) were evaluated using immunohistochemistry. OPG-Fc group showed an important decreased in mesial molar movement with only 52%, 31%, and 22% of the total mesial molar movement compared with control group at Days 7, 14, and 21, respectively (P &lt; 0.001). RANK ligand and Runx2 positive cells were severely reduced after OPG-Fc treatment. Periodontal ligament architecture, cell arrangement, and immunohistochemical patter for vimentin, type I collagen and the mechanoproteins TRPV4 and ASIC2 were altered by tooth movement and all these parameters altered by the applied treatment. OPG-Fc effectively inhibits osteoclastogenesis resulting in improved bone quantity and orthodontic anchorage. Based on present results, OPG-Fc could have clinical utility in preventing undesired tooth movements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>36633294</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Application of surgical guide for pre-drilling for the successful placement of orthodontic mini-screws using CAD/CAM technology in two cases.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>An increasing number of clinicians have been utilising orthodontic mini-screws as temporary anchorage devices (TAD) in their practices, but variable successful rates have been reported. Here, we introduce a practical approach to inserting mini-screws successfully. Using computer-aided design (CAD) and computer-aided manufacturing (CAM) technology, the surgical guide for pre-drilling was designed and fabricated and mini-screws were placed following pre-drilling holes in two cases. Two Ø2.0 × 10.0-mm mini-screws were inserted into the prepared holes in the mandibular buccal shelf (MBS) on both sides with a hand driver to distalise the lower molars for Class III correction. The treatment was done successfully, after 12 months of treatment in one case. Two Ø1.6 × 8.0-mm mini-screws were inserted into the prepared holes in the mandibular alveolar process in another case with congenital absence of lower right second premolar. One mini-screw was in the buccal alveolar process between the mandibular right canine and first premolar and the other in the lingual alveolar process between the mandibular right first premolar and second primary molar. The lower right molars would be protracted to close the space left after the extraction of the primary molar using the two mini-screws. The case was still in treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21059875</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Differences between sliding mechanics with implant anchorage and straight-pull headgear and intermaxillary elastics in adults with bimaxillary protrusion.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The aim of this retrospective study was to determine differences between the outcomes of treatment using implant anchorage compared with straight-pull headgear and intermaxillary elastics in bimaxillary protrusion patients. The lateral cephalograms of 28 adult orthodontic patients (3 males and 25 females; age, 24.9 ± 5.0 years) who had an Angle Class I malocclusion with bimaxillary protrusion were selected. Group 1 (14 patients; 1 male and 13 females; age, 25.0 ± 5.1 years) received sliding mechanics with implant anchorage and group 2 (14 patients; 2 males and 12 females; age, 24.8 ± 5.1 years) a straight-pull headgear and intermaxillary elastics. Lateral cephalometric radiographs obtained before and after treatment were traced, 13 landmarks identified, and differences in the skeletal and dental changes compared between the groups. Wilcoxon's signed-rank test was used to determine changes within the treatment groups and a Mann-Whitney U-test to evaluate significant differences. More anchorage loss occurred at the maxillary posterior teeth in group 2 (2.1 mm) than in group 1 (0.1 mm). Closing rotation of the mandible occurred in group 1, while opening rotation of the mandible was observed in group 2. These results suggest that sliding mechanics with implant anchorage may provide absolute anchorage and could control mandibular rotation more than the conventional technique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20655177</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Comparative evaluation of dento-alveolar distraction and periodontal distraction assisted rapid retraction of the maxillary canine: a pilot study.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Distraction osteogenesis is a biological process of new bone formation between the surfaces of the bone segments that are gradually separated by incremental traction. A recent innovative use of distraction osteogenesis in orthodontic tooth movement is to move individual tooth segments rapidly thus reducing orthodontic treatment time. Six patients, comprising two groups, were compared using two different surgical techniques: dento-alveolar distraction and periodontal distraction to bring about rapid canine retraction using an indigenously designed intra-oral distractor. The aim was to assess and evaluate the best approach to reduce the overall orthodontic treatment time by means of distraction osteogenesis. The patients were assessed at regular intervals with intra-oral periapical radiographs and lateral cephalograms for gauging the time required for retraction, canine tipping, anchorage loss and external root resorption. Dento-alveolar distraction was superior to periodontal distraction in all areas of assessment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>37543581</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Comparative analysis of two navigation techniques based on augmented reality technology for the orthodontic mini-implants placement.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>To analyze and compare the accuracy and root contact prevalence, comparing a conventional freehand technique and two navigation techniques based on augmented reality technology for the orthodontic self-drilling mini-implants placement. Methods Two hundred and seven orthodontic self-drilling mini-implants were placed using either a conventional freehand technique (FHT) and two navigation techniques based on augmented reality technology (AR TOOTH and AR SCREWS). Accuracy across different dental sectors was also analyzed. CBCT and intraoral scans were taken both prior to and following orthodontic self-drilling mini-implants placement. The deviation angle and horizontal were then analyzed; these measurements were taken at the coronal entry point and apical endpoint between the planned and performed orthodontic self-drilling mini-implants. In addition, any complications resulting from mini-implant placement, such as spot perforations, were also analyzed across all dental sectors.Results The statistical analysis showed significant differences between study groups with regard to the coronal entry-point (p &lt; 0.001), apical end-point(p &lt; 0.001) and angular deviations (p &lt; 0.001). Furthermore, statistically significant differences were shown between the orthodontic self-drilling mini-implants placement site at the coronal entry-point (p &lt; 0.0001) and apical end-point (p &lt; 0.001). Additionally, eight root perforations were observed in the FHT group, while there were no root perforations in the two navigation techniques based on augmented reality technology.Conclusions The navigation techniques based on augmented reality technology has an effect on the accuracy of orthodontic self-drilling mini-implants placement and results in fewer intraoperative complications, comparing to the conventional free-hand technique. The AR TOOTH augmented reality technique showed more accurate results between planned and placed orthodontic self-drilling mini-implants, comparing to the AR SCREWS and conventional free-hand techniques. The navigation techniques based on augmented reality technology showed fewer intraoperative complications, comparing to the conventional free-hand technique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>21848407</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Accuracy of orthodontic miniscrew implantation guided by stereolithographic surgical stent based on cone-beam CT-derived 3D images.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>To develop surgical stents for cone-beam computed tomography (CBCT) 3-dimensional (3D) image-based stent-guided orthodontic miniscrew implantation and to evaluate its accuracy. Ten surgical stents were fabricated with stereolithographic appliances (SLAs) according to 3D CBCT image-based virtual implantation plans. Thirty self-drilling miniscrews were implanted at two to three positions on each side of the maxillary or mandibular posterior arches in three phantoms: 20 guided by 10 surgical stents in two phantoms (stent group) and 10 guided freehand in one phantom (freehand group). Six parameters (mesiodistal and vertical deviations at the corona and apex and mesiodistal and vertical angular deviations) were measured to compare variations between the groups. No root damage was found in the stent group, whereas four of 10 miniscrews contacted with roots in the freehand group. In the stent group, deviations in the mesiodistal and vertical directions were 0.15 ± 0.09 and 0.19 ± 0.19 mm at the corona, respectively, and 0.28 ± 0.23 and 0.33 ± 0.25 mm at the apex, respectively; angular deviations in the mesiodistal and vertical directions were 1.47° ± 0.92° and 2.13° ± 1.48°, respectively. In the freehand group, the corresponding results were 0.48 ± 0.46 mm and 0.94 ± 0.87 mm (corona), 0.81 ± 0.61 mm and 0.78 ± 0.49 mm (apex), and 7.49° ± 6.09° and 6.31° ± 3.82°. Significant differences were found in all six parameters between the two groups (Student's t-test, P &lt; .05). 3D CBCT image-based SLA-fabricated surgical stents can provide a safe and accurate method for miniscrew implantation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>35818286</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[Class II extraction treatment with aligners: a reliable approach].</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Class II extraction approach by means of maxillary first premolars represents a common treatment strategy in order to reduce the overjet and create a stable Class I canine relationship and Class II molar relationship. The objective of this paper is to describe digital planning protocol and complete clinical phases of space closure in Class II malocclusion treatment in adult patient. The accuracy of movements and correction of dental parameters has improved exponentially in recent years, as a result of continuous research performed in aligner orthodontics. However, the most complex movement to realize with aligners is the apical movement, but the application of the G6 protocol for managing extractive cases allows to obtain the final parallelism of the roots with a control of the tipping managed on the digital plan as an overcorrection (overtipping) of the roots adjacent to the extraction site. Through the description of two cases, this article will present the application of the specific protocol for first premolars extraction in order to manage anchorage and closure of extraction spaces. All patients finished with proper OVJ and OVB with a Class II molar relationship and Class I canine relationship respecting face balance and smile arc. The Invisalign G6 protocol through the use of SmartStage™ technology combined with SmartForce™ features provides vertical control during anterior sector retraction and teeth body movement maintaining maximum posterior anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>27036120</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Insertion torque recordings for the diagnosis of contact between orthodontic mini-implants and dental roots: a systematic review.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Most orthodontic mini-implants (OMIs) are inserted between dental roots. The prevalence of contacting these structures is high. Such contacts can cause permanent root damage and implant instability. Increased torque levels during implant insertion (the index test) could be a more accurate and immediate measure for diagnosing implant-root contact (the target condition) than radiographs (the reference standard) and could ultimately lead to a reduction or elimination of X-ray exposure. To address this issue, we asked three questions: (1) whether OMIs with root contact had higher insertion torque values than those without, (2) what is the accuracy of the index test compared with the reference standard to diagnose the target condition and what are the adverse effects of the index test, and (3) whether intermediate torque values have clinical diagnostic utility. Methods were conducted according to our published protocol, which was based on the PRISMA-P 2015 statement. We applied broad spectrum eligibility criteria that included randomized and non-randomized studies on clinical, animal, and cadaver models. Not including such models would be unethical because it could slow down knowledge creation on the adverse effects of implant insertion. We conducted searches in more than 40 electronic databases including MEDLINE and 10 journals were hand-searched. Grey literature and reference lists were also searched. All research procedures were conducted independently by three reviewers. Authors of selected studies were contacted to obtain additional information. Outcomes on the three different research models were analysed separately. Systematic error was assessed with the Cochrane 'Risk of bias tool' for non-randomized studies. One clinical, two animal, and two cadaver studies fulfilled the eligibility criteria of the first research question. All studies and subgroups demonstrated higher insertion torque values for OMIs with the target condition than those without. Mean differences (MD) between these effect estimates were statistically significant in one beagle model (MD, 4.64; 95 % CI, 3.50 to 5.79) and three subgroups of cadaver studies (MD, 2.70; 95 % CI, 1.42 to 3.98) (MD, 3.97; 95 % CI, 2.17 to 5.78) (MD, 0.93; 95 % CI, 0.67 to 1.20). Highest mean differences were identified in most self-drilling compared with pre-drilling groups. Clinical heterogeneity between studies was high, and many items were underreported. All studies except one cadaver study scored at least one domain as 'serious risk' of bias. No studies addressed the second research question. One cadaver study addressed the third question which showed the importance of recording torque levels during the entire implant insertion process. Responses of contacted authors were helpful, but often difficult to obtain. Implants fractured in one animal and in one cadaver model. All eligible studies scored higher insertion torque values for implants with root contact than those without, but none of these studies assessed the diagnostic accuracy of the index test. The inclusion of non-randomized and animal and cadaver models in this systematic review provided key findings that otherwise would have been wasted. Such studies are important in the context of the wide applicability of this test, the high prevalence of the target condition, and the underreporting of adverse effects of interventions. A protocol for a potential new diagnostic pathway was presented, and the importance of contacting authors was addressed. The applicability of the findings should be interpreted in the context of underreporting and the many limitations of the included studies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>37308848</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Systematic review and network meta-analysis of the accuracy of the orthodontic mini-implants placed in the inter-radicular space by image-guided-based techniques.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>The aim of the present systematic review and network meta-analysis (NMA) is to analyze the accuracy of image-guided-based orthodontic mini-implants placement techniques in the inter-radicular space. The study was conducted under the PRISMA recommendations. Three databases were searched up to July 2022. In vitro randomized experimental trials (RETs) including static computer-aided implant surgery (s-CAIS), mixed reality (MR), soft tissue static computer-aided implant surgery (ST s-CAIS) and conventional free-hand technique (FHT) for the orthodontic mini-implants placement in the inter-radicular space were selected. The risk of bias was assessed using the Current Research Information System scale. A random effects model was used in the NMA. Direct comparisons were combined with a random effects model in a frequentist NMA to estimate indirect comparisons, and the estimated effect size of the comparisons between techniques were analyzed by difference of means. Inconsistency was assessed with the Q test, with a significance level of p &lt; 0.05, and a net heat plot. A total of 92 articles was identified, and 8 RETs (8 direct comparisons of 4 techniques) were included in the NMA, which examined 4 orthodontic mini-implants placement techniques: s-CAIS, MR, ST s-CAIS, and FHT. Taking FHT as reference, s-CAIS and ST s-CAIS showed statistically significant coronal and apical deviation. In addition, s-CAIS showed statistically significant angular deviation. However, MR did not show statistically significant differences with respect to FHT, which presented the highest p-score. At the coronal deviation, ST s-CAIS presented the highest P-score (0.862), followed by s-CAIS (0.721). At the apical deviation, s-CAIS presented the highest P-score (0.844), followed by ST s-CAIS (0.791). Finally, at the angular deviation s-CAIS presented again the highest P-score (0.851). Within the limitations of this study, it was found that the image-guided-based orthodontic mini-implants placement techniques showed more accuracy than the free-hand conventional placement technique; specially the computer-aided static navigation techniques for the orthodontic mini-implants placed in the inter-radicular space.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>37460998</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Accuracy of digital workflow for placing orthodontic miniscrews using generic and licensed open systems. A 3d imaging analysis of non-native .stl files for guided protocols.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>This study aimed to assess the accuracy of digital workflow for guided insertion of miniscrews in the anterior palate using restorative implant dentistry software and licensed software for orthodontic applications. Twenty subjects (8 males, 12 females, mean age = 16.7 ± 2.1 years) were prospectively selected to receive guided insertion of bicortical palatal miniscrews. Virtual planning was performed using restorative implant dentistry software (Blue Sky Plan*, version 4.7) (group 1 = 10 subjects) and licensed orthodontic software (Dolphin Imaging Software, version 11.0) (group 2 = 10 subjects). A specific 3D Imaging technology was applied to permit the registration of the planned and achieved position of the miniscrews based on the superimposition of maxillary models. The angular deviation (accuracy error) between the planned and the achieved positions of the miniscrews were recorded. Independent Student's test was used with statistical significance set at p value &lt; 0.05. The mean accuracy error recorded in group 1 was 7.15° ± 1.09 (right side) and 6.19 ± 0.80 (left side) while the mean error in group 2 was 6.74° ± 1.23 (right side) and 5.79 ± 0.95 (left side). No significant differences were recorded between the two groups (p &gt; 0.05); instead, miniscrews placed on the right side were almost one degree higher than the left side (p &lt; 0.05) in both groups. The clinical accuracy error was similar when using generic and licensed orthodontic software for guided systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>32789309</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Computer-guided palatal canine disimpaction: a technical note.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>To present a minimally invasive approach to solve the impaction of palatal canines using computer-guided orthodontic miniscrews. Miniscrew-supported appliances for palatal canine disimpaction are performed with CAD/CAM technology. With adequate software, it is possible to match the STL files of the dental arch with the DICOM images of the maxilla, previously transformed into STL files. The ideal points for miniscrew insertion can be identified on the STL 3D model file on the basis of the width and thickness of the palatal vault. A software application allows for the design of the surgical guide, which is printed using a 3D printer. The virtual position of the planned miniscrews is transferred onto a printed dental cast on which the orthodontic device is realized. On the day of surgery, both the surgical guide and the orthodontic appliance are ready for use. Miniscrew insertion and palatal canine disimpaction can be achieved in one surgical procedure. The use of computer-guided skeletal anchorage allows for both the reduction of the biomechanical side effects typical of conventional treatment and the risk of damaging adjacent anatomical structures, increasing the effectiveness of treatment. Controlled clinical trials are necessary to evaluate more fully any advantages of this minimally invasive technique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>29608684</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Microsphere controlled drug delivery for local control of tooth movement.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Because orthodontic tooth movement is dependent upon osteoclast-mediated resorption of alveolar bone adjacent to the pressure side of tooth roots, biologic mediators that regulate osteoclasts can be utilized to control tooth movement. To develop a novel method to locally enhance orthodontic anchorage. We encapsulated osteoprotegerin (OPG) in polymer microspheres and tested the effectiveness of microsphere encapsulated versus non-encapsulated OPG for enhancing orthodontic anchorage in a rodent model of tooth movement. A single injection of 1 mg/kg non-encapsulated or microsphere encapsulated OPG was delivered into the palatal mucosa mesial to the first maxillary molar 1 day prior to tooth movement. A positive control group received injections of 5 mg/kg non-encapsulated OPG every 3 days during tooth movement. After 28 days of tooth movement, hemi-maxillae and femurs were dissected. Molar mesial and incisor distal tooth movement was measured using stone casts that were scanned and magnified. Local alveolar, distant femur bone, and tooth root volumes were analyzed by micro computed tomography. Serum OPG levels were measured by ELISA. Osteoclast numbers were quantified by histomorphometry. The single injection of microsphere encapsulated OPG significantly enhanced orthodontic anchorage, while the single injection of non-encapsulated OPG did not. Injection of encapsulated OPG inhibited molar mesial movement but did not inhibit incisor tooth movement, and did not alter alveolar or femur bone volume fraction, density, or mineral content. Multiple injections of 5 mg/kg non-encapsulated OPG enhanced orthodontic anchorage, but also inhibited incisor retraction and altered alveolar and femur bone quality parameters. Increased OPG levels were found only in animals receiving multiple injections of non-encapsulated 5 mg/kg OPG. Osteoclast numbers were higher upon tooth movement in animals that did not receive OPG. Osteoclast numbers in OPG injected animals were variable within groups. Microsphere encapsulation of OPG allows for controlled drug release, and enhances site-specific orthodontic anchorage without systemic side effects. With additional refinements, this drug delivery system could be applicable to a broad array of potential biologic orthodontic therapeutics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>37937680</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Assessing the reliability of ChatGPT: a content analysis of self-generated and self-answered questions on clear aligners, TADs and digital imaging.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence (AI) is a tool that is already part of our reality, and this is an opportunity to understand how it can be useful in interacting with patients and providing valuable information about orthodontics. This study evaluated the accuracy of ChatGPT in providing accurate and quality information to answer questions on Clear aligners, Temporary anchorage devices and Digital imaging in orthodontics. forty-five questions and answers were generated by the ChatGPT 4.0, and analyzed separately by five orthodontists. The evaluators independently rated the quality of information provided on a Likert scale, in which higher scores indicated greater quality of information (1 = very poor; 2 = poor; 3 = acceptable; 4 = good; 5 = very good). The Kruskal-Wallis H test (p&lt; 0.05) and post-hoc pairwise comparisons with the Bonferroni correction were performed. From the 225 evaluations of the five different evaluators, 11 (4.9%) were considered as very poor, 4 (1.8%) as poor, and 15 (6.7%) as acceptable. The majority were considered as good [34 (15,1%)] and very good [161 (71.6%)]. Regarding evaluators' scores, a slight agreement was perceived, with Fleiss's Kappa equal to 0.004. ChatGPT has proven effective in providing quality answers related to clear aligners, temporary anchorage devices, and digital imaging within the context of interest of orthodontics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>21561021</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A versatile grid holder and grid for miniscrew placement.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>The biggest challenge in mini-screw placement is the accuracy and ease of placement, thus avoiding their proximity to the adjacent root structures during insertion. We have designed a very simple and inexpensive grid holder and a grid which can be used on buccal and palatal surfaces of maxillary and mandibular arches, in anterior as well as posterior regions. The grid-holder is effortlessly piggy-backed facially on the existing archwire bracket unit without removing the archwire. The assembly can be easily disengaged when pilot drilling has been done. The grid holder is versatile and can accept most kinds of grids and eyelets available. It is fabricated out of materials routinely available in any orthodontic practice. The same assembly can be reused again after autoclaving on different patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>36826196</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Comparison of the Accuracy of Two Transfer Caps in Positional Transmission of Palatal Temporary Anchorage Devices: An In Vitro Study.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>The aim of this study was to compare the positional information transfer accuracy of palatal temporary anchorage devices (TADs) of two different brands of transfer caps: PSM and Leone. Thirty plaster casts of maxillary dental arches were chosen for master models. A couple of Leone TADs were inserted in each master model. For each master model, two analysis models were created: using two transfer caps, Leone and PSM, the impressions were taken, the analogues were connected on the transfer caps, and the casts were poured. Using digital methods and equipment, such as a 3D scanner, a 3D analysis and a comparison of the accuracy of the two transfer caps in transferring the positional information of the TADs was then made. The data obtained were anal&lt;i&gt;yz&lt;/i&gt;ed using the Mann-Whitney U-test at a significance level of α = 0.05. PSM transfer caps showed higher error frequency in almost all measurements. Only two measurements had a larger error in the analysis models made with Leone transfer caps. The Mann-Whitney U-test found a significant difference between the error levels of TADs found in the analysis models created with PSM transfer caps. Leone transfer caps showed greater reliability in TADs positional information transmission.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>31081528</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Distance to alveolar crestal bone: a critical factor in the success of orthodontic mini-implants.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>To evaluate the success rate of orthodontic mini-implant (MI) in relation to implant characteristics, mainly implant distance to alveolar crestal bone (AC) and root proximity (RP) to adjacent teeth. Two hundred sixty MIs (209 in maxilla, 51 in mandible) were categorized into success (n = 229) and failure (n = 31) groups. Distances from MI to the most adjacent tooth (DT) and to AC level (DC) were measured on periapical radiographs taken with the orthoradial projection technique. Appropriate statistical tests (chi-square, t test, logistic regression) were applied. DC measurements were statistically significantly greater in the success group (7.46 ± 1.7 mm) compared to 3.43 ± 0.81 mm in the failure group. Root proximity was not associated with miniscrew failure. Patient age, mini-implant site, and DC were significant predictors of mini-implant failure (p &lt; 0.001), which decreased significantly with increasing age (Coef = - 0.345; p = 0.013) and when the mini-implant was placed between premolars (p = 0.028) or between premolar and first molar (p = 0.045). The probability of failure also decreased with increasing DC distance (Coef = - 3.595; p &lt; 0.001). The distance to alveolar crest was strongly associated with long-term stability. More apical placement of the MI from the crest would be compatible with a denser and thicker bucco-lingual/palatal bone level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>37496467</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>The success rate of mini-screws for incisors intrusion and patient age, gender, and insertion angle in the maxilla using CBCT and implant-guided surgery. A split-mouth, randomized control trail.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The intrusion of anterior teeth is a routine procedure in orthodontics, which has been performed efficiently with the help of mini-screws in the anterior region, especially the upper maxilla. This study aimed to investigate the effect of insertion angle and sociodemographic features on the success rate of mini-screws at the anterior maxillary region. Twenty-nine patients (18 Females and 11 Males) aged 18-40 years old were involved in the current study. A split-mouth design was carried out in which recruited patients needed bilateral anterior screws at the labial bone in the region of the incisor for the intrusion of upper anterior incisor teeth as part of their orthodontic treatment with a fixed appliance (upper right side received 90-degree insertion angle mini-screw and 45° for left side) using a surgical guide fabricated from patients CBCT and intraoral scans. The mini-screws were inserted at the attached gingiva bilaterally to achieve intrusion of upper anterior teeth with a power chain ligated from the main archwire to the anterior min-implants. The patient was recalled monthly for orthodontic appliance activation and screw assessment for 6 months. The intrusion force was 15 g on each side. The results of the study showed that screw stability was higher in the male group than the female group at the 6th monthly follow-up visit with a statistically significant difference between both genders (P = .044). Concerning insertion angle, results showed a statistically significant difference between 45° and 90° as an insertion angle with a P-value &lt;.01 in most of the follow-up months. This study found that male patients with mini-screws inserted at 90° showed greater screw stability over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>25101910</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Decreased alveolar bone turnover is related to the occurrence of root resorption during experimental tooth movement in dogs.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>To investigate the relationship between root resorption (RR) and bone turnover in two different types of tooth movement in dogs. A total of 16 dogs in two different groups were used. Tooth movement of dog premolars resulted from approximately 200 g of force. Histomorphometric analysis of premolar roots was assessed after 4 and 12 weeks of tooth movement by comparing nonresorptive to resorptive surfaces. Histomorphometric analysis indicated a significant decrease in the bone formation rate in the root resorptive areas, which resulted in decreased bone volume after 12 weeks. The threshold to detect RR in periapical radiographs was about 1.0 mm(2). A sustained mechanical load, due to the prolonged stress and strain of continuous mechanics, induces elevated bone metabolic activity, such as the bone turnover (remodeling) and change in bone volume (modeling). Therefore, our data support the hypothesis that increased RR is related to decreased bone formation (turnover) in high stress areas exposed to prolonged orthodontic tooth movement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>36719265</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comparison of palatal volume and surface changes between bone-borne and tooth-tissue-borne maxillary expansion on cone beam computed tomography digital cast models.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>To compare the changes of palatal volume and area in patients treated with tooth-tissue-borne palatal expanders (conventional Haas) and miniscrew-supported palatal expanders (modified Haas). The sample included casts of 22 patients treated as part of a clinical study at the Department of Orthodontics, Al-Azhar University, to correct their crossbite malocclusion. Patients were divided equally into two groups upon arrival. The first group, with a mean age of 12 years and 6 months, received the miniscrew-supported palatal expander. The second group, with a mean age of 12 years and 2 months, received the Haas design-palatal expansion appliance. Pre- and post-expansion dental casts were cone beam computed tomography scanned and the slices were constructed into 3D volumes. Fully automated superimposition was done for pre- and post-expansion 3D models. Palatal volume and area were determined, and all measurements were carried out blindly. Paired t-test was used to assess the mean differences within each group and Welch's t-test was applied to assess the mean changes between the two groups. Shapiro-Wilk test was used to test for the normality of the data. There were no statistical differences in volume changes either within each group or between the groups. Although area changes were statistically significant within each group, the difference between the groups was not significant. Changes that result from the use of either method to expand the upper arch occur primarily in the shape of the palate, but not in its size.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>34683105</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Influence of the Computer-Aided Static Navigation Technique and Mixed Reality Technology on the Accuracy of the Orthodontic Micro-Screws Placement. An In Vitro Study.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>To analyze the effect of a computer-aided static navigation technique and mixed reality technology on the accuracy of orthodontic micro-screw placement. &lt;b&gt;Material and methods&lt;/b&gt;: Two hundred and seven orthodontic micro-screws were placed using either a computer-aided static navigation technique (NAV), a mixed reality device (MR), or a conventional freehand technique (FHT). Accuracy across different dental sectors was also analyzed. CBCT and intraoral scans were taken both prior to and following orthodontic micro-screw placement. The deviation angle and horizontal deviation were then analyzed; these measurements were taken at the coronal entry point and apical endpoint between the planned and performed orthodontic micro-screws. In addition, any complications resulting from micro-screw placement, such as spot perforations, were also analyzed across all dental sectors. &lt;b&gt;Results&lt;/b&gt;: The statistical analysis showed significant differences between study groups with regard to the coronal entry-point (&lt;i&gt;p&lt;/i&gt; &lt; 0.001). The NAV study group showed statistically significant differences from the FHT (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) and MR study groups (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) at the apical end-point (&lt;i&gt;p&lt;/i&gt; &lt; 0.001), and the FHT group found significant differences from the angular deviations of the NAV (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) and MR study groups deviations (&lt;i&gt;p&lt;/i&gt; = 0.0011). Different dental sectors also differed significantly. (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) Additionally, twelve root perforations were observed in the FHT group, while there were no root perforations in the NAV group. &lt;b&gt;Conclusions&lt;/b&gt;: Computer-aided static navigation technique enable more accurate orthodontic micro-screw placement and fewer intraoperative complications when compared with the mixed reality technology and conventional freehand techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>33148234</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CBCT and CAD-CAM technology to design a minimally invasive maxillary expander.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A large number of articles in recent years studying the effects of non-surgically assisted tooth- versus bone-borne maxillary expanders in growing patients have found no significant differences in mid-palatal suture disjunction or even dentoalveolar changes. This suggests the need for new criteria and better use of current technology to make more effective devices and enhance the benefits of conventional treatments. This article describes a titanium grade V computer-aided design/computer-aided manufacturing (CAD/CAM) maxillary expander supported by two miniscrews, along with a 3D printed surgical guide. The first step was to obtain a digitized model of the patient's upper maxilla. To simplify the process and ensure the placement of the device in a high-quality bone area, the patients' digital dental cast was superimposed with a cone beam computed tomography (CBCT) scan. Improved resistance to expansion forces was secured through the use of 2 mm-wide miniscrews, long enough for bicortical anchorage. Placement site and direction were assessed individually in order to achieve primary stability. We chose a site between the second premolars and first molars, while the inclination followed the natural contour of the palate vault. A 3D-printed, polyamide surgical guide was designed to ensure the correct placement of the device with a manual straight driver. Favorable clinical results were presented with 3D images. We confirmed a mid-palatal suture parallel separation of 3.63 mm, along with a higher palatal volume, as well as increased intercanine and intermolar distance. Segmentation of the facial soft tissue showed an expansion of nasal airways and changes in nasal morphology. Digital models, CBCT and CAD/CAM technology, are essential to accomplish the goals proposed in this article. Further studies are necessary to establish safer miniscrew placement sites and insertion angles so as to achieve greater in-treatment stability. Both the clinician and the patient can benefit from the use of current technology, creating new devices and updating traditional orthodontic procedures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>35965264</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Accuracy of the digital workflow for guided insertion of orthodontic palatal TADs: a step-by-step 3D analysis.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>The introduction in the orthodontic field of the digital workflow for guided insertion of palatal TADs and the development of the 1-visit protocol led to the reduction of chair time and the possibility of complete customization of designs and materials. Conversely, the reduction of operative steps implicates a lower tolerance of deviations between the planned and the actual position of the miniscrews, particularly when the orthodontic device is fixed on 4 palatal TADs or has a rigid structure. This study aims to analyze the influence of each step of the digital workflow on the deviation of the miniscrews' axis of insertion in a bicortical sample. The null hypothesis is that there are no significant differences in the deviations among the operative steps. 33 subjects were selected for insertion of bicortical palatal miniscrews with a 1-visit protocol. Digital files were collected at the three stages of the workflow (i.e., digital planning, laboratory prototype, post-insertion impression). A 3D software analysis was performed on a total of 64 miniscrews. After automatic shape recognition of the guiding holes of the digital plan and the scanbodies of the laboratory prototype and post-insertion impression as geometric cylinders, their three-dimensional longitudinal axis was traced and the deviation among them was calculated. Friedman test with Bonferroni correction was performed to assess the significance of the deviations among the three steps, with significance set at p &lt; 0.05. The laboratory step has a significantly lower degree of deviations (2.12° ± 1.62) than both the clinical step (6.23° ± 3.75) and the total deviations (5.70° ± 3.42). No significant differences were found between miniscrews inserted on the left or the right side. This study suggests that laboratory procedures such as surgical guide production or rapid prototyping don't play a significant role in the degree of deviations between the planned and the positioned palatal TADs. Conversely, the clinical steps have a bigger influence and need to be carefully evaluated. Despite this difference, there is a cumulative effect of deviations that can lead to the failure of the 1-visit protocol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>34675696</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Digital Planning and Manufacturing of Maxillary Skeletal Expander for Patients with Thin Palatal Bone.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The miniscrew-assisted rapid palatal expansion approach has given new opportunities for the treatment of maxilla transverse deficiency by providing an alternative to the surgical approach for adult patients. However, the presence of a thin palatal bone can compromise the success of such approach. Recently, the digital planning of the miniscrew-assisted appliances has offered unique advantages in terms of safety and accuracy of the overall process. The aim of this study is to describe the digital planning and MSE fabrication with cad-cam technology using 6 mini-screws in cases with a palatal bone thickness of less than 2.5 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>31473712</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Cone Beam Guided Corticotomy Using Piezoelectric Surgery.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>This study was designed to compare skeletal and dental angular measurements of orthodontic treatment facilitated by cone beam guided corticotomy to that of conventional orthodontic treatment as well as treatment time. Twenty female and male adult orthodontic patients with an age range of 19 to 29 years and suffering from bimaxillary protrusion recommended for first premolars extraction were randomly assigned to one of two groups: The test group was treated with a closed technique of corticotomy -facilitated orthodontics using a piezoelectric device and guided by cone beam radiography. The control group was treated with conventional orthodontic treatment. A fixed orthodontic appliance was used and anchorage was done using miniscrews. Cone beam computed tomography (CBCT) was performed for each patient of the test group. Image analysis was done using On Demand Software where linear and angular measurements were taken to virtually assess the configuration of the six anterior teeth together with the position of the lingual and mental foramen. These measurements were transferred to the study model and a surgical guide was constructed. Corticotomy was performed using the piezotome with the aid of the constructed guide. Orthodontic measurements were recorded pre- and post-treatment including total treatment time for both groups. Using a surgical guide, the surgery was a straightforward procedure. At the end of treatment, by comparing the mean change of skeletal angular measurements between the two groups, the control group showed a significant decrease in the mean of change in the facial angle compared to the test group (p ≤ 0.05). By comparing the mean change of dental angular measurements between the two groups, the test group showed a significant decrease in SN - U1° (angle between the sella-nasion line and the maxillary incisor), and a significant increase in the interincisal angle compared to the control group (p ≤ 0.05). Regarding the total treatment time, the test group showed a significant decrease in the mean total treatment time compared to the control group. CBCT provided comprehensive information regarding anatomical relationships and individual patient findings for improved diagnosis and treatment planning. The use of a surgical template guided by the cone beam imaging provided a novel conservative technique that simplified the surgical procedure. Corticotomy-facilitated orthodontics showed marked improvement in some skeletal and dental angular measurements compared to conventional orthodontics in patients with bimaxillary protrusion, as well as a decrease in treatment time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>25935081</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Digital design of a surgical guide for placement of definitive implants before orthodontic treatment.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Interdisciplinary treatment planning is an essential part of orthodontic therapy for patients with partial edentulism, especially when dental implants are to serve initially as anchorage and ultimately as prosthetic abutments for the definitive fixed restoration. A technique is presented for designing and fabricating a computed tomography-based surgical guide to place definitive implants before orthodontic therapy. First, the diagnostic cast and the orthodontic tooth arrangement and diagnostic waxing cast are scanned with a 3-dimensional optical scanner. Three-dimensional renderings of these scans are then merged and superimposed onto the cone beam computed tomography (CBCT) image with implant planning software to develop definitive implant positions. A custom surgical guide is fabricated from these data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>21353922</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Accelerated orthognathic surgery and increased orthodontic efficiency: a paradigm shift.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>30249268</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Quality of occlusal outcome following space closure in cases of lower second premolar aplasia using lingual orthodontic molar mesialization without maxillary counterbalancing extraction.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Controlled space closure in cases of isolated lower second premolar aplasia (ILSPA) without maxillary counterbalancing extraction is challenging. Anterior anchorage loss may occur during space closure resulting in compromised occlusal results in terms of an absence of proper canine guidance during laterotrusive mandible movements. In order to evaluate the effectiveness of Herbst telescope anchorage in combination with double-cable, pull mechanics and a completely customized lingual appliance for orthodontic space management in cases of ILSPA, we tested the null hypothesis that there is a significant deterioration in the sagittal canine relationship towards an Angle-Class-II occlusion expressed as a loss of anterior anchorage following space closure with molar mesialization. Twenty-five consecutively de-bonded subjects (female / male 17 / 8; aged at T0 (start of MB Tx) 12.3 to 20.6 years; mean age 15.0 / SD 1.7 years) were included in this retrospective analysis using the inclusion criteria of least of one lower second premolar aplasia; completed treatment with a totally customized lingual appliance (CCLA) in combination with Herbst telescopes. Exclusion criteria were the absence of counterbalancing maxillary extractions, as well as additional tooth aplasia other than lower second premolars. A total of 33 single, lower premolar aplasia space closures (right / left sided 17 / 16) were assessed using plaster casts and intra-oral photographs scaled to the plaster casts, at bonding (T0), Herbst insertion (T1), following gap closure (T2) and de-bonding (T3). Parallelism of roots was controlled by panoramic x-rays at T3. The mean aplasia space at T0 was 7.5 mm (SD 2.6). Complete space closure was achieved in all 33 situations. The null hypothesis was rejected. There was a significant improvement in the initial canine relationships (mean 3.5 mm distal occlusion at T0) to a mean 0.1 mm at T3. When evaluated against the individual treatment plan, the following amounts of planned improvements were achieved: space closure 100%, canine relationship 97.5%, overjet 93.9%, overbite 96.4%, parallel roots in space closure site 93.9%. Herbst telescope anchorage in combination with double-cable pull mechanics and a CCLA for orthodontic space closure can deliver predictable, high-quality treatment results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>30899945</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[Clinical study on upper molar mesial movement with miniscrews in the palatal suture and casting frame].</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>To study the clinical effect of the upper first molar space closure by mesial traction of the second and the third molar with palatal miniscrew and casting frame. Twelve cases with the upper first molar lost and only accepting regional orthodontic treatment were chosen. Two miniscrews were inserted beside the palatal suture, individual casting frames were manufactured to help stabilize the miniscrew and the upper premolars on the same side. The force was exerted on both the buccal and lingual side. Graphpad Prism 6.0 software was used for Student's t test. All the spaces were closed, the average mesial movement was 5.7 mm, the tipping of the second molar and the third molar was almost normal and the occlusion of other teeth kept intact. Miniscrew and casting frame can accomplish the effective mesial movement of the upper second and third molar to close the first molar space.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>25138361</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Biomechanics of incisor retraction with mini-implant anchorage.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mini-implants have been successfully incorporated into orthodontic practice all over the world. One of the most popular applications of mini-implant anchorage is to facilitate retraction of the anterior teeth. This article reviews the mechanics involved in anterior tooth retraction with mini-implant supported anchorage. An attempt has been made to synthesize information available in the literature and present it in a manner that is easily understandable from a clinical perspective. We discuss the fundamental differences mini-implant based incisor retraction has when compared to conventional techniques, mechanical factors affecting this process and provide a step-by-step analysis of incisor retraction. In addition, various models of space closure are discussed that have evolved through careful evaluation of in vitro and in vivo experiments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19892291</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Predictable drill-free screw positioning with a graduated 3-dimensional radiographic-surgical guide: a preliminary report.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mini-implants are placed in restricted sites, requiring an accurate surgical technique. However, no systematic study has quantified technique accuracy to reliably predict the surgical risks. Therefore, a graduated 3-dimensional radiographic-surgical guide (G-RSG) was proposed, and its inaccuracy and risk index (RI) were estimated. The sample consisted of 6 subjects (4 male, 2 female), who used mini-implant anchorage. Ten drill-free screws (DFS) were placed by using the G-RSG. The central point of the mesiodistal septum width (SW) was the selected implant site on the presurgical radiograph. The distances between DFS and the adjacent teeth (5-DFS and 6-DFS) were measured to evaluate screw centralization and inaccuracy degree (ID). These distances were statistically compared by independent t tests, and inaccuracy was determined by the expression ID = (5-DFS - 6-DFS)/2, which represents deviation of the mini-implant's final position regarding the central point initially selected. Then SW, ID, and screw diameter (SØ) were combined to estimate the surgical risk with RI expressed by RI = SØ/SW - ID. The 5-DFS and 6-DFS distances were not significantly different. The ID of the G-RSG was 0.17 mm. The low ID ensured a safe RI (&lt;1) in spite of the restricted SW. The G-RSG accuracy allowed fine prediction of the final DFS position in the interradicular septum, with a low RI, which is a helpful tool to estimate surgical risks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>25512751</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Assessing the amount of interdental bone in posterior areas of the mandible for placing orthodontic mini-implants.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Objective : The aim of this study was to assess the amount of interdental bone in posterior areas of the mandible for placing orthodontic mini-implants to provide and control anchorage in orthodontic treatment. Materials and Methods : The amount of interdental bone in areas between the second premolars and first molars, first and second molars on the right and left sides of the mandible were determined in fifty patients by RVG using periapical radiographs. The images were assessed using Cygnus Media Software to determine the mesio-distal width of the interdental bone, starting at the crest of the alveolar bone (2 mm below the CEJ) every one millimeter up to 12 mm from the CEJ. The actual amount of interdental bone and the effect of related factors were assessed using chi-square test at a 95% confidence interval. Results : The minimum desired interdental bone width for placing mini-implants, 3 mm from the CEJ, between the second premolar and first molar and the first and second molars of the mandible on both sides were significantly different (p&lt;0.01): 1.8 mm (31%) more apical in the area between the second premolar and the first molar. There was also a statistically significant difference between the areas under study on the right side (p&lt;0.002), which was 2.2 mm (44%) more apical in the area of the second premolar and the first molar. Conclusion : The most secure site for placing orthodontic mini-implants in the mandible is between the first and second molars at the height of 5.8 mm from the CEJ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>26926022</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Effect of different incisor movements on the soft tissue profile measured in reference to a rough-surfaced palatal implant.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>The aim of this study was to evaluate soft tissue profile changes after a wide range of incisor movements in the anterior and posterior directions in nongrowing patients. Identifying baseline values more prone to substantial soft tissue profile changes was of high interest. For this retrospective study, 47 pairs of lateral cephalograms of nongrowing white patients were superimposed. The cephalograms were taken with the same palatal implant in situ before and after treatment. To increase the accuracy of the measurements, the palatal implants were used as stable reference structures in close relation to the incisors. Horizontal changes of the most anterior point of the maxillary incisor showed a significant correlation to horizontal changes of the upper and lower lips (P &lt;0.001). For every millimeter of horizontal change of the most anterior point of the maxillary central incisor, a change of 0.59 mm at labrale superior can be expected. Also, the angulations of the upper and lower lips were significantly correlated to the most anterior point of the maxillary incisor. Lip retraction was less pronounced in patients with initially thicker lips than in those with thinner lips. The major contributing factors for predicting the soft tissue profile change during orthodontic treatment are the amount of horizontal movement of the most anterior point of the maxillary incisor, the amount of bite opening, and the initial lip thickness. Although there are significant correlations between dental movements and soft tissue changes in larger samples, predictions for individuals may be inconsistent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>27871702</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Comparison of direct and indirect skeletal anchorage systems combined with 2 canine retraction techniques.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>We compared the effectiveness of 2 canine retraction springs and anchorage systems (direct and indirect skeletal anchorage) in patients requiring first premolar extractions and maximum anchorage in the maxilla. Thirty-six patients were included (17 male, 19 female; mean age, 16.8 ± 2.4 years). A mini-implant-supported Nance appliance with indirect skeletal anchorage system was used in 18 patients and a mini-implant-supported direct skeletal anchorage system in the remaining patients. In each patient, a segmental retraction arch with a reverse closing loop was applied to a maxillary canine, and a Ladanyi spring (Dentaurum, Ispringen, Germany) was applied to the other canine randomly after extraction of the maxillary first premolars. The retraction process was continued until a Class I canine relationship was obtained. Lateral cephalometric films and orthodontic casts taken before and after retraction in the distalization process were used to evaluate changes during canine distalization. The measurements were statistically evaluated using paired and independent t tests with 95% confidence intervals. The reverse closing loop and the Ladanyi spring were found to be effective in canine distalization (P ≤0.001). There were no statistically significant differences between the reverse closing loop and the Ladanyi spring with regard to canine distalization rates (P ≥0.05). Both systems were effective in providing maximum anchorage (P ≥0.05); no statistically significant differences were detected in molar anchorage loss rates between the 2 methods (P ≥0.05). These 2 systems can be used during segmental distalization of canines requiring maximum anchorage with no significant anchorage loss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>36718162</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Introducing a User-Friendly Technique for Treatment of Palatally-Impacted Canines with the Aid of Temporary Anchorage Devices.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Treatment of impacted canine teeth is a challenge for most clinicians, especially in adult patients with high risk of ankylosis. Conventionally, leveling and alignment of the teeth are first performed and after heavy arch wire placement in slot of brackets, de-impaction force is applied. However, this method has some disadvantages, such as inability to detect ankylosis of the impacted tooth until load application, risk of root resorption of incisors or necrosis of them, distortion of dental arch form, the need for early extraction of primary canines, which is esthetically unfavorable for patients, and long-term presence of fixed orthodontic appliances in the oral cavity. This study aims to introduce approach that can be easily used by busy clinicians to guide palatally impacted canines into the dental arch using a cantilever spring supported by two palatal miniscrews prior to the initiation of fixed orthodontic treatment, and report some cases treated with this technique. This technique does not have the shortcomings of the conventional technique. In addition, the total duration of treatment, and duration of presence of orthodontic appliances in the oral cavity are shorter than the conventional technique. In addition, is less technique sensitive and do not need time complex and time consuming wire bending.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>19154271</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>The interdental gingiva, a visible guide for placement of mini-implants.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>To determine whether the tip of the interdental gingiva can serve as a visible guide for placement of mini-implants. Computer tomography (CT) images from 15 males and 15 females (mean age 27 years, range: 23-35 years) were used to evaluate the distance from the tip of the interdental gingiva to the alveolar crest from the central incisor to the 1st molar. The distance from a reference point to the tip of interdental gingiva was recorded from study models using a caliper. The distance between the reference point and the alveolar crest was recorded using CT and added to the model recordings thus providing the distance from the tip of interdental gingiva to the alveolar crest for the various interdental sites. Two-way anova and Student-Newman-Keuls test for multiple comparisons were used for the statistical analysis. There was no significant difference in the distance from the tip of interdental gingiva to the alveolar crest between maxilla and mandible. The distance between the tip of interdental gingiva and the alveolar crest at the central/lateral incisors was the shortest compared with that of other sites. There was also a statistically significant difference between the male and female groups except for the maxillary 2nd premolar/1st molar interradicular site. The tip of interdental gingiva appears a reasonable visual guide for the placement of mini-implants for orthodontic anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20567035</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Fabrication of an adjustable mini-screw surgical guide.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mini-screws are small enough to be inserted into narrow spaces that could not be used for endosseous implants, such as the alveolar bone between the roots of adjacent teeth. Mini-screw placement into these sites can be challenging because of the risk of root damage. The present article describes, step by step, how to manufacture an adjustable surgical guide to facilitate the placement of orthodontic mini-screws, thus reducing the risk of injury to roots and important anatomical structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>34866026</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Canine and molar movement, rotation and tipping by NiTi coils versus elastomeric chains in first maxillary premolar extraction orthodontic adolescents: A randomized split-mouth study.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>The primary objective was to compare canine and molar movement between NiTi coil and elastomeric chains. The secondary objective was to compare the side effects of these techniques (rotation and tipping). This single-blind randomized split-mouth clinical trial was done prospectively. Healthy patients who needed extraction of the first maxillary premolars and did not require anchorage reinforcement techniques for orthodontic treatment were included. Following initial levelling and alignment a dental cast and panoramic radiographs were taken (pre-space closure documents) and canine retraction was done using elastomeric chains on one side and NiTi closed coil spring on the other side. After four months, the same documents were taken and movement (mm), as well as rotation (degree) and tipping (degree) of canines and first molars, were calculated by comparison of pre and post space closure documents by a blinded examiner. Data were analysed by independent samples t-test and Mann-Whitney U test with a significance level of 0.0125. Overall 20 patients completed the study. The average canine movement was 3.88 and 5.45mm (distal movement) in elastomeric chains and NiTi coil groups, respectively (P=0.001). For molars, the movement was 1.20 and 1.15mm (mesial movement), respectively (P=0.529). The mean rotation of the canine in elastomeric chains and NiTi coil groups were 4.50° and 7.43° (mesiobuccal rotation), respectively (P=0.006). For the molars, the mean rotation was 0.23° and 1.90° (mesiolingual rotation), respectively (P=0.307). Average tipping of the canine in elastomeric chains and NiTi coil groups were 4.52° and 7.55° (distal tipping), respectively (P=0.011). For the molars, the numbers were 1.45° and 4.80° (mesial tipping), respectively (P=0.028). Canine retraction by NiTi coil springs is faster compared to elastomeric powerchains with the cost of more canine tipping and rotation and more molar tipping. No significant difference was found in molar movement, rotation and tipping between the two techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>26092262</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Comparison of anchorage reinforcement with temporary anchorage devices or a Herbst appliance during lingual orthodontic protraction of mandibular molars without maxillary counterbalance extraction.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Orthodontic protraction of mandibular molars without maxillary counterbalance extraction in cases of aplasia or extraction requires stable anchorage. Reinforcement may be achieved by using either temporary anchorage devices (TAD) or a fixed, functional appliance. The objective was to compare the clinical effectiveness of both methods by testing the null-hypothesis of no significant difference in velocity of space closure (in mm/month) between them. In addition, we set out to describe the quality of posterior space management and treatment-related factors, such as loss of anchorage (assessed in terms of proportions of gap closure by posterior protraction or anterior retraction), frequencies of incomplete space closure, and potential improvement in the sagittal canine relationship. Twenty-seven subjects (15 male/12 female) with a total of 36 sites treated with a lingual multi-bracket appliance were available for retrospective evaluation of the effects of anchorage reinforcement achieved with either a Herbst appliance (n(subjects) = 15; 7 both-sided/8 single-sided Herbst appliances; n(sites) = 22) or TADs (n(subjects )= 12; 2 both-sided; 10 single-sided; n(sites) = 14). Descriptive analysis was based on measurements using intra-oral photographs which were individually scaled to corresponding plaster casts and taken on insertion of anchorage mechanics (T1), following removal of anchorage mechanics (T2), and at the end of multi-bracket treatment (T3). The null-hypothesis was rejected: The rate of mean molar protraction was significantly faster in the Herbst-reinforced group (0.51 mm/month) than in the TAD group (0.35). While complete space closure by sheer protraction of posterior teeth was achieved in all Herbst-treated cases, space closure in the TAD group was achieved in 76.9% of subjects by sheer protraction of molars, and it was incomplete in 50% of cases (mean gap residues: 1 mm). Whilst there was a deterioration in the canine relationship towards Angle-Class II malocclusion in 57.14% of space closure sites in TAD-treated subjects (indicating a loss of anchorage), an improvement in canine occlusion was observed in 90.9% of Herbst-treated cases. Subjects requiring rapid space closure by molar protraction in combination with a correction of distal occlusion may benefit from using Herbst appliances for anterior segment anchorage reinforcement rather than TAD anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>24785934</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Virtually fabricated guide for placement of the C-tube miniplate.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>This paper introduces a virtually planned and stereolithographically fabricated guiding system that will allow the clinician to plan carefully for the best location of the device and to achieve an accurate position without complications. The scanned data from preoperative dental casts were edited to obtain preoperative 3-dimensional (3D) virtual models of the dentition. After the 3D virtual models were repositioned, the 3D virtual surgical guide was fabricated. A surgical guide was created onscreen, and then these virtual guides were materialized into real ones using the stereolithographic technique. Whereas the previously described guide required laboratory work to be performed by the orthodontist, our technique is more convenient because the laboratory work is done remotely by computer-aided design/computer-aided manufacturing technology. Because the miniplate is firmly held in place as the patient holds his or her mandibular teeth against the occlusal pad of the surgical guide, there is no risk that the miniscrews can slide on the bone surface during placement. The software program (2.5-dimensional software) in this study combines 2-dimensional cephalograms with 3D virtual dental models. This software is an effective and efficient alternative to 3D software when 3D computed tomography data are not available. To confidently and safely place a miniplate with screw fixation, a simple customized guide for an orthodontic miniplate was introduced. The use of a custom-made, rigid guide when placing miniplates will minimize complications such as vertical mislocation or slippage of the miniplate during placement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>24944969</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>An alternative approach to extruding a vertically impacted lower third molar using an orthodontic miniscrew: A case report with cone-beam CT follow-up.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>One of the most common oral surgical procedures is the extraction of the lower third molar (LTM). Postoperative complications such as paresthesia due to inferior alveolar nerve (IAN) injury are commonly observed in cases of horizontal and vertical impaction. The present report discusses a case of a vertically impacted LTM associated with a dentigerous cyst. An intimate contact between the LTM roots and the mandibular canal was observed on a panoramic radiograph and confirmed with cone-beam computed tomographic (CBCT) cross-sectional cuts. An orthodontic miniscrew was then used to extrude the LTM prior to its surgical removal in order to avoid the risk of inferior alveolar nerve injury. CBCT imaging follow-up confirmed the success of the LTM orthodontic extrusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>37323650</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Can computer-guided surgery help orthodontics in miniscrew insertion and corticotomies? A narrative review.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Orthodontics has considerably increased the use of technology combined with surgery as a tool to improve dental movements in terms of predictability, acceleration of movement, and fewer side effects. To achieve these goals miniscrews and corticotomy were introduced. The digital workflow permits an increase in the accuracy of surgical and orthodontic setups. The tool that transfers the information is the CAD/CAM (&lt;i&gt;Computer-Aided Design/ Computer-Aided Manufacturing)&lt;/i&gt; template. The aim of this review is to illustrate the use of computer-guided surgery in orthodontics regarding miniscrews and piezocision. The search strategy was a combination of Medical Subject Headings (Mesh) and free text words for PubMed. A total of 27 articles were included in this review: 16 concerned miniscrews and 11 concerned corticotomy. The current need for faster treatments, the improved systems of anchorage, and the evolution of imaging technologies require operators to be knowledgeable of the digital workflow. CAD/CAM templates allow greater precision and predictability of miniscrew insertion even if in the hands of less experienced clinicians and permit a better orientation and depth of the cortical incision. In conclusion, digital planning makes surgery faster and easier and allows for the identification and correction of any potential problem before the procedure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>35337702</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Novel digital technique to analyze the accuracy and intraoperative complications of orthodontic self-tapping and self-drilling microscrews placement techniques: An in vitro study.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>The objectives of this study were to analyze and compare the accuracy and intraoperative complications of orthodontic self-tapping and orthodontic self-drilling microscrew placement techniques. A total of 60 orthodontic microscrews were randomly distributed into 2 study groups: (1) group A, orthodontic self-drilling microscrew placement technique (n = 30); and (2) group B, orthodontic self-tapping microscrew placement technique (n = 30). Cone-beam computed tomography and intraoral scans were performed before and after the orthodontic microscrew placement techniques and uploaded in 3-dimensional implant planning software to analyze the deviation angle and the horizontal deviation measured at the coronal entry point and apical endpoint between orthodontic microscrews planned and performed, using the Student t test. In addition, intraoperative complications, such as root perforations after the orthodontic microscrews placement and the fracture of the orthodontic self-tapping microscrews during their placement, were also analyzed. The paired t test revealed statistically significant differences at the apical endpoint (P &lt;0.001) between planned and performed orthodontic self-tapping and self-drilling microscrew placement techniques. However, the paired t test revealed no statistically significant differences at the coronal entry point (P = 0.1047) and angular deviations (P = 0.3251) between planned and performed orthodontic self-tapping and self-drilling microscrews placement techniques. Furthermore, 4 root perforations were observed at the orthodontic self-tapping microscrews placement technique, and 1 orthodontic self-tapping microscrew was fractured during the placement procedure. The results show that the orthodontic self-drilling microscrew technique increases the accuracy of orthodontic microscrews placement, resulting in fewer intraoperative complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>32422194</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Is There a Significant Difference in Relapse and Complication Rate of Surgically Assisted Rapid Palatal Expansion Using Tooth-Borne, Bone-Borne, and Orthodontic Mini-Implant-Borne Appliances?</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>For surgically assisted rapid palatal expansion (SARPE), studies comparing different devices are missing. The aim was to evaluate expansion, relapse, and the complication rates for 3 different appliances. In this retrospective cohort study, tooth-borne (TB, n = 29), bone-borne (BB, n = 12), or orthodontic mini-implant (OMI)-borne (n = 13) appliances were used for SARPE in 2 clinical centers. Patients presenting with a maxillary width discrepancy greater than 5 mm were included. Measurements of cast models and radiographs were performed preoperatively, immediately after consolidation, and at 1 year postoperatively. All distances were measured between canines, premolars, and molars. Complications (tooth damage, infection, technical failure) were evaluated. The outcome variables were expansion, relapse, and complications. Type of appliance was selected as predictor variable. Within- and between-group differences regarding expansion, relapse, and complications for the 3 appliances were statistically analyzed. In 54 patients (aged 28.8 ± 8.6 years), mean expansion (±standard deviation) for the TB, BB, and OMI appliances immediately after consolidation was 5.29 ± 1.39 mm, 5.22 ± 1.72 mm, and 3.81 ± 2.19 mm, respectively, at the dental level, and 5.51 ± 1.40 mm, 4.66 ± 2.03 mm, and 3.51 ± 1.66 mm, respectively, at the bone level. Mean (±standard deviation) relapse for the TB, BB, and OMI appliances at 1 year postoperatively measured 1.44 ± 1.01 mm, 0.76 ± 1.37 mm, and 0.27 ± 1.63 mm, respectively, at the tooth level and 1.19 ± 0.93 mm, 0.71 ± 0.96 mm, and 0.12 ± 1.56 mm, respectively, at the bone level. Analysis of variance and the Tukey test showed significant differences between the TB and OMI appliances for expansion and relapse (P = .034 and P = .024, respectively). The overall complication rate differed significantly (P &lt; .001), with rates of 17.2%, 66.7%, and 15.4% for the TB, BB, and OMI appliances, respectively. BB and OMI appliances resulted in less relapse. Owing to the high complication rate, the further use of BB appliances is questionable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>26938955</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Nonsurgical miniscrew-assisted rapid maxillary expansion results in acceptable stability in young adults.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>To evaluate the stability of nonsurgical miniscrew-assisted rapid maxillary expansion (MARME) in young adults with a transverse maxillary deficiency. From a total of 69 adult patients who underwent MARME followed by orthodontic treatment with a straight-wire appliance, 20 patients (mean age, 20.9 ± 2.9 years) with follow-up records (mean, 30.2 ± 13.2 months) after debonding were selected. Posteroanterior cephalometric records and dental casts were obtained at the initial examination (T0), immediately after MARME removal (T1), immediately after debonding (T2), and at posttreatment follow-up (T3). Suture separation was observed in 86.96% of subjects (60/69). An increase in the maxillary width (J-J; 1.92 mm) accounted for 43.34% of the total expansion with regard to the intermolar width (IMW) increase (4.43 mm; P &lt; .001) at T2. The amounts of J-J and IMW posttreatment changes were -0.07 mm (P &gt; .05) and -0.42 mm (P  =  .01), respectively, during retention. The postexpansion change in middle alveolus width increased with age (P &lt; .05). The postexpansion change of interpremolar width (IPMW) was positively correlated with the amount of IPMW expansion (P &lt; .05) but not with IMW. The changes of the clinical crown heights in the maxillary canines, first premolars, and first molars were not significant at each time point. Nonsurgical MARME can be a clinically acceptable and stable treatment modality for young adults with a transverse maxillary deficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>35473999</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Effect of platelet-rich plasma on the rate of orthodontic tooth movement.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>This study aimed to evaluate the effect of platelet-rich plasma (PRP) on the rate of orthodontic tooth movement (OTM) during en-masse anterior retraction. Twenty adult patients with Angles Class I bimaxillary protrusion or crowding requiring first premolar extraction for routine orthodontic treatment were divided into control and experimental groups. The control group did not receive PRP, whereas the experimental group received PRP in the alveolar mucosa of the maxillary 6 anterior teeth just before starting en-masse retraction. Measurements were recorded on digital models made from scanned plaster casts at the beginning of space closure and the end of 3 months. The overall rate of OTM between both groups was compared. The amount of anchorage loss and type of anterior retraction on lateral cephalogram was also compared between the groups. The overall rate of OTM was minimally increased but not statistically significant in the experimental vs control group (P = 0.838). Anterior retraction parameters in both groups showed incisors moving primarily by controlled tipping and partly by translation. An intergroup comparison of all cephalometric parameters for anchorage loss and anterior retraction showed statistically insignificant differences between both groups. PRP is ineffective in accelerating the rate of OTM during en-masse anterior retraction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>19537874</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Socket sclerosis--an obstacle for orthodontic space closure?</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Socket sclerosis is a rare reaction to tooth extraction resulting in high-density bone in the center of the alveolar process, where, under normal circumstances, cancellous bone is to be expected. In an adult orthodontic patient, routine extractions of the mandibular first permanent bicuspids were performed, resulting in socket sclerosis and unsuccessful orthodontic space closure. Orthodontic mini-implants were inserted to augment anchorage and aid in space closure. In the presence of socket sclerosis, conventional orthodontic mechanics failed to close the extraction spaces. However, with absolute anchorage in place, space closure occurred at a nearly normal rate. After treatment, no signs of socket sclerosis were discernible on the periapical radiographs. Socket sclerosis can be an obstacle for orthodontic space closure if traditional mechanics are employed. However, mini-implant-reinforced anchorage can lead to successful space closure, resulting in complete resolution of the sclerotic sites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>23467731</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Accuracy of torque-limiting devices used for mini-implant placement--an in vitro study.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mini-implants are used when enhanced orthodontic anchorage is needed. Documented risks include damage inflicted to tooth structures and implant loosening, but also fracture. An important factor in minimizing adverse side effects is to control the insertion torque. The goal of the present study was to investigate the accuracy of various torque-limiting devices available for this purpose. Eight torque-limiting devices were analyzed, including a group of manually-operated drivers (n=3), a group of battery-operated drivers (n=4), and a surgical unit (n=1). The accuracy of these devices was tested over the entire range of applicable torque levels, using an experimental design simulating the insertion of mini-implants. No significant differences were noted between the group of manually-operated and the group of battery-operated devices within the clinically relevant range of 10-25 Ncm. Comparing the individual devices revealed several significant differences. Some devices yielded both effective torque levels very close to the set levels and small standard deviations. Mini-implants can be put in place in a controlled fashion regardless of whether the torque-limiting device used for this purpose is a manual- or battery-operated driver or a surgical unit. However, we observed that the accuracy of torque limitation differed greatly between individual devices across these groups. Our results can therefore help clinicians select an appropriate insertion device for mini-implants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>21875317</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Accuracy of a cone beam computed tomography-guided surgical stent for orthodontic mini-implant placement.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>To validate the accuracy of a cone-beam computed tomography (CBCT)-guided surgical stent for orthodontic mini-implant (OMI) placement by quantitatively evaluating the difference between CBCT-prescribed and actual position of mini-implants in preoperative and postoperative CBCT images. A surgical stent was fabricated using Teflon-Perfluoroalkoxy, which has appropriate biological x-ray attenuation properties. Polyvinylsiloxane impression material was used to secure the custom-made surgical stent onto swine mandibles. CBCT scanning was done with the stent in place to virtually plan mini-implants using a three-dimensional (3D) software program. An appropriate insertion point was determined using 3D reconstruction data, and the vertical and horizontal angulations were determined using four prescribed angles. A custom-designed surveyor was used to drill a guide hole within the surgical stent as prescribed on the CBCT images for insertion of 32 OMIs. The mandibles with a surgical stent in place were rescanned with CBCT to measure the deviations between the virtual planning data and surgical results. The difference between the prescribed and actual vertical angle was 1.01 ± 7.25, and the horizontal difference was 1.16 ± 6.08. The correlation coefficient confirms that there was no intrarater variability in either the horizontal (R  =  .97) or vertical (R  =  .74) vectors. The surgical stent in this study guides mini-implants to the prescribed position as planned in CBCT. Since the statistical difference was not significant, the surgical stent can be considered to be an accurate guide tool for mini-implant placement in clinical use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>34906435</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Orthodontic mini-implants: clinical and peri-implant evaluation.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>The study evaluated the clinical changes of orthodontic mini-implants (MI) inserted for the purpose of anchoring during orthodontic treatment. The null hypotheses were: 1-that there is no correlation between proximity of the MI to the root and peri-implantitis or mobility; 2-that peri-implantitis does not interfere with mobility; 3-that the pain is not related to mobility or peri-implantitis. Forty (40) patients were selected and the MI were evaluated for each patient. MI in the upper and lower arch were evaluated for a period of approximately 6 months with relationship to the distance MI - root, peri-implantitis, mobility, biological damage and pain through the analysis of periapical radiography and clinical/periodontal evaluation. The evaluations were performed out by means of scores and a correlation was made between the variables. No statistically significant differences were found between the upper and lower arch in the variables evaluated, except for the mobility that was more present in the lower arch (p = 0.0336). There was a correlation between peri-implantitis and mobility (p = 0.0003) and between pain and mobility (p = 0.0443). However, there was no correlation between a greater degree of peri-implantitis and greater mobility (p = 0.7054). In addition, the MI placed too close to the root showed peri-implantitis (p = 0.0142). The null hypotheses were rejected because there was a positive correlation between the analyzes. The placement of MI close to the root led to greater peri-implantitis. Patients who reported pain had greater mobility of the MI and peri-implantitis led to greater mobility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>36458908</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A quantitative analysis of facial changes after orthodontic treatment with vertical control in patients with idiopathic condylar resorption.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>This study aimed to investigate temporomandibular joint (TMJ) stability and three-dimensional (3D) facial changes in class II hyperdivergent patients with stable idiopathic condylar resorption (ICR) after orthodontic camouflage treatment with vertical control by using temporary anchorage devises (TADs). Nineteen skeletal class II hyperdivergent patients who were diagnosed with stable ICR underwent bicuspid extraction orthodontic treatment with vertical control via TADs were enrolled. TMJ was evaluated with the cone beam computerized tomography (CBCT) and clinical records before and after treatment. Changes in dental and skeletal parameters were evaluated with cephalometric and dental cast measurements. The 3D morphable model (3DMM) method was performed with the MeshMonk toolbox for the 3D facial analysis. After the reposition and landmark setting process, 3D facial heatmaps were used to illustrate facial changes, and the 3D deviations of landmarks were calculated. Both the imaging evaluation and clinical examination proved that TMJs remained stable after treatment. The retrusion of the upper and lower incisors reached 6.63 ± 0.79 mm and 3.78 ± 1.49 mm. The intrusion of the upper first molar reached 2.65 ± 0.75 mm, with a 2.27 ± 0.82° counterclockwise rotation of the mandibular plane. An upward shift of the soft tissue pogonion (2.34 ± 2.03 mm) and protrusion of Po-NB (0.82 ± 0.70 mm) was gained. Larger intrusion was found in the lower lip (3.29 ± 0.80 mm) than in the upper lip (2.20 ± 0.69 mm). Camouflage orthodontic treatment with TAD for vertical control is acceptable for skeletal class II hyperdivergent patients with ICR, which can improve the facial profile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>38104288</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comparison of Corticotomy and Micro-osteoperforation during Canine Retraction: A Split-Mouth Design.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Compare the efficacy of the micro-osteoperforation (MOP) and corticotomy techniques in terms of maxillary canine retraction. Thirteen patients (5 females, 8 males; mean age, 18.07 ± 6.74 years) with healthy permanent dentition and requiring the extraction of maxillary first premolars were included in a split-mouth randomized clinical trial. Those subjects with previous orthodontic or endodontic treatment of the canines were excluded. At least 3 months post-extraction, MOPs and corticotomies were performed distal to the canines. Mini-screws with closed-coil springs (150 g) were used for the canine retraction. Dental casts were made at baseline (T0) and 3 months post-intervention (T1). Trained and calibrated examiners measured the distances from the canines to the second premolars on both sides. A signed-rank sum test was used to compare the amount of canine retraction achieved in 3 months (T0-T1) on the 2 sides. Retraction (mm) at the incisal level was similar in the corticotomy (3.34 ± 1.01) and MOP patients (2.74 ± 1.10) (P = 0.11); furthermore, there were no differences in the degree of medial retraction between the corticotomy (2.56 ± 0.67) and MOP (2.27 ± 0.82) (P = 0.31) procedures. No adverse events were observed. There were not any clinically or statistically significant differences in retraction between the interventions. At 3 months, a MOP is as effective as a corticotomy in accelerating the rate of tooth movement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>17944963</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Effect of bone conditioning on primary stability of FRIALIT-2 implants.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Primary stability is crucial to implants used for orthodontic anchorage. Bone condensing to enhance primary stability is controversial. Fourteen Frialit-2-stepped screw and cylinder implants were placed in the median palatine sutures of 22 cadaveric human heads. In half of both types, the implant bed was prepared using a Frialit Bone Condenser. Primary implant stability was evaluated using non-invasive resonance frequency analysis. Moreover, the bone-implant contact area was examined histomorphometrically and radiographically. Bone condensing yielded a slightly, yet not significantly increased implant stability quotient compared with a conventional technique. In spongy bone, a significant histomorphometric increase of bone-implant contact (P&lt;0.0001) and a significant increase of radiographic density was revealed for both implant types, while no significant changes were observed within the compact area. The study shows that bone condensing yields an improved histologic implant-bone contact only in spongy bone, which was paralleled by radiographic-densitometric findings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>37046569</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Comparison of the Mesiodistal Angulations of Canine and Molar Teeth in Different Types of Orthodontic Malocclusions: A Retrospective Study.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>(i) Objective: Changes in the mesiodistal axial angulations of teeth with orthodontic treatment have been a topic of interest in orthodontics for many years, although it has not been clarified enough yet. Therefore, this present study aimed to compare mesiodistal axial angulations of canine and first molar teeth by measuring from pre- and post-treatment panoramic radiographs in different types of orthodontic malocclusions. (ii) Materials and Methods: In the study, the mesiodistal axial angulation angles of the lower-upper canines (teeth numbered 13, 23, 33, and 43) and first molars (teeth numbered 16, 26, 36, and 46) were compared on panoramic radiographs taken pre- (T0) and post- (T1) orthodontic treatment of 353 patients: 237 female (mean age 14.74 ± 2.96) and 116 male (mean age 14.44 ± 2.50), who had not received any prior orthodontic treatment. The groups were formed according to pre-/post-treatment, gender, angle classification, skeletal classification, bilaterally first premolar extraction/non-extraction, and the use/non-use of miniscrews in the extraction cases. The mesiodistal angulations between the long axes of both the lower and upper canines and first molars and the interorbital plane were measured separately and recorded. The reliability analysis between the repeated measurements was evaluated using the intraclass correlation coefficient (ICC). For statistical analysis, a paired sample &lt;i&gt;t&lt;/i&gt;-test and Wilcoxon test were used for the normally and non-normally distributed data, respectively. For the between-groups comparison, independent sample &lt;i&gt;t&lt;/i&gt;-test and one-way ANOVA were used for normally distributed data, while the Mann-Whitney U and Kruskal-Wallis tests were used for non-normally distributed data. A value of &lt;i&gt;p&lt;/i&gt; &lt; 0.05 was considered statistically significant. (iii) Results: ICCs showed excellent reliability, ranging from 0.804 to 0.913 in other teeth, yet were good in tooth 43 (ICC = 0.712). Regardless of the groups, statistically significant differences were found between the T0 and T1 angulations for all teeth, except teeth 13 and 16. In all groups, the increase in the angulations of teeth 33 and 43 and the decrease in the angulations of teeth 36 and 46 (except skeletal class 3) were found to be statistically significant. The T0 and T1 angulation changes in the miniscrews in the used and non-used groups in extraction cases were similar to the differences found in all teeth, regardless of the groups. There was no significant difference between gender, skeletal classes, and angle classes in the amounts of change in the mesiodistal angulations. (iv) Conclusion: It was concluded that orthodontic treatment caused significant changes in the mesiodistal axial angulation of the canine and the first molar teeth. Furthermore, the fact that the angulations tended to increase in the lower canine teeth and decrease in the lower first molar teeth revealed the importance of tooth movement control, especially in orthodontic mechanics in the mandibula.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>31974060</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Maxillary molar distalization in treatment of angle class II malocclusion growing patients: Uncontrolled clinical trial.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>This study was conducted to evaluate the clinical effectiveness treatment effects of a simple buccal technique for maxillary molar distalization using direct buccal skeletal anchorage. After sample size calculation, fourteen female patients with bilateral Class II molar relationship (age 11-14 years) were selected from the clinic of the Department of Orthodontics, Faculty of Dentistry, Mansoura University, Egypt. After the application of the eligibility criteria, only eleven patients remained to final evaluation. The criteria included: erupted second maxillary molars, mild to moderate maxillary crowding not exceeding 6mm with/without increased overjet and non-extraction treatment in the lower arch. After alignment and levelling, a miniscrew (1. 8mm diameter - 0. 8mm long) was placed buccally between the maxillary second premolar and the first molar in each side. The maxillary molar distalization was done using 250 grams of force produced from NiTi closed coil spring stretched to a buccal miniscrew. Records including cephalometric x-rays and study casts were taken for all patients before and after molar distalization. Statistical evaluation was performed for the data obtained from analysis of cephalometric tracing and cast photocopies. The maxillary first molars were distalized with a rate of 0. 89±0. 30mm (95% CI 0.76-1.02) (P&lt;0.001) and distalization amount of 4.09±0. 92mm (CI 3.68-4.50) (P&lt;0.001). They were distally tipped by 2.48°±6. 16 (CI -0.26-5.21) (P=0.073) and rotated distopalatally by 11.89°±5.86 with negligible change in their vertical position about 0.11±0.63mm (CI -0.40-0.17) (P=0.411). There was no anchorage loss evident by the distal movement of all the maxillary teeth (P&lt;0.001). Overjet significantly reduced by 0. 86±0. 50 (CI 0.52-1.20) (P=0.004). Maxillary molar distalization using a closed coil and buccal miniscrew is an effective and non-compliance dependent technique in a relatively short time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>19216312</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Application of a computer navigation system for the placement of orthodontic anchorage screws.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>The computer navigation system Robodent, which was developed for dental implants, was used for the placement of orthodontic anchorage screws in a phantom head. The deviation between the planned and finally achieved position of the screws did not exceed that reported for dental implants. In conclusion, the system seem to be suitable and precise enough for orthodontic screws.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>35120859</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Class II treatment of transverse maxillary deficiency with a single bone-borne appliance and hybrid clear aligner approach in an adult patient: A case report.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>This case report describes the successful orthodontic treatment of a 22-year-old female patient affected by Class II malocclusion, maxillary skeletal transverse deficiency, ectopic maxillary left lateral incisor, and mild mandibular crowding. Due to her adult skeletal age, a bone-borne appliance was applied in order to obtain both purely skeletal rapid maxillary expansion and bilateral molar distalization. After accurate matching between the pretreatment cone-beam computed tomography scan and digital models, 4 self-drilling miniscrews were inserted palatally using a computer-aided design and computer-aided manufacturing (CAD/CAM) surgical template to guide their correct and safe placement, and a bone-borne appliance was fitted. After this first phase, the hybrid clear aligner approach was used to obtain alignment, levelling, and arch coordination, with the use of a partial lingual fixed appliance on the maxillary incisors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>21841996</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Precise insertion of orthodontic miniscrews with a stereolithographic surgical guide based on cone beam computed tomography data: a pilot study.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Orthodontic miniscrews are commonly used to achieve absolute anchorage during tooth movement. One of the most frequent complications is screw loss as a result of root contact. Increased precision during the process of miniscrew insertion would help prevent screw loss and potential root damage, improving treatment outcomes. Stereolithographic surgical guides have been commonly used for prosthetic implants to increase the precision of insertion. The objective of this paper was to describe the use of a stereolithographic surgical guide suitable for one-component orthodontic miniscrews based on cone beam computed tomography (CBCT) data and to evaluate implant placement accuracy. Acrylic splints were adapted to the dental arches of four patients, and six radiopaque reference points were filled with gutta-percha. The patients were submitted to CBCT while they wore the occlusal splint. Another series of images was captured with the splint alone. After superimposition and segmentation, miniscrew insertion was simulated using planning software that allowed the user to check the implant position in all planes and in three dimensions. In a rapid-prototyping machine, a stereolithographic guide was fabricated with metallic sleeves located at the insertion points to allow for three-dimensional control of the pilot bur. The surgical guide was worn during surgery. After implant insertion, each patient was submitted to CBCT a second time to verify the implant position and the accuracy of the placement of the miniscrews. The average differences between the planned and inserted positions for the ten miniscrews were 0.86 mm at the coronal end, 0.71 mm at the center, and 0.87 mm at the apical tip. The average angular discrepancy was 1.76 degrees. The use of stereolithographic surgical guides based on CBCT data allows for accurate orthodontic mini screw insertion without damaging neighboring anatomic structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>34994861</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3D quantification of in vivo orthodontic tooth movement in rats by means of micro-computed tomography.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>(1) To test the accuracy of split-mouth models in rats for the study of orthodontic tooth movement (OTM) and (2) to propose an improved 3D model for quantification of OTM in rats. Eleven Wistar rats were split into group 1 (dental anchorage) and group 2 (skeletal anchorage). In both groups, no orthodontic force (OF) was applied on the contralateral hemi-maxilla. In vivo micro-CT images were taken before (T0) and 31 days (T1) after OF. OTM was compared between time-points and experimental sides using conventional 2D analysis and a novel 3D model. Using incisors as anchorage leads to their distal displacement in both OF and no OF sides. In the OF side, movement of M1 is underestimated by incisor displacement. Mesial displacement of M1 was found in the no OF side of all groups 31 days after the application of OF. The new 3D model yielded higher sensitivity for tooth displacement in planes other than sagittal and incisor displacement was reduced by using skeletal anchorage. Studies following split-mouth designs in orthodontic research in rats might be systematically underestimating the effects of techniques and/or medication on OTM, since there is tooth displacement on the control side. 3D quantification of OTM with skeletal anchorage is more sensitive and avoids displacement of the dental units used as anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>28243866</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Measuring 3D-orthodontic actions to guide clinical treatments involving coil springs and miniscrews.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>The understanding of the phenomena at the base of tooth movement, due to orthodontic therapy, is an ambitious topic especially with regard to the "optimal forces" able to move teeth without causing irreversible tissue damages. To this aim, a measuring platform for detecting 3D orthodontic actions has been developed. It consists of customized load cells and dedicated acquisition electronics. The force sensors are able to detect, simultaneously and independently of each other, the six orthodontic components which a tooth is affected by. They have been calibrated and then applied on a clinical case that required NiTi closed coil springs and miniscrews for the treatment of upper post-extraction spaces closure. The tests have been conducted on teeth stumps belonging to a plaster cast of the patient's mouth. The load cells characteristics (sensor linearity and repeatability) have been analyzed (0.97 &lt; R &lt;sup&gt;2&lt;/sup&gt; &lt; 1; 6.3*10 &lt;sup&gt;-6&lt;/sup&gt; % &lt; STD &lt; 8.8 %) and, on the basis of calibration data, the actions exerted on teeth have been determined. The biomechanical behavior of the frontal group and clinical interpretation of the results are discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>14765050</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Distal movement of mandibular molars in adult patients with the skeletal anchorage system.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>The skeletal anchorage system (SAS) consists of titanium anchor plates and monocortical screws that are temporarily placed in either the maxilla or the mandible, or in both, as absolute orthodontic anchorage units. Distalization of the molars has been one of the most difficult biomechanical problems in traditional orthodontics, particularly in adults and in the mandible. However, it has now become possible to move molars distally with the SAS to correct anterior crossbites, maxillary dental protrusion, crowding, and dental asymmetries without having to extract premolars. This study evaluated the treatment and posttreatment changes during and after distalization of the mandibular molars. In 15 adult patients (12 women and 3 men), a total of 29 mandibular molars were successfully distalized with SAS. The amount of distalization and relapse and the type of tooth movement were analyzed with cephalometric radiographs and dental casts. The average amount of distalization of the mandibular first molars was 3.5 mm at the crown level and 1.8 mm at the root level. The average amount of relapse was 0.3 mm at both the crown and root apex levels. Of 29 mandibular molars, 9 were tipped back, and the others were translated distally in accordance with the established treatment goals. SAS is a viable modality to move mandibular molars for distally correcting anterior crossbites, malocclusions characterized by mandibular anterior crowding, and dental asymmetries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>31797837</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MARPE Guide: A Case Report.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>This paper presents a prototyped surgical guide for placement of MARPE-mini-implant-assisted rapid palatal expander. Investigations conducted in the last decades have increased the technological resources used in orthodontics. This scientific advance applies to several clinical procedures, including the planning of devices used in guided surgeries, using computed tomography images and intraoral scanning. This case report presents maxillary expansion in an adult patient (18 years and 5 months), using the MARPE technique, by virtual planning and fabrication of a surgical guide (laser-printed on a 3D printer MoonRay D225-SprintRay, 2014), after merging of 3 files: digital file of the expander (.stl), computed tomography of the suture, and intraoral scanning of the patient, using the planning software NemoStudio (version 20122, 16.50.0.56). Fabrication of a surgical guide for the MARPE technique provides an accurate transfer of the virtual planning to the surgical procedure. It allows three-dimensional orientation of the expander position and perforations of mini-implants, which are necessary to establish anchorage in areas with sufficient bone, assuring the system stability and a successful procedure. The mini-implant assisted rapid palatal expansion (MARPE) has been investigated as a promising option for correction of malocclusion related with maxillary atresia in adult patients and is an option to orthognathic surgery. Digital treatment planning is fundamental to establish individual, reproducible, and accurate parameters, as in the present case, which evidenced significant benefits in both occlusal and respiratory aspects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>32938823</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Stability of bimaxillary surgery involving intraoral vertical ramus osteotomy with or without presurgical miniscrew-assisted rapid palatal expansion in adult patients with skeletal Class III malocclusion.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>The aim of this study was to evaluate the stability of bimaxillary surgery involving bilateral intraoral vertical ramus osteotomy performed with or without presurgical miniscrew-assisted rapid palatal expansion (MARPE) in adult patients with skeletal Class III malocclusion. A total of 40 adult patients with skeletal Class III malocclusion were retrospectively divided into two groups (n = 20 each) according to the use of MARPE for the correction of transverse maxillomandibular discrepancy during presurgical orthodontic treatment. Serial lateral cephalograms and dental casts were analyzed until 6 months after surgery. Before presurgical orthodontic treatment, there was no significant differences in terms of sex and age between groups. However, the difference of approximately 3.1 mm in the maxillomandibular intermolar width was statistically significant (&lt;i&gt;p&lt;/i&gt; &lt; 0.001). Two days after surgery, the mandible had moved backward and upward without any significant intergroup difference. Six months after surgery, the maxillary intercanine (2.7 ± 2.1 mm), interpremolar (3.6 ± 2.4 mm), and intermolar (2.0 ± 1.3 mm) arch widths were significantly increased (&lt;i&gt;p&lt;/i&gt; &lt; 0.001) relative to the values before presurgical orthodontic treatment in the MARPE group; these widths were maintained or decreased in the control group. However, there was no significant difference in surgical changes and the postsurgical stability between the two groups. No significant correlations existed between the amount of maxillary expansion and postsurgical mandibular movement. MARPE is useful for stable and nonsurgical expansion of the maxilla in adult patients with skeletal Class III malocclusion who are scheduled for bimaxillary surgery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>16279830</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Orthodontic anchorage implants inserted in the median palatal suture and normal transverse maxillary growth in growing dogs: a biometric and radiographic study.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Small osseointegrated implants inserted in the palate provide a reliable anchorage control during orthodontic treatment. When these implants are inserted in the median palatal suture in growing individuals, the possible effects on normal transverse maxillary growth are still unknown. Therefore, the aim of this study was to evaluate the influence of orthodontic anchorage implants on transverse maxillary growth when inserted in the median palatal suture of growing dogs. Five growing dogs were used, one of them randomly selected as a control dog. The test dogs each received two implants in the median palatal suture. Impressions and occlusal radiographs of the upper jaws were taken at baseline (TO), after 84 days (T1), and at the end of the study after 168 days (T2). Measurements to compare increases in maxillary width between test dogs and control dog were performed on study casts and occlusal radiographs at TO, T1, and T2. Restricted transverse growth was observed in the test dogs in the canine region. Transverse growth in the region of second and fourth premolars was similar for the test dogs and the control dog. These results may be of some clinical relevance when orthodontic anchorage implants are to be inserted in growing individuals. An alternative insertion site, for example the parasagittal region, should be considered in these cases, to avoid possible negative effects on normal transverse maxillary development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>34821980</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>The success and effectiveness of miniscrew-assisted rapid palatal expansion are age- and sex-dependent.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>This study aimed to assess the success rate and the amount of suture separation after the miniscrew-assisted rapid palatal expansion (MARPE) procedure in relation to the chronological age and sex of the patients. The periapical radiographs of 215 subjects (95 male; 120 female; range, 6-60 years) who had undergone MARPE treatment were retrospectively analyzed. The success of suture separation was determined and, in suture-separated subjects, the amount of suture separation was evaluated by suture separation ratio calculated from the periapical radiograph obtained after active expansion. Association tests were performed using linear-by-linear association, the Jonckheere-Terpstra test, Fisher's exact test, and the Mann-Whitney U test, and linear regression models were also developed. The success rate of suture separation was 61.05% in male, 94.17% in female, and 79.53% in both sexes. There was a statistically significant association between older age and suture nonseparation in male (p &lt; 0.001), but not in female (p = 0.221). In suture-separated subjects, there was a statistically significant trend toward a low amount of suture separation with older age subgroups in both sexes (p &lt; 0.001); however, there was no statistically significant difference in the amount of suture separation between male and female in all age subgroups. Older patients treated with MARPE, particularly in male, may have a reduced likelihood of both success in suture separation and sufficient basal bone expansion. This study demonstrates that clinicians should consider that the success rate of MARPE and the amount of suture separation may depend on chronological age and sex.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>34277825</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Clinical effectiveness of orthodontic miniscrew implantation guided by a novel cone beam CT image-based computer aided design and computer aided manufacturing (CAD-CAM) template.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Although miniscrews are widely used in orthodontic treatment as temporary anchorage devices, their correct and safe placement has attracted little attention. This study aimed to introduce a novel cone beam CT (CBCT) image-based computer aided design and computer aided manufacturing (CAD-CAM) template for orthodontic miniscrew implantation and to evaluate the effectiveness of miniscrews implanted under the guidance of this template. The CBCT scans of ten patients requiring miniscrews as anchorage were analyzed in NNT software to predetermine the insertion sites of miniscrew implants. The DICOM data of the scans, along with virtual miniscrews acquired in Solidworks software, were imported into Mimics software to construct three-dimensional (3D) images of teeth and bone and to determine the virtual position of miniscrews and 3D virtual templates were designed following consideration of the virtual implantation plans. A STL (Stereolithography) file of the virtual template was output, and the resin template was then fabricated with a stereolithographic appliance (SLA). 24 Miniscrews were then implanted guided by the template and clinical evaluation of their safety and stability, as well as their placement deviations, were made. A dental casts model and cephalometric analysis before and after orthodontic treatment were made to assess the dentomaxillofacial changes. All 24 miniscrews had no contact with adjacent roots. 18 miniscrews had a grade I safety score and six had a grade II. The miniscrews were stable at 1, 3, 6, and 9 months after implantation, although there was mild inflammation around two miniscrews. Implantation deviation of miniscrew in the crown was (1.03±0.65) and (1.26±0.72) mm in the apex, on average. Satisfactory dentomaxillofacial changes in 10 patients with these 24 miniscrews as anchorage were acquired. Miniscrews could be implanted in the targeted position safely and precisely when guided by the novel templates, and remained stable during orthodontic treatment. Patients treated with these miniscrews as anchorage in orthodontic treatment acquired satisfactory dentomaxillofacial changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>32897413</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Impression material accuracy for palatal orthodontic miniscrews.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>This study investigates the accuracy of abutment transfer with current impression materials and provides a concise overview, including other relevant factors, in order to enable clinicians to make an informed decision about the optimal impression for this treatment procedure. In all, 96 impressions of a cadaver head with two orthodontic miniscrews in place were taken with four common impression materials by two observers and using two methods of application. After pouring with a standard type IV stone and abutment transfer, all models and the upper jaw (which had been separated from the head) were scanned in a standard model scanner (Zirkonzahn® [Zirkohnzahn GmbH, Gais, Italy] S600 ARTI) and evaluated using a computer-aided design (CAD) program (GOM-Inspect [Gesellschaft für optische Messtechnik m.b.H., Braunschweig, Germany]). The deviations were measured at six points per screw and statistically evaluated with SPSS® (IBM, Chicago, IL, USA). Optimal values were obtained with biphasic polyvinylsiloxane, while monophasic polyvinylsiloxane, alginate and polyether also resulted in acceptable accuracy. Observer experience showed no effect and the method of application had only a minor effect on accuracy. Within the limitations of this study, it seems that all impression materials are suitable for miniscrew abutment transfer, provided that methods of intraoral adaptation of the orthodontic appliance can be employed. If higher accuracy is needed or for clinicians with less experienced, a biphasic polyvinylsiloxane impression with the putty-wash technique should be used as this combination reduces setting time. The most cost-effective version, alginate, can be used if the consequences of greater deviations can be handled. Caution is advised with polyether if undercuts are present.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>17448382</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Computerized navigation surgery for the safe placement of palatal implants.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Palatal endosseous implants are increasingly recognized as an important alternative for achieving maximal intraoral orthodontic anchorage; however, their safe surgical placement is a matter of concern. Available palatal bone is frequently limited, and erroneous drilling can damage adjacent structures. Computerized navigation surgery is an advanced surgical modality in which the surgical drill is accurately tracked and animated in real time on the radiological image of the surgical site. In implant dentistry, this surgical modality allows accurate navigation of the implant drilling procedure and increases safety and accuracy, compared with conventional dental implant surgery. This article outlines the principles of computerized navigation surgery and describes its application for the placement of palatal orthodontic implants. The merits of this approach are particularly important for patients with limited palatal bone when implant placement requires high surgical precision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>24987625</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Current trends in miniscrew utilization among Indian orthodontists.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>There is limited data about current utilization of miniscrews in orthodontic practices in India. The purpose of this survey was to obtain information on clinical utilization of miniscrews among orthodontists in India. A survey questionnaire was prepared and mailed to 2100 qualified and registered orthodontists in India. A total of 1691 orthodontists responded to the survey, with a response rate of 80.52%. Among them, 952 (56.3%) had never used miniscrews in their clinical practice. Seven hundred and thirty-nine (739) (43.7%) had utilized miniscrews in their treatment, at some point of time. Among the orthodontists who used miniscrews, 463 (62.65%) used a surgical guide for positioning the miniscrews and 276 (37.35%) placed miniscrews without a surgical guide. Six hundred and thirty-four (634) (85.79%) orthodontists placed the miniscrews personally while 105 (14.21%) utilized the help of other specialists for placing the miniscrews. Among the orthodontists who used miniscrews, 76 (10.28%) utilized the help of oral surgeon to place the miniscrews while 29 (3.93%) utilized the help of periodontists to do the procedure. Miniscrews are a useful addition to the orthodontic armamentarium. The major indication for miniscrew was indirect anchorage in critical anchorage cases. The most important factors in determining the clinical utilization of miniscrews as a part of the treatment modality depends upon operator training and skill; fear of complications, patient refusal to accept miniscrews and the clinician's preference for conventional methods without unnecessary invasive procedure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>22022696</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Cast Haas-type RME appliance: A case report.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rapid maxillary expansion (RME) in the initial stages of occlusal development has become a routine procedure in orthodontic practice. The increase of the transverse dimensions of the maxilla in the mixed dentition can be carried out by a rapid palatal expander that exploits primary teeth as anchorage to minimize any negative effects on permanent teeth. This case report demonstrates the use of a modified Haas-type RME appliance in a Caucasian girl 7 years 6 months of age with a maxillary transverse deficiency, unilateral crossbite, dental midline deviation, and maxillary anterior dental crowding. The patient was treated with a modified Haas-type RME appliance composed of a six-band metal-cast structure with a partial occlusal covering that was bonded to the primary teeth using glass-ionomer cement. Clinicians see advantages in terms of speed of application and patient compliance by taking a single impression. Stability and retention of the appliance improve thanks to custom-made metal casting and the risks of decementation minimize via the use of glass-ionomer cement. Moreover, the fabrication in inert titanium, hypoallergenic resin, and laser soldering means patients with allergies can use it. The results demonstrate that the expansion carried out on primary teeth is followed by permanent molars and remains stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>16627183</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Comparison and measurement of the amount of anchorage loss of the molars with and without the use of implant anchorage during canine retraction.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The purpose of this study was to compare and measure the amount of anchorage loss with titanium microimplants and conventional molar anchorage during canine retraction. Subjects for this study comprised 10 orthodontic patients (7 women, 3 men) with a mean age of 19.6 years (range, 18 to 25 years), who had therapeutic extraction of all first premolars. After leveling and aligning, titanium microimplants 1.3 mm in diameter and 9 mm in length were placed between the roots of the second premolars and the first molars. Implants were placed in the maxillary and mandibular arches on 1 side in 8 patients and in the maxilla only in 2 patients. A brass wire guide and an intraoral periapical radiograph were used to determine the implant positions. After 15 days, the implants and the molars were loaded with closed-coil springs for canine retraction. Lateral cephalograms were taken before and after retraction, and the tracings were superimposed to assess anchorage loss. The amount of molar anchorage loss was measured from pterygoid vertical in the maxilla and sella-nasion perpendicular in the mandible. Mean anchorage losses were 1.60 mm in the maxilla and 1.70 mm in the mandible on the molar anchorage side; no anchorage loss occurred on the implant side. Titanium microimplants can function as simple and efficient anchors for canine retraction when maximum anchorage is desired.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>38784081</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Tooth movement with dental anchorage vs. skeletal anchorage: A systematic review of clinical trials.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>The aim of this study is to compare the time and movement of orthodontic treatment using dental anchorage and skeletal anchorage in adolescent and adult patients with dental malocclusions. A systematic search was conducted in the Embase, PubMed, Lilacs, Cochrane, Trip, and Scopus databases up to October 2022. All the articles were selected using title and abstract, applying the inclusion and exclusion criteria. Disagreements were resolved with a third author. Finally, a full-text selection took place. The data extraction was conducted by two authors who independently evaluated the risk of bias. The methodological quality of the randomized clinical trials was evaluated using the Cochrane tool for the evaluation of the randomized clinical trials. Six articles were included in the data analysis. There were four clinical trials and two randomized clinical trials. A total of 176 patients was obtained with an age range between 14 and 46 years. Four studies showed significant differences when comparing the two anchorages in retraction or distalization of tooth groups, and two showed no differences when using dental and skeletal anchorage for vertical movements; only the articles with vertical movements showed relapse. We can conclude that skeletal anchorage generates precise and stable horizontal movements without overloading or changing the position of the molar. Future studies must incorporate three-dimensional technology for greater clinical accuracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>38247968</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Mini-Implant Insertion Using a Guide Manufactured with Computer-Aided Design and Computer-Aided Manufacturing in an Adolescent Patient Suffering from Tooth Eruption Disturbance.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Due to dental diseases, anatomical restrictions, and mixed dentition, the reduction in the number of teeth and the displacement of tooth germs pose challenges in orthodontic treatment, limiting anchorage options. The presented case demonstrates an advanced treatment solution using digital CAD/CAM-technologies and medical imaging for the creation of a mini-implant template. A 12-year-old male patient experiencing delayed tooth eruption, multiple impacted germs, and maxillary constriction underwent intraoral scanning and CBCT. Utilizing coDiagnostiX&lt;sup&gt;TM&lt;/sup&gt; Version 10.2 software, the acquired data were merged to determine the mini-implant placement and to design the template. The template was then manufactured through stereolithography using surgical-guide material. Mini-implants were inserted using the produced appliance, enabling safe insertion by avoiding vital structures. Surgically exposed displaced teeth were aligned using a Hyrax screw appliance anchored on the mini-implants for rapid palatal expansion (RPE) and subsequently used as fixed orthodontics to align impacted teeth. The screw was activated daily for 10 weeks, resulting in a 7 mm posterior and 5 mm anterior maxillary transversal increase. Skeletal anchorage facilitated simultaneous RPE and tooth alignment, ensuring accuracy, patient safety, and appliance stability. The presented case shows a scenario in which computer-aided navigation for mini-implant positioning can enhance precision and versatility in challenging anatomical cases.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>29898158</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Additional intraoral radiographs may change the judgment regarding the final position of orthodontic mini-implants.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>This study aimed to assess if additional vertical bitewing (VBW) and/or occlusal (OC) radiographs may change initial judgment based only on periapical radiograph (PAR) about the final position of orthodontic mini-implants (OMI). Subjective and objective analyses were performed. Radiographic images of 26 OMI were divided into four groups: PAR, PAR+VBW, PAR+OC and ALL (PAR+VBW+OC). For subjective analysis, five observers were asked to assess if the position of OMI was favorable to its success, using questionnaires with a four-point scale for responses: 1= definitely not favorable, 2= probably not favorable, 3= probably favorable, or 4= definitely favorable. Each group containing sets of images was presented to them in four different viewing sessions. Objective evaluation compared horizontal distances between OMI tip and the root nearest to the device in PAR and VBW. Most of observers (3 out of 5) changed their initial judgment based on PAR about OMI position when additional radiographs were analyzed. Differences between groups (i.e. PAR vs. PAR+VBW; PAR vs. PAR+OC; and, PARvs.ALL) were statistically significant for these observers. For those that changed their judgment about OMI position, confidence level could significantly increase, decrease or even be maintained, not indicating a pattern. There was no agreement for distances between OMI tip and the root nearest to the device in PAR and VBW. Considering the limitations of the study, it is concluded that additional radiographic images may change the judgement about OMI final position without necessarily increasing the degree of certainty of such judgment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>18575904</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Microanchor mediated upper molar intrusion in deep posterior bite after long-term edentulousness for prosthetic reconstruction with dental implants.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Long-term edentulousness can lead to elongation of antagonistic teeth, making prosthetic rehabilitation impossible. An interdisciplinary case is presented where elongated teeth were successfully intruded by micoranchor-mediated orthodontic movement. To the right mandible, implants had been inserted correspondingly to the alveolar process height. However, the patient waited over 1 year for prosthetic treatment. The antagonistic maxillary teeth had elongated considerably. On the left side, elongated upper molars occluded with previously crowned and in the meantime unprovided teeth 35 and 37. On the right side, two palatal, three vestibular microanchors of 8 mm length and 1.6 mm diameter were used, on the left side, two palatal and two vestibular microanchors to intrude the teeth 14 to 17 and 26. The screwheads were connected to individually model-casted splints for bodily intrusion of the molars. This case illustrates how vertical tooth movements can be ventured by the use of orthodontic microscrews before either conventional or implant-borne prosthetic rehabilitation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>35586819</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Maxillary Expansion: A Comparison of Damon Self-Ligating Bracket Therapy with MARPE and PAOO.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>The aim of this study was to investigate arch parameters and dentoalveolar changes from pretreatment to posttreatment by comparing the Miniscrew Assisted Rapid Palatal Expansion (MARPE), Periodontally Accelerated Osteogenic Orthodontics (PAOO), and Damon self-ligating bracket therapies. Seventy-nine patients underwent maxillary expansion followed by or in conjunction with Damon (&lt;i&gt;n&lt;/i&gt; = 23), PAOO (&lt;i&gt;n&lt;/i&gt; = 28), and MARPE (&lt;i&gt;n&lt;/i&gt; = 28) therapies. Nine maxillary dental arch parameters were compared at pretreatment, posttreatment as well as, increments of treatment change. Measurements were made on STL study casts using 3Shape Ortho Analyzer 3D scanner software. All groups showed significant posterior width increase in the molar area. The mean increase in inter-molar distance was more than 8X greater in MARPE group compared to Damon and more than 4X greater compared to PAOO. MARPE showed significantly greater increments of change in inter-molar width and palatal vault area. All groups showed a significant width increase in the canine and molar area. MARPE showed the greatest increase in inter-molar width, followed by PAOO and Damon. MARPE was the only group to show a significant increase in palatal vault area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>22782051</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Preorthodontic implant placement in the planned postorthodontic position: a simplified technique and clinical report.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Interdisciplinary cases can require orthodontic correction with implant anchorage prior to the placement of implant-supported restorations. Definitive implants for orthodontic anchorage offer several advantages compared to temporary attachment devices. Preorthodontic definitive implant placement requires accurate and detailed treatment planning to visualize the final orthodontic result and the optimal restoration position. This article describes a simplified method for creating a radiographic-surgical template for preorthodontic imaging and correct implant placement in the planned postorthodontic position. This approach uses common materials to combine the information from a preorthodontic diagnostic cast and the orthodontic setup/diagnostic wax-up/trial equilibration cast.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>16279822</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Maxillary molar intrusion with fixed appliances and mini-implant anchorage studied in three dimensions.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>The intrusion of an overerupted maxillary molar using traditional orthodontic treatment is a real challenge. The aim of this study was to investigate the envelope of intrusive movements of a maxillary molar in cases using mini-implants as anchorage with partial or full-mouth fixed edgewise appliances. The cusp tips of the pretreatment and postintrusion dental casts were recorded by a three-dimensional (3D) digitizer. The 3D data of the serial dental casts were analyzed to distinguish the direction and magnitude of individual tooth movement. The mean intrusive movement of the maxillary first molars was three to four mm, with a maximum of over eight mm. For the adjacent maxillary second molars and second premolars, the amount of intrusion was two mm and 1-2 mm, respectively. This study demonstrated that significant true intrusion of maxillary molars could be obtained in a well-controlled manner by using fixed appliances with titanium mini-implants as bony anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>36048244</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Accuracy of palatal orthodontic mini-implants placed by conventionally or CAD/CAM-based surgical guides: a comparative in vitro study.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>To investigate and compare the transfer accuracy of five different surgical guides (SGs) for the insertion of orthodontic mini-implants (OMIs) in the anterior palate. Stereolithographic files of 10 maxillary patient models and their corresponding lateral cephalograms were virtually matched and used for planning the position of two parallel OMIs in the paramedian region of the anterior palate. For each patient model, three 3-dimensional (3D)-printed and two conventional SGs were manufactured from different materials, and a total of 96 OMIs were transferred to the anterior palates of the respective 50 molded resin models. The planned (T0) and the actual (T1) OMI positions were analyzed and compared after superimposition of the digitized models. The deviations between the OMI positions in T0 and T1 were described as the distance between the head and the tip, respectively, of each OMI in millimeters and the deviating angle between the OMI axes for each patient and SG. The conventionally manufactured SGs of Pattern Resin LS (GC Europe N.V., Leuven, Belgium) showed the highest linear and angular transfer accuracy for the insertion of OMIs. The highest deviations were found with the SGs made of IMPRIMO LC Splint (3D-printed; Scheu-Dental, Iserlohn, Germany) and Memosil 2 (conventional SG; Kulzer, Hanau, Germany). The 3D-printed SGs did not reach the accuracy of the conventional SGs made of Pattern Resin but may provide sufficient accuracy for palatal OMI placement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>23880281</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Endodontic and surgical treatment of root damage caused by orthodontic miniscrew placement.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Miniscrews are being increasingly used for anchorage control in orthodontics. Despite the concern over root damage caused by miniscrews, there are few reports of precise clinical evaluations and appropriate management of that damage. In the case presented herein, the root damage caused by the placement of miniscrews was repaired by root canal treatment and surgical intervention. A 44-year-old man received orthodontic treatment for intrusion of the left maxillary first molar with a miniscrew anchorage system. During that treatment, the miniscrews had fallen out and had to be reinserted more than 6 times in the same area. Two years later, the patient complained of a spontaneous pain in the maxillary left molar region. Although the patient received root canal treatment, intraoral sinus tracts could still be detected, and the patient's discomfort persisted. Periradicular surgery revealed that the persistent infection was related to root surface damage caused by orthodontic miniscrew placement. Healing was achieved by a combination of root canal treatment and surgical intervention. Scanning electron microscopy of the damaged distobuccal root apex revealed a mature biofilm consisting of a network of matrix that contained mostly rod-like and spherical bacteria. At a 12-month recall checkup, the patient was free of pain. A repeat periapical radiograph revealed reduction of the pretreatment radiolucent lesion. More careful planning of miniscrew placement is necessary to lessen the danger of root damage. Furthermore, a precise evaluation of both root and pulpal damage and careful consideration of the choice of optimal treatment modality are needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>21457456</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Stable region for maxillary dental cast superimposition in adults, studied with the aid of stable miniscrews.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>To identify a stable and reproducible reference region to superimpose serial maxillary dental models in adult extraction cases. Fifteen adult volunteers were enrolled. To reduce protrusion, bilateral maxillary first premolars were extracted in all volunteers. Each volunteer received six miniscrews, including two loaded miniscrews used to retract anterior teeth and four unloaded miniscrews. Impressions for maxillary models were taken at T1 (1 week after miniscrew placement) and T2 (17 months later). Dental models were created and then scanned using a laser scanner. Stability of the miniscrews was evaluated, and dental models were registered using stationary miniscrews. The palatal region, where deviation was within 0.5 mm in all subjects, was determined to be the stable region. Reproducibility of the new palatal region for 3D digital model superimposition was evaluated. Deviation of the medial 2/3 of the palatal region between the third rugae and the line in contact with the distal surface of the bilateral maxillary first molars was within 0.5 mm. Tooth movement of 15 subjects was measured to evaluate the validity of the new 3D superimposition method. Displacements were 8.18 ± 2.94 mm (central incisor) and 2.25 ± 0.73 mm (first molar) measured by miniscrew superimposition, while values of 7.81 ± 2.53 mm (central incisor) and 2.29 ± 1.03 mm (first molar) were measured using the 3D palatal vault regional superimposition method; no significant difference was observed. The medial 2/3 of the third rugae and the regional palatal vault dorsal to it is a stable region to register 3D digital models for evaluation of orthodontic tooth movement in adult patients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>19651334</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Rate of tooth movement under heavy and light continuous orthodontic forces.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>The aim of this study was to measure the rate and the amount of orthodontically induced tooth movement under heavy (300 g) and light (50 g) continuous forces with superelastic nickel-titanium closing coils over a defined time (12 weeks). Fourteen patients who required maxillary canine retraction into first premolar extraction sites as part of their orthodontic treatment completed this study. In a split-mouth design, precalibrated nickel-titanium closing coil springs delivering a force of 300 g or 50 g were used to distalize the canines after an alignment and stabilization period. Intraoral and maxillary cast measurements were made at the beginning of canine retraction (T0) and every 28 days for 84 days (T1, T2, T3) to assess total space closure, canine retraction rate, canine retraction and molar anchorage loss, and canine rotation. Statistical analysis showed that the amount of initial tooth movement (T0-T1) was not related to force magnitude; however, during the T1-T2 and T2-T3 periods, increased amounts and higher rates of tooth movement were found with heavy forces. These significantly increased the rate and the amount of canine retraction, but the adverse effects of loss of canine rotation control and anchorage were concomitantly increased. Light forces provided a greater percentage of canine retraction than heavy forces, with less strain on anchorage. Initial tooth movement would benefit from light forces. Heavier forces tend to increase the rate and the amount of canine retraction but lose their advantage because of unwanted clinical side effects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>25830388</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Measuring bone density at orthodontic miniscrew implantation sites using microcomputed tomography.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>This study was performed to determine the accuracy of measurements of bone mineral density (BMD) and cortical bone thickness (CBT) at miniscrew implantation sites in small animals and to verify the usefulness of in vivo microcomputed tomography (micro-CT). Rat femurs were scanned before and after placing miniscrews using in vivo micro-CT. The images were superimposed using a subtraction method with bone volume measurement software. At each screw site, the total BMD was calculated as the average BMD of a cylinder 1.6 mm in diameter and 2.0 mm in depth, while the cortical BMD was the average BMD of a cylinder 1.6 mm in diameter and 1.0 mm in depth. CBT was measured three times on transaxial images of the rat femurs, and the average value was used. All miniscrews were placed using the maximum torque, verified with a digital torque tester. To verify the usefulness and accuracy of in vivo micro-CT, CBT on micro-CT images was compared with that measured on histologic sections. Significant correlations were observed between placement torque and cortical BMD (R = 0.572), total BMD (R = 0.732), and CBT (R = 0.788). There was a significant correlation between CBT measured via field-emission scanning electron microscopy images and CBT measured with in vivo micro-CT (R = 0.974). The BMD over a narrow range can be measured accurately in small animals with high reproducibility of the trabecular structure using a combination of high-resolution in vivo micro-CT and image superimposition using a three-dimensional subtraction method.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>21435538</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Intrusion of supra-erupted molars using miniscrews: clinical success and root resorption.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Conventional orthodontic techniques do not intrude posterior teeth effectively, and almost all methods result in anterior extrusion rather than posterior intrusion. New absolute anchorages (miniscrews and miniplates) are said to make posterior tooth intrusion possible. The aim of this study was to evaluate the clinical success of a new method for molar intrusion with miniscrews and its probable accompanying side effects. Ten women with overerupted upper first molars participated in this study. Upper molar bands with brackets were cemented. Two miniscrews were placed, 1 in the mesiopalatal and another in the mesiobuccal aspect of the upper first molars; a spring made of 0.017 × 0.25-in titanium-molybdenum alloy (TMA) wire was used to apply 100 g of force through the attachments (50 g each side). Molar intrusion and external apical root resorption were evaluated by comparing parallel periapical radiographs with bite blocks at 3 intervals: beginning of treatment (T0), at the end of active treatment (T1), and 6 months after treatment completion (T2). The mean value of intrusion was 2.1 mm after completion of active treatment. On average, 0.4 ± 0.2 mm relapse had occurred during 6 months of retention, and the mean residual intrusion was 1.7 mm, which was statistically significant. Mean root resorption of 0.3 ± 0.2 mm for palatal root and 0.4 mm for mesiobuccal and distobuccal root was measured. Statistically significant intrusion (2.1 ± 0.9 mm) was obtained during active treatment. The mean value of relapse was 0.4 ± 0.2 mm, and the mean value for residual intrusion was 1.7 ± 0.6 mm. Minor apical root resorption occurred during treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>35631989</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Effects of Disinfection and Steam Sterilization on the Mechanical Properties of 3D SLA- and DLP-Printed Surgical Guides for Orthodontic Implant Placement.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Three-dimensional printed surgical guides increase the precision of orthodontic mini-implant placement. The purpose of this research was to investigate the effects of disinfection and of two types of autoclave sterilization on the mechanical properties of 3D printed surgical guides obtained via the SLA (stereolithography) and DLP (digital light processing) printing methods. A total of 96 standard specimens (48 SLA and 48 DLP) were printed to analyze the tensile and flexural properties of the materials. A total of 80 surgical guide (40 SLA and 40 DLP) specimens from each printing method were classified into four groups: CG (control group); G1, disinfected with 4% Gigasept (Gigasept Instru AF; Schülke &amp; Mayer Gmbh, Norderstedt, Germany); G2, autoclave-sterilized (121 °C); and G3, autoclave-sterilized (134 °C). Significant differences in the maximum compressive load were determined between the groups comprising the DLP-(p &lt; 0.001) and the SLA- (p &lt; 0.001) printed surgical guides. Groups G2 (p = 0.001) and G3 (p = 0.029) showed significant parameter modifications compared with the CG. Disinfection with 4% Gigasept (Gigasept Instru AF; Schülke &amp; Mayer Gmbh, Norderstedt, Germany) is suitable both for SLA- and DLP-printed surgical guides. Heat sterilization at both 121 °C and 134 °C modified the mechanical properties of the surgical guides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>38524017</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Comparing the Efficiency of Infrazygomatic Crest (IZC) Screws and Conventional Method for Anterior Retraction in Patients Undergoing Fixed Orthodontic Treatment for Class 2 Malocclusion: A Prospective Clinical Study.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Introduction In orthodontic treatment for class 2 malocclusion, conventional approaches involve extracting the upper first premolars and using methods like en masse retraction and extra-oral or intra-oral distalization. However, these often result in unintended forces and adverse effects. Contemporary techniques, such as maxillary arch distalization with mini-implants like infrazygomatic crest (IZC) implants, offer superior outcomes. IZC implants provide a safe, flexible, and effective site for implant placement, achieving a remarkable 93.7% success rate. Power arms enable precise control, allowing orthodontists to apply controlled forces for optimal tooth movement. This study aims to compare cephalometric parameters pre and post treatment using IZC/buccal shelf (BS) screws and conventional retraction, assessing the efficiency of IZC screws in maintaining arch length during teeth retraction. Methods In a split-mouth study at Yenepoya Dental College, 40 orthodontic patients aged 18-35 were divided into control (premolar extraction, anterior retraction) and study (third molar removal, IZC screw distalization) groups. The control group used a nitinol spring/E chain for retraction, while the study group employed IZC screw-assisted en masse distalization. Regular reviews and adjustments occurred, with radiographs and study models assessed after six months for cephalometric parameters and arch length. Results A significant difference was found in U1-SN (degree), L1-Apog (in mm), L1-NB (degree), and L1-NB (in mm) of pretreatment records, whereas all other measurements showed statistically similar values between conventional and IZC groups. Improvement was higher with the conventional group when compared with IZC groups in these measurements due to the extraction of the first premolars rather than third molar extraction and distalization. However, the IZC group also showed statistically significant improvement in cephalometric parameters such as U1-SN (degree), L1-Apog (in mm), L1-NB (degree), and L1-NB (in mm). Conclusion  The statistical analysis of radiographic and cast measurements in both the maxilla and mandible demonstrated a significant efficiency of IZC screws in teeth retraction while preserving arch length compared to conventional methods. Nevertheless, to strengthen the findings of our study, additional clinical investigations on IZC screws are warranted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>23592148</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Measurement of cortical bone thickness in adults by cone-beam computerized tomography for orthodontic miniscrews placement.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>The purpose of this study was to investigate the cortical bone thickness of the inter-dental area of both jaws for orthodontic miniscrew placement. The cone-beam computerized tomography images of 32 non-orthodontic adults with normal occlusion were taken to measure the cortical bone thickness in both jaws. One-way analysis of variance (ANOVA) was used to analyze the differences in cortical bone thickness. Buccal cortical bone in the mandible was thicker than that in the maxilla. In the maxilla, cortical bone thickness was thicker in the buccal side than in the palatal side. Buccal cortical bone thickness in the mandible was thickest at the site distal to the first molar, and in the maxilla it was thickest at the site mesial to the first molar, while in the palatal side of maxilla it was thickest at the site mesial to the second premolar. The changing pattern of cortical bone thickness varies at different sites. In the buccal side of maxilla, the thinnest cortical bone thickness was found to be at 4 mm level from the alveolar crest, while the thickest was at 10 mm level (except for the site mesial to the first premolar). The buccal cortical bone thickness at the sites mesial or distal to the first molar in the mandible and palatal cortical bone thickness of maxilla tended to increase with increasing distance from the alveolar bone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>27256526</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[Preliminary safety and stability assessment of orthodontic miniscrew implantation guided by surgical template based on cone-beam CT images].</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>To develop surgical templates for orthodontic miniscrew implantation based on cone-beam CT(CBCT)three-dimensional(3D)images and to evaluate the safety and stability of implantation guided by the templates. DICOM data obtained in patients who had CBCT scans taken were processed using Mimics software, and 3D images of teeth and maxillary bone were acquired. Meanwhile, 3D images of miniscrews were acquired using Solidworks software and processed with Mimics software. Virtual position of miniscrews was determined based on 3D images of teeth, bone, and miniscrews. 3D virtual templates were designed according to the virtual implantation plans. STL files were output and the real templates were fabricated with stereolithographic appliance(SLA). Postoperative CBCT scans were used to evaluate the implantation safety and the stability of miniscrews were investigated. All the templates were positioned accurately and kept stable throughout the implantation process. No root damage was found. The deviations were(1.73±0.65)mm at the corona, and(1.28±0.82)mm at the apex, respectively. The stability of miniscrews was fairly well. Surgical templates for miniscrew implantation could be acquired based on 3D CBCT images and fabricated with SLA. Implantation guided by these templates was safe and stable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>25875916</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Insertion torque recordings for the diagnosis of contact between orthodontic mini-implants and dental roots: protocol for a systematic review.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Hitting a dental root during the insertion of orthodontic mini-implants (OMIs) is a common adverse effect of this intervention. This condition can permanently damage these structures and can cause implant instability. Increased torque levels (index test) recorded during the insertion of OMIs may provide a more accurate and immediate diagnosis of implant-root contact (target condition) than radiographic imaging (reference standard). An accurate index test could reduce or eliminate X-ray exposure. These issues, the common use of OMIs, the high prevalence of the target condition, and because most OMIs are placed between roots warrant a systematic review. We will assess 1) the diagnostic accuracy and the adverse effects of the index test, 2) whether OMIs with root contact have higher insertion torque values than those without, and 3) whether intermediate torque values have clinical diagnostic utility. The Preferred Reporting Items for Systematic review and Meta-Analysis Protocols (PRISMA-P) 2015 statement was used as a the guideline for reporting this protocol. Inserting implants deliberately into dental roots of human participants would not be approved by ethical review boards and adverse effects of interventions are generally underreported. We will therefore apply broad spectrum eligibility criteria, which will include clinical, animal and cadaver models. Not including these models could slow down knowledge translation. Both randomized and non-randomized research studies will be included. Comparisons of interest and subgroups are pre-specified. We will conduct searches in MEDLINE and more than 40 other electronic databases. We will search the grey literature and reference lists and hand-search ten journals. All methodological procedures will be conducted by three reviewers. Study selection, data extraction and analyses, and protocols for contacting authors and resolving conflicts between reviewers are described. Designed specific risk of bias tools will be tailored to the research question. Different research models will be analysed separately. Parameters for exploring statistical heterogeneity and conducting meta-analyses are pre-specified. The quality of evidence for outcomes will be assessed through the Grading of Recommendations Assessment, Development and Evaluation (GRADE) approach. The findings of this systematic review will be useful for patients, clinicians, researchers, guideline developers, policymakers, and surgical companies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>30982181</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Accuracy of orthodontic mini-implants placed at the anterior palate by tooth-borne or gingiva-borne guide support: a cadaveric study.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>The aim of this cadaveric study was to measure the transfer accuracy of orthodontic mini-implant placement at the anterior palate depending on tooth-borne or gingiva-borne guide support. Forty orthodontic mini-implants were placed paramedian in the anterior palate of 20 cadaver heads using tooth-borne (TBG) or gingiva-borne guides (GBG). Placement was planned after superimposition of lateral cephalograms and corresponding plaster models. After mini-implant placement, digital impressions were taken with scanbodies. For the measurement of both linear and angle deviations, virtual planning models and postoperative oral scans were compared using automatic surface registration based on an iterative closest point algorithm. Statistical differences between TBG and GBG were detected for lateral deviations 0.88 mm (SD 0.46) versus 1.65 mm (SD 1.03) (p = .004) and sagittal angular deviations 3.67° (SD 2.25) versus 6.46° (SD 5.5) (p = .043). No differences were found for vertical deviations 2.34 mm (SD 0.74) versus 2.14 mm (SD 0.73) (p = .40) and transverse angular deviations 3.60° (SD 2.89) versus 4.06° (SD 3.04) (p = .62). The use of surgical guides based on silicone provides sufficient control of orthodontic mini-implant placement and is comparable to CAD/CAM templates. However, when compared with guided dental implantology, the planned mini-implant position is more inaccurate. However, accuracy can be significantly increased by guide extension involving the teeth. Clinical investigations have to prove if the accuracy is sufficient for receiving an orthodontic appliance. The use of lateral cephalograms and plaster models for silicone guide construction leads to lower radiation exposure and provides sufficient accuracy for palatal orthodontic mini-implant placement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>16279822</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Maxillary molar intrusion with fixed appliances and mini-implant anchorage studied in three dimensions.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>The intrusion of an overerupted maxillary molar using traditional orthodontic treatment is a real challenge. The aim of this study was to investigate the envelope of intrusive movements of a maxillary molar in cases using mini-implants as anchorage with partial or full-mouth fixed edgewise appliances. The cusp tips of the pretreatment and postintrusion dental casts were recorded by a three-dimensional (3D) digitizer. The 3D data of the serial dental casts were analyzed to distinguish the direction and magnitude of individual tooth movement. The mean intrusive movement of the maxillary first molars was three to four mm, with a maximum of over eight mm. For the adjacent maxillary second molars and second premolars, the amount of intrusion was two mm and 1-2 mm, respectively. This study demonstrated that significant true intrusion of maxillary molars could be obtained in a well-controlled manner by using fixed appliances with titanium mini-implants as bony anchorage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>26672700</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Biology of biomechanics: Finite element analysis of a statically determinate system to rotate the occlusal plane for correction of a skeletal Class III open-bite malocclusion.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>In the absence of adequate animal or in-vitro models, the biomechanics of human malocclusion must be studied indirectly. Finite element analysis (FEA) is emerging as a clinical technology to assist in diagnosis, treatment planning, and retrospective analysis. The hypothesis tested is that instantaneous FEA can retrospectively simulate long-term mandibular arch retraction and occlusal plane rotation for the correction of a skeletal Class III malocclusion. Seventeen published case reports were selected of patients treated with statically determinate mechanics using posterior mandible or infrazygomatic crest bone screw anchorage to retract the mandibular arch. Two-dimensional measurements were made for incisor and molar movements, mandibular arch rotation, and retraction relative to the maxillary arch. A patien